--- a/VerveStacks_DEU_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_DEU_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17D54363-12CD-4138-AC4A-09F08AF3AF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B93EDC20-29F8-431E-9F97-7226DBE468C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2990,6 +2990,378 @@
     <t>connecting solar and wind to buses in grid cell DEU_54</t>
   </si>
   <si>
+    <t>distr_solelc_won-DEU_0049</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_49</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0041</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_41</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0133</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_133</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0134</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_134</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0060</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_60</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0108</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_108</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0148</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_148</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0178</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_178</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0072</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_72</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0015</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_15</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0183</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_183</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0112</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_112</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0078</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_78</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0012</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_12</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0126</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_126</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0007</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_7</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0157</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_157</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0083</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_83</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0029</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_29</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0000</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_0</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0057</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_57</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0163</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_163</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0099</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_99</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0016</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_16</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0152</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_152</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0151</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_151</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0102</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_102</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0010</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_10</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0122</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_122</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0011</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_11</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0008</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_8</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0169</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_169</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0092</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_92</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0095</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_95</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0084</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_84</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0044</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_44</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0090</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_90</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0005</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_5</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0082</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_82</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0161</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_161</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0125</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_125</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0174</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_174</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0182</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_182</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0165</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_165</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0154</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_154</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0077</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_77</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0107</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_107</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0066</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_66</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0043</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_43</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0175</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_175</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0114</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_114</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0069</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_69</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0179</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_179</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0050</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_50</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0124</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_124</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0045</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_45</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0156</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_156</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0129</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_129</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_20</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0052</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_52</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0053</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_53</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0181</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_181</t>
+  </si>
+  <si>
     <t>distr_solelc_won-DEU_0180</t>
   </si>
   <si>
@@ -3062,6 +3434,240 @@
     <t>connecting solar and wind to buses in grid cell DEU_35</t>
   </si>
   <si>
+    <t>distr_solelc_won-DEU_0127</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_127</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0042</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_42</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0076</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_76</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0155</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_155</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0103</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_103</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_2</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0118</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_118</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0142</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_142</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0037</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_37</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0166</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_166</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0119</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_119</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0187</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_187</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0115</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_115</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0040</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_40</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0018</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_18</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0073</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_73</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0104</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_104</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0131</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_131</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0064</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_64</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0186</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_186</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0105</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_105</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0088</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_88</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0089</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_89</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_23</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0137</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_137</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0036</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_36</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0188</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_188</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0061</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_61</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0113</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_113</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_4</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0144</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_144</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0177</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_177</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0075</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_75</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0106</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_106</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0039</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_39</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0162</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_162</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0167</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_167</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_6</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_9</t>
+  </si>
+  <si>
     <t>distr_solelc_won-DEU_0014</t>
   </si>
   <si>
@@ -3122,6 +3728,264 @@
     <t>connecting solar and wind to buses in grid cell DEU_135</t>
   </si>
   <si>
+    <t>distr_solelc_won-DEU_0128</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_128</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0001</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_1</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0184</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_184</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0085</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_85</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0071</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_71</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0138</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_138</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0087</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_87</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0130</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_130</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0159</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_159</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0038</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_38</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0098</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_98</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0047</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_47</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0034</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_34</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0110</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_110</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0074</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_74</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0100</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_100</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0117</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_117</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0139</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_139</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0146</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_146</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0121</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_121</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0170</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_170</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0094</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_94</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0062</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_62</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0028</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_28</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_13</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0093</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_93</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0080</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_80</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0055</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_55</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0101</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_101</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0059</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_59</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0091</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_91</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_19</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0147</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_147</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0171</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_171</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0067</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_67</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0024</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_24</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0021</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_21</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0081</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_81</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0086</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_86</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0070</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_70</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0120</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_120</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0143</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_143</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0158</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_158</t>
+  </si>
+  <si>
     <t>distr_solelc_won-DEU_0111</t>
   </si>
   <si>
@@ -3200,870 +4064,6 @@
     <t>connecting solar and wind to buses in grid cell DEU_168</t>
   </si>
   <si>
-    <t>distr_solelc_won-DEU_0127</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_127</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0042</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_42</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0076</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_76</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0155</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_155</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0103</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_103</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_2</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0118</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_118</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0142</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_142</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0037</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_37</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0166</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_166</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0119</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_119</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0187</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_187</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0115</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_115</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0128</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_128</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0001</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_1</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0184</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_184</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0085</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_85</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0071</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_71</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0138</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_138</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0087</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_87</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0015</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_15</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0183</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_183</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0112</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_112</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0078</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_78</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0012</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_12</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0126</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_126</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0007</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_7</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0157</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_157</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0083</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_83</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0084</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_84</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0044</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_44</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0090</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_90</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0005</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_5</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0082</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_82</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0161</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_161</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0125</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_125</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0174</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_174</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0182</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_182</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0165</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_165</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0154</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_154</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0077</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_77</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0107</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_107</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0067</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_67</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0024</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_24</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0021</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_21</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0081</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_81</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0086</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_86</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0070</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_70</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0120</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_120</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0143</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_143</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0158</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_158</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0062</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_62</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0028</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_28</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_13</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0093</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_93</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0080</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_80</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0055</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_55</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0101</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_101</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0059</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_59</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0091</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_91</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_19</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0147</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_147</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0171</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_171</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0049</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_49</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0041</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_41</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0133</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_133</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0134</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_134</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0060</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_60</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0108</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_108</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0148</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_148</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0178</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_178</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0072</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_72</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0130</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_130</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0159</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_159</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0038</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_38</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0098</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_98</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0047</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_47</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0034</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_34</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0110</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_110</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0074</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_74</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0100</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_100</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0117</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_117</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0139</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_139</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0146</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_146</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0121</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_121</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0170</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_170</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0094</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_94</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_4</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0144</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_144</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0177</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_177</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0075</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_75</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0106</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_106</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0039</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_39</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0162</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_162</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0167</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_167</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_6</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_9</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0029</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_29</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0000</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_0</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0057</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_57</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0163</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_163</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0099</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_99</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0016</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_16</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0152</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_152</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0151</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_151</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0102</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_102</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0010</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_10</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0122</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_122</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0011</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_11</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0008</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_8</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0169</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_169</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0092</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_92</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0095</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_95</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0040</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_40</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0018</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_18</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0073</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_73</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0104</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_104</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0131</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_131</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0064</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_64</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0186</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_186</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0105</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_105</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0088</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_88</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0089</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_89</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_23</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0137</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_137</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0036</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_36</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0188</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_188</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0061</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_61</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0113</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_113</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0066</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_66</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0043</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_43</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0175</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_175</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0114</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_114</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0069</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_69</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0179</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_179</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0050</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_50</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0124</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_124</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0045</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_45</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0156</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_156</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0129</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_129</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0020</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_20</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0052</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_52</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0053</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_53</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0181</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_181</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
@@ -4121,6 +4121,372 @@
     <t>e_w31367936-220</t>
   </si>
   <si>
+    <t>elc_won-DEU_0049,elc_spv-DEU_0049</t>
+  </si>
+  <si>
+    <t>e_DE17-380,e_w24493551-380,e_w44717036-380,e_w871646309-380,e_w951273401-380,e_w951773852-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0041,elc_spv-DEU_0041</t>
+  </si>
+  <si>
+    <t>e_DE174-220,e_DE176-220,e_DE178-380,e_DE180-220,e_DE181-380,e_DE182-380,e_r17591073-220,e_w152924498-220,e_w152924498-380,e_w152924508-220,e_w152973139-220,e_w152973139-380,e_w156676050-220,e_w160929097-220,e_w207248812-220,e_w207248812-380,e_w259561755-380,e_w409305507-220,e_w46584363-220,e_w46584363-380,e_w48057110-380,e_w600395952-220,e_w600395952-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0133,elc_spv-DEU_0133</t>
+  </si>
+  <si>
+    <t>e_DE18-220,e_DE18-380,e_DE19-380,e_w59707532-220,e_w59707532-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0134,elc_spv-DEU_0134</t>
+  </si>
+  <si>
+    <t>e_w234171369-380,e_w274603394-380,e_w517421342-220,e_w517421342-380,e_w851299584-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0060,elc_spv-DEU_0060</t>
+  </si>
+  <si>
+    <t>e_w23881272-220,e_w24042358-380,e_w42372159-380,e_w42410916-220,e_w42410916-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0108,elc_spv-DEU_0108</t>
+  </si>
+  <si>
+    <t>e_w24705761-220,e_w24705761-380,e_w28613721-380,e_w954971276-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0148,elc_spv-DEU_0148</t>
+  </si>
+  <si>
+    <t>e_w40621568-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0178,elc_spv-DEU_0178</t>
+  </si>
+  <si>
+    <t>e_w1091984573-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0072,elc_spv-DEU_0072</t>
+  </si>
+  <si>
+    <t>e_w41389594-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0015,elc_spv-DEU_0015</t>
+  </si>
+  <si>
+    <t>e_DE100-220,e_DE100-380,e_DE102-220,e_DE102-380,e_DE66-220,e_DE66-380,e_DE68-220,e_DE68-380,e_DE69-220,e_DE69-380,e_DE72-220,e_DE75-380,e_DE76-380,e_DE78-220,e_DE80-220,e_DE80-380,e_DE81-220,e_DE82-220,e_DE83-220,e_DE84-220,e_DE86-220,e_DE87-220,e_DE87-380,e_DE89-220,e_DE89-380,e_DE92-220,e_DE96-220,e_DE96-380,e_DE98-220,e_w1076001174-220,e_w1076001174-380,e_w113546939-220,e_w113546939-380,e_w121199242-220,e_w121199242-380,e_w1303270458-220,e_w1303270458-380,e_w150267232-220,e_w156973363-220,e_w22944791-220,e_w22964137-380,e_w23022100-220,e_w23022100-380,e_w23067006-380,e_w24280460-380,e_w24415232-220,e_w24921206-220,e_w24921206-380,e_w25051880-220,e_w26291794-380,e_w275138524-380,e_w28452784-220,e_w29077623-220,e_w29077623-380,e_w311444691-380,e_w32472806-380,e_w35763480-220,e_w35763480-380,e_w38584673-220,e_w425100082-380,e_w59925390-220,e_w59925390-380,e_w63114179-220,e_w63114179-380,e_w66038431-220,e_w68549340-220,e_w68549340-380,e_w698870101-220,e_w787840119-220,e_w799361667-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0183,elc_spv-DEU_0183</t>
+  </si>
+  <si>
+    <t>e_DE58-380,e_DE99-380,e_w157806991-380,e_w30164703-380,e_w58429825-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0112,elc_spv-DEU_0112</t>
+  </si>
+  <si>
+    <t>e_w143882655-220,e_w143882655-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0078,elc_spv-DEU_0078</t>
+  </si>
+  <si>
+    <t>e_w148446247-380,e_w29309786-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0012,elc_spv-DEU_0012</t>
+  </si>
+  <si>
+    <t>e_w154869247-220,e_w395847307-220,e_w395847307-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0126,elc_spv-DEU_0126</t>
+  </si>
+  <si>
+    <t>e_w93341407-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0007,elc_spv-DEU_0007</t>
+  </si>
+  <si>
+    <t>e_w979801144-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0157,elc_spv-DEU_0157</t>
+  </si>
+  <si>
+    <t>e_w78441561-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0083,elc_spv-DEU_0083</t>
+  </si>
+  <si>
+    <t>e_w23816140-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0029,elc_spv-DEU_0029</t>
+  </si>
+  <si>
+    <t>e_DE109-220,e_DE132-220,e_w132814303-220,e_w83916207-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0000,elc_spv-DEU_0000</t>
+  </si>
+  <si>
+    <t>e_DE175-220,e_DE177-220,e_w82773910-220,e_w82773910-380,e_w82773910-400,e_w89215122-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0057,elc_spv-DEU_0057</t>
+  </si>
+  <si>
+    <t>e_DE184-380,e_DE185-380,e_DE186-380,e_DE187-380,e_DE188-380,e_DE189-380,e_DE190-380,e_DE191-380,e_DE192-380,e_DE193-380,e_w147878692-380,e_w22960899-380,e_w25786404-220,e_w25786404-380,e_w37721677-380,e_w41334805-220,e_w41334805-380,e_w43688805-220,e_w43688805-380,e_w48428875-380,e_w97825259-220,e_w97825259-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0163,elc_spv-DEU_0163</t>
+  </si>
+  <si>
+    <t>e_DE21-220,e_DE25-380,e_w11500045-380,e_w27149550-220,e_w27149550-380,e_w30132758-380,e_w30303506-380,e_w30309989-220,e_w43163132-380,e_w46615737-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0099,elc_spv-DEU_0099</t>
+  </si>
+  <si>
+    <t>e_DE36-220,e_w24258096-380,e_w24272339-380,e_w24272541-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0016,elc_spv-DEU_0016</t>
+  </si>
+  <si>
+    <t>e_DE39-220,e_DE41-380,e_DE45-380,e_DE50-380,e_DE54-380,e_w844075808-380,e_w952346322-380,e_w979801144-220,e_w979801144-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0152,elc_spv-DEU_0152</t>
+  </si>
+  <si>
+    <t>e_DE5-380,e_w32063539-380,e_w32318130-220,e_w940919943</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0151,elc_spv-DEU_0151</t>
+  </si>
+  <si>
+    <t>e_w1094015892-220,e_w1094015892-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0102,elc_spv-DEU_0102</t>
+  </si>
+  <si>
+    <t>e_w1102237380-220,e_w1102237380-380,e_w1191459479-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0010,elc_spv-DEU_0010</t>
+  </si>
+  <si>
+    <t>e_w152018146-220,e_w152018146-380,e_w156402422-220,e_w207756597-220,e_w54359256-220,e_w54359256-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0122,elc_spv-DEU_0122</t>
+  </si>
+  <si>
+    <t>e_w24158385-220,e_w26245195-220,e_w26245195-380,e_w5404079-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0011,elc_spv-DEU_0011</t>
+  </si>
+  <si>
+    <t>e_w42097854-220,e_w42097854-380,e_w66764943-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0008,elc_spv-DEU_0008</t>
+  </si>
+  <si>
+    <t>e_w672738029-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0169,elc_spv-DEU_0169</t>
+  </si>
+  <si>
+    <t>e_w24976300-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0092,elc_spv-DEU_0092</t>
+  </si>
+  <si>
+    <t>e_w24705761-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0095,elc_spv-DEU_0095</t>
+  </si>
+  <si>
+    <t>e_w948341123-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0084,elc_spv-DEU_0084</t>
+  </si>
+  <si>
+    <t>e_DE10-380,e_DE11-380,e_DE12-380,e_w11285720-380,e_w24502420-380,e_w881636329-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0044,elc_spv-DEU_0044</t>
+  </si>
+  <si>
+    <t>e_DE146-380,e_DE152-380,e_w1245826064-380,e_w1245867884-380,e_w202747445-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0090,elc_spv-DEU_0090</t>
+  </si>
+  <si>
+    <t>e_DE200-380,e_w1093896544-380,e_w31105067-380,e_w88945213-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0005,elc_spv-DEU_0005</t>
+  </si>
+  <si>
+    <t>e_DE62-220,e_DE62-380,e_DE67-220,e_DE67-380,e_DE70-220,e_DE70-380,e_DE73-220,e_DE73-380,e_DE74-220,e_DE74-380,e_DE77-220,e_DE77-380,e_DE79-220,e_DE93-220,e_DE97-220,e_w23084417-220,e_w23380800-220,e_w23380800-380,e_w24462228-220,e_w24462317-220,e_w24462426-220,e_w24462426-380,e_w24478889-220,e_w24478889-380,e_w24479003-220,e_w24479003-380,e_w311444692-380,e_w35818134-220,e_w35818137-220,e_w37554416-220,e_w92024105-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0082,elc_spv-DEU_0082</t>
+  </si>
+  <si>
+    <t>e_w23682013-220,e_w23816140-220,e_w274621059-220,e_w33042984-220,e_w787265962-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0161,elc_spv-DEU_0161</t>
+  </si>
+  <si>
+    <t>e_w28729619-380,e_w398680313-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0125,elc_spv-DEU_0125</t>
+  </si>
+  <si>
+    <t>e_w28956649-220,e_w28956649-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0174,elc_spv-DEU_0174</t>
+  </si>
+  <si>
+    <t>e_w940922557-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0182,elc_spv-DEU_0182</t>
+  </si>
+  <si>
+    <t>e_w941805476-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0165,elc_spv-DEU_0165</t>
+  </si>
+  <si>
+    <t>e_w947118608-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0154,elc_spv-DEU_0154</t>
+  </si>
+  <si>
+    <t>e_DE206-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0077,elc_spv-DEU_0077</t>
+  </si>
+  <si>
+    <t>e_w148446247-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0107,elc_spv-DEU_0107</t>
+  </si>
+  <si>
+    <t>e_w24768051-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0066,elc_spv-DEU_0066</t>
+  </si>
+  <si>
+    <t>e_DE15-220,e_w229565743-220,e_w28812249-220,e_w955268863-220,e_w955268863-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0043,elc_spv-DEU_0043</t>
+  </si>
+  <si>
+    <t>e_DE159-380,e_DE160-220,e_DE161-380,e_DE162-380,e_w169244940-220,e_w169244940-380,e_w23641079-220,e_w23641079-380,e_w38661452-380,e_w4826893-220,e_w62061952-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0175,elc_spv-DEU_0175</t>
+  </si>
+  <si>
+    <t>e_DE22-220,e_DE22-380,e_DE23-220,e_DE23-380,e_DE24-220,e_DE24-380,e_DE26-380,e_DE27-220,e_DE27-380,e_w22973052-220,e_w22973070-220,e_w22973070-380,e_w30954714-380,e_w940636813-220,e_w940636813-380,e_w942448206-220,e_w942448206-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0114,elc_spv-DEU_0114</t>
+  </si>
+  <si>
+    <t>e_DE44-380,e_w26474759-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0069,elc_spv-DEU_0069</t>
+  </si>
+  <si>
+    <t>e_w1071504343-380,e_w603661085-380,e_w907539360-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0179,elc_spv-DEU_0179</t>
+  </si>
+  <si>
+    <t>e_w1091984573-220,e_w1091984573-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0050,elc_spv-DEU_0050</t>
+  </si>
+  <si>
+    <t>e_w1134105414-380,e_w157421333-220,e_w266684854-380,e_w32076853-220,e_w32076853-380,e_w42872354-220,e_w829116805-220,e_w829116805-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0124,elc_spv-DEU_0124</t>
+  </si>
+  <si>
+    <t>e_w137602559-220,e_w137602559-380,e_w24759324-220,e_w24768051-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0045,elc_spv-DEU_0045</t>
+  </si>
+  <si>
+    <t>e_w42799487-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0156,elc_spv-DEU_0156</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0129,elc_spv-DEU_0129</t>
+  </si>
+  <si>
+    <t>e_w29713902-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0020,elc_spv-DEU_0020</t>
+  </si>
+  <si>
+    <t>e_w559702819-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0052,elc_spv-DEU_0052</t>
+  </si>
+  <si>
+    <t>e_w603661085-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0053,elc_spv-DEU_0053</t>
+  </si>
+  <si>
+    <t>e_w946969736-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0181,elc_spv-DEU_0181</t>
+  </si>
+  <si>
     <t>elc_won-DEU_0180,elc_spv-DEU_0180</t>
   </si>
   <si>
@@ -4193,6 +4559,237 @@
     <t>e_w29420322-220</t>
   </si>
   <si>
+    <t>elc_won-DEU_0127,elc_spv-DEU_0127</t>
+  </si>
+  <si>
+    <t>e_DE157-380,e_DE158-380,e_w93341407-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0042,elc_spv-DEU_0042</t>
+  </si>
+  <si>
+    <t>e_DE165-380,e_DE168-380,e_w1223405794-220,e_w1223405794-380,e_w147521567-220,e_w147521567-380,e_w149987048-220,e_w149987048-380,e_w23284340-220,e_w23284340-380,e_w24685992-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0076,elc_spv-DEU_0076</t>
+  </si>
+  <si>
+    <t>e_DE169-220,e_w24765111-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0155,elc_spv-DEU_0155</t>
+  </si>
+  <si>
+    <t>e_DE201-220,e_DE203-220,e_DE204-220,e_DE206-220,e_w24976300-220,e_w24976300-380,e_w91086220-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0103,elc_spv-DEU_0103</t>
+  </si>
+  <si>
+    <t>e_DE4-220,e_w27124619-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0002,elc_spv-DEU_0002</t>
+  </si>
+  <si>
+    <t>e_w1024536785-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0118,elc_spv-DEU_0118</t>
+  </si>
+  <si>
+    <t>e_w275466323,e_w275466323-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0142,elc_spv-DEU_0142</t>
+  </si>
+  <si>
+    <t>e_w29084374-220,e_w29084374-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0037,elc_spv-DEU_0037</t>
+  </si>
+  <si>
+    <t>e_w31367940-220,e_w31367940-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0166,elc_spv-DEU_0166</t>
+  </si>
+  <si>
+    <t>e_w39688875-220,e_w515358077-380,e_w941453716-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0119,elc_spv-DEU_0119</t>
+  </si>
+  <si>
+    <t>e_w275466323-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0187,elc_spv-DEU_0187</t>
+  </si>
+  <si>
+    <t>e_w170123812-400</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0115,elc_spv-DEU_0115</t>
+  </si>
+  <si>
+    <t>e_w26474759-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0040,elc_spv-DEU_0040</t>
+  </si>
+  <si>
+    <t>e_DE183-220,e_w152261133-220,e_w152261133-380,e_w254326606-380,e_w32151621-220,e_w32725957-220,e_w32725958-220,e_w32731290-220,e_w32966636-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0018,elc_spv-DEU_0018</t>
+  </si>
+  <si>
+    <t>e_DE20-380,e_w1280840211-380,e_w142487746-380,e_w206289192-380,e_w32042992-380,e_w797009308-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0073,elc_spv-DEU_0073</t>
+  </si>
+  <si>
+    <t>e_DE202-220,e_DE202-380,e_DE205-220,e_DE205-380,e_w26404600-380,e_w41389594-220,e_w41389594-380,e_w85523877-220,e_w85523877-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0104,elc_spv-DEU_0104</t>
+  </si>
+  <si>
+    <t>e_DE211-220,e_DE212-220,e_w68532663-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0131,elc_spv-DEU_0131</t>
+  </si>
+  <si>
+    <t>e_DE47-220,e_w26472665-220,e_w26472665-380,e_w943939310-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0064,elc_spv-DEU_0064</t>
+  </si>
+  <si>
+    <t>e_DE49-380,e_w23135618-220,e_w24413992-380,e_w28397771-220,e_w288305056-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0186,elc_spv-DEU_0186</t>
+  </si>
+  <si>
+    <t>e_w170123812-220,e_w170123812-380,e_w170123812-400</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0105,elc_spv-DEU_0105</t>
+  </si>
+  <si>
+    <t>e_w23907283-380,e_w24237879-220,e_w30613895-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0088,elc_spv-DEU_0088</t>
+  </si>
+  <si>
+    <t>e_w57727004-220,e_w57727004-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0089,elc_spv-DEU_0089</t>
+  </si>
+  <si>
+    <t>e_w683227471-380,e_w77038371-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0023,elc_spv-DEU_0023</t>
+  </si>
+  <si>
+    <t>e_w82130902-225,e_w933248930-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0137,elc_spv-DEU_0137</t>
+  </si>
+  <si>
+    <t>e_w75865676-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0036,elc_spv-DEU_0036</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0188,elc_spv-DEU_0188</t>
+  </si>
+  <si>
+    <t>e_w1222597066-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0061,elc_spv-DEU_0061</t>
+  </si>
+  <si>
+    <t>e_w156673636-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0113,elc_spv-DEU_0113</t>
+  </si>
+  <si>
+    <t>e_w32690742-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0004,elc_spv-DEU_0004</t>
+  </si>
+  <si>
+    <t>e_DE106-220,e_DE107-220,e_DE107-380,e_DE110-220,e_DE110-380,e_DE112-380,e_DE113-220,e_DE114-380,e_DE117-380,e_DE125-220,e_DE125-380,e_DE127-380,e_DE128-380,e_DE131-220,e_DE133-380,e_w1040551074-220,e_w188276460-220,e_w188276460-380,e_w23084554-220,e_w23084554-380,e_w24267175-220,e_w24479984-220,e_w24479984-380,e_w24799890-220,e_w24799890-380,e_w24815262-220,e_w24839976-220,e_w24839976-380,e_w26927264-380,e_w27919734-220,e_w27919734-380,e_w31762305-220,e_w49577401-220,e_w49577401-380,e_w91854336-220,e_w91854336-380,e_w92877635-220,e_w93278553-220,e_w95434457-220,e_w95434457-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0144,elc_spv-DEU_0144</t>
+  </si>
+  <si>
+    <t>e_DE142-380,e_w167352587-220,e_w173112252-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0177,elc_spv-DEU_0177</t>
+  </si>
+  <si>
+    <t>e_w1222597066-220,e_w1222597066-380,e_w30039908-220,e_w30039908-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0075,elc_spv-DEU_0075</t>
+  </si>
+  <si>
+    <t>e_w143854536-380,e_w31653753-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0106,elc_spv-DEU_0106</t>
+  </si>
+  <si>
+    <t>e_w18629425-220,e_w18629425-380,e_w53378027-380,e_w76246159-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0039,elc_spv-DEU_0039</t>
+  </si>
+  <si>
+    <t>e_w26814283-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0162,elc_spv-DEU_0162</t>
+  </si>
+  <si>
+    <t>e_w29331499-220,e_w29331499-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0167,elc_spv-DEU_0167</t>
+  </si>
+  <si>
+    <t>e_w946710698-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0006,elc_spv-DEU_0006</t>
+  </si>
+  <si>
+    <t>e_DE62-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0009,elc_spv-DEU_0009</t>
+  </si>
+  <si>
+    <t>e_w156402422-220</t>
+  </si>
+  <si>
     <t>elc_won-DEU_0014,elc_spv-DEU_0014</t>
   </si>
   <si>
@@ -4253,6 +4850,249 @@
     <t>e_w234171369-380</t>
   </si>
   <si>
+    <t>elc_won-DEU_0128,elc_spv-DEU_0128</t>
+  </si>
+  <si>
+    <t>e_DE151-220,e_w1086825107-220,e_w1086825107-380,e_w148211527-380,e_w156673637-220,e_w156673637-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0001,elc_spv-DEU_0001</t>
+  </si>
+  <si>
+    <t>e_DE164-220,e_DE167-380,e_DE170-380,e_DE172-220,e_DE172-380,e_DE173-220,e_w145680894-220,e_w151967290-220,e_w151967290-380,e_w151967291-220,e_w151967291-380,e_w89176939-220,e_w89176956-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0184,elc_spv-DEU_0184</t>
+  </si>
+  <si>
+    <t>e_DE46-380,e_w52983550-380,e_w941198517-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0085,elc_spv-DEU_0085</t>
+  </si>
+  <si>
+    <t>e_DE7-220,e_DE8-380,e_w1107961833-380,e_w22720647-220,e_w22720647-380,e_w25306938-380,e_w28008024-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0071,elc_spv-DEU_0071</t>
+  </si>
+  <si>
+    <t>e_w31131320-220,e_w31131320-380,e_w31131325-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0138,elc_spv-DEU_0138</t>
+  </si>
+  <si>
+    <t>e_w75865676-220,e_w91080806-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0087,elc_spv-DEU_0087</t>
+  </si>
+  <si>
+    <t>e_w907539360-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0130,elc_spv-DEU_0130</t>
+  </si>
+  <si>
+    <t>e_DE103-380,e_w29713902-380,e_w32690742-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0159,elc_spv-DEU_0159</t>
+  </si>
+  <si>
+    <t>e_DE149-380,e_w1081302145-220,e_w109917397-380,e_w166604822-380,e_w36183042-380,e_w943135226-220,e_w943135226-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0038,elc_spv-DEU_0038</t>
+  </si>
+  <si>
+    <t>e_DE207-380,e_DE208-380,e_DE209-380,e_w35954395-380,e_w42049947-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0098,elc_spv-DEU_0098</t>
+  </si>
+  <si>
+    <t>e_DE40-220,e_DE43-220,e_w151507370-220,e_w24262656-220,e_w24262656-380,e_w28227099-220,e_w30017786-220,e_w953757606-380,e_w953757608-220,e_w953757608-380,e_w97857512-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0047,elc_spv-DEU_0047</t>
+  </si>
+  <si>
+    <t>e_DE42-220,e_DE51-220,e_DE52-220,e_w24230738-380,e_w26383042-380,e_w39229429-380,e_w957746797-220,e_w957746797-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0034,elc_spv-DEU_0034</t>
+  </si>
+  <si>
+    <t>e_w1128250707-220,e_w1128250707-380,e_w23744346-220,e_w26455019-220,e_w29420322-220,e_w31024391-220,e_w31024391-380,e_w883768276-380,e_w883768277-380,e_w883928228-380,e_w883928229-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0110,elc_spv-DEU_0110</t>
+  </si>
+  <si>
+    <t>e_w24757392-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0074,elc_spv-DEU_0074</t>
+  </si>
+  <si>
+    <t>e_w26403575-380,e_w42050342-220,e_w42050342-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0100,elc_spv-DEU_0100</t>
+  </si>
+  <si>
+    <t>e_w28343121-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0117,elc_spv-DEU_0117</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0139,elc_spv-DEU_0139</t>
+  </si>
+  <si>
+    <t>e_w77694901-220,e_w77697810-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0146,elc_spv-DEU_0146</t>
+  </si>
+  <si>
+    <t>e_w946025110-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0121,elc_spv-DEU_0121</t>
+  </si>
+  <si>
+    <t>e_DE212-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0170,elc_spv-DEU_0170</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0094,elc_spv-DEU_0094</t>
+  </si>
+  <si>
+    <t>e_DE163-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0062,elc_spv-DEU_0062</t>
+  </si>
+  <si>
+    <t>e_DE121-380,e_w156673636-380,e_w41072584-380,e_w41232144-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0028,elc_spv-DEU_0028</t>
+  </si>
+  <si>
+    <t>e_DE135-220,e_DE137-220,e_DE137-380,e_DE140-380,e_DE143-380,e_DE145-220,e_DE147-380,e_DE148-220,e_DE148-380,e_DE150-380,e_w152403632-220,e_w152403632-380,e_w89043564-220,e_w89043564-380,e_w90148336-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0013,elc_spv-DEU_0013</t>
+  </si>
+  <si>
+    <t>e_DE138-220,e_DE138-380,e_DE139-220,e_DE139-380,e_DE144-380,e_DE153-380,e_DE154-380,e_w22765517-220,e_w22765517-380,e_w22766160-220,e_w22766160-380,e_w22767509-220,e_w22767509-380,e_w22796434-220,e_w26777313-380,e_w29374542-220,e_w32148946-220,e_w42423415-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0093,elc_spv-DEU_0093</t>
+  </si>
+  <si>
+    <t>e_DE163-220,e_w108797675-380,e_w24758329-380,e_w499165542-220,e_w499165542-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0080,elc_spv-DEU_0080</t>
+  </si>
+  <si>
+    <t>e_DE59-220,e_DE60-220,e_w952004951-220,e_w952004951-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0055,elc_spv-DEU_0055</t>
+  </si>
+  <si>
+    <t>e_w102743264-220,e_w25306752-220,e_w25306752-380,e_w31367936-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0101,elc_spv-DEU_0101</t>
+  </si>
+  <si>
+    <t>e_w1089911133-380,e_w23583867-380,e_w28327356-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0059,elc_spv-DEU_0059</t>
+  </si>
+  <si>
+    <t>e_w145002769-380,e_w55069713-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0091,elc_spv-DEU_0091</t>
+  </si>
+  <si>
+    <t>e_w38325076-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0019,elc_spv-DEU_0019</t>
+  </si>
+  <si>
+    <t>e_w559702819-220,e_w559702819-380,e_w672738029-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0147,elc_spv-DEU_0147</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0171,elc_spv-DEU_0171</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0067,elc_spv-DEU_0067</t>
+  </si>
+  <si>
+    <t>e_DE13-380,e_DE14-380,e_w1072574879-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0024,elc_spv-DEU_0024</t>
+  </si>
+  <si>
+    <t>e_DE194-220,e_w39011884-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0021,elc_spv-DEU_0021</t>
+  </si>
+  <si>
+    <t>e_DE213-380,e_w202865176-220,e_w202865177-380,e_w88916034-220,e_w88916034-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0081,elc_spv-DEU_0081</t>
+  </si>
+  <si>
+    <t>e_DE55-220,e_DE57-380,e_w23899043-380,e_w30109913-220,e_w699048438-220,e_w810315511-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0086,elc_spv-DEU_0086</t>
+  </si>
+  <si>
+    <t>e_w27646106-220,e_w35176751-220,e_w35176751-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0070,elc_spv-DEU_0070</t>
+  </si>
+  <si>
+    <t>e_w449010725-380,e_w946969736-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0120,elc_spv-DEU_0120</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0143,elc_spv-DEU_0143</t>
+  </si>
+  <si>
+    <t>e_w167352587-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0158,elc_spv-DEU_0158</t>
+  </si>
+  <si>
+    <t>e_w166604822-380</t>
+  </si>
+  <si>
     <t>elc_won-DEU_0111,elc_spv-DEU_0111</t>
   </si>
   <si>
@@ -4316,9 +5156,6 @@
     <t>elc_won-DEU_0096,elc_spv-DEU_0096</t>
   </si>
   <si>
-    <t>e_w948341123-380</t>
-  </si>
-  <si>
     <t>elc_won-DEU_0153,elc_spv-DEU_0153</t>
   </si>
   <si>
@@ -4326,843 +5163,6 @@
   </si>
   <si>
     <t>elc_won-DEU_0168,elc_spv-DEU_0168</t>
-  </si>
-  <si>
-    <t>e_w946710698-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0127,elc_spv-DEU_0127</t>
-  </si>
-  <si>
-    <t>e_DE157-380,e_DE158-380,e_w93341407-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0042,elc_spv-DEU_0042</t>
-  </si>
-  <si>
-    <t>e_DE165-380,e_DE168-380,e_w1223405794-220,e_w1223405794-380,e_w147521567-220,e_w147521567-380,e_w149987048-220,e_w149987048-380,e_w23284340-220,e_w23284340-380,e_w24685992-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0076,elc_spv-DEU_0076</t>
-  </si>
-  <si>
-    <t>e_DE169-220,e_w24765111-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0155,elc_spv-DEU_0155</t>
-  </si>
-  <si>
-    <t>e_DE201-220,e_DE203-220,e_DE204-220,e_DE206-220,e_w24976300-220,e_w24976300-380,e_w91086220-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0103,elc_spv-DEU_0103</t>
-  </si>
-  <si>
-    <t>e_DE4-220,e_w27124619-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0002,elc_spv-DEU_0002</t>
-  </si>
-  <si>
-    <t>e_w1024536785-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0118,elc_spv-DEU_0118</t>
-  </si>
-  <si>
-    <t>e_w275466323,e_w275466323-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0142,elc_spv-DEU_0142</t>
-  </si>
-  <si>
-    <t>e_w29084374-220,e_w29084374-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0037,elc_spv-DEU_0037</t>
-  </si>
-  <si>
-    <t>e_w31367940-220,e_w31367940-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0166,elc_spv-DEU_0166</t>
-  </si>
-  <si>
-    <t>e_w39688875-220,e_w515358077-380,e_w941453716-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0119,elc_spv-DEU_0119</t>
-  </si>
-  <si>
-    <t>e_w275466323-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0187,elc_spv-DEU_0187</t>
-  </si>
-  <si>
-    <t>e_w170123812-400</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0115,elc_spv-DEU_0115</t>
-  </si>
-  <si>
-    <t>e_w26474759-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0128,elc_spv-DEU_0128</t>
-  </si>
-  <si>
-    <t>e_DE151-220,e_w1086825107-220,e_w1086825107-380,e_w148211527-380,e_w156673637-220,e_w156673637-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0001,elc_spv-DEU_0001</t>
-  </si>
-  <si>
-    <t>e_DE164-220,e_DE167-380,e_DE170-380,e_DE172-220,e_DE172-380,e_DE173-220,e_w145680894-220,e_w151967290-220,e_w151967290-380,e_w151967291-220,e_w151967291-380,e_w89176939-220,e_w89176956-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0184,elc_spv-DEU_0184</t>
-  </si>
-  <si>
-    <t>e_DE46-380,e_w52983550-380,e_w941198517-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0085,elc_spv-DEU_0085</t>
-  </si>
-  <si>
-    <t>e_DE7-220,e_DE8-380,e_w1107961833-380,e_w22720647-220,e_w22720647-380,e_w25306938-380,e_w28008024-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0071,elc_spv-DEU_0071</t>
-  </si>
-  <si>
-    <t>e_w31131320-220,e_w31131320-380,e_w31131325-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0138,elc_spv-DEU_0138</t>
-  </si>
-  <si>
-    <t>e_w75865676-220,e_w91080806-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0087,elc_spv-DEU_0087</t>
-  </si>
-  <si>
-    <t>e_w907539360-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0015,elc_spv-DEU_0015</t>
-  </si>
-  <si>
-    <t>e_DE100-220,e_DE100-380,e_DE102-220,e_DE102-380,e_DE66-220,e_DE66-380,e_DE68-220,e_DE68-380,e_DE69-220,e_DE69-380,e_DE72-220,e_DE75-380,e_DE76-380,e_DE78-220,e_DE80-220,e_DE80-380,e_DE81-220,e_DE82-220,e_DE83-220,e_DE84-220,e_DE86-220,e_DE87-220,e_DE87-380,e_DE89-220,e_DE89-380,e_DE92-220,e_DE96-220,e_DE96-380,e_DE98-220,e_w1076001174-220,e_w1076001174-380,e_w113546939-220,e_w113546939-380,e_w121199242-220,e_w121199242-380,e_w1303270458-220,e_w1303270458-380,e_w150267232-220,e_w156973363-220,e_w22944791-220,e_w22964137-380,e_w23022100-220,e_w23022100-380,e_w23067006-380,e_w24280460-380,e_w24415232-220,e_w24921206-220,e_w24921206-380,e_w25051880-220,e_w26291794-380,e_w275138524-380,e_w28452784-220,e_w29077623-220,e_w29077623-380,e_w311444691-380,e_w32472806-380,e_w35763480-220,e_w35763480-380,e_w38584673-220,e_w425100082-380,e_w59925390-220,e_w59925390-380,e_w63114179-220,e_w63114179-380,e_w66038431-220,e_w68549340-220,e_w68549340-380,e_w698870101-220,e_w787840119-220,e_w799361667-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0183,elc_spv-DEU_0183</t>
-  </si>
-  <si>
-    <t>e_DE58-380,e_DE99-380,e_w157806991-380,e_w30164703-380,e_w58429825-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0112,elc_spv-DEU_0112</t>
-  </si>
-  <si>
-    <t>e_w143882655-220,e_w143882655-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0078,elc_spv-DEU_0078</t>
-  </si>
-  <si>
-    <t>e_w148446247-380,e_w29309786-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0012,elc_spv-DEU_0012</t>
-  </si>
-  <si>
-    <t>e_w154869247-220,e_w395847307-220,e_w395847307-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0126,elc_spv-DEU_0126</t>
-  </si>
-  <si>
-    <t>e_w93341407-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0007,elc_spv-DEU_0007</t>
-  </si>
-  <si>
-    <t>e_w979801144-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0157,elc_spv-DEU_0157</t>
-  </si>
-  <si>
-    <t>e_w78441561-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0083,elc_spv-DEU_0083</t>
-  </si>
-  <si>
-    <t>e_w23816140-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0084,elc_spv-DEU_0084</t>
-  </si>
-  <si>
-    <t>e_DE10-380,e_DE11-380,e_DE12-380,e_w11285720-380,e_w24502420-380,e_w881636329-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0044,elc_spv-DEU_0044</t>
-  </si>
-  <si>
-    <t>e_DE146-380,e_DE152-380,e_w1245826064-380,e_w1245867884-380,e_w202747445-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0090,elc_spv-DEU_0090</t>
-  </si>
-  <si>
-    <t>e_DE200-380,e_w1093896544-380,e_w31105067-380,e_w88945213-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0005,elc_spv-DEU_0005</t>
-  </si>
-  <si>
-    <t>e_DE62-220,e_DE62-380,e_DE67-220,e_DE67-380,e_DE70-220,e_DE70-380,e_DE73-220,e_DE73-380,e_DE74-220,e_DE74-380,e_DE77-220,e_DE77-380,e_DE79-220,e_DE93-220,e_DE97-220,e_w23084417-220,e_w23380800-220,e_w23380800-380,e_w24462228-220,e_w24462317-220,e_w24462426-220,e_w24462426-380,e_w24478889-220,e_w24478889-380,e_w24479003-220,e_w24479003-380,e_w311444692-380,e_w35818134-220,e_w35818137-220,e_w37554416-220,e_w92024105-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0082,elc_spv-DEU_0082</t>
-  </si>
-  <si>
-    <t>e_w23682013-220,e_w23816140-220,e_w274621059-220,e_w33042984-220,e_w787265962-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0161,elc_spv-DEU_0161</t>
-  </si>
-  <si>
-    <t>e_w28729619-380,e_w398680313-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0125,elc_spv-DEU_0125</t>
-  </si>
-  <si>
-    <t>e_w28956649-220,e_w28956649-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0174,elc_spv-DEU_0174</t>
-  </si>
-  <si>
-    <t>e_w940922557-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0182,elc_spv-DEU_0182</t>
-  </si>
-  <si>
-    <t>e_w941805476-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0165,elc_spv-DEU_0165</t>
-  </si>
-  <si>
-    <t>e_w947118608-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0154,elc_spv-DEU_0154</t>
-  </si>
-  <si>
-    <t>e_DE206-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0077,elc_spv-DEU_0077</t>
-  </si>
-  <si>
-    <t>e_w148446247-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0107,elc_spv-DEU_0107</t>
-  </si>
-  <si>
-    <t>e_w24768051-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0067,elc_spv-DEU_0067</t>
-  </si>
-  <si>
-    <t>e_DE13-380,e_DE14-380,e_w1072574879-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0024,elc_spv-DEU_0024</t>
-  </si>
-  <si>
-    <t>e_DE194-220,e_w39011884-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0021,elc_spv-DEU_0021</t>
-  </si>
-  <si>
-    <t>e_DE213-380,e_w202865176-220,e_w202865177-380,e_w88916034-220,e_w88916034-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0081,elc_spv-DEU_0081</t>
-  </si>
-  <si>
-    <t>e_DE55-220,e_DE57-380,e_w23899043-380,e_w30109913-220,e_w699048438-220,e_w810315511-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0086,elc_spv-DEU_0086</t>
-  </si>
-  <si>
-    <t>e_w27646106-220,e_w35176751-220,e_w35176751-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0070,elc_spv-DEU_0070</t>
-  </si>
-  <si>
-    <t>e_w449010725-380,e_w946969736-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0120,elc_spv-DEU_0120</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0143,elc_spv-DEU_0143</t>
-  </si>
-  <si>
-    <t>e_w167352587-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0158,elc_spv-DEU_0158</t>
-  </si>
-  <si>
-    <t>e_w166604822-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0062,elc_spv-DEU_0062</t>
-  </si>
-  <si>
-    <t>e_DE121-380,e_w156673636-380,e_w41072584-380,e_w41232144-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0028,elc_spv-DEU_0028</t>
-  </si>
-  <si>
-    <t>e_DE135-220,e_DE137-220,e_DE137-380,e_DE140-380,e_DE143-380,e_DE145-220,e_DE147-380,e_DE148-220,e_DE148-380,e_DE150-380,e_w152403632-220,e_w152403632-380,e_w89043564-220,e_w89043564-380,e_w90148336-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0013,elc_spv-DEU_0013</t>
-  </si>
-  <si>
-    <t>e_DE138-220,e_DE138-380,e_DE139-220,e_DE139-380,e_DE144-380,e_DE153-380,e_DE154-380,e_w22765517-220,e_w22765517-380,e_w22766160-220,e_w22766160-380,e_w22767509-220,e_w22767509-380,e_w22796434-220,e_w26777313-380,e_w29374542-220,e_w32148946-220,e_w42423415-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0093,elc_spv-DEU_0093</t>
-  </si>
-  <si>
-    <t>e_DE163-220,e_w108797675-380,e_w24758329-380,e_w499165542-220,e_w499165542-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0080,elc_spv-DEU_0080</t>
-  </si>
-  <si>
-    <t>e_DE59-220,e_DE60-220,e_w952004951-220,e_w952004951-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0055,elc_spv-DEU_0055</t>
-  </si>
-  <si>
-    <t>e_w102743264-220,e_w25306752-220,e_w25306752-380,e_w31367936-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0101,elc_spv-DEU_0101</t>
-  </si>
-  <si>
-    <t>e_w1089911133-380,e_w23583867-380,e_w28327356-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0059,elc_spv-DEU_0059</t>
-  </si>
-  <si>
-    <t>e_w145002769-380,e_w55069713-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0091,elc_spv-DEU_0091</t>
-  </si>
-  <si>
-    <t>e_w38325076-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0019,elc_spv-DEU_0019</t>
-  </si>
-  <si>
-    <t>e_w559702819-220,e_w559702819-380,e_w672738029-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0147,elc_spv-DEU_0147</t>
-  </si>
-  <si>
-    <t>e_w40621568-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0171,elc_spv-DEU_0171</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0049,elc_spv-DEU_0049</t>
-  </si>
-  <si>
-    <t>e_DE17-380,e_w24493551-380,e_w44717036-380,e_w871646309-380,e_w951273401-380,e_w951773852-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0041,elc_spv-DEU_0041</t>
-  </si>
-  <si>
-    <t>e_DE174-220,e_DE176-220,e_DE178-380,e_DE180-220,e_DE181-380,e_DE182-380,e_r17591073-220,e_w152924498-220,e_w152924498-380,e_w152924508-220,e_w152973139-220,e_w152973139-380,e_w156676050-220,e_w160929097-220,e_w207248812-220,e_w207248812-380,e_w259561755-380,e_w409305507-220,e_w46584363-220,e_w46584363-380,e_w48057110-380,e_w600395952-220,e_w600395952-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0133,elc_spv-DEU_0133</t>
-  </si>
-  <si>
-    <t>e_DE18-220,e_DE18-380,e_DE19-380,e_w59707532-220,e_w59707532-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0134,elc_spv-DEU_0134</t>
-  </si>
-  <si>
-    <t>e_w234171369-380,e_w274603394-380,e_w517421342-220,e_w517421342-380,e_w851299584-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0060,elc_spv-DEU_0060</t>
-  </si>
-  <si>
-    <t>e_w23881272-220,e_w24042358-380,e_w42372159-380,e_w42410916-220,e_w42410916-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0108,elc_spv-DEU_0108</t>
-  </si>
-  <si>
-    <t>e_w24705761-220,e_w24705761-380,e_w28613721-380,e_w954971276-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0148,elc_spv-DEU_0148</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0178,elc_spv-DEU_0178</t>
-  </si>
-  <si>
-    <t>e_w1091984573-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0072,elc_spv-DEU_0072</t>
-  </si>
-  <si>
-    <t>e_w41389594-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0130,elc_spv-DEU_0130</t>
-  </si>
-  <si>
-    <t>e_DE103-380,e_w29713902-380,e_w32690742-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0159,elc_spv-DEU_0159</t>
-  </si>
-  <si>
-    <t>e_DE149-380,e_w1081302145-220,e_w109917397-380,e_w166604822-380,e_w36183042-380,e_w943135226-220,e_w943135226-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0038,elc_spv-DEU_0038</t>
-  </si>
-  <si>
-    <t>e_DE207-380,e_DE208-380,e_DE209-380,e_w35954395-380,e_w42049947-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0098,elc_spv-DEU_0098</t>
-  </si>
-  <si>
-    <t>e_DE40-220,e_DE43-220,e_w151507370-220,e_w24262656-220,e_w24262656-380,e_w28227099-220,e_w30017786-220,e_w953757606-380,e_w953757608-220,e_w953757608-380,e_w97857512-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0047,elc_spv-DEU_0047</t>
-  </si>
-  <si>
-    <t>e_DE42-220,e_DE51-220,e_DE52-220,e_w24230738-380,e_w26383042-380,e_w39229429-380,e_w957746797-220,e_w957746797-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0034,elc_spv-DEU_0034</t>
-  </si>
-  <si>
-    <t>e_w1128250707-220,e_w1128250707-380,e_w23744346-220,e_w26455019-220,e_w29420322-220,e_w31024391-220,e_w31024391-380,e_w883768276-380,e_w883768277-380,e_w883928228-380,e_w883928229-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0110,elc_spv-DEU_0110</t>
-  </si>
-  <si>
-    <t>e_w24757392-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0074,elc_spv-DEU_0074</t>
-  </si>
-  <si>
-    <t>e_w26403575-380,e_w42050342-220,e_w42050342-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0100,elc_spv-DEU_0100</t>
-  </si>
-  <si>
-    <t>e_w28343121-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0117,elc_spv-DEU_0117</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0139,elc_spv-DEU_0139</t>
-  </si>
-  <si>
-    <t>e_w77694901-220,e_w77697810-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0146,elc_spv-DEU_0146</t>
-  </si>
-  <si>
-    <t>e_w946025110-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0121,elc_spv-DEU_0121</t>
-  </si>
-  <si>
-    <t>e_DE212-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0170,elc_spv-DEU_0170</t>
-  </si>
-  <si>
-    <t>e_w24976300-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0094,elc_spv-DEU_0094</t>
-  </si>
-  <si>
-    <t>e_DE163-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0004,elc_spv-DEU_0004</t>
-  </si>
-  <si>
-    <t>e_DE106-220,e_DE107-220,e_DE107-380,e_DE110-220,e_DE110-380,e_DE112-380,e_DE113-220,e_DE114-380,e_DE117-380,e_DE125-220,e_DE125-380,e_DE127-380,e_DE128-380,e_DE131-220,e_DE133-380,e_w1040551074-220,e_w188276460-220,e_w188276460-380,e_w23084554-220,e_w23084554-380,e_w24267175-220,e_w24479984-220,e_w24479984-380,e_w24799890-220,e_w24799890-380,e_w24815262-220,e_w24839976-220,e_w24839976-380,e_w26927264-380,e_w27919734-220,e_w27919734-380,e_w31762305-220,e_w49577401-220,e_w49577401-380,e_w91854336-220,e_w91854336-380,e_w92877635-220,e_w93278553-220,e_w95434457-220,e_w95434457-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0144,elc_spv-DEU_0144</t>
-  </si>
-  <si>
-    <t>e_DE142-380,e_w167352587-220,e_w173112252-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0177,elc_spv-DEU_0177</t>
-  </si>
-  <si>
-    <t>e_w1222597066-220,e_w1222597066-380,e_w30039908-220,e_w30039908-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0075,elc_spv-DEU_0075</t>
-  </si>
-  <si>
-    <t>e_w143854536-380,e_w31653753-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0106,elc_spv-DEU_0106</t>
-  </si>
-  <si>
-    <t>e_w18629425-220,e_w18629425-380,e_w53378027-380,e_w76246159-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0039,elc_spv-DEU_0039</t>
-  </si>
-  <si>
-    <t>e_w26814283-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0162,elc_spv-DEU_0162</t>
-  </si>
-  <si>
-    <t>e_w29331499-220,e_w29331499-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0167,elc_spv-DEU_0167</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0006,elc_spv-DEU_0006</t>
-  </si>
-  <si>
-    <t>e_DE62-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0009,elc_spv-DEU_0009</t>
-  </si>
-  <si>
-    <t>e_w156402422-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0029,elc_spv-DEU_0029</t>
-  </si>
-  <si>
-    <t>e_DE109-220,e_DE132-220,e_w132814303-220,e_w83916207-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0000,elc_spv-DEU_0000</t>
-  </si>
-  <si>
-    <t>e_DE175-220,e_DE177-220,e_w82773910-220,e_w82773910-380,e_w82773910-400,e_w89215122-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0057,elc_spv-DEU_0057</t>
-  </si>
-  <si>
-    <t>e_DE184-380,e_DE185-380,e_DE186-380,e_DE187-380,e_DE188-380,e_DE189-380,e_DE190-380,e_DE191-380,e_DE192-380,e_DE193-380,e_w147878692-380,e_w22960899-380,e_w25786404-220,e_w25786404-380,e_w37721677-380,e_w41334805-220,e_w41334805-380,e_w43688805-220,e_w43688805-380,e_w48428875-380,e_w97825259-220,e_w97825259-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0163,elc_spv-DEU_0163</t>
-  </si>
-  <si>
-    <t>e_DE21-220,e_DE25-380,e_w11500045-380,e_w27149550-220,e_w27149550-380,e_w30132758-380,e_w30303506-380,e_w30309989-220,e_w43163132-380,e_w46615737-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0099,elc_spv-DEU_0099</t>
-  </si>
-  <si>
-    <t>e_DE36-220,e_w24258096-380,e_w24272339-380,e_w24272541-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0016,elc_spv-DEU_0016</t>
-  </si>
-  <si>
-    <t>e_DE39-220,e_DE41-380,e_DE45-380,e_DE50-380,e_DE54-380,e_w844075808-380,e_w952346322-380,e_w979801144-220,e_w979801144-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0152,elc_spv-DEU_0152</t>
-  </si>
-  <si>
-    <t>e_DE5-380,e_w32063539-380,e_w32318130-220,e_w940919943</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0151,elc_spv-DEU_0151</t>
-  </si>
-  <si>
-    <t>e_w1094015892-220,e_w1094015892-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0102,elc_spv-DEU_0102</t>
-  </si>
-  <si>
-    <t>e_w1102237380-220,e_w1102237380-380,e_w1191459479-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0010,elc_spv-DEU_0010</t>
-  </si>
-  <si>
-    <t>e_w152018146-220,e_w152018146-380,e_w156402422-220,e_w207756597-220,e_w54359256-220,e_w54359256-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0122,elc_spv-DEU_0122</t>
-  </si>
-  <si>
-    <t>e_w24158385-220,e_w26245195-220,e_w26245195-380,e_w5404079-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0011,elc_spv-DEU_0011</t>
-  </si>
-  <si>
-    <t>e_w42097854-220,e_w42097854-380,e_w66764943-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0008,elc_spv-DEU_0008</t>
-  </si>
-  <si>
-    <t>e_w672738029-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0169,elc_spv-DEU_0169</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0092,elc_spv-DEU_0092</t>
-  </si>
-  <si>
-    <t>e_w24705761-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0095,elc_spv-DEU_0095</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0040,elc_spv-DEU_0040</t>
-  </si>
-  <si>
-    <t>e_DE183-220,e_w152261133-220,e_w152261133-380,e_w254326606-380,e_w32151621-220,e_w32725957-220,e_w32725958-220,e_w32731290-220,e_w32966636-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0018,elc_spv-DEU_0018</t>
-  </si>
-  <si>
-    <t>e_DE20-380,e_w1280840211-380,e_w142487746-380,e_w206289192-380,e_w32042992-380,e_w797009308-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0073,elc_spv-DEU_0073</t>
-  </si>
-  <si>
-    <t>e_DE202-220,e_DE202-380,e_DE205-220,e_DE205-380,e_w26404600-380,e_w41389594-220,e_w41389594-380,e_w85523877-220,e_w85523877-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0104,elc_spv-DEU_0104</t>
-  </si>
-  <si>
-    <t>e_DE211-220,e_DE212-220,e_w68532663-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0131,elc_spv-DEU_0131</t>
-  </si>
-  <si>
-    <t>e_DE47-220,e_w26472665-220,e_w26472665-380,e_w943939310-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0064,elc_spv-DEU_0064</t>
-  </si>
-  <si>
-    <t>e_DE49-380,e_w23135618-220,e_w24413992-380,e_w28397771-220,e_w288305056-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0186,elc_spv-DEU_0186</t>
-  </si>
-  <si>
-    <t>e_w170123812-220,e_w170123812-380,e_w170123812-400</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0105,elc_spv-DEU_0105</t>
-  </si>
-  <si>
-    <t>e_w23907283-380,e_w24237879-220,e_w30613895-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0088,elc_spv-DEU_0088</t>
-  </si>
-  <si>
-    <t>e_w57727004-220,e_w57727004-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0089,elc_spv-DEU_0089</t>
-  </si>
-  <si>
-    <t>e_w683227471-380,e_w77038371-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0023,elc_spv-DEU_0023</t>
-  </si>
-  <si>
-    <t>e_w82130902-225,e_w933248930-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0137,elc_spv-DEU_0137</t>
-  </si>
-  <si>
-    <t>e_w75865676-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0036,elc_spv-DEU_0036</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0188,elc_spv-DEU_0188</t>
-  </si>
-  <si>
-    <t>e_w1222597066-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0061,elc_spv-DEU_0061</t>
-  </si>
-  <si>
-    <t>e_w156673636-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0113,elc_spv-DEU_0113</t>
-  </si>
-  <si>
-    <t>e_w32690742-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0066,elc_spv-DEU_0066</t>
-  </si>
-  <si>
-    <t>e_DE15-220,e_w229565743-220,e_w28812249-220,e_w955268863-220,e_w955268863-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0043,elc_spv-DEU_0043</t>
-  </si>
-  <si>
-    <t>e_DE159-380,e_DE160-220,e_DE161-380,e_DE162-380,e_w169244940-220,e_w169244940-380,e_w23641079-220,e_w23641079-380,e_w38661452-380,e_w4826893-220,e_w62061952-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0175,elc_spv-DEU_0175</t>
-  </si>
-  <si>
-    <t>e_DE22-220,e_DE22-380,e_DE23-220,e_DE23-380,e_DE24-220,e_DE24-380,e_DE26-380,e_DE27-220,e_DE27-380,e_w22973052-220,e_w22973070-220,e_w22973070-380,e_w30954714-380,e_w940636813-220,e_w940636813-380,e_w942448206-220,e_w942448206-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0114,elc_spv-DEU_0114</t>
-  </si>
-  <si>
-    <t>e_DE44-380,e_w26474759-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0069,elc_spv-DEU_0069</t>
-  </si>
-  <si>
-    <t>e_w1071504343-380,e_w603661085-380,e_w907539360-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0179,elc_spv-DEU_0179</t>
-  </si>
-  <si>
-    <t>e_w1091984573-220,e_w1091984573-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0050,elc_spv-DEU_0050</t>
-  </si>
-  <si>
-    <t>e_w1134105414-380,e_w157421333-220,e_w266684854-380,e_w32076853-220,e_w32076853-380,e_w42872354-220,e_w829116805-220,e_w829116805-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0124,elc_spv-DEU_0124</t>
-  </si>
-  <si>
-    <t>e_w137602559-220,e_w137602559-380,e_w24759324-220,e_w24768051-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0045,elc_spv-DEU_0045</t>
-  </si>
-  <si>
-    <t>e_w42799487-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0156,elc_spv-DEU_0156</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0129,elc_spv-DEU_0129</t>
-  </si>
-  <si>
-    <t>e_w29713902-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0020,elc_spv-DEU_0020</t>
-  </si>
-  <si>
-    <t>e_w559702819-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0052,elc_spv-DEU_0052</t>
-  </si>
-  <si>
-    <t>e_w603661085-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0053,elc_spv-DEU_0053</t>
-  </si>
-  <si>
-    <t>e_w946969736-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0181,elc_spv-DEU_0181</t>
   </si>
   <si>
     <t>e_won-DEU_0000</t>
@@ -10766,7 +10766,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CDBE57F-4F54-0D90-FA21-21560C634E3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E5964DC-BE89-463E-CBA7-00E691CD3C52}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10821,7 +10821,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EBC3EEE-3E40-5B75-69B6-4F921433969E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3188E544-E0EB-5DC2-E7D1-65E87634AC3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10876,7 +10876,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5381A1F3-1FAF-37F7-C7D6-709288A2B3EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A57913FF-674E-AA9C-2BF1-7577976D6F53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10931,7 +10931,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18EB123D-2F2C-33A7-AD6C-2B12E3EA5B9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0BE4F7D-AB61-FCD3-FA89-88AC8C0BCB18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10986,7 +10986,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41768D4C-4C4A-7AB0-84D3-C8ADB6301165}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B5AD276-3C84-DD8C-76D7-B3C31721DCB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14916,7 +14916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1790C9A0-1D6E-4678-AE78-A1EE5D716F5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0797B6D2-97C2-4703-9F75-64461964C04E}">
   <dimension ref="A1:AG191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15820,7 +15820,7 @@
         <v>1</v>
       </c>
       <c r="AG13" s="157" t="s">
-        <v>737</v>
+        <v>821</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -15897,7 +15897,7 @@
         <v>1</v>
       </c>
       <c r="AG14" s="156" t="s">
-        <v>885</v>
+        <v>805</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -15974,7 +15974,7 @@
         <v>1</v>
       </c>
       <c r="AG15" s="157" t="s">
-        <v>727</v>
+        <v>633</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -16051,7 +16051,7 @@
         <v>1</v>
       </c>
       <c r="AG16" s="156" t="s">
-        <v>713</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="2:33">
@@ -16128,7 +16128,7 @@
         <v>1</v>
       </c>
       <c r="AG17" s="157" t="s">
-        <v>815</v>
+        <v>845</v>
       </c>
     </row>
     <row r="18" spans="2:33">
@@ -16205,7 +16205,7 @@
         <v>1</v>
       </c>
       <c r="AG18" s="156" t="s">
-        <v>611</v>
+        <v>577</v>
       </c>
     </row>
     <row r="19" spans="2:33">
@@ -16282,7 +16282,7 @@
         <v>1</v>
       </c>
       <c r="AG19" s="157" t="s">
-        <v>925</v>
+        <v>665</v>
       </c>
     </row>
     <row r="20" spans="2:33">
@@ -16359,7 +16359,7 @@
         <v>1</v>
       </c>
       <c r="AG20" s="156" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
     </row>
     <row r="21" spans="2:33">
@@ -16436,7 +16436,7 @@
         <v>1</v>
       </c>
       <c r="AG21" s="157" t="s">
-        <v>719</v>
+        <v>871</v>
       </c>
     </row>
     <row r="22" spans="2:33">
@@ -16513,7 +16513,7 @@
         <v>1</v>
       </c>
       <c r="AG22" s="156" t="s">
-        <v>651</v>
+        <v>669</v>
       </c>
     </row>
     <row r="23" spans="2:33">
@@ -16590,7 +16590,7 @@
         <v>1</v>
       </c>
       <c r="AG23" s="157" t="s">
-        <v>667</v>
+        <v>743</v>
       </c>
     </row>
     <row r="24" spans="2:33">
@@ -16667,7 +16667,7 @@
         <v>1</v>
       </c>
       <c r="AG24" s="156" t="s">
-        <v>791</v>
+        <v>587</v>
       </c>
     </row>
     <row r="25" spans="2:33">
@@ -16744,7 +16744,7 @@
         <v>1</v>
       </c>
       <c r="AG25" s="157" t="s">
-        <v>647</v>
+        <v>883</v>
       </c>
     </row>
     <row r="26" spans="2:33">
@@ -16821,7 +16821,7 @@
         <v>1</v>
       </c>
       <c r="AG26" s="156" t="s">
-        <v>771</v>
+        <v>603</v>
       </c>
     </row>
     <row r="27" spans="2:33">
@@ -16898,7 +16898,7 @@
         <v>1</v>
       </c>
       <c r="AG27" s="157" t="s">
-        <v>855</v>
+        <v>617</v>
       </c>
     </row>
     <row r="28" spans="2:33">
@@ -16975,7 +16975,7 @@
         <v>1</v>
       </c>
       <c r="AG28" s="156" t="s">
-        <v>631</v>
+        <v>865</v>
       </c>
     </row>
     <row r="29" spans="2:33">
@@ -17052,7 +17052,7 @@
         <v>1</v>
       </c>
       <c r="AG29" s="157" t="s">
-        <v>819</v>
+        <v>685</v>
       </c>
     </row>
     <row r="30" spans="2:33">
@@ -17129,7 +17129,7 @@
         <v>1</v>
       </c>
       <c r="AG30" s="156" t="s">
-        <v>783</v>
+        <v>895</v>
       </c>
     </row>
     <row r="31" spans="2:33">
@@ -17206,7 +17206,7 @@
         <v>1</v>
       </c>
       <c r="AG31" s="157" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="32" spans="2:33">
@@ -17283,7 +17283,7 @@
         <v>1</v>
       </c>
       <c r="AG32" s="156" t="s">
-        <v>721</v>
+        <v>555</v>
       </c>
     </row>
     <row r="33" spans="2:33">
@@ -17360,7 +17360,7 @@
         <v>1</v>
       </c>
       <c r="AG33" s="157" t="s">
-        <v>787</v>
+        <v>837</v>
       </c>
     </row>
     <row r="34" spans="2:33">
@@ -17437,7 +17437,7 @@
         <v>1</v>
       </c>
       <c r="AG34" s="156" t="s">
-        <v>637</v>
+        <v>699</v>
       </c>
     </row>
     <row r="35" spans="2:33">
@@ -17514,7 +17514,7 @@
         <v>1</v>
       </c>
       <c r="AG35" s="157" t="s">
-        <v>585</v>
+        <v>929</v>
       </c>
     </row>
     <row r="36" spans="2:33">
@@ -17591,7 +17591,7 @@
         <v>1</v>
       </c>
       <c r="AG36" s="156" t="s">
-        <v>779</v>
+        <v>691</v>
       </c>
     </row>
     <row r="37" spans="2:33">
@@ -17668,7 +17668,7 @@
         <v>1</v>
       </c>
       <c r="AG37" s="157" t="s">
-        <v>835</v>
+        <v>675</v>
       </c>
     </row>
     <row r="38" spans="2:33">
@@ -17745,7 +17745,7 @@
         <v>1</v>
       </c>
       <c r="AG38" s="156" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="39" spans="2:33">
@@ -17822,7 +17822,7 @@
         <v>1</v>
       </c>
       <c r="AG39" s="157" t="s">
-        <v>785</v>
+        <v>565</v>
       </c>
     </row>
     <row r="40" spans="2:33">
@@ -17899,7 +17899,7 @@
         <v>1</v>
       </c>
       <c r="AG40" s="156" t="s">
-        <v>769</v>
+        <v>559</v>
       </c>
     </row>
     <row r="41" spans="2:33">
@@ -17976,7 +17976,7 @@
         <v>1</v>
       </c>
       <c r="AG41" s="157" t="s">
-        <v>693</v>
+        <v>609</v>
       </c>
     </row>
     <row r="42" spans="2:33">
@@ -18053,7 +18053,7 @@
         <v>1</v>
       </c>
       <c r="AG42" s="156" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="43" spans="2:33">
@@ -18130,7 +18130,7 @@
         <v>1</v>
       </c>
       <c r="AG43" s="157" t="s">
-        <v>701</v>
+        <v>887</v>
       </c>
     </row>
     <row r="44" spans="2:33">
@@ -18207,7 +18207,7 @@
         <v>1</v>
       </c>
       <c r="AG44" s="156" t="s">
-        <v>763</v>
+        <v>711</v>
       </c>
     </row>
     <row r="45" spans="2:33">
@@ -18284,7 +18284,7 @@
         <v>1</v>
       </c>
       <c r="AG45" s="157" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
     </row>
     <row r="46" spans="2:33">
@@ -18361,7 +18361,7 @@
         <v>1</v>
       </c>
       <c r="AG46" s="156" t="s">
-        <v>677</v>
+        <v>921</v>
       </c>
     </row>
     <row r="47" spans="2:33">
@@ -18438,7 +18438,7 @@
         <v>1</v>
       </c>
       <c r="AG47" s="157" t="s">
-        <v>709</v>
+        <v>897</v>
       </c>
     </row>
     <row r="48" spans="2:33">
@@ -18515,7 +18515,7 @@
         <v>1</v>
       </c>
       <c r="AG48" s="156" t="s">
-        <v>619</v>
+        <v>811</v>
       </c>
     </row>
     <row r="49" spans="2:33">
@@ -18592,7 +18592,7 @@
         <v>1</v>
       </c>
       <c r="AG49" s="157" t="s">
-        <v>807</v>
+        <v>911</v>
       </c>
     </row>
     <row r="50" spans="2:33">
@@ -18669,7 +18669,7 @@
         <v>1</v>
       </c>
       <c r="AG50" s="156" t="s">
-        <v>879</v>
+        <v>823</v>
       </c>
     </row>
     <row r="51" spans="2:33">
@@ -18746,7 +18746,7 @@
         <v>1</v>
       </c>
       <c r="AG51" s="157" t="s">
-        <v>681</v>
+        <v>893</v>
       </c>
     </row>
     <row r="52" spans="2:33">
@@ -18823,7 +18823,7 @@
         <v>1</v>
       </c>
       <c r="AG52" s="156" t="s">
-        <v>567</v>
+        <v>695</v>
       </c>
     </row>
     <row r="53" spans="2:33">
@@ -18900,7 +18900,7 @@
         <v>1</v>
       </c>
       <c r="AG53" s="157" t="s">
-        <v>757</v>
+        <v>615</v>
       </c>
     </row>
     <row r="54" spans="2:33">
@@ -18977,7 +18977,7 @@
         <v>1</v>
       </c>
       <c r="AG54" s="156" t="s">
-        <v>599</v>
+        <v>723</v>
       </c>
     </row>
     <row r="55" spans="2:33">
@@ -19054,7 +19054,7 @@
         <v>1</v>
       </c>
       <c r="AG55" s="157" t="s">
-        <v>653</v>
+        <v>741</v>
       </c>
     </row>
     <row r="56" spans="2:33">
@@ -19131,7 +19131,7 @@
         <v>1</v>
       </c>
       <c r="AG56" s="156" t="s">
-        <v>795</v>
+        <v>703</v>
       </c>
     </row>
     <row r="57" spans="2:33">
@@ -19208,7 +19208,7 @@
         <v>1</v>
       </c>
       <c r="AG57" s="157" t="s">
-        <v>705</v>
+        <v>679</v>
       </c>
     </row>
     <row r="58" spans="2:33">
@@ -19285,7 +19285,7 @@
         <v>1</v>
       </c>
       <c r="AG58" s="156" t="s">
-        <v>601</v>
+        <v>881</v>
       </c>
     </row>
     <row r="59" spans="2:33">
@@ -19362,7 +19362,7 @@
         <v>1</v>
       </c>
       <c r="AG59" s="157" t="s">
-        <v>751</v>
+        <v>575</v>
       </c>
     </row>
     <row r="60" spans="2:33">
@@ -19439,7 +19439,7 @@
         <v>1</v>
       </c>
       <c r="AG60" s="156" t="s">
-        <v>593</v>
+        <v>857</v>
       </c>
     </row>
     <row r="61" spans="2:33">
@@ -19516,7 +19516,7 @@
         <v>1</v>
       </c>
       <c r="AG61" s="157" t="s">
-        <v>621</v>
+        <v>809</v>
       </c>
     </row>
     <row r="62" spans="2:33">
@@ -19593,7 +19593,7 @@
         <v>1</v>
       </c>
       <c r="AG62" s="156" t="s">
-        <v>557</v>
+        <v>725</v>
       </c>
     </row>
     <row r="63" spans="2:33">
@@ -19670,7 +19670,7 @@
         <v>1</v>
       </c>
       <c r="AG63" s="157" t="s">
-        <v>745</v>
+        <v>591</v>
       </c>
     </row>
     <row r="64" spans="2:33">
@@ -19747,7 +19747,7 @@
         <v>1</v>
       </c>
       <c r="AG64" s="156" t="s">
-        <v>899</v>
+        <v>863</v>
       </c>
     </row>
     <row r="65" spans="2:33">
@@ -19824,7 +19824,7 @@
         <v>1</v>
       </c>
       <c r="AG65" s="157" t="s">
-        <v>869</v>
+        <v>733</v>
       </c>
     </row>
     <row r="66" spans="2:33">
@@ -19901,7 +19901,7 @@
         <v>1</v>
       </c>
       <c r="AG66" s="156" t="s">
-        <v>643</v>
+        <v>825</v>
       </c>
     </row>
     <row r="67" spans="2:33">
@@ -19978,7 +19978,7 @@
         <v>1</v>
       </c>
       <c r="AG67" s="157" t="s">
-        <v>903</v>
+        <v>613</v>
       </c>
     </row>
     <row r="68" spans="2:33">
@@ -20055,7 +20055,7 @@
         <v>1</v>
       </c>
       <c r="AG68" s="156" t="s">
-        <v>669</v>
+        <v>813</v>
       </c>
     </row>
     <row r="69" spans="2:33">
@@ -20126,13 +20126,13 @@
         <v>1442</v>
       </c>
       <c r="AE69" s="157" t="s">
-        <v>1443</v>
+        <v>1363</v>
       </c>
       <c r="AF69" s="159">
         <v>1</v>
       </c>
       <c r="AG69" s="157" t="s">
-        <v>743</v>
+        <v>683</v>
       </c>
     </row>
     <row r="70" spans="2:33">
@@ -20200,16 +20200,16 @@
         <v>1067</v>
       </c>
       <c r="AD70" s="156" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AE70" s="156" t="s">
         <v>1444</v>
       </c>
-      <c r="AE70" s="156" t="s">
-        <v>1445</v>
-      </c>
       <c r="AF70" s="158">
         <v>1</v>
       </c>
       <c r="AG70" s="156" t="s">
-        <v>587</v>
+        <v>623</v>
       </c>
     </row>
     <row r="71" spans="2:33">
@@ -20277,16 +20277,16 @@
         <v>1069</v>
       </c>
       <c r="AD71" s="157" t="s">
+        <v>1445</v>
+      </c>
+      <c r="AE71" s="157" t="s">
         <v>1446</v>
       </c>
-      <c r="AE71" s="157" t="s">
-        <v>1447</v>
-      </c>
       <c r="AF71" s="159">
         <v>1</v>
       </c>
       <c r="AG71" s="157" t="s">
-        <v>883</v>
+        <v>759</v>
       </c>
     </row>
     <row r="72" spans="2:33">
@@ -20354,16 +20354,16 @@
         <v>1071</v>
       </c>
       <c r="AD72" s="156" t="s">
+        <v>1447</v>
+      </c>
+      <c r="AE72" s="156" t="s">
         <v>1448</v>
       </c>
-      <c r="AE72" s="156" t="s">
-        <v>1449</v>
-      </c>
       <c r="AF72" s="158">
         <v>1</v>
       </c>
       <c r="AG72" s="156" t="s">
-        <v>603</v>
+        <v>827</v>
       </c>
     </row>
     <row r="73" spans="2:33">
@@ -20431,16 +20431,16 @@
         <v>1073</v>
       </c>
       <c r="AD73" s="157" t="s">
+        <v>1449</v>
+      </c>
+      <c r="AE73" s="157" t="s">
         <v>1450</v>
       </c>
-      <c r="AE73" s="157" t="s">
-        <v>1451</v>
-      </c>
       <c r="AF73" s="159">
         <v>1</v>
       </c>
       <c r="AG73" s="157" t="s">
-        <v>617</v>
+        <v>829</v>
       </c>
     </row>
     <row r="74" spans="2:33">
@@ -20508,16 +20508,16 @@
         <v>1075</v>
       </c>
       <c r="AD74" s="156" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AE74" s="156" t="s">
-        <v>1453</v>
+        <v>1415</v>
       </c>
       <c r="AF74" s="158">
         <v>1</v>
       </c>
       <c r="AG74" s="156" t="s">
-        <v>865</v>
+        <v>739</v>
       </c>
     </row>
     <row r="75" spans="2:33">
@@ -20585,16 +20585,16 @@
         <v>1077</v>
       </c>
       <c r="AD75" s="157" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="AE75" s="157" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="AF75" s="159">
         <v>1</v>
       </c>
       <c r="AG75" s="157" t="s">
-        <v>685</v>
+        <v>737</v>
       </c>
     </row>
     <row r="76" spans="2:33">
@@ -20662,16 +20662,16 @@
         <v>1079</v>
       </c>
       <c r="AD76" s="156" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="AE76" s="156" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AF76" s="158">
         <v>1</v>
       </c>
       <c r="AG76" s="156" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
     </row>
     <row r="77" spans="2:33">
@@ -20739,16 +20739,16 @@
         <v>1081</v>
       </c>
       <c r="AD77" s="157" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="AE77" s="157" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="AF77" s="159">
         <v>1</v>
       </c>
       <c r="AG77" s="157" t="s">
-        <v>897</v>
+        <v>727</v>
       </c>
     </row>
     <row r="78" spans="2:33">
@@ -20816,16 +20816,16 @@
         <v>1083</v>
       </c>
       <c r="AD78" s="156" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="AE78" s="156" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="AF78" s="158">
         <v>1</v>
       </c>
       <c r="AG78" s="156" t="s">
-        <v>811</v>
+        <v>713</v>
       </c>
     </row>
     <row r="79" spans="2:33">
@@ -20893,16 +20893,16 @@
         <v>1085</v>
       </c>
       <c r="AD79" s="157" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="AE79" s="157" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="AF79" s="159">
         <v>1</v>
       </c>
       <c r="AG79" s="157" t="s">
-        <v>911</v>
+        <v>815</v>
       </c>
     </row>
     <row r="80" spans="2:33">
@@ -20970,16 +20970,16 @@
         <v>1087</v>
       </c>
       <c r="AD80" s="156" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="AE80" s="156" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="AF80" s="158">
         <v>1</v>
       </c>
       <c r="AG80" s="156" t="s">
-        <v>823</v>
+        <v>611</v>
       </c>
     </row>
     <row r="81" spans="2:33">
@@ -21047,16 +21047,16 @@
         <v>1089</v>
       </c>
       <c r="AD81" s="157" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="AE81" s="157" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="AF81" s="159">
         <v>1</v>
       </c>
       <c r="AG81" s="157" t="s">
-        <v>893</v>
+        <v>925</v>
       </c>
     </row>
     <row r="82" spans="2:33">
@@ -21124,16 +21124,16 @@
         <v>1091</v>
       </c>
       <c r="AD82" s="156" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="AE82" s="156" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="AF82" s="158">
         <v>1</v>
       </c>
       <c r="AG82" s="156" t="s">
-        <v>695</v>
+        <v>747</v>
       </c>
     </row>
     <row r="83" spans="2:33">
@@ -21201,16 +21201,16 @@
         <v>1093</v>
       </c>
       <c r="AD83" s="157" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="AE83" s="157" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="AF83" s="159">
         <v>1</v>
       </c>
       <c r="AG83" s="157" t="s">
-        <v>615</v>
+        <v>719</v>
       </c>
     </row>
     <row r="84" spans="2:33">
@@ -21278,16 +21278,16 @@
         <v>1095</v>
       </c>
       <c r="AD84" s="156" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="AE84" s="156" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="AF84" s="158">
         <v>1</v>
       </c>
       <c r="AG84" s="156" t="s">
-        <v>723</v>
+        <v>651</v>
       </c>
     </row>
     <row r="85" spans="2:33">
@@ -21355,16 +21355,16 @@
         <v>1097</v>
       </c>
       <c r="AD85" s="157" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="AE85" s="157" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="AF85" s="159">
         <v>1</v>
       </c>
       <c r="AG85" s="157" t="s">
-        <v>741</v>
+        <v>667</v>
       </c>
     </row>
     <row r="86" spans="2:33">
@@ -21432,16 +21432,16 @@
         <v>1099</v>
       </c>
       <c r="AD86" s="156" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="AE86" s="156" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="AF86" s="158">
         <v>1</v>
       </c>
       <c r="AG86" s="156" t="s">
-        <v>703</v>
+        <v>791</v>
       </c>
     </row>
     <row r="87" spans="2:33">
@@ -21509,16 +21509,16 @@
         <v>1101</v>
       </c>
       <c r="AD87" s="157" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="AE87" s="157" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="AF87" s="159">
         <v>1</v>
       </c>
       <c r="AG87" s="157" t="s">
-        <v>679</v>
+        <v>619</v>
       </c>
     </row>
     <row r="88" spans="2:33">
@@ -21586,16 +21586,16 @@
         <v>1103</v>
       </c>
       <c r="AD88" s="156" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="AE88" s="156" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="AF88" s="158">
         <v>1</v>
       </c>
       <c r="AG88" s="156" t="s">
-        <v>881</v>
+        <v>807</v>
       </c>
     </row>
     <row r="89" spans="2:33">
@@ -21663,16 +21663,16 @@
         <v>1105</v>
       </c>
       <c r="AD89" s="157" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="AE89" s="157" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="AF89" s="159">
         <v>1</v>
       </c>
       <c r="AG89" s="157" t="s">
-        <v>575</v>
+        <v>879</v>
       </c>
     </row>
     <row r="90" spans="2:33">
@@ -21740,16 +21740,16 @@
         <v>1107</v>
       </c>
       <c r="AD90" s="156" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="AE90" s="156" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="AF90" s="158">
         <v>1</v>
       </c>
       <c r="AG90" s="156" t="s">
-        <v>859</v>
+        <v>681</v>
       </c>
     </row>
     <row r="91" spans="2:33">
@@ -21817,16 +21817,16 @@
         <v>1109</v>
       </c>
       <c r="AD91" s="157" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="AE91" s="157" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="AF91" s="159">
         <v>1</v>
       </c>
       <c r="AG91" s="157" t="s">
-        <v>767</v>
+        <v>567</v>
       </c>
     </row>
     <row r="92" spans="2:33">
@@ -21894,16 +21894,16 @@
         <v>1111</v>
       </c>
       <c r="AD92" s="156" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="AE92" s="156" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="AF92" s="158">
         <v>1</v>
       </c>
       <c r="AG92" s="156" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="93" spans="2:33">
@@ -21971,16 +21971,16 @@
         <v>1113</v>
       </c>
       <c r="AD93" s="157" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="AE93" s="157" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="AF93" s="159">
         <v>1</v>
       </c>
       <c r="AG93" s="157" t="s">
-        <v>891</v>
+        <v>599</v>
       </c>
     </row>
     <row r="94" spans="2:33">
@@ -22048,16 +22048,16 @@
         <v>1115</v>
       </c>
       <c r="AD94" s="156" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="AE94" s="156" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="AF94" s="158">
         <v>1</v>
       </c>
       <c r="AG94" s="156" t="s">
-        <v>901</v>
+        <v>653</v>
       </c>
     </row>
     <row r="95" spans="2:33">
@@ -22125,16 +22125,16 @@
         <v>1117</v>
       </c>
       <c r="AD95" s="157" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="AE95" s="157" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="AF95" s="159">
         <v>1</v>
       </c>
       <c r="AG95" s="157" t="s">
-        <v>867</v>
+        <v>795</v>
       </c>
     </row>
     <row r="96" spans="2:33">
@@ -22202,16 +22202,16 @@
         <v>1119</v>
       </c>
       <c r="AD96" s="156" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="AE96" s="156" t="s">
-        <v>1421</v>
+        <v>1495</v>
       </c>
       <c r="AF96" s="158">
         <v>1</v>
       </c>
       <c r="AG96" s="156" t="s">
-        <v>605</v>
+        <v>705</v>
       </c>
     </row>
     <row r="97" spans="2:33">
@@ -22279,16 +22279,16 @@
         <v>1121</v>
       </c>
       <c r="AD97" s="157" t="s">
+        <v>1496</v>
+      </c>
+      <c r="AE97" s="157" t="s">
         <v>1497</v>
       </c>
-      <c r="AE97" s="157" t="s">
-        <v>1498</v>
-      </c>
       <c r="AF97" s="159">
         <v>1</v>
       </c>
       <c r="AG97" s="157" t="s">
-        <v>655</v>
+        <v>601</v>
       </c>
     </row>
     <row r="98" spans="2:33">
@@ -22356,16 +22356,16 @@
         <v>1123</v>
       </c>
       <c r="AD98" s="156" t="s">
+        <v>1498</v>
+      </c>
+      <c r="AE98" s="156" t="s">
         <v>1499</v>
       </c>
-      <c r="AE98" s="156" t="s">
-        <v>1500</v>
-      </c>
       <c r="AF98" s="158">
         <v>1</v>
       </c>
       <c r="AG98" s="156" t="s">
-        <v>687</v>
+        <v>751</v>
       </c>
     </row>
     <row r="99" spans="2:33">
@@ -22433,16 +22433,16 @@
         <v>1125</v>
       </c>
       <c r="AD99" s="157" t="s">
+        <v>1500</v>
+      </c>
+      <c r="AE99" s="157" t="s">
         <v>1501</v>
       </c>
-      <c r="AE99" s="157" t="s">
-        <v>1502</v>
-      </c>
       <c r="AF99" s="159">
         <v>1</v>
       </c>
       <c r="AG99" s="157" t="s">
-        <v>849</v>
+        <v>593</v>
       </c>
     </row>
     <row r="100" spans="2:33">
@@ -22510,16 +22510,16 @@
         <v>1127</v>
       </c>
       <c r="AD100" s="156" t="s">
+        <v>1502</v>
+      </c>
+      <c r="AE100" s="156" t="s">
         <v>1503</v>
       </c>
-      <c r="AE100" s="156" t="s">
-        <v>1504</v>
-      </c>
       <c r="AF100" s="158">
         <v>1</v>
       </c>
       <c r="AG100" s="156" t="s">
-        <v>775</v>
+        <v>803</v>
       </c>
     </row>
     <row r="101" spans="2:33">
@@ -22587,16 +22587,16 @@
         <v>1129</v>
       </c>
       <c r="AD101" s="157" t="s">
+        <v>1504</v>
+      </c>
+      <c r="AE101" s="157" t="s">
         <v>1505</v>
       </c>
-      <c r="AE101" s="157" t="s">
-        <v>1506</v>
-      </c>
       <c r="AF101" s="159">
         <v>1</v>
       </c>
       <c r="AG101" s="157" t="s">
-        <v>625</v>
+        <v>735</v>
       </c>
     </row>
     <row r="102" spans="2:33">
@@ -22664,16 +22664,16 @@
         <v>1131</v>
       </c>
       <c r="AD102" s="156" t="s">
+        <v>1506</v>
+      </c>
+      <c r="AE102" s="156" t="s">
         <v>1507</v>
       </c>
-      <c r="AE102" s="156" t="s">
-        <v>1508</v>
-      </c>
       <c r="AF102" s="158">
         <v>1</v>
       </c>
       <c r="AG102" s="156" t="s">
-        <v>917</v>
+        <v>873</v>
       </c>
     </row>
     <row r="103" spans="2:33">
@@ -22741,16 +22741,16 @@
         <v>1133</v>
       </c>
       <c r="AD103" s="157" t="s">
+        <v>1508</v>
+      </c>
+      <c r="AE103" s="157" t="s">
         <v>1509</v>
       </c>
-      <c r="AE103" s="157" t="s">
-        <v>1510</v>
-      </c>
       <c r="AF103" s="159">
         <v>1</v>
       </c>
       <c r="AG103" s="157" t="s">
-        <v>889</v>
+        <v>569</v>
       </c>
     </row>
     <row r="104" spans="2:33">
@@ -22818,16 +22818,16 @@
         <v>1135</v>
       </c>
       <c r="AD104" s="156" t="s">
+        <v>1510</v>
+      </c>
+      <c r="AE104" s="156" t="s">
         <v>1511</v>
       </c>
-      <c r="AE104" s="156" t="s">
-        <v>1512</v>
-      </c>
       <c r="AF104" s="158">
         <v>1</v>
       </c>
       <c r="AG104" s="156" t="s">
-        <v>833</v>
+        <v>629</v>
       </c>
     </row>
     <row r="105" spans="2:33">
@@ -22895,16 +22895,16 @@
         <v>1137</v>
       </c>
       <c r="AD105" s="157" t="s">
+        <v>1512</v>
+      </c>
+      <c r="AE105" s="157" t="s">
         <v>1513</v>
       </c>
-      <c r="AE105" s="157" t="s">
-        <v>1514</v>
-      </c>
       <c r="AF105" s="159">
         <v>1</v>
       </c>
       <c r="AG105" s="157" t="s">
-        <v>563</v>
+        <v>853</v>
       </c>
     </row>
     <row r="106" spans="2:33">
@@ -22972,16 +22972,16 @@
         <v>1139</v>
       </c>
       <c r="AD106" s="156" t="s">
+        <v>1514</v>
+      </c>
+      <c r="AE106" s="156" t="s">
         <v>1515</v>
       </c>
-      <c r="AE106" s="156" t="s">
-        <v>1516</v>
-      </c>
       <c r="AF106" s="158">
         <v>1</v>
       </c>
       <c r="AG106" s="156" t="s">
-        <v>841</v>
+        <v>749</v>
       </c>
     </row>
     <row r="107" spans="2:33">
@@ -23049,16 +23049,16 @@
         <v>1141</v>
       </c>
       <c r="AD107" s="157" t="s">
+        <v>1516</v>
+      </c>
+      <c r="AE107" s="157" t="s">
         <v>1517</v>
       </c>
-      <c r="AE107" s="157" t="s">
-        <v>1518</v>
-      </c>
       <c r="AF107" s="159">
         <v>1</v>
       </c>
       <c r="AG107" s="157" t="s">
-        <v>913</v>
+        <v>571</v>
       </c>
     </row>
     <row r="108" spans="2:33">
@@ -23126,16 +23126,16 @@
         <v>1143</v>
       </c>
       <c r="AD108" s="156" t="s">
+        <v>1518</v>
+      </c>
+      <c r="AE108" s="156" t="s">
         <v>1519</v>
       </c>
-      <c r="AE108" s="156" t="s">
-        <v>1520</v>
-      </c>
       <c r="AF108" s="158">
         <v>1</v>
       </c>
       <c r="AG108" s="156" t="s">
-        <v>755</v>
+        <v>905</v>
       </c>
     </row>
     <row r="109" spans="2:33">
@@ -23203,16 +23203,16 @@
         <v>1145</v>
       </c>
       <c r="AD109" s="157" t="s">
+        <v>1520</v>
+      </c>
+      <c r="AE109" s="157" t="s">
         <v>1521</v>
       </c>
-      <c r="AE109" s="157" t="s">
-        <v>1522</v>
-      </c>
       <c r="AF109" s="159">
         <v>1</v>
       </c>
       <c r="AG109" s="157" t="s">
-        <v>663</v>
+        <v>907</v>
       </c>
     </row>
     <row r="110" spans="2:33">
@@ -23280,16 +23280,16 @@
         <v>1147</v>
       </c>
       <c r="AD110" s="156" t="s">
+        <v>1522</v>
+      </c>
+      <c r="AE110" s="156" t="s">
         <v>1523</v>
       </c>
-      <c r="AE110" s="156" t="s">
-        <v>1347</v>
-      </c>
       <c r="AF110" s="158">
         <v>1</v>
       </c>
       <c r="AG110" s="156" t="s">
-        <v>717</v>
+        <v>765</v>
       </c>
     </row>
     <row r="111" spans="2:33">
@@ -23366,7 +23366,7 @@
         <v>1</v>
       </c>
       <c r="AG111" s="157" t="s">
-        <v>821</v>
+        <v>641</v>
       </c>
     </row>
     <row r="112" spans="2:33">
@@ -23437,13 +23437,13 @@
         <v>1526</v>
       </c>
       <c r="AE112" s="156" t="s">
-        <v>1527</v>
+        <v>1475</v>
       </c>
       <c r="AF112" s="158">
         <v>1</v>
       </c>
       <c r="AG112" s="156" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
     </row>
     <row r="113" spans="2:33">
@@ -23511,16 +23511,16 @@
         <v>1153</v>
       </c>
       <c r="AD113" s="157" t="s">
+        <v>1527</v>
+      </c>
+      <c r="AE113" s="157" t="s">
         <v>1528</v>
       </c>
-      <c r="AE113" s="157" t="s">
-        <v>1529</v>
-      </c>
       <c r="AF113" s="159">
         <v>1</v>
       </c>
       <c r="AG113" s="157" t="s">
-        <v>633</v>
+        <v>753</v>
       </c>
     </row>
     <row r="114" spans="2:33">
@@ -23588,16 +23588,16 @@
         <v>1155</v>
       </c>
       <c r="AD114" s="156" t="s">
+        <v>1529</v>
+      </c>
+      <c r="AE114" s="156" t="s">
         <v>1530</v>
       </c>
-      <c r="AE114" s="156" t="s">
-        <v>1531</v>
-      </c>
       <c r="AF114" s="158">
         <v>1</v>
       </c>
       <c r="AG114" s="156" t="s">
-        <v>635</v>
+        <v>847</v>
       </c>
     </row>
     <row r="115" spans="2:33">
@@ -23665,16 +23665,16 @@
         <v>1157</v>
       </c>
       <c r="AD115" s="157" t="s">
+        <v>1531</v>
+      </c>
+      <c r="AE115" s="157" t="s">
         <v>1532</v>
       </c>
-      <c r="AE115" s="157" t="s">
-        <v>1533</v>
-      </c>
       <c r="AF115" s="159">
         <v>1</v>
       </c>
       <c r="AG115" s="157" t="s">
-        <v>845</v>
+        <v>589</v>
       </c>
     </row>
     <row r="116" spans="2:33">
@@ -23742,16 +23742,16 @@
         <v>1159</v>
       </c>
       <c r="AD116" s="156" t="s">
+        <v>1533</v>
+      </c>
+      <c r="AE116" s="156" t="s">
         <v>1534</v>
       </c>
-      <c r="AE116" s="156" t="s">
-        <v>1535</v>
-      </c>
       <c r="AF116" s="158">
         <v>1</v>
       </c>
       <c r="AG116" s="156" t="s">
-        <v>577</v>
+        <v>801</v>
       </c>
     </row>
     <row r="117" spans="2:33">
@@ -23819,16 +23819,16 @@
         <v>1161</v>
       </c>
       <c r="AD117" s="157" t="s">
+        <v>1535</v>
+      </c>
+      <c r="AE117" s="157" t="s">
         <v>1536</v>
       </c>
-      <c r="AE117" s="157" t="s">
-        <v>1522</v>
-      </c>
       <c r="AF117" s="159">
         <v>1</v>
       </c>
       <c r="AG117" s="157" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="118" spans="2:33">
@@ -23905,7 +23905,7 @@
         <v>1</v>
       </c>
       <c r="AG118" s="156" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="119" spans="2:33">
@@ -23982,7 +23982,7 @@
         <v>1</v>
       </c>
       <c r="AG119" s="157" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
     </row>
     <row r="120" spans="2:33">
@@ -24059,7 +24059,7 @@
         <v>1</v>
       </c>
       <c r="AG120" s="156" t="s">
-        <v>627</v>
+        <v>573</v>
       </c>
     </row>
     <row r="121" spans="2:33">
@@ -24136,7 +24136,7 @@
         <v>1</v>
       </c>
       <c r="AG121" s="157" t="s">
-        <v>689</v>
+        <v>799</v>
       </c>
     </row>
     <row r="122" spans="2:33">
@@ -24213,7 +24213,7 @@
         <v>1</v>
       </c>
       <c r="AG122" s="156" t="s">
-        <v>797</v>
+        <v>697</v>
       </c>
     </row>
     <row r="123" spans="2:33">
@@ -24290,7 +24290,7 @@
         <v>1</v>
       </c>
       <c r="AG123" s="157" t="s">
-        <v>927</v>
+        <v>707</v>
       </c>
     </row>
     <row r="124" spans="2:33">
@@ -24367,7 +24367,7 @@
         <v>1</v>
       </c>
       <c r="AG124" s="156" t="s">
-        <v>817</v>
+        <v>843</v>
       </c>
     </row>
     <row r="125" spans="2:33">
@@ -24444,7 +24444,7 @@
         <v>1</v>
       </c>
       <c r="AG125" s="157" t="s">
-        <v>789</v>
+        <v>909</v>
       </c>
     </row>
     <row r="126" spans="2:33">
@@ -24521,7 +24521,7 @@
         <v>1</v>
       </c>
       <c r="AG126" s="156" t="s">
-        <v>583</v>
+        <v>647</v>
       </c>
     </row>
     <row r="127" spans="2:33">
@@ -24598,7 +24598,7 @@
         <v>1</v>
       </c>
       <c r="AG127" s="157" t="s">
-        <v>875</v>
+        <v>771</v>
       </c>
     </row>
     <row r="128" spans="2:33">
@@ -24675,7 +24675,7 @@
         <v>1</v>
       </c>
       <c r="AG128" s="156" t="s">
-        <v>561</v>
+        <v>855</v>
       </c>
     </row>
     <row r="129" spans="2:33">
@@ -24746,13 +24746,13 @@
         <v>1559</v>
       </c>
       <c r="AE129" s="157" t="s">
-        <v>1325</v>
+        <v>1560</v>
       </c>
       <c r="AF129" s="159">
         <v>1</v>
       </c>
       <c r="AG129" s="157" t="s">
-        <v>597</v>
+        <v>631</v>
       </c>
     </row>
     <row r="130" spans="2:33">
@@ -24820,16 +24820,16 @@
         <v>1187</v>
       </c>
       <c r="AD130" s="156" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="AE130" s="156" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="AF130" s="158">
         <v>1</v>
       </c>
       <c r="AG130" s="156" t="s">
-        <v>645</v>
+        <v>819</v>
       </c>
     </row>
     <row r="131" spans="2:33">
@@ -24897,16 +24897,16 @@
         <v>1189</v>
       </c>
       <c r="AD131" s="157" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="AE131" s="157" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="AF131" s="159">
         <v>1</v>
       </c>
       <c r="AG131" s="157" t="s">
-        <v>661</v>
+        <v>783</v>
       </c>
     </row>
     <row r="132" spans="2:33">
@@ -24974,16 +24974,16 @@
         <v>1191</v>
       </c>
       <c r="AD132" s="156" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="AE132" s="156" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="AF132" s="158">
         <v>1</v>
       </c>
       <c r="AG132" s="156" t="s">
-        <v>607</v>
+        <v>781</v>
       </c>
     </row>
     <row r="133" spans="2:33">
@@ -25051,16 +25051,16 @@
         <v>1193</v>
       </c>
       <c r="AD133" s="157" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="AE133" s="157" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="AF133" s="159">
         <v>1</v>
       </c>
       <c r="AG133" s="157" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
     </row>
     <row r="134" spans="2:33">
@@ -25128,16 +25128,16 @@
         <v>1195</v>
       </c>
       <c r="AD134" s="156" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="AE134" s="156" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="AF134" s="158">
         <v>1</v>
       </c>
       <c r="AG134" s="156" t="s">
-        <v>919</v>
+        <v>787</v>
       </c>
     </row>
     <row r="135" spans="2:33">
@@ -25205,16 +25205,16 @@
         <v>1197</v>
       </c>
       <c r="AD135" s="157" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="AE135" s="157" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="AF135" s="159">
         <v>1</v>
       </c>
       <c r="AG135" s="157" t="s">
-        <v>801</v>
+        <v>637</v>
       </c>
     </row>
     <row r="136" spans="2:33">
@@ -25282,16 +25282,16 @@
         <v>1199</v>
       </c>
       <c r="AD136" s="156" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="AE136" s="156" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="AF136" s="158">
         <v>1</v>
       </c>
       <c r="AG136" s="156" t="s">
-        <v>657</v>
+        <v>621</v>
       </c>
     </row>
     <row r="137" spans="2:33">
@@ -25359,16 +25359,16 @@
         <v>1201</v>
       </c>
       <c r="AD137" s="157" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="AE137" s="157" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="AF137" s="159">
         <v>1</v>
       </c>
       <c r="AG137" s="157" t="s">
-        <v>729</v>
+        <v>557</v>
       </c>
     </row>
     <row r="138" spans="2:33">
@@ -25436,16 +25436,16 @@
         <v>1203</v>
       </c>
       <c r="AD138" s="156" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="AE138" s="156" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="AF138" s="158">
         <v>1</v>
       </c>
       <c r="AG138" s="156" t="s">
-        <v>877</v>
+        <v>745</v>
       </c>
     </row>
     <row r="139" spans="2:33">
@@ -25513,16 +25513,16 @@
         <v>1205</v>
       </c>
       <c r="AD139" s="157" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="AE139" s="157" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="AF139" s="159">
         <v>1</v>
       </c>
       <c r="AG139" s="157" t="s">
-        <v>573</v>
+        <v>899</v>
       </c>
     </row>
     <row r="140" spans="2:33">
@@ -25590,16 +25590,16 @@
         <v>1207</v>
       </c>
       <c r="AD140" s="156" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="AE140" s="156" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="AF140" s="158">
         <v>1</v>
       </c>
       <c r="AG140" s="156" t="s">
-        <v>799</v>
+        <v>869</v>
       </c>
     </row>
     <row r="141" spans="2:33">
@@ -25667,16 +25667,16 @@
         <v>1209</v>
       </c>
       <c r="AD141" s="157" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="AE141" s="157" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="AF141" s="159">
         <v>1</v>
       </c>
       <c r="AG141" s="157" t="s">
-        <v>697</v>
+        <v>643</v>
       </c>
     </row>
     <row r="142" spans="2:33">
@@ -25744,16 +25744,16 @@
         <v>1211</v>
       </c>
       <c r="AD142" s="156" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="AE142" s="156" t="s">
-        <v>1399</v>
+        <v>1586</v>
       </c>
       <c r="AF142" s="158">
         <v>1</v>
       </c>
       <c r="AG142" s="156" t="s">
-        <v>707</v>
+        <v>903</v>
       </c>
     </row>
     <row r="143" spans="2:33">
@@ -25821,16 +25821,16 @@
         <v>1213</v>
       </c>
       <c r="AD143" s="157" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="AE143" s="157" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="AF143" s="159">
         <v>1</v>
       </c>
       <c r="AG143" s="157" t="s">
-        <v>843</v>
+        <v>627</v>
       </c>
     </row>
     <row r="144" spans="2:33">
@@ -25898,16 +25898,16 @@
         <v>1215</v>
       </c>
       <c r="AD144" s="156" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="AE144" s="156" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="AF144" s="158">
         <v>1</v>
       </c>
       <c r="AG144" s="156" t="s">
-        <v>909</v>
+        <v>689</v>
       </c>
     </row>
     <row r="145" spans="2:33">
@@ -25975,16 +25975,16 @@
         <v>1217</v>
       </c>
       <c r="AD145" s="157" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="AE145" s="157" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="AF145" s="159">
         <v>1</v>
       </c>
       <c r="AG145" s="157" t="s">
-        <v>777</v>
+        <v>797</v>
       </c>
     </row>
     <row r="146" spans="2:33">
@@ -26052,16 +26052,16 @@
         <v>1219</v>
       </c>
       <c r="AD146" s="156" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="AE146" s="156" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="AF146" s="158">
         <v>1</v>
       </c>
       <c r="AG146" s="156" t="s">
-        <v>555</v>
+        <v>927</v>
       </c>
     </row>
     <row r="147" spans="2:33">
@@ -26129,16 +26129,16 @@
         <v>1221</v>
       </c>
       <c r="AD147" s="157" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="AE147" s="157" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="AF147" s="159">
         <v>1</v>
       </c>
       <c r="AG147" s="157" t="s">
-        <v>837</v>
+        <v>817</v>
       </c>
     </row>
     <row r="148" spans="2:33">
@@ -26206,16 +26206,16 @@
         <v>1223</v>
       </c>
       <c r="AD148" s="156" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="AE148" s="156" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="AF148" s="158">
         <v>1</v>
       </c>
       <c r="AG148" s="156" t="s">
-        <v>699</v>
+        <v>789</v>
       </c>
     </row>
     <row r="149" spans="2:33">
@@ -26283,16 +26283,16 @@
         <v>1225</v>
       </c>
       <c r="AD149" s="157" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="AE149" s="157" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="AF149" s="159">
         <v>1</v>
       </c>
       <c r="AG149" s="157" t="s">
-        <v>929</v>
+        <v>583</v>
       </c>
     </row>
     <row r="150" spans="2:33">
@@ -26360,16 +26360,16 @@
         <v>1227</v>
       </c>
       <c r="AD150" s="156" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="AE150" s="156" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="AF150" s="158">
         <v>1</v>
       </c>
       <c r="AG150" s="156" t="s">
-        <v>691</v>
+        <v>875</v>
       </c>
     </row>
     <row r="151" spans="2:33">
@@ -26437,16 +26437,16 @@
         <v>1229</v>
       </c>
       <c r="AD151" s="157" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="AE151" s="157" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="AF151" s="159">
         <v>1</v>
       </c>
       <c r="AG151" s="157" t="s">
-        <v>675</v>
+        <v>561</v>
       </c>
     </row>
     <row r="152" spans="2:33">
@@ -26514,16 +26514,16 @@
         <v>1231</v>
       </c>
       <c r="AD152" s="156" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="AE152" s="156" t="s">
-        <v>1604</v>
+        <v>1325</v>
       </c>
       <c r="AF152" s="158">
         <v>1</v>
       </c>
       <c r="AG152" s="156" t="s">
-        <v>673</v>
+        <v>597</v>
       </c>
     </row>
     <row r="153" spans="2:33">
@@ -26591,16 +26591,16 @@
         <v>1233</v>
       </c>
       <c r="AD153" s="157" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="AE153" s="157" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="AF153" s="159">
         <v>1</v>
       </c>
       <c r="AG153" s="157" t="s">
-        <v>565</v>
+        <v>645</v>
       </c>
     </row>
     <row r="154" spans="2:33">
@@ -26668,16 +26668,16 @@
         <v>1235</v>
       </c>
       <c r="AD154" s="156" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="AE154" s="156" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="AF154" s="158">
         <v>1</v>
       </c>
       <c r="AG154" s="156" t="s">
-        <v>559</v>
+        <v>661</v>
       </c>
     </row>
     <row r="155" spans="2:33">
@@ -26745,16 +26745,16 @@
         <v>1237</v>
       </c>
       <c r="AD155" s="157" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="AE155" s="157" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="AF155" s="159">
         <v>1</v>
       </c>
       <c r="AG155" s="157" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="156" spans="2:33">
@@ -26822,16 +26822,16 @@
         <v>1239</v>
       </c>
       <c r="AD156" s="156" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="AE156" s="156" t="s">
-        <v>1612</v>
+        <v>1393</v>
       </c>
       <c r="AF156" s="158">
         <v>1</v>
       </c>
       <c r="AG156" s="156" t="s">
-        <v>581</v>
+        <v>715</v>
       </c>
     </row>
     <row r="157" spans="2:33">
@@ -26908,7 +26908,7 @@
         <v>1</v>
       </c>
       <c r="AG157" s="157" t="s">
-        <v>887</v>
+        <v>919</v>
       </c>
     </row>
     <row r="158" spans="2:33">
@@ -26979,13 +26979,13 @@
         <v>1615</v>
       </c>
       <c r="AE158" s="156" t="s">
-        <v>1567</v>
+        <v>1616</v>
       </c>
       <c r="AF158" s="158">
         <v>1</v>
       </c>
       <c r="AG158" s="156" t="s">
-        <v>711</v>
+        <v>849</v>
       </c>
     </row>
     <row r="159" spans="2:33">
@@ -27053,16 +27053,16 @@
         <v>1245</v>
       </c>
       <c r="AD159" s="157" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="AE159" s="157" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="AF159" s="159">
         <v>1</v>
       </c>
       <c r="AG159" s="157" t="s">
-        <v>915</v>
+        <v>775</v>
       </c>
     </row>
     <row r="160" spans="2:33">
@@ -27130,16 +27130,16 @@
         <v>1247</v>
       </c>
       <c r="AD160" s="156" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="AE160" s="156" t="s">
-        <v>1395</v>
+        <v>1620</v>
       </c>
       <c r="AF160" s="158">
         <v>1</v>
       </c>
       <c r="AG160" s="156" t="s">
-        <v>921</v>
+        <v>625</v>
       </c>
     </row>
     <row r="161" spans="2:33">
@@ -27207,16 +27207,16 @@
         <v>1249</v>
       </c>
       <c r="AD161" s="157" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="AE161" s="157" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="AF161" s="159">
         <v>1</v>
       </c>
       <c r="AG161" s="157" t="s">
-        <v>803</v>
+        <v>917</v>
       </c>
     </row>
     <row r="162" spans="2:33">
@@ -27284,16 +27284,16 @@
         <v>1251</v>
       </c>
       <c r="AD162" s="156" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="AE162" s="156" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="AF162" s="158">
         <v>1</v>
       </c>
       <c r="AG162" s="156" t="s">
-        <v>735</v>
+        <v>889</v>
       </c>
     </row>
     <row r="163" spans="2:33">
@@ -27361,16 +27361,16 @@
         <v>1253</v>
       </c>
       <c r="AD163" s="157" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="AE163" s="157" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="AF163" s="159">
         <v>1</v>
       </c>
       <c r="AG163" s="157" t="s">
-        <v>873</v>
+        <v>833</v>
       </c>
     </row>
     <row r="164" spans="2:33">
@@ -27438,16 +27438,16 @@
         <v>1255</v>
       </c>
       <c r="AD164" s="156" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="AE164" s="156" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="AF164" s="158">
         <v>1</v>
       </c>
       <c r="AG164" s="156" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="165" spans="2:33">
@@ -27515,16 +27515,16 @@
         <v>1257</v>
       </c>
       <c r="AD165" s="157" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AE165" s="157" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="AF165" s="159">
         <v>1</v>
       </c>
       <c r="AG165" s="157" t="s">
-        <v>629</v>
+        <v>841</v>
       </c>
     </row>
     <row r="166" spans="2:33">
@@ -27592,16 +27592,16 @@
         <v>1259</v>
       </c>
       <c r="AD166" s="156" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="AE166" s="156" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="AF166" s="158">
         <v>1</v>
       </c>
       <c r="AG166" s="156" t="s">
-        <v>853</v>
+        <v>913</v>
       </c>
     </row>
     <row r="167" spans="2:33">
@@ -27669,16 +27669,16 @@
         <v>1261</v>
       </c>
       <c r="AD167" s="157" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="AE167" s="157" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="AF167" s="159">
         <v>1</v>
       </c>
       <c r="AG167" s="157" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
     </row>
     <row r="168" spans="2:33">
@@ -27746,16 +27746,16 @@
         <v>1263</v>
       </c>
       <c r="AD168" s="156" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="AE168" s="156" t="s">
-        <v>1634</v>
+        <v>1343</v>
       </c>
       <c r="AF168" s="158">
         <v>1</v>
       </c>
       <c r="AG168" s="156" t="s">
-        <v>571</v>
+        <v>663</v>
       </c>
     </row>
     <row r="169" spans="2:33">
@@ -27823,16 +27823,16 @@
         <v>1265</v>
       </c>
       <c r="AD169" s="157" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="AE169" s="157" t="s">
-        <v>1636</v>
+        <v>1469</v>
       </c>
       <c r="AF169" s="159">
         <v>1</v>
       </c>
       <c r="AG169" s="157" t="s">
-        <v>905</v>
+        <v>717</v>
       </c>
     </row>
     <row r="170" spans="2:33">
@@ -27909,7 +27909,7 @@
         <v>1</v>
       </c>
       <c r="AG170" s="156" t="s">
-        <v>907</v>
+        <v>859</v>
       </c>
     </row>
     <row r="171" spans="2:33">
@@ -27986,7 +27986,7 @@
         <v>1</v>
       </c>
       <c r="AG171" s="157" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="172" spans="2:33">
@@ -28063,7 +28063,7 @@
         <v>1</v>
       </c>
       <c r="AG172" s="156" t="s">
-        <v>641</v>
+        <v>761</v>
       </c>
     </row>
     <row r="173" spans="2:33">
@@ -28134,13 +28134,13 @@
         <v>1643</v>
       </c>
       <c r="AE173" s="157" t="s">
-        <v>1353</v>
+        <v>1644</v>
       </c>
       <c r="AF173" s="159">
         <v>1</v>
       </c>
       <c r="AG173" s="157" t="s">
-        <v>793</v>
+        <v>891</v>
       </c>
     </row>
     <row r="174" spans="2:33">
@@ -28208,16 +28208,16 @@
         <v>1275</v>
       </c>
       <c r="AD174" s="156" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="AE174" s="156" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="AF174" s="158">
         <v>1</v>
       </c>
       <c r="AG174" s="156" t="s">
-        <v>753</v>
+        <v>901</v>
       </c>
     </row>
     <row r="175" spans="2:33">
@@ -28285,16 +28285,16 @@
         <v>1277</v>
       </c>
       <c r="AD175" s="157" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="AE175" s="157" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="AF175" s="159">
         <v>1</v>
       </c>
       <c r="AG175" s="157" t="s">
-        <v>847</v>
+        <v>867</v>
       </c>
     </row>
     <row r="176" spans="2:33">
@@ -28362,16 +28362,16 @@
         <v>1279</v>
       </c>
       <c r="AD176" s="156" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="AE176" s="156" t="s">
-        <v>1649</v>
+        <v>1497</v>
       </c>
       <c r="AF176" s="158">
         <v>1</v>
       </c>
       <c r="AG176" s="156" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
     </row>
     <row r="177" spans="2:33">
@@ -28448,7 +28448,7 @@
         <v>1</v>
       </c>
       <c r="AG177" s="157" t="s">
-        <v>857</v>
+        <v>655</v>
       </c>
     </row>
     <row r="178" spans="2:33">
@@ -28525,7 +28525,7 @@
         <v>1</v>
       </c>
       <c r="AG178" s="156" t="s">
-        <v>809</v>
+        <v>687</v>
       </c>
     </row>
     <row r="179" spans="2:33">
@@ -28602,7 +28602,7 @@
         <v>1</v>
       </c>
       <c r="AG179" s="157" t="s">
-        <v>725</v>
+        <v>585</v>
       </c>
     </row>
     <row r="180" spans="2:33">
@@ -28679,7 +28679,7 @@
         <v>1</v>
       </c>
       <c r="AG180" s="156" t="s">
-        <v>591</v>
+        <v>779</v>
       </c>
     </row>
     <row r="181" spans="2:33">
@@ -28756,7 +28756,7 @@
         <v>1</v>
       </c>
       <c r="AG181" s="157" t="s">
-        <v>863</v>
+        <v>835</v>
       </c>
     </row>
     <row r="182" spans="2:33">
@@ -28833,7 +28833,7 @@
         <v>1</v>
       </c>
       <c r="AG182" s="156" t="s">
-        <v>733</v>
+        <v>671</v>
       </c>
     </row>
     <row r="183" spans="2:33">
@@ -28910,7 +28910,7 @@
         <v>1</v>
       </c>
       <c r="AG183" s="157" t="s">
-        <v>825</v>
+        <v>785</v>
       </c>
     </row>
     <row r="184" spans="2:33">
@@ -28987,7 +28987,7 @@
         <v>1</v>
       </c>
       <c r="AG184" s="156" t="s">
-        <v>613</v>
+        <v>769</v>
       </c>
     </row>
     <row r="185" spans="2:33">
@@ -29064,7 +29064,7 @@
         <v>1</v>
       </c>
       <c r="AG185" s="157" t="s">
-        <v>813</v>
+        <v>693</v>
       </c>
     </row>
     <row r="186" spans="2:33">
@@ -29135,13 +29135,13 @@
         <v>1668</v>
       </c>
       <c r="AE186" s="156" t="s">
-        <v>1455</v>
+        <v>1669</v>
       </c>
       <c r="AF186" s="158">
         <v>1</v>
       </c>
       <c r="AG186" s="156" t="s">
-        <v>683</v>
+        <v>579</v>
       </c>
     </row>
     <row r="187" spans="2:33">
@@ -29209,16 +29209,16 @@
         <v>1301</v>
       </c>
       <c r="AD187" s="157" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="AE187" s="157" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="AF187" s="159">
         <v>1</v>
       </c>
       <c r="AG187" s="157" t="s">
-        <v>623</v>
+        <v>701</v>
       </c>
     </row>
     <row r="188" spans="2:33">
@@ -29286,16 +29286,16 @@
         <v>1303</v>
       </c>
       <c r="AD188" s="156" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="AE188" s="156" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="AF188" s="158">
         <v>1</v>
       </c>
       <c r="AG188" s="156" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
     </row>
     <row r="189" spans="2:33">
@@ -29363,16 +29363,16 @@
         <v>1305</v>
       </c>
       <c r="AD189" s="157" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="AE189" s="157" t="s">
-        <v>1674</v>
+        <v>1397</v>
       </c>
       <c r="AF189" s="159">
         <v>1</v>
       </c>
       <c r="AG189" s="157" t="s">
-        <v>827</v>
+        <v>923</v>
       </c>
     </row>
     <row r="190" spans="2:33">
@@ -29449,7 +29449,7 @@
         <v>1</v>
       </c>
       <c r="AG190" s="156" t="s">
-        <v>829</v>
+        <v>677</v>
       </c>
     </row>
     <row r="191" spans="2:33">
@@ -29520,13 +29520,13 @@
         <v>1677</v>
       </c>
       <c r="AE191" s="157" t="s">
-        <v>1475</v>
+        <v>1548</v>
       </c>
       <c r="AF191" s="159">
         <v>1</v>
       </c>
       <c r="AG191" s="157" t="s">
-        <v>739</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -29539,7 +29539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5539AEBB-793B-4B37-AFA9-723C76131668}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00EB558-A3DC-45FC-865B-C35D0175EFEC}">
   <dimension ref="A1:O192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36811,7 +36811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA6F72F-832C-43C7-AAF0-3C49D0094611}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EE978E-1252-4DB6-8370-003179CF193B}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -38677,7 +38677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BFEA8C-E64D-44A4-BB0E-066F5CC871DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34A7E69-4438-491A-82D3-11F05C657015}">
   <dimension ref="A1:M317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -39968,7 +39968,7 @@
         <v>2344</v>
       </c>
       <c r="C42" s="156" t="s">
-        <v>1586</v>
+        <v>1550</v>
       </c>
       <c r="D42" s="156" t="s">
         <v>2345</v>
@@ -40003,7 +40003,7 @@
         <v>2345</v>
       </c>
       <c r="D43" s="157" t="s">
-        <v>1586</v>
+        <v>1550</v>
       </c>
       <c r="E43" s="159">
         <v>1</v>
@@ -40995,7 +40995,7 @@
         <v>2408</v>
       </c>
       <c r="D74" s="156" t="s">
-        <v>1538</v>
+        <v>1345</v>
       </c>
       <c r="E74" s="158">
         <v>1</v>
@@ -41024,7 +41024,7 @@
         <v>2409</v>
       </c>
       <c r="C75" s="157" t="s">
-        <v>1538</v>
+        <v>1345</v>
       </c>
       <c r="D75" s="157" t="s">
         <v>2408</v>
@@ -41440,7 +41440,7 @@
         <v>2434</v>
       </c>
       <c r="C88" s="156" t="s">
-        <v>1645</v>
+        <v>1528</v>
       </c>
       <c r="D88" s="156" t="s">
         <v>2435</v>
@@ -41475,7 +41475,7 @@
         <v>2435</v>
       </c>
       <c r="D89" s="157" t="s">
-        <v>1645</v>
+        <v>1528</v>
       </c>
       <c r="E89" s="159">
         <v>1</v>
@@ -42592,7 +42592,7 @@
         <v>2505</v>
       </c>
       <c r="C124" s="156" t="s">
-        <v>1423</v>
+        <v>1499</v>
       </c>
       <c r="D124" s="156" t="s">
         <v>2506</v>
@@ -42627,7 +42627,7 @@
         <v>2506</v>
       </c>
       <c r="D125" s="157" t="s">
-        <v>1423</v>
+        <v>1499</v>
       </c>
       <c r="E125" s="159">
         <v>1</v>
@@ -44067,7 +44067,7 @@
         <v>2596</v>
       </c>
       <c r="D170" s="156" t="s">
-        <v>1617</v>
+        <v>1395</v>
       </c>
       <c r="E170" s="158">
         <v>1</v>
@@ -44096,7 +44096,7 @@
         <v>2597</v>
       </c>
       <c r="C171" s="157" t="s">
-        <v>1617</v>
+        <v>1395</v>
       </c>
       <c r="D171" s="157" t="s">
         <v>2596</v>
@@ -44320,7 +44320,7 @@
         <v>2610</v>
       </c>
       <c r="C178" s="156" t="s">
-        <v>1567</v>
+        <v>1393</v>
       </c>
       <c r="D178" s="156" t="s">
         <v>2611</v>
@@ -44355,7 +44355,7 @@
         <v>2611</v>
       </c>
       <c r="D179" s="157" t="s">
-        <v>1567</v>
+        <v>1393</v>
       </c>
       <c r="E179" s="159">
         <v>1</v>
@@ -44835,7 +44835,7 @@
         <v>2642</v>
       </c>
       <c r="D194" s="156" t="s">
-        <v>1421</v>
+        <v>1497</v>
       </c>
       <c r="E194" s="158">
         <v>1</v>
@@ -44864,7 +44864,7 @@
         <v>2643</v>
       </c>
       <c r="C195" s="157" t="s">
-        <v>1421</v>
+        <v>1497</v>
       </c>
       <c r="D195" s="157" t="s">
         <v>2642</v>
@@ -45024,7 +45024,7 @@
         <v>2652</v>
       </c>
       <c r="C200" s="156" t="s">
-        <v>1349</v>
+        <v>1471</v>
       </c>
       <c r="D200" s="156" t="s">
         <v>2653</v>
@@ -45059,7 +45059,7 @@
         <v>2653</v>
       </c>
       <c r="D201" s="157" t="s">
-        <v>1349</v>
+        <v>1471</v>
       </c>
       <c r="E201" s="159">
         <v>1</v>
@@ -46179,7 +46179,7 @@
         <v>2724</v>
       </c>
       <c r="D236" s="156" t="s">
-        <v>1540</v>
+        <v>1347</v>
       </c>
       <c r="E236" s="158">
         <v>1</v>
@@ -46208,7 +46208,7 @@
         <v>2725</v>
       </c>
       <c r="C237" s="157" t="s">
-        <v>1540</v>
+        <v>1347</v>
       </c>
       <c r="D237" s="157" t="s">
         <v>2724</v>
@@ -46947,7 +46947,7 @@
         <v>2771</v>
       </c>
       <c r="D260" s="156" t="s">
-        <v>1672</v>
+        <v>1446</v>
       </c>
       <c r="E260" s="158">
         <v>1</v>
@@ -46976,7 +46976,7 @@
         <v>2772</v>
       </c>
       <c r="C261" s="157" t="s">
-        <v>1672</v>
+        <v>1446</v>
       </c>
       <c r="D261" s="157" t="s">
         <v>2771</v>
@@ -48739,7 +48739,7 @@
         <v>2880</v>
       </c>
       <c r="D316" s="156" t="s">
-        <v>1453</v>
+        <v>1361</v>
       </c>
       <c r="E316" s="158">
         <v>1</v>
@@ -48768,7 +48768,7 @@
         <v>2881</v>
       </c>
       <c r="C317" s="157" t="s">
-        <v>1453</v>
+        <v>1361</v>
       </c>
       <c r="D317" s="157" t="s">
         <v>2880</v>

--- a/VerveStacks_DEU_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_DEU_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EFE5502-8D4D-43E1-8E51-114910169885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA852C11-5DB3-4CDD-A54C-4582B50FEBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2960,18 +2960,336 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_solelc_won-DEU_0130</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_130</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0159</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_159</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0038</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_38</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0098</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_98</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0047</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_47</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0034</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_34</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0110</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_110</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0074</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_74</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0100</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_100</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0117</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_117</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0139</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_139</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0146</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_146</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0121</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_121</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0170</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_170</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0094</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_94</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0014</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_14</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0026</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_26</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0065</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_65</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0132</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_132</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0048</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_48</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0031</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_31</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0030</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_30</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0173</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_173</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0033</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_33</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0135</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_135</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0180</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_180</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0079</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_79</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0176</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_176</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0017</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_17</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0046</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_46</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0123</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_123</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0097</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_97</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0185</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_185</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0172</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_172</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0141</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_141</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0149</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_149</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0035</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_35</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0128</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_128</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0001</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_1</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0184</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_184</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0085</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_85</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0071</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_71</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0138</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_138</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0087</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_87</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0067</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_67</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0024</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_24</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0021</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_21</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0081</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_81</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0086</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_86</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0070</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_70</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0120</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_120</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0143</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_143</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0158</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_158</t>
+  </si>
+  <si>
     <t>distr_solelc_won-DEU_0049</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell DEU_49</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
     <t>distr_solelc_won-DEU_0041</t>
   </si>
   <si>
@@ -3020,94 +3338,316 @@
     <t>connecting solar and wind to buses in grid cell DEU_72</t>
   </si>
   <si>
-    <t>distr_solelc_won-DEU_0130</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_130</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0159</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_159</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0038</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_38</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0098</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_98</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0047</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_47</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0034</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_34</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0110</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_110</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0074</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_74</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0100</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_100</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0117</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_117</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0139</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_139</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0146</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_146</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0121</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_121</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0170</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_170</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0094</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_94</t>
+    <t>distr_solelc_won-DEU_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_4</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0144</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_144</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0177</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_177</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0075</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_75</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0106</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_106</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0039</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_39</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0162</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_162</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0167</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_167</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_6</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_9</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0127</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_127</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0042</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_42</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0076</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_76</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0155</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_155</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0103</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_103</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_2</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0118</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_118</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0142</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_142</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0037</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_37</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0166</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_166</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0119</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_119</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0187</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_187</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0115</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_115</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0084</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_84</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0044</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_44</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0090</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_90</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0005</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_5</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0082</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_82</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0161</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_161</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0125</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_125</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0174</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_174</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0182</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_182</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0165</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_165</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0154</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_154</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0077</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_77</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0107</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_107</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0040</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_40</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0018</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_18</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0073</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_73</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0104</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_104</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0131</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_131</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0064</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_64</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0186</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_186</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0105</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_105</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0088</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_88</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0089</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_89</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_23</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0137</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_137</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0036</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_36</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0188</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_188</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0061</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_61</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0113</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_113</t>
   </si>
   <si>
     <t>distr_solelc_won-DEU_0015</t>
@@ -3164,6 +3704,84 @@
     <t>connecting solar and wind to buses in grid cell DEU_83</t>
   </si>
   <si>
+    <t>distr_solelc_won-DEU_0111</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_111</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0003</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_3</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0056</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_56</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0150</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_150</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0032</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_32</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0025</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_25</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0160</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_160</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0109</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_109</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0164</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_164</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_22</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0096</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_96</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0153</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_153</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0168</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_168</t>
+  </si>
+  <si>
     <t>distr_solelc_won-DEU_0063</t>
   </si>
   <si>
@@ -3218,64 +3836,76 @@
     <t>connecting solar and wind to buses in grid cell DEU_54</t>
   </si>
   <si>
-    <t>distr_solelc_won-DEU_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_4</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0144</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_144</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0177</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_177</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0075</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_75</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0106</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_106</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0039</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_39</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0162</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_162</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0167</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_167</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_6</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_9</t>
+    <t>distr_solelc_won-DEU_0062</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_62</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0028</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_28</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_13</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0093</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_93</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0080</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_80</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0055</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_55</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0101</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_101</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0059</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_59</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0091</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_91</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_19</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0147</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_147</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0171</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_171</t>
   </si>
   <si>
     <t>distr_solelc_won-DEU_0029</t>
@@ -3374,162 +4004,6 @@
     <t>connecting solar and wind to buses in grid cell DEU_95</t>
   </si>
   <si>
-    <t>distr_solelc_won-DEU_0127</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_127</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0042</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_42</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0076</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_76</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0155</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_155</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0103</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_103</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_2</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0118</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_118</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0142</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_142</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0037</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_37</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0166</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_166</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0119</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_119</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0187</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_187</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0115</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_115</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0084</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_84</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0044</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_44</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0090</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_90</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0005</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_5</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0082</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_82</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0161</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_161</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0125</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_125</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0174</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_174</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0182</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_182</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0165</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_165</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0154</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_154</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0077</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_77</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0107</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_107</t>
-  </si>
-  <si>
     <t>distr_solelc_won-DEU_0066</t>
   </si>
   <si>
@@ -3620,483 +4094,327 @@
     <t>connecting solar and wind to buses in grid cell DEU_181</t>
   </si>
   <si>
-    <t>distr_solelc_won-DEU_0067</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_67</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0024</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_24</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0021</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_21</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0081</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_81</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0086</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_86</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0070</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_70</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0120</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_120</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0143</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_143</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0158</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_158</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0180</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_180</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0079</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_79</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0176</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_176</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0017</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_17</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0046</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_46</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0123</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_123</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0097</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_97</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0185</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_185</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0172</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_172</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0141</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_141</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0149</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_149</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0035</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_35</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0062</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_62</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0028</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_28</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_13</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0093</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_93</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0080</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_80</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0055</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_55</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0101</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_101</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0059</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_59</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0091</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_91</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_19</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0147</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_147</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0171</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_171</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0128</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_128</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0001</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_1</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0184</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_184</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0085</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_85</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0071</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_71</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0138</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_138</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0087</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_87</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0014</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_14</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0026</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_26</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0065</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_65</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0132</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_132</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0048</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_48</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0031</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_31</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0030</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_30</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0173</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_173</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0033</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_33</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0135</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_135</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0040</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_40</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0018</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_18</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0073</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_73</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0104</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_104</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0131</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_131</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0064</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_64</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0186</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_186</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0105</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_105</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0088</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_88</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0089</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_89</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_23</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0137</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_137</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0036</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_36</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0188</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_188</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0061</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_61</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0113</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_113</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0111</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_111</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0003</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_3</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0056</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_56</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0150</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_150</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0032</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_32</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0025</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_25</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0160</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_160</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0109</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_109</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0164</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_164</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0022</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_22</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0096</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_96</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0153</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_153</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0168</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_168</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
+    <t>elc_won-DEU_0130,elc_spv-DEU_0130</t>
+  </si>
+  <si>
+    <t>e_DE103-380,e_w29713902-380,e_w32690742-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0159,elc_spv-DEU_0159</t>
+  </si>
+  <si>
+    <t>e_DE149-380,e_w1081302145-220,e_w109917397-380,e_w166604822-380,e_w36183042-380,e_w943135226-220,e_w943135226-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0038,elc_spv-DEU_0038</t>
+  </si>
+  <si>
+    <t>e_DE207-380,e_DE208-380,e_DE209-380,e_w35954395-380,e_w42049947-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0098,elc_spv-DEU_0098</t>
+  </si>
+  <si>
+    <t>e_DE40-220,e_DE43-220,e_w151507370-220,e_w24262656-220,e_w24262656-380,e_w28227099-220,e_w30017786-220,e_w953757606-380,e_w953757608-220,e_w953757608-380,e_w97857512-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0047,elc_spv-DEU_0047</t>
+  </si>
+  <si>
+    <t>e_DE42-220,e_DE51-220,e_DE52-220,e_w24230738-380,e_w26383042-380,e_w39229429-380,e_w957746797-220,e_w957746797-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0034,elc_spv-DEU_0034</t>
+  </si>
+  <si>
+    <t>e_w1128250707-220,e_w1128250707-380,e_w23744346-220,e_w26455019-220,e_w29420322-220,e_w31024391-220,e_w31024391-380,e_w883768276-380,e_w883768277-380,e_w883928228-380,e_w883928229-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0110,elc_spv-DEU_0110</t>
+  </si>
+  <si>
+    <t>e_w24757392-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0074,elc_spv-DEU_0074</t>
+  </si>
+  <si>
+    <t>e_w26403575-380,e_w42050342-220,e_w42050342-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0100,elc_spv-DEU_0100</t>
+  </si>
+  <si>
+    <t>e_w28343121-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0117,elc_spv-DEU_0117</t>
+  </si>
+  <si>
+    <t>e_w30040568-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0139,elc_spv-DEU_0139</t>
+  </si>
+  <si>
+    <t>e_w77694901-220,e_w77697810-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0146,elc_spv-DEU_0146</t>
+  </si>
+  <si>
+    <t>e_w946025110-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0121,elc_spv-DEU_0121</t>
+  </si>
+  <si>
+    <t>e_DE212-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0170,elc_spv-DEU_0170</t>
+  </si>
+  <si>
+    <t>e_w24976300-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0094,elc_spv-DEU_0094</t>
+  </si>
+  <si>
+    <t>e_DE163-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0014,elc_spv-DEU_0014</t>
+  </si>
+  <si>
+    <t>e_DE105-220,e_DE111-380,e_DE118-220,e_DE122-220,e_DE124-380,e_DE126-220,e_DE129-220,e_DE130-380,e_w106096507-380,e_w1118059105-220,e_w22690852-220,e_w22761692-220,e_w22761692-380,e_w22761839-220,e_w22761839-380,e_w23140544-220,e_w23192640-220,e_w25043127-380,e_w25044557-380,e_w27871140-220,e_w33816726-380,e_w87767098-380,e_w92165128-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0026,elc_spv-DEU_0026</t>
+  </si>
+  <si>
+    <t>e_DE166-220,e_DE171-220,e_w198448981-380,e_w373967500-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0065,elc_spv-DEU_0065</t>
+  </si>
+  <si>
+    <t>e_DE28-380,e_w202164315-380,e_w24604789-380,e_w27739871-220,e_w27739871-380,e_w953015049-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0132,elc_spv-DEU_0132</t>
+  </si>
+  <si>
+    <t>e_DE29-220,e_w33169401-220,e_w33169401-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0048,elc_spv-DEU_0048</t>
+  </si>
+  <si>
+    <t>e_DE30-220,e_DE30-380,e_DE32-220,e_DE33-380,e_DE34-380,e_DE35-220,e_DE35-380,e_w32904794-380,e_w33411203-220,e_w33411203-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0031,elc_spv-DEU_0031</t>
+  </si>
+  <si>
+    <t>e_DE37-220,e_DE38-220,e_DE53-380,e_DE56-380,e_w111973179-220,e_w114319248-220,e_w114319248-380,e_w25506770-380,e_w29472852-220,e_w29472852-380,e_w37764852-220,e_w37764852-380,e_w42861703-220,e_w42861703-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0030,elc_spv-DEU_0030</t>
+  </si>
+  <si>
+    <t>e_DE61-380,e_DE64-220,e_DE65-380,e_DE71-220,e_DE85-380,e_DE88-380,e_DE91-380,e_w112695048-380,e_w157628351-380,e_w24414688-220,e_w24667346-220,e_w24667346-380,e_w24858617-220,e_w42488850-380,e_w42507488-220,e_w42507488-380,e_w42560068-380,e_w42809973-380,e_w51940126-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0173,elc_spv-DEU_0173</t>
+  </si>
+  <si>
+    <t>e_w1068350839-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0033,elc_spv-DEU_0033</t>
+  </si>
+  <si>
+    <t>e_w50643382-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0135,elc_spv-DEU_0135</t>
+  </si>
+  <si>
+    <t>e_w234171369-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0180,elc_spv-DEU_0180</t>
+  </si>
+  <si>
+    <t>e_DE1-220,e_DE2-220,e_DE3-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0079,elc_spv-DEU_0079</t>
+  </si>
+  <si>
+    <t>e_DE108-220,e_w156960655-380,e_w172997498-220,e_w456386244-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0176,elc_spv-DEU_0176</t>
+  </si>
+  <si>
+    <t>e_DE16-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0017,elc_spv-DEU_0017</t>
+  </si>
+  <si>
+    <t>e_DE31-380,e_w61918154-220,e_w61918154-380,e_w796306640-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0046,elc_spv-DEU_0046</t>
+  </si>
+  <si>
+    <t>e_DE63-220,e_DE94-380,e_DE95-380,e_w25943440-220,e_w25943440-380,e_w42797575-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0123,elc_spv-DEU_0123</t>
+  </si>
+  <si>
+    <t>e_w133342285-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0097,elc_spv-DEU_0097</t>
+  </si>
+  <si>
+    <t>e_w157164284-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0185,elc_spv-DEU_0185</t>
+  </si>
+  <si>
+    <t>e_w414169327-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0172,elc_spv-DEU_0172</t>
+  </si>
+  <si>
+    <t>e_w942771541-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0141,elc_spv-DEU_0141</t>
+  </si>
+  <si>
+    <t>e_w28956649-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0149,elc_spv-DEU_0149</t>
+  </si>
+  <si>
+    <t>e_w851299584-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0035,elc_spv-DEU_0035</t>
+  </si>
+  <si>
+    <t>e_w29420322-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0128,elc_spv-DEU_0128</t>
+  </si>
+  <si>
+    <t>e_DE151-220,e_w1086825107-220,e_w1086825107-380,e_w148211527-380,e_w156673637-220,e_w156673637-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0001,elc_spv-DEU_0001</t>
+  </si>
+  <si>
+    <t>e_DE164-220,e_DE167-380,e_DE170-380,e_DE172-220,e_DE172-380,e_DE173-220,e_w145680894-220,e_w151967290-220,e_w151967290-380,e_w151967291-220,e_w151967291-380,e_w89176939-220,e_w89176956-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0184,elc_spv-DEU_0184</t>
+  </si>
+  <si>
+    <t>e_DE46-380,e_w52983550-380,e_w941198517-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0085,elc_spv-DEU_0085</t>
+  </si>
+  <si>
+    <t>e_DE7-220,e_DE8-380,e_w1107961833-380,e_w22720647-220,e_w22720647-380,e_w25306938-380,e_w28008024-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0071,elc_spv-DEU_0071</t>
+  </si>
+  <si>
+    <t>e_w31131320-220,e_w31131320-380,e_w31131325-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0138,elc_spv-DEU_0138</t>
+  </si>
+  <si>
+    <t>e_w75865676-220,e_w91080806-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0087,elc_spv-DEU_0087</t>
+  </si>
+  <si>
+    <t>e_w907539360-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0067,elc_spv-DEU_0067</t>
+  </si>
+  <si>
+    <t>e_DE13-380,e_DE14-380,e_w1072574879-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0024,elc_spv-DEU_0024</t>
+  </si>
+  <si>
+    <t>e_DE194-220,e_w39011884-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0021,elc_spv-DEU_0021</t>
+  </si>
+  <si>
+    <t>e_DE213-380,e_w202865176-220,e_w202865177-380,e_w88916034-220,e_w88916034-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0081,elc_spv-DEU_0081</t>
+  </si>
+  <si>
+    <t>e_DE55-220,e_DE57-380,e_w23899043-380,e_w30109913-220,e_w699048438-220,e_w810315511-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0086,elc_spv-DEU_0086</t>
+  </si>
+  <si>
+    <t>e_w27646106-220,e_w35176751-220,e_w35176751-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0070,elc_spv-DEU_0070</t>
+  </si>
+  <si>
+    <t>e_w449010725-380,e_w946969736-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0120,elc_spv-DEU_0120</t>
+  </si>
+  <si>
+    <t>e_w275466323-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0143,elc_spv-DEU_0143</t>
+  </si>
+  <si>
+    <t>e_w167352587-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0158,elc_spv-DEU_0158</t>
+  </si>
+  <si>
+    <t>e_w166604822-380</t>
+  </si>
+  <si>
     <t>elc_won-DEU_0049,elc_spv-DEU_0049</t>
   </si>
   <si>
@@ -4151,94 +4469,310 @@
     <t>e_w41389594-220</t>
   </si>
   <si>
-    <t>elc_won-DEU_0130,elc_spv-DEU_0130</t>
-  </si>
-  <si>
-    <t>e_DE103-380,e_w29713902-380,e_w32690742-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0159,elc_spv-DEU_0159</t>
-  </si>
-  <si>
-    <t>e_DE149-380,e_w1081302145-220,e_w109917397-380,e_w166604822-380,e_w36183042-380,e_w943135226-220,e_w943135226-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0038,elc_spv-DEU_0038</t>
-  </si>
-  <si>
-    <t>e_DE207-380,e_DE208-380,e_DE209-380,e_w35954395-380,e_w42049947-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0098,elc_spv-DEU_0098</t>
-  </si>
-  <si>
-    <t>e_DE40-220,e_DE43-220,e_w151507370-220,e_w24262656-220,e_w24262656-380,e_w28227099-220,e_w30017786-220,e_w953757606-380,e_w953757608-220,e_w953757608-380,e_w97857512-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0047,elc_spv-DEU_0047</t>
-  </si>
-  <si>
-    <t>e_DE42-220,e_DE51-220,e_DE52-220,e_w24230738-380,e_w26383042-380,e_w39229429-380,e_w957746797-220,e_w957746797-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0034,elc_spv-DEU_0034</t>
-  </si>
-  <si>
-    <t>e_w1128250707-220,e_w1128250707-380,e_w23744346-220,e_w26455019-220,e_w29420322-220,e_w31024391-220,e_w31024391-380,e_w883768276-380,e_w883768277-380,e_w883928228-380,e_w883928229-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0110,elc_spv-DEU_0110</t>
-  </si>
-  <si>
-    <t>e_w24757392-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0074,elc_spv-DEU_0074</t>
-  </si>
-  <si>
-    <t>e_w26403575-380,e_w42050342-220,e_w42050342-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0100,elc_spv-DEU_0100</t>
-  </si>
-  <si>
-    <t>e_w28343121-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0117,elc_spv-DEU_0117</t>
-  </si>
-  <si>
-    <t>e_w30040568-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0139,elc_spv-DEU_0139</t>
-  </si>
-  <si>
-    <t>e_w77694901-220,e_w77697810-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0146,elc_spv-DEU_0146</t>
-  </si>
-  <si>
-    <t>e_w946025110-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0121,elc_spv-DEU_0121</t>
-  </si>
-  <si>
-    <t>e_DE212-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0170,elc_spv-DEU_0170</t>
-  </si>
-  <si>
-    <t>e_w24976300-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0094,elc_spv-DEU_0094</t>
-  </si>
-  <si>
-    <t>e_DE163-220</t>
+    <t>elc_won-DEU_0004,elc_spv-DEU_0004</t>
+  </si>
+  <si>
+    <t>e_DE106-220,e_DE107-220,e_DE107-380,e_DE110-220,e_DE110-380,e_DE112-380,e_DE113-220,e_DE114-380,e_DE117-380,e_DE125-220,e_DE125-380,e_DE127-380,e_DE128-380,e_DE131-220,e_DE133-380,e_w1040551074-220,e_w188276460-220,e_w188276460-380,e_w23084554-220,e_w23084554-380,e_w24267175-220,e_w24479984-220,e_w24479984-380,e_w24799890-220,e_w24799890-380,e_w24815262-220,e_w24839976-220,e_w24839976-380,e_w26927264-380,e_w27919734-220,e_w27919734-380,e_w31762305-220,e_w49577401-220,e_w49577401-380,e_w91854336-220,e_w91854336-380,e_w92877635-220,e_w93278553-220,e_w95434457-220,e_w95434457-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0144,elc_spv-DEU_0144</t>
+  </si>
+  <si>
+    <t>e_DE142-380,e_w167352587-220,e_w173112252-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0177,elc_spv-DEU_0177</t>
+  </si>
+  <si>
+    <t>e_w1222597066-220,e_w1222597066-380,e_w30039908-220,e_w30039908-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0075,elc_spv-DEU_0075</t>
+  </si>
+  <si>
+    <t>e_w143854536-380,e_w31653753-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0106,elc_spv-DEU_0106</t>
+  </si>
+  <si>
+    <t>e_w18629425-220,e_w18629425-380,e_w53378027-380,e_w76246159-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0039,elc_spv-DEU_0039</t>
+  </si>
+  <si>
+    <t>e_w26814283-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0162,elc_spv-DEU_0162</t>
+  </si>
+  <si>
+    <t>e_w29331499-220,e_w29331499-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0167,elc_spv-DEU_0167</t>
+  </si>
+  <si>
+    <t>e_w946710698-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0006,elc_spv-DEU_0006</t>
+  </si>
+  <si>
+    <t>e_DE62-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0009,elc_spv-DEU_0009</t>
+  </si>
+  <si>
+    <t>e_w156402422-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0127,elc_spv-DEU_0127</t>
+  </si>
+  <si>
+    <t>e_DE157-380,e_DE158-380,e_w93341407-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0042,elc_spv-DEU_0042</t>
+  </si>
+  <si>
+    <t>e_DE165-380,e_DE168-380,e_w1223405794-220,e_w1223405794-380,e_w147521567-220,e_w147521567-380,e_w149987048-220,e_w149987048-380,e_w23284340-220,e_w23284340-380,e_w24685992-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0076,elc_spv-DEU_0076</t>
+  </si>
+  <si>
+    <t>e_DE169-220,e_w24765111-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0155,elc_spv-DEU_0155</t>
+  </si>
+  <si>
+    <t>e_DE201-220,e_DE203-220,e_DE204-220,e_DE206-220,e_w24976300-220,e_w24976300-380,e_w91086220-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0103,elc_spv-DEU_0103</t>
+  </si>
+  <si>
+    <t>e_DE4-220,e_w27124619-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0002,elc_spv-DEU_0002</t>
+  </si>
+  <si>
+    <t>e_w1024536785-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0118,elc_spv-DEU_0118</t>
+  </si>
+  <si>
+    <t>e_w275466323,e_w275466323-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0142,elc_spv-DEU_0142</t>
+  </si>
+  <si>
+    <t>e_w29084374-220,e_w29084374-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0037,elc_spv-DEU_0037</t>
+  </si>
+  <si>
+    <t>e_w31367940-220,e_w31367940-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0166,elc_spv-DEU_0166</t>
+  </si>
+  <si>
+    <t>e_w39688875-220,e_w515358077-380,e_w941453716-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0119,elc_spv-DEU_0119</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0187,elc_spv-DEU_0187</t>
+  </si>
+  <si>
+    <t>e_w170123812-400</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0115,elc_spv-DEU_0115</t>
+  </si>
+  <si>
+    <t>e_w26474759-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0084,elc_spv-DEU_0084</t>
+  </si>
+  <si>
+    <t>e_DE10-380,e_DE11-380,e_DE12-380,e_w11285720-380,e_w24502420-380,e_w881636329-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0044,elc_spv-DEU_0044</t>
+  </si>
+  <si>
+    <t>e_DE146-380,e_DE152-380,e_w1245826064-380,e_w1245867884-380,e_w202747445-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0090,elc_spv-DEU_0090</t>
+  </si>
+  <si>
+    <t>e_DE200-380,e_w1093896544-380,e_w31105067-380,e_w88945213-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0005,elc_spv-DEU_0005</t>
+  </si>
+  <si>
+    <t>e_DE62-220,e_DE62-380,e_DE67-220,e_DE67-380,e_DE70-220,e_DE70-380,e_DE73-220,e_DE73-380,e_DE74-220,e_DE74-380,e_DE77-220,e_DE77-380,e_DE79-220,e_DE93-220,e_DE97-220,e_w23084417-220,e_w23380800-220,e_w23380800-380,e_w24462228-220,e_w24462317-220,e_w24462426-220,e_w24462426-380,e_w24478889-220,e_w24478889-380,e_w24479003-220,e_w24479003-380,e_w311444692-380,e_w35818134-220,e_w35818137-220,e_w37554416-220,e_w92024105-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0082,elc_spv-DEU_0082</t>
+  </si>
+  <si>
+    <t>e_w23682013-220,e_w23816140-220,e_w274621059-220,e_w33042984-220,e_w787265962-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0161,elc_spv-DEU_0161</t>
+  </si>
+  <si>
+    <t>e_w28729619-380,e_w398680313-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0125,elc_spv-DEU_0125</t>
+  </si>
+  <si>
+    <t>e_w28956649-220,e_w28956649-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0174,elc_spv-DEU_0174</t>
+  </si>
+  <si>
+    <t>e_w940922557-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0182,elc_spv-DEU_0182</t>
+  </si>
+  <si>
+    <t>e_w941805476-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0165,elc_spv-DEU_0165</t>
+  </si>
+  <si>
+    <t>e_w947118608-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0154,elc_spv-DEU_0154</t>
+  </si>
+  <si>
+    <t>e_DE206-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0077,elc_spv-DEU_0077</t>
+  </si>
+  <si>
+    <t>e_w148446247-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0107,elc_spv-DEU_0107</t>
+  </si>
+  <si>
+    <t>e_w24768051-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0040,elc_spv-DEU_0040</t>
+  </si>
+  <si>
+    <t>e_DE183-220,e_w152261133-220,e_w152261133-380,e_w254326606-380,e_w32151621-220,e_w32725957-220,e_w32725958-220,e_w32731290-220,e_w32966636-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0018,elc_spv-DEU_0018</t>
+  </si>
+  <si>
+    <t>e_DE20-380,e_w1280840211-380,e_w142487746-380,e_w206289192-380,e_w32042992-380,e_w797009308-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0073,elc_spv-DEU_0073</t>
+  </si>
+  <si>
+    <t>e_DE202-220,e_DE202-380,e_DE205-220,e_DE205-380,e_w26404600-380,e_w41389594-220,e_w41389594-380,e_w85523877-220,e_w85523877-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0104,elc_spv-DEU_0104</t>
+  </si>
+  <si>
+    <t>e_DE211-220,e_DE212-220,e_w68532663-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0131,elc_spv-DEU_0131</t>
+  </si>
+  <si>
+    <t>e_DE47-220,e_w26472665-220,e_w26472665-380,e_w943939310-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0064,elc_spv-DEU_0064</t>
+  </si>
+  <si>
+    <t>e_DE49-380,e_w23135618-220,e_w24413992-380,e_w28397771-220,e_w288305056-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0186,elc_spv-DEU_0186</t>
+  </si>
+  <si>
+    <t>e_w170123812-220,e_w170123812-380,e_w170123812-400</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0105,elc_spv-DEU_0105</t>
+  </si>
+  <si>
+    <t>e_w23907283-380,e_w24237879-220,e_w30613895-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0088,elc_spv-DEU_0088</t>
+  </si>
+  <si>
+    <t>e_w57727004-220,e_w57727004-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0089,elc_spv-DEU_0089</t>
+  </si>
+  <si>
+    <t>e_w683227471-380,e_w77038371-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0023,elc_spv-DEU_0023</t>
+  </si>
+  <si>
+    <t>e_w82130902-225,e_w933248930-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0137,elc_spv-DEU_0137</t>
+  </si>
+  <si>
+    <t>e_w75865676-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0036,elc_spv-DEU_0036</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0188,elc_spv-DEU_0188</t>
+  </si>
+  <si>
+    <t>e_w1222597066-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0061,elc_spv-DEU_0061</t>
+  </si>
+  <si>
+    <t>e_w156673636-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0113,elc_spv-DEU_0113</t>
+  </si>
+  <si>
+    <t>e_w32690742-380</t>
   </si>
   <si>
     <t>elc_won-DEU_0015,elc_spv-DEU_0015</t>
@@ -4295,6 +4829,81 @@
     <t>e_w23816140-220</t>
   </si>
   <si>
+    <t>elc_won-DEU_0111,elc_spv-DEU_0111</t>
+  </si>
+  <si>
+    <t>e_DE134-380,e_w149256409-380,e_w152219167-220,e_w25746125-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0003,elc_spv-DEU_0003</t>
+  </si>
+  <si>
+    <t>e_DE136-380,e_DE141-380,e_w24268944-380,e_w25426571-380,e_w25992879-380,e_w26593935-380,e_w870598507,e_w870598507-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0056,elc_spv-DEU_0056</t>
+  </si>
+  <si>
+    <t>e_DE195-380,e_DE196-380,e_DE197-380,e_DE198-380,e_DE199-380,e_w26260052-380,e_w30734324-380,e_w42736239-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0150,elc_spv-DEU_0150</t>
+  </si>
+  <si>
+    <t>e_DE9-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0032,elc_spv-DEU_0032</t>
+  </si>
+  <si>
+    <t>e_w150200540-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0025,elc_spv-DEU_0025</t>
+  </si>
+  <si>
+    <t>e_w152107815-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0160,elc_spv-DEU_0160</t>
+  </si>
+  <si>
+    <t>e_w157328339-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0109,elc_spv-DEU_0109</t>
+  </si>
+  <si>
+    <t>e_w24757393-380,e_w24757833-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0164,elc_spv-DEU_0164</t>
+  </si>
+  <si>
+    <t>e_w518455594-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0022,elc_spv-DEU_0022</t>
+  </si>
+  <si>
+    <t>e_w87653464-220,e_w87653464-380,e_w87653464-400</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0096,elc_spv-DEU_0096</t>
+  </si>
+  <si>
+    <t>e_w948341123-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0153,elc_spv-DEU_0153</t>
+  </si>
+  <si>
+    <t>e_w91080806-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0168,elc_spv-DEU_0168</t>
+  </si>
+  <si>
     <t>elc_won-DEU_0063,elc_spv-DEU_0063</t>
   </si>
   <si>
@@ -4346,64 +4955,70 @@
     <t>e_w31367936-220</t>
   </si>
   <si>
-    <t>elc_won-DEU_0004,elc_spv-DEU_0004</t>
-  </si>
-  <si>
-    <t>e_DE106-220,e_DE107-220,e_DE107-380,e_DE110-220,e_DE110-380,e_DE112-380,e_DE113-220,e_DE114-380,e_DE117-380,e_DE125-220,e_DE125-380,e_DE127-380,e_DE128-380,e_DE131-220,e_DE133-380,e_w1040551074-220,e_w188276460-220,e_w188276460-380,e_w23084554-220,e_w23084554-380,e_w24267175-220,e_w24479984-220,e_w24479984-380,e_w24799890-220,e_w24799890-380,e_w24815262-220,e_w24839976-220,e_w24839976-380,e_w26927264-380,e_w27919734-220,e_w27919734-380,e_w31762305-220,e_w49577401-220,e_w49577401-380,e_w91854336-220,e_w91854336-380,e_w92877635-220,e_w93278553-220,e_w95434457-220,e_w95434457-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0144,elc_spv-DEU_0144</t>
-  </si>
-  <si>
-    <t>e_DE142-380,e_w167352587-220,e_w173112252-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0177,elc_spv-DEU_0177</t>
-  </si>
-  <si>
-    <t>e_w1222597066-220,e_w1222597066-380,e_w30039908-220,e_w30039908-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0075,elc_spv-DEU_0075</t>
-  </si>
-  <si>
-    <t>e_w143854536-380,e_w31653753-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0106,elc_spv-DEU_0106</t>
-  </si>
-  <si>
-    <t>e_w18629425-220,e_w18629425-380,e_w53378027-380,e_w76246159-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0039,elc_spv-DEU_0039</t>
-  </si>
-  <si>
-    <t>e_w26814283-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0162,elc_spv-DEU_0162</t>
-  </si>
-  <si>
-    <t>e_w29331499-220,e_w29331499-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0167,elc_spv-DEU_0167</t>
-  </si>
-  <si>
-    <t>e_w946710698-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0006,elc_spv-DEU_0006</t>
-  </si>
-  <si>
-    <t>e_DE62-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0009,elc_spv-DEU_0009</t>
-  </si>
-  <si>
-    <t>e_w156402422-220</t>
+    <t>elc_won-DEU_0062,elc_spv-DEU_0062</t>
+  </si>
+  <si>
+    <t>e_DE121-380,e_w156673636-380,e_w41072584-380,e_w41232144-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0028,elc_spv-DEU_0028</t>
+  </si>
+  <si>
+    <t>e_DE135-220,e_DE137-220,e_DE137-380,e_DE140-380,e_DE143-380,e_DE145-220,e_DE147-380,e_DE148-220,e_DE148-380,e_DE150-380,e_w152403632-220,e_w152403632-380,e_w89043564-220,e_w89043564-380,e_w90148336-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0013,elc_spv-DEU_0013</t>
+  </si>
+  <si>
+    <t>e_DE138-220,e_DE138-380,e_DE139-220,e_DE139-380,e_DE144-380,e_DE153-380,e_DE154-380,e_w22765517-220,e_w22765517-380,e_w22766160-220,e_w22766160-380,e_w22767509-220,e_w22767509-380,e_w22796434-220,e_w26777313-380,e_w29374542-220,e_w32148946-220,e_w42423415-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0093,elc_spv-DEU_0093</t>
+  </si>
+  <si>
+    <t>e_DE163-220,e_w108797675-380,e_w24758329-380,e_w499165542-220,e_w499165542-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0080,elc_spv-DEU_0080</t>
+  </si>
+  <si>
+    <t>e_DE59-220,e_DE60-220,e_w952004951-220,e_w952004951-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0055,elc_spv-DEU_0055</t>
+  </si>
+  <si>
+    <t>e_w102743264-220,e_w25306752-220,e_w25306752-380,e_w31367936-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0101,elc_spv-DEU_0101</t>
+  </si>
+  <si>
+    <t>e_w1089911133-380,e_w23583867-380,e_w28327356-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0059,elc_spv-DEU_0059</t>
+  </si>
+  <si>
+    <t>e_w145002769-380,e_w55069713-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0091,elc_spv-DEU_0091</t>
+  </si>
+  <si>
+    <t>e_w38325076-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0019,elc_spv-DEU_0019</t>
+  </si>
+  <si>
+    <t>e_w559702819-220,e_w559702819-380,e_w672738029-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0147,elc_spv-DEU_0147</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0171,elc_spv-DEU_0171</t>
   </si>
   <si>
     <t>elc_won-DEU_0029,elc_spv-DEU_0029</t>
@@ -4496,165 +5111,6 @@
     <t>elc_won-DEU_0095,elc_spv-DEU_0095</t>
   </si>
   <si>
-    <t>e_w948341123-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0127,elc_spv-DEU_0127</t>
-  </si>
-  <si>
-    <t>e_DE157-380,e_DE158-380,e_w93341407-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0042,elc_spv-DEU_0042</t>
-  </si>
-  <si>
-    <t>e_DE165-380,e_DE168-380,e_w1223405794-220,e_w1223405794-380,e_w147521567-220,e_w147521567-380,e_w149987048-220,e_w149987048-380,e_w23284340-220,e_w23284340-380,e_w24685992-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0076,elc_spv-DEU_0076</t>
-  </si>
-  <si>
-    <t>e_DE169-220,e_w24765111-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0155,elc_spv-DEU_0155</t>
-  </si>
-  <si>
-    <t>e_DE201-220,e_DE203-220,e_DE204-220,e_DE206-220,e_w24976300-220,e_w24976300-380,e_w91086220-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0103,elc_spv-DEU_0103</t>
-  </si>
-  <si>
-    <t>e_DE4-220,e_w27124619-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0002,elc_spv-DEU_0002</t>
-  </si>
-  <si>
-    <t>e_w1024536785-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0118,elc_spv-DEU_0118</t>
-  </si>
-  <si>
-    <t>e_w275466323,e_w275466323-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0142,elc_spv-DEU_0142</t>
-  </si>
-  <si>
-    <t>e_w29084374-220,e_w29084374-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0037,elc_spv-DEU_0037</t>
-  </si>
-  <si>
-    <t>e_w31367940-220,e_w31367940-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0166,elc_spv-DEU_0166</t>
-  </si>
-  <si>
-    <t>e_w39688875-220,e_w515358077-380,e_w941453716-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0119,elc_spv-DEU_0119</t>
-  </si>
-  <si>
-    <t>e_w275466323-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0187,elc_spv-DEU_0187</t>
-  </si>
-  <si>
-    <t>e_w170123812-400</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0115,elc_spv-DEU_0115</t>
-  </si>
-  <si>
-    <t>e_w26474759-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0084,elc_spv-DEU_0084</t>
-  </si>
-  <si>
-    <t>e_DE10-380,e_DE11-380,e_DE12-380,e_w11285720-380,e_w24502420-380,e_w881636329-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0044,elc_spv-DEU_0044</t>
-  </si>
-  <si>
-    <t>e_DE146-380,e_DE152-380,e_w1245826064-380,e_w1245867884-380,e_w202747445-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0090,elc_spv-DEU_0090</t>
-  </si>
-  <si>
-    <t>e_DE200-380,e_w1093896544-380,e_w31105067-380,e_w88945213-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0005,elc_spv-DEU_0005</t>
-  </si>
-  <si>
-    <t>e_DE62-220,e_DE62-380,e_DE67-220,e_DE67-380,e_DE70-220,e_DE70-380,e_DE73-220,e_DE73-380,e_DE74-220,e_DE74-380,e_DE77-220,e_DE77-380,e_DE79-220,e_DE93-220,e_DE97-220,e_w23084417-220,e_w23380800-220,e_w23380800-380,e_w24462228-220,e_w24462317-220,e_w24462426-220,e_w24462426-380,e_w24478889-220,e_w24478889-380,e_w24479003-220,e_w24479003-380,e_w311444692-380,e_w35818134-220,e_w35818137-220,e_w37554416-220,e_w92024105-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0082,elc_spv-DEU_0082</t>
-  </si>
-  <si>
-    <t>e_w23682013-220,e_w23816140-220,e_w274621059-220,e_w33042984-220,e_w787265962-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0161,elc_spv-DEU_0161</t>
-  </si>
-  <si>
-    <t>e_w28729619-380,e_w398680313-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0125,elc_spv-DEU_0125</t>
-  </si>
-  <si>
-    <t>e_w28956649-220,e_w28956649-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0174,elc_spv-DEU_0174</t>
-  </si>
-  <si>
-    <t>e_w940922557-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0182,elc_spv-DEU_0182</t>
-  </si>
-  <si>
-    <t>e_w941805476-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0165,elc_spv-DEU_0165</t>
-  </si>
-  <si>
-    <t>e_w947118608-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0154,elc_spv-DEU_0154</t>
-  </si>
-  <si>
-    <t>e_DE206-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0077,elc_spv-DEU_0077</t>
-  </si>
-  <si>
-    <t>e_w148446247-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0107,elc_spv-DEU_0107</t>
-  </si>
-  <si>
-    <t>e_w24768051-220</t>
-  </si>
-  <si>
     <t>elc_won-DEU_0066,elc_spv-DEU_0066</t>
   </si>
   <si>
@@ -4737,462 +5193,6 @@
   </si>
   <si>
     <t>elc_won-DEU_0181,elc_spv-DEU_0181</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0067,elc_spv-DEU_0067</t>
-  </si>
-  <si>
-    <t>e_DE13-380,e_DE14-380,e_w1072574879-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0024,elc_spv-DEU_0024</t>
-  </si>
-  <si>
-    <t>e_DE194-220,e_w39011884-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0021,elc_spv-DEU_0021</t>
-  </si>
-  <si>
-    <t>e_DE213-380,e_w202865176-220,e_w202865177-380,e_w88916034-220,e_w88916034-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0081,elc_spv-DEU_0081</t>
-  </si>
-  <si>
-    <t>e_DE55-220,e_DE57-380,e_w23899043-380,e_w30109913-220,e_w699048438-220,e_w810315511-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0086,elc_spv-DEU_0086</t>
-  </si>
-  <si>
-    <t>e_w27646106-220,e_w35176751-220,e_w35176751-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0070,elc_spv-DEU_0070</t>
-  </si>
-  <si>
-    <t>e_w449010725-380,e_w946969736-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0120,elc_spv-DEU_0120</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0143,elc_spv-DEU_0143</t>
-  </si>
-  <si>
-    <t>e_w167352587-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0158,elc_spv-DEU_0158</t>
-  </si>
-  <si>
-    <t>e_w166604822-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0180,elc_spv-DEU_0180</t>
-  </si>
-  <si>
-    <t>e_DE1-220,e_DE2-220,e_DE3-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0079,elc_spv-DEU_0079</t>
-  </si>
-  <si>
-    <t>e_DE108-220,e_w156960655-380,e_w172997498-220,e_w456386244-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0176,elc_spv-DEU_0176</t>
-  </si>
-  <si>
-    <t>e_DE16-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0017,elc_spv-DEU_0017</t>
-  </si>
-  <si>
-    <t>e_DE31-380,e_w61918154-220,e_w61918154-380,e_w796306640-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0046,elc_spv-DEU_0046</t>
-  </si>
-  <si>
-    <t>e_DE63-220,e_DE94-380,e_DE95-380,e_w25943440-220,e_w25943440-380,e_w42797575-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0123,elc_spv-DEU_0123</t>
-  </si>
-  <si>
-    <t>e_w133342285-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0097,elc_spv-DEU_0097</t>
-  </si>
-  <si>
-    <t>e_w157164284-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0185,elc_spv-DEU_0185</t>
-  </si>
-  <si>
-    <t>e_w414169327-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0172,elc_spv-DEU_0172</t>
-  </si>
-  <si>
-    <t>e_w942771541-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0141,elc_spv-DEU_0141</t>
-  </si>
-  <si>
-    <t>e_w28956649-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0149,elc_spv-DEU_0149</t>
-  </si>
-  <si>
-    <t>e_w851299584-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0035,elc_spv-DEU_0035</t>
-  </si>
-  <si>
-    <t>e_w29420322-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0062,elc_spv-DEU_0062</t>
-  </si>
-  <si>
-    <t>e_DE121-380,e_w156673636-380,e_w41072584-380,e_w41232144-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0028,elc_spv-DEU_0028</t>
-  </si>
-  <si>
-    <t>e_DE135-220,e_DE137-220,e_DE137-380,e_DE140-380,e_DE143-380,e_DE145-220,e_DE147-380,e_DE148-220,e_DE148-380,e_DE150-380,e_w152403632-220,e_w152403632-380,e_w89043564-220,e_w89043564-380,e_w90148336-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0013,elc_spv-DEU_0013</t>
-  </si>
-  <si>
-    <t>e_DE138-220,e_DE138-380,e_DE139-220,e_DE139-380,e_DE144-380,e_DE153-380,e_DE154-380,e_w22765517-220,e_w22765517-380,e_w22766160-220,e_w22766160-380,e_w22767509-220,e_w22767509-380,e_w22796434-220,e_w26777313-380,e_w29374542-220,e_w32148946-220,e_w42423415-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0093,elc_spv-DEU_0093</t>
-  </si>
-  <si>
-    <t>e_DE163-220,e_w108797675-380,e_w24758329-380,e_w499165542-220,e_w499165542-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0080,elc_spv-DEU_0080</t>
-  </si>
-  <si>
-    <t>e_DE59-220,e_DE60-220,e_w952004951-220,e_w952004951-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0055,elc_spv-DEU_0055</t>
-  </si>
-  <si>
-    <t>e_w102743264-220,e_w25306752-220,e_w25306752-380,e_w31367936-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0101,elc_spv-DEU_0101</t>
-  </si>
-  <si>
-    <t>e_w1089911133-380,e_w23583867-380,e_w28327356-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0059,elc_spv-DEU_0059</t>
-  </si>
-  <si>
-    <t>e_w145002769-380,e_w55069713-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0091,elc_spv-DEU_0091</t>
-  </si>
-  <si>
-    <t>e_w38325076-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0019,elc_spv-DEU_0019</t>
-  </si>
-  <si>
-    <t>e_w559702819-220,e_w559702819-380,e_w672738029-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0147,elc_spv-DEU_0147</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0171,elc_spv-DEU_0171</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0128,elc_spv-DEU_0128</t>
-  </si>
-  <si>
-    <t>e_DE151-220,e_w1086825107-220,e_w1086825107-380,e_w148211527-380,e_w156673637-220,e_w156673637-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0001,elc_spv-DEU_0001</t>
-  </si>
-  <si>
-    <t>e_DE164-220,e_DE167-380,e_DE170-380,e_DE172-220,e_DE172-380,e_DE173-220,e_w145680894-220,e_w151967290-220,e_w151967290-380,e_w151967291-220,e_w151967291-380,e_w89176939-220,e_w89176956-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0184,elc_spv-DEU_0184</t>
-  </si>
-  <si>
-    <t>e_DE46-380,e_w52983550-380,e_w941198517-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0085,elc_spv-DEU_0085</t>
-  </si>
-  <si>
-    <t>e_DE7-220,e_DE8-380,e_w1107961833-380,e_w22720647-220,e_w22720647-380,e_w25306938-380,e_w28008024-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0071,elc_spv-DEU_0071</t>
-  </si>
-  <si>
-    <t>e_w31131320-220,e_w31131320-380,e_w31131325-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0138,elc_spv-DEU_0138</t>
-  </si>
-  <si>
-    <t>e_w75865676-220,e_w91080806-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0087,elc_spv-DEU_0087</t>
-  </si>
-  <si>
-    <t>e_w907539360-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0014,elc_spv-DEU_0014</t>
-  </si>
-  <si>
-    <t>e_DE105-220,e_DE111-380,e_DE118-220,e_DE122-220,e_DE124-380,e_DE126-220,e_DE129-220,e_DE130-380,e_w106096507-380,e_w1118059105-220,e_w22690852-220,e_w22761692-220,e_w22761692-380,e_w22761839-220,e_w22761839-380,e_w23140544-220,e_w23192640-220,e_w25043127-380,e_w25044557-380,e_w27871140-220,e_w33816726-380,e_w87767098-380,e_w92165128-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0026,elc_spv-DEU_0026</t>
-  </si>
-  <si>
-    <t>e_DE166-220,e_DE171-220,e_w198448981-380,e_w373967500-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0065,elc_spv-DEU_0065</t>
-  </si>
-  <si>
-    <t>e_DE28-380,e_w202164315-380,e_w24604789-380,e_w27739871-220,e_w27739871-380,e_w953015049-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0132,elc_spv-DEU_0132</t>
-  </si>
-  <si>
-    <t>e_DE29-220,e_w33169401-220,e_w33169401-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0048,elc_spv-DEU_0048</t>
-  </si>
-  <si>
-    <t>e_DE30-220,e_DE30-380,e_DE32-220,e_DE33-380,e_DE34-380,e_DE35-220,e_DE35-380,e_w32904794-380,e_w33411203-220,e_w33411203-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0031,elc_spv-DEU_0031</t>
-  </si>
-  <si>
-    <t>e_DE37-220,e_DE38-220,e_DE53-380,e_DE56-380,e_w111973179-220,e_w114319248-220,e_w114319248-380,e_w25506770-380,e_w29472852-220,e_w29472852-380,e_w37764852-220,e_w37764852-380,e_w42861703-220,e_w42861703-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0030,elc_spv-DEU_0030</t>
-  </si>
-  <si>
-    <t>e_DE61-380,e_DE64-220,e_DE65-380,e_DE71-220,e_DE85-380,e_DE88-380,e_DE91-380,e_w112695048-380,e_w157628351-380,e_w24414688-220,e_w24667346-220,e_w24667346-380,e_w24858617-220,e_w42488850-380,e_w42507488-220,e_w42507488-380,e_w42560068-380,e_w42809973-380,e_w51940126-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0173,elc_spv-DEU_0173</t>
-  </si>
-  <si>
-    <t>e_w1068350839-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0033,elc_spv-DEU_0033</t>
-  </si>
-  <si>
-    <t>e_w50643382-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0135,elc_spv-DEU_0135</t>
-  </si>
-  <si>
-    <t>e_w234171369-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0040,elc_spv-DEU_0040</t>
-  </si>
-  <si>
-    <t>e_DE183-220,e_w152261133-220,e_w152261133-380,e_w254326606-380,e_w32151621-220,e_w32725957-220,e_w32725958-220,e_w32731290-220,e_w32966636-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0018,elc_spv-DEU_0018</t>
-  </si>
-  <si>
-    <t>e_DE20-380,e_w1280840211-380,e_w142487746-380,e_w206289192-380,e_w32042992-380,e_w797009308-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0073,elc_spv-DEU_0073</t>
-  </si>
-  <si>
-    <t>e_DE202-220,e_DE202-380,e_DE205-220,e_DE205-380,e_w26404600-380,e_w41389594-220,e_w41389594-380,e_w85523877-220,e_w85523877-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0104,elc_spv-DEU_0104</t>
-  </si>
-  <si>
-    <t>e_DE211-220,e_DE212-220,e_w68532663-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0131,elc_spv-DEU_0131</t>
-  </si>
-  <si>
-    <t>e_DE47-220,e_w26472665-220,e_w26472665-380,e_w943939310-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0064,elc_spv-DEU_0064</t>
-  </si>
-  <si>
-    <t>e_DE49-380,e_w23135618-220,e_w24413992-380,e_w28397771-220,e_w288305056-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0186,elc_spv-DEU_0186</t>
-  </si>
-  <si>
-    <t>e_w170123812-220,e_w170123812-380,e_w170123812-400</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0105,elc_spv-DEU_0105</t>
-  </si>
-  <si>
-    <t>e_w23907283-380,e_w24237879-220,e_w30613895-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0088,elc_spv-DEU_0088</t>
-  </si>
-  <si>
-    <t>e_w57727004-220,e_w57727004-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0089,elc_spv-DEU_0089</t>
-  </si>
-  <si>
-    <t>e_w683227471-380,e_w77038371-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0023,elc_spv-DEU_0023</t>
-  </si>
-  <si>
-    <t>e_w82130902-225,e_w933248930-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0137,elc_spv-DEU_0137</t>
-  </si>
-  <si>
-    <t>e_w75865676-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0036,elc_spv-DEU_0036</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0188,elc_spv-DEU_0188</t>
-  </si>
-  <si>
-    <t>e_w1222597066-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0061,elc_spv-DEU_0061</t>
-  </si>
-  <si>
-    <t>e_w156673636-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0113,elc_spv-DEU_0113</t>
-  </si>
-  <si>
-    <t>e_w32690742-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0111,elc_spv-DEU_0111</t>
-  </si>
-  <si>
-    <t>e_DE134-380,e_w149256409-380,e_w152219167-220,e_w25746125-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0003,elc_spv-DEU_0003</t>
-  </si>
-  <si>
-    <t>e_DE136-380,e_DE141-380,e_w24268944-380,e_w25426571-380,e_w25992879-380,e_w26593935-380,e_w870598507,e_w870598507-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0056,elc_spv-DEU_0056</t>
-  </si>
-  <si>
-    <t>e_DE195-380,e_DE196-380,e_DE197-380,e_DE198-380,e_DE199-380,e_w26260052-380,e_w30734324-380,e_w42736239-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0150,elc_spv-DEU_0150</t>
-  </si>
-  <si>
-    <t>e_DE9-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0032,elc_spv-DEU_0032</t>
-  </si>
-  <si>
-    <t>e_w150200540-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0025,elc_spv-DEU_0025</t>
-  </si>
-  <si>
-    <t>e_w152107815-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0160,elc_spv-DEU_0160</t>
-  </si>
-  <si>
-    <t>e_w157328339-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0109,elc_spv-DEU_0109</t>
-  </si>
-  <si>
-    <t>e_w24757393-380,e_w24757833-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0164,elc_spv-DEU_0164</t>
-  </si>
-  <si>
-    <t>e_w518455594-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0022,elc_spv-DEU_0022</t>
-  </si>
-  <si>
-    <t>e_w87653464-220,e_w87653464-380,e_w87653464-400</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0096,elc_spv-DEU_0096</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0153,elc_spv-DEU_0153</t>
-  </si>
-  <si>
-    <t>e_w91080806-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0168,elc_spv-DEU_0168</t>
   </si>
   <si>
     <t>e_won-DEU_0000</t>
@@ -14866,7 +14866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0C84C0-7968-470D-B067-D8A1B226C4A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58B582F-75B1-4C3B-9961-429C622A5405}">
   <dimension ref="B9:AC198"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15038,7 +15038,7 @@
         <v>1</v>
       </c>
       <c r="AC11" t="s">
-        <v>663</v>
+        <v>823</v>
       </c>
     </row>
     <row r="12" spans="2:29">
@@ -15115,7 +15115,7 @@
         <v>1</v>
       </c>
       <c r="AC12" t="s">
-        <v>647</v>
+        <v>881</v>
       </c>
     </row>
     <row r="13" spans="2:29">
@@ -15192,7 +15192,7 @@
         <v>1</v>
       </c>
       <c r="AC13" t="s">
-        <v>829</v>
+        <v>641</v>
       </c>
     </row>
     <row r="14" spans="2:29">
@@ -15269,7 +15269,7 @@
         <v>1</v>
       </c>
       <c r="AC14" t="s">
-        <v>831</v>
+        <v>759</v>
       </c>
     </row>
     <row r="15" spans="2:29">
@@ -15346,7 +15346,7 @@
         <v>1</v>
       </c>
       <c r="AC15" t="s">
-        <v>683</v>
+        <v>659</v>
       </c>
     </row>
     <row r="16" spans="2:29">
@@ -15423,7 +15423,7 @@
         <v>1</v>
       </c>
       <c r="AC16" t="s">
-        <v>779</v>
+        <v>633</v>
       </c>
     </row>
     <row r="17" spans="2:29">
@@ -15500,7 +15500,7 @@
         <v>1</v>
       </c>
       <c r="AC17" t="s">
-        <v>859</v>
+        <v>783</v>
       </c>
     </row>
     <row r="18" spans="2:29">
@@ -15577,7 +15577,7 @@
         <v>1</v>
       </c>
       <c r="AC18" t="s">
-        <v>919</v>
+        <v>711</v>
       </c>
     </row>
     <row r="19" spans="2:29">
@@ -15654,7 +15654,7 @@
         <v>1</v>
       </c>
       <c r="AC19" t="s">
-        <v>707</v>
+        <v>763</v>
       </c>
     </row>
     <row r="20" spans="2:29">
@@ -15731,7 +15731,7 @@
         <v>1</v>
       </c>
       <c r="AC20" t="s">
-        <v>823</v>
+        <v>797</v>
       </c>
     </row>
     <row r="21" spans="2:29">
@@ -15808,7 +15808,7 @@
         <v>1</v>
       </c>
       <c r="AC21" t="s">
-        <v>881</v>
+        <v>841</v>
       </c>
     </row>
     <row r="22" spans="2:29">
@@ -15885,7 +15885,7 @@
         <v>1</v>
       </c>
       <c r="AC22" t="s">
-        <v>641</v>
+        <v>855</v>
       </c>
     </row>
     <row r="23" spans="2:29">
@@ -15962,7 +15962,7 @@
         <v>1</v>
       </c>
       <c r="AC23" t="s">
-        <v>759</v>
+        <v>805</v>
       </c>
     </row>
     <row r="24" spans="2:29">
@@ -16039,7 +16039,7 @@
         <v>1</v>
       </c>
       <c r="AC24" t="s">
-        <v>659</v>
+        <v>903</v>
       </c>
     </row>
     <row r="25" spans="2:29">
@@ -16116,7 +16116,7 @@
         <v>1</v>
       </c>
       <c r="AC25" t="s">
-        <v>633</v>
+        <v>751</v>
       </c>
     </row>
     <row r="26" spans="2:29">
@@ -16193,7 +16193,7 @@
         <v>1</v>
       </c>
       <c r="AC26" t="s">
-        <v>783</v>
+        <v>593</v>
       </c>
     </row>
     <row r="27" spans="2:29">
@@ -16270,7 +16270,7 @@
         <v>1</v>
       </c>
       <c r="AC27" t="s">
-        <v>711</v>
+        <v>617</v>
       </c>
     </row>
     <row r="28" spans="2:29">
@@ -16347,7 +16347,7 @@
         <v>1</v>
       </c>
       <c r="AC28" t="s">
-        <v>763</v>
+        <v>693</v>
       </c>
     </row>
     <row r="29" spans="2:29">
@@ -16424,7 +16424,7 @@
         <v>1</v>
       </c>
       <c r="AC29" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
     </row>
     <row r="30" spans="2:29">
@@ -16501,7 +16501,7 @@
         <v>1</v>
       </c>
       <c r="AC30" t="s">
-        <v>841</v>
+        <v>661</v>
       </c>
     </row>
     <row r="31" spans="2:29">
@@ -16578,7 +16578,7 @@
         <v>1</v>
       </c>
       <c r="AC31" t="s">
-        <v>855</v>
+        <v>627</v>
       </c>
     </row>
     <row r="32" spans="2:29">
@@ -16655,7 +16655,7 @@
         <v>1</v>
       </c>
       <c r="AC32" t="s">
-        <v>805</v>
+        <v>625</v>
       </c>
     </row>
     <row r="33" spans="2:29">
@@ -16732,7 +16732,7 @@
         <v>1</v>
       </c>
       <c r="AC33" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
     </row>
     <row r="34" spans="2:29">
@@ -16809,7 +16809,7 @@
         <v>1</v>
       </c>
       <c r="AC34" t="s">
-        <v>751</v>
+        <v>631</v>
       </c>
     </row>
     <row r="35" spans="2:29">
@@ -16886,7 +16886,7 @@
         <v>1</v>
       </c>
       <c r="AC35" t="s">
-        <v>595</v>
+        <v>833</v>
       </c>
     </row>
     <row r="36" spans="2:29">
@@ -16963,7 +16963,7 @@
         <v>1</v>
       </c>
       <c r="AC36" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="37" spans="2:29">
@@ -17040,7 +17040,7 @@
         <v>1</v>
       </c>
       <c r="AC37" t="s">
-        <v>787</v>
+        <v>721</v>
       </c>
     </row>
     <row r="38" spans="2:29">
@@ -17117,7 +17117,7 @@
         <v>1</v>
       </c>
       <c r="AC38" t="s">
-        <v>719</v>
+        <v>915</v>
       </c>
     </row>
     <row r="39" spans="2:29">
@@ -17194,7 +17194,7 @@
         <v>1</v>
       </c>
       <c r="AC39" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
     </row>
     <row r="40" spans="2:29">
@@ -17271,7 +17271,7 @@
         <v>1</v>
       </c>
       <c r="AC40" t="s">
-        <v>815</v>
+        <v>657</v>
       </c>
     </row>
     <row r="41" spans="2:29">
@@ -17348,7 +17348,7 @@
         <v>1</v>
       </c>
       <c r="AC41" t="s">
-        <v>579</v>
+        <v>809</v>
       </c>
     </row>
     <row r="42" spans="2:29">
@@ -17425,7 +17425,7 @@
         <v>1</v>
       </c>
       <c r="AC42" t="s">
-        <v>877</v>
+        <v>757</v>
       </c>
     </row>
     <row r="43" spans="2:29">
@@ -17502,7 +17502,7 @@
         <v>1</v>
       </c>
       <c r="AC43" t="s">
-        <v>729</v>
+        <v>933</v>
       </c>
     </row>
     <row r="44" spans="2:29">
@@ -17579,7 +17579,7 @@
         <v>1</v>
       </c>
       <c r="AC44" t="s">
-        <v>689</v>
+        <v>907</v>
       </c>
     </row>
     <row r="45" spans="2:29">
@@ -17656,7 +17656,7 @@
         <v>1</v>
       </c>
       <c r="AC45" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
     </row>
     <row r="46" spans="2:29">
@@ -17733,7 +17733,7 @@
         <v>1</v>
       </c>
       <c r="AC46" t="s">
-        <v>619</v>
+        <v>861</v>
       </c>
     </row>
     <row r="47" spans="2:29">
@@ -17810,7 +17810,7 @@
         <v>1</v>
       </c>
       <c r="AC47" t="s">
-        <v>679</v>
+        <v>635</v>
       </c>
     </row>
     <row r="48" spans="2:29">
@@ -17887,7 +17887,7 @@
         <v>1</v>
       </c>
       <c r="AC48" t="s">
-        <v>699</v>
+        <v>819</v>
       </c>
     </row>
     <row r="49" spans="2:29">
@@ -17964,7 +17964,7 @@
         <v>1</v>
       </c>
       <c r="AC49" t="s">
-        <v>843</v>
+        <v>567</v>
       </c>
     </row>
     <row r="50" spans="2:29">
@@ -18035,13 +18035,13 @@
         <v>1400</v>
       </c>
       <c r="AA50" t="s">
-        <v>1359</v>
+        <v>1401</v>
       </c>
       <c r="AB50">
         <v>1</v>
       </c>
       <c r="AC50" t="s">
-        <v>795</v>
+        <v>931</v>
       </c>
     </row>
     <row r="51" spans="2:29">
@@ -18109,16 +18109,16 @@
         <v>1025</v>
       </c>
       <c r="Z51" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="AA51" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="AB51">
         <v>1</v>
       </c>
       <c r="AC51" t="s">
-        <v>835</v>
+        <v>733</v>
       </c>
     </row>
     <row r="52" spans="2:29">
@@ -18186,16 +18186,16 @@
         <v>1027</v>
       </c>
       <c r="Z52" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="AA52" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="AB52">
         <v>1</v>
       </c>
       <c r="AC52" t="s">
-        <v>671</v>
+        <v>705</v>
       </c>
     </row>
     <row r="53" spans="2:29">
@@ -18263,16 +18263,16 @@
         <v>1029</v>
       </c>
       <c r="Z53" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="AA53" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="AB53">
         <v>1</v>
       </c>
       <c r="AC53" t="s">
-        <v>573</v>
+        <v>839</v>
       </c>
     </row>
     <row r="54" spans="2:29">
@@ -18340,16 +18340,16 @@
         <v>1031</v>
       </c>
       <c r="Z54" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="AA54" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="AB54">
         <v>1</v>
       </c>
       <c r="AC54" t="s">
-        <v>851</v>
+        <v>737</v>
       </c>
     </row>
     <row r="55" spans="2:29">
@@ -18417,16 +18417,16 @@
         <v>1033</v>
       </c>
       <c r="Z55" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="AA55" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="AB55">
         <v>1</v>
       </c>
       <c r="AC55" t="s">
-        <v>917</v>
+        <v>697</v>
       </c>
     </row>
     <row r="56" spans="2:29">
@@ -18494,16 +18494,16 @@
         <v>1035</v>
       </c>
       <c r="Z56" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="AA56" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="AB56">
         <v>1</v>
       </c>
       <c r="AC56" t="s">
-        <v>713</v>
+        <v>613</v>
       </c>
     </row>
     <row r="57" spans="2:29">
@@ -18571,16 +18571,16 @@
         <v>1037</v>
       </c>
       <c r="Z57" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AA57" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="AB57">
         <v>1</v>
       </c>
       <c r="AC57" t="s">
-        <v>775</v>
+        <v>607</v>
       </c>
     </row>
     <row r="58" spans="2:29">
@@ -18648,16 +18648,16 @@
         <v>1039</v>
       </c>
       <c r="Z58" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="AA58" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="AB58">
         <v>1</v>
       </c>
       <c r="AC58" t="s">
-        <v>643</v>
+        <v>725</v>
       </c>
     </row>
     <row r="59" spans="2:29">
@@ -18725,16 +18725,16 @@
         <v>1041</v>
       </c>
       <c r="Z59" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="AA59" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="AB59">
         <v>1</v>
       </c>
       <c r="AC59" t="s">
-        <v>887</v>
+        <v>735</v>
       </c>
     </row>
     <row r="60" spans="2:29">
@@ -18802,16 +18802,16 @@
         <v>1043</v>
       </c>
       <c r="Z60" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="AA60" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="AB60">
         <v>1</v>
       </c>
       <c r="AC60" t="s">
-        <v>897</v>
+        <v>703</v>
       </c>
     </row>
     <row r="61" spans="2:29">
@@ -18879,16 +18879,16 @@
         <v>1045</v>
       </c>
       <c r="Z61" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="AA61" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="AB61">
         <v>1</v>
       </c>
       <c r="AC61" t="s">
-        <v>577</v>
+        <v>803</v>
       </c>
     </row>
     <row r="62" spans="2:29">
@@ -18956,16 +18956,16 @@
         <v>1047</v>
       </c>
       <c r="Z62" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="AA62" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="AB62">
         <v>1</v>
       </c>
       <c r="AC62" t="s">
-        <v>583</v>
+        <v>849</v>
       </c>
     </row>
     <row r="63" spans="2:29">
@@ -19033,16 +19033,16 @@
         <v>1049</v>
       </c>
       <c r="Z63" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="AA63" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="AB63">
         <v>1</v>
       </c>
       <c r="AC63" t="s">
-        <v>623</v>
+        <v>879</v>
       </c>
     </row>
     <row r="64" spans="2:29">
@@ -19110,16 +19110,16 @@
         <v>1051</v>
       </c>
       <c r="Z64" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="AA64" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="AB64">
         <v>1</v>
       </c>
       <c r="AC64" t="s">
-        <v>565</v>
+        <v>663</v>
       </c>
     </row>
     <row r="65" spans="2:29">
@@ -19187,16 +19187,16 @@
         <v>1053</v>
       </c>
       <c r="Z65" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="AA65" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="AB65">
         <v>1</v>
       </c>
       <c r="AC65" t="s">
-        <v>677</v>
+        <v>647</v>
       </c>
     </row>
     <row r="66" spans="2:29">
@@ -19264,16 +19264,16 @@
         <v>1055</v>
       </c>
       <c r="Z66" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="AA66" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="AB66">
         <v>1</v>
       </c>
       <c r="AC66" t="s">
-        <v>889</v>
+        <v>829</v>
       </c>
     </row>
     <row r="67" spans="2:29">
@@ -19341,16 +19341,16 @@
         <v>1057</v>
       </c>
       <c r="Z67" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="AA67" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="AB67">
         <v>1</v>
       </c>
       <c r="AC67" t="s">
-        <v>761</v>
+        <v>831</v>
       </c>
     </row>
     <row r="68" spans="2:29">
@@ -19418,16 +19418,16 @@
         <v>1059</v>
       </c>
       <c r="Z68" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="AA68" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="AB68">
         <v>1</v>
       </c>
       <c r="AC68" t="s">
-        <v>597</v>
+        <v>683</v>
       </c>
     </row>
     <row r="69" spans="2:29">
@@ -19495,16 +19495,16 @@
         <v>1061</v>
       </c>
       <c r="Z69" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="AA69" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="AB69">
         <v>1</v>
       </c>
       <c r="AC69" t="s">
-        <v>867</v>
+        <v>779</v>
       </c>
     </row>
     <row r="70" spans="2:29">
@@ -19572,16 +19572,16 @@
         <v>1063</v>
       </c>
       <c r="Z70" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="AA70" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="AB70">
         <v>1</v>
       </c>
       <c r="AC70" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
     </row>
     <row r="71" spans="2:29">
@@ -19649,16 +19649,16 @@
         <v>1065</v>
       </c>
       <c r="Z71" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="AA71" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="AB71">
         <v>1</v>
       </c>
       <c r="AC71" t="s">
-        <v>767</v>
+        <v>919</v>
       </c>
     </row>
     <row r="72" spans="2:29">
@@ -19726,16 +19726,16 @@
         <v>1067</v>
       </c>
       <c r="Z72" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="AA72" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="AB72">
         <v>1</v>
       </c>
       <c r="AC72" t="s">
-        <v>585</v>
+        <v>707</v>
       </c>
     </row>
     <row r="73" spans="2:29">
@@ -19803,16 +19803,16 @@
         <v>1069</v>
       </c>
       <c r="Z73" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="AA73" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="AB73">
         <v>1</v>
       </c>
       <c r="AC73" t="s">
-        <v>807</v>
+        <v>573</v>
       </c>
     </row>
     <row r="74" spans="2:29">
@@ -19880,16 +19880,16 @@
         <v>1071</v>
       </c>
       <c r="Z74" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="AA74" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="AB74">
         <v>1</v>
       </c>
       <c r="AC74" t="s">
-        <v>587</v>
+        <v>851</v>
       </c>
     </row>
     <row r="75" spans="2:29">
@@ -19957,16 +19957,16 @@
         <v>1073</v>
       </c>
       <c r="Z75" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="AA75" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="AB75">
         <v>1</v>
       </c>
       <c r="AC75" t="s">
-        <v>581</v>
+        <v>917</v>
       </c>
     </row>
     <row r="76" spans="2:29">
@@ -20034,16 +20034,16 @@
         <v>1075</v>
       </c>
       <c r="Z76" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="AA76" t="s">
-        <v>1367</v>
+        <v>1453</v>
       </c>
       <c r="AB76">
         <v>1</v>
       </c>
       <c r="AC76" t="s">
-        <v>901</v>
+        <v>713</v>
       </c>
     </row>
     <row r="77" spans="2:29">
@@ -20111,16 +20111,16 @@
         <v>1077</v>
       </c>
       <c r="Z77" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="AA77" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="AB77">
         <v>1</v>
       </c>
       <c r="AC77" t="s">
-        <v>747</v>
+        <v>775</v>
       </c>
     </row>
     <row r="78" spans="2:29">
@@ -20188,16 +20188,16 @@
         <v>1079</v>
       </c>
       <c r="Z78" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="AA78" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="AB78">
         <v>1</v>
       </c>
       <c r="AC78" t="s">
-        <v>753</v>
+        <v>643</v>
       </c>
     </row>
     <row r="79" spans="2:29">
@@ -20265,16 +20265,16 @@
         <v>1081</v>
       </c>
       <c r="Z79" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="AA79" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="AB79">
         <v>1</v>
       </c>
       <c r="AC79" t="s">
-        <v>817</v>
+        <v>887</v>
       </c>
     </row>
     <row r="80" spans="2:29">
@@ -20342,16 +20342,16 @@
         <v>1083</v>
       </c>
       <c r="Z80" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="AA80" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="AB80">
         <v>1</v>
       </c>
       <c r="AC80" t="s">
-        <v>649</v>
+        <v>897</v>
       </c>
     </row>
     <row r="81" spans="2:29">
@@ -20419,16 +20419,16 @@
         <v>1085</v>
       </c>
       <c r="Z81" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="AA81" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="AB81">
         <v>1</v>
       </c>
       <c r="AC81" t="s">
-        <v>715</v>
+        <v>577</v>
       </c>
     </row>
     <row r="82" spans="2:29">
@@ -20496,16 +20496,16 @@
         <v>1087</v>
       </c>
       <c r="Z82" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="AA82" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="AB82">
         <v>1</v>
       </c>
       <c r="AC82" t="s">
-        <v>873</v>
+        <v>583</v>
       </c>
     </row>
     <row r="83" spans="2:29">
@@ -20573,16 +20573,16 @@
         <v>1089</v>
       </c>
       <c r="Z83" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="AA83" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="AB83">
         <v>1</v>
       </c>
       <c r="AC83" t="s">
-        <v>769</v>
+        <v>817</v>
       </c>
     </row>
     <row r="84" spans="2:29">
@@ -20650,16 +20650,16 @@
         <v>1091</v>
       </c>
       <c r="Z84" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="AA84" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="AB84">
         <v>1</v>
       </c>
       <c r="AC84" t="s">
-        <v>569</v>
+        <v>649</v>
       </c>
     </row>
     <row r="85" spans="2:29">
@@ -20727,16 +20727,16 @@
         <v>1093</v>
       </c>
       <c r="Z85" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="AA85" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="AB85">
         <v>1</v>
       </c>
       <c r="AC85" t="s">
-        <v>799</v>
+        <v>715</v>
       </c>
     </row>
     <row r="86" spans="2:29">
@@ -20804,16 +20804,16 @@
         <v>1095</v>
       </c>
       <c r="Z86" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="AA86" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="AB86">
         <v>1</v>
       </c>
       <c r="AC86" t="s">
-        <v>847</v>
+        <v>873</v>
       </c>
     </row>
     <row r="87" spans="2:29">
@@ -20881,16 +20881,16 @@
         <v>1097</v>
       </c>
       <c r="Z87" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="AA87" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="AB87">
         <v>1</v>
       </c>
       <c r="AC87" t="s">
-        <v>639</v>
+        <v>769</v>
       </c>
     </row>
     <row r="88" spans="2:29">
@@ -20958,16 +20958,16 @@
         <v>1099</v>
       </c>
       <c r="Z88" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="AA88" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="AB88">
         <v>1</v>
       </c>
       <c r="AC88" t="s">
-        <v>895</v>
+        <v>569</v>
       </c>
     </row>
     <row r="89" spans="2:29">
@@ -21035,16 +21035,16 @@
         <v>1101</v>
       </c>
       <c r="Z89" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="AA89" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="AB89">
         <v>1</v>
       </c>
       <c r="AC89" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="90" spans="2:29">
@@ -21112,16 +21112,16 @@
         <v>1103</v>
       </c>
       <c r="Z90" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="AA90" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="AB90">
         <v>1</v>
       </c>
       <c r="AC90" t="s">
-        <v>937</v>
+        <v>847</v>
       </c>
     </row>
     <row r="91" spans="2:29">
@@ -21189,16 +21189,16 @@
         <v>1105</v>
       </c>
       <c r="Z91" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="AA91" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="AB91">
         <v>1</v>
       </c>
       <c r="AC91" t="s">
-        <v>793</v>
+        <v>639</v>
       </c>
     </row>
     <row r="92" spans="2:29">
@@ -21266,16 +21266,16 @@
         <v>1107</v>
       </c>
       <c r="Z92" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="AA92" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="AB92">
         <v>1</v>
       </c>
       <c r="AC92" t="s">
-        <v>731</v>
+        <v>895</v>
       </c>
     </row>
     <row r="93" spans="2:29">
@@ -21343,16 +21343,16 @@
         <v>1109</v>
       </c>
       <c r="Z93" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="AA93" t="s">
-        <v>1485</v>
+        <v>1423</v>
       </c>
       <c r="AB93">
         <v>1</v>
       </c>
       <c r="AC93" t="s">
-        <v>653</v>
+        <v>801</v>
       </c>
     </row>
     <row r="94" spans="2:29">
@@ -21420,16 +21420,16 @@
         <v>1111</v>
       </c>
       <c r="Z94" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="AA94" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="AB94">
         <v>1</v>
       </c>
       <c r="AC94" t="s">
-        <v>743</v>
+        <v>937</v>
       </c>
     </row>
     <row r="95" spans="2:29">
@@ -21497,16 +21497,16 @@
         <v>1113</v>
       </c>
       <c r="Z95" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="AA95" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="AB95">
         <v>1</v>
       </c>
       <c r="AC95" t="s">
-        <v>575</v>
+        <v>793</v>
       </c>
     </row>
     <row r="96" spans="2:29">
@@ -21574,16 +21574,16 @@
         <v>1115</v>
       </c>
       <c r="Z96" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="AA96" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="AB96">
         <v>1</v>
       </c>
       <c r="AC96" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
     </row>
     <row r="97" spans="2:29">
@@ -21651,16 +21651,16 @@
         <v>1117</v>
       </c>
       <c r="Z97" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="AA97" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="AB97">
         <v>1</v>
       </c>
       <c r="AC97" t="s">
-        <v>885</v>
+        <v>653</v>
       </c>
     </row>
     <row r="98" spans="2:29">
@@ -21728,16 +21728,16 @@
         <v>1119</v>
       </c>
       <c r="Z98" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="AA98" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="AB98">
         <v>1</v>
       </c>
       <c r="AC98" t="s">
-        <v>813</v>
+        <v>743</v>
       </c>
     </row>
     <row r="99" spans="2:29">
@@ -21805,16 +21805,16 @@
         <v>1121</v>
       </c>
       <c r="Z99" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="AA99" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="AB99">
         <v>1</v>
       </c>
       <c r="AC99" t="s">
-        <v>911</v>
+        <v>575</v>
       </c>
     </row>
     <row r="100" spans="2:29">
@@ -21882,16 +21882,16 @@
         <v>1123</v>
       </c>
       <c r="Z100" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="AA100" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="AB100">
         <v>1</v>
       </c>
       <c r="AC100" t="s">
-        <v>927</v>
+        <v>727</v>
       </c>
     </row>
     <row r="101" spans="2:29">
@@ -21959,16 +21959,16 @@
         <v>1125</v>
       </c>
       <c r="Z101" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="AA101" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="AB101">
         <v>1</v>
       </c>
       <c r="AC101" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
     </row>
     <row r="102" spans="2:29">
@@ -22036,16 +22036,16 @@
         <v>1127</v>
       </c>
       <c r="Z102" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="AA102" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="AB102">
         <v>1</v>
       </c>
       <c r="AC102" t="s">
-        <v>871</v>
+        <v>813</v>
       </c>
     </row>
     <row r="103" spans="2:29">
@@ -22113,16 +22113,16 @@
         <v>1129</v>
       </c>
       <c r="Z103" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="AA103" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="AB103">
         <v>1</v>
       </c>
       <c r="AC103" t="s">
-        <v>717</v>
+        <v>911</v>
       </c>
     </row>
     <row r="104" spans="2:29">
@@ -22190,16 +22190,16 @@
         <v>1131</v>
       </c>
       <c r="Z104" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="AA104" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="AB104">
         <v>1</v>
       </c>
       <c r="AC104" t="s">
-        <v>777</v>
+        <v>927</v>
       </c>
     </row>
     <row r="105" spans="2:29">
@@ -22267,16 +22267,16 @@
         <v>1133</v>
       </c>
       <c r="Z105" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="AA105" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="AB105">
         <v>1</v>
       </c>
       <c r="AC105" t="s">
-        <v>695</v>
+        <v>893</v>
       </c>
     </row>
     <row r="106" spans="2:29">
@@ -22344,16 +22344,16 @@
         <v>1135</v>
       </c>
       <c r="Z106" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="AA106" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="AB106">
         <v>1</v>
       </c>
       <c r="AC106" t="s">
-        <v>651</v>
+        <v>871</v>
       </c>
     </row>
     <row r="107" spans="2:29">
@@ -22421,16 +22421,16 @@
         <v>1137</v>
       </c>
       <c r="Z107" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="AA107" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="AB107">
         <v>1</v>
       </c>
       <c r="AC107" t="s">
-        <v>913</v>
+        <v>717</v>
       </c>
     </row>
     <row r="108" spans="2:29">
@@ -22498,16 +22498,16 @@
         <v>1139</v>
       </c>
       <c r="Z108" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="AA108" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="AB108">
         <v>1</v>
       </c>
       <c r="AC108" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
     </row>
     <row r="109" spans="2:29">
@@ -22575,16 +22575,16 @@
         <v>1141</v>
       </c>
       <c r="Z109" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="AA109" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="AB109">
         <v>1</v>
       </c>
       <c r="AC109" t="s">
-        <v>701</v>
+        <v>645</v>
       </c>
     </row>
     <row r="110" spans="2:29">
@@ -22652,16 +22652,16 @@
         <v>1143</v>
       </c>
       <c r="Z110" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="AA110" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="AB110">
         <v>1</v>
       </c>
       <c r="AC110" t="s">
-        <v>921</v>
+        <v>601</v>
       </c>
     </row>
     <row r="111" spans="2:29">
@@ -22729,16 +22729,16 @@
         <v>1145</v>
       </c>
       <c r="Z111" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="AA111" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="AB111">
         <v>1</v>
       </c>
       <c r="AC111" t="s">
-        <v>665</v>
+        <v>709</v>
       </c>
     </row>
     <row r="112" spans="2:29">
@@ -22806,16 +22806,16 @@
         <v>1147</v>
       </c>
       <c r="Z112" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="AA112" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="AB112">
         <v>1</v>
       </c>
       <c r="AC112" t="s">
-        <v>811</v>
+        <v>771</v>
       </c>
     </row>
     <row r="113" spans="2:29">
@@ -22883,16 +22883,16 @@
         <v>1149</v>
       </c>
       <c r="Z113" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="AA113" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="AB113">
         <v>1</v>
       </c>
       <c r="AC113" t="s">
-        <v>655</v>
+        <v>825</v>
       </c>
     </row>
     <row r="114" spans="2:29">
@@ -22960,16 +22960,16 @@
         <v>1151</v>
       </c>
       <c r="Z114" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="AA114" t="s">
-        <v>1385</v>
+        <v>1528</v>
       </c>
       <c r="AB114">
         <v>1</v>
       </c>
       <c r="AC114" t="s">
-        <v>875</v>
+        <v>691</v>
       </c>
     </row>
     <row r="115" spans="2:29">
@@ -23037,16 +23037,16 @@
         <v>1153</v>
       </c>
       <c r="Z115" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="AA115" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="AB115">
         <v>1</v>
       </c>
       <c r="AC115" t="s">
-        <v>821</v>
+        <v>935</v>
       </c>
     </row>
     <row r="116" spans="2:29">
@@ -23114,16 +23114,16 @@
         <v>1155</v>
       </c>
       <c r="Z116" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="AA116" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="AB116">
         <v>1</v>
       </c>
       <c r="AC116" t="s">
-        <v>605</v>
+        <v>773</v>
       </c>
     </row>
     <row r="117" spans="2:29">
@@ -23191,16 +23191,16 @@
         <v>1157</v>
       </c>
       <c r="Z117" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="AA117" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="AB117">
         <v>1</v>
       </c>
       <c r="AC117" t="s">
-        <v>667</v>
+        <v>739</v>
       </c>
     </row>
     <row r="118" spans="2:29">
@@ -23268,16 +23268,16 @@
         <v>1159</v>
       </c>
       <c r="Z118" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="AA118" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="AB118">
         <v>1</v>
       </c>
       <c r="AC118" t="s">
-        <v>669</v>
+        <v>741</v>
       </c>
     </row>
     <row r="119" spans="2:29">
@@ -23345,16 +23345,16 @@
         <v>1161</v>
       </c>
       <c r="Z119" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="AA119" t="s">
-        <v>1499</v>
+        <v>1538</v>
       </c>
       <c r="AB119">
         <v>1</v>
       </c>
       <c r="AC119" t="s">
-        <v>925</v>
+        <v>611</v>
       </c>
     </row>
     <row r="120" spans="2:29">
@@ -23422,16 +23422,16 @@
         <v>1163</v>
       </c>
       <c r="Z120" t="s">
-        <v>1536</v>
+        <v>1539</v>
       </c>
       <c r="AA120" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="AB120">
         <v>1</v>
       </c>
       <c r="AC120" t="s">
-        <v>697</v>
+        <v>837</v>
       </c>
     </row>
     <row r="121" spans="2:29">
@@ -23499,16 +23499,16 @@
         <v>1165</v>
       </c>
       <c r="Z121" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="AA121" t="s">
-        <v>1539</v>
+        <v>1395</v>
       </c>
       <c r="AB121">
         <v>1</v>
       </c>
       <c r="AC121" t="s">
-        <v>613</v>
+        <v>637</v>
       </c>
     </row>
     <row r="122" spans="2:29">
@@ -23576,16 +23576,16 @@
         <v>1167</v>
       </c>
       <c r="Z122" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="AA122" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="AB122">
         <v>1</v>
       </c>
       <c r="AC122" t="s">
-        <v>607</v>
+        <v>939</v>
       </c>
     </row>
     <row r="123" spans="2:29">
@@ -23653,16 +23653,16 @@
         <v>1169</v>
       </c>
       <c r="Z123" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="AA123" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="AB123">
         <v>1</v>
       </c>
       <c r="AC123" t="s">
-        <v>725</v>
+        <v>685</v>
       </c>
     </row>
     <row r="124" spans="2:29">
@@ -23730,16 +23730,16 @@
         <v>1171</v>
       </c>
       <c r="Z124" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="AA124" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="AB124">
         <v>1</v>
       </c>
       <c r="AC124" t="s">
-        <v>735</v>
+        <v>789</v>
       </c>
     </row>
     <row r="125" spans="2:29">
@@ -23807,16 +23807,16 @@
         <v>1173</v>
       </c>
       <c r="Z125" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="AA125" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="AB125">
         <v>1</v>
       </c>
       <c r="AC125" t="s">
-        <v>703</v>
+        <v>595</v>
       </c>
     </row>
     <row r="126" spans="2:29">
@@ -23884,16 +23884,16 @@
         <v>1175</v>
       </c>
       <c r="Z126" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="AA126" t="s">
-        <v>1477</v>
+        <v>1551</v>
       </c>
       <c r="AB126">
         <v>1</v>
       </c>
       <c r="AC126" t="s">
-        <v>803</v>
+        <v>929</v>
       </c>
     </row>
     <row r="127" spans="2:29">
@@ -23961,16 +23961,16 @@
         <v>1177</v>
       </c>
       <c r="Z127" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="AA127" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="AB127">
         <v>1</v>
       </c>
       <c r="AC127" t="s">
-        <v>849</v>
+        <v>787</v>
       </c>
     </row>
     <row r="128" spans="2:29">
@@ -24038,16 +24038,16 @@
         <v>1179</v>
       </c>
       <c r="Z128" t="s">
-        <v>1551</v>
+        <v>1554</v>
       </c>
       <c r="AA128" t="s">
-        <v>1552</v>
+        <v>1555</v>
       </c>
       <c r="AB128">
         <v>1</v>
       </c>
       <c r="AC128" t="s">
-        <v>879</v>
+        <v>719</v>
       </c>
     </row>
     <row r="129" spans="2:29">
@@ -24115,16 +24115,16 @@
         <v>1181</v>
       </c>
       <c r="Z129" t="s">
-        <v>1553</v>
+        <v>1556</v>
       </c>
       <c r="AA129" t="s">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="AB129">
         <v>1</v>
       </c>
       <c r="AC129" t="s">
-        <v>923</v>
+        <v>589</v>
       </c>
     </row>
     <row r="130" spans="2:29">
@@ -24192,16 +24192,16 @@
         <v>1183</v>
       </c>
       <c r="Z130" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="AA130" t="s">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="AB130">
         <v>1</v>
       </c>
       <c r="AC130" t="s">
-        <v>721</v>
+        <v>815</v>
       </c>
     </row>
     <row r="131" spans="2:29">
@@ -24269,16 +24269,16 @@
         <v>1185</v>
       </c>
       <c r="Z131" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="AA131" t="s">
-        <v>1558</v>
+        <v>1561</v>
       </c>
       <c r="AB131">
         <v>1</v>
       </c>
       <c r="AC131" t="s">
-        <v>915</v>
+        <v>579</v>
       </c>
     </row>
     <row r="132" spans="2:29">
@@ -24346,16 +24346,16 @@
         <v>1187</v>
       </c>
       <c r="Z132" t="s">
-        <v>1559</v>
+        <v>1562</v>
       </c>
       <c r="AA132" t="s">
-        <v>1560</v>
+        <v>1563</v>
       </c>
       <c r="AB132">
         <v>1</v>
       </c>
       <c r="AC132" t="s">
-        <v>599</v>
+        <v>877</v>
       </c>
     </row>
     <row r="133" spans="2:29">
@@ -24423,16 +24423,16 @@
         <v>1189</v>
       </c>
       <c r="Z133" t="s">
-        <v>1561</v>
+        <v>1564</v>
       </c>
       <c r="AA133" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
       <c r="AB133">
         <v>1</v>
       </c>
       <c r="AC133" t="s">
-        <v>657</v>
+        <v>729</v>
       </c>
     </row>
     <row r="134" spans="2:29">
@@ -24500,16 +24500,16 @@
         <v>1191</v>
       </c>
       <c r="Z134" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="AA134" t="s">
-        <v>1564</v>
+        <v>1567</v>
       </c>
       <c r="AB134">
         <v>1</v>
       </c>
       <c r="AC134" t="s">
-        <v>809</v>
+        <v>785</v>
       </c>
     </row>
     <row r="135" spans="2:29">
@@ -24577,16 +24577,16 @@
         <v>1193</v>
       </c>
       <c r="Z135" t="s">
-        <v>1565</v>
+        <v>1568</v>
       </c>
       <c r="AA135" t="s">
-        <v>1566</v>
+        <v>1569</v>
       </c>
       <c r="AB135">
         <v>1</v>
       </c>
       <c r="AC135" t="s">
-        <v>757</v>
+        <v>571</v>
       </c>
     </row>
     <row r="136" spans="2:29">
@@ -24654,16 +24654,16 @@
         <v>1195</v>
       </c>
       <c r="Z136" t="s">
-        <v>1567</v>
+        <v>1570</v>
       </c>
       <c r="AA136" t="s">
-        <v>1568</v>
+        <v>1571</v>
       </c>
       <c r="AB136">
         <v>1</v>
       </c>
       <c r="AC136" t="s">
-        <v>933</v>
+        <v>675</v>
       </c>
     </row>
     <row r="137" spans="2:29">
@@ -24731,16 +24731,16 @@
         <v>1197</v>
       </c>
       <c r="Z137" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="AA137" t="s">
-        <v>1570</v>
+        <v>1573</v>
       </c>
       <c r="AB137">
         <v>1</v>
       </c>
       <c r="AC137" t="s">
-        <v>907</v>
+        <v>863</v>
       </c>
     </row>
     <row r="138" spans="2:29">
@@ -24808,16 +24808,16 @@
         <v>1199</v>
       </c>
       <c r="Z138" t="s">
-        <v>1571</v>
+        <v>1574</v>
       </c>
       <c r="AA138" t="s">
-        <v>1572</v>
+        <v>1575</v>
       </c>
       <c r="AB138">
         <v>1</v>
       </c>
       <c r="AC138" t="s">
-        <v>845</v>
+        <v>629</v>
       </c>
     </row>
     <row r="139" spans="2:29">
@@ -24885,16 +24885,16 @@
         <v>1201</v>
       </c>
       <c r="Z139" t="s">
-        <v>1573</v>
+        <v>1576</v>
       </c>
       <c r="AA139" t="s">
-        <v>1574</v>
+        <v>1577</v>
       </c>
       <c r="AB139">
         <v>1</v>
       </c>
       <c r="AC139" t="s">
-        <v>861</v>
+        <v>615</v>
       </c>
     </row>
     <row r="140" spans="2:29">
@@ -24962,16 +24962,16 @@
         <v>1203</v>
       </c>
       <c r="Z140" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="AA140" t="s">
-        <v>1576</v>
+        <v>1579</v>
       </c>
       <c r="AB140">
         <v>1</v>
       </c>
       <c r="AC140" t="s">
-        <v>635</v>
+        <v>883</v>
       </c>
     </row>
     <row r="141" spans="2:29">
@@ -25039,16 +25039,16 @@
         <v>1205</v>
       </c>
       <c r="Z141" t="s">
-        <v>1577</v>
+        <v>1580</v>
       </c>
       <c r="AA141" t="s">
-        <v>1578</v>
+        <v>1581</v>
       </c>
       <c r="AB141">
         <v>1</v>
       </c>
       <c r="AC141" t="s">
-        <v>687</v>
+        <v>781</v>
       </c>
     </row>
     <row r="142" spans="2:29">
@@ -25116,16 +25116,16 @@
         <v>1207</v>
       </c>
       <c r="Z142" t="s">
-        <v>1579</v>
+        <v>1582</v>
       </c>
       <c r="AA142" t="s">
-        <v>1580</v>
+        <v>1583</v>
       </c>
       <c r="AB142">
         <v>1</v>
       </c>
       <c r="AC142" t="s">
-        <v>621</v>
+        <v>891</v>
       </c>
     </row>
     <row r="143" spans="2:29">
@@ -25193,16 +25193,16 @@
         <v>1209</v>
       </c>
       <c r="Z143" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="AA143" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="AB143">
         <v>1</v>
       </c>
       <c r="AC143" t="s">
-        <v>591</v>
+        <v>609</v>
       </c>
     </row>
     <row r="144" spans="2:29">
@@ -25270,16 +25270,16 @@
         <v>1211</v>
       </c>
       <c r="Z144" t="s">
-        <v>1583</v>
+        <v>1586</v>
       </c>
       <c r="AA144" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="AB144">
         <v>1</v>
       </c>
       <c r="AC144" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
     </row>
     <row r="145" spans="2:29">
@@ -25347,16 +25347,16 @@
         <v>1213</v>
       </c>
       <c r="Z145" t="s">
-        <v>1585</v>
+        <v>1588</v>
       </c>
       <c r="AA145" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="AB145">
         <v>1</v>
       </c>
       <c r="AC145" t="s">
-        <v>723</v>
+        <v>869</v>
       </c>
     </row>
     <row r="146" spans="2:29">
@@ -25424,16 +25424,16 @@
         <v>1215</v>
       </c>
       <c r="Z146" t="s">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="AA146" t="s">
-        <v>1588</v>
+        <v>1461</v>
       </c>
       <c r="AB146">
         <v>1</v>
       </c>
       <c r="AC146" t="s">
-        <v>673</v>
+        <v>899</v>
       </c>
     </row>
     <row r="147" spans="2:29">
@@ -25501,16 +25501,16 @@
         <v>1217</v>
       </c>
       <c r="Z147" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="AA147" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="AB147">
         <v>1</v>
       </c>
       <c r="AC147" t="s">
-        <v>765</v>
+        <v>689</v>
       </c>
     </row>
     <row r="148" spans="2:29">
@@ -25578,16 +25578,16 @@
         <v>1219</v>
       </c>
       <c r="Z148" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="AA148" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="AB148">
         <v>1</v>
       </c>
       <c r="AC148" t="s">
-        <v>681</v>
+        <v>853</v>
       </c>
     </row>
     <row r="149" spans="2:29">
@@ -25655,16 +25655,16 @@
         <v>1221</v>
       </c>
       <c r="Z149" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="AA149" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="AB149">
         <v>1</v>
       </c>
       <c r="AC149" t="s">
-        <v>745</v>
+        <v>619</v>
       </c>
     </row>
     <row r="150" spans="2:29">
@@ -25732,16 +25732,16 @@
         <v>1223</v>
       </c>
       <c r="Z150" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="AA150" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="AB150">
         <v>1</v>
       </c>
       <c r="AC150" t="s">
-        <v>603</v>
+        <v>679</v>
       </c>
     </row>
     <row r="151" spans="2:29">
@@ -25809,16 +25809,16 @@
         <v>1225</v>
       </c>
       <c r="Z151" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="AA151" t="s">
-        <v>1335</v>
+        <v>1600</v>
       </c>
       <c r="AB151">
         <v>1</v>
       </c>
       <c r="AC151" t="s">
-        <v>857</v>
+        <v>699</v>
       </c>
     </row>
     <row r="152" spans="2:29">
@@ -25886,16 +25886,16 @@
         <v>1227</v>
       </c>
       <c r="Z152" t="s">
-        <v>1598</v>
+        <v>1601</v>
       </c>
       <c r="AA152" t="s">
-        <v>1570</v>
+        <v>1602</v>
       </c>
       <c r="AB152">
         <v>1</v>
       </c>
       <c r="AC152" t="s">
-        <v>905</v>
+        <v>843</v>
       </c>
     </row>
     <row r="153" spans="2:29">
@@ -25963,16 +25963,16 @@
         <v>1229</v>
       </c>
       <c r="Z153" t="s">
-        <v>1599</v>
+        <v>1603</v>
       </c>
       <c r="AA153" t="s">
-        <v>1600</v>
+        <v>1341</v>
       </c>
       <c r="AB153">
         <v>1</v>
       </c>
       <c r="AC153" t="s">
-        <v>819</v>
+        <v>795</v>
       </c>
     </row>
     <row r="154" spans="2:29">
@@ -26040,16 +26040,16 @@
         <v>1231</v>
       </c>
       <c r="Z154" t="s">
-        <v>1601</v>
+        <v>1604</v>
       </c>
       <c r="AA154" t="s">
-        <v>1602</v>
+        <v>1605</v>
       </c>
       <c r="AB154">
         <v>1</v>
       </c>
       <c r="AC154" t="s">
-        <v>567</v>
+        <v>835</v>
       </c>
     </row>
     <row r="155" spans="2:29">
@@ -26117,16 +26117,16 @@
         <v>1233</v>
       </c>
       <c r="Z155" t="s">
-        <v>1603</v>
+        <v>1606</v>
       </c>
       <c r="AA155" t="s">
-        <v>1604</v>
+        <v>1607</v>
       </c>
       <c r="AB155">
         <v>1</v>
       </c>
       <c r="AC155" t="s">
-        <v>931</v>
+        <v>671</v>
       </c>
     </row>
     <row r="156" spans="2:29">
@@ -26194,16 +26194,16 @@
         <v>1235</v>
       </c>
       <c r="Z156" t="s">
-        <v>1605</v>
+        <v>1608</v>
       </c>
       <c r="AA156" t="s">
-        <v>1606</v>
+        <v>1609</v>
       </c>
       <c r="AB156">
         <v>1</v>
       </c>
       <c r="AC156" t="s">
-        <v>733</v>
+        <v>687</v>
       </c>
     </row>
     <row r="157" spans="2:29">
@@ -26271,16 +26271,16 @@
         <v>1237</v>
       </c>
       <c r="Z157" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="AA157" t="s">
-        <v>1608</v>
+        <v>1611</v>
       </c>
       <c r="AB157">
         <v>1</v>
       </c>
       <c r="AC157" t="s">
-        <v>705</v>
+        <v>621</v>
       </c>
     </row>
     <row r="158" spans="2:29">
@@ -26348,16 +26348,16 @@
         <v>1239</v>
       </c>
       <c r="Z158" t="s">
-        <v>1609</v>
+        <v>1612</v>
       </c>
       <c r="AA158" t="s">
-        <v>1610</v>
+        <v>1613</v>
       </c>
       <c r="AB158">
         <v>1</v>
       </c>
       <c r="AC158" t="s">
-        <v>839</v>
+        <v>591</v>
       </c>
     </row>
     <row r="159" spans="2:29">
@@ -26425,16 +26425,16 @@
         <v>1241</v>
       </c>
       <c r="Z159" t="s">
-        <v>1611</v>
+        <v>1614</v>
       </c>
       <c r="AA159" t="s">
-        <v>1612</v>
+        <v>1615</v>
       </c>
       <c r="AB159">
         <v>1</v>
       </c>
       <c r="AC159" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
     </row>
     <row r="160" spans="2:29">
@@ -26502,16 +26502,16 @@
         <v>1243</v>
       </c>
       <c r="Z160" t="s">
-        <v>1613</v>
+        <v>1616</v>
       </c>
       <c r="AA160" t="s">
-        <v>1614</v>
+        <v>1617</v>
       </c>
       <c r="AB160">
         <v>1</v>
       </c>
       <c r="AC160" t="s">
-        <v>593</v>
+        <v>723</v>
       </c>
     </row>
     <row r="161" spans="2:29">
@@ -26579,16 +26579,16 @@
         <v>1245</v>
       </c>
       <c r="Z161" t="s">
-        <v>1615</v>
+        <v>1618</v>
       </c>
       <c r="AA161" t="s">
-        <v>1616</v>
+        <v>1619</v>
       </c>
       <c r="AB161">
         <v>1</v>
       </c>
       <c r="AC161" t="s">
-        <v>617</v>
+        <v>673</v>
       </c>
     </row>
     <row r="162" spans="2:29">
@@ -26656,16 +26656,16 @@
         <v>1247</v>
       </c>
       <c r="Z162" t="s">
-        <v>1617</v>
+        <v>1620</v>
       </c>
       <c r="AA162" t="s">
-        <v>1618</v>
+        <v>1621</v>
       </c>
       <c r="AB162">
         <v>1</v>
       </c>
       <c r="AC162" t="s">
-        <v>693</v>
+        <v>765</v>
       </c>
     </row>
     <row r="163" spans="2:29">
@@ -26733,16 +26733,16 @@
         <v>1249</v>
       </c>
       <c r="Z163" t="s">
-        <v>1619</v>
+        <v>1622</v>
       </c>
       <c r="AA163" t="s">
-        <v>1620</v>
+        <v>1623</v>
       </c>
       <c r="AB163">
         <v>1</v>
       </c>
       <c r="AC163" t="s">
-        <v>827</v>
+        <v>681</v>
       </c>
     </row>
     <row r="164" spans="2:29">
@@ -26810,16 +26810,16 @@
         <v>1251</v>
       </c>
       <c r="Z164" t="s">
-        <v>1621</v>
+        <v>1624</v>
       </c>
       <c r="AA164" t="s">
-        <v>1622</v>
+        <v>1625</v>
       </c>
       <c r="AB164">
         <v>1</v>
       </c>
       <c r="AC164" t="s">
-        <v>661</v>
+        <v>745</v>
       </c>
     </row>
     <row r="165" spans="2:29">
@@ -26887,16 +26887,16 @@
         <v>1253</v>
       </c>
       <c r="Z165" t="s">
-        <v>1623</v>
+        <v>1626</v>
       </c>
       <c r="AA165" t="s">
-        <v>1624</v>
+        <v>1627</v>
       </c>
       <c r="AB165">
         <v>1</v>
       </c>
       <c r="AC165" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
     </row>
     <row r="166" spans="2:29">
@@ -26964,16 +26964,16 @@
         <v>1255</v>
       </c>
       <c r="Z166" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
       <c r="AA166" t="s">
-        <v>1626</v>
+        <v>1441</v>
       </c>
       <c r="AB166">
         <v>1</v>
       </c>
       <c r="AC166" t="s">
-        <v>625</v>
+        <v>857</v>
       </c>
     </row>
     <row r="167" spans="2:29">
@@ -27041,16 +27041,16 @@
         <v>1257</v>
       </c>
       <c r="Z167" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AA167" t="s">
-        <v>1628</v>
+        <v>1389</v>
       </c>
       <c r="AB167">
         <v>1</v>
       </c>
       <c r="AC167" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="168" spans="2:29">
@@ -27118,16 +27118,16 @@
         <v>1259</v>
       </c>
       <c r="Z168" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="AA168" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="AB168">
         <v>1</v>
       </c>
       <c r="AC168" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
     </row>
     <row r="169" spans="2:29">
@@ -27195,16 +27195,16 @@
         <v>1261</v>
       </c>
       <c r="Z169" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="AA169" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="AB169">
         <v>1</v>
       </c>
       <c r="AC169" t="s">
-        <v>833</v>
+        <v>565</v>
       </c>
     </row>
     <row r="170" spans="2:29">
@@ -27272,16 +27272,16 @@
         <v>1263</v>
       </c>
       <c r="Z170" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="AA170" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="AB170">
         <v>1</v>
       </c>
       <c r="AC170" t="s">
-        <v>645</v>
+        <v>677</v>
       </c>
     </row>
     <row r="171" spans="2:29">
@@ -27349,16 +27349,16 @@
         <v>1265</v>
       </c>
       <c r="Z171" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="AA171" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="AB171">
         <v>1</v>
       </c>
       <c r="AC171" t="s">
-        <v>601</v>
+        <v>889</v>
       </c>
     </row>
     <row r="172" spans="2:29">
@@ -27426,16 +27426,16 @@
         <v>1267</v>
       </c>
       <c r="Z172" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="AA172" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="AB172">
         <v>1</v>
       </c>
       <c r="AC172" t="s">
-        <v>709</v>
+        <v>761</v>
       </c>
     </row>
     <row r="173" spans="2:29">
@@ -27503,16 +27503,16 @@
         <v>1269</v>
       </c>
       <c r="Z173" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="AA173" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="AB173">
         <v>1</v>
       </c>
       <c r="AC173" t="s">
-        <v>771</v>
+        <v>597</v>
       </c>
     </row>
     <row r="174" spans="2:29">
@@ -27580,16 +27580,16 @@
         <v>1271</v>
       </c>
       <c r="Z174" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="AA174" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="AB174">
         <v>1</v>
       </c>
       <c r="AC174" t="s">
-        <v>825</v>
+        <v>867</v>
       </c>
     </row>
     <row r="175" spans="2:29">
@@ -27657,16 +27657,16 @@
         <v>1273</v>
       </c>
       <c r="Z175" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="AA175" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="AB175">
         <v>1</v>
       </c>
       <c r="AC175" t="s">
-        <v>691</v>
+        <v>865</v>
       </c>
     </row>
     <row r="176" spans="2:29">
@@ -27734,16 +27734,16 @@
         <v>1275</v>
       </c>
       <c r="Z176" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="AA176" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="AB176">
         <v>1</v>
       </c>
       <c r="AC176" t="s">
-        <v>935</v>
+        <v>767</v>
       </c>
     </row>
     <row r="177" spans="2:29">
@@ -27811,16 +27811,16 @@
         <v>1277</v>
       </c>
       <c r="Z177" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="AA177" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="AB177">
         <v>1</v>
       </c>
       <c r="AC177" t="s">
-        <v>773</v>
+        <v>585</v>
       </c>
     </row>
     <row r="178" spans="2:29">
@@ -27888,16 +27888,16 @@
         <v>1279</v>
       </c>
       <c r="Z178" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="AA178" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="AB178">
         <v>1</v>
       </c>
       <c r="AC178" t="s">
-        <v>739</v>
+        <v>807</v>
       </c>
     </row>
     <row r="179" spans="2:29">
@@ -27965,16 +27965,16 @@
         <v>1281</v>
       </c>
       <c r="Z179" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="AA179" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="AB179">
         <v>1</v>
       </c>
       <c r="AC179" t="s">
-        <v>741</v>
+        <v>587</v>
       </c>
     </row>
     <row r="180" spans="2:29">
@@ -28042,16 +28042,16 @@
         <v>1283</v>
       </c>
       <c r="Z180" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="AA180" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="AB180">
         <v>1</v>
       </c>
       <c r="AC180" t="s">
-        <v>611</v>
+        <v>581</v>
       </c>
     </row>
     <row r="181" spans="2:29">
@@ -28119,16 +28119,16 @@
         <v>1285</v>
       </c>
       <c r="Z181" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="AA181" t="s">
-        <v>1656</v>
+        <v>1349</v>
       </c>
       <c r="AB181">
         <v>1</v>
       </c>
       <c r="AC181" t="s">
-        <v>837</v>
+        <v>901</v>
       </c>
     </row>
     <row r="182" spans="2:29">
@@ -28199,13 +28199,13 @@
         <v>1657</v>
       </c>
       <c r="AA182" t="s">
-        <v>1576</v>
+        <v>1658</v>
       </c>
       <c r="AB182">
         <v>1</v>
       </c>
       <c r="AC182" t="s">
-        <v>637</v>
+        <v>747</v>
       </c>
     </row>
     <row r="183" spans="2:29">
@@ -28273,16 +28273,16 @@
         <v>1289</v>
       </c>
       <c r="Z183" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="AA183" t="s">
-        <v>1659</v>
+        <v>1587</v>
       </c>
       <c r="AB183">
         <v>1</v>
       </c>
       <c r="AC183" t="s">
-        <v>939</v>
+        <v>753</v>
       </c>
     </row>
     <row r="184" spans="2:29">
@@ -28359,7 +28359,7 @@
         <v>1</v>
       </c>
       <c r="AC184" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
     </row>
     <row r="185" spans="2:29">
@@ -28436,7 +28436,7 @@
         <v>1</v>
       </c>
       <c r="AC185" t="s">
-        <v>789</v>
+        <v>651</v>
       </c>
     </row>
     <row r="186" spans="2:29">
@@ -28513,7 +28513,7 @@
         <v>1</v>
       </c>
       <c r="AC186" t="s">
-        <v>785</v>
+        <v>913</v>
       </c>
     </row>
     <row r="187" spans="2:29">
@@ -28590,7 +28590,7 @@
         <v>1</v>
       </c>
       <c r="AC187" t="s">
-        <v>571</v>
+        <v>791</v>
       </c>
     </row>
     <row r="188" spans="2:29">
@@ -28667,7 +28667,7 @@
         <v>1</v>
       </c>
       <c r="AC188" t="s">
-        <v>675</v>
+        <v>701</v>
       </c>
     </row>
     <row r="189" spans="2:29">
@@ -28744,7 +28744,7 @@
         <v>1</v>
       </c>
       <c r="AC189" t="s">
-        <v>863</v>
+        <v>921</v>
       </c>
     </row>
     <row r="190" spans="2:29">
@@ -28821,7 +28821,7 @@
         <v>1</v>
       </c>
       <c r="AC190" t="s">
-        <v>629</v>
+        <v>665</v>
       </c>
     </row>
     <row r="191" spans="2:29">
@@ -28898,7 +28898,7 @@
         <v>1</v>
       </c>
       <c r="AC191" t="s">
-        <v>615</v>
+        <v>811</v>
       </c>
     </row>
     <row r="192" spans="2:29">
@@ -28975,7 +28975,7 @@
         <v>1</v>
       </c>
       <c r="AC192" t="s">
-        <v>883</v>
+        <v>655</v>
       </c>
     </row>
     <row r="193" spans="2:29">
@@ -29046,13 +29046,13 @@
         <v>1678</v>
       </c>
       <c r="AA193" t="s">
-        <v>1679</v>
+        <v>1563</v>
       </c>
       <c r="AB193">
         <v>1</v>
       </c>
       <c r="AC193" t="s">
-        <v>781</v>
+        <v>875</v>
       </c>
     </row>
     <row r="194" spans="2:29">
@@ -29120,16 +29120,16 @@
         <v>1311</v>
       </c>
       <c r="Z194" t="s">
+        <v>1679</v>
+      </c>
+      <c r="AA194" t="s">
         <v>1680</v>
       </c>
-      <c r="AA194" t="s">
-        <v>1681</v>
-      </c>
       <c r="AB194">
         <v>1</v>
       </c>
       <c r="AC194" t="s">
-        <v>891</v>
+        <v>821</v>
       </c>
     </row>
     <row r="195" spans="2:29">
@@ -29197,16 +29197,16 @@
         <v>1313</v>
       </c>
       <c r="Z195" t="s">
+        <v>1681</v>
+      </c>
+      <c r="AA195" t="s">
         <v>1682</v>
       </c>
-      <c r="AA195" t="s">
-        <v>1683</v>
-      </c>
       <c r="AB195">
         <v>1</v>
       </c>
       <c r="AC195" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="196" spans="2:29">
@@ -29274,16 +29274,16 @@
         <v>1315</v>
       </c>
       <c r="Z196" t="s">
+        <v>1683</v>
+      </c>
+      <c r="AA196" t="s">
         <v>1684</v>
       </c>
-      <c r="AA196" t="s">
-        <v>1455</v>
-      </c>
       <c r="AB196">
         <v>1</v>
       </c>
       <c r="AC196" t="s">
-        <v>755</v>
+        <v>667</v>
       </c>
     </row>
     <row r="197" spans="2:29">
@@ -29360,7 +29360,7 @@
         <v>1</v>
       </c>
       <c r="AC197" t="s">
-        <v>869</v>
+        <v>669</v>
       </c>
     </row>
     <row r="198" spans="2:29">
@@ -29431,13 +29431,13 @@
         <v>1687</v>
       </c>
       <c r="AA198" t="s">
-        <v>1420</v>
+        <v>1508</v>
       </c>
       <c r="AB198">
         <v>1</v>
       </c>
       <c r="AC198" t="s">
-        <v>899</v>
+        <v>925</v>
       </c>
     </row>
   </sheetData>
@@ -29446,7 +29446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C174C87-ABEB-4A66-A96E-5DAB2ACCCBC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F355F6B8-470B-4F8B-B771-1BA402810080}">
   <dimension ref="B9:AB199"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -38097,7 +38097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F1ACCE-A9C4-4AA2-B988-801649898237}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8AA722-FDEC-4466-A080-B565FF4472A1}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -39917,7 +39917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDC203A-F8C4-4BD7-874B-6BE0D96A9FD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5310B257-403B-4BF0-972B-1D6A5C9161EE}">
   <dimension ref="B2:M317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -41185,7 +41185,7 @@
         <v>2431</v>
       </c>
       <c r="C42" t="s">
-        <v>1422</v>
+        <v>1463</v>
       </c>
       <c r="D42" t="s">
         <v>2432</v>
@@ -41220,7 +41220,7 @@
         <v>2432</v>
       </c>
       <c r="D43" t="s">
-        <v>1422</v>
+        <v>1463</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -42212,7 +42212,7 @@
         <v>2495</v>
       </c>
       <c r="D74" t="s">
-        <v>1337</v>
+        <v>1443</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -42241,7 +42241,7 @@
         <v>2496</v>
       </c>
       <c r="C75" t="s">
-        <v>1337</v>
+        <v>1443</v>
       </c>
       <c r="D75" t="s">
         <v>2495</v>
@@ -42657,7 +42657,7 @@
         <v>2521</v>
       </c>
       <c r="C88" t="s">
-        <v>1659</v>
+        <v>1543</v>
       </c>
       <c r="D88" t="s">
         <v>2522</v>
@@ -42692,7 +42692,7 @@
         <v>2522</v>
       </c>
       <c r="D89" t="s">
-        <v>1659</v>
+        <v>1543</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -43809,7 +43809,7 @@
         <v>2592</v>
       </c>
       <c r="C124" t="s">
-        <v>1479</v>
+        <v>1488</v>
       </c>
       <c r="D124" t="s">
         <v>2593</v>
@@ -43844,7 +43844,7 @@
         <v>2593</v>
       </c>
       <c r="D125" t="s">
-        <v>1479</v>
+        <v>1488</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -45284,7 +45284,7 @@
         <v>2683</v>
       </c>
       <c r="D170" t="s">
-        <v>1453</v>
+        <v>1658</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -45313,7 +45313,7 @@
         <v>2684</v>
       </c>
       <c r="C171" t="s">
-        <v>1453</v>
+        <v>1658</v>
       </c>
       <c r="D171" t="s">
         <v>2683</v>
@@ -45537,7 +45537,7 @@
         <v>2697</v>
       </c>
       <c r="C178" t="s">
-        <v>1367</v>
+        <v>1349</v>
       </c>
       <c r="D178" t="s">
         <v>2698</v>
@@ -45572,7 +45572,7 @@
         <v>2698</v>
       </c>
       <c r="D179" t="s">
-        <v>1367</v>
+        <v>1349</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -46052,7 +46052,7 @@
         <v>2729</v>
       </c>
       <c r="D194" t="s">
-        <v>1477</v>
+        <v>1423</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -46081,7 +46081,7 @@
         <v>2730</v>
       </c>
       <c r="C195" t="s">
-        <v>1477</v>
+        <v>1423</v>
       </c>
       <c r="D195" t="s">
         <v>2729</v>
@@ -46241,7 +46241,7 @@
         <v>2739</v>
       </c>
       <c r="C200" t="s">
-        <v>1572</v>
+        <v>1391</v>
       </c>
       <c r="D200" t="s">
         <v>2740</v>
@@ -46276,7 +46276,7 @@
         <v>2740</v>
       </c>
       <c r="D201" t="s">
-        <v>1572</v>
+        <v>1391</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -47396,7 +47396,7 @@
         <v>2811</v>
       </c>
       <c r="D236" t="s">
-        <v>1339</v>
+        <v>1445</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -47425,7 +47425,7 @@
         <v>2812</v>
       </c>
       <c r="C237" t="s">
-        <v>1339</v>
+        <v>1445</v>
       </c>
       <c r="D237" t="s">
         <v>2811</v>
@@ -48164,7 +48164,7 @@
         <v>2858</v>
       </c>
       <c r="D260" t="s">
-        <v>1530</v>
+        <v>1682</v>
       </c>
       <c r="E260">
         <v>1</v>
@@ -48193,7 +48193,7 @@
         <v>2859</v>
       </c>
       <c r="C261" t="s">
-        <v>1530</v>
+        <v>1682</v>
       </c>
       <c r="D261" t="s">
         <v>2858</v>
@@ -49956,7 +49956,7 @@
         <v>2967</v>
       </c>
       <c r="D316" t="s">
-        <v>1383</v>
+        <v>1561</v>
       </c>
       <c r="E316">
         <v>1</v>
@@ -49985,7 +49985,7 @@
         <v>2968</v>
       </c>
       <c r="C317" t="s">
-        <v>1383</v>
+        <v>1561</v>
       </c>
       <c r="D317" t="s">
         <v>2967</v>

--- a/VerveStacks_DEU_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_DEU_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA852C11-5DB3-4CDD-A54C-4582B50FEBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F50F871F-9AD2-4F84-8795-2A2C8C5986F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3056,6 +3056,558 @@
     <t>connecting solar and wind to buses in grid cell DEU_94</t>
   </si>
   <si>
+    <t>distr_solelc_won-DEU_0049</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_49</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0041</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_41</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0133</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_133</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0134</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_134</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0060</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_60</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0108</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_108</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0148</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_148</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0178</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_178</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0072</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_72</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_4</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0144</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_144</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0177</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_177</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0075</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_75</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0106</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_106</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0039</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_39</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0162</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_162</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0167</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_167</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_6</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_9</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0128</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_128</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0001</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_1</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0184</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_184</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0085</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_85</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0071</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_71</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0138</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_138</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0087</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_87</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0029</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_29</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0000</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_0</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0057</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_57</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0163</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_163</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0099</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_99</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0016</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_16</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0152</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_152</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0151</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_151</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0102</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_102</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0010</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_10</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0122</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_122</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0011</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_11</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0008</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_8</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0169</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_169</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0092</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_92</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0095</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_95</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0127</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_127</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0042</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_42</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0076</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_76</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0155</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_155</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0103</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_103</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_2</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0118</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_118</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0142</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_142</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0037</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_37</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0166</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_166</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0119</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_119</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0187</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_187</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0115</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_115</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0040</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_40</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0018</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_18</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0073</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_73</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0104</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_104</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0131</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_131</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0064</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_64</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0186</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_186</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0105</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_105</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0088</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_88</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0089</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_89</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_23</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0137</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_137</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0036</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_36</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0188</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_188</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0061</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_61</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0113</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_113</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0063</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_63</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0145</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_145</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0027</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_27</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0058</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_58</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0068</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_68</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0140</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_140</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0116</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_116</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0136</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_136</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0054</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_54</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0062</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_62</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0028</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_28</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_13</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0093</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_93</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0080</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_80</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0055</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_55</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0101</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_101</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0059</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_59</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0091</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_91</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_19</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0147</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_147</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0171</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_171</t>
+  </si>
+  <si>
     <t>distr_solelc_won-DEU_0014</t>
   </si>
   <si>
@@ -3188,46 +3740,214 @@
     <t>connecting solar and wind to buses in grid cell DEU_35</t>
   </si>
   <si>
-    <t>distr_solelc_won-DEU_0128</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_128</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0001</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_1</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0184</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_184</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0085</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_85</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0071</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_71</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0138</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_138</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0087</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_87</t>
+    <t>distr_solelc_won-DEU_0084</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_84</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0044</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_44</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0090</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_90</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0005</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_5</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0082</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_82</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0161</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_161</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0125</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_125</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0174</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_174</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0182</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_182</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0165</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_165</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0154</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_154</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0077</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_77</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0107</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_107</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0015</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_15</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0183</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_183</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0112</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_112</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0078</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_78</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0012</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_12</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0126</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_126</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0007</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_7</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0157</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_157</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0083</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_83</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0111</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_111</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0003</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_3</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0056</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_56</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0150</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_150</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0032</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_32</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0025</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_25</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0160</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_160</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0109</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_109</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0164</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_164</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_22</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0096</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_96</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0153</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_153</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0168</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_168</t>
   </si>
   <si>
     <t>distr_solelc_won-DEU_0067</t>
@@ -3284,726 +4004,6 @@
     <t>connecting solar and wind to buses in grid cell DEU_158</t>
   </si>
   <si>
-    <t>distr_solelc_won-DEU_0049</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_49</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0041</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_41</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0133</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_133</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0134</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_134</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0060</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_60</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0108</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_108</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0148</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_148</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0178</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_178</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0072</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_72</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_4</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0144</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_144</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0177</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_177</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0075</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_75</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0106</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_106</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0039</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_39</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0162</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_162</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0167</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_167</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_6</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_9</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0127</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_127</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0042</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_42</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0076</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_76</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0155</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_155</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0103</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_103</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_2</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0118</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_118</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0142</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_142</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0037</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_37</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0166</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_166</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0119</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_119</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0187</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_187</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0115</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_115</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0084</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_84</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0044</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_44</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0090</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_90</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0005</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_5</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0082</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_82</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0161</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_161</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0125</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_125</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0174</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_174</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0182</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_182</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0165</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_165</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0154</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_154</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0077</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_77</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0107</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_107</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0040</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_40</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0018</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_18</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0073</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_73</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0104</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_104</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0131</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_131</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0064</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_64</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0186</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_186</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0105</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_105</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0088</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_88</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0089</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_89</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_23</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0137</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_137</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0036</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_36</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0188</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_188</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0061</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_61</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0113</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_113</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0015</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_15</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0183</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_183</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0112</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_112</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0078</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_78</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0012</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_12</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0126</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_126</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0007</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_7</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0157</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_157</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0083</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_83</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0111</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_111</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0003</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_3</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0056</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_56</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0150</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_150</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0032</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_32</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0025</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_25</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0160</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_160</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0109</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_109</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0164</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_164</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0022</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_22</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0096</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_96</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0153</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_153</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0168</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_168</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0063</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_63</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0145</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_145</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0027</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_27</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0058</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_58</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0068</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_68</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0140</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_140</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0116</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_116</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0136</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_136</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0054</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_54</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0062</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_62</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0028</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_28</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_13</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0093</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_93</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0080</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_80</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0055</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_55</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0101</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_101</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0059</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_59</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0091</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_91</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_19</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0147</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_147</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0171</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_171</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0029</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_29</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0000</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_0</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0057</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_57</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0163</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_163</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0099</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_99</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0016</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_16</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0152</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_152</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0151</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_151</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0102</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_102</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0010</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_10</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0122</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_122</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0011</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_11</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0008</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_8</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0169</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_169</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0092</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_92</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0095</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_95</t>
-  </si>
-  <si>
     <t>distr_solelc_won-DEU_0066</t>
   </si>
   <si>
@@ -4187,6 +4187,549 @@
     <t>e_DE163-220</t>
   </si>
   <si>
+    <t>elc_won-DEU_0049,elc_spv-DEU_0049</t>
+  </si>
+  <si>
+    <t>e_DE17-380,e_w24493551-380,e_w44717036-380,e_w871646309-380,e_w951273401-380,e_w951773852-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0041,elc_spv-DEU_0041</t>
+  </si>
+  <si>
+    <t>e_DE174-220,e_DE176-220,e_DE178-380,e_DE180-220,e_DE181-380,e_DE182-380,e_r17591073-220,e_w152924498-220,e_w152924498-380,e_w152924508-220,e_w152973139-220,e_w152973139-380,e_w156676050-220,e_w160929097-220,e_w207248812-220,e_w207248812-380,e_w259561755-380,e_w409305507-220,e_w46584363-220,e_w46584363-380,e_w48057110-380,e_w600395952-220,e_w600395952-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0133,elc_spv-DEU_0133</t>
+  </si>
+  <si>
+    <t>e_DE18-220,e_DE18-380,e_DE19-380,e_w59707532-220,e_w59707532-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0134,elc_spv-DEU_0134</t>
+  </si>
+  <si>
+    <t>e_w234171369-380,e_w274603394-380,e_w517421342-220,e_w517421342-380,e_w851299584-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0060,elc_spv-DEU_0060</t>
+  </si>
+  <si>
+    <t>e_w23881272-220,e_w24042358-380,e_w42372159-380,e_w42410916-220,e_w42410916-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0108,elc_spv-DEU_0108</t>
+  </si>
+  <si>
+    <t>e_w24705761-220,e_w24705761-380,e_w28613721-380,e_w954971276-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0148,elc_spv-DEU_0148</t>
+  </si>
+  <si>
+    <t>e_w40621568-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0178,elc_spv-DEU_0178</t>
+  </si>
+  <si>
+    <t>e_w1091984573-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0072,elc_spv-DEU_0072</t>
+  </si>
+  <si>
+    <t>e_w41389594-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0004,elc_spv-DEU_0004</t>
+  </si>
+  <si>
+    <t>e_DE106-220,e_DE107-220,e_DE107-380,e_DE110-220,e_DE110-380,e_DE112-380,e_DE113-220,e_DE114-380,e_DE117-380,e_DE125-220,e_DE125-380,e_DE127-380,e_DE128-380,e_DE131-220,e_DE133-380,e_w1040551074-220,e_w188276460-220,e_w188276460-380,e_w23084554-220,e_w23084554-380,e_w24267175-220,e_w24479984-220,e_w24479984-380,e_w24799890-220,e_w24799890-380,e_w24815262-220,e_w24839976-220,e_w24839976-380,e_w26927264-380,e_w27919734-220,e_w27919734-380,e_w31762305-220,e_w49577401-220,e_w49577401-380,e_w91854336-220,e_w91854336-380,e_w92877635-220,e_w93278553-220,e_w95434457-220,e_w95434457-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0144,elc_spv-DEU_0144</t>
+  </si>
+  <si>
+    <t>e_DE142-380,e_w167352587-220,e_w173112252-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0177,elc_spv-DEU_0177</t>
+  </si>
+  <si>
+    <t>e_w1222597066-220,e_w1222597066-380,e_w30039908-220,e_w30039908-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0075,elc_spv-DEU_0075</t>
+  </si>
+  <si>
+    <t>e_w143854536-380,e_w31653753-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0106,elc_spv-DEU_0106</t>
+  </si>
+  <si>
+    <t>e_w18629425-220,e_w18629425-380,e_w53378027-380,e_w76246159-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0039,elc_spv-DEU_0039</t>
+  </si>
+  <si>
+    <t>e_w26814283-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0162,elc_spv-DEU_0162</t>
+  </si>
+  <si>
+    <t>e_w29331499-220,e_w29331499-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0167,elc_spv-DEU_0167</t>
+  </si>
+  <si>
+    <t>e_w946710698-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0006,elc_spv-DEU_0006</t>
+  </si>
+  <si>
+    <t>e_DE62-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0009,elc_spv-DEU_0009</t>
+  </si>
+  <si>
+    <t>e_w156402422-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0128,elc_spv-DEU_0128</t>
+  </si>
+  <si>
+    <t>e_DE151-220,e_w1086825107-220,e_w1086825107-380,e_w148211527-380,e_w156673637-220,e_w156673637-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0001,elc_spv-DEU_0001</t>
+  </si>
+  <si>
+    <t>e_DE164-220,e_DE167-380,e_DE170-380,e_DE172-220,e_DE172-380,e_DE173-220,e_w145680894-220,e_w151967290-220,e_w151967290-380,e_w151967291-220,e_w151967291-380,e_w89176939-220,e_w89176956-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0184,elc_spv-DEU_0184</t>
+  </si>
+  <si>
+    <t>e_DE46-380,e_w52983550-380,e_w941198517-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0085,elc_spv-DEU_0085</t>
+  </si>
+  <si>
+    <t>e_DE7-220,e_DE8-380,e_w1107961833-380,e_w22720647-220,e_w22720647-380,e_w25306938-380,e_w28008024-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0071,elc_spv-DEU_0071</t>
+  </si>
+  <si>
+    <t>e_w31131320-220,e_w31131320-380,e_w31131325-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0138,elc_spv-DEU_0138</t>
+  </si>
+  <si>
+    <t>e_w75865676-220,e_w91080806-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0087,elc_spv-DEU_0087</t>
+  </si>
+  <si>
+    <t>e_w907539360-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0029,elc_spv-DEU_0029</t>
+  </si>
+  <si>
+    <t>e_DE109-220,e_DE132-220,e_w132814303-220,e_w83916207-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0000,elc_spv-DEU_0000</t>
+  </si>
+  <si>
+    <t>e_DE175-220,e_DE177-220,e_w82773910-220,e_w82773910-380,e_w82773910-400,e_w89215122-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0057,elc_spv-DEU_0057</t>
+  </si>
+  <si>
+    <t>e_DE184-380,e_DE185-380,e_DE186-380,e_DE187-380,e_DE188-380,e_DE189-380,e_DE190-380,e_DE191-380,e_DE192-380,e_DE193-380,e_w147878692-380,e_w22960899-380,e_w25786404-220,e_w25786404-380,e_w37721677-380,e_w41334805-220,e_w41334805-380,e_w43688805-220,e_w43688805-380,e_w48428875-380,e_w97825259-220,e_w97825259-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0163,elc_spv-DEU_0163</t>
+  </si>
+  <si>
+    <t>e_DE21-220,e_DE25-380,e_w11500045-380,e_w27149550-220,e_w27149550-380,e_w30132758-380,e_w30303506-380,e_w30309989-220,e_w43163132-380,e_w46615737-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0099,elc_spv-DEU_0099</t>
+  </si>
+  <si>
+    <t>e_DE36-220,e_w24258096-380,e_w24272339-380,e_w24272541-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0016,elc_spv-DEU_0016</t>
+  </si>
+  <si>
+    <t>e_DE39-220,e_DE41-380,e_DE45-380,e_DE50-380,e_DE54-380,e_w844075808-380,e_w952346322-380,e_w979801144-220,e_w979801144-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0152,elc_spv-DEU_0152</t>
+  </si>
+  <si>
+    <t>e_DE5-380,e_w32063539-380,e_w32318130-220,e_w940919943</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0151,elc_spv-DEU_0151</t>
+  </si>
+  <si>
+    <t>e_w1094015892-220,e_w1094015892-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0102,elc_spv-DEU_0102</t>
+  </si>
+  <si>
+    <t>e_w1102237380-220,e_w1102237380-380,e_w1191459479-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0010,elc_spv-DEU_0010</t>
+  </si>
+  <si>
+    <t>e_w152018146-220,e_w152018146-380,e_w156402422-220,e_w207756597-220,e_w54359256-220,e_w54359256-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0122,elc_spv-DEU_0122</t>
+  </si>
+  <si>
+    <t>e_w24158385-220,e_w26245195-220,e_w26245195-380,e_w5404079-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0011,elc_spv-DEU_0011</t>
+  </si>
+  <si>
+    <t>e_w42097854-220,e_w42097854-380,e_w66764943-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0008,elc_spv-DEU_0008</t>
+  </si>
+  <si>
+    <t>e_w672738029-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0169,elc_spv-DEU_0169</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0092,elc_spv-DEU_0092</t>
+  </si>
+  <si>
+    <t>e_w24705761-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0095,elc_spv-DEU_0095</t>
+  </si>
+  <si>
+    <t>e_w948341123-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0127,elc_spv-DEU_0127</t>
+  </si>
+  <si>
+    <t>e_DE157-380,e_DE158-380,e_w93341407-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0042,elc_spv-DEU_0042</t>
+  </si>
+  <si>
+    <t>e_DE165-380,e_DE168-380,e_w1223405794-220,e_w1223405794-380,e_w147521567-220,e_w147521567-380,e_w149987048-220,e_w149987048-380,e_w23284340-220,e_w23284340-380,e_w24685992-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0076,elc_spv-DEU_0076</t>
+  </si>
+  <si>
+    <t>e_DE169-220,e_w24765111-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0155,elc_spv-DEU_0155</t>
+  </si>
+  <si>
+    <t>e_DE201-220,e_DE203-220,e_DE204-220,e_DE206-220,e_w24976300-220,e_w24976300-380,e_w91086220-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0103,elc_spv-DEU_0103</t>
+  </si>
+  <si>
+    <t>e_DE4-220,e_w27124619-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0002,elc_spv-DEU_0002</t>
+  </si>
+  <si>
+    <t>e_w1024536785-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0118,elc_spv-DEU_0118</t>
+  </si>
+  <si>
+    <t>e_w275466323,e_w275466323-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0142,elc_spv-DEU_0142</t>
+  </si>
+  <si>
+    <t>e_w29084374-220,e_w29084374-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0037,elc_spv-DEU_0037</t>
+  </si>
+  <si>
+    <t>e_w31367940-220,e_w31367940-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0166,elc_spv-DEU_0166</t>
+  </si>
+  <si>
+    <t>e_w39688875-220,e_w515358077-380,e_w941453716-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0119,elc_spv-DEU_0119</t>
+  </si>
+  <si>
+    <t>e_w275466323-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0187,elc_spv-DEU_0187</t>
+  </si>
+  <si>
+    <t>e_w170123812-400</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0115,elc_spv-DEU_0115</t>
+  </si>
+  <si>
+    <t>e_w26474759-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0040,elc_spv-DEU_0040</t>
+  </si>
+  <si>
+    <t>e_DE183-220,e_w152261133-220,e_w152261133-380,e_w254326606-380,e_w32151621-220,e_w32725957-220,e_w32725958-220,e_w32731290-220,e_w32966636-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0018,elc_spv-DEU_0018</t>
+  </si>
+  <si>
+    <t>e_DE20-380,e_w1280840211-380,e_w142487746-380,e_w206289192-380,e_w32042992-380,e_w797009308-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0073,elc_spv-DEU_0073</t>
+  </si>
+  <si>
+    <t>e_DE202-220,e_DE202-380,e_DE205-220,e_DE205-380,e_w26404600-380,e_w41389594-220,e_w41389594-380,e_w85523877-220,e_w85523877-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0104,elc_spv-DEU_0104</t>
+  </si>
+  <si>
+    <t>e_DE211-220,e_DE212-220,e_w68532663-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0131,elc_spv-DEU_0131</t>
+  </si>
+  <si>
+    <t>e_DE47-220,e_w26472665-220,e_w26472665-380,e_w943939310-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0064,elc_spv-DEU_0064</t>
+  </si>
+  <si>
+    <t>e_DE49-380,e_w23135618-220,e_w24413992-380,e_w28397771-220,e_w288305056-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0186,elc_spv-DEU_0186</t>
+  </si>
+  <si>
+    <t>e_w170123812-220,e_w170123812-380,e_w170123812-400</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0105,elc_spv-DEU_0105</t>
+  </si>
+  <si>
+    <t>e_w23907283-380,e_w24237879-220,e_w30613895-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0088,elc_spv-DEU_0088</t>
+  </si>
+  <si>
+    <t>e_w57727004-220,e_w57727004-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0089,elc_spv-DEU_0089</t>
+  </si>
+  <si>
+    <t>e_w683227471-380,e_w77038371-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0023,elc_spv-DEU_0023</t>
+  </si>
+  <si>
+    <t>e_w82130902-225,e_w933248930-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0137,elc_spv-DEU_0137</t>
+  </si>
+  <si>
+    <t>e_w75865676-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0036,elc_spv-DEU_0036</t>
+  </si>
+  <si>
+    <t>e_w29420322-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0188,elc_spv-DEU_0188</t>
+  </si>
+  <si>
+    <t>e_w1222597066-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0061,elc_spv-DEU_0061</t>
+  </si>
+  <si>
+    <t>e_w156673636-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0113,elc_spv-DEU_0113</t>
+  </si>
+  <si>
+    <t>e_w32690742-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0063,elc_spv-DEU_0063</t>
+  </si>
+  <si>
+    <t>e_DE104-380,e_w274630377-220,e_w274630377-380,e_w42681484-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0145,elc_spv-DEU_0145</t>
+  </si>
+  <si>
+    <t>e_DE119-380,e_w23161029-220,e_w32843531-220,e_w32843531-380,e_w442199284-380,e_w714098678-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0027,elc_spv-DEU_0027</t>
+  </si>
+  <si>
+    <t>e_DE155-380,e_DE156-380,e_w160584794-380,e_w50898216-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0058,elc_spv-DEU_0058</t>
+  </si>
+  <si>
+    <t>e_DE179-220,e_w1104947187-380,e_w1327333163-220,e_w1327333163-380,e_w143903369-220,e_w143903369-380,e_w159326655-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0068,elc_spv-DEU_0068</t>
+  </si>
+  <si>
+    <t>e_DE6-380,e_w1089769599-220,e_w1089769599-380,e_w1280364401-380,e_w289836713-380,e_w525964617,e_w525964629-380,e_w60032354-220,e_w87722999-220,e_w87722999-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0140,elc_spv-DEU_0140</t>
+  </si>
+  <si>
+    <t>e_w29417741-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0116,elc_spv-DEU_0116</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0136,elc_spv-DEU_0136</t>
+  </si>
+  <si>
+    <t>e_DE5-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0054,elc_spv-DEU_0054</t>
+  </si>
+  <si>
+    <t>e_w31367936-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0062,elc_spv-DEU_0062</t>
+  </si>
+  <si>
+    <t>e_DE121-380,e_w156673636-380,e_w41072584-380,e_w41232144-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0028,elc_spv-DEU_0028</t>
+  </si>
+  <si>
+    <t>e_DE135-220,e_DE137-220,e_DE137-380,e_DE140-380,e_DE143-380,e_DE145-220,e_DE147-380,e_DE148-220,e_DE148-380,e_DE150-380,e_w152403632-220,e_w152403632-380,e_w89043564-220,e_w89043564-380,e_w90148336-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0013,elc_spv-DEU_0013</t>
+  </si>
+  <si>
+    <t>e_DE138-220,e_DE138-380,e_DE139-220,e_DE139-380,e_DE144-380,e_DE153-380,e_DE154-380,e_w22765517-220,e_w22765517-380,e_w22766160-220,e_w22766160-380,e_w22767509-220,e_w22767509-380,e_w22796434-220,e_w26777313-380,e_w29374542-220,e_w32148946-220,e_w42423415-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0093,elc_spv-DEU_0093</t>
+  </si>
+  <si>
+    <t>e_DE163-220,e_w108797675-380,e_w24758329-380,e_w499165542-220,e_w499165542-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0080,elc_spv-DEU_0080</t>
+  </si>
+  <si>
+    <t>e_DE59-220,e_DE60-220,e_w952004951-220,e_w952004951-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0055,elc_spv-DEU_0055</t>
+  </si>
+  <si>
+    <t>e_w102743264-220,e_w25306752-220,e_w25306752-380,e_w31367936-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0101,elc_spv-DEU_0101</t>
+  </si>
+  <si>
+    <t>e_w1089911133-380,e_w23583867-380,e_w28327356-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0059,elc_spv-DEU_0059</t>
+  </si>
+  <si>
+    <t>e_w145002769-380,e_w55069713-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0091,elc_spv-DEU_0091</t>
+  </si>
+  <si>
+    <t>e_w38325076-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0019,elc_spv-DEU_0019</t>
+  </si>
+  <si>
+    <t>e_w559702819-220,e_w559702819-380,e_w672738029-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0147,elc_spv-DEU_0147</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0171,elc_spv-DEU_0171</t>
+  </si>
+  <si>
+    <t>e_w942771541-380</t>
+  </si>
+  <si>
     <t>elc_won-DEU_0014,elc_spv-DEU_0014</t>
   </si>
   <si>
@@ -4298,9 +4841,6 @@
     <t>elc_won-DEU_0172,elc_spv-DEU_0172</t>
   </si>
   <si>
-    <t>e_w942771541-380</t>
-  </si>
-  <si>
     <t>elc_won-DEU_0141,elc_spv-DEU_0141</t>
   </si>
   <si>
@@ -4316,49 +4856,208 @@
     <t>elc_won-DEU_0035,elc_spv-DEU_0035</t>
   </si>
   <si>
-    <t>e_w29420322-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0128,elc_spv-DEU_0128</t>
-  </si>
-  <si>
-    <t>e_DE151-220,e_w1086825107-220,e_w1086825107-380,e_w148211527-380,e_w156673637-220,e_w156673637-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0001,elc_spv-DEU_0001</t>
-  </si>
-  <si>
-    <t>e_DE164-220,e_DE167-380,e_DE170-380,e_DE172-220,e_DE172-380,e_DE173-220,e_w145680894-220,e_w151967290-220,e_w151967290-380,e_w151967291-220,e_w151967291-380,e_w89176939-220,e_w89176956-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0184,elc_spv-DEU_0184</t>
-  </si>
-  <si>
-    <t>e_DE46-380,e_w52983550-380,e_w941198517-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0085,elc_spv-DEU_0085</t>
-  </si>
-  <si>
-    <t>e_DE7-220,e_DE8-380,e_w1107961833-380,e_w22720647-220,e_w22720647-380,e_w25306938-380,e_w28008024-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0071,elc_spv-DEU_0071</t>
-  </si>
-  <si>
-    <t>e_w31131320-220,e_w31131320-380,e_w31131325-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0138,elc_spv-DEU_0138</t>
-  </si>
-  <si>
-    <t>e_w75865676-220,e_w91080806-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0087,elc_spv-DEU_0087</t>
-  </si>
-  <si>
-    <t>e_w907539360-380</t>
+    <t>elc_won-DEU_0084,elc_spv-DEU_0084</t>
+  </si>
+  <si>
+    <t>e_DE10-380,e_DE11-380,e_DE12-380,e_w11285720-380,e_w24502420-380,e_w881636329-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0044,elc_spv-DEU_0044</t>
+  </si>
+  <si>
+    <t>e_DE146-380,e_DE152-380,e_w1245826064-380,e_w1245867884-380,e_w202747445-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0090,elc_spv-DEU_0090</t>
+  </si>
+  <si>
+    <t>e_DE200-380,e_w1093896544-380,e_w31105067-380,e_w88945213-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0005,elc_spv-DEU_0005</t>
+  </si>
+  <si>
+    <t>e_DE62-220,e_DE62-380,e_DE67-220,e_DE67-380,e_DE70-220,e_DE70-380,e_DE73-220,e_DE73-380,e_DE74-220,e_DE74-380,e_DE77-220,e_DE77-380,e_DE79-220,e_DE93-220,e_DE97-220,e_w23084417-220,e_w23380800-220,e_w23380800-380,e_w24462228-220,e_w24462317-220,e_w24462426-220,e_w24462426-380,e_w24478889-220,e_w24478889-380,e_w24479003-220,e_w24479003-380,e_w311444692-380,e_w35818134-220,e_w35818137-220,e_w37554416-220,e_w92024105-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0082,elc_spv-DEU_0082</t>
+  </si>
+  <si>
+    <t>e_w23682013-220,e_w23816140-220,e_w274621059-220,e_w33042984-220,e_w787265962-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0161,elc_spv-DEU_0161</t>
+  </si>
+  <si>
+    <t>e_w28729619-380,e_w398680313-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0125,elc_spv-DEU_0125</t>
+  </si>
+  <si>
+    <t>e_w28956649-220,e_w28956649-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0174,elc_spv-DEU_0174</t>
+  </si>
+  <si>
+    <t>e_w940922557-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0182,elc_spv-DEU_0182</t>
+  </si>
+  <si>
+    <t>e_w941805476-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0165,elc_spv-DEU_0165</t>
+  </si>
+  <si>
+    <t>e_w947118608-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0154,elc_spv-DEU_0154</t>
+  </si>
+  <si>
+    <t>e_DE206-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0077,elc_spv-DEU_0077</t>
+  </si>
+  <si>
+    <t>e_w148446247-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0107,elc_spv-DEU_0107</t>
+  </si>
+  <si>
+    <t>e_w24768051-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0015,elc_spv-DEU_0015</t>
+  </si>
+  <si>
+    <t>e_DE100-220,e_DE100-380,e_DE102-220,e_DE102-380,e_DE66-220,e_DE66-380,e_DE68-220,e_DE68-380,e_DE69-220,e_DE69-380,e_DE72-220,e_DE75-380,e_DE76-380,e_DE78-220,e_DE80-220,e_DE80-380,e_DE81-220,e_DE82-220,e_DE83-220,e_DE84-220,e_DE86-220,e_DE87-220,e_DE87-380,e_DE89-220,e_DE89-380,e_DE92-220,e_DE96-220,e_DE96-380,e_DE98-220,e_w1076001174-220,e_w1076001174-380,e_w113546939-220,e_w113546939-380,e_w121199242-220,e_w121199242-380,e_w1303270458-220,e_w1303270458-380,e_w150267232-220,e_w156973363-220,e_w22944791-220,e_w22964137-380,e_w23022100-220,e_w23022100-380,e_w23067006-380,e_w24280460-380,e_w24415232-220,e_w24921206-220,e_w24921206-380,e_w25051880-220,e_w26291794-380,e_w275138524-380,e_w28452784-220,e_w29077623-220,e_w29077623-380,e_w311444691-380,e_w32472806-380,e_w35763480-220,e_w35763480-380,e_w38584673-220,e_w425100082-380,e_w59925390-220,e_w59925390-380,e_w63114179-220,e_w63114179-380,e_w66038431-220,e_w68549340-220,e_w68549340-380,e_w698870101-220,e_w787840119-220,e_w799361667-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0183,elc_spv-DEU_0183</t>
+  </si>
+  <si>
+    <t>e_DE58-380,e_DE99-380,e_w157806991-380,e_w30164703-380,e_w58429825-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0112,elc_spv-DEU_0112</t>
+  </si>
+  <si>
+    <t>e_w143882655-220,e_w143882655-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0078,elc_spv-DEU_0078</t>
+  </si>
+  <si>
+    <t>e_w148446247-380,e_w29309786-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0012,elc_spv-DEU_0012</t>
+  </si>
+  <si>
+    <t>e_w154869247-220,e_w395847307-220,e_w395847307-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0126,elc_spv-DEU_0126</t>
+  </si>
+  <si>
+    <t>e_w93341407-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0007,elc_spv-DEU_0007</t>
+  </si>
+  <si>
+    <t>e_w979801144-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0157,elc_spv-DEU_0157</t>
+  </si>
+  <si>
+    <t>e_w78441561-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0083,elc_spv-DEU_0083</t>
+  </si>
+  <si>
+    <t>e_w23816140-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0111,elc_spv-DEU_0111</t>
+  </si>
+  <si>
+    <t>e_DE134-380,e_w149256409-380,e_w152219167-220,e_w25746125-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0003,elc_spv-DEU_0003</t>
+  </si>
+  <si>
+    <t>e_DE136-380,e_DE141-380,e_w24268944-380,e_w25426571-380,e_w25992879-380,e_w26593935-380,e_w870598507,e_w870598507-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0056,elc_spv-DEU_0056</t>
+  </si>
+  <si>
+    <t>e_DE195-380,e_DE196-380,e_DE197-380,e_DE198-380,e_DE199-380,e_w26260052-380,e_w30734324-380,e_w42736239-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0150,elc_spv-DEU_0150</t>
+  </si>
+  <si>
+    <t>e_DE9-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0032,elc_spv-DEU_0032</t>
+  </si>
+  <si>
+    <t>e_w150200540-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0025,elc_spv-DEU_0025</t>
+  </si>
+  <si>
+    <t>e_w152107815-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0160,elc_spv-DEU_0160</t>
+  </si>
+  <si>
+    <t>e_w157328339-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0109,elc_spv-DEU_0109</t>
+  </si>
+  <si>
+    <t>e_w24757393-380,e_w24757833-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0164,elc_spv-DEU_0164</t>
+  </si>
+  <si>
+    <t>e_w518455594-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0022,elc_spv-DEU_0022</t>
+  </si>
+  <si>
+    <t>e_w87653464-220,e_w87653464-380,e_w87653464-400</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0096,elc_spv-DEU_0096</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0153,elc_spv-DEU_0153</t>
+  </si>
+  <si>
+    <t>e_w91080806-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0168,elc_spv-DEU_0168</t>
   </si>
   <si>
     <t>elc_won-DEU_0067,elc_spv-DEU_0067</t>
@@ -4400,9 +5099,6 @@
     <t>elc_won-DEU_0120,elc_spv-DEU_0120</t>
   </si>
   <si>
-    <t>e_w275466323-380</t>
-  </si>
-  <si>
     <t>elc_won-DEU_0143,elc_spv-DEU_0143</t>
   </si>
   <si>
@@ -4413,702 +5109,6 @@
   </si>
   <si>
     <t>e_w166604822-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0049,elc_spv-DEU_0049</t>
-  </si>
-  <si>
-    <t>e_DE17-380,e_w24493551-380,e_w44717036-380,e_w871646309-380,e_w951273401-380,e_w951773852-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0041,elc_spv-DEU_0041</t>
-  </si>
-  <si>
-    <t>e_DE174-220,e_DE176-220,e_DE178-380,e_DE180-220,e_DE181-380,e_DE182-380,e_r17591073-220,e_w152924498-220,e_w152924498-380,e_w152924508-220,e_w152973139-220,e_w152973139-380,e_w156676050-220,e_w160929097-220,e_w207248812-220,e_w207248812-380,e_w259561755-380,e_w409305507-220,e_w46584363-220,e_w46584363-380,e_w48057110-380,e_w600395952-220,e_w600395952-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0133,elc_spv-DEU_0133</t>
-  </si>
-  <si>
-    <t>e_DE18-220,e_DE18-380,e_DE19-380,e_w59707532-220,e_w59707532-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0134,elc_spv-DEU_0134</t>
-  </si>
-  <si>
-    <t>e_w234171369-380,e_w274603394-380,e_w517421342-220,e_w517421342-380,e_w851299584-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0060,elc_spv-DEU_0060</t>
-  </si>
-  <si>
-    <t>e_w23881272-220,e_w24042358-380,e_w42372159-380,e_w42410916-220,e_w42410916-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0108,elc_spv-DEU_0108</t>
-  </si>
-  <si>
-    <t>e_w24705761-220,e_w24705761-380,e_w28613721-380,e_w954971276-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0148,elc_spv-DEU_0148</t>
-  </si>
-  <si>
-    <t>e_w40621568-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0178,elc_spv-DEU_0178</t>
-  </si>
-  <si>
-    <t>e_w1091984573-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0072,elc_spv-DEU_0072</t>
-  </si>
-  <si>
-    <t>e_w41389594-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0004,elc_spv-DEU_0004</t>
-  </si>
-  <si>
-    <t>e_DE106-220,e_DE107-220,e_DE107-380,e_DE110-220,e_DE110-380,e_DE112-380,e_DE113-220,e_DE114-380,e_DE117-380,e_DE125-220,e_DE125-380,e_DE127-380,e_DE128-380,e_DE131-220,e_DE133-380,e_w1040551074-220,e_w188276460-220,e_w188276460-380,e_w23084554-220,e_w23084554-380,e_w24267175-220,e_w24479984-220,e_w24479984-380,e_w24799890-220,e_w24799890-380,e_w24815262-220,e_w24839976-220,e_w24839976-380,e_w26927264-380,e_w27919734-220,e_w27919734-380,e_w31762305-220,e_w49577401-220,e_w49577401-380,e_w91854336-220,e_w91854336-380,e_w92877635-220,e_w93278553-220,e_w95434457-220,e_w95434457-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0144,elc_spv-DEU_0144</t>
-  </si>
-  <si>
-    <t>e_DE142-380,e_w167352587-220,e_w173112252-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0177,elc_spv-DEU_0177</t>
-  </si>
-  <si>
-    <t>e_w1222597066-220,e_w1222597066-380,e_w30039908-220,e_w30039908-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0075,elc_spv-DEU_0075</t>
-  </si>
-  <si>
-    <t>e_w143854536-380,e_w31653753-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0106,elc_spv-DEU_0106</t>
-  </si>
-  <si>
-    <t>e_w18629425-220,e_w18629425-380,e_w53378027-380,e_w76246159-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0039,elc_spv-DEU_0039</t>
-  </si>
-  <si>
-    <t>e_w26814283-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0162,elc_spv-DEU_0162</t>
-  </si>
-  <si>
-    <t>e_w29331499-220,e_w29331499-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0167,elc_spv-DEU_0167</t>
-  </si>
-  <si>
-    <t>e_w946710698-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0006,elc_spv-DEU_0006</t>
-  </si>
-  <si>
-    <t>e_DE62-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0009,elc_spv-DEU_0009</t>
-  </si>
-  <si>
-    <t>e_w156402422-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0127,elc_spv-DEU_0127</t>
-  </si>
-  <si>
-    <t>e_DE157-380,e_DE158-380,e_w93341407-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0042,elc_spv-DEU_0042</t>
-  </si>
-  <si>
-    <t>e_DE165-380,e_DE168-380,e_w1223405794-220,e_w1223405794-380,e_w147521567-220,e_w147521567-380,e_w149987048-220,e_w149987048-380,e_w23284340-220,e_w23284340-380,e_w24685992-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0076,elc_spv-DEU_0076</t>
-  </si>
-  <si>
-    <t>e_DE169-220,e_w24765111-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0155,elc_spv-DEU_0155</t>
-  </si>
-  <si>
-    <t>e_DE201-220,e_DE203-220,e_DE204-220,e_DE206-220,e_w24976300-220,e_w24976300-380,e_w91086220-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0103,elc_spv-DEU_0103</t>
-  </si>
-  <si>
-    <t>e_DE4-220,e_w27124619-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0002,elc_spv-DEU_0002</t>
-  </si>
-  <si>
-    <t>e_w1024536785-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0118,elc_spv-DEU_0118</t>
-  </si>
-  <si>
-    <t>e_w275466323,e_w275466323-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0142,elc_spv-DEU_0142</t>
-  </si>
-  <si>
-    <t>e_w29084374-220,e_w29084374-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0037,elc_spv-DEU_0037</t>
-  </si>
-  <si>
-    <t>e_w31367940-220,e_w31367940-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0166,elc_spv-DEU_0166</t>
-  </si>
-  <si>
-    <t>e_w39688875-220,e_w515358077-380,e_w941453716-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0119,elc_spv-DEU_0119</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0187,elc_spv-DEU_0187</t>
-  </si>
-  <si>
-    <t>e_w170123812-400</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0115,elc_spv-DEU_0115</t>
-  </si>
-  <si>
-    <t>e_w26474759-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0084,elc_spv-DEU_0084</t>
-  </si>
-  <si>
-    <t>e_DE10-380,e_DE11-380,e_DE12-380,e_w11285720-380,e_w24502420-380,e_w881636329-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0044,elc_spv-DEU_0044</t>
-  </si>
-  <si>
-    <t>e_DE146-380,e_DE152-380,e_w1245826064-380,e_w1245867884-380,e_w202747445-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0090,elc_spv-DEU_0090</t>
-  </si>
-  <si>
-    <t>e_DE200-380,e_w1093896544-380,e_w31105067-380,e_w88945213-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0005,elc_spv-DEU_0005</t>
-  </si>
-  <si>
-    <t>e_DE62-220,e_DE62-380,e_DE67-220,e_DE67-380,e_DE70-220,e_DE70-380,e_DE73-220,e_DE73-380,e_DE74-220,e_DE74-380,e_DE77-220,e_DE77-380,e_DE79-220,e_DE93-220,e_DE97-220,e_w23084417-220,e_w23380800-220,e_w23380800-380,e_w24462228-220,e_w24462317-220,e_w24462426-220,e_w24462426-380,e_w24478889-220,e_w24478889-380,e_w24479003-220,e_w24479003-380,e_w311444692-380,e_w35818134-220,e_w35818137-220,e_w37554416-220,e_w92024105-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0082,elc_spv-DEU_0082</t>
-  </si>
-  <si>
-    <t>e_w23682013-220,e_w23816140-220,e_w274621059-220,e_w33042984-220,e_w787265962-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0161,elc_spv-DEU_0161</t>
-  </si>
-  <si>
-    <t>e_w28729619-380,e_w398680313-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0125,elc_spv-DEU_0125</t>
-  </si>
-  <si>
-    <t>e_w28956649-220,e_w28956649-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0174,elc_spv-DEU_0174</t>
-  </si>
-  <si>
-    <t>e_w940922557-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0182,elc_spv-DEU_0182</t>
-  </si>
-  <si>
-    <t>e_w941805476-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0165,elc_spv-DEU_0165</t>
-  </si>
-  <si>
-    <t>e_w947118608-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0154,elc_spv-DEU_0154</t>
-  </si>
-  <si>
-    <t>e_DE206-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0077,elc_spv-DEU_0077</t>
-  </si>
-  <si>
-    <t>e_w148446247-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0107,elc_spv-DEU_0107</t>
-  </si>
-  <si>
-    <t>e_w24768051-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0040,elc_spv-DEU_0040</t>
-  </si>
-  <si>
-    <t>e_DE183-220,e_w152261133-220,e_w152261133-380,e_w254326606-380,e_w32151621-220,e_w32725957-220,e_w32725958-220,e_w32731290-220,e_w32966636-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0018,elc_spv-DEU_0018</t>
-  </si>
-  <si>
-    <t>e_DE20-380,e_w1280840211-380,e_w142487746-380,e_w206289192-380,e_w32042992-380,e_w797009308-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0073,elc_spv-DEU_0073</t>
-  </si>
-  <si>
-    <t>e_DE202-220,e_DE202-380,e_DE205-220,e_DE205-380,e_w26404600-380,e_w41389594-220,e_w41389594-380,e_w85523877-220,e_w85523877-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0104,elc_spv-DEU_0104</t>
-  </si>
-  <si>
-    <t>e_DE211-220,e_DE212-220,e_w68532663-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0131,elc_spv-DEU_0131</t>
-  </si>
-  <si>
-    <t>e_DE47-220,e_w26472665-220,e_w26472665-380,e_w943939310-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0064,elc_spv-DEU_0064</t>
-  </si>
-  <si>
-    <t>e_DE49-380,e_w23135618-220,e_w24413992-380,e_w28397771-220,e_w288305056-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0186,elc_spv-DEU_0186</t>
-  </si>
-  <si>
-    <t>e_w170123812-220,e_w170123812-380,e_w170123812-400</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0105,elc_spv-DEU_0105</t>
-  </si>
-  <si>
-    <t>e_w23907283-380,e_w24237879-220,e_w30613895-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0088,elc_spv-DEU_0088</t>
-  </si>
-  <si>
-    <t>e_w57727004-220,e_w57727004-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0089,elc_spv-DEU_0089</t>
-  </si>
-  <si>
-    <t>e_w683227471-380,e_w77038371-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0023,elc_spv-DEU_0023</t>
-  </si>
-  <si>
-    <t>e_w82130902-225,e_w933248930-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0137,elc_spv-DEU_0137</t>
-  </si>
-  <si>
-    <t>e_w75865676-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0036,elc_spv-DEU_0036</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0188,elc_spv-DEU_0188</t>
-  </si>
-  <si>
-    <t>e_w1222597066-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0061,elc_spv-DEU_0061</t>
-  </si>
-  <si>
-    <t>e_w156673636-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0113,elc_spv-DEU_0113</t>
-  </si>
-  <si>
-    <t>e_w32690742-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0015,elc_spv-DEU_0015</t>
-  </si>
-  <si>
-    <t>e_DE100-220,e_DE100-380,e_DE102-220,e_DE102-380,e_DE66-220,e_DE66-380,e_DE68-220,e_DE68-380,e_DE69-220,e_DE69-380,e_DE72-220,e_DE75-380,e_DE76-380,e_DE78-220,e_DE80-220,e_DE80-380,e_DE81-220,e_DE82-220,e_DE83-220,e_DE84-220,e_DE86-220,e_DE87-220,e_DE87-380,e_DE89-220,e_DE89-380,e_DE92-220,e_DE96-220,e_DE96-380,e_DE98-220,e_w1076001174-220,e_w1076001174-380,e_w113546939-220,e_w113546939-380,e_w121199242-220,e_w121199242-380,e_w1303270458-220,e_w1303270458-380,e_w150267232-220,e_w156973363-220,e_w22944791-220,e_w22964137-380,e_w23022100-220,e_w23022100-380,e_w23067006-380,e_w24280460-380,e_w24415232-220,e_w24921206-220,e_w24921206-380,e_w25051880-220,e_w26291794-380,e_w275138524-380,e_w28452784-220,e_w29077623-220,e_w29077623-380,e_w311444691-380,e_w32472806-380,e_w35763480-220,e_w35763480-380,e_w38584673-220,e_w425100082-380,e_w59925390-220,e_w59925390-380,e_w63114179-220,e_w63114179-380,e_w66038431-220,e_w68549340-220,e_w68549340-380,e_w698870101-220,e_w787840119-220,e_w799361667-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0183,elc_spv-DEU_0183</t>
-  </si>
-  <si>
-    <t>e_DE58-380,e_DE99-380,e_w157806991-380,e_w30164703-380,e_w58429825-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0112,elc_spv-DEU_0112</t>
-  </si>
-  <si>
-    <t>e_w143882655-220,e_w143882655-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0078,elc_spv-DEU_0078</t>
-  </si>
-  <si>
-    <t>e_w148446247-380,e_w29309786-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0012,elc_spv-DEU_0012</t>
-  </si>
-  <si>
-    <t>e_w154869247-220,e_w395847307-220,e_w395847307-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0126,elc_spv-DEU_0126</t>
-  </si>
-  <si>
-    <t>e_w93341407-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0007,elc_spv-DEU_0007</t>
-  </si>
-  <si>
-    <t>e_w979801144-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0157,elc_spv-DEU_0157</t>
-  </si>
-  <si>
-    <t>e_w78441561-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0083,elc_spv-DEU_0083</t>
-  </si>
-  <si>
-    <t>e_w23816140-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0111,elc_spv-DEU_0111</t>
-  </si>
-  <si>
-    <t>e_DE134-380,e_w149256409-380,e_w152219167-220,e_w25746125-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0003,elc_spv-DEU_0003</t>
-  </si>
-  <si>
-    <t>e_DE136-380,e_DE141-380,e_w24268944-380,e_w25426571-380,e_w25992879-380,e_w26593935-380,e_w870598507,e_w870598507-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0056,elc_spv-DEU_0056</t>
-  </si>
-  <si>
-    <t>e_DE195-380,e_DE196-380,e_DE197-380,e_DE198-380,e_DE199-380,e_w26260052-380,e_w30734324-380,e_w42736239-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0150,elc_spv-DEU_0150</t>
-  </si>
-  <si>
-    <t>e_DE9-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0032,elc_spv-DEU_0032</t>
-  </si>
-  <si>
-    <t>e_w150200540-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0025,elc_spv-DEU_0025</t>
-  </si>
-  <si>
-    <t>e_w152107815-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0160,elc_spv-DEU_0160</t>
-  </si>
-  <si>
-    <t>e_w157328339-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0109,elc_spv-DEU_0109</t>
-  </si>
-  <si>
-    <t>e_w24757393-380,e_w24757833-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0164,elc_spv-DEU_0164</t>
-  </si>
-  <si>
-    <t>e_w518455594-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0022,elc_spv-DEU_0022</t>
-  </si>
-  <si>
-    <t>e_w87653464-220,e_w87653464-380,e_w87653464-400</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0096,elc_spv-DEU_0096</t>
-  </si>
-  <si>
-    <t>e_w948341123-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0153,elc_spv-DEU_0153</t>
-  </si>
-  <si>
-    <t>e_w91080806-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0168,elc_spv-DEU_0168</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0063,elc_spv-DEU_0063</t>
-  </si>
-  <si>
-    <t>e_DE104-380,e_w274630377-220,e_w274630377-380,e_w42681484-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0145,elc_spv-DEU_0145</t>
-  </si>
-  <si>
-    <t>e_DE119-380,e_w23161029-220,e_w32843531-220,e_w32843531-380,e_w442199284-380,e_w714098678-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0027,elc_spv-DEU_0027</t>
-  </si>
-  <si>
-    <t>e_DE155-380,e_DE156-380,e_w160584794-380,e_w50898216-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0058,elc_spv-DEU_0058</t>
-  </si>
-  <si>
-    <t>e_DE179-220,e_w1104947187-380,e_w1327333163-220,e_w1327333163-380,e_w143903369-220,e_w143903369-380,e_w159326655-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0068,elc_spv-DEU_0068</t>
-  </si>
-  <si>
-    <t>e_DE6-380,e_w1089769599-220,e_w1089769599-380,e_w1280364401-380,e_w289836713-380,e_w525964617,e_w525964629-380,e_w60032354-220,e_w87722999-220,e_w87722999-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0140,elc_spv-DEU_0140</t>
-  </si>
-  <si>
-    <t>e_w29417741-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0116,elc_spv-DEU_0116</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0136,elc_spv-DEU_0136</t>
-  </si>
-  <si>
-    <t>e_DE5-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0054,elc_spv-DEU_0054</t>
-  </si>
-  <si>
-    <t>e_w31367936-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0062,elc_spv-DEU_0062</t>
-  </si>
-  <si>
-    <t>e_DE121-380,e_w156673636-380,e_w41072584-380,e_w41232144-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0028,elc_spv-DEU_0028</t>
-  </si>
-  <si>
-    <t>e_DE135-220,e_DE137-220,e_DE137-380,e_DE140-380,e_DE143-380,e_DE145-220,e_DE147-380,e_DE148-220,e_DE148-380,e_DE150-380,e_w152403632-220,e_w152403632-380,e_w89043564-220,e_w89043564-380,e_w90148336-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0013,elc_spv-DEU_0013</t>
-  </si>
-  <si>
-    <t>e_DE138-220,e_DE138-380,e_DE139-220,e_DE139-380,e_DE144-380,e_DE153-380,e_DE154-380,e_w22765517-220,e_w22765517-380,e_w22766160-220,e_w22766160-380,e_w22767509-220,e_w22767509-380,e_w22796434-220,e_w26777313-380,e_w29374542-220,e_w32148946-220,e_w42423415-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0093,elc_spv-DEU_0093</t>
-  </si>
-  <si>
-    <t>e_DE163-220,e_w108797675-380,e_w24758329-380,e_w499165542-220,e_w499165542-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0080,elc_spv-DEU_0080</t>
-  </si>
-  <si>
-    <t>e_DE59-220,e_DE60-220,e_w952004951-220,e_w952004951-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0055,elc_spv-DEU_0055</t>
-  </si>
-  <si>
-    <t>e_w102743264-220,e_w25306752-220,e_w25306752-380,e_w31367936-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0101,elc_spv-DEU_0101</t>
-  </si>
-  <si>
-    <t>e_w1089911133-380,e_w23583867-380,e_w28327356-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0059,elc_spv-DEU_0059</t>
-  </si>
-  <si>
-    <t>e_w145002769-380,e_w55069713-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0091,elc_spv-DEU_0091</t>
-  </si>
-  <si>
-    <t>e_w38325076-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0019,elc_spv-DEU_0019</t>
-  </si>
-  <si>
-    <t>e_w559702819-220,e_w559702819-380,e_w672738029-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0147,elc_spv-DEU_0147</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0171,elc_spv-DEU_0171</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0029,elc_spv-DEU_0029</t>
-  </si>
-  <si>
-    <t>e_DE109-220,e_DE132-220,e_w132814303-220,e_w83916207-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0000,elc_spv-DEU_0000</t>
-  </si>
-  <si>
-    <t>e_DE175-220,e_DE177-220,e_w82773910-220,e_w82773910-380,e_w82773910-400,e_w89215122-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0057,elc_spv-DEU_0057</t>
-  </si>
-  <si>
-    <t>e_DE184-380,e_DE185-380,e_DE186-380,e_DE187-380,e_DE188-380,e_DE189-380,e_DE190-380,e_DE191-380,e_DE192-380,e_DE193-380,e_w147878692-380,e_w22960899-380,e_w25786404-220,e_w25786404-380,e_w37721677-380,e_w41334805-220,e_w41334805-380,e_w43688805-220,e_w43688805-380,e_w48428875-380,e_w97825259-220,e_w97825259-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0163,elc_spv-DEU_0163</t>
-  </si>
-  <si>
-    <t>e_DE21-220,e_DE25-380,e_w11500045-380,e_w27149550-220,e_w27149550-380,e_w30132758-380,e_w30303506-380,e_w30309989-220,e_w43163132-380,e_w46615737-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0099,elc_spv-DEU_0099</t>
-  </si>
-  <si>
-    <t>e_DE36-220,e_w24258096-380,e_w24272339-380,e_w24272541-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0016,elc_spv-DEU_0016</t>
-  </si>
-  <si>
-    <t>e_DE39-220,e_DE41-380,e_DE45-380,e_DE50-380,e_DE54-380,e_w844075808-380,e_w952346322-380,e_w979801144-220,e_w979801144-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0152,elc_spv-DEU_0152</t>
-  </si>
-  <si>
-    <t>e_DE5-380,e_w32063539-380,e_w32318130-220,e_w940919943</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0151,elc_spv-DEU_0151</t>
-  </si>
-  <si>
-    <t>e_w1094015892-220,e_w1094015892-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0102,elc_spv-DEU_0102</t>
-  </si>
-  <si>
-    <t>e_w1102237380-220,e_w1102237380-380,e_w1191459479-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0010,elc_spv-DEU_0010</t>
-  </si>
-  <si>
-    <t>e_w152018146-220,e_w152018146-380,e_w156402422-220,e_w207756597-220,e_w54359256-220,e_w54359256-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0122,elc_spv-DEU_0122</t>
-  </si>
-  <si>
-    <t>e_w24158385-220,e_w26245195-220,e_w26245195-380,e_w5404079-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0011,elc_spv-DEU_0011</t>
-  </si>
-  <si>
-    <t>e_w42097854-220,e_w42097854-380,e_w66764943-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0008,elc_spv-DEU_0008</t>
-  </si>
-  <si>
-    <t>e_w672738029-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0169,elc_spv-DEU_0169</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0092,elc_spv-DEU_0092</t>
-  </si>
-  <si>
-    <t>e_w24705761-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0095,elc_spv-DEU_0095</t>
   </si>
   <si>
     <t>elc_won-DEU_0066,elc_spv-DEU_0066</t>
@@ -14866,7 +14866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58B582F-75B1-4C3B-9961-429C622A5405}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FE740A-ECF1-40F3-8C74-0DE68316C07F}">
   <dimension ref="B9:AC198"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16193,7 +16193,7 @@
         <v>1</v>
       </c>
       <c r="AC26" t="s">
-        <v>593</v>
+        <v>663</v>
       </c>
     </row>
     <row r="27" spans="2:29">
@@ -16270,7 +16270,7 @@
         <v>1</v>
       </c>
       <c r="AC27" t="s">
-        <v>617</v>
+        <v>647</v>
       </c>
     </row>
     <row r="28" spans="2:29">
@@ -16347,7 +16347,7 @@
         <v>1</v>
       </c>
       <c r="AC28" t="s">
-        <v>693</v>
+        <v>829</v>
       </c>
     </row>
     <row r="29" spans="2:29">
@@ -16424,7 +16424,7 @@
         <v>1</v>
       </c>
       <c r="AC29" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="30" spans="2:29">
@@ -16501,7 +16501,7 @@
         <v>1</v>
       </c>
       <c r="AC30" t="s">
-        <v>661</v>
+        <v>683</v>
       </c>
     </row>
     <row r="31" spans="2:29">
@@ -16578,7 +16578,7 @@
         <v>1</v>
       </c>
       <c r="AC31" t="s">
-        <v>627</v>
+        <v>779</v>
       </c>
     </row>
     <row r="32" spans="2:29">
@@ -16655,7 +16655,7 @@
         <v>1</v>
       </c>
       <c r="AC32" t="s">
-        <v>625</v>
+        <v>859</v>
       </c>
     </row>
     <row r="33" spans="2:29">
@@ -16732,7 +16732,7 @@
         <v>1</v>
       </c>
       <c r="AC33" t="s">
-        <v>909</v>
+        <v>919</v>
       </c>
     </row>
     <row r="34" spans="2:29">
@@ -16809,7 +16809,7 @@
         <v>1</v>
       </c>
       <c r="AC34" t="s">
-        <v>631</v>
+        <v>707</v>
       </c>
     </row>
     <row r="35" spans="2:29">
@@ -16886,7 +16886,7 @@
         <v>1</v>
       </c>
       <c r="AC35" t="s">
-        <v>833</v>
+        <v>573</v>
       </c>
     </row>
     <row r="36" spans="2:29">
@@ -16963,7 +16963,7 @@
         <v>1</v>
       </c>
       <c r="AC36" t="s">
-        <v>923</v>
+        <v>851</v>
       </c>
     </row>
     <row r="37" spans="2:29">
@@ -17040,7 +17040,7 @@
         <v>1</v>
       </c>
       <c r="AC37" t="s">
-        <v>721</v>
+        <v>917</v>
       </c>
     </row>
     <row r="38" spans="2:29">
@@ -17117,7 +17117,7 @@
         <v>1</v>
       </c>
       <c r="AC38" t="s">
-        <v>915</v>
+        <v>713</v>
       </c>
     </row>
     <row r="39" spans="2:29">
@@ -17194,7 +17194,7 @@
         <v>1</v>
       </c>
       <c r="AC39" t="s">
-        <v>599</v>
+        <v>775</v>
       </c>
     </row>
     <row r="40" spans="2:29">
@@ -17271,7 +17271,7 @@
         <v>1</v>
       </c>
       <c r="AC40" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
     </row>
     <row r="41" spans="2:29">
@@ -17348,7 +17348,7 @@
         <v>1</v>
       </c>
       <c r="AC41" t="s">
-        <v>809</v>
+        <v>887</v>
       </c>
     </row>
     <row r="42" spans="2:29">
@@ -17425,7 +17425,7 @@
         <v>1</v>
       </c>
       <c r="AC42" t="s">
-        <v>757</v>
+        <v>897</v>
       </c>
     </row>
     <row r="43" spans="2:29">
@@ -17502,7 +17502,7 @@
         <v>1</v>
       </c>
       <c r="AC43" t="s">
-        <v>933</v>
+        <v>577</v>
       </c>
     </row>
     <row r="44" spans="2:29">
@@ -17579,7 +17579,7 @@
         <v>1</v>
       </c>
       <c r="AC44" t="s">
-        <v>907</v>
+        <v>583</v>
       </c>
     </row>
     <row r="45" spans="2:29">
@@ -17656,7 +17656,7 @@
         <v>1</v>
       </c>
       <c r="AC45" t="s">
-        <v>845</v>
+        <v>819</v>
       </c>
     </row>
     <row r="46" spans="2:29">
@@ -17733,7 +17733,7 @@
         <v>1</v>
       </c>
       <c r="AC46" t="s">
-        <v>861</v>
+        <v>567</v>
       </c>
     </row>
     <row r="47" spans="2:29">
@@ -17810,7 +17810,7 @@
         <v>1</v>
       </c>
       <c r="AC47" t="s">
-        <v>635</v>
+        <v>931</v>
       </c>
     </row>
     <row r="48" spans="2:29">
@@ -17887,7 +17887,7 @@
         <v>1</v>
       </c>
       <c r="AC48" t="s">
-        <v>819</v>
+        <v>733</v>
       </c>
     </row>
     <row r="49" spans="2:29">
@@ -17964,7 +17964,7 @@
         <v>1</v>
       </c>
       <c r="AC49" t="s">
-        <v>567</v>
+        <v>705</v>
       </c>
     </row>
     <row r="50" spans="2:29">
@@ -18041,7 +18041,7 @@
         <v>1</v>
       </c>
       <c r="AC50" t="s">
-        <v>931</v>
+        <v>839</v>
       </c>
     </row>
     <row r="51" spans="2:29">
@@ -18118,7 +18118,7 @@
         <v>1</v>
       </c>
       <c r="AC51" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
     </row>
     <row r="52" spans="2:29">
@@ -18195,7 +18195,7 @@
         <v>1</v>
       </c>
       <c r="AC52" t="s">
-        <v>705</v>
+        <v>623</v>
       </c>
     </row>
     <row r="53" spans="2:29">
@@ -18272,7 +18272,7 @@
         <v>1</v>
       </c>
       <c r="AC53" t="s">
-        <v>839</v>
+        <v>565</v>
       </c>
     </row>
     <row r="54" spans="2:29">
@@ -18349,7 +18349,7 @@
         <v>1</v>
       </c>
       <c r="AC54" t="s">
-        <v>737</v>
+        <v>677</v>
       </c>
     </row>
     <row r="55" spans="2:29">
@@ -18426,7 +18426,7 @@
         <v>1</v>
       </c>
       <c r="AC55" t="s">
-        <v>697</v>
+        <v>889</v>
       </c>
     </row>
     <row r="56" spans="2:29">
@@ -18503,7 +18503,7 @@
         <v>1</v>
       </c>
       <c r="AC56" t="s">
-        <v>613</v>
+        <v>761</v>
       </c>
     </row>
     <row r="57" spans="2:29">
@@ -18580,7 +18580,7 @@
         <v>1</v>
       </c>
       <c r="AC57" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
     </row>
     <row r="58" spans="2:29">
@@ -18657,7 +18657,7 @@
         <v>1</v>
       </c>
       <c r="AC58" t="s">
-        <v>725</v>
+        <v>867</v>
       </c>
     </row>
     <row r="59" spans="2:29">
@@ -18734,7 +18734,7 @@
         <v>1</v>
       </c>
       <c r="AC59" t="s">
-        <v>735</v>
+        <v>865</v>
       </c>
     </row>
     <row r="60" spans="2:29">
@@ -18811,7 +18811,7 @@
         <v>1</v>
       </c>
       <c r="AC60" t="s">
-        <v>703</v>
+        <v>767</v>
       </c>
     </row>
     <row r="61" spans="2:29">
@@ -18888,7 +18888,7 @@
         <v>1</v>
       </c>
       <c r="AC61" t="s">
-        <v>803</v>
+        <v>585</v>
       </c>
     </row>
     <row r="62" spans="2:29">
@@ -18965,7 +18965,7 @@
         <v>1</v>
       </c>
       <c r="AC62" t="s">
-        <v>849</v>
+        <v>807</v>
       </c>
     </row>
     <row r="63" spans="2:29">
@@ -19042,7 +19042,7 @@
         <v>1</v>
       </c>
       <c r="AC63" t="s">
-        <v>879</v>
+        <v>587</v>
       </c>
     </row>
     <row r="64" spans="2:29">
@@ -19119,7 +19119,7 @@
         <v>1</v>
       </c>
       <c r="AC64" t="s">
-        <v>663</v>
+        <v>581</v>
       </c>
     </row>
     <row r="65" spans="2:29">
@@ -19190,13 +19190,13 @@
         <v>1430</v>
       </c>
       <c r="AA65" t="s">
-        <v>1431</v>
+        <v>1349</v>
       </c>
       <c r="AB65">
         <v>1</v>
       </c>
       <c r="AC65" t="s">
-        <v>647</v>
+        <v>901</v>
       </c>
     </row>
     <row r="66" spans="2:29">
@@ -19264,16 +19264,16 @@
         <v>1055</v>
       </c>
       <c r="Z66" t="s">
+        <v>1431</v>
+      </c>
+      <c r="AA66" t="s">
         <v>1432</v>
       </c>
-      <c r="AA66" t="s">
-        <v>1433</v>
-      </c>
       <c r="AB66">
         <v>1</v>
       </c>
       <c r="AC66" t="s">
-        <v>829</v>
+        <v>747</v>
       </c>
     </row>
     <row r="67" spans="2:29">
@@ -19341,16 +19341,16 @@
         <v>1057</v>
       </c>
       <c r="Z67" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AA67" t="s">
         <v>1434</v>
       </c>
-      <c r="AA67" t="s">
-        <v>1435</v>
-      </c>
       <c r="AB67">
         <v>1</v>
       </c>
       <c r="AC67" t="s">
-        <v>831</v>
+        <v>753</v>
       </c>
     </row>
     <row r="68" spans="2:29">
@@ -19418,16 +19418,16 @@
         <v>1059</v>
       </c>
       <c r="Z68" t="s">
+        <v>1435</v>
+      </c>
+      <c r="AA68" t="s">
         <v>1436</v>
       </c>
-      <c r="AA68" t="s">
-        <v>1437</v>
-      </c>
       <c r="AB68">
         <v>1</v>
       </c>
       <c r="AC68" t="s">
-        <v>683</v>
+        <v>817</v>
       </c>
     </row>
     <row r="69" spans="2:29">
@@ -19495,16 +19495,16 @@
         <v>1061</v>
       </c>
       <c r="Z69" t="s">
+        <v>1437</v>
+      </c>
+      <c r="AA69" t="s">
         <v>1438</v>
       </c>
-      <c r="AA69" t="s">
-        <v>1439</v>
-      </c>
       <c r="AB69">
         <v>1</v>
       </c>
       <c r="AC69" t="s">
-        <v>779</v>
+        <v>649</v>
       </c>
     </row>
     <row r="70" spans="2:29">
@@ -19572,16 +19572,16 @@
         <v>1063</v>
       </c>
       <c r="Z70" t="s">
+        <v>1439</v>
+      </c>
+      <c r="AA70" t="s">
         <v>1440</v>
       </c>
-      <c r="AA70" t="s">
-        <v>1441</v>
-      </c>
       <c r="AB70">
         <v>1</v>
       </c>
       <c r="AC70" t="s">
-        <v>859</v>
+        <v>715</v>
       </c>
     </row>
     <row r="71" spans="2:29">
@@ -19649,16 +19649,16 @@
         <v>1065</v>
       </c>
       <c r="Z71" t="s">
+        <v>1441</v>
+      </c>
+      <c r="AA71" t="s">
         <v>1442</v>
       </c>
-      <c r="AA71" t="s">
-        <v>1443</v>
-      </c>
       <c r="AB71">
         <v>1</v>
       </c>
       <c r="AC71" t="s">
-        <v>919</v>
+        <v>873</v>
       </c>
     </row>
     <row r="72" spans="2:29">
@@ -19726,16 +19726,16 @@
         <v>1067</v>
       </c>
       <c r="Z72" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AA72" t="s">
         <v>1444</v>
       </c>
-      <c r="AA72" t="s">
-        <v>1445</v>
-      </c>
       <c r="AB72">
         <v>1</v>
       </c>
       <c r="AC72" t="s">
-        <v>707</v>
+        <v>769</v>
       </c>
     </row>
     <row r="73" spans="2:29">
@@ -19803,16 +19803,16 @@
         <v>1069</v>
       </c>
       <c r="Z73" t="s">
+        <v>1445</v>
+      </c>
+      <c r="AA73" t="s">
         <v>1446</v>
       </c>
-      <c r="AA73" t="s">
-        <v>1447</v>
-      </c>
       <c r="AB73">
         <v>1</v>
       </c>
       <c r="AC73" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="74" spans="2:29">
@@ -19880,16 +19880,16 @@
         <v>1071</v>
       </c>
       <c r="Z74" t="s">
+        <v>1447</v>
+      </c>
+      <c r="AA74" t="s">
         <v>1448</v>
       </c>
-      <c r="AA74" t="s">
-        <v>1449</v>
-      </c>
       <c r="AB74">
         <v>1</v>
       </c>
       <c r="AC74" t="s">
-        <v>851</v>
+        <v>799</v>
       </c>
     </row>
     <row r="75" spans="2:29">
@@ -19957,16 +19957,16 @@
         <v>1073</v>
       </c>
       <c r="Z75" t="s">
+        <v>1449</v>
+      </c>
+      <c r="AA75" t="s">
         <v>1450</v>
       </c>
-      <c r="AA75" t="s">
-        <v>1451</v>
-      </c>
       <c r="AB75">
         <v>1</v>
       </c>
       <c r="AC75" t="s">
-        <v>917</v>
+        <v>847</v>
       </c>
     </row>
     <row r="76" spans="2:29">
@@ -20034,16 +20034,16 @@
         <v>1075</v>
       </c>
       <c r="Z76" t="s">
+        <v>1451</v>
+      </c>
+      <c r="AA76" t="s">
         <v>1452</v>
       </c>
-      <c r="AA76" t="s">
-        <v>1453</v>
-      </c>
       <c r="AB76">
         <v>1</v>
       </c>
       <c r="AC76" t="s">
-        <v>713</v>
+        <v>639</v>
       </c>
     </row>
     <row r="77" spans="2:29">
@@ -20111,16 +20111,16 @@
         <v>1077</v>
       </c>
       <c r="Z77" t="s">
+        <v>1453</v>
+      </c>
+      <c r="AA77" t="s">
         <v>1454</v>
       </c>
-      <c r="AA77" t="s">
-        <v>1455</v>
-      </c>
       <c r="AB77">
         <v>1</v>
       </c>
       <c r="AC77" t="s">
-        <v>775</v>
+        <v>895</v>
       </c>
     </row>
     <row r="78" spans="2:29">
@@ -20188,16 +20188,16 @@
         <v>1079</v>
       </c>
       <c r="Z78" t="s">
+        <v>1455</v>
+      </c>
+      <c r="AA78" t="s">
         <v>1456</v>
       </c>
-      <c r="AA78" t="s">
-        <v>1457</v>
-      </c>
       <c r="AB78">
         <v>1</v>
       </c>
       <c r="AC78" t="s">
-        <v>643</v>
+        <v>801</v>
       </c>
     </row>
     <row r="79" spans="2:29">
@@ -20265,16 +20265,16 @@
         <v>1081</v>
       </c>
       <c r="Z79" t="s">
+        <v>1457</v>
+      </c>
+      <c r="AA79" t="s">
         <v>1458</v>
       </c>
-      <c r="AA79" t="s">
-        <v>1459</v>
-      </c>
       <c r="AB79">
         <v>1</v>
       </c>
       <c r="AC79" t="s">
-        <v>887</v>
+        <v>937</v>
       </c>
     </row>
     <row r="80" spans="2:29">
@@ -20342,16 +20342,16 @@
         <v>1083</v>
       </c>
       <c r="Z80" t="s">
+        <v>1459</v>
+      </c>
+      <c r="AA80" t="s">
         <v>1460</v>
       </c>
-      <c r="AA80" t="s">
-        <v>1461</v>
-      </c>
       <c r="AB80">
         <v>1</v>
       </c>
       <c r="AC80" t="s">
-        <v>897</v>
+        <v>793</v>
       </c>
     </row>
     <row r="81" spans="2:29">
@@ -20419,16 +20419,16 @@
         <v>1085</v>
       </c>
       <c r="Z81" t="s">
+        <v>1461</v>
+      </c>
+      <c r="AA81" t="s">
         <v>1462</v>
       </c>
-      <c r="AA81" t="s">
-        <v>1463</v>
-      </c>
       <c r="AB81">
         <v>1</v>
       </c>
       <c r="AC81" t="s">
-        <v>577</v>
+        <v>645</v>
       </c>
     </row>
     <row r="82" spans="2:29">
@@ -20496,16 +20496,16 @@
         <v>1087</v>
       </c>
       <c r="Z82" t="s">
+        <v>1463</v>
+      </c>
+      <c r="AA82" t="s">
         <v>1464</v>
       </c>
-      <c r="AA82" t="s">
-        <v>1465</v>
-      </c>
       <c r="AB82">
         <v>1</v>
       </c>
       <c r="AC82" t="s">
-        <v>583</v>
+        <v>601</v>
       </c>
     </row>
     <row r="83" spans="2:29">
@@ -20573,16 +20573,16 @@
         <v>1089</v>
       </c>
       <c r="Z83" t="s">
+        <v>1465</v>
+      </c>
+      <c r="AA83" t="s">
         <v>1466</v>
       </c>
-      <c r="AA83" t="s">
-        <v>1467</v>
-      </c>
       <c r="AB83">
         <v>1</v>
       </c>
       <c r="AC83" t="s">
-        <v>817</v>
+        <v>709</v>
       </c>
     </row>
     <row r="84" spans="2:29">
@@ -20650,16 +20650,16 @@
         <v>1091</v>
       </c>
       <c r="Z84" t="s">
+        <v>1467</v>
+      </c>
+      <c r="AA84" t="s">
         <v>1468</v>
       </c>
-      <c r="AA84" t="s">
-        <v>1469</v>
-      </c>
       <c r="AB84">
         <v>1</v>
       </c>
       <c r="AC84" t="s">
-        <v>649</v>
+        <v>771</v>
       </c>
     </row>
     <row r="85" spans="2:29">
@@ -20727,16 +20727,16 @@
         <v>1093</v>
       </c>
       <c r="Z85" t="s">
+        <v>1469</v>
+      </c>
+      <c r="AA85" t="s">
         <v>1470</v>
       </c>
-      <c r="AA85" t="s">
-        <v>1471</v>
-      </c>
       <c r="AB85">
         <v>1</v>
       </c>
       <c r="AC85" t="s">
-        <v>715</v>
+        <v>825</v>
       </c>
     </row>
     <row r="86" spans="2:29">
@@ -20804,16 +20804,16 @@
         <v>1095</v>
       </c>
       <c r="Z86" t="s">
+        <v>1471</v>
+      </c>
+      <c r="AA86" t="s">
         <v>1472</v>
       </c>
-      <c r="AA86" t="s">
-        <v>1473</v>
-      </c>
       <c r="AB86">
         <v>1</v>
       </c>
       <c r="AC86" t="s">
-        <v>873</v>
+        <v>691</v>
       </c>
     </row>
     <row r="87" spans="2:29">
@@ -20881,16 +20881,16 @@
         <v>1097</v>
       </c>
       <c r="Z87" t="s">
+        <v>1473</v>
+      </c>
+      <c r="AA87" t="s">
         <v>1474</v>
       </c>
-      <c r="AA87" t="s">
-        <v>1475</v>
-      </c>
       <c r="AB87">
         <v>1</v>
       </c>
       <c r="AC87" t="s">
-        <v>769</v>
+        <v>935</v>
       </c>
     </row>
     <row r="88" spans="2:29">
@@ -20958,16 +20958,16 @@
         <v>1099</v>
       </c>
       <c r="Z88" t="s">
+        <v>1475</v>
+      </c>
+      <c r="AA88" t="s">
         <v>1476</v>
       </c>
-      <c r="AA88" t="s">
-        <v>1477</v>
-      </c>
       <c r="AB88">
         <v>1</v>
       </c>
       <c r="AC88" t="s">
-        <v>569</v>
+        <v>773</v>
       </c>
     </row>
     <row r="89" spans="2:29">
@@ -21035,16 +21035,16 @@
         <v>1101</v>
       </c>
       <c r="Z89" t="s">
+        <v>1477</v>
+      </c>
+      <c r="AA89" t="s">
         <v>1478</v>
       </c>
-      <c r="AA89" t="s">
-        <v>1479</v>
-      </c>
       <c r="AB89">
         <v>1</v>
       </c>
       <c r="AC89" t="s">
-        <v>799</v>
+        <v>739</v>
       </c>
     </row>
     <row r="90" spans="2:29">
@@ -21112,16 +21112,16 @@
         <v>1103</v>
       </c>
       <c r="Z90" t="s">
+        <v>1479</v>
+      </c>
+      <c r="AA90" t="s">
         <v>1480</v>
       </c>
-      <c r="AA90" t="s">
-        <v>1481</v>
-      </c>
       <c r="AB90">
         <v>1</v>
       </c>
       <c r="AC90" t="s">
-        <v>847</v>
+        <v>741</v>
       </c>
     </row>
     <row r="91" spans="2:29">
@@ -21189,16 +21189,16 @@
         <v>1105</v>
       </c>
       <c r="Z91" t="s">
+        <v>1481</v>
+      </c>
+      <c r="AA91" t="s">
         <v>1482</v>
       </c>
-      <c r="AA91" t="s">
-        <v>1483</v>
-      </c>
       <c r="AB91">
         <v>1</v>
       </c>
       <c r="AC91" t="s">
-        <v>639</v>
+        <v>611</v>
       </c>
     </row>
     <row r="92" spans="2:29">
@@ -21266,16 +21266,16 @@
         <v>1107</v>
       </c>
       <c r="Z92" t="s">
+        <v>1483</v>
+      </c>
+      <c r="AA92" t="s">
         <v>1484</v>
       </c>
-      <c r="AA92" t="s">
-        <v>1485</v>
-      </c>
       <c r="AB92">
         <v>1</v>
       </c>
       <c r="AC92" t="s">
-        <v>895</v>
+        <v>837</v>
       </c>
     </row>
     <row r="93" spans="2:29">
@@ -21343,16 +21343,16 @@
         <v>1109</v>
       </c>
       <c r="Z93" t="s">
+        <v>1485</v>
+      </c>
+      <c r="AA93" t="s">
         <v>1486</v>
       </c>
-      <c r="AA93" t="s">
-        <v>1423</v>
-      </c>
       <c r="AB93">
         <v>1</v>
       </c>
       <c r="AC93" t="s">
-        <v>801</v>
+        <v>637</v>
       </c>
     </row>
     <row r="94" spans="2:29">
@@ -21429,7 +21429,7 @@
         <v>1</v>
       </c>
       <c r="AC94" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
     <row r="95" spans="2:29">
@@ -21506,7 +21506,7 @@
         <v>1</v>
       </c>
       <c r="AC95" t="s">
-        <v>793</v>
+        <v>685</v>
       </c>
     </row>
     <row r="96" spans="2:29">
@@ -21583,7 +21583,7 @@
         <v>1</v>
       </c>
       <c r="AC96" t="s">
-        <v>731</v>
+        <v>789</v>
       </c>
     </row>
     <row r="97" spans="2:29">
@@ -21660,7 +21660,7 @@
         <v>1</v>
       </c>
       <c r="AC97" t="s">
-        <v>653</v>
+        <v>689</v>
       </c>
     </row>
     <row r="98" spans="2:29">
@@ -21737,7 +21737,7 @@
         <v>1</v>
       </c>
       <c r="AC98" t="s">
-        <v>743</v>
+        <v>853</v>
       </c>
     </row>
     <row r="99" spans="2:29">
@@ -21814,7 +21814,7 @@
         <v>1</v>
       </c>
       <c r="AC99" t="s">
-        <v>575</v>
+        <v>619</v>
       </c>
     </row>
     <row r="100" spans="2:29">
@@ -21891,7 +21891,7 @@
         <v>1</v>
       </c>
       <c r="AC100" t="s">
-        <v>727</v>
+        <v>679</v>
       </c>
     </row>
     <row r="101" spans="2:29">
@@ -21968,7 +21968,7 @@
         <v>1</v>
       </c>
       <c r="AC101" t="s">
-        <v>885</v>
+        <v>699</v>
       </c>
     </row>
     <row r="102" spans="2:29">
@@ -22045,7 +22045,7 @@
         <v>1</v>
       </c>
       <c r="AC102" t="s">
-        <v>813</v>
+        <v>843</v>
       </c>
     </row>
     <row r="103" spans="2:29">
@@ -22116,13 +22116,13 @@
         <v>1505</v>
       </c>
       <c r="AA103" t="s">
-        <v>1506</v>
+        <v>1341</v>
       </c>
       <c r="AB103">
         <v>1</v>
       </c>
       <c r="AC103" t="s">
-        <v>911</v>
+        <v>795</v>
       </c>
     </row>
     <row r="104" spans="2:29">
@@ -22190,16 +22190,16 @@
         <v>1131</v>
       </c>
       <c r="Z104" t="s">
+        <v>1506</v>
+      </c>
+      <c r="AA104" t="s">
         <v>1507</v>
       </c>
-      <c r="AA104" t="s">
-        <v>1508</v>
-      </c>
       <c r="AB104">
         <v>1</v>
       </c>
       <c r="AC104" t="s">
-        <v>927</v>
+        <v>835</v>
       </c>
     </row>
     <row r="105" spans="2:29">
@@ -22267,16 +22267,16 @@
         <v>1133</v>
       </c>
       <c r="Z105" t="s">
+        <v>1508</v>
+      </c>
+      <c r="AA105" t="s">
         <v>1509</v>
       </c>
-      <c r="AA105" t="s">
-        <v>1510</v>
-      </c>
       <c r="AB105">
         <v>1</v>
       </c>
       <c r="AC105" t="s">
-        <v>893</v>
+        <v>671</v>
       </c>
     </row>
     <row r="106" spans="2:29">
@@ -22344,16 +22344,16 @@
         <v>1135</v>
       </c>
       <c r="Z106" t="s">
+        <v>1510</v>
+      </c>
+      <c r="AA106" t="s">
         <v>1511</v>
       </c>
-      <c r="AA106" t="s">
-        <v>1512</v>
-      </c>
       <c r="AB106">
         <v>1</v>
       </c>
       <c r="AC106" t="s">
-        <v>871</v>
+        <v>687</v>
       </c>
     </row>
     <row r="107" spans="2:29">
@@ -22421,16 +22421,16 @@
         <v>1137</v>
       </c>
       <c r="Z107" t="s">
+        <v>1512</v>
+      </c>
+      <c r="AA107" t="s">
         <v>1513</v>
       </c>
-      <c r="AA107" t="s">
-        <v>1514</v>
-      </c>
       <c r="AB107">
         <v>1</v>
       </c>
       <c r="AC107" t="s">
-        <v>717</v>
+        <v>621</v>
       </c>
     </row>
     <row r="108" spans="2:29">
@@ -22498,16 +22498,16 @@
         <v>1139</v>
       </c>
       <c r="Z108" t="s">
+        <v>1514</v>
+      </c>
+      <c r="AA108" t="s">
         <v>1515</v>
       </c>
-      <c r="AA108" t="s">
-        <v>1516</v>
-      </c>
       <c r="AB108">
         <v>1</v>
       </c>
       <c r="AC108" t="s">
-        <v>777</v>
+        <v>591</v>
       </c>
     </row>
     <row r="109" spans="2:29">
@@ -22575,16 +22575,16 @@
         <v>1141</v>
       </c>
       <c r="Z109" t="s">
+        <v>1516</v>
+      </c>
+      <c r="AA109" t="s">
         <v>1517</v>
       </c>
-      <c r="AA109" t="s">
-        <v>1518</v>
-      </c>
       <c r="AB109">
         <v>1</v>
       </c>
       <c r="AC109" t="s">
-        <v>645</v>
+        <v>749</v>
       </c>
     </row>
     <row r="110" spans="2:29">
@@ -22652,16 +22652,16 @@
         <v>1143</v>
       </c>
       <c r="Z110" t="s">
+        <v>1518</v>
+      </c>
+      <c r="AA110" t="s">
         <v>1519</v>
       </c>
-      <c r="AA110" t="s">
-        <v>1520</v>
-      </c>
       <c r="AB110">
         <v>1</v>
       </c>
       <c r="AC110" t="s">
-        <v>601</v>
+        <v>723</v>
       </c>
     </row>
     <row r="111" spans="2:29">
@@ -22729,16 +22729,16 @@
         <v>1145</v>
       </c>
       <c r="Z111" t="s">
+        <v>1520</v>
+      </c>
+      <c r="AA111" t="s">
         <v>1521</v>
       </c>
-      <c r="AA111" t="s">
-        <v>1522</v>
-      </c>
       <c r="AB111">
         <v>1</v>
       </c>
       <c r="AC111" t="s">
-        <v>709</v>
+        <v>673</v>
       </c>
     </row>
     <row r="112" spans="2:29">
@@ -22806,16 +22806,16 @@
         <v>1147</v>
       </c>
       <c r="Z112" t="s">
+        <v>1522</v>
+      </c>
+      <c r="AA112" t="s">
         <v>1523</v>
       </c>
-      <c r="AA112" t="s">
-        <v>1524</v>
-      </c>
       <c r="AB112">
         <v>1</v>
       </c>
       <c r="AC112" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
     </row>
     <row r="113" spans="2:29">
@@ -22883,16 +22883,16 @@
         <v>1149</v>
       </c>
       <c r="Z113" t="s">
+        <v>1524</v>
+      </c>
+      <c r="AA113" t="s">
         <v>1525</v>
       </c>
-      <c r="AA113" t="s">
-        <v>1526</v>
-      </c>
       <c r="AB113">
         <v>1</v>
       </c>
       <c r="AC113" t="s">
-        <v>825</v>
+        <v>681</v>
       </c>
     </row>
     <row r="114" spans="2:29">
@@ -22960,16 +22960,16 @@
         <v>1151</v>
       </c>
       <c r="Z114" t="s">
+        <v>1526</v>
+      </c>
+      <c r="AA114" t="s">
         <v>1527</v>
       </c>
-      <c r="AA114" t="s">
-        <v>1528</v>
-      </c>
       <c r="AB114">
         <v>1</v>
       </c>
       <c r="AC114" t="s">
-        <v>691</v>
+        <v>745</v>
       </c>
     </row>
     <row r="115" spans="2:29">
@@ -23037,16 +23037,16 @@
         <v>1153</v>
       </c>
       <c r="Z115" t="s">
+        <v>1528</v>
+      </c>
+      <c r="AA115" t="s">
         <v>1529</v>
       </c>
-      <c r="AA115" t="s">
-        <v>1530</v>
-      </c>
       <c r="AB115">
         <v>1</v>
       </c>
       <c r="AC115" t="s">
-        <v>935</v>
+        <v>603</v>
       </c>
     </row>
     <row r="116" spans="2:29">
@@ -23114,16 +23114,16 @@
         <v>1155</v>
       </c>
       <c r="Z116" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="AA116" t="s">
-        <v>1532</v>
+        <v>1365</v>
       </c>
       <c r="AB116">
         <v>1</v>
       </c>
       <c r="AC116" t="s">
-        <v>773</v>
+        <v>857</v>
       </c>
     </row>
     <row r="117" spans="2:29">
@@ -23191,16 +23191,16 @@
         <v>1157</v>
       </c>
       <c r="Z117" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="AA117" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="AB117">
         <v>1</v>
       </c>
       <c r="AC117" t="s">
-        <v>739</v>
+        <v>905</v>
       </c>
     </row>
     <row r="118" spans="2:29">
@@ -23268,16 +23268,16 @@
         <v>1159</v>
       </c>
       <c r="Z118" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="AA118" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="AB118">
         <v>1</v>
       </c>
       <c r="AC118" t="s">
-        <v>741</v>
+        <v>593</v>
       </c>
     </row>
     <row r="119" spans="2:29">
@@ -23345,16 +23345,16 @@
         <v>1161</v>
       </c>
       <c r="Z119" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="AA119" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="AB119">
         <v>1</v>
       </c>
       <c r="AC119" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="120" spans="2:29">
@@ -23422,16 +23422,16 @@
         <v>1163</v>
       </c>
       <c r="Z120" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="AA120" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="AB120">
         <v>1</v>
       </c>
       <c r="AC120" t="s">
-        <v>837</v>
+        <v>693</v>
       </c>
     </row>
     <row r="121" spans="2:29">
@@ -23499,16 +23499,16 @@
         <v>1165</v>
       </c>
       <c r="Z121" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="AA121" t="s">
-        <v>1395</v>
+        <v>1540</v>
       </c>
       <c r="AB121">
         <v>1</v>
       </c>
       <c r="AC121" t="s">
-        <v>637</v>
+        <v>827</v>
       </c>
     </row>
     <row r="122" spans="2:29">
@@ -23576,16 +23576,16 @@
         <v>1167</v>
       </c>
       <c r="Z122" t="s">
+        <v>1541</v>
+      </c>
+      <c r="AA122" t="s">
         <v>1542</v>
       </c>
-      <c r="AA122" t="s">
-        <v>1543</v>
-      </c>
       <c r="AB122">
         <v>1</v>
       </c>
       <c r="AC122" t="s">
-        <v>939</v>
+        <v>661</v>
       </c>
     </row>
     <row r="123" spans="2:29">
@@ -23653,16 +23653,16 @@
         <v>1169</v>
       </c>
       <c r="Z123" t="s">
+        <v>1543</v>
+      </c>
+      <c r="AA123" t="s">
         <v>1544</v>
       </c>
-      <c r="AA123" t="s">
-        <v>1545</v>
-      </c>
       <c r="AB123">
         <v>1</v>
       </c>
       <c r="AC123" t="s">
-        <v>685</v>
+        <v>627</v>
       </c>
     </row>
     <row r="124" spans="2:29">
@@ -23730,16 +23730,16 @@
         <v>1171</v>
       </c>
       <c r="Z124" t="s">
+        <v>1545</v>
+      </c>
+      <c r="AA124" t="s">
         <v>1546</v>
       </c>
-      <c r="AA124" t="s">
-        <v>1547</v>
-      </c>
       <c r="AB124">
         <v>1</v>
       </c>
       <c r="AC124" t="s">
-        <v>789</v>
+        <v>625</v>
       </c>
     </row>
     <row r="125" spans="2:29">
@@ -23807,16 +23807,16 @@
         <v>1173</v>
       </c>
       <c r="Z125" t="s">
+        <v>1547</v>
+      </c>
+      <c r="AA125" t="s">
         <v>1548</v>
       </c>
-      <c r="AA125" t="s">
-        <v>1549</v>
-      </c>
       <c r="AB125">
         <v>1</v>
       </c>
       <c r="AC125" t="s">
-        <v>595</v>
+        <v>909</v>
       </c>
     </row>
     <row r="126" spans="2:29">
@@ -23884,16 +23884,16 @@
         <v>1175</v>
       </c>
       <c r="Z126" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AA126" t="s">
         <v>1550</v>
       </c>
-      <c r="AA126" t="s">
-        <v>1551</v>
-      </c>
       <c r="AB126">
         <v>1</v>
       </c>
       <c r="AC126" t="s">
-        <v>929</v>
+        <v>631</v>
       </c>
     </row>
     <row r="127" spans="2:29">
@@ -23961,16 +23961,16 @@
         <v>1177</v>
       </c>
       <c r="Z127" t="s">
+        <v>1551</v>
+      </c>
+      <c r="AA127" t="s">
         <v>1552</v>
       </c>
-      <c r="AA127" t="s">
-        <v>1553</v>
-      </c>
       <c r="AB127">
         <v>1</v>
       </c>
       <c r="AC127" t="s">
-        <v>787</v>
+        <v>833</v>
       </c>
     </row>
     <row r="128" spans="2:29">
@@ -24038,16 +24038,16 @@
         <v>1179</v>
       </c>
       <c r="Z128" t="s">
+        <v>1553</v>
+      </c>
+      <c r="AA128" t="s">
         <v>1554</v>
       </c>
-      <c r="AA128" t="s">
-        <v>1555</v>
-      </c>
       <c r="AB128">
         <v>1</v>
       </c>
       <c r="AC128" t="s">
-        <v>719</v>
+        <v>923</v>
       </c>
     </row>
     <row r="129" spans="2:29">
@@ -24115,16 +24115,16 @@
         <v>1181</v>
       </c>
       <c r="Z129" t="s">
+        <v>1555</v>
+      </c>
+      <c r="AA129" t="s">
         <v>1556</v>
       </c>
-      <c r="AA129" t="s">
-        <v>1557</v>
-      </c>
       <c r="AB129">
         <v>1</v>
       </c>
       <c r="AC129" t="s">
-        <v>589</v>
+        <v>721</v>
       </c>
     </row>
     <row r="130" spans="2:29">
@@ -24192,16 +24192,16 @@
         <v>1183</v>
       </c>
       <c r="Z130" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AA130" t="s">
         <v>1558</v>
       </c>
-      <c r="AA130" t="s">
-        <v>1559</v>
-      </c>
       <c r="AB130">
         <v>1</v>
       </c>
       <c r="AC130" t="s">
-        <v>815</v>
+        <v>915</v>
       </c>
     </row>
     <row r="131" spans="2:29">
@@ -24269,16 +24269,16 @@
         <v>1185</v>
       </c>
       <c r="Z131" t="s">
+        <v>1559</v>
+      </c>
+      <c r="AA131" t="s">
         <v>1560</v>
       </c>
-      <c r="AA131" t="s">
-        <v>1561</v>
-      </c>
       <c r="AB131">
         <v>1</v>
       </c>
       <c r="AC131" t="s">
-        <v>579</v>
+        <v>599</v>
       </c>
     </row>
     <row r="132" spans="2:29">
@@ -24346,16 +24346,16 @@
         <v>1187</v>
       </c>
       <c r="Z132" t="s">
+        <v>1561</v>
+      </c>
+      <c r="AA132" t="s">
         <v>1562</v>
       </c>
-      <c r="AA132" t="s">
-        <v>1563</v>
-      </c>
       <c r="AB132">
         <v>1</v>
       </c>
       <c r="AC132" t="s">
-        <v>877</v>
+        <v>657</v>
       </c>
     </row>
     <row r="133" spans="2:29">
@@ -24423,16 +24423,16 @@
         <v>1189</v>
       </c>
       <c r="Z133" t="s">
+        <v>1563</v>
+      </c>
+      <c r="AA133" t="s">
         <v>1564</v>
       </c>
-      <c r="AA133" t="s">
-        <v>1565</v>
-      </c>
       <c r="AB133">
         <v>1</v>
       </c>
       <c r="AC133" t="s">
-        <v>729</v>
+        <v>809</v>
       </c>
     </row>
     <row r="134" spans="2:29">
@@ -24500,16 +24500,16 @@
         <v>1191</v>
       </c>
       <c r="Z134" t="s">
+        <v>1565</v>
+      </c>
+      <c r="AA134" t="s">
         <v>1566</v>
       </c>
-      <c r="AA134" t="s">
-        <v>1567</v>
-      </c>
       <c r="AB134">
         <v>1</v>
       </c>
       <c r="AC134" t="s">
-        <v>785</v>
+        <v>757</v>
       </c>
     </row>
     <row r="135" spans="2:29">
@@ -24577,16 +24577,16 @@
         <v>1193</v>
       </c>
       <c r="Z135" t="s">
+        <v>1567</v>
+      </c>
+      <c r="AA135" t="s">
         <v>1568</v>
       </c>
-      <c r="AA135" t="s">
-        <v>1569</v>
-      </c>
       <c r="AB135">
         <v>1</v>
       </c>
       <c r="AC135" t="s">
-        <v>571</v>
+        <v>933</v>
       </c>
     </row>
     <row r="136" spans="2:29">
@@ -24654,16 +24654,16 @@
         <v>1195</v>
       </c>
       <c r="Z136" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="AA136" t="s">
-        <v>1571</v>
+        <v>1532</v>
       </c>
       <c r="AB136">
         <v>1</v>
       </c>
       <c r="AC136" t="s">
-        <v>675</v>
+        <v>907</v>
       </c>
     </row>
     <row r="137" spans="2:29">
@@ -24731,16 +24731,16 @@
         <v>1197</v>
       </c>
       <c r="Z137" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="AA137" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="AB137">
         <v>1</v>
       </c>
       <c r="AC137" t="s">
-        <v>863</v>
+        <v>845</v>
       </c>
     </row>
     <row r="138" spans="2:29">
@@ -24808,16 +24808,16 @@
         <v>1199</v>
       </c>
       <c r="Z138" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="AA138" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="AB138">
         <v>1</v>
       </c>
       <c r="AC138" t="s">
-        <v>629</v>
+        <v>861</v>
       </c>
     </row>
     <row r="139" spans="2:29">
@@ -24885,16 +24885,16 @@
         <v>1201</v>
       </c>
       <c r="Z139" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="AA139" t="s">
-        <v>1577</v>
+        <v>1486</v>
       </c>
       <c r="AB139">
         <v>1</v>
       </c>
       <c r="AC139" t="s">
-        <v>615</v>
+        <v>635</v>
       </c>
     </row>
     <row r="140" spans="2:29">
@@ -24962,16 +24962,16 @@
         <v>1203</v>
       </c>
       <c r="Z140" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="AA140" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="AB140">
         <v>1</v>
       </c>
       <c r="AC140" t="s">
-        <v>883</v>
+        <v>731</v>
       </c>
     </row>
     <row r="141" spans="2:29">
@@ -25039,16 +25039,16 @@
         <v>1205</v>
       </c>
       <c r="Z141" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="AA141" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="AB141">
         <v>1</v>
       </c>
       <c r="AC141" t="s">
-        <v>781</v>
+        <v>653</v>
       </c>
     </row>
     <row r="142" spans="2:29">
@@ -25116,16 +25116,16 @@
         <v>1207</v>
       </c>
       <c r="Z142" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="AA142" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="AB142">
         <v>1</v>
       </c>
       <c r="AC142" t="s">
-        <v>891</v>
+        <v>743</v>
       </c>
     </row>
     <row r="143" spans="2:29">
@@ -25193,16 +25193,16 @@
         <v>1209</v>
       </c>
       <c r="Z143" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="AA143" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="AB143">
         <v>1</v>
       </c>
       <c r="AC143" t="s">
-        <v>609</v>
+        <v>575</v>
       </c>
     </row>
     <row r="144" spans="2:29">
@@ -25270,16 +25270,16 @@
         <v>1211</v>
       </c>
       <c r="Z144" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="AA144" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="AB144">
         <v>1</v>
       </c>
       <c r="AC144" t="s">
-        <v>755</v>
+        <v>727</v>
       </c>
     </row>
     <row r="145" spans="2:29">
@@ -25347,16 +25347,16 @@
         <v>1213</v>
       </c>
       <c r="Z145" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="AA145" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="AB145">
         <v>1</v>
       </c>
       <c r="AC145" t="s">
-        <v>869</v>
+        <v>885</v>
       </c>
     </row>
     <row r="146" spans="2:29">
@@ -25424,16 +25424,16 @@
         <v>1215</v>
       </c>
       <c r="Z146" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="AA146" t="s">
-        <v>1461</v>
+        <v>1588</v>
       </c>
       <c r="AB146">
         <v>1</v>
       </c>
       <c r="AC146" t="s">
-        <v>899</v>
+        <v>813</v>
       </c>
     </row>
     <row r="147" spans="2:29">
@@ -25501,16 +25501,16 @@
         <v>1217</v>
       </c>
       <c r="Z147" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="AA147" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="AB147">
         <v>1</v>
       </c>
       <c r="AC147" t="s">
-        <v>689</v>
+        <v>911</v>
       </c>
     </row>
     <row r="148" spans="2:29">
@@ -25578,16 +25578,16 @@
         <v>1219</v>
       </c>
       <c r="Z148" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="AA148" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="AB148">
         <v>1</v>
       </c>
       <c r="AC148" t="s">
-        <v>853</v>
+        <v>927</v>
       </c>
     </row>
     <row r="149" spans="2:29">
@@ -25655,16 +25655,16 @@
         <v>1221</v>
       </c>
       <c r="Z149" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="AA149" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="AB149">
         <v>1</v>
       </c>
       <c r="AC149" t="s">
-        <v>619</v>
+        <v>893</v>
       </c>
     </row>
     <row r="150" spans="2:29">
@@ -25732,16 +25732,16 @@
         <v>1223</v>
       </c>
       <c r="Z150" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="AA150" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="AB150">
         <v>1</v>
       </c>
       <c r="AC150" t="s">
-        <v>679</v>
+        <v>871</v>
       </c>
     </row>
     <row r="151" spans="2:29">
@@ -25809,16 +25809,16 @@
         <v>1225</v>
       </c>
       <c r="Z151" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="AA151" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="AB151">
         <v>1</v>
       </c>
       <c r="AC151" t="s">
-        <v>699</v>
+        <v>717</v>
       </c>
     </row>
     <row r="152" spans="2:29">
@@ -25886,16 +25886,16 @@
         <v>1227</v>
       </c>
       <c r="Z152" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="AA152" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="AB152">
         <v>1</v>
       </c>
       <c r="AC152" t="s">
-        <v>843</v>
+        <v>777</v>
       </c>
     </row>
     <row r="153" spans="2:29">
@@ -25963,16 +25963,16 @@
         <v>1229</v>
       </c>
       <c r="Z153" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="AA153" t="s">
-        <v>1341</v>
+        <v>1602</v>
       </c>
       <c r="AB153">
         <v>1</v>
       </c>
       <c r="AC153" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
     </row>
     <row r="154" spans="2:29">
@@ -26040,16 +26040,16 @@
         <v>1231</v>
       </c>
       <c r="Z154" t="s">
+        <v>1603</v>
+      </c>
+      <c r="AA154" t="s">
         <v>1604</v>
       </c>
-      <c r="AA154" t="s">
-        <v>1605</v>
-      </c>
       <c r="AB154">
         <v>1</v>
       </c>
       <c r="AC154" t="s">
-        <v>835</v>
+        <v>929</v>
       </c>
     </row>
     <row r="155" spans="2:29">
@@ -26117,16 +26117,16 @@
         <v>1233</v>
       </c>
       <c r="Z155" t="s">
+        <v>1605</v>
+      </c>
+      <c r="AA155" t="s">
         <v>1606</v>
       </c>
-      <c r="AA155" t="s">
-        <v>1607</v>
-      </c>
       <c r="AB155">
         <v>1</v>
       </c>
       <c r="AC155" t="s">
-        <v>671</v>
+        <v>787</v>
       </c>
     </row>
     <row r="156" spans="2:29">
@@ -26194,16 +26194,16 @@
         <v>1235</v>
       </c>
       <c r="Z156" t="s">
+        <v>1607</v>
+      </c>
+      <c r="AA156" t="s">
         <v>1608</v>
       </c>
-      <c r="AA156" t="s">
-        <v>1609</v>
-      </c>
       <c r="AB156">
         <v>1</v>
       </c>
       <c r="AC156" t="s">
-        <v>687</v>
+        <v>719</v>
       </c>
     </row>
     <row r="157" spans="2:29">
@@ -26271,16 +26271,16 @@
         <v>1237</v>
       </c>
       <c r="Z157" t="s">
+        <v>1609</v>
+      </c>
+      <c r="AA157" t="s">
         <v>1610</v>
       </c>
-      <c r="AA157" t="s">
-        <v>1611</v>
-      </c>
       <c r="AB157">
         <v>1</v>
       </c>
       <c r="AC157" t="s">
-        <v>621</v>
+        <v>589</v>
       </c>
     </row>
     <row r="158" spans="2:29">
@@ -26348,16 +26348,16 @@
         <v>1239</v>
       </c>
       <c r="Z158" t="s">
+        <v>1611</v>
+      </c>
+      <c r="AA158" t="s">
         <v>1612</v>
       </c>
-      <c r="AA158" t="s">
-        <v>1613</v>
-      </c>
       <c r="AB158">
         <v>1</v>
       </c>
       <c r="AC158" t="s">
-        <v>591</v>
+        <v>815</v>
       </c>
     </row>
     <row r="159" spans="2:29">
@@ -26425,16 +26425,16 @@
         <v>1241</v>
       </c>
       <c r="Z159" t="s">
+        <v>1613</v>
+      </c>
+      <c r="AA159" t="s">
         <v>1614</v>
       </c>
-      <c r="AA159" t="s">
-        <v>1615</v>
-      </c>
       <c r="AB159">
         <v>1</v>
       </c>
       <c r="AC159" t="s">
-        <v>749</v>
+        <v>579</v>
       </c>
     </row>
     <row r="160" spans="2:29">
@@ -26502,16 +26502,16 @@
         <v>1243</v>
       </c>
       <c r="Z160" t="s">
+        <v>1615</v>
+      </c>
+      <c r="AA160" t="s">
         <v>1616</v>
       </c>
-      <c r="AA160" t="s">
-        <v>1617</v>
-      </c>
       <c r="AB160">
         <v>1</v>
       </c>
       <c r="AC160" t="s">
-        <v>723</v>
+        <v>877</v>
       </c>
     </row>
     <row r="161" spans="2:29">
@@ -26579,16 +26579,16 @@
         <v>1245</v>
       </c>
       <c r="Z161" t="s">
+        <v>1617</v>
+      </c>
+      <c r="AA161" t="s">
         <v>1618</v>
       </c>
-      <c r="AA161" t="s">
-        <v>1619</v>
-      </c>
       <c r="AB161">
         <v>1</v>
       </c>
       <c r="AC161" t="s">
-        <v>673</v>
+        <v>729</v>
       </c>
     </row>
     <row r="162" spans="2:29">
@@ -26656,16 +26656,16 @@
         <v>1247</v>
       </c>
       <c r="Z162" t="s">
+        <v>1619</v>
+      </c>
+      <c r="AA162" t="s">
         <v>1620</v>
       </c>
-      <c r="AA162" t="s">
-        <v>1621</v>
-      </c>
       <c r="AB162">
         <v>1</v>
       </c>
       <c r="AC162" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
     </row>
     <row r="163" spans="2:29">
@@ -26733,16 +26733,16 @@
         <v>1249</v>
       </c>
       <c r="Z163" t="s">
+        <v>1621</v>
+      </c>
+      <c r="AA163" t="s">
         <v>1622</v>
       </c>
-      <c r="AA163" t="s">
-        <v>1623</v>
-      </c>
       <c r="AB163">
         <v>1</v>
       </c>
       <c r="AC163" t="s">
-        <v>681</v>
+        <v>571</v>
       </c>
     </row>
     <row r="164" spans="2:29">
@@ -26810,16 +26810,16 @@
         <v>1251</v>
       </c>
       <c r="Z164" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AA164" t="s">
         <v>1624</v>
       </c>
-      <c r="AA164" t="s">
-        <v>1625</v>
-      </c>
       <c r="AB164">
         <v>1</v>
       </c>
       <c r="AC164" t="s">
-        <v>745</v>
+        <v>675</v>
       </c>
     </row>
     <row r="165" spans="2:29">
@@ -26887,16 +26887,16 @@
         <v>1253</v>
       </c>
       <c r="Z165" t="s">
+        <v>1625</v>
+      </c>
+      <c r="AA165" t="s">
         <v>1626</v>
       </c>
-      <c r="AA165" t="s">
-        <v>1627</v>
-      </c>
       <c r="AB165">
         <v>1</v>
       </c>
       <c r="AC165" t="s">
-        <v>603</v>
+        <v>863</v>
       </c>
     </row>
     <row r="166" spans="2:29">
@@ -26964,16 +26964,16 @@
         <v>1255</v>
       </c>
       <c r="Z166" t="s">
+        <v>1627</v>
+      </c>
+      <c r="AA166" t="s">
         <v>1628</v>
       </c>
-      <c r="AA166" t="s">
-        <v>1441</v>
-      </c>
       <c r="AB166">
         <v>1</v>
       </c>
       <c r="AC166" t="s">
-        <v>857</v>
+        <v>629</v>
       </c>
     </row>
     <row r="167" spans="2:29">
@@ -27044,13 +27044,13 @@
         <v>1629</v>
       </c>
       <c r="AA167" t="s">
-        <v>1389</v>
+        <v>1630</v>
       </c>
       <c r="AB167">
         <v>1</v>
       </c>
       <c r="AC167" t="s">
-        <v>905</v>
+        <v>615</v>
       </c>
     </row>
     <row r="168" spans="2:29">
@@ -27118,16 +27118,16 @@
         <v>1259</v>
       </c>
       <c r="Z168" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="AA168" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="AB168">
         <v>1</v>
       </c>
       <c r="AC168" t="s">
-        <v>623</v>
+        <v>883</v>
       </c>
     </row>
     <row r="169" spans="2:29">
@@ -27195,16 +27195,16 @@
         <v>1261</v>
       </c>
       <c r="Z169" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="AA169" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="AB169">
         <v>1</v>
       </c>
       <c r="AC169" t="s">
-        <v>565</v>
+        <v>781</v>
       </c>
     </row>
     <row r="170" spans="2:29">
@@ -27272,16 +27272,16 @@
         <v>1263</v>
       </c>
       <c r="Z170" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="AA170" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="AB170">
         <v>1</v>
       </c>
       <c r="AC170" t="s">
-        <v>677</v>
+        <v>891</v>
       </c>
     </row>
     <row r="171" spans="2:29">
@@ -27349,16 +27349,16 @@
         <v>1265</v>
       </c>
       <c r="Z171" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="AA171" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="AB171">
         <v>1</v>
       </c>
       <c r="AC171" t="s">
-        <v>889</v>
+        <v>609</v>
       </c>
     </row>
     <row r="172" spans="2:29">
@@ -27426,16 +27426,16 @@
         <v>1267</v>
       </c>
       <c r="Z172" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="AA172" t="s">
-        <v>1639</v>
+        <v>1434</v>
       </c>
       <c r="AB172">
         <v>1</v>
       </c>
       <c r="AC172" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
     </row>
     <row r="173" spans="2:29">
@@ -27512,7 +27512,7 @@
         <v>1</v>
       </c>
       <c r="AC173" t="s">
-        <v>597</v>
+        <v>869</v>
       </c>
     </row>
     <row r="174" spans="2:29">
@@ -27583,13 +27583,13 @@
         <v>1642</v>
       </c>
       <c r="AA174" t="s">
-        <v>1643</v>
+        <v>1385</v>
       </c>
       <c r="AB174">
         <v>1</v>
       </c>
       <c r="AC174" t="s">
-        <v>867</v>
+        <v>899</v>
       </c>
     </row>
     <row r="175" spans="2:29">
@@ -27657,16 +27657,16 @@
         <v>1273</v>
       </c>
       <c r="Z175" t="s">
+        <v>1643</v>
+      </c>
+      <c r="AA175" t="s">
         <v>1644</v>
       </c>
-      <c r="AA175" t="s">
-        <v>1645</v>
-      </c>
       <c r="AB175">
         <v>1</v>
       </c>
       <c r="AC175" t="s">
-        <v>865</v>
+        <v>697</v>
       </c>
     </row>
     <row r="176" spans="2:29">
@@ -27734,16 +27734,16 @@
         <v>1275</v>
       </c>
       <c r="Z176" t="s">
+        <v>1645</v>
+      </c>
+      <c r="AA176" t="s">
         <v>1646</v>
       </c>
-      <c r="AA176" t="s">
-        <v>1647</v>
-      </c>
       <c r="AB176">
         <v>1</v>
       </c>
       <c r="AC176" t="s">
-        <v>767</v>
+        <v>613</v>
       </c>
     </row>
     <row r="177" spans="2:29">
@@ -27811,16 +27811,16 @@
         <v>1277</v>
       </c>
       <c r="Z177" t="s">
+        <v>1647</v>
+      </c>
+      <c r="AA177" t="s">
         <v>1648</v>
       </c>
-      <c r="AA177" t="s">
-        <v>1649</v>
-      </c>
       <c r="AB177">
         <v>1</v>
       </c>
       <c r="AC177" t="s">
-        <v>585</v>
+        <v>607</v>
       </c>
     </row>
     <row r="178" spans="2:29">
@@ -27888,16 +27888,16 @@
         <v>1279</v>
       </c>
       <c r="Z178" t="s">
+        <v>1649</v>
+      </c>
+      <c r="AA178" t="s">
         <v>1650</v>
       </c>
-      <c r="AA178" t="s">
-        <v>1651</v>
-      </c>
       <c r="AB178">
         <v>1</v>
       </c>
       <c r="AC178" t="s">
-        <v>807</v>
+        <v>725</v>
       </c>
     </row>
     <row r="179" spans="2:29">
@@ -27965,16 +27965,16 @@
         <v>1281</v>
       </c>
       <c r="Z179" t="s">
+        <v>1651</v>
+      </c>
+      <c r="AA179" t="s">
         <v>1652</v>
       </c>
-      <c r="AA179" t="s">
-        <v>1653</v>
-      </c>
       <c r="AB179">
         <v>1</v>
       </c>
       <c r="AC179" t="s">
-        <v>587</v>
+        <v>735</v>
       </c>
     </row>
     <row r="180" spans="2:29">
@@ -28042,16 +28042,16 @@
         <v>1283</v>
       </c>
       <c r="Z180" t="s">
+        <v>1653</v>
+      </c>
+      <c r="AA180" t="s">
         <v>1654</v>
       </c>
-      <c r="AA180" t="s">
-        <v>1655</v>
-      </c>
       <c r="AB180">
         <v>1</v>
       </c>
       <c r="AC180" t="s">
-        <v>581</v>
+        <v>703</v>
       </c>
     </row>
     <row r="181" spans="2:29">
@@ -28119,16 +28119,16 @@
         <v>1285</v>
       </c>
       <c r="Z181" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="AA181" t="s">
-        <v>1349</v>
+        <v>1456</v>
       </c>
       <c r="AB181">
         <v>1</v>
       </c>
       <c r="AC181" t="s">
-        <v>901</v>
+        <v>803</v>
       </c>
     </row>
     <row r="182" spans="2:29">
@@ -28196,16 +28196,16 @@
         <v>1287</v>
       </c>
       <c r="Z182" t="s">
+        <v>1656</v>
+      </c>
+      <c r="AA182" t="s">
         <v>1657</v>
       </c>
-      <c r="AA182" t="s">
-        <v>1658</v>
-      </c>
       <c r="AB182">
         <v>1</v>
       </c>
       <c r="AC182" t="s">
-        <v>747</v>
+        <v>849</v>
       </c>
     </row>
     <row r="183" spans="2:29">
@@ -28273,16 +28273,16 @@
         <v>1289</v>
       </c>
       <c r="Z183" t="s">
+        <v>1658</v>
+      </c>
+      <c r="AA183" t="s">
         <v>1659</v>
       </c>
-      <c r="AA183" t="s">
-        <v>1587</v>
-      </c>
       <c r="AB183">
         <v>1</v>
       </c>
       <c r="AC183" t="s">
-        <v>753</v>
+        <v>879</v>
       </c>
     </row>
     <row r="184" spans="2:29">
@@ -29046,7 +29046,7 @@
         <v>1678</v>
       </c>
       <c r="AA193" t="s">
-        <v>1563</v>
+        <v>1616</v>
       </c>
       <c r="AB193">
         <v>1</v>
@@ -29431,7 +29431,7 @@
         <v>1687</v>
       </c>
       <c r="AA198" t="s">
-        <v>1508</v>
+        <v>1592</v>
       </c>
       <c r="AB198">
         <v>1</v>
@@ -29446,7 +29446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F355F6B8-470B-4F8B-B771-1BA402810080}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A582327-2EF7-4E28-9524-BC87E796A135}">
   <dimension ref="B9:AB199"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -38097,7 +38097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8AA722-FDEC-4466-A080-B565FF4472A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEC99CD-3489-4CB6-B4DB-2AF7441E98DF}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -39917,7 +39917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5310B257-403B-4BF0-972B-1D6A5C9161EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843114B8-0FBC-4A0C-9BAE-43457B04186F}">
   <dimension ref="B2:M317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -41185,7 +41185,7 @@
         <v>2431</v>
       </c>
       <c r="C42" t="s">
-        <v>1463</v>
+        <v>1387</v>
       </c>
       <c r="D42" t="s">
         <v>2432</v>
@@ -41220,7 +41220,7 @@
         <v>2432</v>
       </c>
       <c r="D43" t="s">
-        <v>1463</v>
+        <v>1387</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -42212,7 +42212,7 @@
         <v>2495</v>
       </c>
       <c r="D74" t="s">
-        <v>1443</v>
+        <v>1367</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -42241,7 +42241,7 @@
         <v>2496</v>
       </c>
       <c r="C75" t="s">
-        <v>1443</v>
+        <v>1367</v>
       </c>
       <c r="D75" t="s">
         <v>2495</v>
@@ -42657,7 +42657,7 @@
         <v>2521</v>
       </c>
       <c r="C88" t="s">
-        <v>1543</v>
+        <v>1488</v>
       </c>
       <c r="D88" t="s">
         <v>2522</v>
@@ -42692,7 +42692,7 @@
         <v>2522</v>
       </c>
       <c r="D89" t="s">
-        <v>1543</v>
+        <v>1488</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -43809,7 +43809,7 @@
         <v>2592</v>
       </c>
       <c r="C124" t="s">
-        <v>1488</v>
+        <v>1458</v>
       </c>
       <c r="D124" t="s">
         <v>2593</v>
@@ -43844,7 +43844,7 @@
         <v>2593</v>
       </c>
       <c r="D125" t="s">
-        <v>1488</v>
+        <v>1458</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -45284,7 +45284,7 @@
         <v>2683</v>
       </c>
       <c r="D170" t="s">
-        <v>1658</v>
+        <v>1432</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -45313,7 +45313,7 @@
         <v>2684</v>
       </c>
       <c r="C171" t="s">
-        <v>1658</v>
+        <v>1432</v>
       </c>
       <c r="D171" t="s">
         <v>2683</v>
@@ -46052,7 +46052,7 @@
         <v>2729</v>
       </c>
       <c r="D194" t="s">
-        <v>1423</v>
+        <v>1456</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -46081,7 +46081,7 @@
         <v>2730</v>
       </c>
       <c r="C195" t="s">
-        <v>1423</v>
+        <v>1456</v>
       </c>
       <c r="D195" t="s">
         <v>2729</v>
@@ -46241,7 +46241,7 @@
         <v>2739</v>
       </c>
       <c r="C200" t="s">
-        <v>1391</v>
+        <v>1571</v>
       </c>
       <c r="D200" t="s">
         <v>2740</v>
@@ -46276,7 +46276,7 @@
         <v>2740</v>
       </c>
       <c r="D201" t="s">
-        <v>1391</v>
+        <v>1571</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -47396,7 +47396,7 @@
         <v>2811</v>
       </c>
       <c r="D236" t="s">
-        <v>1445</v>
+        <v>1369</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -47425,7 +47425,7 @@
         <v>2812</v>
       </c>
       <c r="C237" t="s">
-        <v>1445</v>
+        <v>1369</v>
       </c>
       <c r="D237" t="s">
         <v>2811</v>
@@ -49956,7 +49956,7 @@
         <v>2967</v>
       </c>
       <c r="D316" t="s">
-        <v>1561</v>
+        <v>1614</v>
       </c>
       <c r="E316">
         <v>1</v>
@@ -49985,7 +49985,7 @@
         <v>2968</v>
       </c>
       <c r="C317" t="s">
-        <v>1561</v>
+        <v>1614</v>
       </c>
       <c r="D317" t="s">
         <v>2967</v>

--- a/VerveStacks_DEU_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_DEU_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F50F871F-9AD2-4F84-8795-2A2C8C5986F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6DC92AD-7734-4303-8BFB-3819B90ECD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2960,18 +2960,288 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_solelc_won-DEU_0063</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_63</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0145</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_145</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0027</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_27</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0058</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_58</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0068</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_68</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0140</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_140</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0116</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_116</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0136</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_136</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0054</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_54</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0084</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_84</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0044</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_44</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0090</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_90</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0005</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_5</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0082</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_82</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0161</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_161</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0125</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_125</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0174</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_174</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0182</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_182</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0165</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_165</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0154</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_154</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0077</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_77</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0107</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_107</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0127</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_127</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0042</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_42</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0076</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_76</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0155</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_155</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0103</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_103</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_2</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0118</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_118</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0142</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_142</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0037</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_37</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0166</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_166</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0119</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_119</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0187</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_187</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0115</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_115</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_4</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0144</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_144</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0177</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_177</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0075</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_75</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0106</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_106</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0039</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_39</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0162</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_162</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0167</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_167</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_6</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_9</t>
+  </si>
+  <si>
     <t>distr_solelc_won-DEU_0130</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell DEU_130</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
     <t>distr_solelc_won-DEU_0159</t>
   </si>
   <si>
@@ -3056,6 +3326,552 @@
     <t>connecting solar and wind to buses in grid cell DEU_94</t>
   </si>
   <si>
+    <t>distr_solelc_won-DEU_0066</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_66</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0043</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_43</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0175</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_175</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0114</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_114</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0069</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_69</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0179</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_179</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0050</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_50</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0124</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_124</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0045</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_45</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0156</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_156</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0129</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_129</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_20</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0052</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_52</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0053</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_53</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0181</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_181</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0067</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_67</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0024</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_24</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0021</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_21</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0081</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_81</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0086</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_86</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0070</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_70</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0120</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_120</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0143</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_143</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0158</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_158</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0014</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_14</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0026</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_26</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0065</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_65</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0132</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_132</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0048</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_48</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0031</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_31</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0030</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_30</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0173</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_173</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0033</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_33</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0135</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_135</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0128</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_128</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0001</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_1</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0184</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_184</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0085</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_85</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0071</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_71</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0138</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_138</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0087</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_87</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0015</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_15</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0183</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_183</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0112</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_112</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0078</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_78</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0012</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_12</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0126</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_126</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0007</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_7</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0157</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_157</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0083</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_83</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0029</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_29</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0000</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_0</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0057</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_57</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0163</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_163</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0099</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_99</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0016</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_16</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0152</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_152</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0151</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_151</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0102</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_102</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0010</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_10</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0122</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_122</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0011</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_11</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0008</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_8</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0169</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_169</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0092</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_92</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0095</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_95</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0111</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_111</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0003</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_3</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0056</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_56</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0150</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_150</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0032</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_32</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0025</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_25</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0160</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_160</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0109</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_109</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0164</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_164</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_22</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0096</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_96</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0153</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_153</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0168</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_168</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0062</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_62</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0028</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_28</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_13</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0093</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_93</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0080</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_80</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0055</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_55</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0101</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_101</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0059</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_59</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0091</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_91</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_19</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0147</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_147</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0171</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_171</t>
+  </si>
+  <si>
     <t>distr_solelc_won-DEU_0049</t>
   </si>
   <si>
@@ -3110,280 +3926,76 @@
     <t>connecting solar and wind to buses in grid cell DEU_72</t>
   </si>
   <si>
-    <t>distr_solelc_won-DEU_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_4</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0144</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_144</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0177</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_177</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0075</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_75</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0106</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_106</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0039</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_39</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0162</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_162</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0167</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_167</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_6</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_9</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0128</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_128</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0001</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_1</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0184</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_184</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0085</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_85</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0071</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_71</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0138</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_138</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0087</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_87</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0029</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_29</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0000</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_0</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0057</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_57</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0163</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_163</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0099</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_99</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0016</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_16</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0152</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_152</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0151</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_151</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0102</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_102</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0010</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_10</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0122</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_122</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0011</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_11</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0008</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_8</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0169</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_169</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0092</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_92</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0095</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_95</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0127</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_127</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0042</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_42</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0076</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_76</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0155</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_155</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0103</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_103</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_2</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0118</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_118</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0142</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_142</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0037</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_37</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0166</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_166</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0119</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_119</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0187</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_187</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0115</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_115</t>
+    <t>distr_solelc_won-DEU_0180</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_180</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0079</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_79</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0176</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_176</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0017</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_17</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0046</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_46</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0123</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_123</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0097</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_97</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0185</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_185</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0172</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_172</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0141</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_141</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0149</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_149</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0035</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_35</t>
   </si>
   <si>
     <t>distr_solelc_won-DEU_0040</t>
@@ -3482,621 +4094,279 @@
     <t>connecting solar and wind to buses in grid cell DEU_113</t>
   </si>
   <si>
-    <t>distr_solelc_won-DEU_0063</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_63</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0145</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_145</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0027</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_27</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0058</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_58</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0068</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_68</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0140</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_140</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0116</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_116</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0136</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_136</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0054</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_54</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0062</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_62</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0028</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_28</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_13</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0093</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_93</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0080</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_80</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0055</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_55</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0101</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_101</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0059</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_59</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0091</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_91</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_19</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0147</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_147</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0171</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_171</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0014</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_14</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0026</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_26</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0065</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_65</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0132</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_132</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0048</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_48</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0031</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_31</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0030</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_30</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0173</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_173</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0033</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_33</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0135</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_135</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0180</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_180</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0079</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_79</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0176</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_176</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0017</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_17</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0046</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_46</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0123</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_123</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0097</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_97</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0185</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_185</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0172</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_172</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0141</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_141</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0149</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_149</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0035</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_35</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0084</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_84</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0044</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_44</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0090</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_90</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0005</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_5</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0082</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_82</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0161</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_161</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0125</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_125</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0174</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_174</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0182</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_182</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0165</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_165</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0154</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_154</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0077</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_77</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0107</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_107</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0015</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_15</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0183</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_183</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0112</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_112</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0078</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_78</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0012</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_12</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0126</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_126</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0007</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_7</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0157</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_157</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0083</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_83</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0111</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_111</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0003</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_3</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0056</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_56</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0150</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_150</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0032</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_32</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0025</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_25</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0160</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_160</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0109</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_109</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0164</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_164</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0022</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_22</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0096</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_96</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0153</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_153</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0168</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_168</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0067</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_67</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0024</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_24</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0021</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_21</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0081</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_81</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0086</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_86</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0070</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_70</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0120</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_120</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0143</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_143</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0158</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_158</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0066</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_66</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0043</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_43</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0175</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_175</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0114</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_114</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0069</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_69</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0179</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_179</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0050</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_50</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0124</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_124</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0045</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_45</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0156</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_156</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0129</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_129</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0020</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_20</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0052</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_52</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0053</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_53</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0181</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_181</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
+    <t>elc_won-DEU_0063,elc_spv-DEU_0063</t>
+  </si>
+  <si>
+    <t>e_DE104-380,e_w274630377-220,e_w274630377-380,e_w42681484-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0145,elc_spv-DEU_0145</t>
+  </si>
+  <si>
+    <t>e_DE119-380,e_w23161029-220,e_w32843531-220,e_w32843531-380,e_w442199284-380,e_w714098678-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0027,elc_spv-DEU_0027</t>
+  </si>
+  <si>
+    <t>e_DE155-380,e_DE156-380,e_w160584794-380,e_w50898216-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0058,elc_spv-DEU_0058</t>
+  </si>
+  <si>
+    <t>e_DE179-220,e_w1104947187-380,e_w1327333163-220,e_w1327333163-380,e_w143903369-220,e_w143903369-380,e_w159326655-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0068,elc_spv-DEU_0068</t>
+  </si>
+  <si>
+    <t>e_DE6-380,e_w1089769599-220,e_w1089769599-380,e_w1280364401-380,e_w289836713-380,e_w525964617,e_w525964629-380,e_w60032354-220,e_w87722999-220,e_w87722999-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0140,elc_spv-DEU_0140</t>
+  </si>
+  <si>
+    <t>e_w29417741-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0116,elc_spv-DEU_0116</t>
+  </si>
+  <si>
+    <t>e_w30040568-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0136,elc_spv-DEU_0136</t>
+  </si>
+  <si>
+    <t>e_DE5-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0054,elc_spv-DEU_0054</t>
+  </si>
+  <si>
+    <t>e_w31367936-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0084,elc_spv-DEU_0084</t>
+  </si>
+  <si>
+    <t>e_DE10-380,e_DE11-380,e_DE12-380,e_w11285720-380,e_w24502420-380,e_w881636329-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0044,elc_spv-DEU_0044</t>
+  </si>
+  <si>
+    <t>e_DE146-380,e_DE152-380,e_w1245826064-380,e_w1245867884-380,e_w202747445-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0090,elc_spv-DEU_0090</t>
+  </si>
+  <si>
+    <t>e_DE200-380,e_w1093896544-380,e_w31105067-380,e_w88945213-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0005,elc_spv-DEU_0005</t>
+  </si>
+  <si>
+    <t>e_DE62-220,e_DE62-380,e_DE67-220,e_DE67-380,e_DE70-220,e_DE70-380,e_DE73-220,e_DE73-380,e_DE74-220,e_DE74-380,e_DE77-220,e_DE77-380,e_DE79-220,e_DE93-220,e_DE97-220,e_w23084417-220,e_w23380800-220,e_w23380800-380,e_w24462228-220,e_w24462317-220,e_w24462426-220,e_w24462426-380,e_w24478889-220,e_w24478889-380,e_w24479003-220,e_w24479003-380,e_w311444692-380,e_w35818134-220,e_w35818137-220,e_w37554416-220,e_w92024105-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0082,elc_spv-DEU_0082</t>
+  </si>
+  <si>
+    <t>e_w23682013-220,e_w23816140-220,e_w274621059-220,e_w33042984-220,e_w787265962-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0161,elc_spv-DEU_0161</t>
+  </si>
+  <si>
+    <t>e_w28729619-380,e_w398680313-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0125,elc_spv-DEU_0125</t>
+  </si>
+  <si>
+    <t>e_w28956649-220,e_w28956649-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0174,elc_spv-DEU_0174</t>
+  </si>
+  <si>
+    <t>e_w940922557-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0182,elc_spv-DEU_0182</t>
+  </si>
+  <si>
+    <t>e_w941805476-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0165,elc_spv-DEU_0165</t>
+  </si>
+  <si>
+    <t>e_w947118608-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0154,elc_spv-DEU_0154</t>
+  </si>
+  <si>
+    <t>e_DE206-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0077,elc_spv-DEU_0077</t>
+  </si>
+  <si>
+    <t>e_w148446247-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0107,elc_spv-DEU_0107</t>
+  </si>
+  <si>
+    <t>e_w24768051-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0127,elc_spv-DEU_0127</t>
+  </si>
+  <si>
+    <t>e_DE157-380,e_DE158-380,e_w93341407-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0042,elc_spv-DEU_0042</t>
+  </si>
+  <si>
+    <t>e_DE165-380,e_DE168-380,e_w1223405794-220,e_w1223405794-380,e_w147521567-220,e_w147521567-380,e_w149987048-220,e_w149987048-380,e_w23284340-220,e_w23284340-380,e_w24685992-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0076,elc_spv-DEU_0076</t>
+  </si>
+  <si>
+    <t>e_DE169-220,e_w24765111-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0155,elc_spv-DEU_0155</t>
+  </si>
+  <si>
+    <t>e_DE201-220,e_DE203-220,e_DE204-220,e_DE206-220,e_w24976300-220,e_w24976300-380,e_w91086220-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0103,elc_spv-DEU_0103</t>
+  </si>
+  <si>
+    <t>e_DE4-220,e_w27124619-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0002,elc_spv-DEU_0002</t>
+  </si>
+  <si>
+    <t>e_w1024536785-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0118,elc_spv-DEU_0118</t>
+  </si>
+  <si>
+    <t>e_w275466323,e_w275466323-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0142,elc_spv-DEU_0142</t>
+  </si>
+  <si>
+    <t>e_w29084374-220,e_w29084374-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0037,elc_spv-DEU_0037</t>
+  </si>
+  <si>
+    <t>e_w31367940-220,e_w31367940-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0166,elc_spv-DEU_0166</t>
+  </si>
+  <si>
+    <t>e_w39688875-220,e_w515358077-380,e_w941453716-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0119,elc_spv-DEU_0119</t>
+  </si>
+  <si>
+    <t>e_w275466323-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0187,elc_spv-DEU_0187</t>
+  </si>
+  <si>
+    <t>e_w170123812-400</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0115,elc_spv-DEU_0115</t>
+  </si>
+  <si>
+    <t>e_w26474759-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0004,elc_spv-DEU_0004</t>
+  </si>
+  <si>
+    <t>e_DE106-220,e_DE107-220,e_DE107-380,e_DE110-220,e_DE110-380,e_DE112-380,e_DE113-220,e_DE114-380,e_DE117-380,e_DE125-220,e_DE125-380,e_DE127-380,e_DE128-380,e_DE131-220,e_DE133-380,e_w1040551074-220,e_w188276460-220,e_w188276460-380,e_w23084554-220,e_w23084554-380,e_w24267175-220,e_w24479984-220,e_w24479984-380,e_w24799890-220,e_w24799890-380,e_w24815262-220,e_w24839976-220,e_w24839976-380,e_w26927264-380,e_w27919734-220,e_w27919734-380,e_w31762305-220,e_w49577401-220,e_w49577401-380,e_w91854336-220,e_w91854336-380,e_w92877635-220,e_w93278553-220,e_w95434457-220,e_w95434457-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0144,elc_spv-DEU_0144</t>
+  </si>
+  <si>
+    <t>e_DE142-380,e_w167352587-220,e_w173112252-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0177,elc_spv-DEU_0177</t>
+  </si>
+  <si>
+    <t>e_w1222597066-220,e_w1222597066-380,e_w30039908-220,e_w30039908-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0075,elc_spv-DEU_0075</t>
+  </si>
+  <si>
+    <t>e_w143854536-380,e_w31653753-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0106,elc_spv-DEU_0106</t>
+  </si>
+  <si>
+    <t>e_w18629425-220,e_w18629425-380,e_w53378027-380,e_w76246159-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0039,elc_spv-DEU_0039</t>
+  </si>
+  <si>
+    <t>e_w26814283-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0162,elc_spv-DEU_0162</t>
+  </si>
+  <si>
+    <t>e_w29331499-220,e_w29331499-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0167,elc_spv-DEU_0167</t>
+  </si>
+  <si>
+    <t>e_w946710698-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0006,elc_spv-DEU_0006</t>
+  </si>
+  <si>
+    <t>e_DE62-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0009,elc_spv-DEU_0009</t>
+  </si>
+  <si>
+    <t>e_w156402422-220</t>
+  </si>
+  <si>
     <t>elc_won-DEU_0130,elc_spv-DEU_0130</t>
   </si>
   <si>
@@ -4154,9 +4424,6 @@
     <t>elc_won-DEU_0117,elc_spv-DEU_0117</t>
   </si>
   <si>
-    <t>e_w30040568-380</t>
-  </si>
-  <si>
     <t>elc_won-DEU_0139,elc_spv-DEU_0139</t>
   </si>
   <si>
@@ -4187,6 +4454,534 @@
     <t>e_DE163-220</t>
   </si>
   <si>
+    <t>elc_won-DEU_0066,elc_spv-DEU_0066</t>
+  </si>
+  <si>
+    <t>e_DE15-220,e_w229565743-220,e_w28812249-220,e_w955268863-220,e_w955268863-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0043,elc_spv-DEU_0043</t>
+  </si>
+  <si>
+    <t>e_DE159-380,e_DE160-220,e_DE161-380,e_DE162-380,e_w169244940-220,e_w169244940-380,e_w23641079-220,e_w23641079-380,e_w38661452-380,e_w4826893-220,e_w62061952-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0175,elc_spv-DEU_0175</t>
+  </si>
+  <si>
+    <t>e_DE22-220,e_DE22-380,e_DE23-220,e_DE23-380,e_DE24-220,e_DE24-380,e_DE26-380,e_DE27-220,e_DE27-380,e_w22973052-220,e_w22973070-220,e_w22973070-380,e_w30954714-380,e_w940636813-220,e_w940636813-380,e_w942448206-220,e_w942448206-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0114,elc_spv-DEU_0114</t>
+  </si>
+  <si>
+    <t>e_DE44-380,e_w26474759-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0069,elc_spv-DEU_0069</t>
+  </si>
+  <si>
+    <t>e_w1071504343-380,e_w603661085-380,e_w907539360-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0179,elc_spv-DEU_0179</t>
+  </si>
+  <si>
+    <t>e_w1091984573-220,e_w1091984573-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0050,elc_spv-DEU_0050</t>
+  </si>
+  <si>
+    <t>e_w1134105414-380,e_w157421333-220,e_w266684854-380,e_w32076853-220,e_w32076853-380,e_w42872354-220,e_w829116805-220,e_w829116805-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0124,elc_spv-DEU_0124</t>
+  </si>
+  <si>
+    <t>e_w137602559-220,e_w137602559-380,e_w24759324-220,e_w24768051-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0045,elc_spv-DEU_0045</t>
+  </si>
+  <si>
+    <t>e_w42799487-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0156,elc_spv-DEU_0156</t>
+  </si>
+  <si>
+    <t>e_w78441561-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0129,elc_spv-DEU_0129</t>
+  </si>
+  <si>
+    <t>e_w29713902-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0020,elc_spv-DEU_0020</t>
+  </si>
+  <si>
+    <t>e_w559702819-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0052,elc_spv-DEU_0052</t>
+  </si>
+  <si>
+    <t>e_w603661085-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0053,elc_spv-DEU_0053</t>
+  </si>
+  <si>
+    <t>e_w946969736-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0181,elc_spv-DEU_0181</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0067,elc_spv-DEU_0067</t>
+  </si>
+  <si>
+    <t>e_DE13-380,e_DE14-380,e_w1072574879-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0024,elc_spv-DEU_0024</t>
+  </si>
+  <si>
+    <t>e_DE194-220,e_w39011884-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0021,elc_spv-DEU_0021</t>
+  </si>
+  <si>
+    <t>e_DE213-380,e_w202865176-220,e_w202865177-380,e_w88916034-220,e_w88916034-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0081,elc_spv-DEU_0081</t>
+  </si>
+  <si>
+    <t>e_DE55-220,e_DE57-380,e_w23899043-380,e_w30109913-220,e_w699048438-220,e_w810315511-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0086,elc_spv-DEU_0086</t>
+  </si>
+  <si>
+    <t>e_w27646106-220,e_w35176751-220,e_w35176751-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0070,elc_spv-DEU_0070</t>
+  </si>
+  <si>
+    <t>e_w449010725-380,e_w946969736-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0120,elc_spv-DEU_0120</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0143,elc_spv-DEU_0143</t>
+  </si>
+  <si>
+    <t>e_w167352587-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0158,elc_spv-DEU_0158</t>
+  </si>
+  <si>
+    <t>e_w166604822-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0014,elc_spv-DEU_0014</t>
+  </si>
+  <si>
+    <t>e_DE105-220,e_DE111-380,e_DE118-220,e_DE122-220,e_DE124-380,e_DE126-220,e_DE129-220,e_DE130-380,e_w106096507-380,e_w1118059105-220,e_w22690852-220,e_w22761692-220,e_w22761692-380,e_w22761839-220,e_w22761839-380,e_w23140544-220,e_w23192640-220,e_w25043127-380,e_w25044557-380,e_w27871140-220,e_w33816726-380,e_w87767098-380,e_w92165128-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0026,elc_spv-DEU_0026</t>
+  </si>
+  <si>
+    <t>e_DE166-220,e_DE171-220,e_w198448981-380,e_w373967500-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0065,elc_spv-DEU_0065</t>
+  </si>
+  <si>
+    <t>e_DE28-380,e_w202164315-380,e_w24604789-380,e_w27739871-220,e_w27739871-380,e_w953015049-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0132,elc_spv-DEU_0132</t>
+  </si>
+  <si>
+    <t>e_DE29-220,e_w33169401-220,e_w33169401-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0048,elc_spv-DEU_0048</t>
+  </si>
+  <si>
+    <t>e_DE30-220,e_DE30-380,e_DE32-220,e_DE33-380,e_DE34-380,e_DE35-220,e_DE35-380,e_w32904794-380,e_w33411203-220,e_w33411203-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0031,elc_spv-DEU_0031</t>
+  </si>
+  <si>
+    <t>e_DE37-220,e_DE38-220,e_DE53-380,e_DE56-380,e_w111973179-220,e_w114319248-220,e_w114319248-380,e_w25506770-380,e_w29472852-220,e_w29472852-380,e_w37764852-220,e_w37764852-380,e_w42861703-220,e_w42861703-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0030,elc_spv-DEU_0030</t>
+  </si>
+  <si>
+    <t>e_DE61-380,e_DE64-220,e_DE65-380,e_DE71-220,e_DE85-380,e_DE88-380,e_DE91-380,e_w112695048-380,e_w157628351-380,e_w24414688-220,e_w24667346-220,e_w24667346-380,e_w24858617-220,e_w42488850-380,e_w42507488-220,e_w42507488-380,e_w42560068-380,e_w42809973-380,e_w51940126-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0173,elc_spv-DEU_0173</t>
+  </si>
+  <si>
+    <t>e_w1068350839-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0033,elc_spv-DEU_0033</t>
+  </si>
+  <si>
+    <t>e_w50643382-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0135,elc_spv-DEU_0135</t>
+  </si>
+  <si>
+    <t>e_w234171369-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0128,elc_spv-DEU_0128</t>
+  </si>
+  <si>
+    <t>e_DE151-220,e_w1086825107-220,e_w1086825107-380,e_w148211527-380,e_w156673637-220,e_w156673637-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0001,elc_spv-DEU_0001</t>
+  </si>
+  <si>
+    <t>e_DE164-220,e_DE167-380,e_DE170-380,e_DE172-220,e_DE172-380,e_DE173-220,e_w145680894-220,e_w151967290-220,e_w151967290-380,e_w151967291-220,e_w151967291-380,e_w89176939-220,e_w89176956-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0184,elc_spv-DEU_0184</t>
+  </si>
+  <si>
+    <t>e_DE46-380,e_w52983550-380,e_w941198517-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0085,elc_spv-DEU_0085</t>
+  </si>
+  <si>
+    <t>e_DE7-220,e_DE8-380,e_w1107961833-380,e_w22720647-220,e_w22720647-380,e_w25306938-380,e_w28008024-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0071,elc_spv-DEU_0071</t>
+  </si>
+  <si>
+    <t>e_w31131320-220,e_w31131320-380,e_w31131325-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0138,elc_spv-DEU_0138</t>
+  </si>
+  <si>
+    <t>e_w75865676-220,e_w91080806-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0087,elc_spv-DEU_0087</t>
+  </si>
+  <si>
+    <t>e_w907539360-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0015,elc_spv-DEU_0015</t>
+  </si>
+  <si>
+    <t>e_DE100-220,e_DE100-380,e_DE102-220,e_DE102-380,e_DE66-220,e_DE66-380,e_DE68-220,e_DE68-380,e_DE69-220,e_DE69-380,e_DE72-220,e_DE75-380,e_DE76-380,e_DE78-220,e_DE80-220,e_DE80-380,e_DE81-220,e_DE82-220,e_DE83-220,e_DE84-220,e_DE86-220,e_DE87-220,e_DE87-380,e_DE89-220,e_DE89-380,e_DE92-220,e_DE96-220,e_DE96-380,e_DE98-220,e_w1076001174-220,e_w1076001174-380,e_w113546939-220,e_w113546939-380,e_w121199242-220,e_w121199242-380,e_w1303270458-220,e_w1303270458-380,e_w150267232-220,e_w156973363-220,e_w22944791-220,e_w22964137-380,e_w23022100-220,e_w23022100-380,e_w23067006-380,e_w24280460-380,e_w24415232-220,e_w24921206-220,e_w24921206-380,e_w25051880-220,e_w26291794-380,e_w275138524-380,e_w28452784-220,e_w29077623-220,e_w29077623-380,e_w311444691-380,e_w32472806-380,e_w35763480-220,e_w35763480-380,e_w38584673-220,e_w425100082-380,e_w59925390-220,e_w59925390-380,e_w63114179-220,e_w63114179-380,e_w66038431-220,e_w68549340-220,e_w68549340-380,e_w698870101-220,e_w787840119-220,e_w799361667-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0183,elc_spv-DEU_0183</t>
+  </si>
+  <si>
+    <t>e_DE58-380,e_DE99-380,e_w157806991-380,e_w30164703-380,e_w58429825-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0112,elc_spv-DEU_0112</t>
+  </si>
+  <si>
+    <t>e_w143882655-220,e_w143882655-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0078,elc_spv-DEU_0078</t>
+  </si>
+  <si>
+    <t>e_w148446247-380,e_w29309786-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0012,elc_spv-DEU_0012</t>
+  </si>
+  <si>
+    <t>e_w154869247-220,e_w395847307-220,e_w395847307-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0126,elc_spv-DEU_0126</t>
+  </si>
+  <si>
+    <t>e_w93341407-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0007,elc_spv-DEU_0007</t>
+  </si>
+  <si>
+    <t>e_w979801144-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0157,elc_spv-DEU_0157</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0083,elc_spv-DEU_0083</t>
+  </si>
+  <si>
+    <t>e_w23816140-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0029,elc_spv-DEU_0029</t>
+  </si>
+  <si>
+    <t>e_DE109-220,e_DE132-220,e_w132814303-220,e_w83916207-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0000,elc_spv-DEU_0000</t>
+  </si>
+  <si>
+    <t>e_DE175-220,e_DE177-220,e_w82773910-220,e_w82773910-380,e_w82773910-400,e_w89215122-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0057,elc_spv-DEU_0057</t>
+  </si>
+  <si>
+    <t>e_DE184-380,e_DE185-380,e_DE186-380,e_DE187-380,e_DE188-380,e_DE189-380,e_DE190-380,e_DE191-380,e_DE192-380,e_DE193-380,e_w147878692-380,e_w22960899-380,e_w25786404-220,e_w25786404-380,e_w37721677-380,e_w41334805-220,e_w41334805-380,e_w43688805-220,e_w43688805-380,e_w48428875-380,e_w97825259-220,e_w97825259-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0163,elc_spv-DEU_0163</t>
+  </si>
+  <si>
+    <t>e_DE21-220,e_DE25-380,e_w11500045-380,e_w27149550-220,e_w27149550-380,e_w30132758-380,e_w30303506-380,e_w30309989-220,e_w43163132-380,e_w46615737-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0099,elc_spv-DEU_0099</t>
+  </si>
+  <si>
+    <t>e_DE36-220,e_w24258096-380,e_w24272339-380,e_w24272541-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0016,elc_spv-DEU_0016</t>
+  </si>
+  <si>
+    <t>e_DE39-220,e_DE41-380,e_DE45-380,e_DE50-380,e_DE54-380,e_w844075808-380,e_w952346322-380,e_w979801144-220,e_w979801144-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0152,elc_spv-DEU_0152</t>
+  </si>
+  <si>
+    <t>e_DE5-380,e_w32063539-380,e_w32318130-220,e_w940919943</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0151,elc_spv-DEU_0151</t>
+  </si>
+  <si>
+    <t>e_w1094015892-220,e_w1094015892-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0102,elc_spv-DEU_0102</t>
+  </si>
+  <si>
+    <t>e_w1102237380-220,e_w1102237380-380,e_w1191459479-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0010,elc_spv-DEU_0010</t>
+  </si>
+  <si>
+    <t>e_w152018146-220,e_w152018146-380,e_w156402422-220,e_w207756597-220,e_w54359256-220,e_w54359256-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0122,elc_spv-DEU_0122</t>
+  </si>
+  <si>
+    <t>e_w24158385-220,e_w26245195-220,e_w26245195-380,e_w5404079-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0011,elc_spv-DEU_0011</t>
+  </si>
+  <si>
+    <t>e_w42097854-220,e_w42097854-380,e_w66764943-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0008,elc_spv-DEU_0008</t>
+  </si>
+  <si>
+    <t>e_w672738029-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0169,elc_spv-DEU_0169</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0092,elc_spv-DEU_0092</t>
+  </si>
+  <si>
+    <t>e_w24705761-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0095,elc_spv-DEU_0095</t>
+  </si>
+  <si>
+    <t>e_w948341123-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0111,elc_spv-DEU_0111</t>
+  </si>
+  <si>
+    <t>e_DE134-380,e_w149256409-380,e_w152219167-220,e_w25746125-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0003,elc_spv-DEU_0003</t>
+  </si>
+  <si>
+    <t>e_DE136-380,e_DE141-380,e_w24268944-380,e_w25426571-380,e_w25992879-380,e_w26593935-380,e_w870598507,e_w870598507-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0056,elc_spv-DEU_0056</t>
+  </si>
+  <si>
+    <t>e_DE195-380,e_DE196-380,e_DE197-380,e_DE198-380,e_DE199-380,e_w26260052-380,e_w30734324-380,e_w42736239-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0150,elc_spv-DEU_0150</t>
+  </si>
+  <si>
+    <t>e_DE9-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0032,elc_spv-DEU_0032</t>
+  </si>
+  <si>
+    <t>e_w150200540-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0025,elc_spv-DEU_0025</t>
+  </si>
+  <si>
+    <t>e_w152107815-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0160,elc_spv-DEU_0160</t>
+  </si>
+  <si>
+    <t>e_w157328339-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0109,elc_spv-DEU_0109</t>
+  </si>
+  <si>
+    <t>e_w24757393-380,e_w24757833-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0164,elc_spv-DEU_0164</t>
+  </si>
+  <si>
+    <t>e_w518455594-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0022,elc_spv-DEU_0022</t>
+  </si>
+  <si>
+    <t>e_w87653464-220,e_w87653464-380,e_w87653464-400</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0096,elc_spv-DEU_0096</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0153,elc_spv-DEU_0153</t>
+  </si>
+  <si>
+    <t>e_w91080806-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0168,elc_spv-DEU_0168</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0062,elc_spv-DEU_0062</t>
+  </si>
+  <si>
+    <t>e_DE121-380,e_w156673636-380,e_w41072584-380,e_w41232144-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0028,elc_spv-DEU_0028</t>
+  </si>
+  <si>
+    <t>e_DE135-220,e_DE137-220,e_DE137-380,e_DE140-380,e_DE143-380,e_DE145-220,e_DE147-380,e_DE148-220,e_DE148-380,e_DE150-380,e_w152403632-220,e_w152403632-380,e_w89043564-220,e_w89043564-380,e_w90148336-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0013,elc_spv-DEU_0013</t>
+  </si>
+  <si>
+    <t>e_DE138-220,e_DE138-380,e_DE139-220,e_DE139-380,e_DE144-380,e_DE153-380,e_DE154-380,e_w22765517-220,e_w22765517-380,e_w22766160-220,e_w22766160-380,e_w22767509-220,e_w22767509-380,e_w22796434-220,e_w26777313-380,e_w29374542-220,e_w32148946-220,e_w42423415-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0093,elc_spv-DEU_0093</t>
+  </si>
+  <si>
+    <t>e_DE163-220,e_w108797675-380,e_w24758329-380,e_w499165542-220,e_w499165542-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0080,elc_spv-DEU_0080</t>
+  </si>
+  <si>
+    <t>e_DE59-220,e_DE60-220,e_w952004951-220,e_w952004951-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0055,elc_spv-DEU_0055</t>
+  </si>
+  <si>
+    <t>e_w102743264-220,e_w25306752-220,e_w25306752-380,e_w31367936-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0101,elc_spv-DEU_0101</t>
+  </si>
+  <si>
+    <t>e_w1089911133-380,e_w23583867-380,e_w28327356-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0059,elc_spv-DEU_0059</t>
+  </si>
+  <si>
+    <t>e_w145002769-380,e_w55069713-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0091,elc_spv-DEU_0091</t>
+  </si>
+  <si>
+    <t>e_w38325076-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0019,elc_spv-DEU_0019</t>
+  </si>
+  <si>
+    <t>e_w559702819-220,e_w559702819-380,e_w672738029-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0147,elc_spv-DEU_0147</t>
+  </si>
+  <si>
+    <t>e_w40621568-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0171,elc_spv-DEU_0171</t>
+  </si>
+  <si>
+    <t>e_w942771541-380</t>
+  </si>
+  <si>
     <t>elc_won-DEU_0049,elc_spv-DEU_0049</t>
   </si>
   <si>
@@ -4226,9 +5021,6 @@
     <t>elc_won-DEU_0148,elc_spv-DEU_0148</t>
   </si>
   <si>
-    <t>e_w40621568-220</t>
-  </si>
-  <si>
     <t>elc_won-DEU_0178,elc_spv-DEU_0178</t>
   </si>
   <si>
@@ -4241,277 +5033,73 @@
     <t>e_w41389594-220</t>
   </si>
   <si>
-    <t>elc_won-DEU_0004,elc_spv-DEU_0004</t>
-  </si>
-  <si>
-    <t>e_DE106-220,e_DE107-220,e_DE107-380,e_DE110-220,e_DE110-380,e_DE112-380,e_DE113-220,e_DE114-380,e_DE117-380,e_DE125-220,e_DE125-380,e_DE127-380,e_DE128-380,e_DE131-220,e_DE133-380,e_w1040551074-220,e_w188276460-220,e_w188276460-380,e_w23084554-220,e_w23084554-380,e_w24267175-220,e_w24479984-220,e_w24479984-380,e_w24799890-220,e_w24799890-380,e_w24815262-220,e_w24839976-220,e_w24839976-380,e_w26927264-380,e_w27919734-220,e_w27919734-380,e_w31762305-220,e_w49577401-220,e_w49577401-380,e_w91854336-220,e_w91854336-380,e_w92877635-220,e_w93278553-220,e_w95434457-220,e_w95434457-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0144,elc_spv-DEU_0144</t>
-  </si>
-  <si>
-    <t>e_DE142-380,e_w167352587-220,e_w173112252-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0177,elc_spv-DEU_0177</t>
-  </si>
-  <si>
-    <t>e_w1222597066-220,e_w1222597066-380,e_w30039908-220,e_w30039908-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0075,elc_spv-DEU_0075</t>
-  </si>
-  <si>
-    <t>e_w143854536-380,e_w31653753-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0106,elc_spv-DEU_0106</t>
-  </si>
-  <si>
-    <t>e_w18629425-220,e_w18629425-380,e_w53378027-380,e_w76246159-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0039,elc_spv-DEU_0039</t>
-  </si>
-  <si>
-    <t>e_w26814283-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0162,elc_spv-DEU_0162</t>
-  </si>
-  <si>
-    <t>e_w29331499-220,e_w29331499-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0167,elc_spv-DEU_0167</t>
-  </si>
-  <si>
-    <t>e_w946710698-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0006,elc_spv-DEU_0006</t>
-  </si>
-  <si>
-    <t>e_DE62-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0009,elc_spv-DEU_0009</t>
-  </si>
-  <si>
-    <t>e_w156402422-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0128,elc_spv-DEU_0128</t>
-  </si>
-  <si>
-    <t>e_DE151-220,e_w1086825107-220,e_w1086825107-380,e_w148211527-380,e_w156673637-220,e_w156673637-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0001,elc_spv-DEU_0001</t>
-  </si>
-  <si>
-    <t>e_DE164-220,e_DE167-380,e_DE170-380,e_DE172-220,e_DE172-380,e_DE173-220,e_w145680894-220,e_w151967290-220,e_w151967290-380,e_w151967291-220,e_w151967291-380,e_w89176939-220,e_w89176956-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0184,elc_spv-DEU_0184</t>
-  </si>
-  <si>
-    <t>e_DE46-380,e_w52983550-380,e_w941198517-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0085,elc_spv-DEU_0085</t>
-  </si>
-  <si>
-    <t>e_DE7-220,e_DE8-380,e_w1107961833-380,e_w22720647-220,e_w22720647-380,e_w25306938-380,e_w28008024-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0071,elc_spv-DEU_0071</t>
-  </si>
-  <si>
-    <t>e_w31131320-220,e_w31131320-380,e_w31131325-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0138,elc_spv-DEU_0138</t>
-  </si>
-  <si>
-    <t>e_w75865676-220,e_w91080806-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0087,elc_spv-DEU_0087</t>
-  </si>
-  <si>
-    <t>e_w907539360-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0029,elc_spv-DEU_0029</t>
-  </si>
-  <si>
-    <t>e_DE109-220,e_DE132-220,e_w132814303-220,e_w83916207-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0000,elc_spv-DEU_0000</t>
-  </si>
-  <si>
-    <t>e_DE175-220,e_DE177-220,e_w82773910-220,e_w82773910-380,e_w82773910-400,e_w89215122-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0057,elc_spv-DEU_0057</t>
-  </si>
-  <si>
-    <t>e_DE184-380,e_DE185-380,e_DE186-380,e_DE187-380,e_DE188-380,e_DE189-380,e_DE190-380,e_DE191-380,e_DE192-380,e_DE193-380,e_w147878692-380,e_w22960899-380,e_w25786404-220,e_w25786404-380,e_w37721677-380,e_w41334805-220,e_w41334805-380,e_w43688805-220,e_w43688805-380,e_w48428875-380,e_w97825259-220,e_w97825259-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0163,elc_spv-DEU_0163</t>
-  </si>
-  <si>
-    <t>e_DE21-220,e_DE25-380,e_w11500045-380,e_w27149550-220,e_w27149550-380,e_w30132758-380,e_w30303506-380,e_w30309989-220,e_w43163132-380,e_w46615737-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0099,elc_spv-DEU_0099</t>
-  </si>
-  <si>
-    <t>e_DE36-220,e_w24258096-380,e_w24272339-380,e_w24272541-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0016,elc_spv-DEU_0016</t>
-  </si>
-  <si>
-    <t>e_DE39-220,e_DE41-380,e_DE45-380,e_DE50-380,e_DE54-380,e_w844075808-380,e_w952346322-380,e_w979801144-220,e_w979801144-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0152,elc_spv-DEU_0152</t>
-  </si>
-  <si>
-    <t>e_DE5-380,e_w32063539-380,e_w32318130-220,e_w940919943</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0151,elc_spv-DEU_0151</t>
-  </si>
-  <si>
-    <t>e_w1094015892-220,e_w1094015892-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0102,elc_spv-DEU_0102</t>
-  </si>
-  <si>
-    <t>e_w1102237380-220,e_w1102237380-380,e_w1191459479-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0010,elc_spv-DEU_0010</t>
-  </si>
-  <si>
-    <t>e_w152018146-220,e_w152018146-380,e_w156402422-220,e_w207756597-220,e_w54359256-220,e_w54359256-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0122,elc_spv-DEU_0122</t>
-  </si>
-  <si>
-    <t>e_w24158385-220,e_w26245195-220,e_w26245195-380,e_w5404079-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0011,elc_spv-DEU_0011</t>
-  </si>
-  <si>
-    <t>e_w42097854-220,e_w42097854-380,e_w66764943-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0008,elc_spv-DEU_0008</t>
-  </si>
-  <si>
-    <t>e_w672738029-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0169,elc_spv-DEU_0169</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0092,elc_spv-DEU_0092</t>
-  </si>
-  <si>
-    <t>e_w24705761-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0095,elc_spv-DEU_0095</t>
-  </si>
-  <si>
-    <t>e_w948341123-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0127,elc_spv-DEU_0127</t>
-  </si>
-  <si>
-    <t>e_DE157-380,e_DE158-380,e_w93341407-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0042,elc_spv-DEU_0042</t>
-  </si>
-  <si>
-    <t>e_DE165-380,e_DE168-380,e_w1223405794-220,e_w1223405794-380,e_w147521567-220,e_w147521567-380,e_w149987048-220,e_w149987048-380,e_w23284340-220,e_w23284340-380,e_w24685992-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0076,elc_spv-DEU_0076</t>
-  </si>
-  <si>
-    <t>e_DE169-220,e_w24765111-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0155,elc_spv-DEU_0155</t>
-  </si>
-  <si>
-    <t>e_DE201-220,e_DE203-220,e_DE204-220,e_DE206-220,e_w24976300-220,e_w24976300-380,e_w91086220-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0103,elc_spv-DEU_0103</t>
-  </si>
-  <si>
-    <t>e_DE4-220,e_w27124619-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0002,elc_spv-DEU_0002</t>
-  </si>
-  <si>
-    <t>e_w1024536785-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0118,elc_spv-DEU_0118</t>
-  </si>
-  <si>
-    <t>e_w275466323,e_w275466323-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0142,elc_spv-DEU_0142</t>
-  </si>
-  <si>
-    <t>e_w29084374-220,e_w29084374-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0037,elc_spv-DEU_0037</t>
-  </si>
-  <si>
-    <t>e_w31367940-220,e_w31367940-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0166,elc_spv-DEU_0166</t>
-  </si>
-  <si>
-    <t>e_w39688875-220,e_w515358077-380,e_w941453716-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0119,elc_spv-DEU_0119</t>
-  </si>
-  <si>
-    <t>e_w275466323-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0187,elc_spv-DEU_0187</t>
-  </si>
-  <si>
-    <t>e_w170123812-400</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0115,elc_spv-DEU_0115</t>
-  </si>
-  <si>
-    <t>e_w26474759-380</t>
+    <t>elc_won-DEU_0180,elc_spv-DEU_0180</t>
+  </si>
+  <si>
+    <t>e_DE1-220,e_DE2-220,e_DE3-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0079,elc_spv-DEU_0079</t>
+  </si>
+  <si>
+    <t>e_DE108-220,e_w156960655-380,e_w172997498-220,e_w456386244-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0176,elc_spv-DEU_0176</t>
+  </si>
+  <si>
+    <t>e_DE16-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0017,elc_spv-DEU_0017</t>
+  </si>
+  <si>
+    <t>e_DE31-380,e_w61918154-220,e_w61918154-380,e_w796306640-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0046,elc_spv-DEU_0046</t>
+  </si>
+  <si>
+    <t>e_DE63-220,e_DE94-380,e_DE95-380,e_w25943440-220,e_w25943440-380,e_w42797575-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0123,elc_spv-DEU_0123</t>
+  </si>
+  <si>
+    <t>e_w133342285-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0097,elc_spv-DEU_0097</t>
+  </si>
+  <si>
+    <t>e_w157164284-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0185,elc_spv-DEU_0185</t>
+  </si>
+  <si>
+    <t>e_w414169327-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0172,elc_spv-DEU_0172</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0141,elc_spv-DEU_0141</t>
+  </si>
+  <si>
+    <t>e_w28956649-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0149,elc_spv-DEU_0149</t>
+  </si>
+  <si>
+    <t>e_w851299584-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0035,elc_spv-DEU_0035</t>
+  </si>
+  <si>
+    <t>e_w29420322-220</t>
   </si>
   <si>
     <t>elc_won-DEU_0040,elc_spv-DEU_0040</t>
@@ -4589,9 +5177,6 @@
     <t>elc_won-DEU_0036,elc_spv-DEU_0036</t>
   </si>
   <si>
-    <t>e_w29420322-220</t>
-  </si>
-  <si>
     <t>elc_won-DEU_0188,elc_spv-DEU_0188</t>
   </si>
   <si>
@@ -4608,591 +5193,6 @@
   </si>
   <si>
     <t>e_w32690742-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0063,elc_spv-DEU_0063</t>
-  </si>
-  <si>
-    <t>e_DE104-380,e_w274630377-220,e_w274630377-380,e_w42681484-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0145,elc_spv-DEU_0145</t>
-  </si>
-  <si>
-    <t>e_DE119-380,e_w23161029-220,e_w32843531-220,e_w32843531-380,e_w442199284-380,e_w714098678-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0027,elc_spv-DEU_0027</t>
-  </si>
-  <si>
-    <t>e_DE155-380,e_DE156-380,e_w160584794-380,e_w50898216-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0058,elc_spv-DEU_0058</t>
-  </si>
-  <si>
-    <t>e_DE179-220,e_w1104947187-380,e_w1327333163-220,e_w1327333163-380,e_w143903369-220,e_w143903369-380,e_w159326655-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0068,elc_spv-DEU_0068</t>
-  </si>
-  <si>
-    <t>e_DE6-380,e_w1089769599-220,e_w1089769599-380,e_w1280364401-380,e_w289836713-380,e_w525964617,e_w525964629-380,e_w60032354-220,e_w87722999-220,e_w87722999-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0140,elc_spv-DEU_0140</t>
-  </si>
-  <si>
-    <t>e_w29417741-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0116,elc_spv-DEU_0116</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0136,elc_spv-DEU_0136</t>
-  </si>
-  <si>
-    <t>e_DE5-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0054,elc_spv-DEU_0054</t>
-  </si>
-  <si>
-    <t>e_w31367936-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0062,elc_spv-DEU_0062</t>
-  </si>
-  <si>
-    <t>e_DE121-380,e_w156673636-380,e_w41072584-380,e_w41232144-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0028,elc_spv-DEU_0028</t>
-  </si>
-  <si>
-    <t>e_DE135-220,e_DE137-220,e_DE137-380,e_DE140-380,e_DE143-380,e_DE145-220,e_DE147-380,e_DE148-220,e_DE148-380,e_DE150-380,e_w152403632-220,e_w152403632-380,e_w89043564-220,e_w89043564-380,e_w90148336-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0013,elc_spv-DEU_0013</t>
-  </si>
-  <si>
-    <t>e_DE138-220,e_DE138-380,e_DE139-220,e_DE139-380,e_DE144-380,e_DE153-380,e_DE154-380,e_w22765517-220,e_w22765517-380,e_w22766160-220,e_w22766160-380,e_w22767509-220,e_w22767509-380,e_w22796434-220,e_w26777313-380,e_w29374542-220,e_w32148946-220,e_w42423415-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0093,elc_spv-DEU_0093</t>
-  </si>
-  <si>
-    <t>e_DE163-220,e_w108797675-380,e_w24758329-380,e_w499165542-220,e_w499165542-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0080,elc_spv-DEU_0080</t>
-  </si>
-  <si>
-    <t>e_DE59-220,e_DE60-220,e_w952004951-220,e_w952004951-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0055,elc_spv-DEU_0055</t>
-  </si>
-  <si>
-    <t>e_w102743264-220,e_w25306752-220,e_w25306752-380,e_w31367936-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0101,elc_spv-DEU_0101</t>
-  </si>
-  <si>
-    <t>e_w1089911133-380,e_w23583867-380,e_w28327356-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0059,elc_spv-DEU_0059</t>
-  </si>
-  <si>
-    <t>e_w145002769-380,e_w55069713-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0091,elc_spv-DEU_0091</t>
-  </si>
-  <si>
-    <t>e_w38325076-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0019,elc_spv-DEU_0019</t>
-  </si>
-  <si>
-    <t>e_w559702819-220,e_w559702819-380,e_w672738029-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0147,elc_spv-DEU_0147</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0171,elc_spv-DEU_0171</t>
-  </si>
-  <si>
-    <t>e_w942771541-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0014,elc_spv-DEU_0014</t>
-  </si>
-  <si>
-    <t>e_DE105-220,e_DE111-380,e_DE118-220,e_DE122-220,e_DE124-380,e_DE126-220,e_DE129-220,e_DE130-380,e_w106096507-380,e_w1118059105-220,e_w22690852-220,e_w22761692-220,e_w22761692-380,e_w22761839-220,e_w22761839-380,e_w23140544-220,e_w23192640-220,e_w25043127-380,e_w25044557-380,e_w27871140-220,e_w33816726-380,e_w87767098-380,e_w92165128-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0026,elc_spv-DEU_0026</t>
-  </si>
-  <si>
-    <t>e_DE166-220,e_DE171-220,e_w198448981-380,e_w373967500-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0065,elc_spv-DEU_0065</t>
-  </si>
-  <si>
-    <t>e_DE28-380,e_w202164315-380,e_w24604789-380,e_w27739871-220,e_w27739871-380,e_w953015049-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0132,elc_spv-DEU_0132</t>
-  </si>
-  <si>
-    <t>e_DE29-220,e_w33169401-220,e_w33169401-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0048,elc_spv-DEU_0048</t>
-  </si>
-  <si>
-    <t>e_DE30-220,e_DE30-380,e_DE32-220,e_DE33-380,e_DE34-380,e_DE35-220,e_DE35-380,e_w32904794-380,e_w33411203-220,e_w33411203-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0031,elc_spv-DEU_0031</t>
-  </si>
-  <si>
-    <t>e_DE37-220,e_DE38-220,e_DE53-380,e_DE56-380,e_w111973179-220,e_w114319248-220,e_w114319248-380,e_w25506770-380,e_w29472852-220,e_w29472852-380,e_w37764852-220,e_w37764852-380,e_w42861703-220,e_w42861703-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0030,elc_spv-DEU_0030</t>
-  </si>
-  <si>
-    <t>e_DE61-380,e_DE64-220,e_DE65-380,e_DE71-220,e_DE85-380,e_DE88-380,e_DE91-380,e_w112695048-380,e_w157628351-380,e_w24414688-220,e_w24667346-220,e_w24667346-380,e_w24858617-220,e_w42488850-380,e_w42507488-220,e_w42507488-380,e_w42560068-380,e_w42809973-380,e_w51940126-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0173,elc_spv-DEU_0173</t>
-  </si>
-  <si>
-    <t>e_w1068350839-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0033,elc_spv-DEU_0033</t>
-  </si>
-  <si>
-    <t>e_w50643382-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0135,elc_spv-DEU_0135</t>
-  </si>
-  <si>
-    <t>e_w234171369-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0180,elc_spv-DEU_0180</t>
-  </si>
-  <si>
-    <t>e_DE1-220,e_DE2-220,e_DE3-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0079,elc_spv-DEU_0079</t>
-  </si>
-  <si>
-    <t>e_DE108-220,e_w156960655-380,e_w172997498-220,e_w456386244-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0176,elc_spv-DEU_0176</t>
-  </si>
-  <si>
-    <t>e_DE16-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0017,elc_spv-DEU_0017</t>
-  </si>
-  <si>
-    <t>e_DE31-380,e_w61918154-220,e_w61918154-380,e_w796306640-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0046,elc_spv-DEU_0046</t>
-  </si>
-  <si>
-    <t>e_DE63-220,e_DE94-380,e_DE95-380,e_w25943440-220,e_w25943440-380,e_w42797575-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0123,elc_spv-DEU_0123</t>
-  </si>
-  <si>
-    <t>e_w133342285-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0097,elc_spv-DEU_0097</t>
-  </si>
-  <si>
-    <t>e_w157164284-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0185,elc_spv-DEU_0185</t>
-  </si>
-  <si>
-    <t>e_w414169327-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0172,elc_spv-DEU_0172</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0141,elc_spv-DEU_0141</t>
-  </si>
-  <si>
-    <t>e_w28956649-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0149,elc_spv-DEU_0149</t>
-  </si>
-  <si>
-    <t>e_w851299584-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0035,elc_spv-DEU_0035</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0084,elc_spv-DEU_0084</t>
-  </si>
-  <si>
-    <t>e_DE10-380,e_DE11-380,e_DE12-380,e_w11285720-380,e_w24502420-380,e_w881636329-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0044,elc_spv-DEU_0044</t>
-  </si>
-  <si>
-    <t>e_DE146-380,e_DE152-380,e_w1245826064-380,e_w1245867884-380,e_w202747445-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0090,elc_spv-DEU_0090</t>
-  </si>
-  <si>
-    <t>e_DE200-380,e_w1093896544-380,e_w31105067-380,e_w88945213-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0005,elc_spv-DEU_0005</t>
-  </si>
-  <si>
-    <t>e_DE62-220,e_DE62-380,e_DE67-220,e_DE67-380,e_DE70-220,e_DE70-380,e_DE73-220,e_DE73-380,e_DE74-220,e_DE74-380,e_DE77-220,e_DE77-380,e_DE79-220,e_DE93-220,e_DE97-220,e_w23084417-220,e_w23380800-220,e_w23380800-380,e_w24462228-220,e_w24462317-220,e_w24462426-220,e_w24462426-380,e_w24478889-220,e_w24478889-380,e_w24479003-220,e_w24479003-380,e_w311444692-380,e_w35818134-220,e_w35818137-220,e_w37554416-220,e_w92024105-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0082,elc_spv-DEU_0082</t>
-  </si>
-  <si>
-    <t>e_w23682013-220,e_w23816140-220,e_w274621059-220,e_w33042984-220,e_w787265962-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0161,elc_spv-DEU_0161</t>
-  </si>
-  <si>
-    <t>e_w28729619-380,e_w398680313-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0125,elc_spv-DEU_0125</t>
-  </si>
-  <si>
-    <t>e_w28956649-220,e_w28956649-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0174,elc_spv-DEU_0174</t>
-  </si>
-  <si>
-    <t>e_w940922557-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0182,elc_spv-DEU_0182</t>
-  </si>
-  <si>
-    <t>e_w941805476-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0165,elc_spv-DEU_0165</t>
-  </si>
-  <si>
-    <t>e_w947118608-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0154,elc_spv-DEU_0154</t>
-  </si>
-  <si>
-    <t>e_DE206-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0077,elc_spv-DEU_0077</t>
-  </si>
-  <si>
-    <t>e_w148446247-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0107,elc_spv-DEU_0107</t>
-  </si>
-  <si>
-    <t>e_w24768051-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0015,elc_spv-DEU_0015</t>
-  </si>
-  <si>
-    <t>e_DE100-220,e_DE100-380,e_DE102-220,e_DE102-380,e_DE66-220,e_DE66-380,e_DE68-220,e_DE68-380,e_DE69-220,e_DE69-380,e_DE72-220,e_DE75-380,e_DE76-380,e_DE78-220,e_DE80-220,e_DE80-380,e_DE81-220,e_DE82-220,e_DE83-220,e_DE84-220,e_DE86-220,e_DE87-220,e_DE87-380,e_DE89-220,e_DE89-380,e_DE92-220,e_DE96-220,e_DE96-380,e_DE98-220,e_w1076001174-220,e_w1076001174-380,e_w113546939-220,e_w113546939-380,e_w121199242-220,e_w121199242-380,e_w1303270458-220,e_w1303270458-380,e_w150267232-220,e_w156973363-220,e_w22944791-220,e_w22964137-380,e_w23022100-220,e_w23022100-380,e_w23067006-380,e_w24280460-380,e_w24415232-220,e_w24921206-220,e_w24921206-380,e_w25051880-220,e_w26291794-380,e_w275138524-380,e_w28452784-220,e_w29077623-220,e_w29077623-380,e_w311444691-380,e_w32472806-380,e_w35763480-220,e_w35763480-380,e_w38584673-220,e_w425100082-380,e_w59925390-220,e_w59925390-380,e_w63114179-220,e_w63114179-380,e_w66038431-220,e_w68549340-220,e_w68549340-380,e_w698870101-220,e_w787840119-220,e_w799361667-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0183,elc_spv-DEU_0183</t>
-  </si>
-  <si>
-    <t>e_DE58-380,e_DE99-380,e_w157806991-380,e_w30164703-380,e_w58429825-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0112,elc_spv-DEU_0112</t>
-  </si>
-  <si>
-    <t>e_w143882655-220,e_w143882655-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0078,elc_spv-DEU_0078</t>
-  </si>
-  <si>
-    <t>e_w148446247-380,e_w29309786-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0012,elc_spv-DEU_0012</t>
-  </si>
-  <si>
-    <t>e_w154869247-220,e_w395847307-220,e_w395847307-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0126,elc_spv-DEU_0126</t>
-  </si>
-  <si>
-    <t>e_w93341407-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0007,elc_spv-DEU_0007</t>
-  </si>
-  <si>
-    <t>e_w979801144-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0157,elc_spv-DEU_0157</t>
-  </si>
-  <si>
-    <t>e_w78441561-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0083,elc_spv-DEU_0083</t>
-  </si>
-  <si>
-    <t>e_w23816140-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0111,elc_spv-DEU_0111</t>
-  </si>
-  <si>
-    <t>e_DE134-380,e_w149256409-380,e_w152219167-220,e_w25746125-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0003,elc_spv-DEU_0003</t>
-  </si>
-  <si>
-    <t>e_DE136-380,e_DE141-380,e_w24268944-380,e_w25426571-380,e_w25992879-380,e_w26593935-380,e_w870598507,e_w870598507-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0056,elc_spv-DEU_0056</t>
-  </si>
-  <si>
-    <t>e_DE195-380,e_DE196-380,e_DE197-380,e_DE198-380,e_DE199-380,e_w26260052-380,e_w30734324-380,e_w42736239-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0150,elc_spv-DEU_0150</t>
-  </si>
-  <si>
-    <t>e_DE9-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0032,elc_spv-DEU_0032</t>
-  </si>
-  <si>
-    <t>e_w150200540-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0025,elc_spv-DEU_0025</t>
-  </si>
-  <si>
-    <t>e_w152107815-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0160,elc_spv-DEU_0160</t>
-  </si>
-  <si>
-    <t>e_w157328339-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0109,elc_spv-DEU_0109</t>
-  </si>
-  <si>
-    <t>e_w24757393-380,e_w24757833-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0164,elc_spv-DEU_0164</t>
-  </si>
-  <si>
-    <t>e_w518455594-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0022,elc_spv-DEU_0022</t>
-  </si>
-  <si>
-    <t>e_w87653464-220,e_w87653464-380,e_w87653464-400</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0096,elc_spv-DEU_0096</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0153,elc_spv-DEU_0153</t>
-  </si>
-  <si>
-    <t>e_w91080806-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0168,elc_spv-DEU_0168</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0067,elc_spv-DEU_0067</t>
-  </si>
-  <si>
-    <t>e_DE13-380,e_DE14-380,e_w1072574879-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0024,elc_spv-DEU_0024</t>
-  </si>
-  <si>
-    <t>e_DE194-220,e_w39011884-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0021,elc_spv-DEU_0021</t>
-  </si>
-  <si>
-    <t>e_DE213-380,e_w202865176-220,e_w202865177-380,e_w88916034-220,e_w88916034-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0081,elc_spv-DEU_0081</t>
-  </si>
-  <si>
-    <t>e_DE55-220,e_DE57-380,e_w23899043-380,e_w30109913-220,e_w699048438-220,e_w810315511-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0086,elc_spv-DEU_0086</t>
-  </si>
-  <si>
-    <t>e_w27646106-220,e_w35176751-220,e_w35176751-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0070,elc_spv-DEU_0070</t>
-  </si>
-  <si>
-    <t>e_w449010725-380,e_w946969736-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0120,elc_spv-DEU_0120</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0143,elc_spv-DEU_0143</t>
-  </si>
-  <si>
-    <t>e_w167352587-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0158,elc_spv-DEU_0158</t>
-  </si>
-  <si>
-    <t>e_w166604822-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0066,elc_spv-DEU_0066</t>
-  </si>
-  <si>
-    <t>e_DE15-220,e_w229565743-220,e_w28812249-220,e_w955268863-220,e_w955268863-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0043,elc_spv-DEU_0043</t>
-  </si>
-  <si>
-    <t>e_DE159-380,e_DE160-220,e_DE161-380,e_DE162-380,e_w169244940-220,e_w169244940-380,e_w23641079-220,e_w23641079-380,e_w38661452-380,e_w4826893-220,e_w62061952-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0175,elc_spv-DEU_0175</t>
-  </si>
-  <si>
-    <t>e_DE22-220,e_DE22-380,e_DE23-220,e_DE23-380,e_DE24-220,e_DE24-380,e_DE26-380,e_DE27-220,e_DE27-380,e_w22973052-220,e_w22973070-220,e_w22973070-380,e_w30954714-380,e_w940636813-220,e_w940636813-380,e_w942448206-220,e_w942448206-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0114,elc_spv-DEU_0114</t>
-  </si>
-  <si>
-    <t>e_DE44-380,e_w26474759-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0069,elc_spv-DEU_0069</t>
-  </si>
-  <si>
-    <t>e_w1071504343-380,e_w603661085-380,e_w907539360-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0179,elc_spv-DEU_0179</t>
-  </si>
-  <si>
-    <t>e_w1091984573-220,e_w1091984573-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0050,elc_spv-DEU_0050</t>
-  </si>
-  <si>
-    <t>e_w1134105414-380,e_w157421333-220,e_w266684854-380,e_w32076853-220,e_w32076853-380,e_w42872354-220,e_w829116805-220,e_w829116805-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0124,elc_spv-DEU_0124</t>
-  </si>
-  <si>
-    <t>e_w137602559-220,e_w137602559-380,e_w24759324-220,e_w24768051-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0045,elc_spv-DEU_0045</t>
-  </si>
-  <si>
-    <t>e_w42799487-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0156,elc_spv-DEU_0156</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0129,elc_spv-DEU_0129</t>
-  </si>
-  <si>
-    <t>e_w29713902-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0020,elc_spv-DEU_0020</t>
-  </si>
-  <si>
-    <t>e_w559702819-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0052,elc_spv-DEU_0052</t>
-  </si>
-  <si>
-    <t>e_w603661085-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0053,elc_spv-DEU_0053</t>
-  </si>
-  <si>
-    <t>e_w946969736-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0181,elc_spv-DEU_0181</t>
   </si>
   <si>
     <t>e_won-DEU_0000</t>
@@ -14866,7 +14866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FE740A-ECF1-40F3-8C74-0DE68316C07F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B603A4-BFF0-4940-A9BD-8BED4BB4E14A}">
   <dimension ref="B9:AC198"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15038,7 +15038,7 @@
         <v>1</v>
       </c>
       <c r="AC11" t="s">
-        <v>823</v>
+        <v>689</v>
       </c>
     </row>
     <row r="12" spans="2:29">
@@ -15115,7 +15115,7 @@
         <v>1</v>
       </c>
       <c r="AC12" t="s">
-        <v>881</v>
+        <v>853</v>
       </c>
     </row>
     <row r="13" spans="2:29">
@@ -15192,7 +15192,7 @@
         <v>1</v>
       </c>
       <c r="AC13" t="s">
-        <v>641</v>
+        <v>619</v>
       </c>
     </row>
     <row r="14" spans="2:29">
@@ -15269,7 +15269,7 @@
         <v>1</v>
       </c>
       <c r="AC14" t="s">
-        <v>759</v>
+        <v>679</v>
       </c>
     </row>
     <row r="15" spans="2:29">
@@ -15346,7 +15346,7 @@
         <v>1</v>
       </c>
       <c r="AC15" t="s">
-        <v>659</v>
+        <v>699</v>
       </c>
     </row>
     <row r="16" spans="2:29">
@@ -15423,7 +15423,7 @@
         <v>1</v>
       </c>
       <c r="AC16" t="s">
-        <v>633</v>
+        <v>843</v>
       </c>
     </row>
     <row r="17" spans="2:29">
@@ -15500,7 +15500,7 @@
         <v>1</v>
       </c>
       <c r="AC17" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
     </row>
     <row r="18" spans="2:29">
@@ -15577,7 +15577,7 @@
         <v>1</v>
       </c>
       <c r="AC18" t="s">
-        <v>711</v>
+        <v>835</v>
       </c>
     </row>
     <row r="19" spans="2:29">
@@ -15654,7 +15654,7 @@
         <v>1</v>
       </c>
       <c r="AC19" t="s">
-        <v>763</v>
+        <v>671</v>
       </c>
     </row>
     <row r="20" spans="2:29">
@@ -15731,7 +15731,7 @@
         <v>1</v>
       </c>
       <c r="AC20" t="s">
-        <v>797</v>
+        <v>731</v>
       </c>
     </row>
     <row r="21" spans="2:29">
@@ -15808,7 +15808,7 @@
         <v>1</v>
       </c>
       <c r="AC21" t="s">
-        <v>841</v>
+        <v>653</v>
       </c>
     </row>
     <row r="22" spans="2:29">
@@ -15885,7 +15885,7 @@
         <v>1</v>
       </c>
       <c r="AC22" t="s">
-        <v>855</v>
+        <v>743</v>
       </c>
     </row>
     <row r="23" spans="2:29">
@@ -15962,7 +15962,7 @@
         <v>1</v>
       </c>
       <c r="AC23" t="s">
-        <v>805</v>
+        <v>575</v>
       </c>
     </row>
     <row r="24" spans="2:29">
@@ -16039,7 +16039,7 @@
         <v>1</v>
       </c>
       <c r="AC24" t="s">
-        <v>903</v>
+        <v>727</v>
       </c>
     </row>
     <row r="25" spans="2:29">
@@ -16116,7 +16116,7 @@
         <v>1</v>
       </c>
       <c r="AC25" t="s">
-        <v>751</v>
+        <v>885</v>
       </c>
     </row>
     <row r="26" spans="2:29">
@@ -16193,7 +16193,7 @@
         <v>1</v>
       </c>
       <c r="AC26" t="s">
-        <v>663</v>
+        <v>813</v>
       </c>
     </row>
     <row r="27" spans="2:29">
@@ -16270,7 +16270,7 @@
         <v>1</v>
       </c>
       <c r="AC27" t="s">
-        <v>647</v>
+        <v>911</v>
       </c>
     </row>
     <row r="28" spans="2:29">
@@ -16347,7 +16347,7 @@
         <v>1</v>
       </c>
       <c r="AC28" t="s">
-        <v>829</v>
+        <v>927</v>
       </c>
     </row>
     <row r="29" spans="2:29">
@@ -16424,7 +16424,7 @@
         <v>1</v>
       </c>
       <c r="AC29" t="s">
-        <v>831</v>
+        <v>893</v>
       </c>
     </row>
     <row r="30" spans="2:29">
@@ -16501,7 +16501,7 @@
         <v>1</v>
       </c>
       <c r="AC30" t="s">
-        <v>683</v>
+        <v>871</v>
       </c>
     </row>
     <row r="31" spans="2:29">
@@ -16578,7 +16578,7 @@
         <v>1</v>
       </c>
       <c r="AC31" t="s">
-        <v>779</v>
+        <v>717</v>
       </c>
     </row>
     <row r="32" spans="2:29">
@@ -16655,7 +16655,7 @@
         <v>1</v>
       </c>
       <c r="AC32" t="s">
-        <v>859</v>
+        <v>777</v>
       </c>
     </row>
     <row r="33" spans="2:29">
@@ -16732,7 +16732,7 @@
         <v>1</v>
       </c>
       <c r="AC33" t="s">
-        <v>919</v>
+        <v>817</v>
       </c>
     </row>
     <row r="34" spans="2:29">
@@ -16809,7 +16809,7 @@
         <v>1</v>
       </c>
       <c r="AC34" t="s">
-        <v>707</v>
+        <v>649</v>
       </c>
     </row>
     <row r="35" spans="2:29">
@@ -16886,7 +16886,7 @@
         <v>1</v>
       </c>
       <c r="AC35" t="s">
-        <v>573</v>
+        <v>715</v>
       </c>
     </row>
     <row r="36" spans="2:29">
@@ -16963,7 +16963,7 @@
         <v>1</v>
       </c>
       <c r="AC36" t="s">
-        <v>851</v>
+        <v>873</v>
       </c>
     </row>
     <row r="37" spans="2:29">
@@ -17040,7 +17040,7 @@
         <v>1</v>
       </c>
       <c r="AC37" t="s">
-        <v>917</v>
+        <v>769</v>
       </c>
     </row>
     <row r="38" spans="2:29">
@@ -17117,7 +17117,7 @@
         <v>1</v>
       </c>
       <c r="AC38" t="s">
-        <v>713</v>
+        <v>569</v>
       </c>
     </row>
     <row r="39" spans="2:29">
@@ -17194,7 +17194,7 @@
         <v>1</v>
       </c>
       <c r="AC39" t="s">
-        <v>775</v>
+        <v>799</v>
       </c>
     </row>
     <row r="40" spans="2:29">
@@ -17271,7 +17271,7 @@
         <v>1</v>
       </c>
       <c r="AC40" t="s">
-        <v>643</v>
+        <v>847</v>
       </c>
     </row>
     <row r="41" spans="2:29">
@@ -17348,7 +17348,7 @@
         <v>1</v>
       </c>
       <c r="AC41" t="s">
-        <v>887</v>
+        <v>639</v>
       </c>
     </row>
     <row r="42" spans="2:29">
@@ -17425,7 +17425,7 @@
         <v>1</v>
       </c>
       <c r="AC42" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="43" spans="2:29">
@@ -17502,7 +17502,7 @@
         <v>1</v>
       </c>
       <c r="AC43" t="s">
-        <v>577</v>
+        <v>801</v>
       </c>
     </row>
     <row r="44" spans="2:29">
@@ -17579,7 +17579,7 @@
         <v>1</v>
       </c>
       <c r="AC44" t="s">
-        <v>583</v>
+        <v>937</v>
       </c>
     </row>
     <row r="45" spans="2:29">
@@ -17656,7 +17656,7 @@
         <v>1</v>
       </c>
       <c r="AC45" t="s">
-        <v>819</v>
+        <v>793</v>
       </c>
     </row>
     <row r="46" spans="2:29">
@@ -17733,7 +17733,7 @@
         <v>1</v>
       </c>
       <c r="AC46" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="47" spans="2:29">
@@ -17810,7 +17810,7 @@
         <v>1</v>
       </c>
       <c r="AC47" t="s">
-        <v>931</v>
+        <v>851</v>
       </c>
     </row>
     <row r="48" spans="2:29">
@@ -17887,7 +17887,7 @@
         <v>1</v>
       </c>
       <c r="AC48" t="s">
-        <v>733</v>
+        <v>917</v>
       </c>
     </row>
     <row r="49" spans="2:29">
@@ -17964,7 +17964,7 @@
         <v>1</v>
       </c>
       <c r="AC49" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
     </row>
     <row r="50" spans="2:29">
@@ -18041,7 +18041,7 @@
         <v>1</v>
       </c>
       <c r="AC50" t="s">
-        <v>839</v>
+        <v>775</v>
       </c>
     </row>
     <row r="51" spans="2:29">
@@ -18118,7 +18118,7 @@
         <v>1</v>
       </c>
       <c r="AC51" t="s">
-        <v>737</v>
+        <v>643</v>
       </c>
     </row>
     <row r="52" spans="2:29">
@@ -18195,7 +18195,7 @@
         <v>1</v>
       </c>
       <c r="AC52" t="s">
-        <v>623</v>
+        <v>887</v>
       </c>
     </row>
     <row r="53" spans="2:29">
@@ -18272,7 +18272,7 @@
         <v>1</v>
       </c>
       <c r="AC53" t="s">
-        <v>565</v>
+        <v>897</v>
       </c>
     </row>
     <row r="54" spans="2:29">
@@ -18349,7 +18349,7 @@
         <v>1</v>
       </c>
       <c r="AC54" t="s">
-        <v>677</v>
+        <v>577</v>
       </c>
     </row>
     <row r="55" spans="2:29">
@@ -18426,7 +18426,7 @@
         <v>1</v>
       </c>
       <c r="AC55" t="s">
-        <v>889</v>
+        <v>583</v>
       </c>
     </row>
     <row r="56" spans="2:29">
@@ -18503,7 +18503,7 @@
         <v>1</v>
       </c>
       <c r="AC56" t="s">
-        <v>761</v>
+        <v>823</v>
       </c>
     </row>
     <row r="57" spans="2:29">
@@ -18580,7 +18580,7 @@
         <v>1</v>
       </c>
       <c r="AC57" t="s">
-        <v>597</v>
+        <v>881</v>
       </c>
     </row>
     <row r="58" spans="2:29">
@@ -18657,7 +18657,7 @@
         <v>1</v>
       </c>
       <c r="AC58" t="s">
-        <v>867</v>
+        <v>641</v>
       </c>
     </row>
     <row r="59" spans="2:29">
@@ -18734,7 +18734,7 @@
         <v>1</v>
       </c>
       <c r="AC59" t="s">
-        <v>865</v>
+        <v>759</v>
       </c>
     </row>
     <row r="60" spans="2:29">
@@ -18811,7 +18811,7 @@
         <v>1</v>
       </c>
       <c r="AC60" t="s">
-        <v>767</v>
+        <v>659</v>
       </c>
     </row>
     <row r="61" spans="2:29">
@@ -18888,7 +18888,7 @@
         <v>1</v>
       </c>
       <c r="AC61" t="s">
-        <v>585</v>
+        <v>633</v>
       </c>
     </row>
     <row r="62" spans="2:29">
@@ -18965,7 +18965,7 @@
         <v>1</v>
       </c>
       <c r="AC62" t="s">
-        <v>807</v>
+        <v>783</v>
       </c>
     </row>
     <row r="63" spans="2:29">
@@ -19042,7 +19042,7 @@
         <v>1</v>
       </c>
       <c r="AC63" t="s">
-        <v>587</v>
+        <v>711</v>
       </c>
     </row>
     <row r="64" spans="2:29">
@@ -19119,7 +19119,7 @@
         <v>1</v>
       </c>
       <c r="AC64" t="s">
-        <v>581</v>
+        <v>763</v>
       </c>
     </row>
     <row r="65" spans="2:29">
@@ -19190,13 +19190,13 @@
         <v>1430</v>
       </c>
       <c r="AA65" t="s">
-        <v>1349</v>
+        <v>1335</v>
       </c>
       <c r="AB65">
         <v>1</v>
       </c>
       <c r="AC65" t="s">
-        <v>901</v>
+        <v>797</v>
       </c>
     </row>
     <row r="66" spans="2:29">
@@ -19273,7 +19273,7 @@
         <v>1</v>
       </c>
       <c r="AC66" t="s">
-        <v>747</v>
+        <v>841</v>
       </c>
     </row>
     <row r="67" spans="2:29">
@@ -19350,7 +19350,7 @@
         <v>1</v>
       </c>
       <c r="AC67" t="s">
-        <v>753</v>
+        <v>855</v>
       </c>
     </row>
     <row r="68" spans="2:29">
@@ -19427,7 +19427,7 @@
         <v>1</v>
       </c>
       <c r="AC68" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
     </row>
     <row r="69" spans="2:29">
@@ -19504,7 +19504,7 @@
         <v>1</v>
       </c>
       <c r="AC69" t="s">
-        <v>649</v>
+        <v>903</v>
       </c>
     </row>
     <row r="70" spans="2:29">
@@ -19581,7 +19581,7 @@
         <v>1</v>
       </c>
       <c r="AC70" t="s">
-        <v>715</v>
+        <v>751</v>
       </c>
     </row>
     <row r="71" spans="2:29">
@@ -19658,7 +19658,7 @@
         <v>1</v>
       </c>
       <c r="AC71" t="s">
-        <v>873</v>
+        <v>695</v>
       </c>
     </row>
     <row r="72" spans="2:29">
@@ -19735,7 +19735,7 @@
         <v>1</v>
       </c>
       <c r="AC72" t="s">
-        <v>769</v>
+        <v>651</v>
       </c>
     </row>
     <row r="73" spans="2:29">
@@ -19812,7 +19812,7 @@
         <v>1</v>
       </c>
       <c r="AC73" t="s">
-        <v>569</v>
+        <v>913</v>
       </c>
     </row>
     <row r="74" spans="2:29">
@@ -19889,7 +19889,7 @@
         <v>1</v>
       </c>
       <c r="AC74" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
     </row>
     <row r="75" spans="2:29">
@@ -19966,7 +19966,7 @@
         <v>1</v>
       </c>
       <c r="AC75" t="s">
-        <v>847</v>
+        <v>701</v>
       </c>
     </row>
     <row r="76" spans="2:29">
@@ -20043,7 +20043,7 @@
         <v>1</v>
       </c>
       <c r="AC76" t="s">
-        <v>639</v>
+        <v>921</v>
       </c>
     </row>
     <row r="77" spans="2:29">
@@ -20120,7 +20120,7 @@
         <v>1</v>
       </c>
       <c r="AC77" t="s">
-        <v>895</v>
+        <v>665</v>
       </c>
     </row>
     <row r="78" spans="2:29">
@@ -20197,7 +20197,7 @@
         <v>1</v>
       </c>
       <c r="AC78" t="s">
-        <v>801</v>
+        <v>811</v>
       </c>
     </row>
     <row r="79" spans="2:29">
@@ -20274,7 +20274,7 @@
         <v>1</v>
       </c>
       <c r="AC79" t="s">
-        <v>937</v>
+        <v>655</v>
       </c>
     </row>
     <row r="80" spans="2:29">
@@ -20351,7 +20351,7 @@
         <v>1</v>
       </c>
       <c r="AC80" t="s">
-        <v>793</v>
+        <v>875</v>
       </c>
     </row>
     <row r="81" spans="2:29">
@@ -20428,7 +20428,7 @@
         <v>1</v>
       </c>
       <c r="AC81" t="s">
-        <v>645</v>
+        <v>821</v>
       </c>
     </row>
     <row r="82" spans="2:29">
@@ -20505,7 +20505,7 @@
         <v>1</v>
       </c>
       <c r="AC82" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="83" spans="2:29">
@@ -20582,7 +20582,7 @@
         <v>1</v>
       </c>
       <c r="AC83" t="s">
-        <v>709</v>
+        <v>667</v>
       </c>
     </row>
     <row r="84" spans="2:29">
@@ -20659,7 +20659,7 @@
         <v>1</v>
       </c>
       <c r="AC84" t="s">
-        <v>771</v>
+        <v>669</v>
       </c>
     </row>
     <row r="85" spans="2:29">
@@ -20730,13 +20730,13 @@
         <v>1469</v>
       </c>
       <c r="AA85" t="s">
-        <v>1470</v>
+        <v>1357</v>
       </c>
       <c r="AB85">
         <v>1</v>
       </c>
       <c r="AC85" t="s">
-        <v>825</v>
+        <v>925</v>
       </c>
     </row>
     <row r="86" spans="2:29">
@@ -20804,16 +20804,16 @@
         <v>1095</v>
       </c>
       <c r="Z86" t="s">
+        <v>1470</v>
+      </c>
+      <c r="AA86" t="s">
         <v>1471</v>
       </c>
-      <c r="AA86" t="s">
-        <v>1472</v>
-      </c>
       <c r="AB86">
         <v>1</v>
       </c>
       <c r="AC86" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
     </row>
     <row r="87" spans="2:29">
@@ -20881,16 +20881,16 @@
         <v>1097</v>
       </c>
       <c r="Z87" t="s">
+        <v>1472</v>
+      </c>
+      <c r="AA87" t="s">
         <v>1473</v>
       </c>
-      <c r="AA87" t="s">
-        <v>1474</v>
-      </c>
       <c r="AB87">
         <v>1</v>
       </c>
       <c r="AC87" t="s">
-        <v>935</v>
+        <v>613</v>
       </c>
     </row>
     <row r="88" spans="2:29">
@@ -20958,16 +20958,16 @@
         <v>1099</v>
       </c>
       <c r="Z88" t="s">
+        <v>1474</v>
+      </c>
+      <c r="AA88" t="s">
         <v>1475</v>
       </c>
-      <c r="AA88" t="s">
-        <v>1476</v>
-      </c>
       <c r="AB88">
         <v>1</v>
       </c>
       <c r="AC88" t="s">
-        <v>773</v>
+        <v>607</v>
       </c>
     </row>
     <row r="89" spans="2:29">
@@ -21035,16 +21035,16 @@
         <v>1101</v>
       </c>
       <c r="Z89" t="s">
+        <v>1476</v>
+      </c>
+      <c r="AA89" t="s">
         <v>1477</v>
       </c>
-      <c r="AA89" t="s">
-        <v>1478</v>
-      </c>
       <c r="AB89">
         <v>1</v>
       </c>
       <c r="AC89" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
     </row>
     <row r="90" spans="2:29">
@@ -21112,16 +21112,16 @@
         <v>1103</v>
       </c>
       <c r="Z90" t="s">
+        <v>1478</v>
+      </c>
+      <c r="AA90" t="s">
         <v>1479</v>
       </c>
-      <c r="AA90" t="s">
-        <v>1480</v>
-      </c>
       <c r="AB90">
         <v>1</v>
       </c>
       <c r="AC90" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="91" spans="2:29">
@@ -21189,16 +21189,16 @@
         <v>1105</v>
       </c>
       <c r="Z91" t="s">
+        <v>1480</v>
+      </c>
+      <c r="AA91" t="s">
         <v>1481</v>
       </c>
-      <c r="AA91" t="s">
-        <v>1482</v>
-      </c>
       <c r="AB91">
         <v>1</v>
       </c>
       <c r="AC91" t="s">
-        <v>611</v>
+        <v>703</v>
       </c>
     </row>
     <row r="92" spans="2:29">
@@ -21266,16 +21266,16 @@
         <v>1107</v>
       </c>
       <c r="Z92" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="AA92" t="s">
-        <v>1484</v>
+        <v>1387</v>
       </c>
       <c r="AB92">
         <v>1</v>
       </c>
       <c r="AC92" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="93" spans="2:29">
@@ -21343,16 +21343,16 @@
         <v>1109</v>
       </c>
       <c r="Z93" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="AA93" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="AB93">
         <v>1</v>
       </c>
       <c r="AC93" t="s">
-        <v>637</v>
+        <v>849</v>
       </c>
     </row>
     <row r="94" spans="2:29">
@@ -21420,16 +21420,16 @@
         <v>1111</v>
       </c>
       <c r="Z94" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="AA94" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="AB94">
         <v>1</v>
       </c>
       <c r="AC94" t="s">
-        <v>939</v>
+        <v>879</v>
       </c>
     </row>
     <row r="95" spans="2:29">
@@ -21497,16 +21497,16 @@
         <v>1113</v>
       </c>
       <c r="Z95" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="AA95" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="AB95">
         <v>1</v>
       </c>
       <c r="AC95" t="s">
-        <v>685</v>
+        <v>593</v>
       </c>
     </row>
     <row r="96" spans="2:29">
@@ -21574,16 +21574,16 @@
         <v>1115</v>
       </c>
       <c r="Z96" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="AA96" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="AB96">
         <v>1</v>
       </c>
       <c r="AC96" t="s">
-        <v>789</v>
+        <v>617</v>
       </c>
     </row>
     <row r="97" spans="2:29">
@@ -21651,16 +21651,16 @@
         <v>1117</v>
       </c>
       <c r="Z97" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="AA97" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="AB97">
         <v>1</v>
       </c>
       <c r="AC97" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
     </row>
     <row r="98" spans="2:29">
@@ -21728,16 +21728,16 @@
         <v>1119</v>
       </c>
       <c r="Z98" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="AA98" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="AB98">
         <v>1</v>
       </c>
       <c r="AC98" t="s">
-        <v>853</v>
+        <v>827</v>
       </c>
     </row>
     <row r="99" spans="2:29">
@@ -21805,16 +21805,16 @@
         <v>1121</v>
       </c>
       <c r="Z99" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="AA99" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="AB99">
         <v>1</v>
       </c>
       <c r="AC99" t="s">
-        <v>619</v>
+        <v>661</v>
       </c>
     </row>
     <row r="100" spans="2:29">
@@ -21882,16 +21882,16 @@
         <v>1123</v>
       </c>
       <c r="Z100" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="AA100" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="AB100">
         <v>1</v>
       </c>
       <c r="AC100" t="s">
-        <v>679</v>
+        <v>627</v>
       </c>
     </row>
     <row r="101" spans="2:29">
@@ -21959,16 +21959,16 @@
         <v>1125</v>
       </c>
       <c r="Z101" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="AA101" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="AB101">
         <v>1</v>
       </c>
       <c r="AC101" t="s">
-        <v>699</v>
+        <v>625</v>
       </c>
     </row>
     <row r="102" spans="2:29">
@@ -22036,16 +22036,16 @@
         <v>1127</v>
       </c>
       <c r="Z102" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="AA102" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="AB102">
         <v>1</v>
       </c>
       <c r="AC102" t="s">
-        <v>843</v>
+        <v>909</v>
       </c>
     </row>
     <row r="103" spans="2:29">
@@ -22113,16 +22113,16 @@
         <v>1129</v>
       </c>
       <c r="Z103" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="AA103" t="s">
-        <v>1341</v>
+        <v>1504</v>
       </c>
       <c r="AB103">
         <v>1</v>
       </c>
       <c r="AC103" t="s">
-        <v>795</v>
+        <v>631</v>
       </c>
     </row>
     <row r="104" spans="2:29">
@@ -22190,16 +22190,16 @@
         <v>1131</v>
       </c>
       <c r="Z104" t="s">
+        <v>1505</v>
+      </c>
+      <c r="AA104" t="s">
         <v>1506</v>
       </c>
-      <c r="AA104" t="s">
-        <v>1507</v>
-      </c>
       <c r="AB104">
         <v>1</v>
       </c>
       <c r="AC104" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="105" spans="2:29">
@@ -22267,16 +22267,16 @@
         <v>1133</v>
       </c>
       <c r="Z105" t="s">
+        <v>1507</v>
+      </c>
+      <c r="AA105" t="s">
         <v>1508</v>
       </c>
-      <c r="AA105" t="s">
-        <v>1509</v>
-      </c>
       <c r="AB105">
         <v>1</v>
       </c>
       <c r="AC105" t="s">
-        <v>671</v>
+        <v>819</v>
       </c>
     </row>
     <row r="106" spans="2:29">
@@ -22344,16 +22344,16 @@
         <v>1135</v>
       </c>
       <c r="Z106" t="s">
+        <v>1509</v>
+      </c>
+      <c r="AA106" t="s">
         <v>1510</v>
       </c>
-      <c r="AA106" t="s">
-        <v>1511</v>
-      </c>
       <c r="AB106">
         <v>1</v>
       </c>
       <c r="AC106" t="s">
-        <v>687</v>
+        <v>567</v>
       </c>
     </row>
     <row r="107" spans="2:29">
@@ -22421,16 +22421,16 @@
         <v>1137</v>
       </c>
       <c r="Z107" t="s">
+        <v>1511</v>
+      </c>
+      <c r="AA107" t="s">
         <v>1512</v>
       </c>
-      <c r="AA107" t="s">
-        <v>1513</v>
-      </c>
       <c r="AB107">
         <v>1</v>
       </c>
       <c r="AC107" t="s">
-        <v>621</v>
+        <v>931</v>
       </c>
     </row>
     <row r="108" spans="2:29">
@@ -22498,16 +22498,16 @@
         <v>1139</v>
       </c>
       <c r="Z108" t="s">
+        <v>1513</v>
+      </c>
+      <c r="AA108" t="s">
         <v>1514</v>
       </c>
-      <c r="AA108" t="s">
-        <v>1515</v>
-      </c>
       <c r="AB108">
         <v>1</v>
       </c>
       <c r="AC108" t="s">
-        <v>591</v>
+        <v>733</v>
       </c>
     </row>
     <row r="109" spans="2:29">
@@ -22575,16 +22575,16 @@
         <v>1141</v>
       </c>
       <c r="Z109" t="s">
+        <v>1515</v>
+      </c>
+      <c r="AA109" t="s">
         <v>1516</v>
       </c>
-      <c r="AA109" t="s">
-        <v>1517</v>
-      </c>
       <c r="AB109">
         <v>1</v>
       </c>
       <c r="AC109" t="s">
-        <v>749</v>
+        <v>705</v>
       </c>
     </row>
     <row r="110" spans="2:29">
@@ -22652,16 +22652,16 @@
         <v>1143</v>
       </c>
       <c r="Z110" t="s">
+        <v>1517</v>
+      </c>
+      <c r="AA110" t="s">
         <v>1518</v>
       </c>
-      <c r="AA110" t="s">
-        <v>1519</v>
-      </c>
       <c r="AB110">
         <v>1</v>
       </c>
       <c r="AC110" t="s">
-        <v>723</v>
+        <v>839</v>
       </c>
     </row>
     <row r="111" spans="2:29">
@@ -22729,16 +22729,16 @@
         <v>1145</v>
       </c>
       <c r="Z111" t="s">
+        <v>1519</v>
+      </c>
+      <c r="AA111" t="s">
         <v>1520</v>
       </c>
-      <c r="AA111" t="s">
-        <v>1521</v>
-      </c>
       <c r="AB111">
         <v>1</v>
       </c>
       <c r="AC111" t="s">
-        <v>673</v>
+        <v>737</v>
       </c>
     </row>
     <row r="112" spans="2:29">
@@ -22806,16 +22806,16 @@
         <v>1147</v>
       </c>
       <c r="Z112" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AA112" t="s">
         <v>1522</v>
       </c>
-      <c r="AA112" t="s">
-        <v>1523</v>
-      </c>
       <c r="AB112">
         <v>1</v>
       </c>
       <c r="AC112" t="s">
-        <v>765</v>
+        <v>595</v>
       </c>
     </row>
     <row r="113" spans="2:29">
@@ -22883,16 +22883,16 @@
         <v>1149</v>
       </c>
       <c r="Z113" t="s">
+        <v>1523</v>
+      </c>
+      <c r="AA113" t="s">
         <v>1524</v>
       </c>
-      <c r="AA113" t="s">
-        <v>1525</v>
-      </c>
       <c r="AB113">
         <v>1</v>
       </c>
       <c r="AC113" t="s">
-        <v>681</v>
+        <v>929</v>
       </c>
     </row>
     <row r="114" spans="2:29">
@@ -22960,16 +22960,16 @@
         <v>1151</v>
       </c>
       <c r="Z114" t="s">
+        <v>1525</v>
+      </c>
+      <c r="AA114" t="s">
         <v>1526</v>
       </c>
-      <c r="AA114" t="s">
-        <v>1527</v>
-      </c>
       <c r="AB114">
         <v>1</v>
       </c>
       <c r="AC114" t="s">
-        <v>745</v>
+        <v>787</v>
       </c>
     </row>
     <row r="115" spans="2:29">
@@ -23037,16 +23037,16 @@
         <v>1153</v>
       </c>
       <c r="Z115" t="s">
+        <v>1527</v>
+      </c>
+      <c r="AA115" t="s">
         <v>1528</v>
       </c>
-      <c r="AA115" t="s">
-        <v>1529</v>
-      </c>
       <c r="AB115">
         <v>1</v>
       </c>
       <c r="AC115" t="s">
-        <v>603</v>
+        <v>719</v>
       </c>
     </row>
     <row r="116" spans="2:29">
@@ -23114,16 +23114,16 @@
         <v>1155</v>
       </c>
       <c r="Z116" t="s">
+        <v>1529</v>
+      </c>
+      <c r="AA116" t="s">
         <v>1530</v>
       </c>
-      <c r="AA116" t="s">
-        <v>1365</v>
-      </c>
       <c r="AB116">
         <v>1</v>
       </c>
       <c r="AC116" t="s">
-        <v>857</v>
+        <v>589</v>
       </c>
     </row>
     <row r="117" spans="2:29">
@@ -23200,7 +23200,7 @@
         <v>1</v>
       </c>
       <c r="AC117" t="s">
-        <v>905</v>
+        <v>815</v>
       </c>
     </row>
     <row r="118" spans="2:29">
@@ -23277,7 +23277,7 @@
         <v>1</v>
       </c>
       <c r="AC118" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
     </row>
     <row r="119" spans="2:29">
@@ -23348,13 +23348,13 @@
         <v>1535</v>
       </c>
       <c r="AA119" t="s">
-        <v>1536</v>
+        <v>1460</v>
       </c>
       <c r="AB119">
         <v>1</v>
       </c>
       <c r="AC119" t="s">
-        <v>617</v>
+        <v>877</v>
       </c>
     </row>
     <row r="120" spans="2:29">
@@ -23422,16 +23422,16 @@
         <v>1163</v>
       </c>
       <c r="Z120" t="s">
+        <v>1536</v>
+      </c>
+      <c r="AA120" t="s">
         <v>1537</v>
       </c>
-      <c r="AA120" t="s">
-        <v>1538</v>
-      </c>
       <c r="AB120">
         <v>1</v>
       </c>
       <c r="AC120" t="s">
-        <v>693</v>
+        <v>729</v>
       </c>
     </row>
     <row r="121" spans="2:29">
@@ -23499,16 +23499,16 @@
         <v>1165</v>
       </c>
       <c r="Z121" t="s">
+        <v>1538</v>
+      </c>
+      <c r="AA121" t="s">
         <v>1539</v>
       </c>
-      <c r="AA121" t="s">
-        <v>1540</v>
-      </c>
       <c r="AB121">
         <v>1</v>
       </c>
       <c r="AC121" t="s">
-        <v>827</v>
+        <v>623</v>
       </c>
     </row>
     <row r="122" spans="2:29">
@@ -23576,16 +23576,16 @@
         <v>1167</v>
       </c>
       <c r="Z122" t="s">
+        <v>1540</v>
+      </c>
+      <c r="AA122" t="s">
         <v>1541</v>
       </c>
-      <c r="AA122" t="s">
-        <v>1542</v>
-      </c>
       <c r="AB122">
         <v>1</v>
       </c>
       <c r="AC122" t="s">
-        <v>661</v>
+        <v>565</v>
       </c>
     </row>
     <row r="123" spans="2:29">
@@ -23653,16 +23653,16 @@
         <v>1169</v>
       </c>
       <c r="Z123" t="s">
+        <v>1542</v>
+      </c>
+      <c r="AA123" t="s">
         <v>1543</v>
       </c>
-      <c r="AA123" t="s">
-        <v>1544</v>
-      </c>
       <c r="AB123">
         <v>1</v>
       </c>
       <c r="AC123" t="s">
-        <v>627</v>
+        <v>677</v>
       </c>
     </row>
     <row r="124" spans="2:29">
@@ -23730,16 +23730,16 @@
         <v>1171</v>
       </c>
       <c r="Z124" t="s">
+        <v>1544</v>
+      </c>
+      <c r="AA124" t="s">
         <v>1545</v>
       </c>
-      <c r="AA124" t="s">
-        <v>1546</v>
-      </c>
       <c r="AB124">
         <v>1</v>
       </c>
       <c r="AC124" t="s">
-        <v>625</v>
+        <v>889</v>
       </c>
     </row>
     <row r="125" spans="2:29">
@@ -23807,16 +23807,16 @@
         <v>1173</v>
       </c>
       <c r="Z125" t="s">
+        <v>1546</v>
+      </c>
+      <c r="AA125" t="s">
         <v>1547</v>
       </c>
-      <c r="AA125" t="s">
-        <v>1548</v>
-      </c>
       <c r="AB125">
         <v>1</v>
       </c>
       <c r="AC125" t="s">
-        <v>909</v>
+        <v>761</v>
       </c>
     </row>
     <row r="126" spans="2:29">
@@ -23884,16 +23884,16 @@
         <v>1175</v>
       </c>
       <c r="Z126" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AA126" t="s">
         <v>1549</v>
       </c>
-      <c r="AA126" t="s">
-        <v>1550</v>
-      </c>
       <c r="AB126">
         <v>1</v>
       </c>
       <c r="AC126" t="s">
-        <v>631</v>
+        <v>597</v>
       </c>
     </row>
     <row r="127" spans="2:29">
@@ -23961,16 +23961,16 @@
         <v>1177</v>
       </c>
       <c r="Z127" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AA127" t="s">
         <v>1551</v>
       </c>
-      <c r="AA127" t="s">
-        <v>1552</v>
-      </c>
       <c r="AB127">
         <v>1</v>
       </c>
       <c r="AC127" t="s">
-        <v>833</v>
+        <v>867</v>
       </c>
     </row>
     <row r="128" spans="2:29">
@@ -24038,16 +24038,16 @@
         <v>1179</v>
       </c>
       <c r="Z128" t="s">
+        <v>1552</v>
+      </c>
+      <c r="AA128" t="s">
         <v>1553</v>
       </c>
-      <c r="AA128" t="s">
-        <v>1554</v>
-      </c>
       <c r="AB128">
         <v>1</v>
       </c>
       <c r="AC128" t="s">
-        <v>923</v>
+        <v>865</v>
       </c>
     </row>
     <row r="129" spans="2:29">
@@ -24115,16 +24115,16 @@
         <v>1181</v>
       </c>
       <c r="Z129" t="s">
+        <v>1554</v>
+      </c>
+      <c r="AA129" t="s">
         <v>1555</v>
       </c>
-      <c r="AA129" t="s">
-        <v>1556</v>
-      </c>
       <c r="AB129">
         <v>1</v>
       </c>
       <c r="AC129" t="s">
-        <v>721</v>
+        <v>767</v>
       </c>
     </row>
     <row r="130" spans="2:29">
@@ -24192,16 +24192,16 @@
         <v>1183</v>
       </c>
       <c r="Z130" t="s">
+        <v>1556</v>
+      </c>
+      <c r="AA130" t="s">
         <v>1557</v>
       </c>
-      <c r="AA130" t="s">
-        <v>1558</v>
-      </c>
       <c r="AB130">
         <v>1</v>
       </c>
       <c r="AC130" t="s">
-        <v>915</v>
+        <v>585</v>
       </c>
     </row>
     <row r="131" spans="2:29">
@@ -24269,16 +24269,16 @@
         <v>1185</v>
       </c>
       <c r="Z131" t="s">
+        <v>1558</v>
+      </c>
+      <c r="AA131" t="s">
         <v>1559</v>
       </c>
-      <c r="AA131" t="s">
-        <v>1560</v>
-      </c>
       <c r="AB131">
         <v>1</v>
       </c>
       <c r="AC131" t="s">
-        <v>599</v>
+        <v>807</v>
       </c>
     </row>
     <row r="132" spans="2:29">
@@ -24346,16 +24346,16 @@
         <v>1187</v>
       </c>
       <c r="Z132" t="s">
+        <v>1560</v>
+      </c>
+      <c r="AA132" t="s">
         <v>1561</v>
       </c>
-      <c r="AA132" t="s">
-        <v>1562</v>
-      </c>
       <c r="AB132">
         <v>1</v>
       </c>
       <c r="AC132" t="s">
-        <v>657</v>
+        <v>587</v>
       </c>
     </row>
     <row r="133" spans="2:29">
@@ -24423,16 +24423,16 @@
         <v>1189</v>
       </c>
       <c r="Z133" t="s">
+        <v>1562</v>
+      </c>
+      <c r="AA133" t="s">
         <v>1563</v>
       </c>
-      <c r="AA133" t="s">
-        <v>1564</v>
-      </c>
       <c r="AB133">
         <v>1</v>
       </c>
       <c r="AC133" t="s">
-        <v>809</v>
+        <v>581</v>
       </c>
     </row>
     <row r="134" spans="2:29">
@@ -24500,16 +24500,16 @@
         <v>1191</v>
       </c>
       <c r="Z134" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="AA134" t="s">
-        <v>1566</v>
+        <v>1438</v>
       </c>
       <c r="AB134">
         <v>1</v>
       </c>
       <c r="AC134" t="s">
-        <v>757</v>
+        <v>901</v>
       </c>
     </row>
     <row r="135" spans="2:29">
@@ -24577,16 +24577,16 @@
         <v>1193</v>
       </c>
       <c r="Z135" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="AA135" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="AB135">
         <v>1</v>
       </c>
       <c r="AC135" t="s">
-        <v>933</v>
+        <v>747</v>
       </c>
     </row>
     <row r="136" spans="2:29">
@@ -24654,16 +24654,16 @@
         <v>1195</v>
       </c>
       <c r="Z136" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="AA136" t="s">
-        <v>1532</v>
+        <v>1568</v>
       </c>
       <c r="AB136">
         <v>1</v>
       </c>
       <c r="AC136" t="s">
-        <v>907</v>
+        <v>753</v>
       </c>
     </row>
     <row r="137" spans="2:29">
@@ -24731,16 +24731,16 @@
         <v>1197</v>
       </c>
       <c r="Z137" t="s">
+        <v>1569</v>
+      </c>
+      <c r="AA137" t="s">
         <v>1570</v>
       </c>
-      <c r="AA137" t="s">
-        <v>1571</v>
-      </c>
       <c r="AB137">
         <v>1</v>
       </c>
       <c r="AC137" t="s">
-        <v>845</v>
+        <v>785</v>
       </c>
     </row>
     <row r="138" spans="2:29">
@@ -24808,16 +24808,16 @@
         <v>1199</v>
       </c>
       <c r="Z138" t="s">
+        <v>1571</v>
+      </c>
+      <c r="AA138" t="s">
         <v>1572</v>
       </c>
-      <c r="AA138" t="s">
-        <v>1573</v>
-      </c>
       <c r="AB138">
         <v>1</v>
       </c>
       <c r="AC138" t="s">
-        <v>861</v>
+        <v>571</v>
       </c>
     </row>
     <row r="139" spans="2:29">
@@ -24885,16 +24885,16 @@
         <v>1201</v>
       </c>
       <c r="Z139" t="s">
+        <v>1573</v>
+      </c>
+      <c r="AA139" t="s">
         <v>1574</v>
       </c>
-      <c r="AA139" t="s">
-        <v>1486</v>
-      </c>
       <c r="AB139">
         <v>1</v>
       </c>
       <c r="AC139" t="s">
-        <v>635</v>
+        <v>675</v>
       </c>
     </row>
     <row r="140" spans="2:29">
@@ -24971,7 +24971,7 @@
         <v>1</v>
       </c>
       <c r="AC140" t="s">
-        <v>731</v>
+        <v>863</v>
       </c>
     </row>
     <row r="141" spans="2:29">
@@ -25048,7 +25048,7 @@
         <v>1</v>
       </c>
       <c r="AC141" t="s">
-        <v>653</v>
+        <v>629</v>
       </c>
     </row>
     <row r="142" spans="2:29">
@@ -25125,7 +25125,7 @@
         <v>1</v>
       </c>
       <c r="AC142" t="s">
-        <v>743</v>
+        <v>615</v>
       </c>
     </row>
     <row r="143" spans="2:29">
@@ -25202,7 +25202,7 @@
         <v>1</v>
       </c>
       <c r="AC143" t="s">
-        <v>575</v>
+        <v>883</v>
       </c>
     </row>
     <row r="144" spans="2:29">
@@ -25279,7 +25279,7 @@
         <v>1</v>
       </c>
       <c r="AC144" t="s">
-        <v>727</v>
+        <v>781</v>
       </c>
     </row>
     <row r="145" spans="2:29">
@@ -25356,7 +25356,7 @@
         <v>1</v>
       </c>
       <c r="AC145" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
     </row>
     <row r="146" spans="2:29">
@@ -25433,7 +25433,7 @@
         <v>1</v>
       </c>
       <c r="AC146" t="s">
-        <v>813</v>
+        <v>609</v>
       </c>
     </row>
     <row r="147" spans="2:29">
@@ -25504,13 +25504,13 @@
         <v>1589</v>
       </c>
       <c r="AA147" t="s">
-        <v>1590</v>
+        <v>1568</v>
       </c>
       <c r="AB147">
         <v>1</v>
       </c>
       <c r="AC147" t="s">
-        <v>911</v>
+        <v>755</v>
       </c>
     </row>
     <row r="148" spans="2:29">
@@ -25578,16 +25578,16 @@
         <v>1219</v>
       </c>
       <c r="Z148" t="s">
+        <v>1590</v>
+      </c>
+      <c r="AA148" t="s">
         <v>1591</v>
       </c>
-      <c r="AA148" t="s">
-        <v>1592</v>
-      </c>
       <c r="AB148">
         <v>1</v>
       </c>
       <c r="AC148" t="s">
-        <v>927</v>
+        <v>869</v>
       </c>
     </row>
     <row r="149" spans="2:29">
@@ -25655,16 +25655,16 @@
         <v>1221</v>
       </c>
       <c r="Z149" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="AA149" t="s">
-        <v>1594</v>
+        <v>1407</v>
       </c>
       <c r="AB149">
         <v>1</v>
       </c>
       <c r="AC149" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
     </row>
     <row r="150" spans="2:29">
@@ -25732,16 +25732,16 @@
         <v>1223</v>
       </c>
       <c r="Z150" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="AA150" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="AB150">
         <v>1</v>
       </c>
       <c r="AC150" t="s">
-        <v>871</v>
+        <v>687</v>
       </c>
     </row>
     <row r="151" spans="2:29">
@@ -25809,16 +25809,16 @@
         <v>1225</v>
       </c>
       <c r="Z151" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="AA151" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="AB151">
         <v>1</v>
       </c>
       <c r="AC151" t="s">
-        <v>717</v>
+        <v>621</v>
       </c>
     </row>
     <row r="152" spans="2:29">
@@ -25886,16 +25886,16 @@
         <v>1227</v>
       </c>
       <c r="Z152" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="AA152" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="AB152">
         <v>1</v>
       </c>
       <c r="AC152" t="s">
-        <v>777</v>
+        <v>591</v>
       </c>
     </row>
     <row r="153" spans="2:29">
@@ -25963,16 +25963,16 @@
         <v>1229</v>
       </c>
       <c r="Z153" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="AA153" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="AB153">
         <v>1</v>
       </c>
       <c r="AC153" t="s">
-        <v>595</v>
+        <v>749</v>
       </c>
     </row>
     <row r="154" spans="2:29">
@@ -26040,16 +26040,16 @@
         <v>1231</v>
       </c>
       <c r="Z154" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="AA154" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="AB154">
         <v>1</v>
       </c>
       <c r="AC154" t="s">
-        <v>929</v>
+        <v>723</v>
       </c>
     </row>
     <row r="155" spans="2:29">
@@ -26117,16 +26117,16 @@
         <v>1233</v>
       </c>
       <c r="Z155" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="AA155" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="AB155">
         <v>1</v>
       </c>
       <c r="AC155" t="s">
-        <v>787</v>
+        <v>673</v>
       </c>
     </row>
     <row r="156" spans="2:29">
@@ -26194,16 +26194,16 @@
         <v>1235</v>
       </c>
       <c r="Z156" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="AA156" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="AB156">
         <v>1</v>
       </c>
       <c r="AC156" t="s">
-        <v>719</v>
+        <v>765</v>
       </c>
     </row>
     <row r="157" spans="2:29">
@@ -26271,16 +26271,16 @@
         <v>1237</v>
       </c>
       <c r="Z157" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="AA157" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="AB157">
         <v>1</v>
       </c>
       <c r="AC157" t="s">
-        <v>589</v>
+        <v>681</v>
       </c>
     </row>
     <row r="158" spans="2:29">
@@ -26348,16 +26348,16 @@
         <v>1239</v>
       </c>
       <c r="Z158" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="AA158" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="AB158">
         <v>1</v>
       </c>
       <c r="AC158" t="s">
-        <v>815</v>
+        <v>745</v>
       </c>
     </row>
     <row r="159" spans="2:29">
@@ -26425,16 +26425,16 @@
         <v>1241</v>
       </c>
       <c r="Z159" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="AA159" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="AB159">
         <v>1</v>
       </c>
       <c r="AC159" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
     </row>
     <row r="160" spans="2:29">
@@ -26502,16 +26502,16 @@
         <v>1243</v>
       </c>
       <c r="Z160" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="AA160" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="AB160">
         <v>1</v>
       </c>
       <c r="AC160" t="s">
-        <v>877</v>
+        <v>857</v>
       </c>
     </row>
     <row r="161" spans="2:29">
@@ -26579,16 +26579,16 @@
         <v>1245</v>
       </c>
       <c r="Z161" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="AA161" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="AB161">
         <v>1</v>
       </c>
       <c r="AC161" t="s">
-        <v>729</v>
+        <v>905</v>
       </c>
     </row>
     <row r="162" spans="2:29">
@@ -26656,16 +26656,16 @@
         <v>1247</v>
       </c>
       <c r="Z162" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="AA162" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="AB162">
         <v>1</v>
       </c>
       <c r="AC162" t="s">
-        <v>785</v>
+        <v>663</v>
       </c>
     </row>
     <row r="163" spans="2:29">
@@ -26733,16 +26733,16 @@
         <v>1249</v>
       </c>
       <c r="Z163" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="AA163" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="AB163">
         <v>1</v>
       </c>
       <c r="AC163" t="s">
-        <v>571</v>
+        <v>647</v>
       </c>
     </row>
     <row r="164" spans="2:29">
@@ -26810,16 +26810,16 @@
         <v>1251</v>
       </c>
       <c r="Z164" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="AA164" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="AB164">
         <v>1</v>
       </c>
       <c r="AC164" t="s">
-        <v>675</v>
+        <v>829</v>
       </c>
     </row>
     <row r="165" spans="2:29">
@@ -26887,16 +26887,16 @@
         <v>1253</v>
       </c>
       <c r="Z165" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="AA165" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="AB165">
         <v>1</v>
       </c>
       <c r="AC165" t="s">
-        <v>863</v>
+        <v>831</v>
       </c>
     </row>
     <row r="166" spans="2:29">
@@ -26964,16 +26964,16 @@
         <v>1255</v>
       </c>
       <c r="Z166" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="AA166" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="AB166">
         <v>1</v>
       </c>
       <c r="AC166" t="s">
-        <v>629</v>
+        <v>683</v>
       </c>
     </row>
     <row r="167" spans="2:29">
@@ -27041,16 +27041,16 @@
         <v>1257</v>
       </c>
       <c r="Z167" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="AA167" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="AB167">
         <v>1</v>
       </c>
       <c r="AC167" t="s">
-        <v>615</v>
+        <v>779</v>
       </c>
     </row>
     <row r="168" spans="2:29">
@@ -27118,16 +27118,16 @@
         <v>1259</v>
       </c>
       <c r="Z168" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="AA168" t="s">
-        <v>1632</v>
+        <v>1614</v>
       </c>
       <c r="AB168">
         <v>1</v>
       </c>
       <c r="AC168" t="s">
-        <v>883</v>
+        <v>859</v>
       </c>
     </row>
     <row r="169" spans="2:29">
@@ -27195,16 +27195,16 @@
         <v>1261</v>
       </c>
       <c r="Z169" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="AA169" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="AB169">
         <v>1</v>
       </c>
       <c r="AC169" t="s">
-        <v>781</v>
+        <v>919</v>
       </c>
     </row>
     <row r="170" spans="2:29">
@@ -27272,16 +27272,16 @@
         <v>1263</v>
       </c>
       <c r="Z170" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="AA170" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="AB170">
         <v>1</v>
       </c>
       <c r="AC170" t="s">
-        <v>891</v>
+        <v>707</v>
       </c>
     </row>
     <row r="171" spans="2:29">
@@ -27349,16 +27349,16 @@
         <v>1265</v>
       </c>
       <c r="Z171" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="AA171" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="AB171">
         <v>1</v>
       </c>
       <c r="AC171" t="s">
-        <v>609</v>
+        <v>923</v>
       </c>
     </row>
     <row r="172" spans="2:29">
@@ -27426,16 +27426,16 @@
         <v>1267</v>
       </c>
       <c r="Z172" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="AA172" t="s">
-        <v>1434</v>
+        <v>1637</v>
       </c>
       <c r="AB172">
         <v>1</v>
       </c>
       <c r="AC172" t="s">
-        <v>755</v>
+        <v>721</v>
       </c>
     </row>
     <row r="173" spans="2:29">
@@ -27503,16 +27503,16 @@
         <v>1269</v>
       </c>
       <c r="Z173" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="AA173" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="AB173">
         <v>1</v>
       </c>
       <c r="AC173" t="s">
-        <v>869</v>
+        <v>915</v>
       </c>
     </row>
     <row r="174" spans="2:29">
@@ -27580,16 +27580,16 @@
         <v>1271</v>
       </c>
       <c r="Z174" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="AA174" t="s">
-        <v>1385</v>
+        <v>1641</v>
       </c>
       <c r="AB174">
         <v>1</v>
       </c>
       <c r="AC174" t="s">
-        <v>899</v>
+        <v>599</v>
       </c>
     </row>
     <row r="175" spans="2:29">
@@ -27657,16 +27657,16 @@
         <v>1273</v>
       </c>
       <c r="Z175" t="s">
+        <v>1642</v>
+      </c>
+      <c r="AA175" t="s">
         <v>1643</v>
       </c>
-      <c r="AA175" t="s">
-        <v>1644</v>
-      </c>
       <c r="AB175">
         <v>1</v>
       </c>
       <c r="AC175" t="s">
-        <v>697</v>
+        <v>657</v>
       </c>
     </row>
     <row r="176" spans="2:29">
@@ -27734,16 +27734,16 @@
         <v>1275</v>
       </c>
       <c r="Z176" t="s">
+        <v>1644</v>
+      </c>
+      <c r="AA176" t="s">
         <v>1645</v>
       </c>
-      <c r="AA176" t="s">
-        <v>1646</v>
-      </c>
       <c r="AB176">
         <v>1</v>
       </c>
       <c r="AC176" t="s">
-        <v>613</v>
+        <v>809</v>
       </c>
     </row>
     <row r="177" spans="2:29">
@@ -27811,16 +27811,16 @@
         <v>1277</v>
       </c>
       <c r="Z177" t="s">
+        <v>1646</v>
+      </c>
+      <c r="AA177" t="s">
         <v>1647</v>
       </c>
-      <c r="AA177" t="s">
-        <v>1648</v>
-      </c>
       <c r="AB177">
         <v>1</v>
       </c>
       <c r="AC177" t="s">
-        <v>607</v>
+        <v>757</v>
       </c>
     </row>
     <row r="178" spans="2:29">
@@ -27888,16 +27888,16 @@
         <v>1279</v>
       </c>
       <c r="Z178" t="s">
+        <v>1648</v>
+      </c>
+      <c r="AA178" t="s">
         <v>1649</v>
       </c>
-      <c r="AA178" t="s">
-        <v>1650</v>
-      </c>
       <c r="AB178">
         <v>1</v>
       </c>
       <c r="AC178" t="s">
-        <v>725</v>
+        <v>933</v>
       </c>
     </row>
     <row r="179" spans="2:29">
@@ -27965,16 +27965,16 @@
         <v>1281</v>
       </c>
       <c r="Z179" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="AA179" t="s">
-        <v>1652</v>
+        <v>1616</v>
       </c>
       <c r="AB179">
         <v>1</v>
       </c>
       <c r="AC179" t="s">
-        <v>735</v>
+        <v>907</v>
       </c>
     </row>
     <row r="180" spans="2:29">
@@ -28042,16 +28042,16 @@
         <v>1283</v>
       </c>
       <c r="Z180" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="AA180" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="AB180">
         <v>1</v>
       </c>
       <c r="AC180" t="s">
-        <v>703</v>
+        <v>845</v>
       </c>
     </row>
     <row r="181" spans="2:29">
@@ -28119,16 +28119,16 @@
         <v>1285</v>
       </c>
       <c r="Z181" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="AA181" t="s">
-        <v>1456</v>
+        <v>1654</v>
       </c>
       <c r="AB181">
         <v>1</v>
       </c>
       <c r="AC181" t="s">
-        <v>803</v>
+        <v>861</v>
       </c>
     </row>
     <row r="182" spans="2:29">
@@ -28196,16 +28196,16 @@
         <v>1287</v>
       </c>
       <c r="Z182" t="s">
+        <v>1655</v>
+      </c>
+      <c r="AA182" t="s">
         <v>1656</v>
       </c>
-      <c r="AA182" t="s">
-        <v>1657</v>
-      </c>
       <c r="AB182">
         <v>1</v>
       </c>
       <c r="AC182" t="s">
-        <v>849</v>
+        <v>635</v>
       </c>
     </row>
     <row r="183" spans="2:29">
@@ -28273,16 +28273,16 @@
         <v>1289</v>
       </c>
       <c r="Z183" t="s">
+        <v>1657</v>
+      </c>
+      <c r="AA183" t="s">
         <v>1658</v>
       </c>
-      <c r="AA183" t="s">
-        <v>1659</v>
-      </c>
       <c r="AB183">
         <v>1</v>
       </c>
       <c r="AC183" t="s">
-        <v>879</v>
+        <v>645</v>
       </c>
     </row>
     <row r="184" spans="2:29">
@@ -28350,16 +28350,16 @@
         <v>1291</v>
       </c>
       <c r="Z184" t="s">
+        <v>1659</v>
+      </c>
+      <c r="AA184" t="s">
         <v>1660</v>
       </c>
-      <c r="AA184" t="s">
-        <v>1661</v>
-      </c>
       <c r="AB184">
         <v>1</v>
       </c>
       <c r="AC184" t="s">
-        <v>695</v>
+        <v>601</v>
       </c>
     </row>
     <row r="185" spans="2:29">
@@ -28427,16 +28427,16 @@
         <v>1293</v>
       </c>
       <c r="Z185" t="s">
+        <v>1661</v>
+      </c>
+      <c r="AA185" t="s">
         <v>1662</v>
       </c>
-      <c r="AA185" t="s">
-        <v>1663</v>
-      </c>
       <c r="AB185">
         <v>1</v>
       </c>
       <c r="AC185" t="s">
-        <v>651</v>
+        <v>709</v>
       </c>
     </row>
     <row r="186" spans="2:29">
@@ -28504,16 +28504,16 @@
         <v>1295</v>
       </c>
       <c r="Z186" t="s">
+        <v>1663</v>
+      </c>
+      <c r="AA186" t="s">
         <v>1664</v>
       </c>
-      <c r="AA186" t="s">
-        <v>1665</v>
-      </c>
       <c r="AB186">
         <v>1</v>
       </c>
       <c r="AC186" t="s">
-        <v>913</v>
+        <v>771</v>
       </c>
     </row>
     <row r="187" spans="2:29">
@@ -28581,16 +28581,16 @@
         <v>1297</v>
       </c>
       <c r="Z187" t="s">
+        <v>1665</v>
+      </c>
+      <c r="AA187" t="s">
         <v>1666</v>
       </c>
-      <c r="AA187" t="s">
-        <v>1667</v>
-      </c>
       <c r="AB187">
         <v>1</v>
       </c>
       <c r="AC187" t="s">
-        <v>791</v>
+        <v>825</v>
       </c>
     </row>
     <row r="188" spans="2:29">
@@ -28658,16 +28658,16 @@
         <v>1299</v>
       </c>
       <c r="Z188" t="s">
+        <v>1667</v>
+      </c>
+      <c r="AA188" t="s">
         <v>1668</v>
       </c>
-      <c r="AA188" t="s">
-        <v>1669</v>
-      </c>
       <c r="AB188">
         <v>1</v>
       </c>
       <c r="AC188" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
     </row>
     <row r="189" spans="2:29">
@@ -28735,16 +28735,16 @@
         <v>1301</v>
       </c>
       <c r="Z189" t="s">
+        <v>1669</v>
+      </c>
+      <c r="AA189" t="s">
         <v>1670</v>
       </c>
-      <c r="AA189" t="s">
-        <v>1671</v>
-      </c>
       <c r="AB189">
         <v>1</v>
       </c>
       <c r="AC189" t="s">
-        <v>921</v>
+        <v>935</v>
       </c>
     </row>
     <row r="190" spans="2:29">
@@ -28812,16 +28812,16 @@
         <v>1303</v>
       </c>
       <c r="Z190" t="s">
+        <v>1671</v>
+      </c>
+      <c r="AA190" t="s">
         <v>1672</v>
       </c>
-      <c r="AA190" t="s">
-        <v>1673</v>
-      </c>
       <c r="AB190">
         <v>1</v>
       </c>
       <c r="AC190" t="s">
-        <v>665</v>
+        <v>773</v>
       </c>
     </row>
     <row r="191" spans="2:29">
@@ -28889,16 +28889,16 @@
         <v>1305</v>
       </c>
       <c r="Z191" t="s">
+        <v>1673</v>
+      </c>
+      <c r="AA191" t="s">
         <v>1674</v>
       </c>
-      <c r="AA191" t="s">
-        <v>1675</v>
-      </c>
       <c r="AB191">
         <v>1</v>
       </c>
       <c r="AC191" t="s">
-        <v>811</v>
+        <v>739</v>
       </c>
     </row>
     <row r="192" spans="2:29">
@@ -28966,16 +28966,16 @@
         <v>1307</v>
       </c>
       <c r="Z192" t="s">
+        <v>1675</v>
+      </c>
+      <c r="AA192" t="s">
         <v>1676</v>
       </c>
-      <c r="AA192" t="s">
-        <v>1677</v>
-      </c>
       <c r="AB192">
         <v>1</v>
       </c>
       <c r="AC192" t="s">
-        <v>655</v>
+        <v>741</v>
       </c>
     </row>
     <row r="193" spans="2:29">
@@ -29043,16 +29043,16 @@
         <v>1309</v>
       </c>
       <c r="Z193" t="s">
+        <v>1677</v>
+      </c>
+      <c r="AA193" t="s">
         <v>1678</v>
       </c>
-      <c r="AA193" t="s">
-        <v>1616</v>
-      </c>
       <c r="AB193">
         <v>1</v>
       </c>
       <c r="AC193" t="s">
-        <v>875</v>
+        <v>611</v>
       </c>
     </row>
     <row r="194" spans="2:29">
@@ -29129,7 +29129,7 @@
         <v>1</v>
       </c>
       <c r="AC194" t="s">
-        <v>821</v>
+        <v>837</v>
       </c>
     </row>
     <row r="195" spans="2:29">
@@ -29200,13 +29200,13 @@
         <v>1681</v>
       </c>
       <c r="AA195" t="s">
-        <v>1682</v>
+        <v>1656</v>
       </c>
       <c r="AB195">
         <v>1</v>
       </c>
       <c r="AC195" t="s">
-        <v>605</v>
+        <v>637</v>
       </c>
     </row>
     <row r="196" spans="2:29">
@@ -29274,16 +29274,16 @@
         <v>1315</v>
       </c>
       <c r="Z196" t="s">
+        <v>1682</v>
+      </c>
+      <c r="AA196" t="s">
         <v>1683</v>
       </c>
-      <c r="AA196" t="s">
-        <v>1684</v>
-      </c>
       <c r="AB196">
         <v>1</v>
       </c>
       <c r="AC196" t="s">
-        <v>667</v>
+        <v>939</v>
       </c>
     </row>
     <row r="197" spans="2:29">
@@ -29351,16 +29351,16 @@
         <v>1317</v>
       </c>
       <c r="Z197" t="s">
+        <v>1684</v>
+      </c>
+      <c r="AA197" t="s">
         <v>1685</v>
       </c>
-      <c r="AA197" t="s">
-        <v>1686</v>
-      </c>
       <c r="AB197">
         <v>1</v>
       </c>
       <c r="AC197" t="s">
-        <v>669</v>
+        <v>685</v>
       </c>
     </row>
     <row r="198" spans="2:29">
@@ -29428,16 +29428,16 @@
         <v>1319</v>
       </c>
       <c r="Z198" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AA198" t="s">
         <v>1687</v>
       </c>
-      <c r="AA198" t="s">
-        <v>1592</v>
-      </c>
       <c r="AB198">
         <v>1</v>
       </c>
       <c r="AC198" t="s">
-        <v>925</v>
+        <v>789</v>
       </c>
     </row>
   </sheetData>
@@ -29446,7 +29446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A582327-2EF7-4E28-9524-BC87E796A135}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605DED1F-BA80-4C8A-BF44-3A98936B66A1}">
   <dimension ref="B9:AB199"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -38097,7 +38097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEC99CD-3489-4CB6-B4DB-2AF7441E98DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE93BF13-9CC9-4705-B1C9-79DC1FAB3D0D}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -39917,7 +39917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843114B8-0FBC-4A0C-9BAE-43457B04186F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1A9D74-A8BC-472B-AAEF-4638EF9CEEE0}">
   <dimension ref="B2:M317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -41185,7 +41185,7 @@
         <v>2431</v>
       </c>
       <c r="C42" t="s">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="D42" t="s">
         <v>2432</v>
@@ -41220,7 +41220,7 @@
         <v>2432</v>
       </c>
       <c r="D43" t="s">
-        <v>1387</v>
+        <v>1409</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -42212,7 +42212,7 @@
         <v>2495</v>
       </c>
       <c r="D74" t="s">
-        <v>1367</v>
+        <v>1631</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -42241,7 +42241,7 @@
         <v>2496</v>
       </c>
       <c r="C75" t="s">
-        <v>1367</v>
+        <v>1631</v>
       </c>
       <c r="D75" t="s">
         <v>2495</v>
@@ -42657,7 +42657,7 @@
         <v>2521</v>
       </c>
       <c r="C88" t="s">
-        <v>1488</v>
+        <v>1683</v>
       </c>
       <c r="D88" t="s">
         <v>2522</v>
@@ -42692,7 +42692,7 @@
         <v>2522</v>
       </c>
       <c r="D89" t="s">
-        <v>1488</v>
+        <v>1683</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -43809,7 +43809,7 @@
         <v>2592</v>
       </c>
       <c r="C124" t="s">
-        <v>1458</v>
+        <v>1389</v>
       </c>
       <c r="D124" t="s">
         <v>2593</v>
@@ -43844,7 +43844,7 @@
         <v>2593</v>
       </c>
       <c r="D125" t="s">
-        <v>1458</v>
+        <v>1389</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -45284,7 +45284,7 @@
         <v>2683</v>
       </c>
       <c r="D170" t="s">
-        <v>1432</v>
+        <v>1566</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -45313,7 +45313,7 @@
         <v>2684</v>
       </c>
       <c r="C171" t="s">
-        <v>1432</v>
+        <v>1566</v>
       </c>
       <c r="D171" t="s">
         <v>2683</v>
@@ -45537,7 +45537,7 @@
         <v>2697</v>
       </c>
       <c r="C178" t="s">
-        <v>1349</v>
+        <v>1438</v>
       </c>
       <c r="D178" t="s">
         <v>2698</v>
@@ -45572,7 +45572,7 @@
         <v>2698</v>
       </c>
       <c r="D179" t="s">
-        <v>1349</v>
+        <v>1438</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -46052,7 +46052,7 @@
         <v>2729</v>
       </c>
       <c r="D194" t="s">
-        <v>1456</v>
+        <v>1387</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -46081,7 +46081,7 @@
         <v>2730</v>
       </c>
       <c r="C195" t="s">
-        <v>1456</v>
+        <v>1387</v>
       </c>
       <c r="D195" t="s">
         <v>2729</v>
@@ -46241,7 +46241,7 @@
         <v>2739</v>
       </c>
       <c r="C200" t="s">
-        <v>1571</v>
+        <v>1652</v>
       </c>
       <c r="D200" t="s">
         <v>2740</v>
@@ -46276,7 +46276,7 @@
         <v>2740</v>
       </c>
       <c r="D201" t="s">
-        <v>1571</v>
+        <v>1652</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -47396,7 +47396,7 @@
         <v>2811</v>
       </c>
       <c r="D236" t="s">
-        <v>1369</v>
+        <v>1633</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -47425,7 +47425,7 @@
         <v>2812</v>
       </c>
       <c r="C237" t="s">
-        <v>1369</v>
+        <v>1633</v>
       </c>
       <c r="D237" t="s">
         <v>2811</v>
@@ -48164,7 +48164,7 @@
         <v>2858</v>
       </c>
       <c r="D260" t="s">
-        <v>1682</v>
+        <v>1464</v>
       </c>
       <c r="E260">
         <v>1</v>
@@ -48193,7 +48193,7 @@
         <v>2859</v>
       </c>
       <c r="C261" t="s">
-        <v>1682</v>
+        <v>1464</v>
       </c>
       <c r="D261" t="s">
         <v>2858</v>
@@ -49956,7 +49956,7 @@
         <v>2967</v>
       </c>
       <c r="D316" t="s">
-        <v>1614</v>
+        <v>1534</v>
       </c>
       <c r="E316">
         <v>1</v>
@@ -49985,7 +49985,7 @@
         <v>2968</v>
       </c>
       <c r="C317" t="s">
-        <v>1614</v>
+        <v>1534</v>
       </c>
       <c r="D317" t="s">
         <v>2967</v>

--- a/VerveStacks_DEU_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_DEU_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05AFABCD-0D5F-491D-9A14-E1552646F167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9C3F0D9-8F37-48E2-B46F-33BF68B944A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2960,18 +2960,822 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_solelc_won-DEU_0015</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_15</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0183</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_183</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0112</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_112</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0078</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_78</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0012</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_12</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0126</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_126</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0007</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_7</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0157</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_157</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0083</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_83</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0063</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_63</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0145</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_145</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0027</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_27</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0058</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_58</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0068</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_68</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0140</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_140</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0116</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_116</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0136</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_136</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0054</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_54</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0049</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_49</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0041</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_41</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0133</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_133</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0134</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_134</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0060</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_60</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0108</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_108</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0148</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_148</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0178</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_178</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0072</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_72</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0084</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_84</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0044</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_44</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0090</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_90</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0005</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_5</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0082</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_82</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0161</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_161</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0125</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_125</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0174</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_174</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0182</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_182</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0165</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_165</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0154</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_154</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0077</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_77</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0107</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_107</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0067</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_67</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0024</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_24</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0021</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_21</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0081</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_81</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0086</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_86</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0070</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_70</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0120</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_120</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0143</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_143</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0158</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_158</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0128</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_128</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0001</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_1</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0184</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_184</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0085</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_85</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0071</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_71</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0138</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_138</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0087</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_87</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0111</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_111</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0003</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_3</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0056</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_56</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0150</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_150</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0032</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_32</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0025</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_25</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0160</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_160</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0109</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_109</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0164</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_164</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_22</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0096</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_96</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0153</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_153</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0168</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_168</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0029</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_29</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0000</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_0</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0057</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_57</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0163</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_163</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0099</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_99</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0016</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_16</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0152</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_152</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0151</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_151</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0102</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_102</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0010</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_10</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0122</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_122</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0011</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_11</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0008</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_8</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0169</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_169</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0092</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_92</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0095</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_95</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0062</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_62</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0028</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_28</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_13</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0093</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_93</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0080</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_80</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0055</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_55</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0101</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_101</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0059</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_59</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0091</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_91</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_19</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0147</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_147</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0171</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_171</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_4</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0144</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_144</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0177</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_177</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0075</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_75</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0106</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_106</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0039</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_39</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0162</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_162</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0167</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_167</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_6</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_9</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0180</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_180</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0079</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_79</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0176</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_176</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0017</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_17</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0046</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_46</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0123</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_123</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0097</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_97</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0185</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_185</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0172</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_172</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0141</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_141</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0149</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_149</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0035</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_35</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0066</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_66</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0043</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_43</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0175</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_175</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0114</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_114</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0069</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_69</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0179</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_179</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0050</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_50</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0124</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_124</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0045</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_45</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0156</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_156</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0129</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_129</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_20</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0052</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_52</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0053</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_53</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0181</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_181</t>
+  </si>
+  <si>
     <t>distr_solelc_won-DEU_0130</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell DEU_130</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
     <t>distr_solelc_won-DEU_0159</t>
   </si>
   <si>
@@ -3056,6 +3860,102 @@
     <t>connecting solar and wind to buses in grid cell DEU_94</t>
   </si>
   <si>
+    <t>distr_solelc_won-DEU_0040</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_40</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0018</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_18</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0073</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_73</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0104</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_104</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0131</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_131</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0064</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_64</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0186</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_186</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0105</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_105</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0088</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_88</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0089</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_89</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_23</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0137</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_137</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0036</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_36</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0188</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_188</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0061</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_61</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0113</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_113</t>
+  </si>
+  <si>
     <t>distr_solelc_won-DEU_0127</t>
   </si>
   <si>
@@ -3134,696 +4034,6 @@
     <t>connecting solar and wind to buses in grid cell DEU_115</t>
   </si>
   <si>
-    <t>distr_solelc_won-DEU_0015</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_15</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0183</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_183</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0112</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_112</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0078</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_78</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0012</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_12</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0126</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_126</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0007</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_7</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0157</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_157</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0083</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_83</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0180</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_180</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0079</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_79</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0176</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_176</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0017</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_17</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0046</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_46</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0123</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_123</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0097</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_97</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0185</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_185</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0172</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_172</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0141</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_141</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0149</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_149</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0035</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_35</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0063</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_63</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0145</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_145</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0027</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_27</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0058</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_58</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0068</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_68</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0140</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_140</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0116</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_116</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0136</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_136</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0054</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_54</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0029</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_29</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0000</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_0</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0057</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_57</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0163</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_163</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0099</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_99</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0016</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_16</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0152</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_152</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0151</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_151</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0102</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_102</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0010</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_10</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0122</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_122</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0011</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_11</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0008</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_8</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0169</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_169</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0092</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_92</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0095</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_95</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0084</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_84</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0044</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_44</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0090</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_90</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0005</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_5</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0082</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_82</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0161</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_161</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0125</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_125</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0174</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_174</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0182</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_182</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0165</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_165</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0154</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_154</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0077</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_77</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0107</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_107</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0128</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_128</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0001</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_1</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0184</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_184</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0085</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_85</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0071</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_71</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0138</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_138</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0087</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_87</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0111</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_111</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0003</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_3</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0056</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_56</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0150</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_150</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0032</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_32</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0025</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_25</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0160</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_160</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0109</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_109</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0164</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_164</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0022</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_22</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0096</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_96</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0153</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_153</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0168</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_168</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0062</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_62</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0028</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_28</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_13</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0093</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_93</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0080</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_80</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0055</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_55</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0101</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_101</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0059</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_59</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0091</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_91</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_19</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0147</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_147</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0171</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_171</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0049</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_49</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0041</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_41</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0133</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_133</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0134</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_134</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0060</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_60</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0108</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_108</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0148</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_148</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0178</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_178</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0072</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_72</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0066</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_66</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0043</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_43</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0175</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_175</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0114</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_114</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0069</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_69</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0179</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_179</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0050</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_50</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0124</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_124</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0045</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_45</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0156</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_156</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0129</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_129</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0020</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_20</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0052</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_52</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0053</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_53</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0181</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_181</t>
-  </si>
-  <si>
     <t>distr_solelc_won-DEU_0014</t>
   </si>
   <si>
@@ -3884,219 +4094,795 @@
     <t>connecting solar and wind to buses in grid cell DEU_135</t>
   </si>
   <si>
-    <t>distr_solelc_won-DEU_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_4</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0144</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_144</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0177</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_177</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0075</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_75</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0106</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_106</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0039</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_39</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0162</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_162</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0167</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_167</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_6</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_9</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0067</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_67</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0024</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_24</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0021</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_21</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0081</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_81</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0086</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_86</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0070</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_70</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0120</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_120</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0143</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_143</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0158</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_158</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0040</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_40</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0018</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_18</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0073</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_73</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0104</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_104</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0131</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_131</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0064</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_64</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0186</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_186</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0105</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_105</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0088</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_88</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0089</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_89</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_23</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0137</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_137</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0036</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_36</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0188</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_188</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0061</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_61</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0113</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_113</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
+    <t>elc_won-DEU_0015,elc_spv-DEU_0015</t>
+  </si>
+  <si>
+    <t>e_DE100-220,e_DE100-380,e_DE102-220,e_DE102-380,e_DE66-220,e_DE66-380,e_DE68-220,e_DE68-380,e_DE69-220,e_DE69-380,e_DE72-220,e_DE75-380,e_DE76-380,e_DE78-220,e_DE80-220,e_DE80-380,e_DE81-220,e_DE82-220,e_DE83-220,e_DE84-220,e_DE86-220,e_DE87-220,e_DE87-380,e_DE89-220,e_DE89-380,e_DE92-220,e_DE96-220,e_DE96-380,e_DE98-220,e_w1076001174-220,e_w1076001174-380,e_w113546939-220,e_w113546939-380,e_w121199242-220,e_w121199242-380,e_w1303270458-220,e_w1303270458-380,e_w150267232-220,e_w156973363-220,e_w22944791-220,e_w22964137-380,e_w23022100-220,e_w23022100-380,e_w23067006-380,e_w24280460-380,e_w24415232-220,e_w24921206-220,e_w24921206-380,e_w25051880-220,e_w26291794-380,e_w275138524-380,e_w28452784-220,e_w29077623-220,e_w29077623-380,e_w311444691-380,e_w32472806-380,e_w35763480-220,e_w35763480-380,e_w38584673-220,e_w425100082-380,e_w59925390-220,e_w59925390-380,e_w63114179-220,e_w63114179-380,e_w66038431-220,e_w68549340-220,e_w68549340-380,e_w698870101-220,e_w787840119-220,e_w799361667-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0183,elc_spv-DEU_0183</t>
+  </si>
+  <si>
+    <t>e_DE58-380,e_DE99-380,e_w157806991-380,e_w30164703-380,e_w58429825-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0112,elc_spv-DEU_0112</t>
+  </si>
+  <si>
+    <t>e_w143882655-220,e_w143882655-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0078,elc_spv-DEU_0078</t>
+  </si>
+  <si>
+    <t>e_w148446247-380,e_w29309786-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0012,elc_spv-DEU_0012</t>
+  </si>
+  <si>
+    <t>e_w154869247-220,e_w395847307-220,e_w395847307-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0126,elc_spv-DEU_0126</t>
+  </si>
+  <si>
+    <t>e_w93341407-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0007,elc_spv-DEU_0007</t>
+  </si>
+  <si>
+    <t>e_w979801144-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0157,elc_spv-DEU_0157</t>
+  </si>
+  <si>
+    <t>e_w78441561-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0083,elc_spv-DEU_0083</t>
+  </si>
+  <si>
+    <t>e_w23816140-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0063,elc_spv-DEU_0063</t>
+  </si>
+  <si>
+    <t>e_DE104-380,e_w274630377-220,e_w274630377-380,e_w42681484-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0145,elc_spv-DEU_0145</t>
+  </si>
+  <si>
+    <t>e_DE119-380,e_w23161029-220,e_w32843531-220,e_w32843531-380,e_w442199284-380,e_w714098678-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0027,elc_spv-DEU_0027</t>
+  </si>
+  <si>
+    <t>e_DE155-380,e_DE156-380,e_w160584794-380,e_w50898216-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0058,elc_spv-DEU_0058</t>
+  </si>
+  <si>
+    <t>e_DE179-220,e_w1104947187-380,e_w1327333163-220,e_w1327333163-380,e_w143903369-220,e_w143903369-380,e_w159326655-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0068,elc_spv-DEU_0068</t>
+  </si>
+  <si>
+    <t>e_DE6-380,e_w1089769599-220,e_w1089769599-380,e_w1280364401-380,e_w289836713-380,e_w525964617,e_w525964629-380,e_w60032354-220,e_w87722999-220,e_w87722999-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0140,elc_spv-DEU_0140</t>
+  </si>
+  <si>
+    <t>e_w29417741-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0116,elc_spv-DEU_0116</t>
+  </si>
+  <si>
+    <t>e_w30040568-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0136,elc_spv-DEU_0136</t>
+  </si>
+  <si>
+    <t>e_DE5-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0054,elc_spv-DEU_0054</t>
+  </si>
+  <si>
+    <t>e_w31367936-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0049,elc_spv-DEU_0049</t>
+  </si>
+  <si>
+    <t>e_DE17-380,e_w24493551-380,e_w44717036-380,e_w871646309-380,e_w951273401-380,e_w951773852-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0041,elc_spv-DEU_0041</t>
+  </si>
+  <si>
+    <t>e_DE174-220,e_DE176-220,e_DE178-380,e_DE180-220,e_DE181-380,e_DE182-380,e_r17591073-220,e_w152924498-220,e_w152924498-380,e_w152924508-220,e_w152973139-220,e_w152973139-380,e_w156676050-220,e_w160929097-220,e_w207248812-220,e_w207248812-380,e_w259561755-380,e_w409305507-220,e_w46584363-220,e_w46584363-380,e_w48057110-380,e_w600395952-220,e_w600395952-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0133,elc_spv-DEU_0133</t>
+  </si>
+  <si>
+    <t>e_DE18-220,e_DE18-380,e_DE19-380,e_w59707532-220,e_w59707532-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0134,elc_spv-DEU_0134</t>
+  </si>
+  <si>
+    <t>e_w234171369-380,e_w274603394-380,e_w517421342-220,e_w517421342-380,e_w851299584-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0060,elc_spv-DEU_0060</t>
+  </si>
+  <si>
+    <t>e_w23881272-220,e_w24042358-380,e_w42372159-380,e_w42410916-220,e_w42410916-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0108,elc_spv-DEU_0108</t>
+  </si>
+  <si>
+    <t>e_w24705761-220,e_w24705761-380,e_w28613721-380,e_w954971276-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0148,elc_spv-DEU_0148</t>
+  </si>
+  <si>
+    <t>e_w40621568-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0178,elc_spv-DEU_0178</t>
+  </si>
+  <si>
+    <t>e_w1091984573-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0072,elc_spv-DEU_0072</t>
+  </si>
+  <si>
+    <t>e_w41389594-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0084,elc_spv-DEU_0084</t>
+  </si>
+  <si>
+    <t>e_DE10-380,e_DE11-380,e_DE12-380,e_w11285720-380,e_w24502420-380,e_w881636329-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0044,elc_spv-DEU_0044</t>
+  </si>
+  <si>
+    <t>e_DE146-380,e_DE152-380,e_w1245826064-380,e_w1245867884-380,e_w202747445-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0090,elc_spv-DEU_0090</t>
+  </si>
+  <si>
+    <t>e_DE200-380,e_w1093896544-380,e_w31105067-380,e_w88945213-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0005,elc_spv-DEU_0005</t>
+  </si>
+  <si>
+    <t>e_DE62-220,e_DE62-380,e_DE67-220,e_DE67-380,e_DE70-220,e_DE70-380,e_DE73-220,e_DE73-380,e_DE74-220,e_DE74-380,e_DE77-220,e_DE77-380,e_DE79-220,e_DE93-220,e_DE97-220,e_w23084417-220,e_w23380800-220,e_w23380800-380,e_w24462228-220,e_w24462317-220,e_w24462426-220,e_w24462426-380,e_w24478889-220,e_w24478889-380,e_w24479003-220,e_w24479003-380,e_w311444692-380,e_w35818134-220,e_w35818137-220,e_w37554416-220,e_w92024105-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0082,elc_spv-DEU_0082</t>
+  </si>
+  <si>
+    <t>e_w23682013-220,e_w23816140-220,e_w274621059-220,e_w33042984-220,e_w787265962-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0161,elc_spv-DEU_0161</t>
+  </si>
+  <si>
+    <t>e_w28729619-380,e_w398680313-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0125,elc_spv-DEU_0125</t>
+  </si>
+  <si>
+    <t>e_w28956649-220,e_w28956649-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0174,elc_spv-DEU_0174</t>
+  </si>
+  <si>
+    <t>e_w940922557-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0182,elc_spv-DEU_0182</t>
+  </si>
+  <si>
+    <t>e_w941805476-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0165,elc_spv-DEU_0165</t>
+  </si>
+  <si>
+    <t>e_w947118608-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0154,elc_spv-DEU_0154</t>
+  </si>
+  <si>
+    <t>e_DE206-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0077,elc_spv-DEU_0077</t>
+  </si>
+  <si>
+    <t>e_w148446247-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0107,elc_spv-DEU_0107</t>
+  </si>
+  <si>
+    <t>e_w24768051-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0067,elc_spv-DEU_0067</t>
+  </si>
+  <si>
+    <t>e_DE13-380,e_DE14-380,e_w1072574879-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0024,elc_spv-DEU_0024</t>
+  </si>
+  <si>
+    <t>e_DE194-220,e_w39011884-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0021,elc_spv-DEU_0021</t>
+  </si>
+  <si>
+    <t>e_DE213-380,e_w202865176-220,e_w202865177-380,e_w88916034-220,e_w88916034-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0081,elc_spv-DEU_0081</t>
+  </si>
+  <si>
+    <t>e_DE55-220,e_DE57-380,e_w23899043-380,e_w30109913-220,e_w699048438-220,e_w810315511-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0086,elc_spv-DEU_0086</t>
+  </si>
+  <si>
+    <t>e_w27646106-220,e_w35176751-220,e_w35176751-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0070,elc_spv-DEU_0070</t>
+  </si>
+  <si>
+    <t>e_w449010725-380,e_w946969736-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0120,elc_spv-DEU_0120</t>
+  </si>
+  <si>
+    <t>e_w275466323-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0143,elc_spv-DEU_0143</t>
+  </si>
+  <si>
+    <t>e_w167352587-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0158,elc_spv-DEU_0158</t>
+  </si>
+  <si>
+    <t>e_w166604822-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0128,elc_spv-DEU_0128</t>
+  </si>
+  <si>
+    <t>e_DE151-220,e_w1086825107-220,e_w1086825107-380,e_w148211527-380,e_w156673637-220,e_w156673637-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0001,elc_spv-DEU_0001</t>
+  </si>
+  <si>
+    <t>e_DE164-220,e_DE167-380,e_DE170-380,e_DE172-220,e_DE172-380,e_DE173-220,e_w145680894-220,e_w151967290-220,e_w151967290-380,e_w151967291-220,e_w151967291-380,e_w89176939-220,e_w89176956-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0184,elc_spv-DEU_0184</t>
+  </si>
+  <si>
+    <t>e_DE46-380,e_w52983550-380,e_w941198517-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0085,elc_spv-DEU_0085</t>
+  </si>
+  <si>
+    <t>e_DE7-220,e_DE8-380,e_w1107961833-380,e_w22720647-220,e_w22720647-380,e_w25306938-380,e_w28008024-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0071,elc_spv-DEU_0071</t>
+  </si>
+  <si>
+    <t>e_w31131320-220,e_w31131320-380,e_w31131325-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0138,elc_spv-DEU_0138</t>
+  </si>
+  <si>
+    <t>e_w75865676-220,e_w91080806-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0087,elc_spv-DEU_0087</t>
+  </si>
+  <si>
+    <t>e_w907539360-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0111,elc_spv-DEU_0111</t>
+  </si>
+  <si>
+    <t>e_DE134-380,e_w149256409-380,e_w152219167-220,e_w25746125-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0003,elc_spv-DEU_0003</t>
+  </si>
+  <si>
+    <t>e_DE136-380,e_DE141-380,e_w24268944-380,e_w25426571-380,e_w25992879-380,e_w26593935-380,e_w870598507,e_w870598507-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0056,elc_spv-DEU_0056</t>
+  </si>
+  <si>
+    <t>e_DE195-380,e_DE196-380,e_DE197-380,e_DE198-380,e_DE199-380,e_w26260052-380,e_w30734324-380,e_w42736239-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0150,elc_spv-DEU_0150</t>
+  </si>
+  <si>
+    <t>e_DE9-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0032,elc_spv-DEU_0032</t>
+  </si>
+  <si>
+    <t>e_w150200540-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0025,elc_spv-DEU_0025</t>
+  </si>
+  <si>
+    <t>e_w152107815-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0160,elc_spv-DEU_0160</t>
+  </si>
+  <si>
+    <t>e_w157328339-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0109,elc_spv-DEU_0109</t>
+  </si>
+  <si>
+    <t>e_w24757393-380,e_w24757833-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0164,elc_spv-DEU_0164</t>
+  </si>
+  <si>
+    <t>e_w518455594-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0022,elc_spv-DEU_0022</t>
+  </si>
+  <si>
+    <t>e_w87653464-220,e_w87653464-380,e_w87653464-400</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0096,elc_spv-DEU_0096</t>
+  </si>
+  <si>
+    <t>e_w948341123-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0153,elc_spv-DEU_0153</t>
+  </si>
+  <si>
+    <t>e_w91080806-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0168,elc_spv-DEU_0168</t>
+  </si>
+  <si>
+    <t>e_w946710698-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0029,elc_spv-DEU_0029</t>
+  </si>
+  <si>
+    <t>e_DE109-220,e_DE132-220,e_w132814303-220,e_w83916207-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0000,elc_spv-DEU_0000</t>
+  </si>
+  <si>
+    <t>e_DE175-220,e_DE177-220,e_w82773910-220,e_w82773910-380,e_w82773910-400,e_w89215122-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0057,elc_spv-DEU_0057</t>
+  </si>
+  <si>
+    <t>e_DE184-380,e_DE185-380,e_DE186-380,e_DE187-380,e_DE188-380,e_DE189-380,e_DE190-380,e_DE191-380,e_DE192-380,e_DE193-380,e_w147878692-380,e_w22960899-380,e_w25786404-220,e_w25786404-380,e_w37721677-380,e_w41334805-220,e_w41334805-380,e_w43688805-220,e_w43688805-380,e_w48428875-380,e_w97825259-220,e_w97825259-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0163,elc_spv-DEU_0163</t>
+  </si>
+  <si>
+    <t>e_DE21-220,e_DE25-380,e_w11500045-380,e_w27149550-220,e_w27149550-380,e_w30132758-380,e_w30303506-380,e_w30309989-220,e_w43163132-380,e_w46615737-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0099,elc_spv-DEU_0099</t>
+  </si>
+  <si>
+    <t>e_DE36-220,e_w24258096-380,e_w24272339-380,e_w24272541-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0016,elc_spv-DEU_0016</t>
+  </si>
+  <si>
+    <t>e_DE39-220,e_DE41-380,e_DE45-380,e_DE50-380,e_DE54-380,e_w844075808-380,e_w952346322-380,e_w979801144-220,e_w979801144-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0152,elc_spv-DEU_0152</t>
+  </si>
+  <si>
+    <t>e_DE5-380,e_w32063539-380,e_w32318130-220,e_w940919943</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0151,elc_spv-DEU_0151</t>
+  </si>
+  <si>
+    <t>e_w1094015892-220,e_w1094015892-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0102,elc_spv-DEU_0102</t>
+  </si>
+  <si>
+    <t>e_w1102237380-220,e_w1102237380-380,e_w1191459479-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0010,elc_spv-DEU_0010</t>
+  </si>
+  <si>
+    <t>e_w152018146-220,e_w152018146-380,e_w156402422-220,e_w207756597-220,e_w54359256-220,e_w54359256-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0122,elc_spv-DEU_0122</t>
+  </si>
+  <si>
+    <t>e_w24158385-220,e_w26245195-220,e_w26245195-380,e_w5404079-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0011,elc_spv-DEU_0011</t>
+  </si>
+  <si>
+    <t>e_w42097854-220,e_w42097854-380,e_w66764943-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0008,elc_spv-DEU_0008</t>
+  </si>
+  <si>
+    <t>e_w672738029-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0169,elc_spv-DEU_0169</t>
+  </si>
+  <si>
+    <t>e_w24976300-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0092,elc_spv-DEU_0092</t>
+  </si>
+  <si>
+    <t>e_w24705761-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0095,elc_spv-DEU_0095</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0062,elc_spv-DEU_0062</t>
+  </si>
+  <si>
+    <t>e_DE121-380,e_w156673636-380,e_w41072584-380,e_w41232144-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0028,elc_spv-DEU_0028</t>
+  </si>
+  <si>
+    <t>e_DE135-220,e_DE137-220,e_DE137-380,e_DE140-380,e_DE143-380,e_DE145-220,e_DE147-380,e_DE148-220,e_DE148-380,e_DE150-380,e_w152403632-220,e_w152403632-380,e_w89043564-220,e_w89043564-380,e_w90148336-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0013,elc_spv-DEU_0013</t>
+  </si>
+  <si>
+    <t>e_DE138-220,e_DE138-380,e_DE139-220,e_DE139-380,e_DE144-380,e_DE153-380,e_DE154-380,e_w22765517-220,e_w22765517-380,e_w22766160-220,e_w22766160-380,e_w22767509-220,e_w22767509-380,e_w22796434-220,e_w26777313-380,e_w29374542-220,e_w32148946-220,e_w42423415-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0093,elc_spv-DEU_0093</t>
+  </si>
+  <si>
+    <t>e_DE163-220,e_w108797675-380,e_w24758329-380,e_w499165542-220,e_w499165542-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0080,elc_spv-DEU_0080</t>
+  </si>
+  <si>
+    <t>e_DE59-220,e_DE60-220,e_w952004951-220,e_w952004951-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0055,elc_spv-DEU_0055</t>
+  </si>
+  <si>
+    <t>e_w102743264-220,e_w25306752-220,e_w25306752-380,e_w31367936-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0101,elc_spv-DEU_0101</t>
+  </si>
+  <si>
+    <t>e_w1089911133-380,e_w23583867-380,e_w28327356-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0059,elc_spv-DEU_0059</t>
+  </si>
+  <si>
+    <t>e_w145002769-380,e_w55069713-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0091,elc_spv-DEU_0091</t>
+  </si>
+  <si>
+    <t>e_w38325076-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0019,elc_spv-DEU_0019</t>
+  </si>
+  <si>
+    <t>e_w559702819-220,e_w559702819-380,e_w672738029-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0147,elc_spv-DEU_0147</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0171,elc_spv-DEU_0171</t>
+  </si>
+  <si>
+    <t>e_w942771541-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0004,elc_spv-DEU_0004</t>
+  </si>
+  <si>
+    <t>e_DE106-220,e_DE107-220,e_DE107-380,e_DE110-220,e_DE110-380,e_DE112-380,e_DE113-220,e_DE114-380,e_DE117-380,e_DE125-220,e_DE125-380,e_DE127-380,e_DE128-380,e_DE131-220,e_DE133-380,e_w1040551074-220,e_w188276460-220,e_w188276460-380,e_w23084554-220,e_w23084554-380,e_w24267175-220,e_w24479984-220,e_w24479984-380,e_w24799890-220,e_w24799890-380,e_w24815262-220,e_w24839976-220,e_w24839976-380,e_w26927264-380,e_w27919734-220,e_w27919734-380,e_w31762305-220,e_w49577401-220,e_w49577401-380,e_w91854336-220,e_w91854336-380,e_w92877635-220,e_w93278553-220,e_w95434457-220,e_w95434457-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0144,elc_spv-DEU_0144</t>
+  </si>
+  <si>
+    <t>e_DE142-380,e_w167352587-220,e_w173112252-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0177,elc_spv-DEU_0177</t>
+  </si>
+  <si>
+    <t>e_w1222597066-220,e_w1222597066-380,e_w30039908-220,e_w30039908-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0075,elc_spv-DEU_0075</t>
+  </si>
+  <si>
+    <t>e_w143854536-380,e_w31653753-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0106,elc_spv-DEU_0106</t>
+  </si>
+  <si>
+    <t>e_w18629425-220,e_w18629425-380,e_w53378027-380,e_w76246159-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0039,elc_spv-DEU_0039</t>
+  </si>
+  <si>
+    <t>e_w26814283-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0162,elc_spv-DEU_0162</t>
+  </si>
+  <si>
+    <t>e_w29331499-220,e_w29331499-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0167,elc_spv-DEU_0167</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0006,elc_spv-DEU_0006</t>
+  </si>
+  <si>
+    <t>e_DE62-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0009,elc_spv-DEU_0009</t>
+  </si>
+  <si>
+    <t>e_w156402422-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0180,elc_spv-DEU_0180</t>
+  </si>
+  <si>
+    <t>e_DE1-220,e_DE2-220,e_DE3-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0079,elc_spv-DEU_0079</t>
+  </si>
+  <si>
+    <t>e_DE108-220,e_w156960655-380,e_w172997498-220,e_w456386244-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0176,elc_spv-DEU_0176</t>
+  </si>
+  <si>
+    <t>e_DE16-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0017,elc_spv-DEU_0017</t>
+  </si>
+  <si>
+    <t>e_DE31-380,e_w61918154-220,e_w61918154-380,e_w796306640-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0046,elc_spv-DEU_0046</t>
+  </si>
+  <si>
+    <t>e_DE63-220,e_DE94-380,e_DE95-380,e_w25943440-220,e_w25943440-380,e_w42797575-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0123,elc_spv-DEU_0123</t>
+  </si>
+  <si>
+    <t>e_w133342285-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0097,elc_spv-DEU_0097</t>
+  </si>
+  <si>
+    <t>e_w157164284-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0185,elc_spv-DEU_0185</t>
+  </si>
+  <si>
+    <t>e_w414169327-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0172,elc_spv-DEU_0172</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0141,elc_spv-DEU_0141</t>
+  </si>
+  <si>
+    <t>e_w28956649-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0149,elc_spv-DEU_0149</t>
+  </si>
+  <si>
+    <t>e_w851299584-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0035,elc_spv-DEU_0035</t>
+  </si>
+  <si>
+    <t>e_w29420322-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0066,elc_spv-DEU_0066</t>
+  </si>
+  <si>
+    <t>e_DE15-220,e_w229565743-220,e_w28812249-220,e_w955268863-220,e_w955268863-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0043,elc_spv-DEU_0043</t>
+  </si>
+  <si>
+    <t>e_DE159-380,e_DE160-220,e_DE161-380,e_DE162-380,e_w169244940-220,e_w169244940-380,e_w23641079-220,e_w23641079-380,e_w38661452-380,e_w4826893-220,e_w62061952-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0175,elc_spv-DEU_0175</t>
+  </si>
+  <si>
+    <t>e_DE22-220,e_DE22-380,e_DE23-220,e_DE23-380,e_DE24-220,e_DE24-380,e_DE26-380,e_DE27-220,e_DE27-380,e_w22973052-220,e_w22973070-220,e_w22973070-380,e_w30954714-380,e_w940636813-220,e_w940636813-380,e_w942448206-220,e_w942448206-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0114,elc_spv-DEU_0114</t>
+  </si>
+  <si>
+    <t>e_DE44-380,e_w26474759-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0069,elc_spv-DEU_0069</t>
+  </si>
+  <si>
+    <t>e_w1071504343-380,e_w603661085-380,e_w907539360-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0179,elc_spv-DEU_0179</t>
+  </si>
+  <si>
+    <t>e_w1091984573-220,e_w1091984573-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0050,elc_spv-DEU_0050</t>
+  </si>
+  <si>
+    <t>e_w1134105414-380,e_w157421333-220,e_w266684854-380,e_w32076853-220,e_w32076853-380,e_w42872354-220,e_w829116805-220,e_w829116805-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0124,elc_spv-DEU_0124</t>
+  </si>
+  <si>
+    <t>e_w137602559-220,e_w137602559-380,e_w24759324-220,e_w24768051-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0045,elc_spv-DEU_0045</t>
+  </si>
+  <si>
+    <t>e_w42799487-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0156,elc_spv-DEU_0156</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0129,elc_spv-DEU_0129</t>
+  </si>
+  <si>
+    <t>e_w29713902-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0020,elc_spv-DEU_0020</t>
+  </si>
+  <si>
+    <t>e_w559702819-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0052,elc_spv-DEU_0052</t>
+  </si>
+  <si>
+    <t>e_w603661085-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0053,elc_spv-DEU_0053</t>
+  </si>
+  <si>
+    <t>e_w946969736-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0181,elc_spv-DEU_0181</t>
+  </si>
+  <si>
     <t>elc_won-DEU_0130,elc_spv-DEU_0130</t>
   </si>
   <si>
@@ -4154,9 +4940,6 @@
     <t>elc_won-DEU_0117,elc_spv-DEU_0117</t>
   </si>
   <si>
-    <t>e_w30040568-380</t>
-  </si>
-  <si>
     <t>elc_won-DEU_0139,elc_spv-DEU_0139</t>
   </si>
   <si>
@@ -4178,15 +4961,105 @@
     <t>elc_won-DEU_0170,elc_spv-DEU_0170</t>
   </si>
   <si>
-    <t>e_w24976300-380</t>
-  </si>
-  <si>
     <t>elc_won-DEU_0094,elc_spv-DEU_0094</t>
   </si>
   <si>
     <t>e_DE163-220</t>
   </si>
   <si>
+    <t>elc_won-DEU_0040,elc_spv-DEU_0040</t>
+  </si>
+  <si>
+    <t>e_DE183-220,e_w152261133-220,e_w152261133-380,e_w254326606-380,e_w32151621-220,e_w32725957-220,e_w32725958-220,e_w32731290-220,e_w32966636-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0018,elc_spv-DEU_0018</t>
+  </si>
+  <si>
+    <t>e_DE20-380,e_w1280840211-380,e_w142487746-380,e_w206289192-380,e_w32042992-380,e_w797009308-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0073,elc_spv-DEU_0073</t>
+  </si>
+  <si>
+    <t>e_DE202-220,e_DE202-380,e_DE205-220,e_DE205-380,e_w26404600-380,e_w41389594-220,e_w41389594-380,e_w85523877-220,e_w85523877-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0104,elc_spv-DEU_0104</t>
+  </si>
+  <si>
+    <t>e_DE211-220,e_DE212-220,e_w68532663-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0131,elc_spv-DEU_0131</t>
+  </si>
+  <si>
+    <t>e_DE47-220,e_w26472665-220,e_w26472665-380,e_w943939310-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0064,elc_spv-DEU_0064</t>
+  </si>
+  <si>
+    <t>e_DE49-380,e_w23135618-220,e_w24413992-380,e_w28397771-220,e_w288305056-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0186,elc_spv-DEU_0186</t>
+  </si>
+  <si>
+    <t>e_w170123812-220,e_w170123812-380,e_w170123812-400</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0105,elc_spv-DEU_0105</t>
+  </si>
+  <si>
+    <t>e_w23907283-380,e_w24237879-220,e_w30613895-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0088,elc_spv-DEU_0088</t>
+  </si>
+  <si>
+    <t>e_w57727004-220,e_w57727004-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0089,elc_spv-DEU_0089</t>
+  </si>
+  <si>
+    <t>e_w683227471-380,e_w77038371-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0023,elc_spv-DEU_0023</t>
+  </si>
+  <si>
+    <t>e_w82130902-225,e_w933248930-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0137,elc_spv-DEU_0137</t>
+  </si>
+  <si>
+    <t>e_w75865676-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0036,elc_spv-DEU_0036</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0188,elc_spv-DEU_0188</t>
+  </si>
+  <si>
+    <t>e_w1222597066-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0061,elc_spv-DEU_0061</t>
+  </si>
+  <si>
+    <t>e_w156673636-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0113,elc_spv-DEU_0113</t>
+  </si>
+  <si>
+    <t>e_w32690742-380</t>
+  </si>
+  <si>
     <t>elc_won-DEU_0127,elc_spv-DEU_0127</t>
   </si>
   <si>
@@ -4250,9 +5123,6 @@
     <t>elc_won-DEU_0119,elc_spv-DEU_0119</t>
   </si>
   <si>
-    <t>e_w275466323-380</t>
-  </si>
-  <si>
     <t>elc_won-DEU_0187,elc_spv-DEU_0187</t>
   </si>
   <si>
@@ -4265,675 +5135,6 @@
     <t>e_w26474759-380</t>
   </si>
   <si>
-    <t>elc_won-DEU_0015,elc_spv-DEU_0015</t>
-  </si>
-  <si>
-    <t>e_DE100-220,e_DE100-380,e_DE102-220,e_DE102-380,e_DE66-220,e_DE66-380,e_DE68-220,e_DE68-380,e_DE69-220,e_DE69-380,e_DE72-220,e_DE75-380,e_DE76-380,e_DE78-220,e_DE80-220,e_DE80-380,e_DE81-220,e_DE82-220,e_DE83-220,e_DE84-220,e_DE86-220,e_DE87-220,e_DE87-380,e_DE89-220,e_DE89-380,e_DE92-220,e_DE96-220,e_DE96-380,e_DE98-220,e_w1076001174-220,e_w1076001174-380,e_w113546939-220,e_w113546939-380,e_w121199242-220,e_w121199242-380,e_w1303270458-220,e_w1303270458-380,e_w150267232-220,e_w156973363-220,e_w22944791-220,e_w22964137-380,e_w23022100-220,e_w23022100-380,e_w23067006-380,e_w24280460-380,e_w24415232-220,e_w24921206-220,e_w24921206-380,e_w25051880-220,e_w26291794-380,e_w275138524-380,e_w28452784-220,e_w29077623-220,e_w29077623-380,e_w311444691-380,e_w32472806-380,e_w35763480-220,e_w35763480-380,e_w38584673-220,e_w425100082-380,e_w59925390-220,e_w59925390-380,e_w63114179-220,e_w63114179-380,e_w66038431-220,e_w68549340-220,e_w68549340-380,e_w698870101-220,e_w787840119-220,e_w799361667-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0183,elc_spv-DEU_0183</t>
-  </si>
-  <si>
-    <t>e_DE58-380,e_DE99-380,e_w157806991-380,e_w30164703-380,e_w58429825-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0112,elc_spv-DEU_0112</t>
-  </si>
-  <si>
-    <t>e_w143882655-220,e_w143882655-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0078,elc_spv-DEU_0078</t>
-  </si>
-  <si>
-    <t>e_w148446247-380,e_w29309786-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0012,elc_spv-DEU_0012</t>
-  </si>
-  <si>
-    <t>e_w154869247-220,e_w395847307-220,e_w395847307-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0126,elc_spv-DEU_0126</t>
-  </si>
-  <si>
-    <t>e_w93341407-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0007,elc_spv-DEU_0007</t>
-  </si>
-  <si>
-    <t>e_w979801144-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0157,elc_spv-DEU_0157</t>
-  </si>
-  <si>
-    <t>e_w78441561-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0083,elc_spv-DEU_0083</t>
-  </si>
-  <si>
-    <t>e_w23816140-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0180,elc_spv-DEU_0180</t>
-  </si>
-  <si>
-    <t>e_DE1-220,e_DE2-220,e_DE3-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0079,elc_spv-DEU_0079</t>
-  </si>
-  <si>
-    <t>e_DE108-220,e_w156960655-380,e_w172997498-220,e_w456386244-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0176,elc_spv-DEU_0176</t>
-  </si>
-  <si>
-    <t>e_DE16-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0017,elc_spv-DEU_0017</t>
-  </si>
-  <si>
-    <t>e_DE31-380,e_w61918154-220,e_w61918154-380,e_w796306640-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0046,elc_spv-DEU_0046</t>
-  </si>
-  <si>
-    <t>e_DE63-220,e_DE94-380,e_DE95-380,e_w25943440-220,e_w25943440-380,e_w42797575-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0123,elc_spv-DEU_0123</t>
-  </si>
-  <si>
-    <t>e_w133342285-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0097,elc_spv-DEU_0097</t>
-  </si>
-  <si>
-    <t>e_w157164284-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0185,elc_spv-DEU_0185</t>
-  </si>
-  <si>
-    <t>e_w414169327-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0172,elc_spv-DEU_0172</t>
-  </si>
-  <si>
-    <t>e_w942771541-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0141,elc_spv-DEU_0141</t>
-  </si>
-  <si>
-    <t>e_w28956649-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0149,elc_spv-DEU_0149</t>
-  </si>
-  <si>
-    <t>e_w851299584-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0035,elc_spv-DEU_0035</t>
-  </si>
-  <si>
-    <t>e_w29420322-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0063,elc_spv-DEU_0063</t>
-  </si>
-  <si>
-    <t>e_DE104-380,e_w274630377-220,e_w274630377-380,e_w42681484-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0145,elc_spv-DEU_0145</t>
-  </si>
-  <si>
-    <t>e_DE119-380,e_w23161029-220,e_w32843531-220,e_w32843531-380,e_w442199284-380,e_w714098678-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0027,elc_spv-DEU_0027</t>
-  </si>
-  <si>
-    <t>e_DE155-380,e_DE156-380,e_w160584794-380,e_w50898216-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0058,elc_spv-DEU_0058</t>
-  </si>
-  <si>
-    <t>e_DE179-220,e_w1104947187-380,e_w1327333163-220,e_w1327333163-380,e_w143903369-220,e_w143903369-380,e_w159326655-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0068,elc_spv-DEU_0068</t>
-  </si>
-  <si>
-    <t>e_DE6-380,e_w1089769599-220,e_w1089769599-380,e_w1280364401-380,e_w289836713-380,e_w525964617,e_w525964629-380,e_w60032354-220,e_w87722999-220,e_w87722999-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0140,elc_spv-DEU_0140</t>
-  </si>
-  <si>
-    <t>e_w29417741-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0116,elc_spv-DEU_0116</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0136,elc_spv-DEU_0136</t>
-  </si>
-  <si>
-    <t>e_DE5-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0054,elc_spv-DEU_0054</t>
-  </si>
-  <si>
-    <t>e_w31367936-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0029,elc_spv-DEU_0029</t>
-  </si>
-  <si>
-    <t>e_DE109-220,e_DE132-220,e_w132814303-220,e_w83916207-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0000,elc_spv-DEU_0000</t>
-  </si>
-  <si>
-    <t>e_DE175-220,e_DE177-220,e_w82773910-220,e_w82773910-380,e_w82773910-400,e_w89215122-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0057,elc_spv-DEU_0057</t>
-  </si>
-  <si>
-    <t>e_DE184-380,e_DE185-380,e_DE186-380,e_DE187-380,e_DE188-380,e_DE189-380,e_DE190-380,e_DE191-380,e_DE192-380,e_DE193-380,e_w147878692-380,e_w22960899-380,e_w25786404-220,e_w25786404-380,e_w37721677-380,e_w41334805-220,e_w41334805-380,e_w43688805-220,e_w43688805-380,e_w48428875-380,e_w97825259-220,e_w97825259-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0163,elc_spv-DEU_0163</t>
-  </si>
-  <si>
-    <t>e_DE21-220,e_DE25-380,e_w11500045-380,e_w27149550-220,e_w27149550-380,e_w30132758-380,e_w30303506-380,e_w30309989-220,e_w43163132-380,e_w46615737-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0099,elc_spv-DEU_0099</t>
-  </si>
-  <si>
-    <t>e_DE36-220,e_w24258096-380,e_w24272339-380,e_w24272541-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0016,elc_spv-DEU_0016</t>
-  </si>
-  <si>
-    <t>e_DE39-220,e_DE41-380,e_DE45-380,e_DE50-380,e_DE54-380,e_w844075808-380,e_w952346322-380,e_w979801144-220,e_w979801144-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0152,elc_spv-DEU_0152</t>
-  </si>
-  <si>
-    <t>e_DE5-380,e_w32063539-380,e_w32318130-220,e_w940919943</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0151,elc_spv-DEU_0151</t>
-  </si>
-  <si>
-    <t>e_w1094015892-220,e_w1094015892-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0102,elc_spv-DEU_0102</t>
-  </si>
-  <si>
-    <t>e_w1102237380-220,e_w1102237380-380,e_w1191459479-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0010,elc_spv-DEU_0010</t>
-  </si>
-  <si>
-    <t>e_w152018146-220,e_w152018146-380,e_w156402422-220,e_w207756597-220,e_w54359256-220,e_w54359256-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0122,elc_spv-DEU_0122</t>
-  </si>
-  <si>
-    <t>e_w24158385-220,e_w26245195-220,e_w26245195-380,e_w5404079-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0011,elc_spv-DEU_0011</t>
-  </si>
-  <si>
-    <t>e_w42097854-220,e_w42097854-380,e_w66764943-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0008,elc_spv-DEU_0008</t>
-  </si>
-  <si>
-    <t>e_w672738029-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0169,elc_spv-DEU_0169</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0092,elc_spv-DEU_0092</t>
-  </si>
-  <si>
-    <t>e_w24705761-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0095,elc_spv-DEU_0095</t>
-  </si>
-  <si>
-    <t>e_w948341123-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0084,elc_spv-DEU_0084</t>
-  </si>
-  <si>
-    <t>e_DE10-380,e_DE11-380,e_DE12-380,e_w11285720-380,e_w24502420-380,e_w881636329-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0044,elc_spv-DEU_0044</t>
-  </si>
-  <si>
-    <t>e_DE146-380,e_DE152-380,e_w1245826064-380,e_w1245867884-380,e_w202747445-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0090,elc_spv-DEU_0090</t>
-  </si>
-  <si>
-    <t>e_DE200-380,e_w1093896544-380,e_w31105067-380,e_w88945213-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0005,elc_spv-DEU_0005</t>
-  </si>
-  <si>
-    <t>e_DE62-220,e_DE62-380,e_DE67-220,e_DE67-380,e_DE70-220,e_DE70-380,e_DE73-220,e_DE73-380,e_DE74-220,e_DE74-380,e_DE77-220,e_DE77-380,e_DE79-220,e_DE93-220,e_DE97-220,e_w23084417-220,e_w23380800-220,e_w23380800-380,e_w24462228-220,e_w24462317-220,e_w24462426-220,e_w24462426-380,e_w24478889-220,e_w24478889-380,e_w24479003-220,e_w24479003-380,e_w311444692-380,e_w35818134-220,e_w35818137-220,e_w37554416-220,e_w92024105-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0082,elc_spv-DEU_0082</t>
-  </si>
-  <si>
-    <t>e_w23682013-220,e_w23816140-220,e_w274621059-220,e_w33042984-220,e_w787265962-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0161,elc_spv-DEU_0161</t>
-  </si>
-  <si>
-    <t>e_w28729619-380,e_w398680313-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0125,elc_spv-DEU_0125</t>
-  </si>
-  <si>
-    <t>e_w28956649-220,e_w28956649-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0174,elc_spv-DEU_0174</t>
-  </si>
-  <si>
-    <t>e_w940922557-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0182,elc_spv-DEU_0182</t>
-  </si>
-  <si>
-    <t>e_w941805476-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0165,elc_spv-DEU_0165</t>
-  </si>
-  <si>
-    <t>e_w947118608-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0154,elc_spv-DEU_0154</t>
-  </si>
-  <si>
-    <t>e_DE206-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0077,elc_spv-DEU_0077</t>
-  </si>
-  <si>
-    <t>e_w148446247-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0107,elc_spv-DEU_0107</t>
-  </si>
-  <si>
-    <t>e_w24768051-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0128,elc_spv-DEU_0128</t>
-  </si>
-  <si>
-    <t>e_DE151-220,e_w1086825107-220,e_w1086825107-380,e_w148211527-380,e_w156673637-220,e_w156673637-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0001,elc_spv-DEU_0001</t>
-  </si>
-  <si>
-    <t>e_DE164-220,e_DE167-380,e_DE170-380,e_DE172-220,e_DE172-380,e_DE173-220,e_w145680894-220,e_w151967290-220,e_w151967290-380,e_w151967291-220,e_w151967291-380,e_w89176939-220,e_w89176956-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0184,elc_spv-DEU_0184</t>
-  </si>
-  <si>
-    <t>e_DE46-380,e_w52983550-380,e_w941198517-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0085,elc_spv-DEU_0085</t>
-  </si>
-  <si>
-    <t>e_DE7-220,e_DE8-380,e_w1107961833-380,e_w22720647-220,e_w22720647-380,e_w25306938-380,e_w28008024-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0071,elc_spv-DEU_0071</t>
-  </si>
-  <si>
-    <t>e_w31131320-220,e_w31131320-380,e_w31131325-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0138,elc_spv-DEU_0138</t>
-  </si>
-  <si>
-    <t>e_w75865676-220,e_w91080806-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0087,elc_spv-DEU_0087</t>
-  </si>
-  <si>
-    <t>e_w907539360-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0111,elc_spv-DEU_0111</t>
-  </si>
-  <si>
-    <t>e_DE134-380,e_w149256409-380,e_w152219167-220,e_w25746125-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0003,elc_spv-DEU_0003</t>
-  </si>
-  <si>
-    <t>e_DE136-380,e_DE141-380,e_w24268944-380,e_w25426571-380,e_w25992879-380,e_w26593935-380,e_w870598507,e_w870598507-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0056,elc_spv-DEU_0056</t>
-  </si>
-  <si>
-    <t>e_DE195-380,e_DE196-380,e_DE197-380,e_DE198-380,e_DE199-380,e_w26260052-380,e_w30734324-380,e_w42736239-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0150,elc_spv-DEU_0150</t>
-  </si>
-  <si>
-    <t>e_DE9-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0032,elc_spv-DEU_0032</t>
-  </si>
-  <si>
-    <t>e_w150200540-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0025,elc_spv-DEU_0025</t>
-  </si>
-  <si>
-    <t>e_w152107815-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0160,elc_spv-DEU_0160</t>
-  </si>
-  <si>
-    <t>e_w157328339-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0109,elc_spv-DEU_0109</t>
-  </si>
-  <si>
-    <t>e_w24757393-380,e_w24757833-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0164,elc_spv-DEU_0164</t>
-  </si>
-  <si>
-    <t>e_w518455594-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0022,elc_spv-DEU_0022</t>
-  </si>
-  <si>
-    <t>e_w87653464-220,e_w87653464-380,e_w87653464-400</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0096,elc_spv-DEU_0096</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0153,elc_spv-DEU_0153</t>
-  </si>
-  <si>
-    <t>e_w91080806-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0168,elc_spv-DEU_0168</t>
-  </si>
-  <si>
-    <t>e_w946710698-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0062,elc_spv-DEU_0062</t>
-  </si>
-  <si>
-    <t>e_DE121-380,e_w156673636-380,e_w41072584-380,e_w41232144-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0028,elc_spv-DEU_0028</t>
-  </si>
-  <si>
-    <t>e_DE135-220,e_DE137-220,e_DE137-380,e_DE140-380,e_DE143-380,e_DE145-220,e_DE147-380,e_DE148-220,e_DE148-380,e_DE150-380,e_w152403632-220,e_w152403632-380,e_w89043564-220,e_w89043564-380,e_w90148336-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0013,elc_spv-DEU_0013</t>
-  </si>
-  <si>
-    <t>e_DE138-220,e_DE138-380,e_DE139-220,e_DE139-380,e_DE144-380,e_DE153-380,e_DE154-380,e_w22765517-220,e_w22765517-380,e_w22766160-220,e_w22766160-380,e_w22767509-220,e_w22767509-380,e_w22796434-220,e_w26777313-380,e_w29374542-220,e_w32148946-220,e_w42423415-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0093,elc_spv-DEU_0093</t>
-  </si>
-  <si>
-    <t>e_DE163-220,e_w108797675-380,e_w24758329-380,e_w499165542-220,e_w499165542-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0080,elc_spv-DEU_0080</t>
-  </si>
-  <si>
-    <t>e_DE59-220,e_DE60-220,e_w952004951-220,e_w952004951-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0055,elc_spv-DEU_0055</t>
-  </si>
-  <si>
-    <t>e_w102743264-220,e_w25306752-220,e_w25306752-380,e_w31367936-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0101,elc_spv-DEU_0101</t>
-  </si>
-  <si>
-    <t>e_w1089911133-380,e_w23583867-380,e_w28327356-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0059,elc_spv-DEU_0059</t>
-  </si>
-  <si>
-    <t>e_w145002769-380,e_w55069713-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0091,elc_spv-DEU_0091</t>
-  </si>
-  <si>
-    <t>e_w38325076-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0019,elc_spv-DEU_0019</t>
-  </si>
-  <si>
-    <t>e_w559702819-220,e_w559702819-380,e_w672738029-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0147,elc_spv-DEU_0147</t>
-  </si>
-  <si>
-    <t>e_w40621568-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0171,elc_spv-DEU_0171</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0049,elc_spv-DEU_0049</t>
-  </si>
-  <si>
-    <t>e_DE17-380,e_w24493551-380,e_w44717036-380,e_w871646309-380,e_w951273401-380,e_w951773852-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0041,elc_spv-DEU_0041</t>
-  </si>
-  <si>
-    <t>e_DE174-220,e_DE176-220,e_DE178-380,e_DE180-220,e_DE181-380,e_DE182-380,e_r17591073-220,e_w152924498-220,e_w152924498-380,e_w152924508-220,e_w152973139-220,e_w152973139-380,e_w156676050-220,e_w160929097-220,e_w207248812-220,e_w207248812-380,e_w259561755-380,e_w409305507-220,e_w46584363-220,e_w46584363-380,e_w48057110-380,e_w600395952-220,e_w600395952-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0133,elc_spv-DEU_0133</t>
-  </si>
-  <si>
-    <t>e_DE18-220,e_DE18-380,e_DE19-380,e_w59707532-220,e_w59707532-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0134,elc_spv-DEU_0134</t>
-  </si>
-  <si>
-    <t>e_w234171369-380,e_w274603394-380,e_w517421342-220,e_w517421342-380,e_w851299584-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0060,elc_spv-DEU_0060</t>
-  </si>
-  <si>
-    <t>e_w23881272-220,e_w24042358-380,e_w42372159-380,e_w42410916-220,e_w42410916-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0108,elc_spv-DEU_0108</t>
-  </si>
-  <si>
-    <t>e_w24705761-220,e_w24705761-380,e_w28613721-380,e_w954971276-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0148,elc_spv-DEU_0148</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0178,elc_spv-DEU_0178</t>
-  </si>
-  <si>
-    <t>e_w1091984573-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0072,elc_spv-DEU_0072</t>
-  </si>
-  <si>
-    <t>e_w41389594-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0066,elc_spv-DEU_0066</t>
-  </si>
-  <si>
-    <t>e_DE15-220,e_w229565743-220,e_w28812249-220,e_w955268863-220,e_w955268863-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0043,elc_spv-DEU_0043</t>
-  </si>
-  <si>
-    <t>e_DE159-380,e_DE160-220,e_DE161-380,e_DE162-380,e_w169244940-220,e_w169244940-380,e_w23641079-220,e_w23641079-380,e_w38661452-380,e_w4826893-220,e_w62061952-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0175,elc_spv-DEU_0175</t>
-  </si>
-  <si>
-    <t>e_DE22-220,e_DE22-380,e_DE23-220,e_DE23-380,e_DE24-220,e_DE24-380,e_DE26-380,e_DE27-220,e_DE27-380,e_w22973052-220,e_w22973070-220,e_w22973070-380,e_w30954714-380,e_w940636813-220,e_w940636813-380,e_w942448206-220,e_w942448206-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0114,elc_spv-DEU_0114</t>
-  </si>
-  <si>
-    <t>e_DE44-380,e_w26474759-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0069,elc_spv-DEU_0069</t>
-  </si>
-  <si>
-    <t>e_w1071504343-380,e_w603661085-380,e_w907539360-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0179,elc_spv-DEU_0179</t>
-  </si>
-  <si>
-    <t>e_w1091984573-220,e_w1091984573-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0050,elc_spv-DEU_0050</t>
-  </si>
-  <si>
-    <t>e_w1134105414-380,e_w157421333-220,e_w266684854-380,e_w32076853-220,e_w32076853-380,e_w42872354-220,e_w829116805-220,e_w829116805-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0124,elc_spv-DEU_0124</t>
-  </si>
-  <si>
-    <t>e_w137602559-220,e_w137602559-380,e_w24759324-220,e_w24768051-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0045,elc_spv-DEU_0045</t>
-  </si>
-  <si>
-    <t>e_w42799487-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0156,elc_spv-DEU_0156</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0129,elc_spv-DEU_0129</t>
-  </si>
-  <si>
-    <t>e_w29713902-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0020,elc_spv-DEU_0020</t>
-  </si>
-  <si>
-    <t>e_w559702819-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0052,elc_spv-DEU_0052</t>
-  </si>
-  <si>
-    <t>e_w603661085-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0053,elc_spv-DEU_0053</t>
-  </si>
-  <si>
-    <t>e_w946969736-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0181,elc_spv-DEU_0181</t>
-  </si>
-  <si>
     <t>elc_won-DEU_0014,elc_spv-DEU_0014</t>
   </si>
   <si>
@@ -4994,207 +5195,6 @@
     <t>e_w234171369-380</t>
   </si>
   <si>
-    <t>elc_won-DEU_0004,elc_spv-DEU_0004</t>
-  </si>
-  <si>
-    <t>e_DE106-220,e_DE107-220,e_DE107-380,e_DE110-220,e_DE110-380,e_DE112-380,e_DE113-220,e_DE114-380,e_DE117-380,e_DE125-220,e_DE125-380,e_DE127-380,e_DE128-380,e_DE131-220,e_DE133-380,e_w1040551074-220,e_w188276460-220,e_w188276460-380,e_w23084554-220,e_w23084554-380,e_w24267175-220,e_w24479984-220,e_w24479984-380,e_w24799890-220,e_w24799890-380,e_w24815262-220,e_w24839976-220,e_w24839976-380,e_w26927264-380,e_w27919734-220,e_w27919734-380,e_w31762305-220,e_w49577401-220,e_w49577401-380,e_w91854336-220,e_w91854336-380,e_w92877635-220,e_w93278553-220,e_w95434457-220,e_w95434457-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0144,elc_spv-DEU_0144</t>
-  </si>
-  <si>
-    <t>e_DE142-380,e_w167352587-220,e_w173112252-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0177,elc_spv-DEU_0177</t>
-  </si>
-  <si>
-    <t>e_w1222597066-220,e_w1222597066-380,e_w30039908-220,e_w30039908-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0075,elc_spv-DEU_0075</t>
-  </si>
-  <si>
-    <t>e_w143854536-380,e_w31653753-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0106,elc_spv-DEU_0106</t>
-  </si>
-  <si>
-    <t>e_w18629425-220,e_w18629425-380,e_w53378027-380,e_w76246159-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0039,elc_spv-DEU_0039</t>
-  </si>
-  <si>
-    <t>e_w26814283-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0162,elc_spv-DEU_0162</t>
-  </si>
-  <si>
-    <t>e_w29331499-220,e_w29331499-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0167,elc_spv-DEU_0167</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0006,elc_spv-DEU_0006</t>
-  </si>
-  <si>
-    <t>e_DE62-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0009,elc_spv-DEU_0009</t>
-  </si>
-  <si>
-    <t>e_w156402422-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0067,elc_spv-DEU_0067</t>
-  </si>
-  <si>
-    <t>e_DE13-380,e_DE14-380,e_w1072574879-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0024,elc_spv-DEU_0024</t>
-  </si>
-  <si>
-    <t>e_DE194-220,e_w39011884-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0021,elc_spv-DEU_0021</t>
-  </si>
-  <si>
-    <t>e_DE213-380,e_w202865176-220,e_w202865177-380,e_w88916034-220,e_w88916034-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0081,elc_spv-DEU_0081</t>
-  </si>
-  <si>
-    <t>e_DE55-220,e_DE57-380,e_w23899043-380,e_w30109913-220,e_w699048438-220,e_w810315511-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0086,elc_spv-DEU_0086</t>
-  </si>
-  <si>
-    <t>e_w27646106-220,e_w35176751-220,e_w35176751-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0070,elc_spv-DEU_0070</t>
-  </si>
-  <si>
-    <t>e_w449010725-380,e_w946969736-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0120,elc_spv-DEU_0120</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0143,elc_spv-DEU_0143</t>
-  </si>
-  <si>
-    <t>e_w167352587-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0158,elc_spv-DEU_0158</t>
-  </si>
-  <si>
-    <t>e_w166604822-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0040,elc_spv-DEU_0040</t>
-  </si>
-  <si>
-    <t>e_DE183-220,e_w152261133-220,e_w152261133-380,e_w254326606-380,e_w32151621-220,e_w32725957-220,e_w32725958-220,e_w32731290-220,e_w32966636-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0018,elc_spv-DEU_0018</t>
-  </si>
-  <si>
-    <t>e_DE20-380,e_w1280840211-380,e_w142487746-380,e_w206289192-380,e_w32042992-380,e_w797009308-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0073,elc_spv-DEU_0073</t>
-  </si>
-  <si>
-    <t>e_DE202-220,e_DE202-380,e_DE205-220,e_DE205-380,e_w26404600-380,e_w41389594-220,e_w41389594-380,e_w85523877-220,e_w85523877-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0104,elc_spv-DEU_0104</t>
-  </si>
-  <si>
-    <t>e_DE211-220,e_DE212-220,e_w68532663-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0131,elc_spv-DEU_0131</t>
-  </si>
-  <si>
-    <t>e_DE47-220,e_w26472665-220,e_w26472665-380,e_w943939310-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0064,elc_spv-DEU_0064</t>
-  </si>
-  <si>
-    <t>e_DE49-380,e_w23135618-220,e_w24413992-380,e_w28397771-220,e_w288305056-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0186,elc_spv-DEU_0186</t>
-  </si>
-  <si>
-    <t>e_w170123812-220,e_w170123812-380,e_w170123812-400</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0105,elc_spv-DEU_0105</t>
-  </si>
-  <si>
-    <t>e_w23907283-380,e_w24237879-220,e_w30613895-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0088,elc_spv-DEU_0088</t>
-  </si>
-  <si>
-    <t>e_w57727004-220,e_w57727004-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0089,elc_spv-DEU_0089</t>
-  </si>
-  <si>
-    <t>e_w683227471-380,e_w77038371-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0023,elc_spv-DEU_0023</t>
-  </si>
-  <si>
-    <t>e_w82130902-225,e_w933248930-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0137,elc_spv-DEU_0137</t>
-  </si>
-  <si>
-    <t>e_w75865676-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0036,elc_spv-DEU_0036</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0188,elc_spv-DEU_0188</t>
-  </si>
-  <si>
-    <t>e_w1222597066-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0061,elc_spv-DEU_0061</t>
-  </si>
-  <si>
-    <t>e_w156673636-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0113,elc_spv-DEU_0113</t>
-  </si>
-  <si>
-    <t>e_w32690742-380</t>
-  </si>
-  <si>
     <t>distr_wofelc_wof-DEU_0173</t>
   </si>
   <si>
@@ -5213,6 +5213,192 @@
     <t>connecting wind offshore to buses in grid cell DEU_3</t>
   </si>
   <si>
+    <t>distr_wofelc_wof-DEU_0054</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_54</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0087</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_87</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0037</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_37</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0009</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_9</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0118</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_118</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0055</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_55</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0084</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_84</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0085</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_85</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0172</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_172</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0021</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_21</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0011</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_11</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0020</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_20</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0086</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_86</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0024</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_24</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0179</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_179</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0069</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_69</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0053</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_53</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0163</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_163</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0133</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_133</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0012</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_12</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0010</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_10</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0023</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_23</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0149</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_149</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0052</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_52</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0038</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_38</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0134</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_134</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0039</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_39</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0180</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_180</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0036</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_36</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0001</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_1</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0002</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_2</t>
+  </si>
+  <si>
     <t>distr_wofelc_wof-DEU_0103</t>
   </si>
   <si>
@@ -5231,198 +5417,12 @@
     <t>connecting wind offshore to buses in grid cell DEU_119</t>
   </si>
   <si>
-    <t>distr_wofelc_wof-DEU_0118</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_118</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0055</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_55</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0069</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_69</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0053</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_53</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0163</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_163</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0023</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_23</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0149</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_149</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0052</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_52</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0038</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_38</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0134</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_134</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0084</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_84</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0085</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_85</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0172</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_172</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0087</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_87</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0037</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_37</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0009</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_9</t>
-  </si>
-  <si>
     <t>distr_wofelc_wof-DEU_0004</t>
   </si>
   <si>
     <t>connecting wind offshore to buses in grid cell DEU_4</t>
   </si>
   <si>
-    <t>distr_wofelc_wof-DEU_0011</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_11</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0039</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_39</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0020</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_20</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0086</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_86</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0024</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_24</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0179</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_179</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0054</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_54</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0133</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_133</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0012</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_12</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0010</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_10</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0021</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_21</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0180</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_180</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0036</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_36</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0001</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_1</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0002</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_2</t>
-  </si>
-  <si>
     <t>elc_wof-DEU_0173</t>
   </si>
   <si>
@@ -5438,6 +5438,129 @@
     <t>elc_wof-DEU_0003</t>
   </si>
   <si>
+    <t>elc_wof-DEU_0054</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0087</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0037</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0009</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0118</t>
+  </si>
+  <si>
+    <t>e_w1102237380-220,e_w1102237380-380,e_w275466323,e_w275466323-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0055</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0084</t>
+  </si>
+  <si>
+    <t>e_DE10-380,e_DE11-380,e_DE12-380,e_DE13-380,e_DE14-380,e_w11285720-380,e_w24502420-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0085</t>
+  </si>
+  <si>
+    <t>e_DE6-380,e_DE7-220,e_DE8-380,e_w1107961833-380,e_w25306938-380,e_w525964617,e_w525964629-380,e_w60032354-220,e_w87722999-220,e_w87722999-380,e_w881636329-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0172</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0021</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0011</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0020</t>
+  </si>
+  <si>
+    <t>e_w1280840211-380,e_w559702819-220,e_w559702819-380,e_w672738029-220</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0086</t>
+  </si>
+  <si>
+    <t>e_w35176751-220,e_w35176751-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0024</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0179</t>
+  </si>
+  <si>
+    <t>e_DE2-220</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0069</t>
+  </si>
+  <si>
+    <t>e_w1089769599-220,e_w1089769599-380,e_w1280364401-380,e_w289836713-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0053</t>
+  </si>
+  <si>
+    <t>e_w1134105414-380,e_w26455019-220,e_w29420322-220</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0163</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0133</t>
+  </si>
+  <si>
+    <t>e_w234171369-380,e_w30040568-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0012</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0010</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0023</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0149</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0052</t>
+  </si>
+  <si>
+    <t>e_w1128250707-220,e_w1128250707-380,e_w157421333-220,e_w23744346-220,e_w266684854-380,e_w31024391-220,e_w31024391-380,e_w32076853-220,e_w32076853-380,e_w42872354-220,e_w829116805-220,e_w829116805-380,e_w883768276-380,e_w883768277-380,e_w883928228-380,e_w883928229-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0038</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0134</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0039</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0180</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0036</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0001</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0002</t>
+  </si>
+  <si>
     <t>elc_wof-DEU_0103</t>
   </si>
   <si>
@@ -5450,130 +5573,7 @@
     <t>elc_wof-DEU_0119</t>
   </si>
   <si>
-    <t>elc_wof-DEU_0118</t>
-  </si>
-  <si>
-    <t>e_w1102237380-220,e_w1102237380-380,e_w275466323,e_w275466323-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0055</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0069</t>
-  </si>
-  <si>
-    <t>e_w1089769599-220,e_w1089769599-380,e_w1280364401-380,e_w289836713-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0053</t>
-  </si>
-  <si>
-    <t>e_w1134105414-380,e_w26455019-220,e_w29420322-220</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0163</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0023</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0149</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0052</t>
-  </si>
-  <si>
-    <t>e_w1128250707-220,e_w1128250707-380,e_w157421333-220,e_w23744346-220,e_w266684854-380,e_w31024391-220,e_w31024391-380,e_w32076853-220,e_w32076853-380,e_w42872354-220,e_w829116805-220,e_w829116805-380,e_w883768276-380,e_w883768277-380,e_w883928228-380,e_w883928229-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0038</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0134</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0084</t>
-  </si>
-  <si>
-    <t>e_DE10-380,e_DE11-380,e_DE12-380,e_DE13-380,e_DE14-380,e_w11285720-380,e_w24502420-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0085</t>
-  </si>
-  <si>
-    <t>e_DE6-380,e_DE7-220,e_DE8-380,e_w1107961833-380,e_w25306938-380,e_w525964617,e_w525964629-380,e_w60032354-220,e_w87722999-220,e_w87722999-380,e_w881636329-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0172</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0087</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0037</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0009</t>
-  </si>
-  <si>
     <t>elc_wof-DEU_0004</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0011</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0039</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0020</t>
-  </si>
-  <si>
-    <t>e_w1280840211-380,e_w559702819-220,e_w559702819-380,e_w672738029-220</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0086</t>
-  </si>
-  <si>
-    <t>e_w35176751-220,e_w35176751-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0024</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0179</t>
-  </si>
-  <si>
-    <t>e_DE2-220</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0054</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0133</t>
-  </si>
-  <si>
-    <t>e_w234171369-380,e_w30040568-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0012</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0010</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0021</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0180</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0036</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0001</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0002</t>
   </si>
   <si>
     <t>e_won-DEU_0000</t>
@@ -15133,7 +15133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100804C3-70F2-4D27-9E27-BD058C2F4CC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A99113-D1D6-4881-9F03-C12695AA333F}">
   <dimension ref="B9:AR198"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15350,7 +15350,7 @@
         <v>1</v>
       </c>
       <c r="AC11" t="s">
-        <v>823</v>
+        <v>595</v>
       </c>
       <c r="AE11" t="s">
         <v>942</v>
@@ -15466,7 +15466,7 @@
         <v>1</v>
       </c>
       <c r="AC12" t="s">
-        <v>881</v>
+        <v>929</v>
       </c>
       <c r="AE12" t="s">
         <v>942</v>
@@ -15582,7 +15582,7 @@
         <v>1</v>
       </c>
       <c r="AC13" t="s">
-        <v>641</v>
+        <v>787</v>
       </c>
       <c r="AE13" t="s">
         <v>942</v>
@@ -15615,7 +15615,7 @@
         <v>1768</v>
       </c>
       <c r="AP13" t="s">
-        <v>1462</v>
+        <v>1485</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -15698,7 +15698,7 @@
         <v>1</v>
       </c>
       <c r="AC14" t="s">
-        <v>759</v>
+        <v>719</v>
       </c>
       <c r="AE14" t="s">
         <v>942</v>
@@ -15731,13 +15731,13 @@
         <v>1769</v>
       </c>
       <c r="AP14" t="s">
-        <v>1770</v>
+        <v>1555</v>
       </c>
       <c r="AQ14">
         <v>1</v>
       </c>
       <c r="AR14" t="s">
-        <v>769</v>
+        <v>671</v>
       </c>
     </row>
     <row r="15" spans="2:44">
@@ -15814,7 +15814,7 @@
         <v>1</v>
       </c>
       <c r="AC15" t="s">
-        <v>659</v>
+        <v>589</v>
       </c>
       <c r="AE15" t="s">
         <v>942</v>
@@ -15844,16 +15844,16 @@
         <v>1696</v>
       </c>
       <c r="AO15" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="AP15" t="s">
-        <v>1595</v>
+        <v>1433</v>
       </c>
       <c r="AQ15">
         <v>1</v>
       </c>
       <c r="AR15" t="s">
-        <v>609</v>
+        <v>737</v>
       </c>
     </row>
     <row r="16" spans="2:44">
@@ -15930,7 +15930,7 @@
         <v>1</v>
       </c>
       <c r="AC16" t="s">
-        <v>633</v>
+        <v>815</v>
       </c>
       <c r="AE16" t="s">
         <v>942</v>
@@ -15960,16 +15960,16 @@
         <v>1698</v>
       </c>
       <c r="AO16" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="AP16" t="s">
-        <v>1373</v>
+        <v>1555</v>
       </c>
       <c r="AQ16">
         <v>1</v>
       </c>
       <c r="AR16" t="s">
-        <v>801</v>
+        <v>639</v>
       </c>
     </row>
     <row r="17" spans="2:44">
@@ -16046,7 +16046,7 @@
         <v>1</v>
       </c>
       <c r="AC17" t="s">
-        <v>783</v>
+        <v>579</v>
       </c>
       <c r="AE17" t="s">
         <v>942</v>
@@ -16076,16 +16076,16 @@
         <v>1700</v>
       </c>
       <c r="AO17" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="AP17" t="s">
-        <v>1774</v>
+        <v>1485</v>
       </c>
       <c r="AQ17">
         <v>1</v>
       </c>
       <c r="AR17" t="s">
-        <v>799</v>
+        <v>583</v>
       </c>
     </row>
     <row r="18" spans="2:44">
@@ -16162,7 +16162,7 @@
         <v>1</v>
       </c>
       <c r="AC18" t="s">
-        <v>711</v>
+        <v>877</v>
       </c>
       <c r="AE18" t="s">
         <v>942</v>
@@ -16192,16 +16192,16 @@
         <v>1702</v>
       </c>
       <c r="AO18" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="AP18" t="s">
-        <v>1599</v>
+        <v>1774</v>
       </c>
       <c r="AQ18">
         <v>1</v>
       </c>
       <c r="AR18" t="s">
-        <v>673</v>
+        <v>799</v>
       </c>
     </row>
     <row r="19" spans="2:44">
@@ -16278,7 +16278,7 @@
         <v>1</v>
       </c>
       <c r="AC19" t="s">
-        <v>763</v>
+        <v>729</v>
       </c>
       <c r="AE19" t="s">
         <v>942</v>
@@ -16308,16 +16308,16 @@
         <v>1704</v>
       </c>
       <c r="AO19" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="AP19" t="s">
-        <v>1777</v>
+        <v>1582</v>
       </c>
       <c r="AQ19">
         <v>1</v>
       </c>
       <c r="AR19" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
     </row>
     <row r="20" spans="2:44">
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="AC20" t="s">
-        <v>797</v>
+        <v>689</v>
       </c>
       <c r="AE20" t="s">
         <v>942</v>
@@ -16424,16 +16424,16 @@
         <v>1706</v>
       </c>
       <c r="AO20" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="AP20" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="AQ20">
         <v>1</v>
       </c>
       <c r="AR20" t="s">
-        <v>669</v>
+        <v>731</v>
       </c>
     </row>
     <row r="21" spans="2:44">
@@ -16510,7 +16510,7 @@
         <v>1</v>
       </c>
       <c r="AC21" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="AE21" t="s">
         <v>942</v>
@@ -16540,16 +16540,16 @@
         <v>1708</v>
       </c>
       <c r="AO21" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="AP21" t="s">
-        <v>1532</v>
+        <v>1779</v>
       </c>
       <c r="AQ21">
         <v>1</v>
       </c>
       <c r="AR21" t="s">
-        <v>889</v>
+        <v>733</v>
       </c>
     </row>
     <row r="22" spans="2:44">
@@ -16626,7 +16626,7 @@
         <v>1</v>
       </c>
       <c r="AC22" t="s">
-        <v>855</v>
+        <v>619</v>
       </c>
       <c r="AE22" t="s">
         <v>942</v>
@@ -16656,16 +16656,16 @@
         <v>1710</v>
       </c>
       <c r="AO22" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="AP22" t="s">
-        <v>1595</v>
+        <v>1567</v>
       </c>
       <c r="AQ22">
         <v>1</v>
       </c>
       <c r="AR22" t="s">
-        <v>611</v>
+        <v>907</v>
       </c>
     </row>
     <row r="23" spans="2:44">
@@ -16742,7 +16742,7 @@
         <v>1</v>
       </c>
       <c r="AC23" t="s">
-        <v>805</v>
+        <v>679</v>
       </c>
       <c r="AE23" t="s">
         <v>942</v>
@@ -16772,16 +16772,16 @@
         <v>1712</v>
       </c>
       <c r="AO23" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="AP23" t="s">
-        <v>1450</v>
+        <v>1485</v>
       </c>
       <c r="AQ23">
         <v>1</v>
       </c>
       <c r="AR23" t="s">
-        <v>861</v>
+        <v>607</v>
       </c>
     </row>
     <row r="24" spans="2:44">
@@ -16858,7 +16858,7 @@
         <v>1</v>
       </c>
       <c r="AC24" t="s">
-        <v>903</v>
+        <v>699</v>
       </c>
       <c r="AE24" t="s">
         <v>942</v>
@@ -16888,16 +16888,16 @@
         <v>1714</v>
       </c>
       <c r="AO24" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="AP24" t="s">
-        <v>1784</v>
+        <v>1485</v>
       </c>
       <c r="AQ24">
         <v>1</v>
       </c>
       <c r="AR24" t="s">
-        <v>667</v>
+        <v>587</v>
       </c>
     </row>
     <row r="25" spans="2:44">
@@ -16974,7 +16974,7 @@
         <v>1</v>
       </c>
       <c r="AC25" t="s">
-        <v>751</v>
+        <v>843</v>
       </c>
       <c r="AE25" t="s">
         <v>942</v>
@@ -17004,16 +17004,16 @@
         <v>1716</v>
       </c>
       <c r="AO25" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="AP25" t="s">
-        <v>1419</v>
+        <v>1784</v>
       </c>
       <c r="AQ25">
         <v>1</v>
       </c>
       <c r="AR25" t="s">
-        <v>641</v>
+        <v>605</v>
       </c>
     </row>
     <row r="26" spans="2:44">
@@ -17090,7 +17090,7 @@
         <v>1</v>
       </c>
       <c r="AC26" t="s">
-        <v>817</v>
+        <v>795</v>
       </c>
       <c r="AE26" t="s">
         <v>942</v>
@@ -17120,16 +17120,16 @@
         <v>1718</v>
       </c>
       <c r="AO26" t="s">
+        <v>1785</v>
+      </c>
+      <c r="AP26" t="s">
         <v>1786</v>
       </c>
-      <c r="AP26" t="s">
-        <v>1434</v>
-      </c>
       <c r="AQ26">
         <v>1</v>
       </c>
       <c r="AR26" t="s">
-        <v>831</v>
+        <v>735</v>
       </c>
     </row>
     <row r="27" spans="2:44">
@@ -17206,7 +17206,7 @@
         <v>1</v>
       </c>
       <c r="AC27" t="s">
-        <v>649</v>
+        <v>835</v>
       </c>
       <c r="AE27" t="s">
         <v>942</v>
@@ -17239,13 +17239,13 @@
         <v>1787</v>
       </c>
       <c r="AP27" t="s">
-        <v>1788</v>
+        <v>1578</v>
       </c>
       <c r="AQ27">
         <v>1</v>
       </c>
       <c r="AR27" t="s">
-        <v>731</v>
+        <v>613</v>
       </c>
     </row>
     <row r="28" spans="2:44">
@@ -17322,7 +17322,7 @@
         <v>1</v>
       </c>
       <c r="AC28" t="s">
-        <v>715</v>
+        <v>671</v>
       </c>
       <c r="AE28" t="s">
         <v>942</v>
@@ -17352,16 +17352,16 @@
         <v>1722</v>
       </c>
       <c r="AO28" t="s">
+        <v>1788</v>
+      </c>
+      <c r="AP28" t="s">
         <v>1789</v>
       </c>
-      <c r="AP28" t="s">
-        <v>1790</v>
-      </c>
       <c r="AQ28">
         <v>1</v>
       </c>
       <c r="AR28" t="s">
-        <v>733</v>
+        <v>921</v>
       </c>
     </row>
     <row r="29" spans="2:44">
@@ -17438,7 +17438,7 @@
         <v>1</v>
       </c>
       <c r="AC29" t="s">
-        <v>873</v>
+        <v>663</v>
       </c>
       <c r="AE29" t="s">
         <v>942</v>
@@ -17468,16 +17468,16 @@
         <v>1724</v>
       </c>
       <c r="AO29" t="s">
+        <v>1790</v>
+      </c>
+      <c r="AP29" t="s">
         <v>1791</v>
       </c>
-      <c r="AP29" t="s">
-        <v>1584</v>
-      </c>
       <c r="AQ29">
         <v>1</v>
       </c>
       <c r="AR29" t="s">
-        <v>907</v>
+        <v>701</v>
       </c>
     </row>
     <row r="30" spans="2:44">
@@ -17554,7 +17554,7 @@
         <v>1</v>
       </c>
       <c r="AC30" t="s">
-        <v>769</v>
+        <v>647</v>
       </c>
       <c r="AE30" t="s">
         <v>942</v>
@@ -17587,13 +17587,13 @@
         <v>1792</v>
       </c>
       <c r="AP30" t="s">
-        <v>1507</v>
+        <v>1793</v>
       </c>
       <c r="AQ30">
         <v>1</v>
       </c>
       <c r="AR30" t="s">
-        <v>737</v>
+        <v>669</v>
       </c>
     </row>
     <row r="31" spans="2:44">
@@ -17670,7 +17670,7 @@
         <v>1</v>
       </c>
       <c r="AC31" t="s">
-        <v>569</v>
+        <v>829</v>
       </c>
       <c r="AE31" t="s">
         <v>942</v>
@@ -17700,16 +17700,16 @@
         <v>1728</v>
       </c>
       <c r="AO31" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="AP31" t="s">
-        <v>1419</v>
+        <v>1459</v>
       </c>
       <c r="AQ31">
         <v>1</v>
       </c>
       <c r="AR31" t="s">
-        <v>639</v>
+        <v>889</v>
       </c>
     </row>
     <row r="32" spans="2:44">
@@ -17786,7 +17786,7 @@
         <v>1</v>
       </c>
       <c r="AC32" t="s">
-        <v>799</v>
+        <v>831</v>
       </c>
       <c r="AE32" t="s">
         <v>942</v>
@@ -17816,16 +17816,16 @@
         <v>1730</v>
       </c>
       <c r="AO32" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="AP32" t="s">
-        <v>1462</v>
+        <v>1796</v>
       </c>
       <c r="AQ32">
         <v>1</v>
       </c>
       <c r="AR32" t="s">
-        <v>583</v>
+        <v>829</v>
       </c>
     </row>
     <row r="33" spans="2:44">
@@ -17902,7 +17902,7 @@
         <v>1</v>
       </c>
       <c r="AC33" t="s">
-        <v>847</v>
+        <v>683</v>
       </c>
       <c r="AE33" t="s">
         <v>942</v>
@@ -17932,16 +17932,16 @@
         <v>1732</v>
       </c>
       <c r="AO33" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="AP33" t="s">
-        <v>1462</v>
+        <v>1485</v>
       </c>
       <c r="AQ33">
         <v>1</v>
       </c>
       <c r="AR33" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
     </row>
     <row r="34" spans="2:44">
@@ -18018,7 +18018,7 @@
         <v>1</v>
       </c>
       <c r="AC34" t="s">
-        <v>639</v>
+        <v>779</v>
       </c>
       <c r="AE34" t="s">
         <v>942</v>
@@ -18048,16 +18048,16 @@
         <v>1734</v>
       </c>
       <c r="AO34" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="AP34" t="s">
-        <v>1462</v>
+        <v>1485</v>
       </c>
       <c r="AQ34">
         <v>1</v>
       </c>
       <c r="AR34" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="35" spans="2:44">
@@ -18134,7 +18134,7 @@
         <v>1</v>
       </c>
       <c r="AC35" t="s">
-        <v>895</v>
+        <v>859</v>
       </c>
       <c r="AE35" t="s">
         <v>942</v>
@@ -18164,16 +18164,16 @@
         <v>1736</v>
       </c>
       <c r="AO35" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="AP35" t="s">
-        <v>1599</v>
+        <v>1578</v>
       </c>
       <c r="AQ35">
         <v>1</v>
       </c>
       <c r="AR35" t="s">
-        <v>643</v>
+        <v>611</v>
       </c>
     </row>
     <row r="36" spans="2:44">
@@ -18250,7 +18250,7 @@
         <v>1</v>
       </c>
       <c r="AC36" t="s">
-        <v>801</v>
+        <v>919</v>
       </c>
       <c r="AE36" t="s">
         <v>942</v>
@@ -18280,16 +18280,16 @@
         <v>1738</v>
       </c>
       <c r="AO36" t="s">
-        <v>1798</v>
+        <v>1800</v>
       </c>
       <c r="AP36" t="s">
-        <v>1799</v>
+        <v>1473</v>
       </c>
       <c r="AQ36">
         <v>1</v>
       </c>
       <c r="AR36" t="s">
-        <v>605</v>
+        <v>861</v>
       </c>
     </row>
     <row r="37" spans="2:44">
@@ -18366,7 +18366,7 @@
         <v>1</v>
       </c>
       <c r="AC37" t="s">
-        <v>937</v>
+        <v>707</v>
       </c>
       <c r="AE37" t="s">
         <v>942</v>
@@ -18396,16 +18396,16 @@
         <v>1740</v>
       </c>
       <c r="AO37" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="AP37" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="AQ37">
         <v>1</v>
       </c>
       <c r="AR37" t="s">
-        <v>735</v>
+        <v>667</v>
       </c>
     </row>
     <row r="38" spans="2:44">
@@ -18482,7 +18482,7 @@
         <v>1</v>
       </c>
       <c r="AC38" t="s">
-        <v>793</v>
+        <v>731</v>
       </c>
       <c r="AE38" t="s">
         <v>942</v>
@@ -18512,16 +18512,16 @@
         <v>1742</v>
       </c>
       <c r="AO38" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="AP38" t="s">
-        <v>1595</v>
+        <v>1555</v>
       </c>
       <c r="AQ38">
         <v>1</v>
       </c>
       <c r="AR38" t="s">
-        <v>613</v>
+        <v>641</v>
       </c>
     </row>
     <row r="39" spans="2:44">
@@ -18598,7 +18598,7 @@
         <v>1</v>
       </c>
       <c r="AC39" t="s">
-        <v>595</v>
+        <v>653</v>
       </c>
       <c r="AE39" t="s">
         <v>942</v>
@@ -18628,16 +18628,16 @@
         <v>1744</v>
       </c>
       <c r="AO39" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="AP39" t="s">
-        <v>1804</v>
+        <v>1355</v>
       </c>
       <c r="AQ39">
         <v>1</v>
       </c>
       <c r="AR39" t="s">
-        <v>921</v>
+        <v>831</v>
       </c>
     </row>
     <row r="40" spans="2:44">
@@ -18714,7 +18714,7 @@
         <v>1</v>
       </c>
       <c r="AC40" t="s">
-        <v>929</v>
+        <v>743</v>
       </c>
       <c r="AE40" t="s">
         <v>942</v>
@@ -18747,13 +18747,13 @@
         <v>1805</v>
       </c>
       <c r="AP40" t="s">
-        <v>1419</v>
+        <v>1582</v>
       </c>
       <c r="AQ40">
         <v>1</v>
       </c>
       <c r="AR40" t="s">
-        <v>671</v>
+        <v>643</v>
       </c>
     </row>
     <row r="41" spans="2:44">
@@ -18830,7 +18830,7 @@
         <v>1</v>
       </c>
       <c r="AC41" t="s">
-        <v>787</v>
+        <v>575</v>
       </c>
       <c r="AE41" t="s">
         <v>942</v>
@@ -18863,13 +18863,13 @@
         <v>1806</v>
       </c>
       <c r="AP41" t="s">
-        <v>1807</v>
+        <v>1789</v>
       </c>
       <c r="AQ41">
         <v>1</v>
       </c>
       <c r="AR41" t="s">
-        <v>829</v>
+        <v>923</v>
       </c>
     </row>
     <row r="42" spans="2:44">
@@ -18946,7 +18946,7 @@
         <v>1</v>
       </c>
       <c r="AC42" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="AE42" t="s">
         <v>942</v>
@@ -18976,16 +18976,16 @@
         <v>1750</v>
       </c>
       <c r="AO42" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="AP42" t="s">
-        <v>1462</v>
+        <v>1555</v>
       </c>
       <c r="AQ42">
         <v>1</v>
       </c>
       <c r="AR42" t="s">
-        <v>589</v>
+        <v>637</v>
       </c>
     </row>
     <row r="43" spans="2:44">
@@ -19062,7 +19062,7 @@
         <v>1</v>
       </c>
       <c r="AC43" t="s">
-        <v>589</v>
+        <v>885</v>
       </c>
       <c r="AE43" t="s">
         <v>942</v>
@@ -19092,16 +19092,16 @@
         <v>1752</v>
       </c>
       <c r="AO43" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="AP43" t="s">
-        <v>1462</v>
+        <v>1485</v>
       </c>
       <c r="AQ43">
         <v>1</v>
       </c>
       <c r="AR43" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
     </row>
     <row r="44" spans="2:44">
@@ -19178,7 +19178,7 @@
         <v>1</v>
       </c>
       <c r="AC44" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AE44" t="s">
         <v>942</v>
@@ -19208,16 +19208,16 @@
         <v>1754</v>
       </c>
       <c r="AO44" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="AP44" t="s">
-        <v>1462</v>
+        <v>1485</v>
       </c>
       <c r="AQ44">
         <v>1</v>
       </c>
       <c r="AR44" t="s">
-        <v>607</v>
+        <v>569</v>
       </c>
     </row>
     <row r="45" spans="2:44">
@@ -19294,7 +19294,7 @@
         <v>1</v>
       </c>
       <c r="AC45" t="s">
-        <v>579</v>
+        <v>911</v>
       </c>
       <c r="AE45" t="s">
         <v>942</v>
@@ -19324,16 +19324,16 @@
         <v>1756</v>
       </c>
       <c r="AO45" t="s">
+        <v>1810</v>
+      </c>
+      <c r="AP45" t="s">
         <v>1811</v>
       </c>
-      <c r="AP45" t="s">
-        <v>1804</v>
-      </c>
       <c r="AQ45">
         <v>1</v>
       </c>
       <c r="AR45" t="s">
-        <v>923</v>
+        <v>769</v>
       </c>
     </row>
     <row r="46" spans="2:44">
@@ -19410,7 +19410,7 @@
         <v>1</v>
       </c>
       <c r="AC46" t="s">
-        <v>877</v>
+        <v>927</v>
       </c>
       <c r="AE46" t="s">
         <v>942</v>
@@ -19443,13 +19443,13 @@
         <v>1812</v>
       </c>
       <c r="AP46" t="s">
-        <v>1419</v>
+        <v>1578</v>
       </c>
       <c r="AQ46">
         <v>1</v>
       </c>
       <c r="AR46" t="s">
-        <v>637</v>
+        <v>609</v>
       </c>
     </row>
     <row r="47" spans="2:44">
@@ -19526,7 +19526,7 @@
         <v>1</v>
       </c>
       <c r="AC47" t="s">
-        <v>729</v>
+        <v>893</v>
       </c>
       <c r="AE47" t="s">
         <v>942</v>
@@ -19559,13 +19559,13 @@
         <v>1813</v>
       </c>
       <c r="AP47" t="s">
-        <v>1462</v>
+        <v>1415</v>
       </c>
       <c r="AQ47">
         <v>1</v>
       </c>
       <c r="AR47" t="s">
-        <v>567</v>
+        <v>801</v>
       </c>
     </row>
     <row r="48" spans="2:44">
@@ -19642,7 +19642,7 @@
         <v>1</v>
       </c>
       <c r="AC48" t="s">
-        <v>923</v>
+        <v>871</v>
       </c>
       <c r="AE48" t="s">
         <v>942</v>
@@ -19675,13 +19675,13 @@
         <v>1814</v>
       </c>
       <c r="AP48" t="s">
-        <v>1462</v>
+        <v>1485</v>
       </c>
       <c r="AQ48">
         <v>1</v>
       </c>
       <c r="AR48" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="49" spans="2:29">
@@ -19758,7 +19758,7 @@
         <v>1</v>
       </c>
       <c r="AC49" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="50" spans="2:29">
@@ -19835,7 +19835,7 @@
         <v>1</v>
       </c>
       <c r="AC50" t="s">
-        <v>915</v>
+        <v>777</v>
       </c>
     </row>
     <row r="51" spans="2:29">
@@ -19912,7 +19912,7 @@
         <v>1</v>
       </c>
       <c r="AC51" t="s">
-        <v>599</v>
+        <v>697</v>
       </c>
     </row>
     <row r="52" spans="2:29">
@@ -19989,7 +19989,7 @@
         <v>1</v>
       </c>
       <c r="AC52" t="s">
-        <v>657</v>
+        <v>613</v>
       </c>
     </row>
     <row r="53" spans="2:29">
@@ -20066,7 +20066,7 @@
         <v>1</v>
       </c>
       <c r="AC53" t="s">
-        <v>809</v>
+        <v>607</v>
       </c>
     </row>
     <row r="54" spans="2:29">
@@ -20143,7 +20143,7 @@
         <v>1</v>
       </c>
       <c r="AC54" t="s">
-        <v>757</v>
+        <v>725</v>
       </c>
     </row>
     <row r="55" spans="2:29">
@@ -20220,7 +20220,7 @@
         <v>1</v>
       </c>
       <c r="AC55" t="s">
-        <v>933</v>
+        <v>735</v>
       </c>
     </row>
     <row r="56" spans="2:29">
@@ -20297,7 +20297,7 @@
         <v>1</v>
       </c>
       <c r="AC56" t="s">
-        <v>907</v>
+        <v>703</v>
       </c>
     </row>
     <row r="57" spans="2:29">
@@ -20374,7 +20374,7 @@
         <v>1</v>
       </c>
       <c r="AC57" t="s">
-        <v>845</v>
+        <v>803</v>
       </c>
     </row>
     <row r="58" spans="2:29">
@@ -20451,7 +20451,7 @@
         <v>1</v>
       </c>
       <c r="AC58" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
     </row>
     <row r="59" spans="2:29">
@@ -20528,7 +20528,7 @@
         <v>1</v>
       </c>
       <c r="AC59" t="s">
-        <v>635</v>
+        <v>879</v>
       </c>
     </row>
     <row r="60" spans="2:29">
@@ -20605,7 +20605,7 @@
         <v>1</v>
       </c>
       <c r="AC60" t="s">
-        <v>689</v>
+        <v>819</v>
       </c>
     </row>
     <row r="61" spans="2:29">
@@ -20682,7 +20682,7 @@
         <v>1</v>
       </c>
       <c r="AC61" t="s">
-        <v>853</v>
+        <v>567</v>
       </c>
     </row>
     <row r="62" spans="2:29">
@@ -20759,7 +20759,7 @@
         <v>1</v>
       </c>
       <c r="AC62" t="s">
-        <v>619</v>
+        <v>931</v>
       </c>
     </row>
     <row r="63" spans="2:29">
@@ -20836,7 +20836,7 @@
         <v>1</v>
       </c>
       <c r="AC63" t="s">
-        <v>679</v>
+        <v>733</v>
       </c>
     </row>
     <row r="64" spans="2:29">
@@ -20913,7 +20913,7 @@
         <v>1</v>
       </c>
       <c r="AC64" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
     </row>
     <row r="65" spans="2:29">
@@ -20990,7 +20990,7 @@
         <v>1</v>
       </c>
       <c r="AC65" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="66" spans="2:29">
@@ -21061,13 +21061,13 @@
         <v>1432</v>
       </c>
       <c r="AA66" t="s">
-        <v>1341</v>
+        <v>1433</v>
       </c>
       <c r="AB66">
         <v>1</v>
       </c>
       <c r="AC66" t="s">
-        <v>795</v>
+        <v>737</v>
       </c>
     </row>
     <row r="67" spans="2:29">
@@ -21135,16 +21135,16 @@
         <v>1057</v>
       </c>
       <c r="Z67" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="AA67" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="AB67">
         <v>1</v>
       </c>
       <c r="AC67" t="s">
-        <v>835</v>
+        <v>785</v>
       </c>
     </row>
     <row r="68" spans="2:29">
@@ -21212,16 +21212,16 @@
         <v>1059</v>
       </c>
       <c r="Z68" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="AA68" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="AB68">
         <v>1</v>
       </c>
       <c r="AC68" t="s">
-        <v>671</v>
+        <v>571</v>
       </c>
     </row>
     <row r="69" spans="2:29">
@@ -21289,16 +21289,16 @@
         <v>1061</v>
       </c>
       <c r="Z69" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="AA69" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="AB69">
         <v>1</v>
       </c>
       <c r="AC69" t="s">
-        <v>623</v>
+        <v>675</v>
       </c>
     </row>
     <row r="70" spans="2:29">
@@ -21366,16 +21366,16 @@
         <v>1063</v>
       </c>
       <c r="Z70" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="AA70" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="AB70">
         <v>1</v>
       </c>
       <c r="AC70" t="s">
-        <v>565</v>
+        <v>863</v>
       </c>
     </row>
     <row r="71" spans="2:29">
@@ -21443,16 +21443,16 @@
         <v>1065</v>
       </c>
       <c r="Z71" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="AA71" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="AB71">
         <v>1</v>
       </c>
       <c r="AC71" t="s">
-        <v>677</v>
+        <v>629</v>
       </c>
     </row>
     <row r="72" spans="2:29">
@@ -21520,16 +21520,16 @@
         <v>1067</v>
       </c>
       <c r="Z72" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="AA72" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="AB72">
         <v>1</v>
       </c>
       <c r="AC72" t="s">
-        <v>889</v>
+        <v>615</v>
       </c>
     </row>
     <row r="73" spans="2:29">
@@ -21597,16 +21597,16 @@
         <v>1069</v>
       </c>
       <c r="Z73" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="AA73" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="AB73">
         <v>1</v>
       </c>
       <c r="AC73" t="s">
-        <v>761</v>
+        <v>883</v>
       </c>
     </row>
     <row r="74" spans="2:29">
@@ -21674,16 +21674,16 @@
         <v>1071</v>
       </c>
       <c r="Z74" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="AA74" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="AB74">
         <v>1</v>
       </c>
       <c r="AC74" t="s">
-        <v>597</v>
+        <v>781</v>
       </c>
     </row>
     <row r="75" spans="2:29">
@@ -21751,16 +21751,16 @@
         <v>1073</v>
       </c>
       <c r="Z75" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="AA75" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="AB75">
         <v>1</v>
       </c>
       <c r="AC75" t="s">
-        <v>867</v>
+        <v>891</v>
       </c>
     </row>
     <row r="76" spans="2:29">
@@ -21828,16 +21828,16 @@
         <v>1075</v>
       </c>
       <c r="Z76" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="AA76" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="AB76">
         <v>1</v>
       </c>
       <c r="AC76" t="s">
-        <v>865</v>
+        <v>609</v>
       </c>
     </row>
     <row r="77" spans="2:29">
@@ -21905,16 +21905,16 @@
         <v>1077</v>
       </c>
       <c r="Z77" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="AA77" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="AB77">
         <v>1</v>
       </c>
       <c r="AC77" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
     </row>
     <row r="78" spans="2:29">
@@ -21982,16 +21982,16 @@
         <v>1079</v>
       </c>
       <c r="Z78" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="AA78" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="AB78">
         <v>1</v>
       </c>
       <c r="AC78" t="s">
-        <v>585</v>
+        <v>869</v>
       </c>
     </row>
     <row r="79" spans="2:29">
@@ -22059,16 +22059,16 @@
         <v>1081</v>
       </c>
       <c r="Z79" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="AA79" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="AB79">
         <v>1</v>
       </c>
       <c r="AC79" t="s">
-        <v>807</v>
+        <v>899</v>
       </c>
     </row>
     <row r="80" spans="2:29">
@@ -22136,16 +22136,16 @@
         <v>1083</v>
       </c>
       <c r="Z80" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="AA80" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="AB80">
         <v>1</v>
       </c>
       <c r="AC80" t="s">
-        <v>587</v>
+        <v>623</v>
       </c>
     </row>
     <row r="81" spans="2:29">
@@ -22213,16 +22213,16 @@
         <v>1085</v>
       </c>
       <c r="Z81" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="AA81" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="AB81">
         <v>1</v>
       </c>
       <c r="AC81" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
     </row>
     <row r="82" spans="2:29">
@@ -22290,16 +22290,16 @@
         <v>1087</v>
       </c>
       <c r="Z82" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="AA82" t="s">
-        <v>1349</v>
+        <v>1465</v>
       </c>
       <c r="AB82">
         <v>1</v>
       </c>
       <c r="AC82" t="s">
-        <v>901</v>
+        <v>677</v>
       </c>
     </row>
     <row r="83" spans="2:29">
@@ -22367,16 +22367,16 @@
         <v>1089</v>
       </c>
       <c r="Z83" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="AA83" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="AB83">
         <v>1</v>
       </c>
       <c r="AC83" t="s">
-        <v>747</v>
+        <v>889</v>
       </c>
     </row>
     <row r="84" spans="2:29">
@@ -22444,16 +22444,16 @@
         <v>1091</v>
       </c>
       <c r="Z84" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="AA84" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="AB84">
         <v>1</v>
       </c>
       <c r="AC84" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
     </row>
     <row r="85" spans="2:29">
@@ -22521,16 +22521,16 @@
         <v>1093</v>
       </c>
       <c r="Z85" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="AA85" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="AB85">
         <v>1</v>
       </c>
       <c r="AC85" t="s">
-        <v>731</v>
+        <v>597</v>
       </c>
     </row>
     <row r="86" spans="2:29">
@@ -22598,16 +22598,16 @@
         <v>1095</v>
       </c>
       <c r="Z86" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="AA86" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="AB86">
         <v>1</v>
       </c>
       <c r="AC86" t="s">
-        <v>653</v>
+        <v>867</v>
       </c>
     </row>
     <row r="87" spans="2:29">
@@ -22675,16 +22675,16 @@
         <v>1097</v>
       </c>
       <c r="Z87" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="AA87" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="AB87">
         <v>1</v>
       </c>
       <c r="AC87" t="s">
-        <v>743</v>
+        <v>865</v>
       </c>
     </row>
     <row r="88" spans="2:29">
@@ -22752,16 +22752,16 @@
         <v>1099</v>
       </c>
       <c r="Z88" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="AA88" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="AB88">
         <v>1</v>
       </c>
       <c r="AC88" t="s">
-        <v>575</v>
+        <v>767</v>
       </c>
     </row>
     <row r="89" spans="2:29">
@@ -22829,16 +22829,16 @@
         <v>1101</v>
       </c>
       <c r="Z89" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="AA89" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="AB89">
         <v>1</v>
       </c>
       <c r="AC89" t="s">
-        <v>727</v>
+        <v>585</v>
       </c>
     </row>
     <row r="90" spans="2:29">
@@ -22906,16 +22906,16 @@
         <v>1103</v>
       </c>
       <c r="Z90" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="AA90" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="AB90">
         <v>1</v>
       </c>
       <c r="AC90" t="s">
-        <v>885</v>
+        <v>807</v>
       </c>
     </row>
     <row r="91" spans="2:29">
@@ -22983,16 +22983,16 @@
         <v>1105</v>
       </c>
       <c r="Z91" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="AA91" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="AB91">
         <v>1</v>
       </c>
       <c r="AC91" t="s">
-        <v>813</v>
+        <v>587</v>
       </c>
     </row>
     <row r="92" spans="2:29">
@@ -23060,16 +23060,16 @@
         <v>1107</v>
       </c>
       <c r="Z92" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="AA92" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="AB92">
         <v>1</v>
       </c>
       <c r="AC92" t="s">
-        <v>911</v>
+        <v>581</v>
       </c>
     </row>
     <row r="93" spans="2:29">
@@ -23137,16 +23137,16 @@
         <v>1109</v>
       </c>
       <c r="Z93" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="AA93" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="AB93">
         <v>1</v>
       </c>
       <c r="AC93" t="s">
-        <v>927</v>
+        <v>901</v>
       </c>
     </row>
     <row r="94" spans="2:29">
@@ -23214,16 +23214,16 @@
         <v>1111</v>
       </c>
       <c r="Z94" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="AA94" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="AB94">
         <v>1</v>
       </c>
       <c r="AC94" t="s">
-        <v>893</v>
+        <v>747</v>
       </c>
     </row>
     <row r="95" spans="2:29">
@@ -23291,16 +23291,16 @@
         <v>1113</v>
       </c>
       <c r="Z95" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="AA95" t="s">
-        <v>1489</v>
+        <v>1455</v>
       </c>
       <c r="AB95">
         <v>1</v>
       </c>
       <c r="AC95" t="s">
-        <v>871</v>
+        <v>753</v>
       </c>
     </row>
     <row r="96" spans="2:29">
@@ -23368,16 +23368,16 @@
         <v>1115</v>
       </c>
       <c r="Z96" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="AA96" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="AB96">
         <v>1</v>
       </c>
       <c r="AC96" t="s">
-        <v>717</v>
+        <v>687</v>
       </c>
     </row>
     <row r="97" spans="2:29">
@@ -23445,16 +23445,16 @@
         <v>1117</v>
       </c>
       <c r="Z97" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="AA97" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="AB97">
         <v>1</v>
       </c>
       <c r="AC97" t="s">
-        <v>777</v>
+        <v>621</v>
       </c>
     </row>
     <row r="98" spans="2:29">
@@ -23522,16 +23522,16 @@
         <v>1119</v>
       </c>
       <c r="Z98" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="AA98" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="AB98">
         <v>1</v>
       </c>
       <c r="AC98" t="s">
-        <v>819</v>
+        <v>591</v>
       </c>
     </row>
     <row r="99" spans="2:29">
@@ -23599,16 +23599,16 @@
         <v>1121</v>
       </c>
       <c r="Z99" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="AA99" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="AB99">
         <v>1</v>
       </c>
       <c r="AC99" t="s">
-        <v>567</v>
+        <v>749</v>
       </c>
     </row>
     <row r="100" spans="2:29">
@@ -23676,16 +23676,16 @@
         <v>1123</v>
       </c>
       <c r="Z100" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="AA100" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="AB100">
         <v>1</v>
       </c>
       <c r="AC100" t="s">
-        <v>931</v>
+        <v>723</v>
       </c>
     </row>
     <row r="101" spans="2:29">
@@ -23753,16 +23753,16 @@
         <v>1125</v>
       </c>
       <c r="Z101" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="AA101" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="AB101">
         <v>1</v>
       </c>
       <c r="AC101" t="s">
-        <v>733</v>
+        <v>673</v>
       </c>
     </row>
     <row r="102" spans="2:29">
@@ -23830,16 +23830,16 @@
         <v>1127</v>
       </c>
       <c r="Z102" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="AA102" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="AB102">
         <v>1</v>
       </c>
       <c r="AC102" t="s">
-        <v>705</v>
+        <v>765</v>
       </c>
     </row>
     <row r="103" spans="2:29">
@@ -23907,16 +23907,16 @@
         <v>1129</v>
       </c>
       <c r="Z103" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="AA103" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="AB103">
         <v>1</v>
       </c>
       <c r="AC103" t="s">
-        <v>839</v>
+        <v>681</v>
       </c>
     </row>
     <row r="104" spans="2:29">
@@ -23984,16 +23984,16 @@
         <v>1131</v>
       </c>
       <c r="Z104" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="AA104" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="AB104">
         <v>1</v>
       </c>
       <c r="AC104" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
     </row>
     <row r="105" spans="2:29">
@@ -24061,16 +24061,16 @@
         <v>1133</v>
       </c>
       <c r="Z105" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="AA105" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="AB105">
         <v>1</v>
       </c>
       <c r="AC105" t="s">
-        <v>785</v>
+        <v>603</v>
       </c>
     </row>
     <row r="106" spans="2:29">
@@ -24138,16 +24138,16 @@
         <v>1135</v>
       </c>
       <c r="Z106" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="AA106" t="s">
-        <v>1511</v>
+        <v>1371</v>
       </c>
       <c r="AB106">
         <v>1</v>
       </c>
       <c r="AC106" t="s">
-        <v>571</v>
+        <v>857</v>
       </c>
     </row>
     <row r="107" spans="2:29">
@@ -24224,7 +24224,7 @@
         <v>1</v>
       </c>
       <c r="AC107" t="s">
-        <v>675</v>
+        <v>905</v>
       </c>
     </row>
     <row r="108" spans="2:29">
@@ -24301,7 +24301,7 @@
         <v>1</v>
       </c>
       <c r="AC108" t="s">
-        <v>863</v>
+        <v>573</v>
       </c>
     </row>
     <row r="109" spans="2:29">
@@ -24378,7 +24378,7 @@
         <v>1</v>
       </c>
       <c r="AC109" t="s">
-        <v>629</v>
+        <v>851</v>
       </c>
     </row>
     <row r="110" spans="2:29">
@@ -24455,7 +24455,7 @@
         <v>1</v>
       </c>
       <c r="AC110" t="s">
-        <v>615</v>
+        <v>917</v>
       </c>
     </row>
     <row r="111" spans="2:29">
@@ -24532,7 +24532,7 @@
         <v>1</v>
       </c>
       <c r="AC111" t="s">
-        <v>883</v>
+        <v>713</v>
       </c>
     </row>
     <row r="112" spans="2:29">
@@ -24609,7 +24609,7 @@
         <v>1</v>
       </c>
       <c r="AC112" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="113" spans="2:29">
@@ -24686,7 +24686,7 @@
         <v>1</v>
       </c>
       <c r="AC113" t="s">
-        <v>891</v>
+        <v>643</v>
       </c>
     </row>
     <row r="114" spans="2:29">
@@ -24763,7 +24763,7 @@
         <v>1</v>
       </c>
       <c r="AC114" t="s">
-        <v>609</v>
+        <v>887</v>
       </c>
     </row>
     <row r="115" spans="2:29">
@@ -24834,13 +24834,13 @@
         <v>1528</v>
       </c>
       <c r="AA115" t="s">
-        <v>1467</v>
+        <v>1459</v>
       </c>
       <c r="AB115">
         <v>1</v>
       </c>
       <c r="AC115" t="s">
-        <v>755</v>
+        <v>897</v>
       </c>
     </row>
     <row r="116" spans="2:29">
@@ -24917,7 +24917,7 @@
         <v>1</v>
       </c>
       <c r="AC116" t="s">
-        <v>869</v>
+        <v>577</v>
       </c>
     </row>
     <row r="117" spans="2:29">
@@ -24994,7 +24994,7 @@
         <v>1</v>
       </c>
       <c r="AC117" t="s">
-        <v>899</v>
+        <v>583</v>
       </c>
     </row>
     <row r="118" spans="2:29">
@@ -25071,7 +25071,7 @@
         <v>1</v>
       </c>
       <c r="AC118" t="s">
-        <v>687</v>
+        <v>923</v>
       </c>
     </row>
     <row r="119" spans="2:29">
@@ -25148,7 +25148,7 @@
         <v>1</v>
       </c>
       <c r="AC119" t="s">
-        <v>621</v>
+        <v>721</v>
       </c>
     </row>
     <row r="120" spans="2:29">
@@ -25225,7 +25225,7 @@
         <v>1</v>
       </c>
       <c r="AC120" t="s">
-        <v>591</v>
+        <v>915</v>
       </c>
     </row>
     <row r="121" spans="2:29">
@@ -25302,7 +25302,7 @@
         <v>1</v>
       </c>
       <c r="AC121" t="s">
-        <v>749</v>
+        <v>599</v>
       </c>
     </row>
     <row r="122" spans="2:29">
@@ -25379,7 +25379,7 @@
         <v>1</v>
       </c>
       <c r="AC122" t="s">
-        <v>723</v>
+        <v>657</v>
       </c>
     </row>
     <row r="123" spans="2:29">
@@ -25456,7 +25456,7 @@
         <v>1</v>
       </c>
       <c r="AC123" t="s">
-        <v>673</v>
+        <v>809</v>
       </c>
     </row>
     <row r="124" spans="2:29">
@@ -25533,7 +25533,7 @@
         <v>1</v>
       </c>
       <c r="AC124" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
     </row>
     <row r="125" spans="2:29">
@@ -25610,7 +25610,7 @@
         <v>1</v>
       </c>
       <c r="AC125" t="s">
-        <v>681</v>
+        <v>933</v>
       </c>
     </row>
     <row r="126" spans="2:29">
@@ -25681,13 +25681,13 @@
         <v>1549</v>
       </c>
       <c r="AA126" t="s">
-        <v>1550</v>
+        <v>1513</v>
       </c>
       <c r="AB126">
         <v>1</v>
       </c>
       <c r="AC126" t="s">
-        <v>745</v>
+        <v>907</v>
       </c>
     </row>
     <row r="127" spans="2:29">
@@ -25755,16 +25755,16 @@
         <v>1177</v>
       </c>
       <c r="Z127" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AA127" t="s">
         <v>1551</v>
       </c>
-      <c r="AA127" t="s">
-        <v>1552</v>
-      </c>
       <c r="AB127">
         <v>1</v>
       </c>
       <c r="AC127" t="s">
-        <v>603</v>
+        <v>845</v>
       </c>
     </row>
     <row r="128" spans="2:29">
@@ -25832,16 +25832,16 @@
         <v>1179</v>
       </c>
       <c r="Z128" t="s">
+        <v>1552</v>
+      </c>
+      <c r="AA128" t="s">
         <v>1553</v>
       </c>
-      <c r="AA128" t="s">
-        <v>1554</v>
-      </c>
       <c r="AB128">
         <v>1</v>
       </c>
       <c r="AC128" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
     </row>
     <row r="129" spans="2:29">
@@ -25909,16 +25909,16 @@
         <v>1181</v>
       </c>
       <c r="Z129" t="s">
+        <v>1554</v>
+      </c>
+      <c r="AA129" t="s">
         <v>1555</v>
       </c>
-      <c r="AA129" t="s">
-        <v>1413</v>
-      </c>
       <c r="AB129">
         <v>1</v>
       </c>
       <c r="AC129" t="s">
-        <v>905</v>
+        <v>635</v>
       </c>
     </row>
     <row r="130" spans="2:29">
@@ -25995,7 +25995,7 @@
         <v>1</v>
       </c>
       <c r="AC130" t="s">
-        <v>663</v>
+        <v>695</v>
       </c>
     </row>
     <row r="131" spans="2:29">
@@ -26072,7 +26072,7 @@
         <v>1</v>
       </c>
       <c r="AC131" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="132" spans="2:29">
@@ -26149,7 +26149,7 @@
         <v>1</v>
       </c>
       <c r="AC132" t="s">
-        <v>829</v>
+        <v>913</v>
       </c>
     </row>
     <row r="133" spans="2:29">
@@ -26226,7 +26226,7 @@
         <v>1</v>
       </c>
       <c r="AC133" t="s">
-        <v>831</v>
+        <v>791</v>
       </c>
     </row>
     <row r="134" spans="2:29">
@@ -26303,7 +26303,7 @@
         <v>1</v>
       </c>
       <c r="AC134" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
     </row>
     <row r="135" spans="2:29">
@@ -26380,7 +26380,7 @@
         <v>1</v>
       </c>
       <c r="AC135" t="s">
-        <v>779</v>
+        <v>921</v>
       </c>
     </row>
     <row r="136" spans="2:29">
@@ -26451,13 +26451,13 @@
         <v>1568</v>
       </c>
       <c r="AA136" t="s">
-        <v>1554</v>
+        <v>1569</v>
       </c>
       <c r="AB136">
         <v>1</v>
       </c>
       <c r="AC136" t="s">
-        <v>859</v>
+        <v>665</v>
       </c>
     </row>
     <row r="137" spans="2:29">
@@ -26525,16 +26525,16 @@
         <v>1197</v>
       </c>
       <c r="Z137" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="AA137" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="AB137">
         <v>1</v>
       </c>
       <c r="AC137" t="s">
-        <v>919</v>
+        <v>811</v>
       </c>
     </row>
     <row r="138" spans="2:29">
@@ -26602,16 +26602,16 @@
         <v>1199</v>
       </c>
       <c r="Z138" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="AA138" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="AB138">
         <v>1</v>
       </c>
       <c r="AC138" t="s">
-        <v>707</v>
+        <v>655</v>
       </c>
     </row>
     <row r="139" spans="2:29">
@@ -26679,16 +26679,16 @@
         <v>1201</v>
       </c>
       <c r="Z139" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="AA139" t="s">
-        <v>1574</v>
+        <v>1337</v>
       </c>
       <c r="AB139">
         <v>1</v>
       </c>
       <c r="AC139" t="s">
-        <v>695</v>
+        <v>875</v>
       </c>
     </row>
     <row r="140" spans="2:29">
@@ -26765,7 +26765,7 @@
         <v>1</v>
       </c>
       <c r="AC140" t="s">
-        <v>651</v>
+        <v>821</v>
       </c>
     </row>
     <row r="141" spans="2:29">
@@ -26842,7 +26842,7 @@
         <v>1</v>
       </c>
       <c r="AC141" t="s">
-        <v>913</v>
+        <v>605</v>
       </c>
     </row>
     <row r="142" spans="2:29">
@@ -26919,7 +26919,7 @@
         <v>1</v>
       </c>
       <c r="AC142" t="s">
-        <v>791</v>
+        <v>667</v>
       </c>
     </row>
     <row r="143" spans="2:29">
@@ -26996,7 +26996,7 @@
         <v>1</v>
       </c>
       <c r="AC143" t="s">
-        <v>701</v>
+        <v>669</v>
       </c>
     </row>
     <row r="144" spans="2:29">
@@ -27067,13 +27067,13 @@
         <v>1583</v>
       </c>
       <c r="AA144" t="s">
-        <v>1584</v>
+        <v>1393</v>
       </c>
       <c r="AB144">
         <v>1</v>
       </c>
       <c r="AC144" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
     </row>
     <row r="145" spans="2:29">
@@ -27141,16 +27141,16 @@
         <v>1213</v>
       </c>
       <c r="Z145" t="s">
+        <v>1584</v>
+      </c>
+      <c r="AA145" t="s">
         <v>1585</v>
       </c>
-      <c r="AA145" t="s">
-        <v>1586</v>
-      </c>
       <c r="AB145">
         <v>1</v>
       </c>
       <c r="AC145" t="s">
-        <v>665</v>
+        <v>823</v>
       </c>
     </row>
     <row r="146" spans="2:29">
@@ -27218,16 +27218,16 @@
         <v>1215</v>
       </c>
       <c r="Z146" t="s">
+        <v>1586</v>
+      </c>
+      <c r="AA146" t="s">
         <v>1587</v>
       </c>
-      <c r="AA146" t="s">
-        <v>1588</v>
-      </c>
       <c r="AB146">
         <v>1</v>
       </c>
       <c r="AC146" t="s">
-        <v>811</v>
+        <v>881</v>
       </c>
     </row>
     <row r="147" spans="2:29">
@@ -27295,16 +27295,16 @@
         <v>1217</v>
       </c>
       <c r="Z147" t="s">
+        <v>1588</v>
+      </c>
+      <c r="AA147" t="s">
         <v>1589</v>
       </c>
-      <c r="AA147" t="s">
-        <v>1590</v>
-      </c>
       <c r="AB147">
         <v>1</v>
       </c>
       <c r="AC147" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
     </row>
     <row r="148" spans="2:29">
@@ -27372,16 +27372,16 @@
         <v>1219</v>
       </c>
       <c r="Z148" t="s">
+        <v>1590</v>
+      </c>
+      <c r="AA148" t="s">
         <v>1591</v>
       </c>
-      <c r="AA148" t="s">
-        <v>1393</v>
-      </c>
       <c r="AB148">
         <v>1</v>
       </c>
       <c r="AC148" t="s">
-        <v>875</v>
+        <v>759</v>
       </c>
     </row>
     <row r="149" spans="2:29">
@@ -27458,7 +27458,7 @@
         <v>1</v>
       </c>
       <c r="AC149" t="s">
-        <v>821</v>
+        <v>659</v>
       </c>
     </row>
     <row r="150" spans="2:29">
@@ -27535,7 +27535,7 @@
         <v>1</v>
       </c>
       <c r="AC150" t="s">
-        <v>605</v>
+        <v>633</v>
       </c>
     </row>
     <row r="151" spans="2:29">
@@ -27612,7 +27612,7 @@
         <v>1</v>
       </c>
       <c r="AC151" t="s">
-        <v>667</v>
+        <v>783</v>
       </c>
     </row>
     <row r="152" spans="2:29">
@@ -27689,7 +27689,7 @@
         <v>1</v>
       </c>
       <c r="AC152" t="s">
-        <v>669</v>
+        <v>711</v>
       </c>
     </row>
     <row r="153" spans="2:29">
@@ -27760,13 +27760,13 @@
         <v>1600</v>
       </c>
       <c r="AA153" t="s">
-        <v>1485</v>
+        <v>1601</v>
       </c>
       <c r="AB153">
         <v>1</v>
       </c>
       <c r="AC153" t="s">
-        <v>925</v>
+        <v>763</v>
       </c>
     </row>
     <row r="154" spans="2:29">
@@ -27834,16 +27834,16 @@
         <v>1231</v>
       </c>
       <c r="Z154" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="AA154" t="s">
-        <v>1602</v>
+        <v>1353</v>
       </c>
       <c r="AB154">
         <v>1</v>
       </c>
       <c r="AC154" t="s">
-        <v>593</v>
+        <v>797</v>
       </c>
     </row>
     <row r="155" spans="2:29">
@@ -27920,7 +27920,7 @@
         <v>1</v>
       </c>
       <c r="AC155" t="s">
-        <v>617</v>
+        <v>841</v>
       </c>
     </row>
     <row r="156" spans="2:29">
@@ -27997,7 +27997,7 @@
         <v>1</v>
       </c>
       <c r="AC156" t="s">
-        <v>693</v>
+        <v>855</v>
       </c>
     </row>
     <row r="157" spans="2:29">
@@ -28074,7 +28074,7 @@
         <v>1</v>
       </c>
       <c r="AC157" t="s">
-        <v>827</v>
+        <v>805</v>
       </c>
     </row>
     <row r="158" spans="2:29">
@@ -28145,13 +28145,13 @@
         <v>1609</v>
       </c>
       <c r="AA158" t="s">
-        <v>1610</v>
+        <v>1487</v>
       </c>
       <c r="AB158">
         <v>1</v>
       </c>
       <c r="AC158" t="s">
-        <v>661</v>
+        <v>903</v>
       </c>
     </row>
     <row r="159" spans="2:29">
@@ -28219,16 +28219,16 @@
         <v>1241</v>
       </c>
       <c r="Z159" t="s">
+        <v>1610</v>
+      </c>
+      <c r="AA159" t="s">
         <v>1611</v>
       </c>
-      <c r="AA159" t="s">
-        <v>1612</v>
-      </c>
       <c r="AB159">
         <v>1</v>
       </c>
       <c r="AC159" t="s">
-        <v>627</v>
+        <v>751</v>
       </c>
     </row>
     <row r="160" spans="2:29">
@@ -28296,16 +28296,16 @@
         <v>1243</v>
       </c>
       <c r="Z160" t="s">
+        <v>1612</v>
+      </c>
+      <c r="AA160" t="s">
         <v>1613</v>
       </c>
-      <c r="AA160" t="s">
-        <v>1614</v>
-      </c>
       <c r="AB160">
         <v>1</v>
       </c>
       <c r="AC160" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
     </row>
     <row r="161" spans="2:29">
@@ -28373,16 +28373,16 @@
         <v>1245</v>
       </c>
       <c r="Z161" t="s">
+        <v>1614</v>
+      </c>
+      <c r="AA161" t="s">
         <v>1615</v>
       </c>
-      <c r="AA161" t="s">
-        <v>1616</v>
-      </c>
       <c r="AB161">
         <v>1</v>
       </c>
       <c r="AC161" t="s">
-        <v>909</v>
+        <v>601</v>
       </c>
     </row>
     <row r="162" spans="2:29">
@@ -28450,16 +28450,16 @@
         <v>1247</v>
       </c>
       <c r="Z162" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AA162" t="s">
         <v>1617</v>
       </c>
-      <c r="AA162" t="s">
-        <v>1618</v>
-      </c>
       <c r="AB162">
         <v>1</v>
       </c>
       <c r="AC162" t="s">
-        <v>631</v>
+        <v>709</v>
       </c>
     </row>
     <row r="163" spans="2:29">
@@ -28527,16 +28527,16 @@
         <v>1249</v>
       </c>
       <c r="Z163" t="s">
+        <v>1618</v>
+      </c>
+      <c r="AA163" t="s">
         <v>1619</v>
       </c>
-      <c r="AA163" t="s">
-        <v>1620</v>
-      </c>
       <c r="AB163">
         <v>1</v>
       </c>
       <c r="AC163" t="s">
-        <v>833</v>
+        <v>771</v>
       </c>
     </row>
     <row r="164" spans="2:29">
@@ -28604,16 +28604,16 @@
         <v>1251</v>
       </c>
       <c r="Z164" t="s">
+        <v>1620</v>
+      </c>
+      <c r="AA164" t="s">
         <v>1621</v>
       </c>
-      <c r="AA164" t="s">
-        <v>1622</v>
-      </c>
       <c r="AB164">
         <v>1</v>
       </c>
       <c r="AC164" t="s">
-        <v>573</v>
+        <v>825</v>
       </c>
     </row>
     <row r="165" spans="2:29">
@@ -28681,16 +28681,16 @@
         <v>1253</v>
       </c>
       <c r="Z165" t="s">
+        <v>1622</v>
+      </c>
+      <c r="AA165" t="s">
         <v>1623</v>
       </c>
-      <c r="AA165" t="s">
-        <v>1624</v>
-      </c>
       <c r="AB165">
         <v>1</v>
       </c>
       <c r="AC165" t="s">
-        <v>851</v>
+        <v>691</v>
       </c>
     </row>
     <row r="166" spans="2:29">
@@ -28758,16 +28758,16 @@
         <v>1255</v>
       </c>
       <c r="Z166" t="s">
+        <v>1624</v>
+      </c>
+      <c r="AA166" t="s">
         <v>1625</v>
       </c>
-      <c r="AA166" t="s">
-        <v>1626</v>
-      </c>
       <c r="AB166">
         <v>1</v>
       </c>
       <c r="AC166" t="s">
-        <v>917</v>
+        <v>935</v>
       </c>
     </row>
     <row r="167" spans="2:29">
@@ -28835,16 +28835,16 @@
         <v>1257</v>
       </c>
       <c r="Z167" t="s">
+        <v>1626</v>
+      </c>
+      <c r="AA167" t="s">
         <v>1627</v>
       </c>
-      <c r="AA167" t="s">
-        <v>1628</v>
-      </c>
       <c r="AB167">
         <v>1</v>
       </c>
       <c r="AC167" t="s">
-        <v>713</v>
+        <v>773</v>
       </c>
     </row>
     <row r="168" spans="2:29">
@@ -28912,16 +28912,16 @@
         <v>1259</v>
       </c>
       <c r="Z168" t="s">
+        <v>1628</v>
+      </c>
+      <c r="AA168" t="s">
         <v>1629</v>
       </c>
-      <c r="AA168" t="s">
-        <v>1630</v>
-      </c>
       <c r="AB168">
         <v>1</v>
       </c>
       <c r="AC168" t="s">
-        <v>775</v>
+        <v>739</v>
       </c>
     </row>
     <row r="169" spans="2:29">
@@ -28989,16 +28989,16 @@
         <v>1261</v>
       </c>
       <c r="Z169" t="s">
+        <v>1630</v>
+      </c>
+      <c r="AA169" t="s">
         <v>1631</v>
       </c>
-      <c r="AA169" t="s">
-        <v>1632</v>
-      </c>
       <c r="AB169">
         <v>1</v>
       </c>
       <c r="AC169" t="s">
-        <v>643</v>
+        <v>741</v>
       </c>
     </row>
     <row r="170" spans="2:29">
@@ -29066,16 +29066,16 @@
         <v>1263</v>
       </c>
       <c r="Z170" t="s">
+        <v>1632</v>
+      </c>
+      <c r="AA170" t="s">
         <v>1633</v>
       </c>
-      <c r="AA170" t="s">
-        <v>1634</v>
-      </c>
       <c r="AB170">
         <v>1</v>
       </c>
       <c r="AC170" t="s">
-        <v>887</v>
+        <v>611</v>
       </c>
     </row>
     <row r="171" spans="2:29">
@@ -29143,16 +29143,16 @@
         <v>1265</v>
       </c>
       <c r="Z171" t="s">
+        <v>1634</v>
+      </c>
+      <c r="AA171" t="s">
         <v>1635</v>
       </c>
-      <c r="AA171" t="s">
-        <v>1532</v>
-      </c>
       <c r="AB171">
         <v>1</v>
       </c>
       <c r="AC171" t="s">
-        <v>897</v>
+        <v>837</v>
       </c>
     </row>
     <row r="172" spans="2:29">
@@ -29223,13 +29223,13 @@
         <v>1636</v>
       </c>
       <c r="AA172" t="s">
-        <v>1637</v>
+        <v>1555</v>
       </c>
       <c r="AB172">
         <v>1</v>
       </c>
       <c r="AC172" t="s">
-        <v>577</v>
+        <v>637</v>
       </c>
     </row>
     <row r="173" spans="2:29">
@@ -29297,16 +29297,16 @@
         <v>1269</v>
       </c>
       <c r="Z173" t="s">
+        <v>1637</v>
+      </c>
+      <c r="AA173" t="s">
         <v>1638</v>
       </c>
-      <c r="AA173" t="s">
-        <v>1639</v>
-      </c>
       <c r="AB173">
         <v>1</v>
       </c>
       <c r="AC173" t="s">
-        <v>583</v>
+        <v>939</v>
       </c>
     </row>
     <row r="174" spans="2:29">
@@ -29374,16 +29374,16 @@
         <v>1271</v>
       </c>
       <c r="Z174" t="s">
+        <v>1639</v>
+      </c>
+      <c r="AA174" t="s">
         <v>1640</v>
       </c>
-      <c r="AA174" t="s">
-        <v>1641</v>
-      </c>
       <c r="AB174">
         <v>1</v>
       </c>
       <c r="AC174" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
     </row>
     <row r="175" spans="2:29">
@@ -29451,16 +29451,16 @@
         <v>1273</v>
       </c>
       <c r="Z175" t="s">
+        <v>1641</v>
+      </c>
+      <c r="AA175" t="s">
         <v>1642</v>
       </c>
-      <c r="AA175" t="s">
-        <v>1643</v>
-      </c>
       <c r="AB175">
         <v>1</v>
       </c>
       <c r="AC175" t="s">
-        <v>613</v>
+        <v>789</v>
       </c>
     </row>
     <row r="176" spans="2:29">
@@ -29528,16 +29528,16 @@
         <v>1275</v>
       </c>
       <c r="Z176" t="s">
+        <v>1643</v>
+      </c>
+      <c r="AA176" t="s">
         <v>1644</v>
       </c>
-      <c r="AA176" t="s">
-        <v>1645</v>
-      </c>
       <c r="AB176">
         <v>1</v>
       </c>
       <c r="AC176" t="s">
-        <v>607</v>
+        <v>817</v>
       </c>
     </row>
     <row r="177" spans="2:29">
@@ -29605,16 +29605,16 @@
         <v>1277</v>
       </c>
       <c r="Z177" t="s">
+        <v>1645</v>
+      </c>
+      <c r="AA177" t="s">
         <v>1646</v>
       </c>
-      <c r="AA177" t="s">
-        <v>1647</v>
-      </c>
       <c r="AB177">
         <v>1</v>
       </c>
       <c r="AC177" t="s">
-        <v>725</v>
+        <v>649</v>
       </c>
     </row>
     <row r="178" spans="2:29">
@@ -29682,16 +29682,16 @@
         <v>1279</v>
       </c>
       <c r="Z178" t="s">
+        <v>1647</v>
+      </c>
+      <c r="AA178" t="s">
         <v>1648</v>
       </c>
-      <c r="AA178" t="s">
-        <v>1649</v>
-      </c>
       <c r="AB178">
         <v>1</v>
       </c>
       <c r="AC178" t="s">
-        <v>735</v>
+        <v>715</v>
       </c>
     </row>
     <row r="179" spans="2:29">
@@ -29759,16 +29759,16 @@
         <v>1281</v>
       </c>
       <c r="Z179" t="s">
+        <v>1649</v>
+      </c>
+      <c r="AA179" t="s">
         <v>1650</v>
       </c>
-      <c r="AA179" t="s">
-        <v>1651</v>
-      </c>
       <c r="AB179">
         <v>1</v>
       </c>
       <c r="AC179" t="s">
-        <v>703</v>
+        <v>873</v>
       </c>
     </row>
     <row r="180" spans="2:29">
@@ -29836,16 +29836,16 @@
         <v>1283</v>
       </c>
       <c r="Z180" t="s">
+        <v>1651</v>
+      </c>
+      <c r="AA180" t="s">
         <v>1652</v>
       </c>
-      <c r="AA180" t="s">
-        <v>1373</v>
-      </c>
       <c r="AB180">
         <v>1</v>
       </c>
       <c r="AC180" t="s">
-        <v>803</v>
+        <v>769</v>
       </c>
     </row>
     <row r="181" spans="2:29">
@@ -29922,7 +29922,7 @@
         <v>1</v>
       </c>
       <c r="AC181" t="s">
-        <v>849</v>
+        <v>569</v>
       </c>
     </row>
     <row r="182" spans="2:29">
@@ -29999,7 +29999,7 @@
         <v>1</v>
       </c>
       <c r="AC182" t="s">
-        <v>879</v>
+        <v>799</v>
       </c>
     </row>
     <row r="183" spans="2:29">
@@ -30076,7 +30076,7 @@
         <v>1</v>
       </c>
       <c r="AC183" t="s">
-        <v>645</v>
+        <v>847</v>
       </c>
     </row>
     <row r="184" spans="2:29">
@@ -30153,7 +30153,7 @@
         <v>1</v>
       </c>
       <c r="AC184" t="s">
-        <v>601</v>
+        <v>639</v>
       </c>
     </row>
     <row r="185" spans="2:29">
@@ -30230,7 +30230,7 @@
         <v>1</v>
       </c>
       <c r="AC185" t="s">
-        <v>709</v>
+        <v>895</v>
       </c>
     </row>
     <row r="186" spans="2:29">
@@ -30301,13 +30301,13 @@
         <v>1663</v>
       </c>
       <c r="AA186" t="s">
-        <v>1664</v>
+        <v>1415</v>
       </c>
       <c r="AB186">
         <v>1</v>
       </c>
       <c r="AC186" t="s">
-        <v>771</v>
+        <v>801</v>
       </c>
     </row>
     <row r="187" spans="2:29">
@@ -30375,16 +30375,16 @@
         <v>1297</v>
       </c>
       <c r="Z187" t="s">
+        <v>1664</v>
+      </c>
+      <c r="AA187" t="s">
         <v>1665</v>
       </c>
-      <c r="AA187" t="s">
-        <v>1666</v>
-      </c>
       <c r="AB187">
         <v>1</v>
       </c>
       <c r="AC187" t="s">
-        <v>825</v>
+        <v>937</v>
       </c>
     </row>
     <row r="188" spans="2:29">
@@ -30452,16 +30452,16 @@
         <v>1299</v>
       </c>
       <c r="Z188" t="s">
+        <v>1666</v>
+      </c>
+      <c r="AA188" t="s">
         <v>1667</v>
       </c>
-      <c r="AA188" t="s">
-        <v>1668</v>
-      </c>
       <c r="AB188">
         <v>1</v>
       </c>
       <c r="AC188" t="s">
-        <v>691</v>
+        <v>793</v>
       </c>
     </row>
     <row r="189" spans="2:29">
@@ -30529,16 +30529,16 @@
         <v>1301</v>
       </c>
       <c r="Z189" t="s">
+        <v>1668</v>
+      </c>
+      <c r="AA189" t="s">
         <v>1669</v>
       </c>
-      <c r="AA189" t="s">
-        <v>1670</v>
-      </c>
       <c r="AB189">
         <v>1</v>
       </c>
       <c r="AC189" t="s">
-        <v>935</v>
+        <v>593</v>
       </c>
     </row>
     <row r="190" spans="2:29">
@@ -30606,16 +30606,16 @@
         <v>1303</v>
       </c>
       <c r="Z190" t="s">
+        <v>1670</v>
+      </c>
+      <c r="AA190" t="s">
         <v>1671</v>
       </c>
-      <c r="AA190" t="s">
-        <v>1672</v>
-      </c>
       <c r="AB190">
         <v>1</v>
       </c>
       <c r="AC190" t="s">
-        <v>773</v>
+        <v>617</v>
       </c>
     </row>
     <row r="191" spans="2:29">
@@ -30683,16 +30683,16 @@
         <v>1305</v>
       </c>
       <c r="Z191" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AA191" t="s">
         <v>1673</v>
       </c>
-      <c r="AA191" t="s">
-        <v>1674</v>
-      </c>
       <c r="AB191">
         <v>1</v>
       </c>
       <c r="AC191" t="s">
-        <v>739</v>
+        <v>693</v>
       </c>
     </row>
     <row r="192" spans="2:29">
@@ -30760,16 +30760,16 @@
         <v>1307</v>
       </c>
       <c r="Z192" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AA192" t="s">
         <v>1675</v>
       </c>
-      <c r="AA192" t="s">
-        <v>1676</v>
-      </c>
       <c r="AB192">
         <v>1</v>
       </c>
       <c r="AC192" t="s">
-        <v>741</v>
+        <v>827</v>
       </c>
     </row>
     <row r="193" spans="2:29">
@@ -30837,16 +30837,16 @@
         <v>1309</v>
       </c>
       <c r="Z193" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AA193" t="s">
         <v>1677</v>
       </c>
-      <c r="AA193" t="s">
-        <v>1678</v>
-      </c>
       <c r="AB193">
         <v>1</v>
       </c>
       <c r="AC193" t="s">
-        <v>611</v>
+        <v>661</v>
       </c>
     </row>
     <row r="194" spans="2:29">
@@ -30914,16 +30914,16 @@
         <v>1311</v>
       </c>
       <c r="Z194" t="s">
+        <v>1678</v>
+      </c>
+      <c r="AA194" t="s">
         <v>1679</v>
       </c>
-      <c r="AA194" t="s">
-        <v>1680</v>
-      </c>
       <c r="AB194">
         <v>1</v>
       </c>
       <c r="AC194" t="s">
-        <v>837</v>
+        <v>627</v>
       </c>
     </row>
     <row r="195" spans="2:29">
@@ -30991,16 +30991,16 @@
         <v>1313</v>
       </c>
       <c r="Z195" t="s">
+        <v>1680</v>
+      </c>
+      <c r="AA195" t="s">
         <v>1681</v>
       </c>
-      <c r="AA195" t="s">
-        <v>1419</v>
-      </c>
       <c r="AB195">
         <v>1</v>
       </c>
       <c r="AC195" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
     </row>
     <row r="196" spans="2:29">
@@ -31077,7 +31077,7 @@
         <v>1</v>
       </c>
       <c r="AC196" t="s">
-        <v>939</v>
+        <v>909</v>
       </c>
     </row>
     <row r="197" spans="2:29">
@@ -31154,7 +31154,7 @@
         <v>1</v>
       </c>
       <c r="AC197" t="s">
-        <v>685</v>
+        <v>631</v>
       </c>
     </row>
     <row r="198" spans="2:29">
@@ -31231,7 +31231,7 @@
         <v>1</v>
       </c>
       <c r="AC198" t="s">
-        <v>789</v>
+        <v>833</v>
       </c>
     </row>
   </sheetData>
@@ -31240,7 +31240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CF0209-90C3-435C-A6EA-6CFF84D434B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F928328D-904B-46D7-9F31-116AA46EEE90}">
   <dimension ref="B9:AB199"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -31400,7 +31400,7 @@
         <v>2383</v>
       </c>
       <c r="Z11" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="AA11">
         <v>13.8675</v>
@@ -31474,7 +31474,7 @@
         <v>2384</v>
       </c>
       <c r="Z12" t="s">
-        <v>1814</v>
+        <v>1809</v>
       </c>
       <c r="AA12">
         <v>11.755000000000001</v>
@@ -31622,7 +31622,7 @@
         <v>2386</v>
       </c>
       <c r="Z14" t="s">
-        <v>1795</v>
+        <v>1814</v>
       </c>
       <c r="AA14">
         <v>13.8675</v>
@@ -31696,7 +31696,7 @@
         <v>2387</v>
       </c>
       <c r="Z15" t="s">
-        <v>1794</v>
+        <v>1772</v>
       </c>
       <c r="AA15">
         <v>13.23875</v>
@@ -31770,7 +31770,7 @@
         <v>2388</v>
       </c>
       <c r="Z16" t="s">
-        <v>1809</v>
+        <v>1798</v>
       </c>
       <c r="AA16">
         <v>14.02875</v>
@@ -31844,7 +31844,7 @@
         <v>2389</v>
       </c>
       <c r="Z17" t="s">
-        <v>1796</v>
+        <v>1782</v>
       </c>
       <c r="AA17">
         <v>13.8675</v>
@@ -31918,7 +31918,7 @@
         <v>2390</v>
       </c>
       <c r="Z18" t="s">
-        <v>1808</v>
+        <v>1797</v>
       </c>
       <c r="AA18">
         <v>13.8675</v>
@@ -31992,7 +31992,7 @@
         <v>2391</v>
       </c>
       <c r="Z19" t="s">
-        <v>1798</v>
+        <v>1783</v>
       </c>
       <c r="AA19">
         <v>0.11874999999999999</v>
@@ -32066,7 +32066,7 @@
         <v>2392</v>
       </c>
       <c r="Z20" t="s">
-        <v>1810</v>
+        <v>1781</v>
       </c>
       <c r="AA20">
         <v>9.06</v>
@@ -32140,7 +32140,7 @@
         <v>2393</v>
       </c>
       <c r="Z21" t="s">
-        <v>1771</v>
+        <v>1812</v>
       </c>
       <c r="AA21">
         <v>14.02875</v>
@@ -32214,7 +32214,7 @@
         <v>2394</v>
       </c>
       <c r="Z22" t="s">
-        <v>1781</v>
+        <v>1799</v>
       </c>
       <c r="AA22">
         <v>13.8675</v>
@@ -32288,7 +32288,7 @@
         <v>2395</v>
       </c>
       <c r="Z23" t="s">
-        <v>1802</v>
+        <v>1787</v>
       </c>
       <c r="AA23">
         <v>13.8675</v>
@@ -32362,7 +32362,7 @@
         <v>2396</v>
       </c>
       <c r="Z24" t="s">
-        <v>1812</v>
+        <v>1807</v>
       </c>
       <c r="AA24">
         <v>6.6375000000000002</v>
@@ -32436,7 +32436,7 @@
         <v>2397</v>
       </c>
       <c r="Z25" t="s">
-        <v>1793</v>
+        <v>1771</v>
       </c>
       <c r="AA25">
         <v>13.92625</v>
@@ -32510,7 +32510,7 @@
         <v>2398</v>
       </c>
       <c r="Z26" t="s">
-        <v>1785</v>
+        <v>1803</v>
       </c>
       <c r="AA26">
         <v>13.827500000000001</v>
@@ -32584,7 +32584,7 @@
         <v>2399</v>
       </c>
       <c r="Z27" t="s">
-        <v>1797</v>
+        <v>1805</v>
       </c>
       <c r="AA27">
         <v>13.8675</v>
@@ -32658,7 +32658,7 @@
         <v>2400</v>
       </c>
       <c r="Z28" t="s">
-        <v>1783</v>
+        <v>1801</v>
       </c>
       <c r="AA28">
         <v>3.7499999999999999E-3</v>
@@ -32732,7 +32732,7 @@
         <v>2401</v>
       </c>
       <c r="Z29" t="s">
-        <v>1778</v>
+        <v>1792</v>
       </c>
       <c r="AA29">
         <v>2.8424999999999998</v>
@@ -32806,7 +32806,7 @@
         <v>2402</v>
       </c>
       <c r="Z30" t="s">
-        <v>1805</v>
+        <v>1769</v>
       </c>
       <c r="AA30">
         <v>8.1549999999999994</v>
@@ -32954,7 +32954,7 @@
         <v>2404</v>
       </c>
       <c r="Z32" t="s">
-        <v>1776</v>
+        <v>1790</v>
       </c>
       <c r="AA32">
         <v>0.57625000000000004</v>
@@ -33028,7 +33028,7 @@
         <v>2405</v>
       </c>
       <c r="Z33" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
       <c r="AA33">
         <v>1.125E-2</v>
@@ -33102,7 +33102,7 @@
         <v>2406</v>
       </c>
       <c r="Z34" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
       <c r="AA34">
         <v>0.33500000000000002</v>
@@ -33176,7 +33176,7 @@
         <v>2407</v>
       </c>
       <c r="Z35" t="s">
-        <v>1800</v>
+        <v>1785</v>
       </c>
       <c r="AA35">
         <v>1.7500000000000002E-2</v>
@@ -33250,7 +33250,7 @@
         <v>2408</v>
       </c>
       <c r="Z36" t="s">
-        <v>1792</v>
+        <v>1770</v>
       </c>
       <c r="AA36">
         <v>0.58250000000000002</v>
@@ -33324,7 +33324,7 @@
         <v>2409</v>
       </c>
       <c r="Z37" t="s">
-        <v>1769</v>
+        <v>1810</v>
       </c>
       <c r="AA37">
         <v>1.0075000000000001</v>
@@ -33472,7 +33472,7 @@
         <v>2411</v>
       </c>
       <c r="Z39" t="s">
-        <v>1772</v>
+        <v>1813</v>
       </c>
       <c r="AA39">
         <v>5.9212499999999997</v>
@@ -33546,7 +33546,7 @@
         <v>2412</v>
       </c>
       <c r="Z40" t="s">
-        <v>1806</v>
+        <v>1795</v>
       </c>
       <c r="AA40">
         <v>2.75E-2</v>
@@ -33620,7 +33620,7 @@
         <v>2413</v>
       </c>
       <c r="Z41" t="s">
-        <v>1786</v>
+        <v>1804</v>
       </c>
       <c r="AA41">
         <v>10.682499999999999</v>
@@ -33694,7 +33694,7 @@
         <v>2414</v>
       </c>
       <c r="Z42" t="s">
-        <v>1782</v>
+        <v>1800</v>
       </c>
       <c r="AA42">
         <v>3.9175</v>
@@ -33768,7 +33768,7 @@
         <v>2415</v>
       </c>
       <c r="Z43" t="s">
-        <v>1780</v>
+        <v>1794</v>
       </c>
       <c r="AA43">
         <v>10.8575</v>
@@ -33842,7 +33842,7 @@
         <v>2416</v>
       </c>
       <c r="Z44" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
       <c r="AA44">
         <v>2.61375</v>
@@ -34064,7 +34064,7 @@
         <v>2419</v>
       </c>
       <c r="Z47" t="s">
-        <v>1803</v>
+        <v>1788</v>
       </c>
       <c r="AA47">
         <v>12.063750000000001</v>
@@ -34138,7 +34138,7 @@
         <v>2420</v>
       </c>
       <c r="Z48" t="s">
-        <v>1811</v>
+        <v>1806</v>
       </c>
       <c r="AA48">
         <v>13.8675</v>
@@ -39891,7 +39891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33CBCF6-AF6D-450D-9C76-01FFDCDFA7CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2AB6355-FE83-4D57-94DD-7D6FC9AD17E2}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41711,7 +41711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B886BD-50D0-41F3-BBC7-DAFEE1E20886}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCE2198-BDD8-4A9B-BB2F-45EFD5C6B05E}">
   <dimension ref="B2:M317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -42979,7 +42979,7 @@
         <v>2520</v>
       </c>
       <c r="C42" t="s">
-        <v>1637</v>
+        <v>1530</v>
       </c>
       <c r="D42" t="s">
         <v>2521</v>
@@ -43014,7 +43014,7 @@
         <v>2521</v>
       </c>
       <c r="D43" t="s">
-        <v>1637</v>
+        <v>1530</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -44006,7 +44006,7 @@
         <v>2584</v>
       </c>
       <c r="D74" t="s">
-        <v>1570</v>
+        <v>1373</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -44035,7 +44035,7 @@
         <v>2585</v>
       </c>
       <c r="C75" t="s">
-        <v>1570</v>
+        <v>1373</v>
       </c>
       <c r="D75" t="s">
         <v>2584</v>
@@ -44451,7 +44451,7 @@
         <v>2610</v>
       </c>
       <c r="C88" t="s">
-        <v>1683</v>
+        <v>1638</v>
       </c>
       <c r="D88" t="s">
         <v>2611</v>
@@ -44486,7 +44486,7 @@
         <v>2611</v>
       </c>
       <c r="D89" t="s">
-        <v>1683</v>
+        <v>1638</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -45603,7 +45603,7 @@
         <v>2681</v>
       </c>
       <c r="C124" t="s">
-        <v>1375</v>
+        <v>1665</v>
       </c>
       <c r="D124" t="s">
         <v>2682</v>
@@ -45638,7 +45638,7 @@
         <v>2682</v>
       </c>
       <c r="D125" t="s">
-        <v>1375</v>
+        <v>1665</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -47078,7 +47078,7 @@
         <v>2772</v>
       </c>
       <c r="D170" t="s">
-        <v>1465</v>
+        <v>1489</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -47107,7 +47107,7 @@
         <v>2773</v>
       </c>
       <c r="C171" t="s">
-        <v>1465</v>
+        <v>1489</v>
       </c>
       <c r="D171" t="s">
         <v>2772</v>
@@ -47331,7 +47331,7 @@
         <v>2786</v>
       </c>
       <c r="C178" t="s">
-        <v>1349</v>
+        <v>1487</v>
       </c>
       <c r="D178" t="s">
         <v>2787</v>
@@ -47366,7 +47366,7 @@
         <v>2787</v>
       </c>
       <c r="D179" t="s">
-        <v>1349</v>
+        <v>1487</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -47846,7 +47846,7 @@
         <v>2818</v>
       </c>
       <c r="D194" t="s">
-        <v>1373</v>
+        <v>1415</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -47875,7 +47875,7 @@
         <v>2819</v>
       </c>
       <c r="C195" t="s">
-        <v>1373</v>
+        <v>1415</v>
       </c>
       <c r="D195" t="s">
         <v>2818</v>
@@ -48035,7 +48035,7 @@
         <v>2828</v>
       </c>
       <c r="C200" t="s">
-        <v>1415</v>
+        <v>1551</v>
       </c>
       <c r="D200" t="s">
         <v>2829</v>
@@ -48070,7 +48070,7 @@
         <v>2829</v>
       </c>
       <c r="D201" t="s">
-        <v>1415</v>
+        <v>1551</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -49190,7 +49190,7 @@
         <v>2900</v>
       </c>
       <c r="D236" t="s">
-        <v>1572</v>
+        <v>1375</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -49219,7 +49219,7 @@
         <v>2901</v>
       </c>
       <c r="C237" t="s">
-        <v>1572</v>
+        <v>1375</v>
       </c>
       <c r="D237" t="s">
         <v>2900</v>
@@ -49958,7 +49958,7 @@
         <v>2947</v>
       </c>
       <c r="D260" t="s">
-        <v>1595</v>
+        <v>1578</v>
       </c>
       <c r="E260">
         <v>1</v>
@@ -49987,7 +49987,7 @@
         <v>2948</v>
       </c>
       <c r="C261" t="s">
-        <v>1595</v>
+        <v>1578</v>
       </c>
       <c r="D261" t="s">
         <v>2947</v>
@@ -51750,7 +51750,7 @@
         <v>3056</v>
       </c>
       <c r="D316" t="s">
-        <v>1391</v>
+        <v>1335</v>
       </c>
       <c r="E316">
         <v>1</v>
@@ -51779,7 +51779,7 @@
         <v>3057</v>
       </c>
       <c r="C317" t="s">
-        <v>1391</v>
+        <v>1335</v>
       </c>
       <c r="D317" t="s">
         <v>3056</v>

--- a/VerveStacks_DEU_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_DEU_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9C3F0D9-8F37-48E2-B46F-33BF68B944A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2337EE95-58E3-40BD-9E86-301A05D592F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2960,18 +2960,210 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_solelc_won-DEU_0049</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_49</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0041</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_41</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0133</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_133</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0134</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_134</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0060</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_60</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0108</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_108</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0148</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_148</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0178</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_178</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0072</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_72</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0127</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_127</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0042</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_42</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0076</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_76</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0155</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_155</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0103</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_103</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_2</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0118</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_118</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0142</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_142</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0037</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_37</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0166</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_166</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0119</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_119</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0187</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_187</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0115</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_115</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_4</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0144</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_144</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0177</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_177</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0075</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_75</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0106</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_106</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0039</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_39</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0162</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_162</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0167</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_167</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_6</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_9</t>
+  </si>
+  <si>
     <t>distr_solelc_won-DEU_0015</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell DEU_15</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
     <t>distr_solelc_won-DEU_0183</t>
   </si>
   <si>
@@ -3074,58 +3266,562 @@
     <t>connecting solar and wind to buses in grid cell DEU_54</t>
   </si>
   <si>
-    <t>distr_solelc_won-DEU_0049</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_49</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0041</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_41</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0133</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_133</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0134</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_134</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0060</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_60</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0108</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_108</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0148</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_148</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0178</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_178</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0072</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_72</t>
+    <t>distr_solelc_won-DEU_0180</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_180</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0079</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_79</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0176</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_176</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0017</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_17</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0046</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_46</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0123</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_123</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0097</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_97</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0185</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_185</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0172</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_172</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0141</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_141</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0149</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_149</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0035</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_35</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0111</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_111</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0003</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_3</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0056</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_56</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0150</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_150</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0032</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_32</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0025</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_25</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0160</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_160</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0109</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_109</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0164</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_164</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_22</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0096</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_96</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0153</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_153</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0168</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_168</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0014</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_14</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0026</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_26</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0065</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_65</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0132</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_132</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0048</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_48</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0031</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_31</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0030</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_30</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0173</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_173</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0033</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_33</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0135</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_135</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0066</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_66</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0043</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_43</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0175</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_175</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0114</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_114</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0069</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_69</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0179</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_179</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0050</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_50</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0124</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_124</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0045</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_45</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0156</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_156</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0129</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_129</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_20</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0052</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_52</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0053</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_53</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0181</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_181</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0062</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_62</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0028</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_28</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_13</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0093</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_93</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0080</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_80</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0055</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_55</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0101</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_101</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0059</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_59</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0091</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_91</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_19</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0147</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_147</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0171</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_171</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0130</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_130</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0159</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_159</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0038</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_38</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0098</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_98</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0047</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_47</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0034</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_34</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0110</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_110</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0074</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_74</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0100</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_100</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0117</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_117</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0139</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_139</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0146</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_146</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0121</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_121</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0170</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_170</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0094</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_94</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0040</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_40</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0018</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_18</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0073</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_73</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0104</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_104</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0131</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_131</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0064</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_64</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0186</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_186</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0105</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_105</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0088</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_88</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0089</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_89</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_23</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0137</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_137</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0036</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_36</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0188</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_188</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0061</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_61</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0113</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_113</t>
   </si>
   <si>
     <t>distr_solelc_won-DEU_0084</t>
@@ -3302,84 +3998,6 @@
     <t>connecting solar and wind to buses in grid cell DEU_87</t>
   </si>
   <si>
-    <t>distr_solelc_won-DEU_0111</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_111</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0003</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_3</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0056</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_56</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0150</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_150</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0032</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_32</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0025</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_25</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0160</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_160</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0109</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_109</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0164</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_164</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0022</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_22</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0096</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_96</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0153</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_153</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0168</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_168</t>
-  </si>
-  <si>
     <t>distr_solelc_won-DEU_0029</t>
   </si>
   <si>
@@ -3476,627 +4094,201 @@
     <t>connecting solar and wind to buses in grid cell DEU_95</t>
   </si>
   <si>
-    <t>distr_solelc_won-DEU_0062</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_62</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0028</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_28</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_13</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0093</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_93</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0080</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_80</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0055</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_55</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0101</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_101</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0059</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_59</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0091</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_91</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_19</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0147</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_147</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0171</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_171</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_4</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0144</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_144</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0177</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_177</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0075</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_75</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0106</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_106</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0039</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_39</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0162</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_162</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0167</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_167</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_6</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_9</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0180</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_180</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0079</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_79</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0176</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_176</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0017</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_17</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0046</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_46</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0123</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_123</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0097</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_97</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0185</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_185</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0172</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_172</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0141</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_141</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0149</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_149</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0035</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_35</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0066</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_66</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0043</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_43</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0175</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_175</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0114</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_114</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0069</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_69</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0179</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_179</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0050</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_50</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0124</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_124</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0045</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_45</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0156</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_156</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0129</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_129</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0020</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_20</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0052</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_52</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0053</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_53</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0181</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_181</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0130</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_130</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0159</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_159</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0038</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_38</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0098</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_98</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0047</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_47</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0034</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_34</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0110</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_110</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0074</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_74</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0100</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_100</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0117</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_117</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0139</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_139</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0146</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_146</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0121</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_121</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0170</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_170</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0094</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_94</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0040</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_40</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0018</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_18</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0073</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_73</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0104</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_104</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0131</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_131</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0064</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_64</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0186</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_186</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0105</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_105</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0088</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_88</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0089</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_89</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_23</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0137</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_137</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0036</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_36</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0188</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_188</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0061</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_61</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0113</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_113</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0127</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_127</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0042</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_42</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0076</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_76</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0155</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_155</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0103</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_103</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_2</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0118</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_118</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0142</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_142</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0037</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_37</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0166</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_166</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0119</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_119</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0187</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_187</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0115</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_115</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0014</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_14</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0026</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_26</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0065</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_65</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0132</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_132</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0048</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_48</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0031</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_31</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0030</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_30</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0173</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_173</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0033</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_33</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0135</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_135</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
+    <t>elc_won-DEU_0049,elc_spv-DEU_0049</t>
+  </si>
+  <si>
+    <t>e_DE17-380,e_w24493551-380,e_w44717036-380,e_w871646309-380,e_w951273401-380,e_w951773852-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0041,elc_spv-DEU_0041</t>
+  </si>
+  <si>
+    <t>e_DE174-220,e_DE176-220,e_DE178-380,e_DE180-220,e_DE181-380,e_DE182-380,e_r17591073-220,e_w152924498-220,e_w152924498-380,e_w152924508-220,e_w152973139-220,e_w152973139-380,e_w156676050-220,e_w160929097-220,e_w207248812-220,e_w207248812-380,e_w259561755-380,e_w409305507-220,e_w46584363-220,e_w46584363-380,e_w48057110-380,e_w600395952-220,e_w600395952-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0133,elc_spv-DEU_0133</t>
+  </si>
+  <si>
+    <t>e_DE18-220,e_DE18-380,e_DE19-380,e_w59707532-220,e_w59707532-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0134,elc_spv-DEU_0134</t>
+  </si>
+  <si>
+    <t>e_w234171369-380,e_w274603394-380,e_w517421342-220,e_w517421342-380,e_w851299584-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0060,elc_spv-DEU_0060</t>
+  </si>
+  <si>
+    <t>e_w23881272-220,e_w24042358-380,e_w42372159-380,e_w42410916-220,e_w42410916-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0108,elc_spv-DEU_0108</t>
+  </si>
+  <si>
+    <t>e_w24705761-220,e_w24705761-380,e_w28613721-380,e_w954971276-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0148,elc_spv-DEU_0148</t>
+  </si>
+  <si>
+    <t>e_w40621568-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0178,elc_spv-DEU_0178</t>
+  </si>
+  <si>
+    <t>e_w1091984573-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0072,elc_spv-DEU_0072</t>
+  </si>
+  <si>
+    <t>e_w41389594-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0127,elc_spv-DEU_0127</t>
+  </si>
+  <si>
+    <t>e_DE157-380,e_DE158-380,e_w93341407-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0042,elc_spv-DEU_0042</t>
+  </si>
+  <si>
+    <t>e_DE165-380,e_DE168-380,e_w1223405794-220,e_w1223405794-380,e_w147521567-220,e_w147521567-380,e_w149987048-220,e_w149987048-380,e_w23284340-220,e_w23284340-380,e_w24685992-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0076,elc_spv-DEU_0076</t>
+  </si>
+  <si>
+    <t>e_DE169-220,e_w24765111-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0155,elc_spv-DEU_0155</t>
+  </si>
+  <si>
+    <t>e_DE201-220,e_DE203-220,e_DE204-220,e_DE206-220,e_w24976300-220,e_w24976300-380,e_w91086220-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0103,elc_spv-DEU_0103</t>
+  </si>
+  <si>
+    <t>e_DE4-220,e_w27124619-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0002,elc_spv-DEU_0002</t>
+  </si>
+  <si>
+    <t>e_w1024536785-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0118,elc_spv-DEU_0118</t>
+  </si>
+  <si>
+    <t>e_w275466323,e_w275466323-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0142,elc_spv-DEU_0142</t>
+  </si>
+  <si>
+    <t>e_w29084374-220,e_w29084374-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0037,elc_spv-DEU_0037</t>
+  </si>
+  <si>
+    <t>e_w31367940-220,e_w31367940-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0166,elc_spv-DEU_0166</t>
+  </si>
+  <si>
+    <t>e_w39688875-220,e_w515358077-380,e_w941453716-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0119,elc_spv-DEU_0119</t>
+  </si>
+  <si>
+    <t>e_w275466323-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0187,elc_spv-DEU_0187</t>
+  </si>
+  <si>
+    <t>e_w170123812-400</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0115,elc_spv-DEU_0115</t>
+  </si>
+  <si>
+    <t>e_w26474759-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0004,elc_spv-DEU_0004</t>
+  </si>
+  <si>
+    <t>e_DE106-220,e_DE107-220,e_DE107-380,e_DE110-220,e_DE110-380,e_DE112-380,e_DE113-220,e_DE114-380,e_DE117-380,e_DE125-220,e_DE125-380,e_DE127-380,e_DE128-380,e_DE131-220,e_DE133-380,e_w1040551074-220,e_w188276460-220,e_w188276460-380,e_w23084554-220,e_w23084554-380,e_w24267175-220,e_w24479984-220,e_w24479984-380,e_w24799890-220,e_w24799890-380,e_w24815262-220,e_w24839976-220,e_w24839976-380,e_w26927264-380,e_w27919734-220,e_w27919734-380,e_w31762305-220,e_w49577401-220,e_w49577401-380,e_w91854336-220,e_w91854336-380,e_w92877635-220,e_w93278553-220,e_w95434457-220,e_w95434457-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0144,elc_spv-DEU_0144</t>
+  </si>
+  <si>
+    <t>e_DE142-380,e_w167352587-220,e_w173112252-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0177,elc_spv-DEU_0177</t>
+  </si>
+  <si>
+    <t>e_w1222597066-220,e_w1222597066-380,e_w30039908-220,e_w30039908-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0075,elc_spv-DEU_0075</t>
+  </si>
+  <si>
+    <t>e_w143854536-380,e_w31653753-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0106,elc_spv-DEU_0106</t>
+  </si>
+  <si>
+    <t>e_w18629425-220,e_w18629425-380,e_w53378027-380,e_w76246159-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0039,elc_spv-DEU_0039</t>
+  </si>
+  <si>
+    <t>e_w26814283-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0162,elc_spv-DEU_0162</t>
+  </si>
+  <si>
+    <t>e_w29331499-220,e_w29331499-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0167,elc_spv-DEU_0167</t>
+  </si>
+  <si>
+    <t>e_w946710698-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0006,elc_spv-DEU_0006</t>
+  </si>
+  <si>
+    <t>e_DE62-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0009,elc_spv-DEU_0009</t>
+  </si>
+  <si>
+    <t>e_w156402422-220</t>
+  </si>
+  <si>
     <t>elc_won-DEU_0015,elc_spv-DEU_0015</t>
   </si>
   <si>
@@ -4205,58 +4397,544 @@
     <t>e_w31367936-220</t>
   </si>
   <si>
-    <t>elc_won-DEU_0049,elc_spv-DEU_0049</t>
-  </si>
-  <si>
-    <t>e_DE17-380,e_w24493551-380,e_w44717036-380,e_w871646309-380,e_w951273401-380,e_w951773852-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0041,elc_spv-DEU_0041</t>
-  </si>
-  <si>
-    <t>e_DE174-220,e_DE176-220,e_DE178-380,e_DE180-220,e_DE181-380,e_DE182-380,e_r17591073-220,e_w152924498-220,e_w152924498-380,e_w152924508-220,e_w152973139-220,e_w152973139-380,e_w156676050-220,e_w160929097-220,e_w207248812-220,e_w207248812-380,e_w259561755-380,e_w409305507-220,e_w46584363-220,e_w46584363-380,e_w48057110-380,e_w600395952-220,e_w600395952-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0133,elc_spv-DEU_0133</t>
-  </si>
-  <si>
-    <t>e_DE18-220,e_DE18-380,e_DE19-380,e_w59707532-220,e_w59707532-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0134,elc_spv-DEU_0134</t>
-  </si>
-  <si>
-    <t>e_w234171369-380,e_w274603394-380,e_w517421342-220,e_w517421342-380,e_w851299584-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0060,elc_spv-DEU_0060</t>
-  </si>
-  <si>
-    <t>e_w23881272-220,e_w24042358-380,e_w42372159-380,e_w42410916-220,e_w42410916-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0108,elc_spv-DEU_0108</t>
-  </si>
-  <si>
-    <t>e_w24705761-220,e_w24705761-380,e_w28613721-380,e_w954971276-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0148,elc_spv-DEU_0148</t>
-  </si>
-  <si>
-    <t>e_w40621568-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0178,elc_spv-DEU_0178</t>
-  </si>
-  <si>
-    <t>e_w1091984573-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0072,elc_spv-DEU_0072</t>
-  </si>
-  <si>
-    <t>e_w41389594-220</t>
+    <t>elc_won-DEU_0180,elc_spv-DEU_0180</t>
+  </si>
+  <si>
+    <t>e_DE1-220,e_DE2-220,e_DE3-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0079,elc_spv-DEU_0079</t>
+  </si>
+  <si>
+    <t>e_DE108-220,e_w156960655-380,e_w172997498-220,e_w456386244-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0176,elc_spv-DEU_0176</t>
+  </si>
+  <si>
+    <t>e_DE16-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0017,elc_spv-DEU_0017</t>
+  </si>
+  <si>
+    <t>e_DE31-380,e_w61918154-220,e_w61918154-380,e_w796306640-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0046,elc_spv-DEU_0046</t>
+  </si>
+  <si>
+    <t>e_DE63-220,e_DE94-380,e_DE95-380,e_w25943440-220,e_w25943440-380,e_w42797575-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0123,elc_spv-DEU_0123</t>
+  </si>
+  <si>
+    <t>e_w133342285-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0097,elc_spv-DEU_0097</t>
+  </si>
+  <si>
+    <t>e_w157164284-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0185,elc_spv-DEU_0185</t>
+  </si>
+  <si>
+    <t>e_w414169327-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0172,elc_spv-DEU_0172</t>
+  </si>
+  <si>
+    <t>e_w942771541-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0141,elc_spv-DEU_0141</t>
+  </si>
+  <si>
+    <t>e_w28956649-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0149,elc_spv-DEU_0149</t>
+  </si>
+  <si>
+    <t>e_w851299584-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0035,elc_spv-DEU_0035</t>
+  </si>
+  <si>
+    <t>e_w29420322-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0111,elc_spv-DEU_0111</t>
+  </si>
+  <si>
+    <t>e_DE134-380,e_w149256409-380,e_w152219167-220,e_w25746125-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0003,elc_spv-DEU_0003</t>
+  </si>
+  <si>
+    <t>e_DE136-380,e_DE141-380,e_w24268944-380,e_w25426571-380,e_w25992879-380,e_w26593935-380,e_w870598507,e_w870598507-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0056,elc_spv-DEU_0056</t>
+  </si>
+  <si>
+    <t>e_DE195-380,e_DE196-380,e_DE197-380,e_DE198-380,e_DE199-380,e_w26260052-380,e_w30734324-380,e_w42736239-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0150,elc_spv-DEU_0150</t>
+  </si>
+  <si>
+    <t>e_DE9-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0032,elc_spv-DEU_0032</t>
+  </si>
+  <si>
+    <t>e_w150200540-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0025,elc_spv-DEU_0025</t>
+  </si>
+  <si>
+    <t>e_w152107815-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0160,elc_spv-DEU_0160</t>
+  </si>
+  <si>
+    <t>e_w157328339-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0109,elc_spv-DEU_0109</t>
+  </si>
+  <si>
+    <t>e_w24757393-380,e_w24757833-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0164,elc_spv-DEU_0164</t>
+  </si>
+  <si>
+    <t>e_w518455594-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0022,elc_spv-DEU_0022</t>
+  </si>
+  <si>
+    <t>e_w87653464-220,e_w87653464-380,e_w87653464-400</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0096,elc_spv-DEU_0096</t>
+  </si>
+  <si>
+    <t>e_w948341123-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0153,elc_spv-DEU_0153</t>
+  </si>
+  <si>
+    <t>e_w91080806-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0168,elc_spv-DEU_0168</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0014,elc_spv-DEU_0014</t>
+  </si>
+  <si>
+    <t>e_DE105-220,e_DE111-380,e_DE118-220,e_DE122-220,e_DE124-380,e_DE126-220,e_DE129-220,e_DE130-380,e_w106096507-380,e_w1118059105-220,e_w22690852-220,e_w22761692-220,e_w22761692-380,e_w22761839-220,e_w22761839-380,e_w23140544-220,e_w23192640-220,e_w25043127-380,e_w25044557-380,e_w27871140-220,e_w33816726-380,e_w87767098-380,e_w92165128-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0026,elc_spv-DEU_0026</t>
+  </si>
+  <si>
+    <t>e_DE166-220,e_DE171-220,e_w198448981-380,e_w373967500-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0065,elc_spv-DEU_0065</t>
+  </si>
+  <si>
+    <t>e_DE28-380,e_w202164315-380,e_w24604789-380,e_w27739871-220,e_w27739871-380,e_w953015049-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0132,elc_spv-DEU_0132</t>
+  </si>
+  <si>
+    <t>e_DE29-220,e_w33169401-220,e_w33169401-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0048,elc_spv-DEU_0048</t>
+  </si>
+  <si>
+    <t>e_DE30-220,e_DE30-380,e_DE32-220,e_DE33-380,e_DE34-380,e_DE35-220,e_DE35-380,e_w32904794-380,e_w33411203-220,e_w33411203-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0031,elc_spv-DEU_0031</t>
+  </si>
+  <si>
+    <t>e_DE37-220,e_DE38-220,e_DE53-380,e_DE56-380,e_w111973179-220,e_w114319248-220,e_w114319248-380,e_w25506770-380,e_w29472852-220,e_w29472852-380,e_w37764852-220,e_w37764852-380,e_w42861703-220,e_w42861703-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0030,elc_spv-DEU_0030</t>
+  </si>
+  <si>
+    <t>e_DE61-380,e_DE64-220,e_DE65-380,e_DE71-220,e_DE85-380,e_DE88-380,e_DE91-380,e_w112695048-380,e_w157628351-380,e_w24414688-220,e_w24667346-220,e_w24667346-380,e_w24858617-220,e_w42488850-380,e_w42507488-220,e_w42507488-380,e_w42560068-380,e_w42809973-380,e_w51940126-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0173,elc_spv-DEU_0173</t>
+  </si>
+  <si>
+    <t>e_w1068350839-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0033,elc_spv-DEU_0033</t>
+  </si>
+  <si>
+    <t>e_w50643382-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0135,elc_spv-DEU_0135</t>
+  </si>
+  <si>
+    <t>e_w234171369-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0066,elc_spv-DEU_0066</t>
+  </si>
+  <si>
+    <t>e_DE15-220,e_w229565743-220,e_w28812249-220,e_w955268863-220,e_w955268863-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0043,elc_spv-DEU_0043</t>
+  </si>
+  <si>
+    <t>e_DE159-380,e_DE160-220,e_DE161-380,e_DE162-380,e_w169244940-220,e_w169244940-380,e_w23641079-220,e_w23641079-380,e_w38661452-380,e_w4826893-220,e_w62061952-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0175,elc_spv-DEU_0175</t>
+  </si>
+  <si>
+    <t>e_DE22-220,e_DE22-380,e_DE23-220,e_DE23-380,e_DE24-220,e_DE24-380,e_DE26-380,e_DE27-220,e_DE27-380,e_w22973052-220,e_w22973070-220,e_w22973070-380,e_w30954714-380,e_w940636813-220,e_w940636813-380,e_w942448206-220,e_w942448206-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0114,elc_spv-DEU_0114</t>
+  </si>
+  <si>
+    <t>e_DE44-380,e_w26474759-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0069,elc_spv-DEU_0069</t>
+  </si>
+  <si>
+    <t>e_w1071504343-380,e_w603661085-380,e_w907539360-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0179,elc_spv-DEU_0179</t>
+  </si>
+  <si>
+    <t>e_w1091984573-220,e_w1091984573-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0050,elc_spv-DEU_0050</t>
+  </si>
+  <si>
+    <t>e_w1134105414-380,e_w157421333-220,e_w266684854-380,e_w32076853-220,e_w32076853-380,e_w42872354-220,e_w829116805-220,e_w829116805-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0124,elc_spv-DEU_0124</t>
+  </si>
+  <si>
+    <t>e_w137602559-220,e_w137602559-380,e_w24759324-220,e_w24768051-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0045,elc_spv-DEU_0045</t>
+  </si>
+  <si>
+    <t>e_w42799487-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0156,elc_spv-DEU_0156</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0129,elc_spv-DEU_0129</t>
+  </si>
+  <si>
+    <t>e_w29713902-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0020,elc_spv-DEU_0020</t>
+  </si>
+  <si>
+    <t>e_w559702819-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0052,elc_spv-DEU_0052</t>
+  </si>
+  <si>
+    <t>e_w603661085-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0053,elc_spv-DEU_0053</t>
+  </si>
+  <si>
+    <t>e_w946969736-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0181,elc_spv-DEU_0181</t>
+  </si>
+  <si>
+    <t>e_w941805476-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0062,elc_spv-DEU_0062</t>
+  </si>
+  <si>
+    <t>e_DE121-380,e_w156673636-380,e_w41072584-380,e_w41232144-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0028,elc_spv-DEU_0028</t>
+  </si>
+  <si>
+    <t>e_DE135-220,e_DE137-220,e_DE137-380,e_DE140-380,e_DE143-380,e_DE145-220,e_DE147-380,e_DE148-220,e_DE148-380,e_DE150-380,e_w152403632-220,e_w152403632-380,e_w89043564-220,e_w89043564-380,e_w90148336-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0013,elc_spv-DEU_0013</t>
+  </si>
+  <si>
+    <t>e_DE138-220,e_DE138-380,e_DE139-220,e_DE139-380,e_DE144-380,e_DE153-380,e_DE154-380,e_w22765517-220,e_w22765517-380,e_w22766160-220,e_w22766160-380,e_w22767509-220,e_w22767509-380,e_w22796434-220,e_w26777313-380,e_w29374542-220,e_w32148946-220,e_w42423415-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0093,elc_spv-DEU_0093</t>
+  </si>
+  <si>
+    <t>e_DE163-220,e_w108797675-380,e_w24758329-380,e_w499165542-220,e_w499165542-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0080,elc_spv-DEU_0080</t>
+  </si>
+  <si>
+    <t>e_DE59-220,e_DE60-220,e_w952004951-220,e_w952004951-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0055,elc_spv-DEU_0055</t>
+  </si>
+  <si>
+    <t>e_w102743264-220,e_w25306752-220,e_w25306752-380,e_w31367936-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0101,elc_spv-DEU_0101</t>
+  </si>
+  <si>
+    <t>e_w1089911133-380,e_w23583867-380,e_w28327356-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0059,elc_spv-DEU_0059</t>
+  </si>
+  <si>
+    <t>e_w145002769-380,e_w55069713-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0091,elc_spv-DEU_0091</t>
+  </si>
+  <si>
+    <t>e_w38325076-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0019,elc_spv-DEU_0019</t>
+  </si>
+  <si>
+    <t>e_w559702819-220,e_w559702819-380,e_w672738029-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0147,elc_spv-DEU_0147</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0171,elc_spv-DEU_0171</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0130,elc_spv-DEU_0130</t>
+  </si>
+  <si>
+    <t>e_DE103-380,e_w29713902-380,e_w32690742-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0159,elc_spv-DEU_0159</t>
+  </si>
+  <si>
+    <t>e_DE149-380,e_w1081302145-220,e_w109917397-380,e_w166604822-380,e_w36183042-380,e_w943135226-220,e_w943135226-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0038,elc_spv-DEU_0038</t>
+  </si>
+  <si>
+    <t>e_DE207-380,e_DE208-380,e_DE209-380,e_w35954395-380,e_w42049947-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0098,elc_spv-DEU_0098</t>
+  </si>
+  <si>
+    <t>e_DE40-220,e_DE43-220,e_w151507370-220,e_w24262656-220,e_w24262656-380,e_w28227099-220,e_w30017786-220,e_w953757606-380,e_w953757608-220,e_w953757608-380,e_w97857512-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0047,elc_spv-DEU_0047</t>
+  </si>
+  <si>
+    <t>e_DE42-220,e_DE51-220,e_DE52-220,e_w24230738-380,e_w26383042-380,e_w39229429-380,e_w957746797-220,e_w957746797-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0034,elc_spv-DEU_0034</t>
+  </si>
+  <si>
+    <t>e_w1128250707-220,e_w1128250707-380,e_w23744346-220,e_w26455019-220,e_w29420322-220,e_w31024391-220,e_w31024391-380,e_w883768276-380,e_w883768277-380,e_w883928228-380,e_w883928229-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0110,elc_spv-DEU_0110</t>
+  </si>
+  <si>
+    <t>e_w24757392-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0074,elc_spv-DEU_0074</t>
+  </si>
+  <si>
+    <t>e_w26403575-380,e_w42050342-220,e_w42050342-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0100,elc_spv-DEU_0100</t>
+  </si>
+  <si>
+    <t>e_w28343121-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0117,elc_spv-DEU_0117</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0139,elc_spv-DEU_0139</t>
+  </si>
+  <si>
+    <t>e_w77694901-220,e_w77697810-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0146,elc_spv-DEU_0146</t>
+  </si>
+  <si>
+    <t>e_w946025110-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0121,elc_spv-DEU_0121</t>
+  </si>
+  <si>
+    <t>e_DE212-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0170,elc_spv-DEU_0170</t>
+  </si>
+  <si>
+    <t>e_w24976300-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0094,elc_spv-DEU_0094</t>
+  </si>
+  <si>
+    <t>e_DE163-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0040,elc_spv-DEU_0040</t>
+  </si>
+  <si>
+    <t>e_DE183-220,e_w152261133-220,e_w152261133-380,e_w254326606-380,e_w32151621-220,e_w32725957-220,e_w32725958-220,e_w32731290-220,e_w32966636-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0018,elc_spv-DEU_0018</t>
+  </si>
+  <si>
+    <t>e_DE20-380,e_w1280840211-380,e_w142487746-380,e_w206289192-380,e_w32042992-380,e_w797009308-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0073,elc_spv-DEU_0073</t>
+  </si>
+  <si>
+    <t>e_DE202-220,e_DE202-380,e_DE205-220,e_DE205-380,e_w26404600-380,e_w41389594-220,e_w41389594-380,e_w85523877-220,e_w85523877-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0104,elc_spv-DEU_0104</t>
+  </si>
+  <si>
+    <t>e_DE211-220,e_DE212-220,e_w68532663-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0131,elc_spv-DEU_0131</t>
+  </si>
+  <si>
+    <t>e_DE47-220,e_w26472665-220,e_w26472665-380,e_w943939310-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0064,elc_spv-DEU_0064</t>
+  </si>
+  <si>
+    <t>e_DE49-380,e_w23135618-220,e_w24413992-380,e_w28397771-220,e_w288305056-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0186,elc_spv-DEU_0186</t>
+  </si>
+  <si>
+    <t>e_w170123812-220,e_w170123812-380,e_w170123812-400</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0105,elc_spv-DEU_0105</t>
+  </si>
+  <si>
+    <t>e_w23907283-380,e_w24237879-220,e_w30613895-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0088,elc_spv-DEU_0088</t>
+  </si>
+  <si>
+    <t>e_w57727004-220,e_w57727004-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0089,elc_spv-DEU_0089</t>
+  </si>
+  <si>
+    <t>e_w683227471-380,e_w77038371-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0023,elc_spv-DEU_0023</t>
+  </si>
+  <si>
+    <t>e_w82130902-225,e_w933248930-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0137,elc_spv-DEU_0137</t>
+  </si>
+  <si>
+    <t>e_w75865676-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0036,elc_spv-DEU_0036</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0188,elc_spv-DEU_0188</t>
+  </si>
+  <si>
+    <t>e_w1222597066-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0061,elc_spv-DEU_0061</t>
+  </si>
+  <si>
+    <t>e_w156673636-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0113,elc_spv-DEU_0113</t>
+  </si>
+  <si>
+    <t>e_w32690742-380</t>
   </si>
   <si>
     <t>elc_won-DEU_0084,elc_spv-DEU_0084</t>
@@ -4310,9 +4988,6 @@
     <t>elc_won-DEU_0182,elc_spv-DEU_0182</t>
   </si>
   <si>
-    <t>e_w941805476-380</t>
-  </si>
-  <si>
     <t>elc_won-DEU_0165,elc_spv-DEU_0165</t>
   </si>
   <si>
@@ -4376,9 +5051,6 @@
     <t>elc_won-DEU_0120,elc_spv-DEU_0120</t>
   </si>
   <si>
-    <t>e_w275466323-380</t>
-  </si>
-  <si>
     <t>elc_won-DEU_0143,elc_spv-DEU_0143</t>
   </si>
   <si>
@@ -4433,84 +5105,6 @@
     <t>e_w907539360-380</t>
   </si>
   <si>
-    <t>elc_won-DEU_0111,elc_spv-DEU_0111</t>
-  </si>
-  <si>
-    <t>e_DE134-380,e_w149256409-380,e_w152219167-220,e_w25746125-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0003,elc_spv-DEU_0003</t>
-  </si>
-  <si>
-    <t>e_DE136-380,e_DE141-380,e_w24268944-380,e_w25426571-380,e_w25992879-380,e_w26593935-380,e_w870598507,e_w870598507-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0056,elc_spv-DEU_0056</t>
-  </si>
-  <si>
-    <t>e_DE195-380,e_DE196-380,e_DE197-380,e_DE198-380,e_DE199-380,e_w26260052-380,e_w30734324-380,e_w42736239-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0150,elc_spv-DEU_0150</t>
-  </si>
-  <si>
-    <t>e_DE9-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0032,elc_spv-DEU_0032</t>
-  </si>
-  <si>
-    <t>e_w150200540-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0025,elc_spv-DEU_0025</t>
-  </si>
-  <si>
-    <t>e_w152107815-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0160,elc_spv-DEU_0160</t>
-  </si>
-  <si>
-    <t>e_w157328339-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0109,elc_spv-DEU_0109</t>
-  </si>
-  <si>
-    <t>e_w24757393-380,e_w24757833-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0164,elc_spv-DEU_0164</t>
-  </si>
-  <si>
-    <t>e_w518455594-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0022,elc_spv-DEU_0022</t>
-  </si>
-  <si>
-    <t>e_w87653464-220,e_w87653464-380,e_w87653464-400</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0096,elc_spv-DEU_0096</t>
-  </si>
-  <si>
-    <t>e_w948341123-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0153,elc_spv-DEU_0153</t>
-  </si>
-  <si>
-    <t>e_w91080806-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0168,elc_spv-DEU_0168</t>
-  </si>
-  <si>
-    <t>e_w946710698-220</t>
-  </si>
-  <si>
     <t>elc_won-DEU_0029,elc_spv-DEU_0029</t>
   </si>
   <si>
@@ -4592,9 +5186,6 @@
     <t>elc_won-DEU_0169,elc_spv-DEU_0169</t>
   </si>
   <si>
-    <t>e_w24976300-380</t>
-  </si>
-  <si>
     <t>elc_won-DEU_0092,elc_spv-DEU_0092</t>
   </si>
   <si>
@@ -4604,595 +5195,82 @@
     <t>elc_won-DEU_0095,elc_spv-DEU_0095</t>
   </si>
   <si>
-    <t>elc_won-DEU_0062,elc_spv-DEU_0062</t>
-  </si>
-  <si>
-    <t>e_DE121-380,e_w156673636-380,e_w41072584-380,e_w41232144-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0028,elc_spv-DEU_0028</t>
-  </si>
-  <si>
-    <t>e_DE135-220,e_DE137-220,e_DE137-380,e_DE140-380,e_DE143-380,e_DE145-220,e_DE147-380,e_DE148-220,e_DE148-380,e_DE150-380,e_w152403632-220,e_w152403632-380,e_w89043564-220,e_w89043564-380,e_w90148336-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0013,elc_spv-DEU_0013</t>
-  </si>
-  <si>
-    <t>e_DE138-220,e_DE138-380,e_DE139-220,e_DE139-380,e_DE144-380,e_DE153-380,e_DE154-380,e_w22765517-220,e_w22765517-380,e_w22766160-220,e_w22766160-380,e_w22767509-220,e_w22767509-380,e_w22796434-220,e_w26777313-380,e_w29374542-220,e_w32148946-220,e_w42423415-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0093,elc_spv-DEU_0093</t>
-  </si>
-  <si>
-    <t>e_DE163-220,e_w108797675-380,e_w24758329-380,e_w499165542-220,e_w499165542-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0080,elc_spv-DEU_0080</t>
-  </si>
-  <si>
-    <t>e_DE59-220,e_DE60-220,e_w952004951-220,e_w952004951-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0055,elc_spv-DEU_0055</t>
-  </si>
-  <si>
-    <t>e_w102743264-220,e_w25306752-220,e_w25306752-380,e_w31367936-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0101,elc_spv-DEU_0101</t>
-  </si>
-  <si>
-    <t>e_w1089911133-380,e_w23583867-380,e_w28327356-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0059,elc_spv-DEU_0059</t>
-  </si>
-  <si>
-    <t>e_w145002769-380,e_w55069713-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0091,elc_spv-DEU_0091</t>
-  </si>
-  <si>
-    <t>e_w38325076-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0019,elc_spv-DEU_0019</t>
-  </si>
-  <si>
-    <t>e_w559702819-220,e_w559702819-380,e_w672738029-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0147,elc_spv-DEU_0147</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0171,elc_spv-DEU_0171</t>
-  </si>
-  <si>
-    <t>e_w942771541-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0004,elc_spv-DEU_0004</t>
-  </si>
-  <si>
-    <t>e_DE106-220,e_DE107-220,e_DE107-380,e_DE110-220,e_DE110-380,e_DE112-380,e_DE113-220,e_DE114-380,e_DE117-380,e_DE125-220,e_DE125-380,e_DE127-380,e_DE128-380,e_DE131-220,e_DE133-380,e_w1040551074-220,e_w188276460-220,e_w188276460-380,e_w23084554-220,e_w23084554-380,e_w24267175-220,e_w24479984-220,e_w24479984-380,e_w24799890-220,e_w24799890-380,e_w24815262-220,e_w24839976-220,e_w24839976-380,e_w26927264-380,e_w27919734-220,e_w27919734-380,e_w31762305-220,e_w49577401-220,e_w49577401-380,e_w91854336-220,e_w91854336-380,e_w92877635-220,e_w93278553-220,e_w95434457-220,e_w95434457-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0144,elc_spv-DEU_0144</t>
-  </si>
-  <si>
-    <t>e_DE142-380,e_w167352587-220,e_w173112252-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0177,elc_spv-DEU_0177</t>
-  </si>
-  <si>
-    <t>e_w1222597066-220,e_w1222597066-380,e_w30039908-220,e_w30039908-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0075,elc_spv-DEU_0075</t>
-  </si>
-  <si>
-    <t>e_w143854536-380,e_w31653753-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0106,elc_spv-DEU_0106</t>
-  </si>
-  <si>
-    <t>e_w18629425-220,e_w18629425-380,e_w53378027-380,e_w76246159-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0039,elc_spv-DEU_0039</t>
-  </si>
-  <si>
-    <t>e_w26814283-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0162,elc_spv-DEU_0162</t>
-  </si>
-  <si>
-    <t>e_w29331499-220,e_w29331499-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0167,elc_spv-DEU_0167</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0006,elc_spv-DEU_0006</t>
-  </si>
-  <si>
-    <t>e_DE62-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0009,elc_spv-DEU_0009</t>
-  </si>
-  <si>
-    <t>e_w156402422-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0180,elc_spv-DEU_0180</t>
-  </si>
-  <si>
-    <t>e_DE1-220,e_DE2-220,e_DE3-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0079,elc_spv-DEU_0079</t>
-  </si>
-  <si>
-    <t>e_DE108-220,e_w156960655-380,e_w172997498-220,e_w456386244-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0176,elc_spv-DEU_0176</t>
-  </si>
-  <si>
-    <t>e_DE16-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0017,elc_spv-DEU_0017</t>
-  </si>
-  <si>
-    <t>e_DE31-380,e_w61918154-220,e_w61918154-380,e_w796306640-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0046,elc_spv-DEU_0046</t>
-  </si>
-  <si>
-    <t>e_DE63-220,e_DE94-380,e_DE95-380,e_w25943440-220,e_w25943440-380,e_w42797575-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0123,elc_spv-DEU_0123</t>
-  </si>
-  <si>
-    <t>e_w133342285-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0097,elc_spv-DEU_0097</t>
-  </si>
-  <si>
-    <t>e_w157164284-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0185,elc_spv-DEU_0185</t>
-  </si>
-  <si>
-    <t>e_w414169327-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0172,elc_spv-DEU_0172</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0141,elc_spv-DEU_0141</t>
-  </si>
-  <si>
-    <t>e_w28956649-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0149,elc_spv-DEU_0149</t>
-  </si>
-  <si>
-    <t>e_w851299584-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0035,elc_spv-DEU_0035</t>
-  </si>
-  <si>
-    <t>e_w29420322-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0066,elc_spv-DEU_0066</t>
-  </si>
-  <si>
-    <t>e_DE15-220,e_w229565743-220,e_w28812249-220,e_w955268863-220,e_w955268863-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0043,elc_spv-DEU_0043</t>
-  </si>
-  <si>
-    <t>e_DE159-380,e_DE160-220,e_DE161-380,e_DE162-380,e_w169244940-220,e_w169244940-380,e_w23641079-220,e_w23641079-380,e_w38661452-380,e_w4826893-220,e_w62061952-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0175,elc_spv-DEU_0175</t>
-  </si>
-  <si>
-    <t>e_DE22-220,e_DE22-380,e_DE23-220,e_DE23-380,e_DE24-220,e_DE24-380,e_DE26-380,e_DE27-220,e_DE27-380,e_w22973052-220,e_w22973070-220,e_w22973070-380,e_w30954714-380,e_w940636813-220,e_w940636813-380,e_w942448206-220,e_w942448206-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0114,elc_spv-DEU_0114</t>
-  </si>
-  <si>
-    <t>e_DE44-380,e_w26474759-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0069,elc_spv-DEU_0069</t>
-  </si>
-  <si>
-    <t>e_w1071504343-380,e_w603661085-380,e_w907539360-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0179,elc_spv-DEU_0179</t>
-  </si>
-  <si>
-    <t>e_w1091984573-220,e_w1091984573-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0050,elc_spv-DEU_0050</t>
-  </si>
-  <si>
-    <t>e_w1134105414-380,e_w157421333-220,e_w266684854-380,e_w32076853-220,e_w32076853-380,e_w42872354-220,e_w829116805-220,e_w829116805-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0124,elc_spv-DEU_0124</t>
-  </si>
-  <si>
-    <t>e_w137602559-220,e_w137602559-380,e_w24759324-220,e_w24768051-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0045,elc_spv-DEU_0045</t>
-  </si>
-  <si>
-    <t>e_w42799487-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0156,elc_spv-DEU_0156</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0129,elc_spv-DEU_0129</t>
-  </si>
-  <si>
-    <t>e_w29713902-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0020,elc_spv-DEU_0020</t>
-  </si>
-  <si>
-    <t>e_w559702819-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0052,elc_spv-DEU_0052</t>
-  </si>
-  <si>
-    <t>e_w603661085-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0053,elc_spv-DEU_0053</t>
-  </si>
-  <si>
-    <t>e_w946969736-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0181,elc_spv-DEU_0181</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0130,elc_spv-DEU_0130</t>
-  </si>
-  <si>
-    <t>e_DE103-380,e_w29713902-380,e_w32690742-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0159,elc_spv-DEU_0159</t>
-  </si>
-  <si>
-    <t>e_DE149-380,e_w1081302145-220,e_w109917397-380,e_w166604822-380,e_w36183042-380,e_w943135226-220,e_w943135226-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0038,elc_spv-DEU_0038</t>
-  </si>
-  <si>
-    <t>e_DE207-380,e_DE208-380,e_DE209-380,e_w35954395-380,e_w42049947-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0098,elc_spv-DEU_0098</t>
-  </si>
-  <si>
-    <t>e_DE40-220,e_DE43-220,e_w151507370-220,e_w24262656-220,e_w24262656-380,e_w28227099-220,e_w30017786-220,e_w953757606-380,e_w953757608-220,e_w953757608-380,e_w97857512-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0047,elc_spv-DEU_0047</t>
-  </si>
-  <si>
-    <t>e_DE42-220,e_DE51-220,e_DE52-220,e_w24230738-380,e_w26383042-380,e_w39229429-380,e_w957746797-220,e_w957746797-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0034,elc_spv-DEU_0034</t>
-  </si>
-  <si>
-    <t>e_w1128250707-220,e_w1128250707-380,e_w23744346-220,e_w26455019-220,e_w29420322-220,e_w31024391-220,e_w31024391-380,e_w883768276-380,e_w883768277-380,e_w883928228-380,e_w883928229-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0110,elc_spv-DEU_0110</t>
-  </si>
-  <si>
-    <t>e_w24757392-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0074,elc_spv-DEU_0074</t>
-  </si>
-  <si>
-    <t>e_w26403575-380,e_w42050342-220,e_w42050342-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0100,elc_spv-DEU_0100</t>
-  </si>
-  <si>
-    <t>e_w28343121-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0117,elc_spv-DEU_0117</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0139,elc_spv-DEU_0139</t>
-  </si>
-  <si>
-    <t>e_w77694901-220,e_w77697810-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0146,elc_spv-DEU_0146</t>
-  </si>
-  <si>
-    <t>e_w946025110-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0121,elc_spv-DEU_0121</t>
-  </si>
-  <si>
-    <t>e_DE212-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0170,elc_spv-DEU_0170</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0094,elc_spv-DEU_0094</t>
-  </si>
-  <si>
-    <t>e_DE163-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0040,elc_spv-DEU_0040</t>
-  </si>
-  <si>
-    <t>e_DE183-220,e_w152261133-220,e_w152261133-380,e_w254326606-380,e_w32151621-220,e_w32725957-220,e_w32725958-220,e_w32731290-220,e_w32966636-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0018,elc_spv-DEU_0018</t>
-  </si>
-  <si>
-    <t>e_DE20-380,e_w1280840211-380,e_w142487746-380,e_w206289192-380,e_w32042992-380,e_w797009308-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0073,elc_spv-DEU_0073</t>
-  </si>
-  <si>
-    <t>e_DE202-220,e_DE202-380,e_DE205-220,e_DE205-380,e_w26404600-380,e_w41389594-220,e_w41389594-380,e_w85523877-220,e_w85523877-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0104,elc_spv-DEU_0104</t>
-  </si>
-  <si>
-    <t>e_DE211-220,e_DE212-220,e_w68532663-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0131,elc_spv-DEU_0131</t>
-  </si>
-  <si>
-    <t>e_DE47-220,e_w26472665-220,e_w26472665-380,e_w943939310-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0064,elc_spv-DEU_0064</t>
-  </si>
-  <si>
-    <t>e_DE49-380,e_w23135618-220,e_w24413992-380,e_w28397771-220,e_w288305056-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0186,elc_spv-DEU_0186</t>
-  </si>
-  <si>
-    <t>e_w170123812-220,e_w170123812-380,e_w170123812-400</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0105,elc_spv-DEU_0105</t>
-  </si>
-  <si>
-    <t>e_w23907283-380,e_w24237879-220,e_w30613895-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0088,elc_spv-DEU_0088</t>
-  </si>
-  <si>
-    <t>e_w57727004-220,e_w57727004-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0089,elc_spv-DEU_0089</t>
-  </si>
-  <si>
-    <t>e_w683227471-380,e_w77038371-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0023,elc_spv-DEU_0023</t>
-  </si>
-  <si>
-    <t>e_w82130902-225,e_w933248930-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0137,elc_spv-DEU_0137</t>
-  </si>
-  <si>
-    <t>e_w75865676-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0036,elc_spv-DEU_0036</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0188,elc_spv-DEU_0188</t>
-  </si>
-  <si>
-    <t>e_w1222597066-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0061,elc_spv-DEU_0061</t>
-  </si>
-  <si>
-    <t>e_w156673636-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0113,elc_spv-DEU_0113</t>
-  </si>
-  <si>
-    <t>e_w32690742-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0127,elc_spv-DEU_0127</t>
-  </si>
-  <si>
-    <t>e_DE157-380,e_DE158-380,e_w93341407-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0042,elc_spv-DEU_0042</t>
-  </si>
-  <si>
-    <t>e_DE165-380,e_DE168-380,e_w1223405794-220,e_w1223405794-380,e_w147521567-220,e_w147521567-380,e_w149987048-220,e_w149987048-380,e_w23284340-220,e_w23284340-380,e_w24685992-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0076,elc_spv-DEU_0076</t>
-  </si>
-  <si>
-    <t>e_DE169-220,e_w24765111-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0155,elc_spv-DEU_0155</t>
-  </si>
-  <si>
-    <t>e_DE201-220,e_DE203-220,e_DE204-220,e_DE206-220,e_w24976300-220,e_w24976300-380,e_w91086220-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0103,elc_spv-DEU_0103</t>
-  </si>
-  <si>
-    <t>e_DE4-220,e_w27124619-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0002,elc_spv-DEU_0002</t>
-  </si>
-  <si>
-    <t>e_w1024536785-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0118,elc_spv-DEU_0118</t>
-  </si>
-  <si>
-    <t>e_w275466323,e_w275466323-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0142,elc_spv-DEU_0142</t>
-  </si>
-  <si>
-    <t>e_w29084374-220,e_w29084374-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0037,elc_spv-DEU_0037</t>
-  </si>
-  <si>
-    <t>e_w31367940-220,e_w31367940-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0166,elc_spv-DEU_0166</t>
-  </si>
-  <si>
-    <t>e_w39688875-220,e_w515358077-380,e_w941453716-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0119,elc_spv-DEU_0119</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0187,elc_spv-DEU_0187</t>
-  </si>
-  <si>
-    <t>e_w170123812-400</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0115,elc_spv-DEU_0115</t>
-  </si>
-  <si>
-    <t>e_w26474759-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0014,elc_spv-DEU_0014</t>
-  </si>
-  <si>
-    <t>e_DE105-220,e_DE111-380,e_DE118-220,e_DE122-220,e_DE124-380,e_DE126-220,e_DE129-220,e_DE130-380,e_w106096507-380,e_w1118059105-220,e_w22690852-220,e_w22761692-220,e_w22761692-380,e_w22761839-220,e_w22761839-380,e_w23140544-220,e_w23192640-220,e_w25043127-380,e_w25044557-380,e_w27871140-220,e_w33816726-380,e_w87767098-380,e_w92165128-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0026,elc_spv-DEU_0026</t>
-  </si>
-  <si>
-    <t>e_DE166-220,e_DE171-220,e_w198448981-380,e_w373967500-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0065,elc_spv-DEU_0065</t>
-  </si>
-  <si>
-    <t>e_DE28-380,e_w202164315-380,e_w24604789-380,e_w27739871-220,e_w27739871-380,e_w953015049-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0132,elc_spv-DEU_0132</t>
-  </si>
-  <si>
-    <t>e_DE29-220,e_w33169401-220,e_w33169401-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0048,elc_spv-DEU_0048</t>
-  </si>
-  <si>
-    <t>e_DE30-220,e_DE30-380,e_DE32-220,e_DE33-380,e_DE34-380,e_DE35-220,e_DE35-380,e_w32904794-380,e_w33411203-220,e_w33411203-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0031,elc_spv-DEU_0031</t>
-  </si>
-  <si>
-    <t>e_DE37-220,e_DE38-220,e_DE53-380,e_DE56-380,e_w111973179-220,e_w114319248-220,e_w114319248-380,e_w25506770-380,e_w29472852-220,e_w29472852-380,e_w37764852-220,e_w37764852-380,e_w42861703-220,e_w42861703-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0030,elc_spv-DEU_0030</t>
-  </si>
-  <si>
-    <t>e_DE61-380,e_DE64-220,e_DE65-380,e_DE71-220,e_DE85-380,e_DE88-380,e_DE91-380,e_w112695048-380,e_w157628351-380,e_w24414688-220,e_w24667346-220,e_w24667346-380,e_w24858617-220,e_w42488850-380,e_w42507488-220,e_w42507488-380,e_w42560068-380,e_w42809973-380,e_w51940126-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0173,elc_spv-DEU_0173</t>
-  </si>
-  <si>
-    <t>e_w1068350839-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0033,elc_spv-DEU_0033</t>
-  </si>
-  <si>
-    <t>e_w50643382-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0135,elc_spv-DEU_0135</t>
-  </si>
-  <si>
-    <t>e_w234171369-380</t>
+    <t>distr_wofelc_wof-DEU_0020</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_20</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0086</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_86</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0024</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_24</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0179</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_179</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0069</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_69</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0053</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_53</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0163</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_163</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0087</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_87</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0037</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_37</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0009</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_9</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0023</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_23</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0118</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_118</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0055</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_55</t>
   </si>
   <si>
     <t>distr_wofelc_wof-DEU_0173</t>
@@ -5219,34 +5297,64 @@
     <t>connecting wind offshore to buses in grid cell DEU_54</t>
   </si>
   <si>
-    <t>distr_wofelc_wof-DEU_0087</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_87</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0037</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_37</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0009</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_9</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0118</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_118</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0055</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_55</t>
+    <t>distr_wofelc_wof-DEU_0039</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_39</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0004</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_4</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0180</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_180</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0036</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_36</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0001</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_1</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0002</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_2</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0103</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_103</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0022</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_22</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0119</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_119</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0021</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_21</t>
   </si>
   <si>
     <t>distr_wofelc_wof-DEU_0084</t>
@@ -5267,10 +5375,28 @@
     <t>connecting wind offshore to buses in grid cell DEU_172</t>
   </si>
   <si>
-    <t>distr_wofelc_wof-DEU_0021</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_21</t>
+    <t>distr_wofelc_wof-DEU_0149</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_149</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0052</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_52</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0038</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_38</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0134</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_134</t>
   </si>
   <si>
     <t>distr_wofelc_wof-DEU_0011</t>
@@ -5279,48 +5405,6 @@
     <t>connecting wind offshore to buses in grid cell DEU_11</t>
   </si>
   <si>
-    <t>distr_wofelc_wof-DEU_0020</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_20</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0086</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_86</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0024</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_24</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0179</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_179</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0069</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_69</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0053</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_53</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0163</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_163</t>
-  </si>
-  <si>
     <t>distr_wofelc_wof-DEU_0133</t>
   </si>
   <si>
@@ -5339,88 +5423,61 @@
     <t>connecting wind offshore to buses in grid cell DEU_10</t>
   </si>
   <si>
-    <t>distr_wofelc_wof-DEU_0023</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_23</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0149</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_149</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0052</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_52</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0038</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_38</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0134</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_134</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0039</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_39</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0180</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_180</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0036</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_36</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0001</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_1</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0002</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_2</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0103</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_103</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0022</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_22</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0119</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_119</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0004</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_4</t>
+    <t>elc_wof-DEU_0020</t>
+  </si>
+  <si>
+    <t>e_w1280840211-380,e_w559702819-220,e_w559702819-380,e_w672738029-220</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0086</t>
+  </si>
+  <si>
+    <t>e_w35176751-220,e_w35176751-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0024</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0179</t>
+  </si>
+  <si>
+    <t>e_DE2-220</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0069</t>
+  </si>
+  <si>
+    <t>e_w1089769599-220,e_w1089769599-380,e_w1280364401-380,e_w289836713-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0053</t>
+  </si>
+  <si>
+    <t>e_w1134105414-380,e_w26455019-220,e_w29420322-220</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0163</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0087</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0037</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0009</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0023</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0118</t>
+  </si>
+  <si>
+    <t>e_w1102237380-220,e_w1102237380-380,e_w275466323,e_w275466323-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0055</t>
   </si>
   <si>
     <t>elc_wof-DEU_0173</t>
@@ -5441,22 +5498,37 @@
     <t>elc_wof-DEU_0054</t>
   </si>
   <si>
-    <t>elc_wof-DEU_0087</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0037</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0009</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0118</t>
-  </si>
-  <si>
-    <t>e_w1102237380-220,e_w1102237380-380,e_w275466323,e_w275466323-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0055</t>
+    <t>elc_wof-DEU_0039</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0004</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0180</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0036</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0001</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0002</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0103</t>
+  </si>
+  <si>
+    <t>e_DE4-220,e_w27124619-220,e_w27646106-220</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0022</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0119</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0021</t>
   </si>
   <si>
     <t>elc_wof-DEU_0084</t>
@@ -5474,48 +5546,24 @@
     <t>elc_wof-DEU_0172</t>
   </si>
   <si>
-    <t>elc_wof-DEU_0021</t>
+    <t>elc_wof-DEU_0149</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0052</t>
+  </si>
+  <si>
+    <t>e_w1128250707-220,e_w1128250707-380,e_w157421333-220,e_w23744346-220,e_w266684854-380,e_w31024391-220,e_w31024391-380,e_w32076853-220,e_w32076853-380,e_w42872354-220,e_w829116805-220,e_w829116805-380,e_w883768276-380,e_w883768277-380,e_w883928228-380,e_w883928229-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0038</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0134</t>
   </si>
   <si>
     <t>elc_wof-DEU_0011</t>
   </si>
   <si>
-    <t>elc_wof-DEU_0020</t>
-  </si>
-  <si>
-    <t>e_w1280840211-380,e_w559702819-220,e_w559702819-380,e_w672738029-220</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0086</t>
-  </si>
-  <si>
-    <t>e_w35176751-220,e_w35176751-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0024</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0179</t>
-  </si>
-  <si>
-    <t>e_DE2-220</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0069</t>
-  </si>
-  <si>
-    <t>e_w1089769599-220,e_w1089769599-380,e_w1280364401-380,e_w289836713-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0053</t>
-  </si>
-  <si>
-    <t>e_w1134105414-380,e_w26455019-220,e_w29420322-220</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0163</t>
-  </si>
-  <si>
     <t>elc_wof-DEU_0133</t>
   </si>
   <si>
@@ -5526,54 +5574,6 @@
   </si>
   <si>
     <t>elc_wof-DEU_0010</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0023</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0149</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0052</t>
-  </si>
-  <si>
-    <t>e_w1128250707-220,e_w1128250707-380,e_w157421333-220,e_w23744346-220,e_w266684854-380,e_w31024391-220,e_w31024391-380,e_w32076853-220,e_w32076853-380,e_w42872354-220,e_w829116805-220,e_w829116805-380,e_w883768276-380,e_w883768277-380,e_w883928228-380,e_w883928229-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0038</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0134</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0039</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0180</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0036</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0001</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0002</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0103</t>
-  </si>
-  <si>
-    <t>e_DE4-220,e_w27124619-220,e_w27646106-220</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0022</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0119</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0004</t>
   </si>
   <si>
     <t>e_won-DEU_0000</t>
@@ -15133,7 +15133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A99113-D1D6-4881-9F03-C12695AA333F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E1060F-12AA-4294-AD98-21E48F2B67A2}">
   <dimension ref="B9:AR198"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15311,7 +15311,7 @@
         <v>6.7169999999999996</v>
       </c>
       <c r="N11">
-        <v>0.14192788639841519</v>
+        <v>0.141927886</v>
       </c>
       <c r="P11" t="s">
         <v>942</v>
@@ -15350,7 +15350,7 @@
         <v>1</v>
       </c>
       <c r="AC11" t="s">
-        <v>595</v>
+        <v>663</v>
       </c>
       <c r="AE11" t="s">
         <v>942</v>
@@ -15389,7 +15389,7 @@
         <v>1</v>
       </c>
       <c r="AR11" t="s">
-        <v>909</v>
+        <v>605</v>
       </c>
     </row>
     <row r="12" spans="2:44">
@@ -15427,7 +15427,7 @@
         <v>4.7392500000000002</v>
       </c>
       <c r="N12">
-        <v>0.13793230683215521</v>
+        <v>0.137932307</v>
       </c>
       <c r="P12" t="s">
         <v>942</v>
@@ -15466,7 +15466,7 @@
         <v>1</v>
       </c>
       <c r="AC12" t="s">
-        <v>929</v>
+        <v>647</v>
       </c>
       <c r="AE12" t="s">
         <v>942</v>
@@ -15505,7 +15505,7 @@
         <v>1</v>
       </c>
       <c r="AR12" t="s">
-        <v>919</v>
+        <v>735</v>
       </c>
     </row>
     <row r="13" spans="2:44">
@@ -15543,7 +15543,7 @@
         <v>5.8215000000000003</v>
       </c>
       <c r="N13">
-        <v>0.13687571951236749</v>
+        <v>0.13687572000000001</v>
       </c>
       <c r="P13" t="s">
         <v>942</v>
@@ -15582,7 +15582,7 @@
         <v>1</v>
       </c>
       <c r="AC13" t="s">
-        <v>787</v>
+        <v>829</v>
       </c>
       <c r="AE13" t="s">
         <v>942</v>
@@ -15615,13 +15615,13 @@
         <v>1768</v>
       </c>
       <c r="AP13" t="s">
-        <v>1485</v>
+        <v>1513</v>
       </c>
       <c r="AQ13">
         <v>1</v>
       </c>
       <c r="AR13" t="s">
-        <v>571</v>
+        <v>613</v>
       </c>
     </row>
     <row r="14" spans="2:44">
@@ -15659,7 +15659,7 @@
         <v>6.5002500000000003</v>
       </c>
       <c r="N14">
-        <v>0.13709245415356919</v>
+        <v>0.137092454</v>
       </c>
       <c r="P14" t="s">
         <v>942</v>
@@ -15698,7 +15698,7 @@
         <v>1</v>
       </c>
       <c r="AC14" t="s">
-        <v>719</v>
+        <v>831</v>
       </c>
       <c r="AE14" t="s">
         <v>942</v>
@@ -15731,13 +15731,13 @@
         <v>1769</v>
       </c>
       <c r="AP14" t="s">
-        <v>1555</v>
+        <v>1770</v>
       </c>
       <c r="AQ14">
         <v>1</v>
       </c>
       <c r="AR14" t="s">
-        <v>671</v>
+        <v>921</v>
       </c>
     </row>
     <row r="15" spans="2:44">
@@ -15775,7 +15775,7 @@
         <v>8.2732500000000009</v>
       </c>
       <c r="N15">
-        <v>0.13560478025114331</v>
+        <v>0.13560478000000001</v>
       </c>
       <c r="P15" t="s">
         <v>942</v>
@@ -15814,7 +15814,7 @@
         <v>1</v>
       </c>
       <c r="AC15" t="s">
-        <v>589</v>
+        <v>683</v>
       </c>
       <c r="AE15" t="s">
         <v>942</v>
@@ -15844,16 +15844,16 @@
         <v>1696</v>
       </c>
       <c r="AO15" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="AP15" t="s">
-        <v>1433</v>
+        <v>1772</v>
       </c>
       <c r="AQ15">
         <v>1</v>
       </c>
       <c r="AR15" t="s">
-        <v>737</v>
+        <v>701</v>
       </c>
     </row>
     <row r="16" spans="2:44">
@@ -15891,7 +15891,7 @@
         <v>8.3160000000000007</v>
       </c>
       <c r="N16">
-        <v>0.1334469160408184</v>
+        <v>0.133446916</v>
       </c>
       <c r="P16" t="s">
         <v>942</v>
@@ -15930,7 +15930,7 @@
         <v>1</v>
       </c>
       <c r="AC16" t="s">
-        <v>815</v>
+        <v>779</v>
       </c>
       <c r="AE16" t="s">
         <v>942</v>
@@ -15960,16 +15960,16 @@
         <v>1698</v>
       </c>
       <c r="AO16" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="AP16" t="s">
-        <v>1555</v>
+        <v>1774</v>
       </c>
       <c r="AQ16">
         <v>1</v>
       </c>
       <c r="AR16" t="s">
-        <v>639</v>
+        <v>669</v>
       </c>
     </row>
     <row r="17" spans="2:44">
@@ -16007,7 +16007,7 @@
         <v>8.3152500000000007</v>
       </c>
       <c r="N17">
-        <v>0.1338749688746951</v>
+        <v>0.13387496900000001</v>
       </c>
       <c r="P17" t="s">
         <v>942</v>
@@ -16046,7 +16046,7 @@
         <v>1</v>
       </c>
       <c r="AC17" t="s">
-        <v>579</v>
+        <v>859</v>
       </c>
       <c r="AE17" t="s">
         <v>942</v>
@@ -16076,16 +16076,16 @@
         <v>1700</v>
       </c>
       <c r="AO17" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="AP17" t="s">
-        <v>1485</v>
+        <v>1381</v>
       </c>
       <c r="AQ17">
         <v>1</v>
       </c>
       <c r="AR17" t="s">
-        <v>583</v>
+        <v>889</v>
       </c>
     </row>
     <row r="18" spans="2:44">
@@ -16123,7 +16123,7 @@
         <v>7.9904999999999999</v>
       </c>
       <c r="N18">
-        <v>0.13514997746491841</v>
+        <v>0.135149977</v>
       </c>
       <c r="P18" t="s">
         <v>942</v>
@@ -16162,7 +16162,7 @@
         <v>1</v>
       </c>
       <c r="AC18" t="s">
-        <v>877</v>
+        <v>919</v>
       </c>
       <c r="AE18" t="s">
         <v>942</v>
@@ -16192,16 +16192,16 @@
         <v>1702</v>
       </c>
       <c r="AO18" t="s">
-        <v>1773</v>
+        <v>1776</v>
       </c>
       <c r="AP18" t="s">
-        <v>1774</v>
+        <v>1657</v>
       </c>
       <c r="AQ18">
         <v>1</v>
       </c>
       <c r="AR18" t="s">
-        <v>799</v>
+        <v>737</v>
       </c>
     </row>
     <row r="19" spans="2:44">
@@ -16239,7 +16239,7 @@
         <v>0.90525</v>
       </c>
       <c r="N19">
-        <v>0.1510155087578621</v>
+        <v>0.15101550899999999</v>
       </c>
       <c r="P19" t="s">
         <v>942</v>
@@ -16278,7 +16278,7 @@
         <v>1</v>
       </c>
       <c r="AC19" t="s">
-        <v>729</v>
+        <v>707</v>
       </c>
       <c r="AE19" t="s">
         <v>942</v>
@@ -16308,16 +16308,16 @@
         <v>1704</v>
       </c>
       <c r="AO19" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="AP19" t="s">
-        <v>1582</v>
+        <v>1445</v>
       </c>
       <c r="AQ19">
         <v>1</v>
       </c>
       <c r="AR19" t="s">
-        <v>673</v>
+        <v>639</v>
       </c>
     </row>
     <row r="20" spans="2:44">
@@ -16355,7 +16355,7 @@
         <v>7.3304999999999998</v>
       </c>
       <c r="N20">
-        <v>0.1461733836795949</v>
+        <v>0.14617338399999999</v>
       </c>
       <c r="P20" t="s">
         <v>942</v>
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="AC20" t="s">
-        <v>689</v>
+        <v>817</v>
       </c>
       <c r="AE20" t="s">
         <v>942</v>
@@ -16424,16 +16424,16 @@
         <v>1706</v>
       </c>
       <c r="AO20" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="AP20" t="s">
-        <v>1777</v>
+        <v>1683</v>
       </c>
       <c r="AQ20">
         <v>1</v>
       </c>
       <c r="AR20" t="s">
-        <v>731</v>
+        <v>583</v>
       </c>
     </row>
     <row r="21" spans="2:44">
@@ -16471,7 +16471,7 @@
         <v>5.7562499999999996</v>
       </c>
       <c r="N21">
-        <v>0.14205176736048911</v>
+        <v>0.142051767</v>
       </c>
       <c r="P21" t="s">
         <v>942</v>
@@ -16510,7 +16510,7 @@
         <v>1</v>
       </c>
       <c r="AC21" t="s">
-        <v>853</v>
+        <v>649</v>
       </c>
       <c r="AE21" t="s">
         <v>942</v>
@@ -16540,16 +16540,16 @@
         <v>1708</v>
       </c>
       <c r="AO21" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="AP21" t="s">
-        <v>1779</v>
+        <v>1513</v>
       </c>
       <c r="AQ21">
         <v>1</v>
       </c>
       <c r="AR21" t="s">
-        <v>733</v>
+        <v>611</v>
       </c>
     </row>
     <row r="22" spans="2:44">
@@ -16587,7 +16587,7 @@
         <v>3.6629999999999998</v>
       </c>
       <c r="N22">
-        <v>0.1381556311712355</v>
+        <v>0.138155631</v>
       </c>
       <c r="P22" t="s">
         <v>942</v>
@@ -16626,7 +16626,7 @@
         <v>1</v>
       </c>
       <c r="AC22" t="s">
-        <v>619</v>
+        <v>715</v>
       </c>
       <c r="AE22" t="s">
         <v>942</v>
@@ -16659,13 +16659,13 @@
         <v>1780</v>
       </c>
       <c r="AP22" t="s">
-        <v>1567</v>
+        <v>1781</v>
       </c>
       <c r="AQ22">
         <v>1</v>
       </c>
       <c r="AR22" t="s">
-        <v>907</v>
+        <v>799</v>
       </c>
     </row>
     <row r="23" spans="2:44">
@@ -16703,7 +16703,7 @@
         <v>4.0972499999999998</v>
       </c>
       <c r="N23">
-        <v>0.13599797996549129</v>
+        <v>0.13599797999999999</v>
       </c>
       <c r="P23" t="s">
         <v>942</v>
@@ -16742,7 +16742,7 @@
         <v>1</v>
       </c>
       <c r="AC23" t="s">
-        <v>679</v>
+        <v>873</v>
       </c>
       <c r="AE23" t="s">
         <v>942</v>
@@ -16772,16 +16772,16 @@
         <v>1712</v>
       </c>
       <c r="AO23" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="AP23" t="s">
-        <v>1485</v>
+        <v>1517</v>
       </c>
       <c r="AQ23">
         <v>1</v>
       </c>
       <c r="AR23" t="s">
-        <v>607</v>
+        <v>673</v>
       </c>
     </row>
     <row r="24" spans="2:44">
@@ -16819,7 +16819,7 @@
         <v>6.1942500000000003</v>
       </c>
       <c r="N24">
-        <v>0.1352897550082551</v>
+        <v>0.13528975500000001</v>
       </c>
       <c r="P24" t="s">
         <v>942</v>
@@ -16858,7 +16858,7 @@
         <v>1</v>
       </c>
       <c r="AC24" t="s">
-        <v>699</v>
+        <v>769</v>
       </c>
       <c r="AE24" t="s">
         <v>942</v>
@@ -16888,16 +16888,16 @@
         <v>1714</v>
       </c>
       <c r="AO24" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="AP24" t="s">
-        <v>1485</v>
+        <v>1784</v>
       </c>
       <c r="AQ24">
         <v>1</v>
       </c>
       <c r="AR24" t="s">
-        <v>587</v>
+        <v>909</v>
       </c>
     </row>
     <row r="25" spans="2:44">
@@ -16935,7 +16935,7 @@
         <v>6.8940000000000001</v>
       </c>
       <c r="N25">
-        <v>0.13415474252020659</v>
+        <v>0.13415474299999999</v>
       </c>
       <c r="P25" t="s">
         <v>942</v>
@@ -16974,7 +16974,7 @@
         <v>1</v>
       </c>
       <c r="AC25" t="s">
-        <v>843</v>
+        <v>569</v>
       </c>
       <c r="AE25" t="s">
         <v>942</v>
@@ -17004,16 +17004,16 @@
         <v>1716</v>
       </c>
       <c r="AO25" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="AP25" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="AQ25">
         <v>1</v>
       </c>
       <c r="AR25" t="s">
-        <v>605</v>
+        <v>919</v>
       </c>
     </row>
     <row r="26" spans="2:44">
@@ -17051,7 +17051,7 @@
         <v>8.1277500000000007</v>
       </c>
       <c r="N26">
-        <v>0.1321679925264736</v>
+        <v>0.13216799300000001</v>
       </c>
       <c r="P26" t="s">
         <v>942</v>
@@ -17090,7 +17090,7 @@
         <v>1</v>
       </c>
       <c r="AC26" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="AE26" t="s">
         <v>942</v>
@@ -17120,16 +17120,16 @@
         <v>1718</v>
       </c>
       <c r="AO26" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="AP26" t="s">
-        <v>1786</v>
+        <v>1683</v>
       </c>
       <c r="AQ26">
         <v>1</v>
       </c>
       <c r="AR26" t="s">
-        <v>735</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27" spans="2:44">
@@ -17167,7 +17167,7 @@
         <v>8.2754999999999992</v>
       </c>
       <c r="N27">
-        <v>0.13276481619888711</v>
+        <v>0.13276481600000001</v>
       </c>
       <c r="P27" t="s">
         <v>942</v>
@@ -17206,7 +17206,7 @@
         <v>1</v>
       </c>
       <c r="AC27" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="AE27" t="s">
         <v>942</v>
@@ -17236,16 +17236,16 @@
         <v>1720</v>
       </c>
       <c r="AO27" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="AP27" t="s">
-        <v>1578</v>
+        <v>1445</v>
       </c>
       <c r="AQ27">
         <v>1</v>
       </c>
       <c r="AR27" t="s">
-        <v>613</v>
+        <v>671</v>
       </c>
     </row>
     <row r="28" spans="2:44">
@@ -17283,7 +17283,7 @@
         <v>8.3204999999999991</v>
       </c>
       <c r="N28">
-        <v>0.1334695028616972</v>
+        <v>0.13346950299999999</v>
       </c>
       <c r="P28" t="s">
         <v>942</v>
@@ -17322,7 +17322,7 @@
         <v>1</v>
       </c>
       <c r="AC28" t="s">
-        <v>671</v>
+        <v>639</v>
       </c>
       <c r="AE28" t="s">
         <v>942</v>
@@ -17352,16 +17352,16 @@
         <v>1722</v>
       </c>
       <c r="AO28" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="AP28" t="s">
-        <v>1789</v>
+        <v>1517</v>
       </c>
       <c r="AQ28">
         <v>1</v>
       </c>
       <c r="AR28" t="s">
-        <v>921</v>
+        <v>643</v>
       </c>
     </row>
     <row r="29" spans="2:44">
@@ -17399,7 +17399,7 @@
         <v>6.7619999999999996</v>
       </c>
       <c r="N29">
-        <v>0.1368311276526247</v>
+        <v>0.136831128</v>
       </c>
       <c r="P29" t="s">
         <v>942</v>
@@ -17438,7 +17438,7 @@
         <v>1</v>
       </c>
       <c r="AC29" t="s">
-        <v>663</v>
+        <v>895</v>
       </c>
       <c r="AE29" t="s">
         <v>942</v>
@@ -17471,13 +17471,13 @@
         <v>1790</v>
       </c>
       <c r="AP29" t="s">
-        <v>1791</v>
+        <v>1683</v>
       </c>
       <c r="AQ29">
         <v>1</v>
       </c>
       <c r="AR29" t="s">
-        <v>701</v>
+        <v>573</v>
       </c>
     </row>
     <row r="30" spans="2:44">
@@ -17515,7 +17515,7 @@
         <v>1.476</v>
       </c>
       <c r="N30">
-        <v>0.1484239805632637</v>
+        <v>0.14842398100000001</v>
       </c>
       <c r="P30" t="s">
         <v>942</v>
@@ -17554,7 +17554,7 @@
         <v>1</v>
       </c>
       <c r="AC30" t="s">
-        <v>647</v>
+        <v>801</v>
       </c>
       <c r="AE30" t="s">
         <v>942</v>
@@ -17584,16 +17584,16 @@
         <v>1726</v>
       </c>
       <c r="AO30" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="AP30" t="s">
-        <v>1793</v>
+        <v>1770</v>
       </c>
       <c r="AQ30">
         <v>1</v>
       </c>
       <c r="AR30" t="s">
-        <v>669</v>
+        <v>923</v>
       </c>
     </row>
     <row r="31" spans="2:44">
@@ -17631,7 +17631,7 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="N31">
-        <v>0.15535269837840521</v>
+        <v>0.15535269800000001</v>
       </c>
       <c r="P31" t="s">
         <v>942</v>
@@ -17670,7 +17670,7 @@
         <v>1</v>
       </c>
       <c r="AC31" t="s">
-        <v>829</v>
+        <v>937</v>
       </c>
       <c r="AE31" t="s">
         <v>942</v>
@@ -17700,16 +17700,16 @@
         <v>1728</v>
       </c>
       <c r="AO31" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="AP31" t="s">
-        <v>1459</v>
+        <v>1445</v>
       </c>
       <c r="AQ31">
         <v>1</v>
       </c>
       <c r="AR31" t="s">
-        <v>889</v>
+        <v>637</v>
       </c>
     </row>
     <row r="32" spans="2:44">
@@ -17747,7 +17747,7 @@
         <v>2.5162499999999999</v>
       </c>
       <c r="N32">
-        <v>0.156010470553338</v>
+        <v>0.15601047100000001</v>
       </c>
       <c r="P32" t="s">
         <v>942</v>
@@ -17786,7 +17786,7 @@
         <v>1</v>
       </c>
       <c r="AC32" t="s">
-        <v>831</v>
+        <v>793</v>
       </c>
       <c r="AE32" t="s">
         <v>942</v>
@@ -17816,16 +17816,16 @@
         <v>1730</v>
       </c>
       <c r="AO32" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="AP32" t="s">
-        <v>1796</v>
+        <v>1683</v>
       </c>
       <c r="AQ32">
         <v>1</v>
       </c>
       <c r="AR32" t="s">
-        <v>829</v>
+        <v>567</v>
       </c>
     </row>
     <row r="33" spans="2:44">
@@ -17863,7 +17863,7 @@
         <v>4.1872499999999997</v>
       </c>
       <c r="N33">
-        <v>0.1554620367011543</v>
+        <v>0.155462037</v>
       </c>
       <c r="P33" t="s">
         <v>942</v>
@@ -17902,7 +17902,7 @@
         <v>1</v>
       </c>
       <c r="AC33" t="s">
-        <v>683</v>
+        <v>573</v>
       </c>
       <c r="AE33" t="s">
         <v>942</v>
@@ -17932,16 +17932,16 @@
         <v>1732</v>
       </c>
       <c r="AO33" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="AP33" t="s">
-        <v>1485</v>
+        <v>1683</v>
       </c>
       <c r="AQ33">
         <v>1</v>
       </c>
       <c r="AR33" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
     </row>
     <row r="34" spans="2:44">
@@ -17979,7 +17979,7 @@
         <v>6.4725000000000001</v>
       </c>
       <c r="N34">
-        <v>0.15184057798567399</v>
+        <v>0.151840578</v>
       </c>
       <c r="P34" t="s">
         <v>942</v>
@@ -18018,7 +18018,7 @@
         <v>1</v>
       </c>
       <c r="AC34" t="s">
-        <v>779</v>
+        <v>851</v>
       </c>
       <c r="AE34" t="s">
         <v>942</v>
@@ -18048,16 +18048,16 @@
         <v>1734</v>
       </c>
       <c r="AO34" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="AP34" t="s">
-        <v>1485</v>
+        <v>1796</v>
       </c>
       <c r="AQ34">
         <v>1</v>
       </c>
       <c r="AR34" t="s">
-        <v>585</v>
+        <v>769</v>
       </c>
     </row>
     <row r="35" spans="2:44">
@@ -18095,7 +18095,7 @@
         <v>6.7777500000000002</v>
       </c>
       <c r="N35">
-        <v>0.14764629653720951</v>
+        <v>0.14764629700000001</v>
       </c>
       <c r="P35" t="s">
         <v>942</v>
@@ -18134,7 +18134,7 @@
         <v>1</v>
       </c>
       <c r="AC35" t="s">
-        <v>859</v>
+        <v>917</v>
       </c>
       <c r="AE35" t="s">
         <v>942</v>
@@ -18164,16 +18164,16 @@
         <v>1736</v>
       </c>
       <c r="AO35" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="AP35" t="s">
-        <v>1578</v>
+        <v>1513</v>
       </c>
       <c r="AQ35">
         <v>1</v>
       </c>
       <c r="AR35" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="36" spans="2:44">
@@ -18211,7 +18211,7 @@
         <v>4.4894999999999996</v>
       </c>
       <c r="N36">
-        <v>0.14369681168446069</v>
+        <v>0.14369681200000001</v>
       </c>
       <c r="P36" t="s">
         <v>942</v>
@@ -18250,7 +18250,7 @@
         <v>1</v>
       </c>
       <c r="AC36" t="s">
-        <v>919</v>
+        <v>713</v>
       </c>
       <c r="AE36" t="s">
         <v>942</v>
@@ -18280,16 +18280,16 @@
         <v>1738</v>
       </c>
       <c r="AO36" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="AP36" t="s">
-        <v>1473</v>
+        <v>1361</v>
       </c>
       <c r="AQ36">
         <v>1</v>
       </c>
       <c r="AR36" t="s">
-        <v>861</v>
+        <v>801</v>
       </c>
     </row>
     <row r="37" spans="2:44">
@@ -18327,7 +18327,7 @@
         <v>4.47525</v>
       </c>
       <c r="N37">
-        <v>0.1394310339208388</v>
+        <v>0.13943103400000001</v>
       </c>
       <c r="P37" t="s">
         <v>942</v>
@@ -18366,7 +18366,7 @@
         <v>1</v>
       </c>
       <c r="AC37" t="s">
-        <v>707</v>
+        <v>775</v>
       </c>
       <c r="AE37" t="s">
         <v>942</v>
@@ -18396,16 +18396,16 @@
         <v>1740</v>
       </c>
       <c r="AO37" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="AP37" t="s">
-        <v>1802</v>
+        <v>1683</v>
       </c>
       <c r="AQ37">
         <v>1</v>
       </c>
       <c r="AR37" t="s">
-        <v>667</v>
+        <v>607</v>
       </c>
     </row>
     <row r="38" spans="2:44">
@@ -18443,7 +18443,7 @@
         <v>3.9817499999999999</v>
       </c>
       <c r="N38">
-        <v>0.13621027185773629</v>
+        <v>0.13621027199999999</v>
       </c>
       <c r="P38" t="s">
         <v>942</v>
@@ -18482,7 +18482,7 @@
         <v>1</v>
       </c>
       <c r="AC38" t="s">
-        <v>731</v>
+        <v>643</v>
       </c>
       <c r="AE38" t="s">
         <v>942</v>
@@ -18512,16 +18512,16 @@
         <v>1742</v>
       </c>
       <c r="AO38" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="AP38" t="s">
-        <v>1555</v>
+        <v>1801</v>
       </c>
       <c r="AQ38">
         <v>1</v>
       </c>
       <c r="AR38" t="s">
-        <v>641</v>
+        <v>731</v>
       </c>
     </row>
     <row r="39" spans="2:44">
@@ -18559,7 +18559,7 @@
         <v>4.8307500000000001</v>
       </c>
       <c r="N39">
-        <v>0.1351879147540368</v>
+        <v>0.13518791499999999</v>
       </c>
       <c r="P39" t="s">
         <v>942</v>
@@ -18598,7 +18598,7 @@
         <v>1</v>
       </c>
       <c r="AC39" t="s">
-        <v>653</v>
+        <v>887</v>
       </c>
       <c r="AE39" t="s">
         <v>942</v>
@@ -18628,16 +18628,16 @@
         <v>1744</v>
       </c>
       <c r="AO39" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="AP39" t="s">
-        <v>1355</v>
+        <v>1803</v>
       </c>
       <c r="AQ39">
         <v>1</v>
       </c>
       <c r="AR39" t="s">
-        <v>831</v>
+        <v>733</v>
       </c>
     </row>
     <row r="40" spans="2:44">
@@ -18675,7 +18675,7 @@
         <v>3.3802500000000002</v>
       </c>
       <c r="N40">
-        <v>0.13476998635031431</v>
+        <v>0.13476998600000001</v>
       </c>
       <c r="P40" t="s">
         <v>942</v>
@@ -18714,7 +18714,7 @@
         <v>1</v>
       </c>
       <c r="AC40" t="s">
-        <v>743</v>
+        <v>897</v>
       </c>
       <c r="AE40" t="s">
         <v>942</v>
@@ -18744,16 +18744,16 @@
         <v>1746</v>
       </c>
       <c r="AO40" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="AP40" t="s">
-        <v>1582</v>
+        <v>1502</v>
       </c>
       <c r="AQ40">
         <v>1</v>
       </c>
       <c r="AR40" t="s">
-        <v>643</v>
+        <v>907</v>
       </c>
     </row>
     <row r="41" spans="2:44">
@@ -18791,7 +18791,7 @@
         <v>7.7212500000000004</v>
       </c>
       <c r="N41">
-        <v>0.1328544901232552</v>
+        <v>0.13285448999999999</v>
       </c>
       <c r="P41" t="s">
         <v>942</v>
@@ -18830,7 +18830,7 @@
         <v>1</v>
       </c>
       <c r="AC41" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AE41" t="s">
         <v>942</v>
@@ -18860,16 +18860,16 @@
         <v>1748</v>
       </c>
       <c r="AO41" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="AP41" t="s">
-        <v>1789</v>
+        <v>1671</v>
       </c>
       <c r="AQ41">
         <v>1</v>
       </c>
       <c r="AR41" t="s">
-        <v>923</v>
+        <v>861</v>
       </c>
     </row>
     <row r="42" spans="2:44">
@@ -18907,7 +18907,7 @@
         <v>7.9560000000000004</v>
       </c>
       <c r="N42">
-        <v>0.1321540356121706</v>
+        <v>0.132154036</v>
       </c>
       <c r="P42" t="s">
         <v>942</v>
@@ -18946,7 +18946,7 @@
         <v>1</v>
       </c>
       <c r="AC42" t="s">
-        <v>727</v>
+        <v>583</v>
       </c>
       <c r="AE42" t="s">
         <v>942</v>
@@ -18976,16 +18976,16 @@
         <v>1750</v>
       </c>
       <c r="AO42" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AP42" t="s">
         <v>1807</v>
       </c>
-      <c r="AP42" t="s">
-        <v>1555</v>
-      </c>
       <c r="AQ42">
         <v>1</v>
       </c>
       <c r="AR42" t="s">
-        <v>637</v>
+        <v>667</v>
       </c>
     </row>
     <row r="43" spans="2:44">
@@ -19023,7 +19023,7 @@
         <v>8.2409999999999997</v>
       </c>
       <c r="N43">
-        <v>0.13219706857151159</v>
+        <v>0.132197069</v>
       </c>
       <c r="P43" t="s">
         <v>942</v>
@@ -19062,7 +19062,7 @@
         <v>1</v>
       </c>
       <c r="AC43" t="s">
-        <v>885</v>
+        <v>595</v>
       </c>
       <c r="AE43" t="s">
         <v>942</v>
@@ -19095,13 +19095,13 @@
         <v>1808</v>
       </c>
       <c r="AP43" t="s">
-        <v>1485</v>
+        <v>1445</v>
       </c>
       <c r="AQ43">
         <v>1</v>
       </c>
       <c r="AR43" t="s">
-        <v>567</v>
+        <v>641</v>
       </c>
     </row>
     <row r="44" spans="2:44">
@@ -19139,7 +19139,7 @@
         <v>8.3302499999999995</v>
       </c>
       <c r="N44">
-        <v>0.13498612810536351</v>
+        <v>0.13498612800000001</v>
       </c>
       <c r="P44" t="s">
         <v>942</v>
@@ -19178,7 +19178,7 @@
         <v>1</v>
       </c>
       <c r="AC44" t="s">
-        <v>813</v>
+        <v>929</v>
       </c>
       <c r="AE44" t="s">
         <v>942</v>
@@ -19211,13 +19211,13 @@
         <v>1809</v>
       </c>
       <c r="AP44" t="s">
-        <v>1485</v>
+        <v>1419</v>
       </c>
       <c r="AQ44">
         <v>1</v>
       </c>
       <c r="AR44" t="s">
-        <v>569</v>
+        <v>831</v>
       </c>
     </row>
     <row r="45" spans="2:44">
@@ -19255,7 +19255,7 @@
         <v>6.3097500000000002</v>
       </c>
       <c r="N45">
-        <v>0.1441481689852083</v>
+        <v>0.14414816899999999</v>
       </c>
       <c r="P45" t="s">
         <v>942</v>
@@ -19294,7 +19294,7 @@
         <v>1</v>
       </c>
       <c r="AC45" t="s">
-        <v>911</v>
+        <v>787</v>
       </c>
       <c r="AE45" t="s">
         <v>942</v>
@@ -19327,13 +19327,13 @@
         <v>1810</v>
       </c>
       <c r="AP45" t="s">
-        <v>1811</v>
+        <v>1683</v>
       </c>
       <c r="AQ45">
         <v>1</v>
       </c>
       <c r="AR45" t="s">
-        <v>769</v>
+        <v>587</v>
       </c>
     </row>
     <row r="46" spans="2:44">
@@ -19371,7 +19371,7 @@
         <v>0.20549999999999999</v>
       </c>
       <c r="N46">
-        <v>0.1508845099469264</v>
+        <v>0.15088451</v>
       </c>
       <c r="P46" t="s">
         <v>942</v>
@@ -19410,7 +19410,7 @@
         <v>1</v>
       </c>
       <c r="AC46" t="s">
-        <v>927</v>
+        <v>719</v>
       </c>
       <c r="AE46" t="s">
         <v>942</v>
@@ -19440,16 +19440,16 @@
         <v>1758</v>
       </c>
       <c r="AO46" t="s">
+        <v>1811</v>
+      </c>
+      <c r="AP46" t="s">
         <v>1812</v>
       </c>
-      <c r="AP46" t="s">
-        <v>1578</v>
-      </c>
       <c r="AQ46">
         <v>1</v>
       </c>
       <c r="AR46" t="s">
-        <v>609</v>
+        <v>829</v>
       </c>
     </row>
     <row r="47" spans="2:44">
@@ -19487,7 +19487,7 @@
         <v>1.125E-2</v>
       </c>
       <c r="N47">
-        <v>0.1558732757077663</v>
+        <v>0.15587327600000001</v>
       </c>
       <c r="P47" t="s">
         <v>942</v>
@@ -19526,7 +19526,7 @@
         <v>1</v>
       </c>
       <c r="AC47" t="s">
-        <v>893</v>
+        <v>589</v>
       </c>
       <c r="AE47" t="s">
         <v>942</v>
@@ -19559,13 +19559,13 @@
         <v>1813</v>
       </c>
       <c r="AP47" t="s">
-        <v>1415</v>
+        <v>1683</v>
       </c>
       <c r="AQ47">
         <v>1</v>
       </c>
       <c r="AR47" t="s">
-        <v>801</v>
+        <v>589</v>
       </c>
     </row>
     <row r="48" spans="2:44">
@@ -19603,7 +19603,7 @@
         <v>3.5939999999999999</v>
       </c>
       <c r="N48">
-        <v>0.1598342923912901</v>
+        <v>0.15983429199999999</v>
       </c>
       <c r="P48" t="s">
         <v>942</v>
@@ -19642,7 +19642,7 @@
         <v>1</v>
       </c>
       <c r="AC48" t="s">
-        <v>871</v>
+        <v>815</v>
       </c>
       <c r="AE48" t="s">
         <v>942</v>
@@ -19675,13 +19675,13 @@
         <v>1814</v>
       </c>
       <c r="AP48" t="s">
-        <v>1485</v>
+        <v>1683</v>
       </c>
       <c r="AQ48">
         <v>1</v>
       </c>
       <c r="AR48" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
     </row>
     <row r="49" spans="2:29">
@@ -19719,7 +19719,7 @@
         <v>4.2705000000000002</v>
       </c>
       <c r="N49">
-        <v>0.15698165195631139</v>
+        <v>0.156981652</v>
       </c>
       <c r="P49" t="s">
         <v>942</v>
@@ -19758,7 +19758,7 @@
         <v>1</v>
       </c>
       <c r="AC49" t="s">
-        <v>717</v>
+        <v>579</v>
       </c>
     </row>
     <row r="50" spans="2:29">
@@ -19796,7 +19796,7 @@
         <v>3.0727500000000001</v>
       </c>
       <c r="N50">
-        <v>0.15146468799641341</v>
+        <v>0.15146468799999999</v>
       </c>
       <c r="P50" t="s">
         <v>942</v>
@@ -19835,7 +19835,7 @@
         <v>1</v>
       </c>
       <c r="AC50" t="s">
-        <v>777</v>
+        <v>877</v>
       </c>
     </row>
     <row r="51" spans="2:29">
@@ -19873,7 +19873,7 @@
         <v>5.6152499999999996</v>
       </c>
       <c r="N51">
-        <v>0.14728548709202749</v>
+        <v>0.14728548699999999</v>
       </c>
       <c r="P51" t="s">
         <v>942</v>
@@ -19912,7 +19912,7 @@
         <v>1</v>
       </c>
       <c r="AC51" t="s">
-        <v>697</v>
+        <v>729</v>
       </c>
     </row>
     <row r="52" spans="2:29">
@@ -19950,7 +19950,7 @@
         <v>7.3514999999999997</v>
       </c>
       <c r="N52">
-        <v>0.14373767120393149</v>
+        <v>0.14373767100000001</v>
       </c>
       <c r="P52" t="s">
         <v>942</v>
@@ -19989,7 +19989,7 @@
         <v>1</v>
       </c>
       <c r="AC52" t="s">
-        <v>613</v>
+        <v>689</v>
       </c>
     </row>
     <row r="53" spans="2:29">
@@ -20027,7 +20027,7 @@
         <v>7.4572500000000002</v>
       </c>
       <c r="N53">
-        <v>0.14043722198966621</v>
+        <v>0.140437222</v>
       </c>
       <c r="P53" t="s">
         <v>942</v>
@@ -20066,7 +20066,7 @@
         <v>1</v>
       </c>
       <c r="AC53" t="s">
-        <v>607</v>
+        <v>853</v>
       </c>
     </row>
     <row r="54" spans="2:29">
@@ -20104,7 +20104,7 @@
         <v>5.508</v>
       </c>
       <c r="N54">
-        <v>0.13784882921301919</v>
+        <v>0.13784882900000001</v>
       </c>
       <c r="P54" t="s">
         <v>942</v>
@@ -20143,7 +20143,7 @@
         <v>1</v>
       </c>
       <c r="AC54" t="s">
-        <v>725</v>
+        <v>619</v>
       </c>
     </row>
     <row r="55" spans="2:29">
@@ -20181,7 +20181,7 @@
         <v>3.7417500000000001</v>
       </c>
       <c r="N55">
-        <v>0.1361154722974397</v>
+        <v>0.13611547199999999</v>
       </c>
       <c r="P55" t="s">
         <v>942</v>
@@ -20220,7 +20220,7 @@
         <v>1</v>
       </c>
       <c r="AC55" t="s">
-        <v>735</v>
+        <v>679</v>
       </c>
     </row>
     <row r="56" spans="2:29">
@@ -20258,7 +20258,7 @@
         <v>2.4375</v>
       </c>
       <c r="N56">
-        <v>0.13457138748725439</v>
+        <v>0.13457138699999999</v>
       </c>
       <c r="P56" t="s">
         <v>942</v>
@@ -20297,7 +20297,7 @@
         <v>1</v>
       </c>
       <c r="AC56" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="57" spans="2:29">
@@ -20335,7 +20335,7 @@
         <v>7.3627500000000001</v>
       </c>
       <c r="N57">
-        <v>0.13268830450508221</v>
+        <v>0.13268830500000001</v>
       </c>
       <c r="P57" t="s">
         <v>942</v>
@@ -20374,7 +20374,7 @@
         <v>1</v>
       </c>
       <c r="AC57" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
     </row>
     <row r="58" spans="2:29">
@@ -20412,7 +20412,7 @@
         <v>7.3387500000000001</v>
       </c>
       <c r="N58">
-        <v>0.1315744589994875</v>
+        <v>0.131574459</v>
       </c>
       <c r="P58" t="s">
         <v>942</v>
@@ -20451,7 +20451,7 @@
         <v>1</v>
       </c>
       <c r="AC58" t="s">
-        <v>849</v>
+        <v>795</v>
       </c>
     </row>
     <row r="59" spans="2:29">
@@ -20489,7 +20489,7 @@
         <v>8.0835000000000008</v>
       </c>
       <c r="N59">
-        <v>0.1319421816819312</v>
+        <v>0.13194218199999999</v>
       </c>
       <c r="P59" t="s">
         <v>942</v>
@@ -20528,7 +20528,7 @@
         <v>1</v>
       </c>
       <c r="AC59" t="s">
-        <v>879</v>
+        <v>835</v>
       </c>
     </row>
     <row r="60" spans="2:29">
@@ -20566,7 +20566,7 @@
         <v>7.8479999999999999</v>
       </c>
       <c r="N60">
-        <v>0.13350689115067871</v>
+        <v>0.13350689099999999</v>
       </c>
       <c r="P60" t="s">
         <v>942</v>
@@ -20605,7 +20605,7 @@
         <v>1</v>
       </c>
       <c r="AC60" t="s">
-        <v>819</v>
+        <v>671</v>
       </c>
     </row>
     <row r="61" spans="2:29">
@@ -20643,7 +20643,7 @@
         <v>3.879</v>
       </c>
       <c r="N61">
-        <v>0.1392339142035906</v>
+        <v>0.13923391399999999</v>
       </c>
       <c r="P61" t="s">
         <v>942</v>
@@ -20682,7 +20682,7 @@
         <v>1</v>
       </c>
       <c r="AC61" t="s">
-        <v>567</v>
+        <v>923</v>
       </c>
     </row>
     <row r="62" spans="2:29">
@@ -20720,7 +20720,7 @@
         <v>0.222</v>
       </c>
       <c r="N62">
-        <v>0.1482209556119847</v>
+        <v>0.14822095599999999</v>
       </c>
       <c r="P62" t="s">
         <v>942</v>
@@ -20759,7 +20759,7 @@
         <v>1</v>
       </c>
       <c r="AC62" t="s">
-        <v>931</v>
+        <v>721</v>
       </c>
     </row>
     <row r="63" spans="2:29">
@@ -20797,7 +20797,7 @@
         <v>1.0942499999999999</v>
       </c>
       <c r="N63">
-        <v>0.1504581952254605</v>
+        <v>0.15045819499999999</v>
       </c>
       <c r="P63" t="s">
         <v>942</v>
@@ -20836,7 +20836,7 @@
         <v>1</v>
       </c>
       <c r="AC63" t="s">
-        <v>733</v>
+        <v>915</v>
       </c>
     </row>
     <row r="64" spans="2:29">
@@ -20874,7 +20874,7 @@
         <v>4.4707499999999998</v>
       </c>
       <c r="N64">
-        <v>0.15997538867108951</v>
+        <v>0.159975389</v>
       </c>
       <c r="P64" t="s">
         <v>942</v>
@@ -20913,7 +20913,7 @@
         <v>1</v>
       </c>
       <c r="AC64" t="s">
-        <v>705</v>
+        <v>599</v>
       </c>
     </row>
     <row r="65" spans="2:29">
@@ -20951,7 +20951,7 @@
         <v>5.8162500000000001</v>
       </c>
       <c r="N65">
-        <v>0.15607253112207981</v>
+        <v>0.15607253099999999</v>
       </c>
       <c r="P65" t="s">
         <v>942</v>
@@ -20990,7 +20990,7 @@
         <v>1</v>
       </c>
       <c r="AC65" t="s">
-        <v>839</v>
+        <v>657</v>
       </c>
     </row>
     <row r="66" spans="2:29">
@@ -21028,7 +21028,7 @@
         <v>5.6122500000000004</v>
       </c>
       <c r="N66">
-        <v>0.1493848759074311</v>
+        <v>0.149384876</v>
       </c>
       <c r="P66" t="s">
         <v>942</v>
@@ -21067,7 +21067,7 @@
         <v>1</v>
       </c>
       <c r="AC66" t="s">
-        <v>737</v>
+        <v>809</v>
       </c>
     </row>
     <row r="67" spans="2:29">
@@ -21105,7 +21105,7 @@
         <v>6.12</v>
       </c>
       <c r="N67">
-        <v>0.14491911867287369</v>
+        <v>0.14491911900000001</v>
       </c>
       <c r="P67" t="s">
         <v>942</v>
@@ -21144,7 +21144,7 @@
         <v>1</v>
       </c>
       <c r="AC67" t="s">
-        <v>785</v>
+        <v>757</v>
       </c>
     </row>
     <row r="68" spans="2:29">
@@ -21182,7 +21182,7 @@
         <v>5.7270000000000003</v>
       </c>
       <c r="N68">
-        <v>0.1434177486991155</v>
+        <v>0.14341774900000001</v>
       </c>
       <c r="P68" t="s">
         <v>942</v>
@@ -21221,7 +21221,7 @@
         <v>1</v>
       </c>
       <c r="AC68" t="s">
-        <v>571</v>
+        <v>933</v>
       </c>
     </row>
     <row r="69" spans="2:29">
@@ -21259,7 +21259,7 @@
         <v>4.05</v>
       </c>
       <c r="N69">
-        <v>0.14143080427380261</v>
+        <v>0.14143080399999999</v>
       </c>
       <c r="P69" t="s">
         <v>942</v>
@@ -21298,7 +21298,7 @@
         <v>1</v>
       </c>
       <c r="AC69" t="s">
-        <v>675</v>
+        <v>907</v>
       </c>
     </row>
     <row r="70" spans="2:29">
@@ -21336,7 +21336,7 @@
         <v>5.7727500000000003</v>
       </c>
       <c r="N70">
-        <v>0.13916660966463759</v>
+        <v>0.13916661</v>
       </c>
       <c r="P70" t="s">
         <v>942</v>
@@ -21375,7 +21375,7 @@
         <v>1</v>
       </c>
       <c r="AC70" t="s">
-        <v>863</v>
+        <v>845</v>
       </c>
     </row>
     <row r="71" spans="2:29">
@@ -21413,7 +21413,7 @@
         <v>6.53775</v>
       </c>
       <c r="N71">
-        <v>0.13593319663623399</v>
+        <v>0.13593319700000001</v>
       </c>
       <c r="P71" t="s">
         <v>942</v>
@@ -21452,7 +21452,7 @@
         <v>1</v>
       </c>
       <c r="AC71" t="s">
-        <v>629</v>
+        <v>861</v>
       </c>
     </row>
     <row r="72" spans="2:29">
@@ -21490,7 +21490,7 @@
         <v>5.0834999999999999</v>
       </c>
       <c r="N72">
-        <v>0.13228573009354461</v>
+        <v>0.13228572999999999</v>
       </c>
       <c r="P72" t="s">
         <v>942</v>
@@ -21529,7 +21529,7 @@
         <v>1</v>
       </c>
       <c r="AC72" t="s">
-        <v>615</v>
+        <v>635</v>
       </c>
     </row>
     <row r="73" spans="2:29">
@@ -21567,7 +21567,7 @@
         <v>5.7765000000000004</v>
       </c>
       <c r="N73">
-        <v>0.13071396003296321</v>
+        <v>0.13071395999999999</v>
       </c>
       <c r="P73" t="s">
         <v>942</v>
@@ -21606,7 +21606,7 @@
         <v>1</v>
       </c>
       <c r="AC73" t="s">
-        <v>883</v>
+        <v>785</v>
       </c>
     </row>
     <row r="74" spans="2:29">
@@ -21644,7 +21644,7 @@
         <v>4.7497499999999997</v>
       </c>
       <c r="N74">
-        <v>0.1315206856538603</v>
+        <v>0.131520686</v>
       </c>
       <c r="P74" t="s">
         <v>942</v>
@@ -21683,7 +21683,7 @@
         <v>1</v>
       </c>
       <c r="AC74" t="s">
-        <v>781</v>
+        <v>571</v>
       </c>
     </row>
     <row r="75" spans="2:29">
@@ -21721,7 +21721,7 @@
         <v>8.1892499999999995</v>
       </c>
       <c r="N75">
-        <v>0.13241927067260159</v>
+        <v>0.13241927100000001</v>
       </c>
       <c r="P75" t="s">
         <v>942</v>
@@ -21760,7 +21760,7 @@
         <v>1</v>
       </c>
       <c r="AC75" t="s">
-        <v>891</v>
+        <v>675</v>
       </c>
     </row>
     <row r="76" spans="2:29">
@@ -21798,7 +21798,7 @@
         <v>8.3017500000000002</v>
       </c>
       <c r="N76">
-        <v>0.1325484042070951</v>
+        <v>0.13254840400000001</v>
       </c>
       <c r="P76" t="s">
         <v>942</v>
@@ -21837,7 +21837,7 @@
         <v>1</v>
       </c>
       <c r="AC76" t="s">
-        <v>609</v>
+        <v>863</v>
       </c>
     </row>
     <row r="77" spans="2:29">
@@ -21875,7 +21875,7 @@
         <v>7.8817500000000003</v>
       </c>
       <c r="N77">
-        <v>0.1363595063780107</v>
+        <v>0.13635950599999999</v>
       </c>
       <c r="P77" t="s">
         <v>942</v>
@@ -21914,7 +21914,7 @@
         <v>1</v>
       </c>
       <c r="AC77" t="s">
-        <v>755</v>
+        <v>629</v>
       </c>
     </row>
     <row r="78" spans="2:29">
@@ -21952,7 +21952,7 @@
         <v>2.4209999999999998</v>
       </c>
       <c r="N78">
-        <v>0.1396882684141447</v>
+        <v>0.139688268</v>
       </c>
       <c r="P78" t="s">
         <v>942</v>
@@ -21991,7 +21991,7 @@
         <v>1</v>
       </c>
       <c r="AC78" t="s">
-        <v>869</v>
+        <v>615</v>
       </c>
     </row>
     <row r="79" spans="2:29">
@@ -22029,7 +22029,7 @@
         <v>4.4669999999999996</v>
       </c>
       <c r="N79">
-        <v>0.1429718151801817</v>
+        <v>0.142971815</v>
       </c>
       <c r="P79" t="s">
         <v>942</v>
@@ -22068,7 +22068,7 @@
         <v>1</v>
       </c>
       <c r="AC79" t="s">
-        <v>899</v>
+        <v>883</v>
       </c>
     </row>
     <row r="80" spans="2:29">
@@ -22106,7 +22106,7 @@
         <v>7.0282499999999999</v>
       </c>
       <c r="N80">
-        <v>0.14506595344754811</v>
+        <v>0.145065953</v>
       </c>
       <c r="P80" t="s">
         <v>942</v>
@@ -22145,7 +22145,7 @@
         <v>1</v>
       </c>
       <c r="AC80" t="s">
-        <v>623</v>
+        <v>781</v>
       </c>
     </row>
     <row r="81" spans="2:29">
@@ -22183,7 +22183,7 @@
         <v>4.5532500000000002</v>
       </c>
       <c r="N81">
-        <v>0.1615105712996745</v>
+        <v>0.16151057099999999</v>
       </c>
       <c r="P81" t="s">
         <v>942</v>
@@ -22222,7 +22222,7 @@
         <v>1</v>
       </c>
       <c r="AC81" t="s">
-        <v>565</v>
+        <v>891</v>
       </c>
     </row>
     <row r="82" spans="2:29">
@@ -22260,7 +22260,7 @@
         <v>7.8487499999999999</v>
       </c>
       <c r="N82">
-        <v>0.15564520186791869</v>
+        <v>0.15564520200000001</v>
       </c>
       <c r="P82" t="s">
         <v>942</v>
@@ -22299,7 +22299,7 @@
         <v>1</v>
       </c>
       <c r="AC82" t="s">
-        <v>677</v>
+        <v>609</v>
       </c>
     </row>
     <row r="83" spans="2:29">
@@ -22337,7 +22337,7 @@
         <v>6.3914999999999997</v>
       </c>
       <c r="N83">
-        <v>0.148137261817263</v>
+        <v>0.14813726199999999</v>
       </c>
       <c r="P83" t="s">
         <v>942</v>
@@ -22376,7 +22376,7 @@
         <v>1</v>
       </c>
       <c r="AC83" t="s">
-        <v>889</v>
+        <v>755</v>
       </c>
     </row>
     <row r="84" spans="2:29">
@@ -22414,7 +22414,7 @@
         <v>5.3527500000000003</v>
       </c>
       <c r="N84">
-        <v>0.14355853857585429</v>
+        <v>0.14355853900000001</v>
       </c>
       <c r="P84" t="s">
         <v>942</v>
@@ -22453,7 +22453,7 @@
         <v>1</v>
       </c>
       <c r="AC84" t="s">
-        <v>761</v>
+        <v>869</v>
       </c>
     </row>
     <row r="85" spans="2:29">
@@ -22491,7 +22491,7 @@
         <v>6.4192499999999999</v>
       </c>
       <c r="N85">
-        <v>0.1430558460889115</v>
+        <v>0.14305584599999999</v>
       </c>
       <c r="P85" t="s">
         <v>942</v>
@@ -22524,13 +22524,13 @@
         <v>1470</v>
       </c>
       <c r="AA85" t="s">
-        <v>1471</v>
+        <v>1381</v>
       </c>
       <c r="AB85">
         <v>1</v>
       </c>
       <c r="AC85" t="s">
-        <v>597</v>
+        <v>899</v>
       </c>
     </row>
     <row r="86" spans="2:29">
@@ -22568,7 +22568,7 @@
         <v>6.0134999999999996</v>
       </c>
       <c r="N86">
-        <v>0.1414425767646319</v>
+        <v>0.14144257700000001</v>
       </c>
       <c r="P86" t="s">
         <v>942</v>
@@ -22598,16 +22598,16 @@
         <v>1095</v>
       </c>
       <c r="Z86" t="s">
+        <v>1471</v>
+      </c>
+      <c r="AA86" t="s">
         <v>1472</v>
       </c>
-      <c r="AA86" t="s">
-        <v>1473</v>
-      </c>
       <c r="AB86">
         <v>1</v>
       </c>
       <c r="AC86" t="s">
-        <v>867</v>
+        <v>593</v>
       </c>
     </row>
     <row r="87" spans="2:29">
@@ -22645,7 +22645,7 @@
         <v>3.0337499999999999</v>
       </c>
       <c r="N87">
-        <v>0.13882066965306861</v>
+        <v>0.13882067000000001</v>
       </c>
       <c r="P87" t="s">
         <v>942</v>
@@ -22675,16 +22675,16 @@
         <v>1097</v>
       </c>
       <c r="Z87" t="s">
+        <v>1473</v>
+      </c>
+      <c r="AA87" t="s">
         <v>1474</v>
       </c>
-      <c r="AA87" t="s">
-        <v>1475</v>
-      </c>
       <c r="AB87">
         <v>1</v>
       </c>
       <c r="AC87" t="s">
-        <v>865</v>
+        <v>617</v>
       </c>
     </row>
     <row r="88" spans="2:29">
@@ -22722,7 +22722,7 @@
         <v>3.4387500000000002</v>
       </c>
       <c r="N88">
-        <v>0.13463591910907549</v>
+        <v>0.13463591899999999</v>
       </c>
       <c r="P88" t="s">
         <v>942</v>
@@ -22752,16 +22752,16 @@
         <v>1099</v>
       </c>
       <c r="Z88" t="s">
+        <v>1475</v>
+      </c>
+      <c r="AA88" t="s">
         <v>1476</v>
       </c>
-      <c r="AA88" t="s">
-        <v>1477</v>
-      </c>
       <c r="AB88">
         <v>1</v>
       </c>
       <c r="AC88" t="s">
-        <v>767</v>
+        <v>693</v>
       </c>
     </row>
     <row r="89" spans="2:29">
@@ -22799,7 +22799,7 @@
         <v>2.91675</v>
       </c>
       <c r="N89">
-        <v>0.13056135199979979</v>
+        <v>0.13056135199999999</v>
       </c>
       <c r="P89" t="s">
         <v>942</v>
@@ -22829,16 +22829,16 @@
         <v>1101</v>
       </c>
       <c r="Z89" t="s">
+        <v>1477</v>
+      </c>
+      <c r="AA89" t="s">
         <v>1478</v>
       </c>
-      <c r="AA89" t="s">
-        <v>1479</v>
-      </c>
       <c r="AB89">
         <v>1</v>
       </c>
       <c r="AC89" t="s">
-        <v>585</v>
+        <v>827</v>
       </c>
     </row>
     <row r="90" spans="2:29">
@@ -22876,7 +22876,7 @@
         <v>4.569</v>
       </c>
       <c r="N90">
-        <v>0.13026256294597169</v>
+        <v>0.130262563</v>
       </c>
       <c r="P90" t="s">
         <v>942</v>
@@ -22906,16 +22906,16 @@
         <v>1103</v>
       </c>
       <c r="Z90" t="s">
+        <v>1479</v>
+      </c>
+      <c r="AA90" t="s">
         <v>1480</v>
       </c>
-      <c r="AA90" t="s">
-        <v>1481</v>
-      </c>
       <c r="AB90">
         <v>1</v>
       </c>
       <c r="AC90" t="s">
-        <v>807</v>
+        <v>661</v>
       </c>
     </row>
     <row r="91" spans="2:29">
@@ -22953,7 +22953,7 @@
         <v>4.9409999999999998</v>
       </c>
       <c r="N91">
-        <v>0.132366961825719</v>
+        <v>0.132366962</v>
       </c>
       <c r="P91" t="s">
         <v>942</v>
@@ -22983,16 +22983,16 @@
         <v>1105</v>
       </c>
       <c r="Z91" t="s">
+        <v>1481</v>
+      </c>
+      <c r="AA91" t="s">
         <v>1482</v>
       </c>
-      <c r="AA91" t="s">
-        <v>1483</v>
-      </c>
       <c r="AB91">
         <v>1</v>
       </c>
       <c r="AC91" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
     </row>
     <row r="92" spans="2:29">
@@ -23030,7 +23030,7 @@
         <v>8.3137500000000006</v>
       </c>
       <c r="N92">
-        <v>0.13292421593356921</v>
+        <v>0.13292421600000001</v>
       </c>
       <c r="P92" t="s">
         <v>942</v>
@@ -23060,16 +23060,16 @@
         <v>1107</v>
       </c>
       <c r="Z92" t="s">
+        <v>1483</v>
+      </c>
+      <c r="AA92" t="s">
         <v>1484</v>
       </c>
-      <c r="AA92" t="s">
-        <v>1485</v>
-      </c>
       <c r="AB92">
         <v>1</v>
       </c>
       <c r="AC92" t="s">
-        <v>581</v>
+        <v>625</v>
       </c>
     </row>
     <row r="93" spans="2:29">
@@ -23107,7 +23107,7 @@
         <v>8.4172499999999992</v>
       </c>
       <c r="N93">
-        <v>0.13252540888811989</v>
+        <v>0.13252540900000001</v>
       </c>
       <c r="P93" t="s">
         <v>942</v>
@@ -23137,16 +23137,16 @@
         <v>1109</v>
       </c>
       <c r="Z93" t="s">
+        <v>1485</v>
+      </c>
+      <c r="AA93" t="s">
         <v>1486</v>
       </c>
-      <c r="AA93" t="s">
-        <v>1487</v>
-      </c>
       <c r="AB93">
         <v>1</v>
       </c>
       <c r="AC93" t="s">
-        <v>901</v>
+        <v>909</v>
       </c>
     </row>
     <row r="94" spans="2:29">
@@ -23184,7 +23184,7 @@
         <v>7.6230000000000002</v>
       </c>
       <c r="N94">
-        <v>0.1356257903032756</v>
+        <v>0.13562579</v>
       </c>
       <c r="P94" t="s">
         <v>942</v>
@@ -23214,16 +23214,16 @@
         <v>1111</v>
       </c>
       <c r="Z94" t="s">
+        <v>1487</v>
+      </c>
+      <c r="AA94" t="s">
         <v>1488</v>
       </c>
-      <c r="AA94" t="s">
-        <v>1489</v>
-      </c>
       <c r="AB94">
         <v>1</v>
       </c>
       <c r="AC94" t="s">
-        <v>747</v>
+        <v>631</v>
       </c>
     </row>
     <row r="95" spans="2:29">
@@ -23261,7 +23261,7 @@
         <v>7.2255000000000003</v>
       </c>
       <c r="N95">
-        <v>0.1394405596726645</v>
+        <v>0.13944055999999999</v>
       </c>
       <c r="P95" t="s">
         <v>942</v>
@@ -23291,16 +23291,16 @@
         <v>1113</v>
       </c>
       <c r="Z95" t="s">
+        <v>1489</v>
+      </c>
+      <c r="AA95" t="s">
         <v>1490</v>
       </c>
-      <c r="AA95" t="s">
-        <v>1455</v>
-      </c>
       <c r="AB95">
         <v>1</v>
       </c>
       <c r="AC95" t="s">
-        <v>753</v>
+        <v>833</v>
       </c>
     </row>
     <row r="96" spans="2:29">
@@ -23338,7 +23338,7 @@
         <v>7.68</v>
       </c>
       <c r="N96">
-        <v>0.1426520702773304</v>
+        <v>0.14265206999999999</v>
       </c>
       <c r="P96" t="s">
         <v>942</v>
@@ -23377,7 +23377,7 @@
         <v>1</v>
       </c>
       <c r="AC96" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
     </row>
     <row r="97" spans="2:29">
@@ -23415,7 +23415,7 @@
         <v>5.6392499999999997</v>
       </c>
       <c r="N97">
-        <v>0.14548596326693919</v>
+        <v>0.145485963</v>
       </c>
       <c r="P97" t="s">
         <v>942</v>
@@ -23454,7 +23454,7 @@
         <v>1</v>
       </c>
       <c r="AC97" t="s">
-        <v>621</v>
+        <v>651</v>
       </c>
     </row>
     <row r="98" spans="2:29">
@@ -23492,7 +23492,7 @@
         <v>2.9460000000000002</v>
       </c>
       <c r="N98">
-        <v>0.1662904323543602</v>
+        <v>0.16629043199999999</v>
       </c>
       <c r="P98" t="s">
         <v>942</v>
@@ -23531,7 +23531,7 @@
         <v>1</v>
       </c>
       <c r="AC98" t="s">
-        <v>591</v>
+        <v>913</v>
       </c>
     </row>
     <row r="99" spans="2:29">
@@ -23569,7 +23569,7 @@
         <v>7.8607500000000003</v>
       </c>
       <c r="N99">
-        <v>0.15572482337062959</v>
+        <v>0.15572482300000001</v>
       </c>
       <c r="P99" t="s">
         <v>942</v>
@@ -23608,7 +23608,7 @@
         <v>1</v>
       </c>
       <c r="AC99" t="s">
-        <v>749</v>
+        <v>791</v>
       </c>
     </row>
     <row r="100" spans="2:29">
@@ -23646,7 +23646,7 @@
         <v>7.9627499999999998</v>
       </c>
       <c r="N100">
-        <v>0.14718244216236229</v>
+        <v>0.147182442</v>
       </c>
       <c r="P100" t="s">
         <v>942</v>
@@ -23685,7 +23685,7 @@
         <v>1</v>
       </c>
       <c r="AC100" t="s">
-        <v>723</v>
+        <v>701</v>
       </c>
     </row>
     <row r="101" spans="2:29">
@@ -23723,7 +23723,7 @@
         <v>7.4279999999999999</v>
       </c>
       <c r="N101">
-        <v>0.1440276007241918</v>
+        <v>0.14402760100000001</v>
       </c>
       <c r="P101" t="s">
         <v>942</v>
@@ -23762,7 +23762,7 @@
         <v>1</v>
       </c>
       <c r="AC101" t="s">
-        <v>673</v>
+        <v>921</v>
       </c>
     </row>
     <row r="102" spans="2:29">
@@ -23800,7 +23800,7 @@
         <v>7.7077499999999999</v>
       </c>
       <c r="N102">
-        <v>0.14269970471336499</v>
+        <v>0.14269970500000001</v>
       </c>
       <c r="P102" t="s">
         <v>942</v>
@@ -23839,7 +23839,7 @@
         <v>1</v>
       </c>
       <c r="AC102" t="s">
-        <v>765</v>
+        <v>665</v>
       </c>
     </row>
     <row r="103" spans="2:29">
@@ -23877,7 +23877,7 @@
         <v>7.0597500000000002</v>
       </c>
       <c r="N103">
-        <v>0.1408273813932415</v>
+        <v>0.140827381</v>
       </c>
       <c r="P103" t="s">
         <v>942</v>
@@ -23916,7 +23916,7 @@
         <v>1</v>
       </c>
       <c r="AC103" t="s">
-        <v>681</v>
+        <v>811</v>
       </c>
     </row>
     <row r="104" spans="2:29">
@@ -23954,7 +23954,7 @@
         <v>6.5782499999999997</v>
       </c>
       <c r="N104">
-        <v>0.13813212804622471</v>
+        <v>0.13813212799999999</v>
       </c>
       <c r="P104" t="s">
         <v>942</v>
@@ -23993,7 +23993,7 @@
         <v>1</v>
       </c>
       <c r="AC104" t="s">
-        <v>745</v>
+        <v>655</v>
       </c>
     </row>
     <row r="105" spans="2:29">
@@ -24031,7 +24031,7 @@
         <v>3.1102500000000002</v>
       </c>
       <c r="N105">
-        <v>0.13459257025938071</v>
+        <v>0.13459256999999999</v>
       </c>
       <c r="P105" t="s">
         <v>942</v>
@@ -24064,13 +24064,13 @@
         <v>1509</v>
       </c>
       <c r="AA105" t="s">
-        <v>1510</v>
+        <v>1401</v>
       </c>
       <c r="AB105">
         <v>1</v>
       </c>
       <c r="AC105" t="s">
-        <v>603</v>
+        <v>875</v>
       </c>
     </row>
     <row r="106" spans="2:29">
@@ -24108,7 +24108,7 @@
         <v>5.83725</v>
       </c>
       <c r="N106">
-        <v>0.1322599925502134</v>
+        <v>0.13225999299999999</v>
       </c>
       <c r="P106" t="s">
         <v>942</v>
@@ -24138,16 +24138,16 @@
         <v>1135</v>
       </c>
       <c r="Z106" t="s">
+        <v>1510</v>
+      </c>
+      <c r="AA106" t="s">
         <v>1511</v>
       </c>
-      <c r="AA106" t="s">
-        <v>1371</v>
-      </c>
       <c r="AB106">
         <v>1</v>
       </c>
       <c r="AC106" t="s">
-        <v>857</v>
+        <v>821</v>
       </c>
     </row>
     <row r="107" spans="2:29">
@@ -24185,7 +24185,7 @@
         <v>4.71225</v>
       </c>
       <c r="N107">
-        <v>0.13331105814023089</v>
+        <v>0.13331105800000001</v>
       </c>
       <c r="P107" t="s">
         <v>942</v>
@@ -24224,7 +24224,7 @@
         <v>1</v>
       </c>
       <c r="AC107" t="s">
-        <v>905</v>
+        <v>605</v>
       </c>
     </row>
     <row r="108" spans="2:29">
@@ -24262,7 +24262,7 @@
         <v>6.6464999999999996</v>
       </c>
       <c r="N108">
-        <v>0.1343045013161826</v>
+        <v>0.13430450099999999</v>
       </c>
       <c r="P108" t="s">
         <v>942</v>
@@ -24301,7 +24301,7 @@
         <v>1</v>
       </c>
       <c r="AC108" t="s">
-        <v>573</v>
+        <v>667</v>
       </c>
     </row>
     <row r="109" spans="2:29">
@@ -24339,7 +24339,7 @@
         <v>8.3197500000000009</v>
       </c>
       <c r="N109">
-        <v>0.13348478398154201</v>
+        <v>0.133484784</v>
       </c>
       <c r="P109" t="s">
         <v>942</v>
@@ -24378,7 +24378,7 @@
         <v>1</v>
       </c>
       <c r="AC109" t="s">
-        <v>851</v>
+        <v>669</v>
       </c>
     </row>
     <row r="110" spans="2:29">
@@ -24416,7 +24416,7 @@
         <v>8.4157499999999992</v>
       </c>
       <c r="N110">
-        <v>0.13327403401986951</v>
+        <v>0.13327403400000001</v>
       </c>
       <c r="P110" t="s">
         <v>942</v>
@@ -24455,7 +24455,7 @@
         <v>1</v>
       </c>
       <c r="AC110" t="s">
-        <v>917</v>
+        <v>925</v>
       </c>
     </row>
     <row r="111" spans="2:29">
@@ -24493,7 +24493,7 @@
         <v>8.2117500000000003</v>
       </c>
       <c r="N111">
-        <v>0.1361837079169668</v>
+        <v>0.13618370799999999</v>
       </c>
       <c r="P111" t="s">
         <v>942</v>
@@ -24532,7 +24532,7 @@
         <v>1</v>
       </c>
       <c r="AC111" t="s">
-        <v>713</v>
+        <v>687</v>
       </c>
     </row>
     <row r="112" spans="2:29">
@@ -24570,7 +24570,7 @@
         <v>8.2597500000000004</v>
       </c>
       <c r="N112">
-        <v>0.14177775776247381</v>
+        <v>0.141777758</v>
       </c>
       <c r="P112" t="s">
         <v>942</v>
@@ -24609,7 +24609,7 @@
         <v>1</v>
       </c>
       <c r="AC112" t="s">
-        <v>775</v>
+        <v>621</v>
       </c>
     </row>
     <row r="113" spans="2:29">
@@ -24647,7 +24647,7 @@
         <v>5.4135</v>
       </c>
       <c r="N113">
-        <v>0.14598829369739039</v>
+        <v>0.14598829399999999</v>
       </c>
       <c r="P113" t="s">
         <v>942</v>
@@ -24686,7 +24686,7 @@
         <v>1</v>
       </c>
       <c r="AC113" t="s">
-        <v>643</v>
+        <v>591</v>
       </c>
     </row>
     <row r="114" spans="2:29">
@@ -24724,7 +24724,7 @@
         <v>2.3174999999999999</v>
       </c>
       <c r="N114">
-        <v>0.16600998761152111</v>
+        <v>0.166009988</v>
       </c>
       <c r="P114" t="s">
         <v>942</v>
@@ -24763,7 +24763,7 @@
         <v>1</v>
       </c>
       <c r="AC114" t="s">
-        <v>887</v>
+        <v>749</v>
       </c>
     </row>
     <row r="115" spans="2:29">
@@ -24801,7 +24801,7 @@
         <v>8.06175</v>
       </c>
       <c r="N115">
-        <v>0.15479068451209421</v>
+        <v>0.15479068500000001</v>
       </c>
       <c r="P115" t="s">
         <v>942</v>
@@ -24834,13 +24834,13 @@
         <v>1528</v>
       </c>
       <c r="AA115" t="s">
-        <v>1459</v>
+        <v>1529</v>
       </c>
       <c r="AB115">
         <v>1</v>
       </c>
       <c r="AC115" t="s">
-        <v>897</v>
+        <v>723</v>
       </c>
     </row>
     <row r="116" spans="2:29">
@@ -24878,7 +24878,7 @@
         <v>8.2155000000000005</v>
       </c>
       <c r="N116">
-        <v>0.14837521408354501</v>
+        <v>0.14837521400000001</v>
       </c>
       <c r="P116" t="s">
         <v>942</v>
@@ -24908,16 +24908,16 @@
         <v>1155</v>
       </c>
       <c r="Z116" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="AA116" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="AB116">
         <v>1</v>
       </c>
       <c r="AC116" t="s">
-        <v>577</v>
+        <v>673</v>
       </c>
     </row>
     <row r="117" spans="2:29">
@@ -24955,7 +24955,7 @@
         <v>6.5647500000000001</v>
       </c>
       <c r="N117">
-        <v>0.1452805881711792</v>
+        <v>0.14528058799999999</v>
       </c>
       <c r="P117" t="s">
         <v>942</v>
@@ -24985,16 +24985,16 @@
         <v>1157</v>
       </c>
       <c r="Z117" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="AA117" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="AB117">
         <v>1</v>
       </c>
       <c r="AC117" t="s">
-        <v>583</v>
+        <v>765</v>
       </c>
     </row>
     <row r="118" spans="2:29">
@@ -25032,7 +25032,7 @@
         <v>7.6230000000000002</v>
       </c>
       <c r="N118">
-        <v>0.14239484242267519</v>
+        <v>0.14239484199999999</v>
       </c>
       <c r="P118" t="s">
         <v>942</v>
@@ -25062,16 +25062,16 @@
         <v>1159</v>
       </c>
       <c r="Z118" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="AA118" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="AB118">
         <v>1</v>
       </c>
       <c r="AC118" t="s">
-        <v>923</v>
+        <v>681</v>
       </c>
     </row>
     <row r="119" spans="2:29">
@@ -25109,7 +25109,7 @@
         <v>6.4837499999999997</v>
       </c>
       <c r="N119">
-        <v>0.13972103547767689</v>
+        <v>0.13972103499999999</v>
       </c>
       <c r="P119" t="s">
         <v>942</v>
@@ -25139,16 +25139,16 @@
         <v>1161</v>
       </c>
       <c r="Z119" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="AA119" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="AB119">
         <v>1</v>
       </c>
       <c r="AC119" t="s">
-        <v>721</v>
+        <v>745</v>
       </c>
     </row>
     <row r="120" spans="2:29">
@@ -25186,7 +25186,7 @@
         <v>4.8659999999999997</v>
       </c>
       <c r="N120">
-        <v>0.1371883162578372</v>
+        <v>0.137188316</v>
       </c>
       <c r="P120" t="s">
         <v>942</v>
@@ -25216,16 +25216,16 @@
         <v>1163</v>
       </c>
       <c r="Z120" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="AA120" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="AB120">
         <v>1</v>
       </c>
       <c r="AC120" t="s">
-        <v>915</v>
+        <v>603</v>
       </c>
     </row>
     <row r="121" spans="2:29">
@@ -25263,7 +25263,7 @@
         <v>3.5369999999999999</v>
       </c>
       <c r="N121">
-        <v>0.13480964859423869</v>
+        <v>0.134809649</v>
       </c>
       <c r="P121" t="s">
         <v>942</v>
@@ -25293,16 +25293,16 @@
         <v>1165</v>
       </c>
       <c r="Z121" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="AA121" t="s">
-        <v>1540</v>
+        <v>1335</v>
       </c>
       <c r="AB121">
         <v>1</v>
       </c>
       <c r="AC121" t="s">
-        <v>599</v>
+        <v>857</v>
       </c>
     </row>
     <row r="122" spans="2:29">
@@ -25340,7 +25340,7 @@
         <v>6.89175</v>
       </c>
       <c r="N122">
-        <v>0.1339266426835182</v>
+        <v>0.13392664300000001</v>
       </c>
       <c r="P122" t="s">
         <v>942</v>
@@ -25373,13 +25373,13 @@
         <v>1541</v>
       </c>
       <c r="AA122" t="s">
-        <v>1542</v>
+        <v>1439</v>
       </c>
       <c r="AB122">
         <v>1</v>
       </c>
       <c r="AC122" t="s">
-        <v>657</v>
+        <v>905</v>
       </c>
     </row>
     <row r="123" spans="2:29">
@@ -25417,7 +25417,7 @@
         <v>5.8994999999999997</v>
       </c>
       <c r="N123">
-        <v>0.1352765755870366</v>
+        <v>0.13527657600000001</v>
       </c>
       <c r="P123" t="s">
         <v>942</v>
@@ -25447,16 +25447,16 @@
         <v>1169</v>
       </c>
       <c r="Z123" t="s">
+        <v>1542</v>
+      </c>
+      <c r="AA123" t="s">
         <v>1543</v>
       </c>
-      <c r="AA123" t="s">
-        <v>1544</v>
-      </c>
       <c r="AB123">
         <v>1</v>
       </c>
       <c r="AC123" t="s">
-        <v>809</v>
+        <v>823</v>
       </c>
     </row>
     <row r="124" spans="2:29">
@@ -25494,7 +25494,7 @@
         <v>7.8810000000000002</v>
       </c>
       <c r="N124">
-        <v>0.13529270432550011</v>
+        <v>0.13529270400000001</v>
       </c>
       <c r="P124" t="s">
         <v>942</v>
@@ -25524,16 +25524,16 @@
         <v>1171</v>
       </c>
       <c r="Z124" t="s">
+        <v>1544</v>
+      </c>
+      <c r="AA124" t="s">
         <v>1545</v>
       </c>
-      <c r="AA124" t="s">
-        <v>1546</v>
-      </c>
       <c r="AB124">
         <v>1</v>
       </c>
       <c r="AC124" t="s">
-        <v>757</v>
+        <v>881</v>
       </c>
     </row>
     <row r="125" spans="2:29">
@@ -25571,7 +25571,7 @@
         <v>8.3160000000000007</v>
       </c>
       <c r="N125">
-        <v>0.134838900754329</v>
+        <v>0.13483890100000001</v>
       </c>
       <c r="P125" t="s">
         <v>942</v>
@@ -25601,16 +25601,16 @@
         <v>1173</v>
       </c>
       <c r="Z125" t="s">
+        <v>1546</v>
+      </c>
+      <c r="AA125" t="s">
         <v>1547</v>
       </c>
-      <c r="AA125" t="s">
-        <v>1548</v>
-      </c>
       <c r="AB125">
         <v>1</v>
       </c>
       <c r="AC125" t="s">
-        <v>933</v>
+        <v>641</v>
       </c>
     </row>
     <row r="126" spans="2:29">
@@ -25648,7 +25648,7 @@
         <v>8.4112500000000008</v>
       </c>
       <c r="N126">
-        <v>0.13393277555348729</v>
+        <v>0.133932776</v>
       </c>
       <c r="P126" t="s">
         <v>942</v>
@@ -25678,16 +25678,16 @@
         <v>1175</v>
       </c>
       <c r="Z126" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AA126" t="s">
         <v>1549</v>
       </c>
-      <c r="AA126" t="s">
-        <v>1513</v>
-      </c>
       <c r="AB126">
         <v>1</v>
       </c>
       <c r="AC126" t="s">
-        <v>907</v>
+        <v>759</v>
       </c>
     </row>
     <row r="127" spans="2:29">
@@ -25725,7 +25725,7 @@
         <v>8.3070000000000004</v>
       </c>
       <c r="N127">
-        <v>0.1368110920852138</v>
+        <v>0.136811092</v>
       </c>
       <c r="P127" t="s">
         <v>942</v>
@@ -25764,7 +25764,7 @@
         <v>1</v>
       </c>
       <c r="AC127" t="s">
-        <v>845</v>
+        <v>659</v>
       </c>
     </row>
     <row r="128" spans="2:29">
@@ -25802,7 +25802,7 @@
         <v>6.2895000000000003</v>
       </c>
       <c r="N128">
-        <v>0.14457158883006721</v>
+        <v>0.144571589</v>
       </c>
       <c r="P128" t="s">
         <v>942</v>
@@ -25841,7 +25841,7 @@
         <v>1</v>
       </c>
       <c r="AC128" t="s">
-        <v>861</v>
+        <v>633</v>
       </c>
     </row>
     <row r="129" spans="2:29">
@@ -25879,7 +25879,7 @@
         <v>2.2567499999999998</v>
       </c>
       <c r="N129">
-        <v>0.15227240024607269</v>
+        <v>0.1522724</v>
       </c>
       <c r="P129" t="s">
         <v>942</v>
@@ -25918,7 +25918,7 @@
         <v>1</v>
       </c>
       <c r="AC129" t="s">
-        <v>635</v>
+        <v>783</v>
       </c>
     </row>
     <row r="130" spans="2:29">
@@ -25956,7 +25956,7 @@
         <v>2.23875</v>
       </c>
       <c r="N130">
-        <v>0.1566128519791718</v>
+        <v>0.156612852</v>
       </c>
       <c r="P130" t="s">
         <v>942</v>
@@ -25995,7 +25995,7 @@
         <v>1</v>
       </c>
       <c r="AC130" t="s">
-        <v>695</v>
+        <v>711</v>
       </c>
     </row>
     <row r="131" spans="2:29">
@@ -26033,7 +26033,7 @@
         <v>0.86850000000000005</v>
       </c>
       <c r="N131">
-        <v>0.16603687133815981</v>
+        <v>0.166036871</v>
       </c>
       <c r="P131" t="s">
         <v>942</v>
@@ -26072,7 +26072,7 @@
         <v>1</v>
       </c>
       <c r="AC131" t="s">
-        <v>651</v>
+        <v>763</v>
       </c>
     </row>
     <row r="132" spans="2:29">
@@ -26110,7 +26110,7 @@
         <v>7.9432499999999999</v>
       </c>
       <c r="N132">
-        <v>0.15479681717407701</v>
+        <v>0.154796817</v>
       </c>
       <c r="P132" t="s">
         <v>942</v>
@@ -26143,13 +26143,13 @@
         <v>1560</v>
       </c>
       <c r="AA132" t="s">
-        <v>1561</v>
+        <v>1417</v>
       </c>
       <c r="AB132">
         <v>1</v>
       </c>
       <c r="AC132" t="s">
-        <v>913</v>
+        <v>797</v>
       </c>
     </row>
     <row r="133" spans="2:29">
@@ -26187,7 +26187,7 @@
         <v>8.1922499999999996</v>
       </c>
       <c r="N133">
-        <v>0.14992377985711089</v>
+        <v>0.14992378000000001</v>
       </c>
       <c r="P133" t="s">
         <v>942</v>
@@ -26217,16 +26217,16 @@
         <v>1189</v>
       </c>
       <c r="Z133" t="s">
+        <v>1561</v>
+      </c>
+      <c r="AA133" t="s">
         <v>1562</v>
       </c>
-      <c r="AA133" t="s">
-        <v>1563</v>
-      </c>
       <c r="AB133">
         <v>1</v>
       </c>
       <c r="AC133" t="s">
-        <v>791</v>
+        <v>841</v>
       </c>
     </row>
     <row r="134" spans="2:29">
@@ -26264,7 +26264,7 @@
         <v>7.33575</v>
       </c>
       <c r="N134">
-        <v>0.1466249329435606</v>
+        <v>0.14662493300000001</v>
       </c>
       <c r="P134" t="s">
         <v>942</v>
@@ -26294,16 +26294,16 @@
         <v>1191</v>
       </c>
       <c r="Z134" t="s">
+        <v>1563</v>
+      </c>
+      <c r="AA134" t="s">
         <v>1564</v>
       </c>
-      <c r="AA134" t="s">
-        <v>1565</v>
-      </c>
       <c r="AB134">
         <v>1</v>
       </c>
       <c r="AC134" t="s">
-        <v>701</v>
+        <v>855</v>
       </c>
     </row>
     <row r="135" spans="2:29">
@@ -26341,7 +26341,7 @@
         <v>6.5887500000000001</v>
       </c>
       <c r="N135">
-        <v>0.14275196015406361</v>
+        <v>0.14275196000000001</v>
       </c>
       <c r="P135" t="s">
         <v>942</v>
@@ -26371,16 +26371,16 @@
         <v>1193</v>
       </c>
       <c r="Z135" t="s">
+        <v>1565</v>
+      </c>
+      <c r="AA135" t="s">
         <v>1566</v>
       </c>
-      <c r="AA135" t="s">
-        <v>1567</v>
-      </c>
       <c r="AB135">
         <v>1</v>
       </c>
       <c r="AC135" t="s">
-        <v>921</v>
+        <v>805</v>
       </c>
     </row>
     <row r="136" spans="2:29">
@@ -26418,7 +26418,7 @@
         <v>6.2145000000000001</v>
       </c>
       <c r="N136">
-        <v>0.13907310531786651</v>
+        <v>0.139073105</v>
       </c>
       <c r="P136" t="s">
         <v>942</v>
@@ -26448,16 +26448,16 @@
         <v>1195</v>
       </c>
       <c r="Z136" t="s">
+        <v>1567</v>
+      </c>
+      <c r="AA136" t="s">
         <v>1568</v>
       </c>
-      <c r="AA136" t="s">
-        <v>1569</v>
-      </c>
       <c r="AB136">
         <v>1</v>
       </c>
       <c r="AC136" t="s">
-        <v>665</v>
+        <v>903</v>
       </c>
     </row>
     <row r="137" spans="2:29">
@@ -26495,7 +26495,7 @@
         <v>5.74275</v>
       </c>
       <c r="N137">
-        <v>0.1358850795047864</v>
+        <v>0.13588507999999999</v>
       </c>
       <c r="P137" t="s">
         <v>942</v>
@@ -26525,16 +26525,16 @@
         <v>1197</v>
       </c>
       <c r="Z137" t="s">
+        <v>1569</v>
+      </c>
+      <c r="AA137" t="s">
         <v>1570</v>
       </c>
-      <c r="AA137" t="s">
-        <v>1571</v>
-      </c>
       <c r="AB137">
         <v>1</v>
       </c>
       <c r="AC137" t="s">
-        <v>811</v>
+        <v>751</v>
       </c>
     </row>
     <row r="138" spans="2:29">
@@ -26572,7 +26572,7 @@
         <v>5.8905000000000003</v>
       </c>
       <c r="N138">
-        <v>0.13427027103010289</v>
+        <v>0.134270271</v>
       </c>
       <c r="P138" t="s">
         <v>942</v>
@@ -26602,16 +26602,16 @@
         <v>1199</v>
       </c>
       <c r="Z138" t="s">
+        <v>1571</v>
+      </c>
+      <c r="AA138" t="s">
         <v>1572</v>
       </c>
-      <c r="AA138" t="s">
-        <v>1573</v>
-      </c>
       <c r="AB138">
         <v>1</v>
       </c>
       <c r="AC138" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
     </row>
     <row r="139" spans="2:29">
@@ -26649,7 +26649,7 @@
         <v>7.0919999999999996</v>
       </c>
       <c r="N139">
-        <v>0.134539925140154</v>
+        <v>0.134539925</v>
       </c>
       <c r="P139" t="s">
         <v>942</v>
@@ -26679,16 +26679,16 @@
         <v>1201</v>
       </c>
       <c r="Z139" t="s">
+        <v>1573</v>
+      </c>
+      <c r="AA139" t="s">
         <v>1574</v>
       </c>
-      <c r="AA139" t="s">
-        <v>1337</v>
-      </c>
       <c r="AB139">
         <v>1</v>
       </c>
       <c r="AC139" t="s">
-        <v>875</v>
+        <v>601</v>
       </c>
     </row>
     <row r="140" spans="2:29">
@@ -26726,7 +26726,7 @@
         <v>7.98</v>
       </c>
       <c r="N140">
-        <v>0.13544389506887081</v>
+        <v>0.13544389500000001</v>
       </c>
       <c r="P140" t="s">
         <v>942</v>
@@ -26765,7 +26765,7 @@
         <v>1</v>
       </c>
       <c r="AC140" t="s">
-        <v>821</v>
+        <v>709</v>
       </c>
     </row>
     <row r="141" spans="2:29">
@@ -26803,7 +26803,7 @@
         <v>8.2560000000000002</v>
       </c>
       <c r="N141">
-        <v>0.13577807558040131</v>
+        <v>0.135778076</v>
       </c>
       <c r="P141" t="s">
         <v>942</v>
@@ -26842,7 +26842,7 @@
         <v>1</v>
       </c>
       <c r="AC141" t="s">
-        <v>605</v>
+        <v>771</v>
       </c>
     </row>
     <row r="142" spans="2:29">
@@ -26880,7 +26880,7 @@
         <v>8.2530000000000001</v>
       </c>
       <c r="N142">
-        <v>0.13537571699841469</v>
+        <v>0.13537571700000001</v>
       </c>
       <c r="P142" t="s">
         <v>942</v>
@@ -26919,7 +26919,7 @@
         <v>1</v>
       </c>
       <c r="AC142" t="s">
-        <v>667</v>
+        <v>825</v>
       </c>
     </row>
     <row r="143" spans="2:29">
@@ -26957,7 +26957,7 @@
         <v>8.3520000000000003</v>
       </c>
       <c r="N143">
-        <v>0.13519829019519411</v>
+        <v>0.13519829</v>
       </c>
       <c r="P143" t="s">
         <v>942</v>
@@ -26996,7 +26996,7 @@
         <v>1</v>
       </c>
       <c r="AC143" t="s">
-        <v>669</v>
+        <v>691</v>
       </c>
     </row>
     <row r="144" spans="2:29">
@@ -27034,7 +27034,7 @@
         <v>8.25075</v>
       </c>
       <c r="N144">
-        <v>0.13811036927399301</v>
+        <v>0.13811036900000001</v>
       </c>
       <c r="P144" t="s">
         <v>942</v>
@@ -27067,13 +27067,13 @@
         <v>1583</v>
       </c>
       <c r="AA144" t="s">
-        <v>1393</v>
+        <v>1584</v>
       </c>
       <c r="AB144">
         <v>1</v>
       </c>
       <c r="AC144" t="s">
-        <v>925</v>
+        <v>935</v>
       </c>
     </row>
     <row r="145" spans="2:29">
@@ -27111,7 +27111,7 @@
         <v>7.9252500000000001</v>
       </c>
       <c r="N145">
-        <v>0.1464799928750298</v>
+        <v>0.146479993</v>
       </c>
       <c r="P145" t="s">
         <v>942</v>
@@ -27141,16 +27141,16 @@
         <v>1213</v>
       </c>
       <c r="Z145" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="AA145" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="AB145">
         <v>1</v>
       </c>
       <c r="AC145" t="s">
-        <v>823</v>
+        <v>773</v>
       </c>
     </row>
     <row r="146" spans="2:29">
@@ -27188,7 +27188,7 @@
         <v>0.81299999999999994</v>
       </c>
       <c r="N146">
-        <v>0.15432375503623419</v>
+        <v>0.15432375500000001</v>
       </c>
       <c r="P146" t="s">
         <v>942</v>
@@ -27218,16 +27218,16 @@
         <v>1215</v>
       </c>
       <c r="Z146" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="AA146" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="AB146">
         <v>1</v>
       </c>
       <c r="AC146" t="s">
-        <v>881</v>
+        <v>739</v>
       </c>
     </row>
     <row r="147" spans="2:29">
@@ -27265,7 +27265,7 @@
         <v>0.3765</v>
       </c>
       <c r="N147">
-        <v>0.1660589409575936</v>
+        <v>0.16605894099999999</v>
       </c>
       <c r="P147" t="s">
         <v>942</v>
@@ -27295,16 +27295,16 @@
         <v>1217</v>
       </c>
       <c r="Z147" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="AA147" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="AB147">
         <v>1</v>
       </c>
       <c r="AC147" t="s">
-        <v>641</v>
+        <v>741</v>
       </c>
     </row>
     <row r="148" spans="2:29">
@@ -27342,7 +27342,7 @@
         <v>7.6267500000000004</v>
       </c>
       <c r="N148">
-        <v>0.15519040913423821</v>
+        <v>0.155190409</v>
       </c>
       <c r="P148" t="s">
         <v>942</v>
@@ -27372,16 +27372,16 @@
         <v>1219</v>
       </c>
       <c r="Z148" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="AA148" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="AB148">
         <v>1</v>
       </c>
       <c r="AC148" t="s">
-        <v>759</v>
+        <v>611</v>
       </c>
     </row>
     <row r="149" spans="2:29">
@@ -27419,7 +27419,7 @@
         <v>7.8884999999999996</v>
       </c>
       <c r="N149">
-        <v>0.1521483028235231</v>
+        <v>0.15214830300000001</v>
       </c>
       <c r="P149" t="s">
         <v>942</v>
@@ -27449,16 +27449,16 @@
         <v>1221</v>
       </c>
       <c r="Z149" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="AA149" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="AB149">
         <v>1</v>
       </c>
       <c r="AC149" t="s">
-        <v>659</v>
+        <v>837</v>
       </c>
     </row>
     <row r="150" spans="2:29">
@@ -27496,7 +27496,7 @@
         <v>6.9734999999999996</v>
       </c>
       <c r="N150">
-        <v>0.14879806276341809</v>
+        <v>0.14879806300000001</v>
       </c>
       <c r="P150" t="s">
         <v>942</v>
@@ -27526,16 +27526,16 @@
         <v>1223</v>
       </c>
       <c r="Z150" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="AA150" t="s">
-        <v>1595</v>
+        <v>1445</v>
       </c>
       <c r="AB150">
         <v>1</v>
       </c>
       <c r="AC150" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="151" spans="2:29">
@@ -27573,7 +27573,7 @@
         <v>4.9859999999999998</v>
       </c>
       <c r="N151">
-        <v>0.1446783547222292</v>
+        <v>0.14467835500000001</v>
       </c>
       <c r="P151" t="s">
         <v>942</v>
@@ -27612,7 +27612,7 @@
         <v>1</v>
       </c>
       <c r="AC151" t="s">
-        <v>783</v>
+        <v>939</v>
       </c>
     </row>
     <row r="152" spans="2:29">
@@ -27650,7 +27650,7 @@
         <v>6.2707499999999996</v>
       </c>
       <c r="N152">
-        <v>0.14008681642185619</v>
+        <v>0.140086816</v>
       </c>
       <c r="P152" t="s">
         <v>942</v>
@@ -27689,7 +27689,7 @@
         <v>1</v>
       </c>
       <c r="AC152" t="s">
-        <v>711</v>
+        <v>685</v>
       </c>
     </row>
     <row r="153" spans="2:29">
@@ -27727,7 +27727,7 @@
         <v>5.0062499999999996</v>
       </c>
       <c r="N153">
-        <v>0.13700102133640649</v>
+        <v>0.137001021</v>
       </c>
       <c r="P153" t="s">
         <v>942</v>
@@ -27766,7 +27766,7 @@
         <v>1</v>
       </c>
       <c r="AC153" t="s">
-        <v>763</v>
+        <v>789</v>
       </c>
     </row>
     <row r="154" spans="2:29">
@@ -27804,7 +27804,7 @@
         <v>6.7815000000000003</v>
       </c>
       <c r="N154">
-        <v>0.13561164039844531</v>
+        <v>0.13561164000000001</v>
       </c>
       <c r="P154" t="s">
         <v>942</v>
@@ -27837,13 +27837,13 @@
         <v>1602</v>
       </c>
       <c r="AA154" t="s">
-        <v>1353</v>
+        <v>1603</v>
       </c>
       <c r="AB154">
         <v>1</v>
       </c>
       <c r="AC154" t="s">
-        <v>797</v>
+        <v>731</v>
       </c>
     </row>
     <row r="155" spans="2:29">
@@ -27881,7 +27881,7 @@
         <v>8.2717500000000008</v>
       </c>
       <c r="N155">
-        <v>0.13506702809050411</v>
+        <v>0.13506702800000001</v>
       </c>
       <c r="P155" t="s">
         <v>942</v>
@@ -27911,16 +27911,16 @@
         <v>1233</v>
       </c>
       <c r="Z155" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="AA155" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="AB155">
         <v>1</v>
       </c>
       <c r="AC155" t="s">
-        <v>841</v>
+        <v>653</v>
       </c>
     </row>
     <row r="156" spans="2:29">
@@ -27958,7 +27958,7 @@
         <v>8.2530000000000001</v>
       </c>
       <c r="N156">
-        <v>0.13498460404049181</v>
+        <v>0.13498460400000001</v>
       </c>
       <c r="P156" t="s">
         <v>942</v>
@@ -27988,16 +27988,16 @@
         <v>1235</v>
       </c>
       <c r="Z156" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="AA156" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="AB156">
         <v>1</v>
       </c>
       <c r="AC156" t="s">
-        <v>855</v>
+        <v>743</v>
       </c>
     </row>
     <row r="157" spans="2:29">
@@ -28035,7 +28035,7 @@
         <v>8.2409999999999997</v>
       </c>
       <c r="N157">
-        <v>0.13534886858141421</v>
+        <v>0.13534886900000001</v>
       </c>
       <c r="P157" t="s">
         <v>942</v>
@@ -28065,16 +28065,16 @@
         <v>1237</v>
       </c>
       <c r="Z157" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="AA157" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="AB157">
         <v>1</v>
       </c>
       <c r="AC157" t="s">
-        <v>805</v>
+        <v>575</v>
       </c>
     </row>
     <row r="158" spans="2:29">
@@ -28112,7 +28112,7 @@
         <v>8.2537500000000001</v>
       </c>
       <c r="N158">
-        <v>0.13551417094718049</v>
+        <v>0.13551417099999999</v>
       </c>
       <c r="P158" t="s">
         <v>942</v>
@@ -28142,16 +28142,16 @@
         <v>1239</v>
       </c>
       <c r="Z158" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="AA158" t="s">
-        <v>1487</v>
+        <v>1611</v>
       </c>
       <c r="AB158">
         <v>1</v>
       </c>
       <c r="AC158" t="s">
-        <v>903</v>
+        <v>727</v>
       </c>
     </row>
     <row r="159" spans="2:29">
@@ -28189,7 +28189,7 @@
         <v>8.3490000000000002</v>
       </c>
       <c r="N159">
-        <v>0.13539332582222011</v>
+        <v>0.13539332600000001</v>
       </c>
       <c r="P159" t="s">
         <v>942</v>
@@ -28219,16 +28219,16 @@
         <v>1241</v>
       </c>
       <c r="Z159" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="AA159" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="AB159">
         <v>1</v>
       </c>
       <c r="AC159" t="s">
-        <v>751</v>
+        <v>885</v>
       </c>
     </row>
     <row r="160" spans="2:29">
@@ -28266,7 +28266,7 @@
         <v>8.2552500000000002</v>
       </c>
       <c r="N160">
-        <v>0.13813357391063799</v>
+        <v>0.13813357400000001</v>
       </c>
       <c r="P160" t="s">
         <v>942</v>
@@ -28296,16 +28296,16 @@
         <v>1243</v>
       </c>
       <c r="Z160" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="AA160" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="AB160">
         <v>1</v>
       </c>
       <c r="AC160" t="s">
-        <v>645</v>
+        <v>813</v>
       </c>
     </row>
     <row r="161" spans="2:29">
@@ -28343,7 +28343,7 @@
         <v>8.0924999999999994</v>
       </c>
       <c r="N161">
-        <v>0.14690900408434709</v>
+        <v>0.14690900400000001</v>
       </c>
       <c r="P161" t="s">
         <v>942</v>
@@ -28373,16 +28373,16 @@
         <v>1245</v>
       </c>
       <c r="Z161" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="AA161" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="AB161">
         <v>1</v>
       </c>
       <c r="AC161" t="s">
-        <v>601</v>
+        <v>911</v>
       </c>
     </row>
     <row r="162" spans="2:29">
@@ -28420,7 +28420,7 @@
         <v>4.1527500000000002</v>
       </c>
       <c r="N162">
-        <v>0.15371803155229591</v>
+        <v>0.153718032</v>
       </c>
       <c r="P162" t="s">
         <v>942</v>
@@ -28450,16 +28450,16 @@
         <v>1247</v>
       </c>
       <c r="Z162" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="AA162" t="s">
-        <v>1617</v>
+        <v>1519</v>
       </c>
       <c r="AB162">
         <v>1</v>
       </c>
       <c r="AC162" t="s">
-        <v>709</v>
+        <v>927</v>
       </c>
     </row>
     <row r="163" spans="2:29">
@@ -28497,7 +28497,7 @@
         <v>0.49275000000000002</v>
       </c>
       <c r="N163">
-        <v>0.16322953358942729</v>
+        <v>0.16322953400000001</v>
       </c>
       <c r="P163" t="s">
         <v>942</v>
@@ -28527,16 +28527,16 @@
         <v>1249</v>
       </c>
       <c r="Z163" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="AA163" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="AB163">
         <v>1</v>
       </c>
       <c r="AC163" t="s">
-        <v>771</v>
+        <v>893</v>
       </c>
     </row>
     <row r="164" spans="2:29">
@@ -28574,7 +28574,7 @@
         <v>6.0967500000000001</v>
       </c>
       <c r="N164">
-        <v>0.1547112942995531</v>
+        <v>0.154711294</v>
       </c>
       <c r="P164" t="s">
         <v>942</v>
@@ -28604,16 +28604,16 @@
         <v>1251</v>
       </c>
       <c r="Z164" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="AA164" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="AB164">
         <v>1</v>
       </c>
       <c r="AC164" t="s">
-        <v>825</v>
+        <v>871</v>
       </c>
     </row>
     <row r="165" spans="2:29">
@@ -28651,7 +28651,7 @@
         <v>7.1047500000000001</v>
       </c>
       <c r="N165">
-        <v>0.1522391908251296</v>
+        <v>0.152239191</v>
       </c>
       <c r="P165" t="s">
         <v>942</v>
@@ -28681,16 +28681,16 @@
         <v>1253</v>
       </c>
       <c r="Z165" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="AA165" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="AB165">
         <v>1</v>
       </c>
       <c r="AC165" t="s">
-        <v>691</v>
+        <v>717</v>
       </c>
     </row>
     <row r="166" spans="2:29">
@@ -28728,7 +28728,7 @@
         <v>3.5107499999999998</v>
       </c>
       <c r="N166">
-        <v>0.1505887174828921</v>
+        <v>0.15058871700000001</v>
       </c>
       <c r="P166" t="s">
         <v>942</v>
@@ -28758,16 +28758,16 @@
         <v>1255</v>
       </c>
       <c r="Z166" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="AA166" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="AB166">
         <v>1</v>
       </c>
       <c r="AC166" t="s">
-        <v>935</v>
+        <v>777</v>
       </c>
     </row>
     <row r="167" spans="2:29">
@@ -28805,7 +28805,7 @@
         <v>4.1265000000000001</v>
       </c>
       <c r="N167">
-        <v>0.145917144419866</v>
+        <v>0.145917144</v>
       </c>
       <c r="P167" t="s">
         <v>942</v>
@@ -28835,16 +28835,16 @@
         <v>1257</v>
       </c>
       <c r="Z167" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="AA167" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="AB167">
         <v>1</v>
       </c>
       <c r="AC167" t="s">
-        <v>773</v>
+        <v>697</v>
       </c>
     </row>
     <row r="168" spans="2:29">
@@ -28882,7 +28882,7 @@
         <v>4.1767500000000002</v>
       </c>
       <c r="N168">
-        <v>0.13916037782283491</v>
+        <v>0.139160378</v>
       </c>
       <c r="P168" t="s">
         <v>942</v>
@@ -28912,16 +28912,16 @@
         <v>1259</v>
       </c>
       <c r="Z168" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="AA168" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="AB168">
         <v>1</v>
       </c>
       <c r="AC168" t="s">
-        <v>739</v>
+        <v>613</v>
       </c>
     </row>
     <row r="169" spans="2:29">
@@ -28959,7 +28959,7 @@
         <v>5.1135000000000002</v>
       </c>
       <c r="N169">
-        <v>0.1374782496738769</v>
+        <v>0.13747825</v>
       </c>
       <c r="P169" t="s">
         <v>942</v>
@@ -28989,16 +28989,16 @@
         <v>1261</v>
       </c>
       <c r="Z169" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="AA169" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="AB169">
         <v>1</v>
       </c>
       <c r="AC169" t="s">
-        <v>741</v>
+        <v>607</v>
       </c>
     </row>
     <row r="170" spans="2:29">
@@ -29036,7 +29036,7 @@
         <v>8.2012499999999999</v>
       </c>
       <c r="N170">
-        <v>0.13495213927385691</v>
+        <v>0.134952139</v>
       </c>
       <c r="P170" t="s">
         <v>942</v>
@@ -29066,16 +29066,16 @@
         <v>1263</v>
       </c>
       <c r="Z170" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="AA170" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="AB170">
         <v>1</v>
       </c>
       <c r="AC170" t="s">
-        <v>611</v>
+        <v>725</v>
       </c>
     </row>
     <row r="171" spans="2:29">
@@ -29113,7 +29113,7 @@
         <v>8.2394999999999996</v>
       </c>
       <c r="N171">
-        <v>0.13391936802741139</v>
+        <v>0.13391936800000001</v>
       </c>
       <c r="P171" t="s">
         <v>942</v>
@@ -29143,16 +29143,16 @@
         <v>1265</v>
       </c>
       <c r="Z171" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="AA171" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="AB171">
         <v>1</v>
       </c>
       <c r="AC171" t="s">
-        <v>837</v>
+        <v>735</v>
       </c>
     </row>
     <row r="172" spans="2:29">
@@ -29190,7 +29190,7 @@
         <v>8.2379999999999995</v>
       </c>
       <c r="N172">
-        <v>0.13437976193072629</v>
+        <v>0.13437976200000001</v>
       </c>
       <c r="P172" t="s">
         <v>942</v>
@@ -29220,16 +29220,16 @@
         <v>1267</v>
       </c>
       <c r="Z172" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="AA172" t="s">
-        <v>1555</v>
+        <v>1638</v>
       </c>
       <c r="AB172">
         <v>1</v>
       </c>
       <c r="AC172" t="s">
-        <v>637</v>
+        <v>703</v>
       </c>
     </row>
     <row r="173" spans="2:29">
@@ -29267,7 +29267,7 @@
         <v>8.2282499999999992</v>
       </c>
       <c r="N173">
-        <v>0.1352158114552853</v>
+        <v>0.13521581099999999</v>
       </c>
       <c r="P173" t="s">
         <v>942</v>
@@ -29297,16 +29297,16 @@
         <v>1269</v>
       </c>
       <c r="Z173" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="AA173" t="s">
-        <v>1638</v>
+        <v>1361</v>
       </c>
       <c r="AB173">
         <v>1</v>
       </c>
       <c r="AC173" t="s">
-        <v>939</v>
+        <v>803</v>
       </c>
     </row>
     <row r="174" spans="2:29">
@@ -29344,7 +29344,7 @@
         <v>8.3520000000000003</v>
       </c>
       <c r="N174">
-        <v>0.13523097120307609</v>
+        <v>0.13523097100000001</v>
       </c>
       <c r="P174" t="s">
         <v>942</v>
@@ -29374,16 +29374,16 @@
         <v>1271</v>
       </c>
       <c r="Z174" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="AA174" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="AB174">
         <v>1</v>
       </c>
       <c r="AC174" t="s">
-        <v>685</v>
+        <v>849</v>
       </c>
     </row>
     <row r="175" spans="2:29">
@@ -29421,7 +29421,7 @@
         <v>8.2424999999999997</v>
       </c>
       <c r="N175">
-        <v>0.13877014715214389</v>
+        <v>0.13877014700000001</v>
       </c>
       <c r="P175" t="s">
         <v>942</v>
@@ -29451,16 +29451,16 @@
         <v>1273</v>
       </c>
       <c r="Z175" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="AA175" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="AB175">
         <v>1</v>
       </c>
       <c r="AC175" t="s">
-        <v>789</v>
+        <v>879</v>
       </c>
     </row>
     <row r="176" spans="2:29">
@@ -29498,7 +29498,7 @@
         <v>7.9342499999999996</v>
       </c>
       <c r="N176">
-        <v>0.14652712697117989</v>
+        <v>0.14652712700000001</v>
       </c>
       <c r="P176" t="s">
         <v>942</v>
@@ -29528,16 +29528,16 @@
         <v>1275</v>
       </c>
       <c r="Z176" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="AA176" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="AB176">
         <v>1</v>
       </c>
       <c r="AC176" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="177" spans="2:29">
@@ -29575,7 +29575,7 @@
         <v>5.7794999999999996</v>
       </c>
       <c r="N177">
-        <v>0.153479233320751</v>
+        <v>0.15347923299999999</v>
       </c>
       <c r="P177" t="s">
         <v>942</v>
@@ -29605,16 +29605,16 @@
         <v>1277</v>
       </c>
       <c r="Z177" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="AA177" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="AB177">
         <v>1</v>
       </c>
       <c r="AC177" t="s">
-        <v>649</v>
+        <v>567</v>
       </c>
     </row>
     <row r="178" spans="2:29">
@@ -29652,7 +29652,7 @@
         <v>0.48149999999999998</v>
       </c>
       <c r="N178">
-        <v>0.158538558011387</v>
+        <v>0.158538558</v>
       </c>
       <c r="P178" t="s">
         <v>942</v>
@@ -29682,16 +29682,16 @@
         <v>1279</v>
       </c>
       <c r="Z178" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="AA178" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="AB178">
         <v>1</v>
       </c>
       <c r="AC178" t="s">
-        <v>715</v>
+        <v>931</v>
       </c>
     </row>
     <row r="179" spans="2:29">
@@ -29729,7 +29729,7 @@
         <v>4.968</v>
       </c>
       <c r="N179">
-        <v>0.15076343446498039</v>
+        <v>0.150763434</v>
       </c>
       <c r="P179" t="s">
         <v>942</v>
@@ -29759,16 +29759,16 @@
         <v>1281</v>
       </c>
       <c r="Z179" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="AA179" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="AB179">
         <v>1</v>
       </c>
       <c r="AC179" t="s">
-        <v>873</v>
+        <v>733</v>
       </c>
     </row>
     <row r="180" spans="2:29">
@@ -29806,7 +29806,7 @@
         <v>2.6625000000000001</v>
       </c>
       <c r="N180">
-        <v>0.14957820818376449</v>
+        <v>0.14957820799999999</v>
       </c>
       <c r="P180" t="s">
         <v>942</v>
@@ -29836,16 +29836,16 @@
         <v>1283</v>
       </c>
       <c r="Z180" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="AA180" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="AB180">
         <v>1</v>
       </c>
       <c r="AC180" t="s">
-        <v>769</v>
+        <v>705</v>
       </c>
     </row>
     <row r="181" spans="2:29">
@@ -29883,7 +29883,7 @@
         <v>3.9315000000000002</v>
       </c>
       <c r="N181">
-        <v>0.1352766776239778</v>
+        <v>0.13527667800000001</v>
       </c>
       <c r="P181" t="s">
         <v>942</v>
@@ -29913,16 +29913,16 @@
         <v>1285</v>
       </c>
       <c r="Z181" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="AA181" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="AB181">
         <v>1</v>
       </c>
       <c r="AC181" t="s">
-        <v>569</v>
+        <v>839</v>
       </c>
     </row>
     <row r="182" spans="2:29">
@@ -29960,7 +29960,7 @@
         <v>7.5577500000000004</v>
       </c>
       <c r="N182">
-        <v>0.13340385444634689</v>
+        <v>0.13340385399999999</v>
       </c>
       <c r="P182" t="s">
         <v>942</v>
@@ -29990,16 +29990,16 @@
         <v>1287</v>
       </c>
       <c r="Z182" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="AA182" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="AB182">
         <v>1</v>
       </c>
       <c r="AC182" t="s">
-        <v>799</v>
+        <v>737</v>
       </c>
     </row>
     <row r="183" spans="2:29">
@@ -30037,7 +30037,7 @@
         <v>8.2297499999999992</v>
       </c>
       <c r="N183">
-        <v>0.13260470801086</v>
+        <v>0.13260470799999999</v>
       </c>
       <c r="P183" t="s">
         <v>942</v>
@@ -30067,16 +30067,16 @@
         <v>1289</v>
       </c>
       <c r="Z183" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="AA183" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="AB183">
         <v>1</v>
       </c>
       <c r="AC183" t="s">
-        <v>847</v>
+        <v>623</v>
       </c>
     </row>
     <row r="184" spans="2:29">
@@ -30114,7 +30114,7 @@
         <v>8.2432499999999997</v>
       </c>
       <c r="N184">
-        <v>0.13310136839739861</v>
+        <v>0.133101368</v>
       </c>
       <c r="P184" t="s">
         <v>942</v>
@@ -30144,16 +30144,16 @@
         <v>1291</v>
       </c>
       <c r="Z184" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="AA184" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="AB184">
         <v>1</v>
       </c>
       <c r="AC184" t="s">
-        <v>639</v>
+        <v>565</v>
       </c>
     </row>
     <row r="185" spans="2:29">
@@ -30191,7 +30191,7 @@
         <v>8.2215000000000007</v>
       </c>
       <c r="N185">
-        <v>0.13492142784913111</v>
+        <v>0.13492142800000001</v>
       </c>
       <c r="P185" t="s">
         <v>942</v>
@@ -30221,16 +30221,16 @@
         <v>1293</v>
       </c>
       <c r="Z185" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="AA185" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="AB185">
         <v>1</v>
       </c>
       <c r="AC185" t="s">
-        <v>895</v>
+        <v>677</v>
       </c>
     </row>
     <row r="186" spans="2:29">
@@ -30268,7 +30268,7 @@
         <v>8.1967499999999998</v>
       </c>
       <c r="N186">
-        <v>0.13674870825600199</v>
+        <v>0.136748708</v>
       </c>
       <c r="P186" t="s">
         <v>942</v>
@@ -30298,16 +30298,16 @@
         <v>1295</v>
       </c>
       <c r="Z186" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="AA186" t="s">
-        <v>1415</v>
+        <v>1665</v>
       </c>
       <c r="AB186">
         <v>1</v>
       </c>
       <c r="AC186" t="s">
-        <v>801</v>
+        <v>889</v>
       </c>
     </row>
     <row r="187" spans="2:29">
@@ -30345,7 +30345,7 @@
         <v>8.20425</v>
       </c>
       <c r="N187">
-        <v>0.14179520027165329</v>
+        <v>0.14179520000000001</v>
       </c>
       <c r="P187" t="s">
         <v>942</v>
@@ -30375,16 +30375,16 @@
         <v>1297</v>
       </c>
       <c r="Z187" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="AA187" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="AB187">
         <v>1</v>
       </c>
       <c r="AC187" t="s">
-        <v>937</v>
+        <v>761</v>
       </c>
     </row>
     <row r="188" spans="2:29">
@@ -30422,7 +30422,7 @@
         <v>6.3307500000000001</v>
       </c>
       <c r="N188">
-        <v>0.1473006173562347</v>
+        <v>0.14730061699999999</v>
       </c>
       <c r="P188" t="s">
         <v>942</v>
@@ -30452,16 +30452,16 @@
         <v>1299</v>
       </c>
       <c r="Z188" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="AA188" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="AB188">
         <v>1</v>
       </c>
       <c r="AC188" t="s">
-        <v>793</v>
+        <v>597</v>
       </c>
     </row>
     <row r="189" spans="2:29">
@@ -30499,7 +30499,7 @@
         <v>1.419</v>
       </c>
       <c r="N189">
-        <v>0.1539840023071031</v>
+        <v>0.15398400200000001</v>
       </c>
       <c r="P189" t="s">
         <v>942</v>
@@ -30529,16 +30529,16 @@
         <v>1301</v>
       </c>
       <c r="Z189" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="AA189" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="AB189">
         <v>1</v>
       </c>
       <c r="AC189" t="s">
-        <v>593</v>
+        <v>867</v>
       </c>
     </row>
     <row r="190" spans="2:29">
@@ -30576,7 +30576,7 @@
         <v>0.16125</v>
       </c>
       <c r="N190">
-        <v>0.15961770839372991</v>
+        <v>0.159617708</v>
       </c>
       <c r="P190" t="s">
         <v>942</v>
@@ -30606,16 +30606,16 @@
         <v>1303</v>
       </c>
       <c r="Z190" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="AA190" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="AB190">
         <v>1</v>
       </c>
       <c r="AC190" t="s">
-        <v>617</v>
+        <v>865</v>
       </c>
     </row>
     <row r="191" spans="2:29">
@@ -30653,7 +30653,7 @@
         <v>4.0657500000000004</v>
       </c>
       <c r="N191">
-        <v>0.13549913679886089</v>
+        <v>0.13549913699999999</v>
       </c>
       <c r="P191" t="s">
         <v>942</v>
@@ -30683,16 +30683,16 @@
         <v>1305</v>
       </c>
       <c r="Z191" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="AA191" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="AB191">
         <v>1</v>
       </c>
       <c r="AC191" t="s">
-        <v>693</v>
+        <v>767</v>
       </c>
     </row>
     <row r="192" spans="2:29">
@@ -30730,7 +30730,7 @@
         <v>6.9855</v>
       </c>
       <c r="N192">
-        <v>0.13280534003418989</v>
+        <v>0.13280533999999999</v>
       </c>
       <c r="P192" t="s">
         <v>942</v>
@@ -30760,16 +30760,16 @@
         <v>1307</v>
       </c>
       <c r="Z192" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="AA192" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="AB192">
         <v>1</v>
       </c>
       <c r="AC192" t="s">
-        <v>827</v>
+        <v>585</v>
       </c>
     </row>
     <row r="193" spans="2:29">
@@ -30807,7 +30807,7 @@
         <v>8.2312499999999993</v>
       </c>
       <c r="N193">
-        <v>0.13159963957884491</v>
+        <v>0.13159963999999999</v>
       </c>
       <c r="P193" t="s">
         <v>942</v>
@@ -30837,16 +30837,16 @@
         <v>1309</v>
       </c>
       <c r="Z193" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="AA193" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="AB193">
         <v>1</v>
       </c>
       <c r="AC193" t="s">
-        <v>661</v>
+        <v>807</v>
       </c>
     </row>
     <row r="194" spans="2:29">
@@ -30884,7 +30884,7 @@
         <v>8.2560000000000002</v>
       </c>
       <c r="N194">
-        <v>0.13269170238034589</v>
+        <v>0.13269170199999999</v>
       </c>
       <c r="P194" t="s">
         <v>942</v>
@@ -30914,16 +30914,16 @@
         <v>1311</v>
       </c>
       <c r="Z194" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="AA194" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="AB194">
         <v>1</v>
       </c>
       <c r="AC194" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
     </row>
     <row r="195" spans="2:29">
@@ -30961,7 +30961,7 @@
         <v>8.2469999999999999</v>
       </c>
       <c r="N195">
-        <v>0.1345594289524237</v>
+        <v>0.13455942900000001</v>
       </c>
       <c r="P195" t="s">
         <v>942</v>
@@ -30991,16 +30991,16 @@
         <v>1313</v>
       </c>
       <c r="Z195" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="AA195" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="AB195">
         <v>1</v>
       </c>
       <c r="AC195" t="s">
-        <v>625</v>
+        <v>581</v>
       </c>
     </row>
     <row r="196" spans="2:29">
@@ -31038,7 +31038,7 @@
         <v>7.8967499999999999</v>
       </c>
       <c r="N196">
-        <v>0.1378176536227593</v>
+        <v>0.13781765400000001</v>
       </c>
       <c r="P196" t="s">
         <v>942</v>
@@ -31068,16 +31068,16 @@
         <v>1315</v>
       </c>
       <c r="Z196" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="AA196" t="s">
-        <v>1683</v>
+        <v>1568</v>
       </c>
       <c r="AB196">
         <v>1</v>
       </c>
       <c r="AC196" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="197" spans="2:29">
@@ -31115,7 +31115,7 @@
         <v>6.9157500000000001</v>
       </c>
       <c r="N197">
-        <v>0.14362494005848639</v>
+        <v>0.14362494000000001</v>
       </c>
       <c r="P197" t="s">
         <v>942</v>
@@ -31145,16 +31145,16 @@
         <v>1317</v>
       </c>
       <c r="Z197" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="AA197" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="AB197">
         <v>1</v>
       </c>
       <c r="AC197" t="s">
-        <v>631</v>
+        <v>747</v>
       </c>
     </row>
     <row r="198" spans="2:29">
@@ -31192,7 +31192,7 @@
         <v>1.5269999999999999</v>
       </c>
       <c r="N198">
-        <v>0.14947329818381069</v>
+        <v>0.149473298</v>
       </c>
       <c r="P198" t="s">
         <v>942</v>
@@ -31222,16 +31222,16 @@
         <v>1319</v>
       </c>
       <c r="Z198" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="AA198" t="s">
-        <v>1687</v>
+        <v>1467</v>
       </c>
       <c r="AB198">
         <v>1</v>
       </c>
       <c r="AC198" t="s">
-        <v>833</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -31240,7 +31240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F928328D-904B-46D7-9F31-116AA46EEE90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3532FAC1-CD31-41A6-92D0-D78B50012E21}">
   <dimension ref="B9:AB199"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -31400,7 +31400,7 @@
         <v>2383</v>
       </c>
       <c r="Z11" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
       <c r="AA11">
         <v>13.8675</v>
@@ -31474,7 +31474,7 @@
         <v>2384</v>
       </c>
       <c r="Z12" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
       <c r="AA12">
         <v>11.755000000000001</v>
@@ -31548,7 +31548,7 @@
         <v>2385</v>
       </c>
       <c r="Z13" t="s">
-        <v>1768</v>
+        <v>1787</v>
       </c>
       <c r="AA13">
         <v>13.8675</v>
@@ -31622,7 +31622,7 @@
         <v>2386</v>
       </c>
       <c r="Z14" t="s">
-        <v>1814</v>
+        <v>1790</v>
       </c>
       <c r="AA14">
         <v>13.8675</v>
@@ -31696,7 +31696,7 @@
         <v>2387</v>
       </c>
       <c r="Z15" t="s">
-        <v>1772</v>
+        <v>1778</v>
       </c>
       <c r="AA15">
         <v>13.23875</v>
@@ -31770,7 +31770,7 @@
         <v>2388</v>
       </c>
       <c r="Z16" t="s">
-        <v>1798</v>
+        <v>1814</v>
       </c>
       <c r="AA16">
         <v>14.02875</v>
@@ -31844,7 +31844,7 @@
         <v>2389</v>
       </c>
       <c r="Z17" t="s">
-        <v>1782</v>
+        <v>1810</v>
       </c>
       <c r="AA17">
         <v>13.8675</v>
@@ -31918,7 +31918,7 @@
         <v>2390</v>
       </c>
       <c r="Z18" t="s">
-        <v>1797</v>
+        <v>1813</v>
       </c>
       <c r="AA18">
         <v>13.8675</v>
@@ -31992,7 +31992,7 @@
         <v>2391</v>
       </c>
       <c r="Z19" t="s">
-        <v>1783</v>
+        <v>1764</v>
       </c>
       <c r="AA19">
         <v>0.11874999999999999</v>
@@ -32066,7 +32066,7 @@
         <v>2392</v>
       </c>
       <c r="Z20" t="s">
-        <v>1781</v>
+        <v>1799</v>
       </c>
       <c r="AA20">
         <v>9.06</v>
@@ -32140,7 +32140,7 @@
         <v>2393</v>
       </c>
       <c r="Z21" t="s">
-        <v>1812</v>
+        <v>1797</v>
       </c>
       <c r="AA21">
         <v>14.02875</v>
@@ -32214,7 +32214,7 @@
         <v>2394</v>
       </c>
       <c r="Z22" t="s">
-        <v>1799</v>
+        <v>1779</v>
       </c>
       <c r="AA22">
         <v>13.8675</v>
@@ -32288,7 +32288,7 @@
         <v>2395</v>
       </c>
       <c r="Z23" t="s">
-        <v>1787</v>
+        <v>1768</v>
       </c>
       <c r="AA23">
         <v>13.8675</v>
@@ -32362,7 +32362,7 @@
         <v>2396</v>
       </c>
       <c r="Z24" t="s">
-        <v>1807</v>
+        <v>1792</v>
       </c>
       <c r="AA24">
         <v>6.6375000000000002</v>
@@ -32436,7 +32436,7 @@
         <v>2397</v>
       </c>
       <c r="Z25" t="s">
-        <v>1771</v>
+        <v>1777</v>
       </c>
       <c r="AA25">
         <v>13.92625</v>
@@ -32510,7 +32510,7 @@
         <v>2398</v>
       </c>
       <c r="Z26" t="s">
-        <v>1803</v>
+        <v>1808</v>
       </c>
       <c r="AA26">
         <v>13.827500000000001</v>
@@ -32584,7 +32584,7 @@
         <v>2399</v>
       </c>
       <c r="Z27" t="s">
-        <v>1805</v>
+        <v>1789</v>
       </c>
       <c r="AA27">
         <v>13.8675</v>
@@ -32658,7 +32658,7 @@
         <v>2400</v>
       </c>
       <c r="Z28" t="s">
-        <v>1801</v>
+        <v>1806</v>
       </c>
       <c r="AA28">
         <v>3.7499999999999999E-3</v>
@@ -32732,7 +32732,7 @@
         <v>2401</v>
       </c>
       <c r="Z29" t="s">
-        <v>1792</v>
+        <v>1773</v>
       </c>
       <c r="AA29">
         <v>2.8424999999999998</v>
@@ -32806,7 +32806,7 @@
         <v>2402</v>
       </c>
       <c r="Z30" t="s">
-        <v>1769</v>
+        <v>1788</v>
       </c>
       <c r="AA30">
         <v>8.1549999999999994</v>
@@ -32880,7 +32880,7 @@
         <v>2403</v>
       </c>
       <c r="Z31" t="s">
-        <v>1775</v>
+        <v>1782</v>
       </c>
       <c r="AA31">
         <v>4.5162500000000003</v>
@@ -32954,7 +32954,7 @@
         <v>2404</v>
       </c>
       <c r="Z32" t="s">
-        <v>1790</v>
+        <v>1771</v>
       </c>
       <c r="AA32">
         <v>0.57625000000000004</v>
@@ -33028,7 +33028,7 @@
         <v>2405</v>
       </c>
       <c r="Z33" t="s">
-        <v>1776</v>
+        <v>1800</v>
       </c>
       <c r="AA33">
         <v>1.125E-2</v>
@@ -33102,7 +33102,7 @@
         <v>2406</v>
       </c>
       <c r="Z34" t="s">
-        <v>1778</v>
+        <v>1802</v>
       </c>
       <c r="AA34">
         <v>0.33500000000000002</v>
@@ -33176,7 +33176,7 @@
         <v>2407</v>
       </c>
       <c r="Z35" t="s">
-        <v>1785</v>
+        <v>1766</v>
       </c>
       <c r="AA35">
         <v>1.7500000000000002E-2</v>
@@ -33250,7 +33250,7 @@
         <v>2408</v>
       </c>
       <c r="Z36" t="s">
-        <v>1770</v>
+        <v>1776</v>
       </c>
       <c r="AA36">
         <v>0.58250000000000002</v>
@@ -33324,7 +33324,7 @@
         <v>2409</v>
       </c>
       <c r="Z37" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
       <c r="AA37">
         <v>1.0075000000000001</v>
@@ -33398,7 +33398,7 @@
         <v>2410</v>
       </c>
       <c r="Z38" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
       <c r="AA38">
         <v>0.21625</v>
@@ -33472,7 +33472,7 @@
         <v>2411</v>
       </c>
       <c r="Z39" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
       <c r="AA39">
         <v>5.9212499999999997</v>
@@ -33546,7 +33546,7 @@
         <v>2412</v>
       </c>
       <c r="Z40" t="s">
-        <v>1795</v>
+        <v>1811</v>
       </c>
       <c r="AA40">
         <v>2.75E-2</v>
@@ -33620,7 +33620,7 @@
         <v>2413</v>
       </c>
       <c r="Z41" t="s">
-        <v>1804</v>
+        <v>1809</v>
       </c>
       <c r="AA41">
         <v>10.682499999999999</v>
@@ -33694,7 +33694,7 @@
         <v>2414</v>
       </c>
       <c r="Z42" t="s">
-        <v>1800</v>
+        <v>1805</v>
       </c>
       <c r="AA42">
         <v>3.9175</v>
@@ -33768,7 +33768,7 @@
         <v>2415</v>
       </c>
       <c r="Z43" t="s">
-        <v>1794</v>
+        <v>1775</v>
       </c>
       <c r="AA43">
         <v>10.8575</v>
@@ -33842,7 +33842,7 @@
         <v>2416</v>
       </c>
       <c r="Z44" t="s">
-        <v>1780</v>
+        <v>1804</v>
       </c>
       <c r="AA44">
         <v>2.61375</v>
@@ -33916,7 +33916,7 @@
         <v>2417</v>
       </c>
       <c r="Z45" t="s">
-        <v>1764</v>
+        <v>1783</v>
       </c>
       <c r="AA45">
         <v>11.2575</v>
@@ -33990,7 +33990,7 @@
         <v>2418</v>
       </c>
       <c r="Z46" t="s">
-        <v>1766</v>
+        <v>1785</v>
       </c>
       <c r="AA46">
         <v>5.0000000000000001E-3</v>
@@ -34064,7 +34064,7 @@
         <v>2419</v>
       </c>
       <c r="Z47" t="s">
-        <v>1788</v>
+        <v>1769</v>
       </c>
       <c r="AA47">
         <v>12.063750000000001</v>
@@ -34138,7 +34138,7 @@
         <v>2420</v>
       </c>
       <c r="Z48" t="s">
-        <v>1806</v>
+        <v>1791</v>
       </c>
       <c r="AA48">
         <v>13.8675</v>
@@ -39891,7 +39891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2AB6355-FE83-4D57-94DD-7D6FC9AD17E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33858F11-03FE-4C0A-9ACD-1FDFF93F6AB1}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41711,7 +41711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCE2198-BDD8-4A9B-BB2F-45EFD5C6B05E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1203362F-79AF-4C24-969E-AC3480341E6C}">
   <dimension ref="B2:M317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -42979,7 +42979,7 @@
         <v>2520</v>
       </c>
       <c r="C42" t="s">
-        <v>1530</v>
+        <v>1383</v>
       </c>
       <c r="D42" t="s">
         <v>2521</v>
@@ -43014,7 +43014,7 @@
         <v>2521</v>
       </c>
       <c r="D43" t="s">
-        <v>1530</v>
+        <v>1383</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -44006,7 +44006,7 @@
         <v>2584</v>
       </c>
       <c r="D74" t="s">
-        <v>1373</v>
+        <v>1337</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -44035,7 +44035,7 @@
         <v>2585</v>
       </c>
       <c r="C75" t="s">
-        <v>1373</v>
+        <v>1337</v>
       </c>
       <c r="D75" t="s">
         <v>2584</v>
@@ -44451,7 +44451,7 @@
         <v>2610</v>
       </c>
       <c r="C88" t="s">
-        <v>1638</v>
+        <v>1597</v>
       </c>
       <c r="D88" t="s">
         <v>2611</v>
@@ -44486,7 +44486,7 @@
         <v>2611</v>
       </c>
       <c r="D89" t="s">
-        <v>1638</v>
+        <v>1597</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -45603,7 +45603,7 @@
         <v>2681</v>
       </c>
       <c r="C124" t="s">
-        <v>1665</v>
+        <v>1363</v>
       </c>
       <c r="D124" t="s">
         <v>2682</v>
@@ -45638,7 +45638,7 @@
         <v>2682</v>
       </c>
       <c r="D125" t="s">
-        <v>1665</v>
+        <v>1363</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -47078,7 +47078,7 @@
         <v>2772</v>
       </c>
       <c r="D170" t="s">
-        <v>1489</v>
+        <v>1686</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -47107,7 +47107,7 @@
         <v>2773</v>
       </c>
       <c r="C171" t="s">
-        <v>1489</v>
+        <v>1686</v>
       </c>
       <c r="D171" t="s">
         <v>2772</v>
@@ -47331,7 +47331,7 @@
         <v>2786</v>
       </c>
       <c r="C178" t="s">
-        <v>1487</v>
+        <v>1568</v>
       </c>
       <c r="D178" t="s">
         <v>2787</v>
@@ -47366,7 +47366,7 @@
         <v>2787</v>
       </c>
       <c r="D179" t="s">
-        <v>1487</v>
+        <v>1568</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -47846,7 +47846,7 @@
         <v>2818</v>
       </c>
       <c r="D194" t="s">
-        <v>1415</v>
+        <v>1361</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -47875,7 +47875,7 @@
         <v>2819</v>
       </c>
       <c r="C195" t="s">
-        <v>1415</v>
+        <v>1361</v>
       </c>
       <c r="D195" t="s">
         <v>2818</v>
@@ -48035,7 +48035,7 @@
         <v>2828</v>
       </c>
       <c r="C200" t="s">
-        <v>1551</v>
+        <v>1441</v>
       </c>
       <c r="D200" t="s">
         <v>2829</v>
@@ -48070,7 +48070,7 @@
         <v>2829</v>
       </c>
       <c r="D201" t="s">
-        <v>1551</v>
+        <v>1441</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -49190,7 +49190,7 @@
         <v>2900</v>
       </c>
       <c r="D236" t="s">
-        <v>1375</v>
+        <v>1339</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -49219,7 +49219,7 @@
         <v>2901</v>
       </c>
       <c r="C237" t="s">
-        <v>1375</v>
+        <v>1339</v>
       </c>
       <c r="D237" t="s">
         <v>2900</v>
@@ -49958,7 +49958,7 @@
         <v>2947</v>
       </c>
       <c r="D260" t="s">
-        <v>1578</v>
+        <v>1513</v>
       </c>
       <c r="E260">
         <v>1</v>
@@ -49987,7 +49987,7 @@
         <v>2948</v>
       </c>
       <c r="C261" t="s">
-        <v>1578</v>
+        <v>1513</v>
       </c>
       <c r="D261" t="s">
         <v>2947</v>
@@ -51750,7 +51750,7 @@
         <v>3056</v>
       </c>
       <c r="D316" t="s">
-        <v>1335</v>
+        <v>1399</v>
       </c>
       <c r="E316">
         <v>1</v>
@@ -51779,7 +51779,7 @@
         <v>3057</v>
       </c>
       <c r="C317" t="s">
-        <v>1335</v>
+        <v>1399</v>
       </c>
       <c r="D317" t="s">
         <v>3056</v>

--- a/VerveStacks_DEU_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_DEU_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2337EE95-58E3-40BD-9E86-301A05D592F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34F48346-4068-4491-87C5-104AE8D0B97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2960,18 +2960,882 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_solelc_won-DEU_0130</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_130</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0159</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_159</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0038</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_38</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0098</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_98</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0047</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_47</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0034</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_34</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0110</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_110</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0074</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_74</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0100</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_100</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0117</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_117</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0139</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_139</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0146</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_146</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0121</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_121</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0170</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_170</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0094</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_94</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0063</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_63</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0145</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_145</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0027</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_27</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0058</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_58</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0068</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_68</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0140</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_140</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0116</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_116</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0136</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_136</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0054</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_54</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_4</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0144</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_144</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0177</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_177</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0075</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_75</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0106</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_106</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0039</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_39</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0162</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_162</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0167</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_167</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_6</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_9</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0128</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_128</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0001</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_1</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0184</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_184</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0085</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_85</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0071</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_71</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0138</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_138</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0087</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_87</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0084</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_84</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0044</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_44</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0090</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_90</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0005</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_5</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0082</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_82</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0161</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_161</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0125</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_125</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0174</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_174</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0182</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_182</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0165</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_165</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0154</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_154</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0077</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_77</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0107</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_107</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0062</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_62</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0028</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_28</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_13</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0093</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_93</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0080</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_80</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0055</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_55</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0101</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_101</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0059</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_59</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0091</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_91</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_19</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0147</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_147</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0171</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_171</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0067</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_67</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0024</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_24</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0021</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_21</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0081</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_81</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0086</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_86</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0070</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_70</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0120</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_120</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0143</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_143</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0158</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_158</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0029</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_29</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0000</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_0</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0057</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_57</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0163</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_163</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0099</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_99</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0016</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_16</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0152</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_152</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0151</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_151</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0102</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_102</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0010</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_10</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0122</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_122</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0011</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_11</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0008</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_8</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0169</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_169</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0092</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_92</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0095</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_95</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0066</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_66</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0043</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_43</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0175</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_175</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0114</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_114</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0069</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_69</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0179</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_179</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0050</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_50</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0124</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_124</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0045</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_45</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0156</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_156</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0129</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_129</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_20</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0052</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_52</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0053</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_53</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0181</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_181</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0127</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_127</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0042</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_42</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0076</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_76</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0155</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_155</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0103</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_103</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_2</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0118</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_118</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0142</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_142</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0037</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_37</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0166</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_166</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0119</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_119</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0187</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_187</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0115</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_115</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0015</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_15</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0183</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_183</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0112</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_112</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0078</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_78</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0012</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_12</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0126</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_126</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0007</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_7</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0157</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_157</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0083</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_83</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0040</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_40</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0018</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_18</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0073</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_73</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0104</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_104</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0131</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_131</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0064</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_64</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0186</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_186</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0105</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_105</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0088</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_88</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0089</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_89</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_23</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0137</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_137</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0036</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_36</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0188</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_188</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0061</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_61</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0113</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_113</t>
+  </si>
+  <si>
     <t>distr_solelc_won-DEU_0049</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell DEU_49</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
     <t>distr_solelc_won-DEU_0041</t>
   </si>
   <si>
@@ -3020,252 +3884,6 @@
     <t>connecting solar and wind to buses in grid cell DEU_72</t>
   </si>
   <si>
-    <t>distr_solelc_won-DEU_0127</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_127</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0042</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_42</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0076</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_76</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0155</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_155</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0103</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_103</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_2</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0118</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_118</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0142</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_142</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0037</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_37</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0166</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_166</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0119</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_119</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0187</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_187</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0115</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_115</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_4</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0144</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_144</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0177</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_177</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0075</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_75</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0106</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_106</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0039</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_39</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0162</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_162</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0167</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_167</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_6</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_9</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0015</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_15</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0183</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_183</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0112</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_112</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0078</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_78</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0012</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_12</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0126</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_126</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0007</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_7</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0157</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_157</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0083</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_83</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0063</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_63</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0145</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_145</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0027</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_27</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0058</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_58</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0068</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_68</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0140</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_140</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0116</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_116</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0136</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_136</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0054</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_54</t>
-  </si>
-  <si>
     <t>distr_solelc_won-DEU_0180</t>
   </si>
   <si>
@@ -3476,627 +4094,858 @@
     <t>connecting solar and wind to buses in grid cell DEU_135</t>
   </si>
   <si>
-    <t>distr_solelc_won-DEU_0066</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_66</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0043</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_43</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0175</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_175</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0114</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_114</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0069</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_69</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0179</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_179</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0050</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_50</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0124</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_124</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0045</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_45</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0156</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_156</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0129</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_129</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0020</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_20</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0052</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_52</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0053</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_53</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0181</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_181</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0062</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_62</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0028</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_28</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_13</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0093</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_93</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0080</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_80</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0055</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_55</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0101</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_101</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0059</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_59</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0091</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_91</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_19</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0147</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_147</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0171</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_171</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0130</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_130</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0159</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_159</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0038</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_38</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0098</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_98</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0047</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_47</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0034</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_34</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0110</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_110</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0074</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_74</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0100</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_100</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0117</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_117</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0139</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_139</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0146</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_146</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0121</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_121</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0170</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_170</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0094</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_94</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0040</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_40</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0018</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_18</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0073</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_73</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0104</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_104</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0131</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_131</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0064</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_64</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0186</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_186</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0105</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_105</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0088</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_88</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0089</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_89</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_23</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0137</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_137</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0036</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_36</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0188</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_188</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0061</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_61</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0113</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_113</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0084</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_84</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0044</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_44</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0090</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_90</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0005</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_5</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0082</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_82</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0161</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_161</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0125</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_125</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0174</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_174</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0182</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_182</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0165</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_165</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0154</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_154</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0077</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_77</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0107</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_107</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0067</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_67</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0024</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_24</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0021</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_21</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0081</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_81</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0086</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_86</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0070</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_70</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0120</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_120</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0143</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_143</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0158</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_158</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0128</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_128</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0001</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_1</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0184</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_184</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0085</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_85</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0071</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_71</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0138</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_138</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0087</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_87</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0029</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_29</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0000</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_0</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0057</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_57</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0163</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_163</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0099</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_99</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0016</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_16</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0152</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_152</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0151</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_151</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0102</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_102</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0010</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_10</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0122</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_122</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0011</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_11</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0008</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_8</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0169</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_169</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0092</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_92</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0095</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_95</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
+    <t>elc_won-DEU_0130,elc_spv-DEU_0130</t>
+  </si>
+  <si>
+    <t>e_DE103-380,e_w29713902-380,e_w32690742-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0159,elc_spv-DEU_0159</t>
+  </si>
+  <si>
+    <t>e_DE149-380,e_w1081302145-220,e_w109917397-380,e_w166604822-380,e_w36183042-380,e_w943135226-220,e_w943135226-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0038,elc_spv-DEU_0038</t>
+  </si>
+  <si>
+    <t>e_DE207-380,e_DE208-380,e_DE209-380,e_w35954395-380,e_w42049947-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0098,elc_spv-DEU_0098</t>
+  </si>
+  <si>
+    <t>e_DE40-220,e_DE43-220,e_w151507370-220,e_w24262656-220,e_w24262656-380,e_w28227099-220,e_w30017786-220,e_w953757606-380,e_w953757608-220,e_w953757608-380,e_w97857512-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0047,elc_spv-DEU_0047</t>
+  </si>
+  <si>
+    <t>e_DE42-220,e_DE51-220,e_DE52-220,e_w24230738-380,e_w26383042-380,e_w39229429-380,e_w957746797-220,e_w957746797-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0034,elc_spv-DEU_0034</t>
+  </si>
+  <si>
+    <t>e_w1128250707-220,e_w1128250707-380,e_w23744346-220,e_w26455019-220,e_w29420322-220,e_w31024391-220,e_w31024391-380,e_w883768276-380,e_w883768277-380,e_w883928228-380,e_w883928229-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0110,elc_spv-DEU_0110</t>
+  </si>
+  <si>
+    <t>e_w24757392-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0074,elc_spv-DEU_0074</t>
+  </si>
+  <si>
+    <t>e_w26403575-380,e_w42050342-220,e_w42050342-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0100,elc_spv-DEU_0100</t>
+  </si>
+  <si>
+    <t>e_w28343121-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0117,elc_spv-DEU_0117</t>
+  </si>
+  <si>
+    <t>e_w30040568-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0139,elc_spv-DEU_0139</t>
+  </si>
+  <si>
+    <t>e_w77694901-220,e_w77697810-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0146,elc_spv-DEU_0146</t>
+  </si>
+  <si>
+    <t>e_w946025110-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0121,elc_spv-DEU_0121</t>
+  </si>
+  <si>
+    <t>e_DE212-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0170,elc_spv-DEU_0170</t>
+  </si>
+  <si>
+    <t>e_w24976300-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0094,elc_spv-DEU_0094</t>
+  </si>
+  <si>
+    <t>e_DE163-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0063,elc_spv-DEU_0063</t>
+  </si>
+  <si>
+    <t>e_DE104-380,e_w274630377-220,e_w274630377-380,e_w42681484-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0145,elc_spv-DEU_0145</t>
+  </si>
+  <si>
+    <t>e_DE119-380,e_w23161029-220,e_w32843531-220,e_w32843531-380,e_w442199284-380,e_w714098678-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0027,elc_spv-DEU_0027</t>
+  </si>
+  <si>
+    <t>e_DE155-380,e_DE156-380,e_w160584794-380,e_w50898216-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0058,elc_spv-DEU_0058</t>
+  </si>
+  <si>
+    <t>e_DE179-220,e_w1104947187-380,e_w1327333163-220,e_w1327333163-380,e_w143903369-220,e_w143903369-380,e_w159326655-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0068,elc_spv-DEU_0068</t>
+  </si>
+  <si>
+    <t>e_DE6-380,e_w1089769599-220,e_w1089769599-380,e_w1280364401-380,e_w289836713-380,e_w525964617,e_w525964629-380,e_w60032354-220,e_w87722999-220,e_w87722999-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0140,elc_spv-DEU_0140</t>
+  </si>
+  <si>
+    <t>e_w29417741-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0116,elc_spv-DEU_0116</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0136,elc_spv-DEU_0136</t>
+  </si>
+  <si>
+    <t>e_DE5-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0054,elc_spv-DEU_0054</t>
+  </si>
+  <si>
+    <t>e_w31367936-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0004,elc_spv-DEU_0004</t>
+  </si>
+  <si>
+    <t>e_DE106-220,e_DE107-220,e_DE107-380,e_DE110-220,e_DE110-380,e_DE112-380,e_DE113-220,e_DE114-380,e_DE117-380,e_DE125-220,e_DE125-380,e_DE127-380,e_DE128-380,e_DE131-220,e_DE133-380,e_w1040551074-220,e_w188276460-220,e_w188276460-380,e_w23084554-220,e_w23084554-380,e_w24267175-220,e_w24479984-220,e_w24479984-380,e_w24799890-220,e_w24799890-380,e_w24815262-220,e_w24839976-220,e_w24839976-380,e_w26927264-380,e_w27919734-220,e_w27919734-380,e_w31762305-220,e_w49577401-220,e_w49577401-380,e_w91854336-220,e_w91854336-380,e_w92877635-220,e_w93278553-220,e_w95434457-220,e_w95434457-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0144,elc_spv-DEU_0144</t>
+  </si>
+  <si>
+    <t>e_DE142-380,e_w167352587-220,e_w173112252-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0177,elc_spv-DEU_0177</t>
+  </si>
+  <si>
+    <t>e_w1222597066-220,e_w1222597066-380,e_w30039908-220,e_w30039908-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0075,elc_spv-DEU_0075</t>
+  </si>
+  <si>
+    <t>e_w143854536-380,e_w31653753-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0106,elc_spv-DEU_0106</t>
+  </si>
+  <si>
+    <t>e_w18629425-220,e_w18629425-380,e_w53378027-380,e_w76246159-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0039,elc_spv-DEU_0039</t>
+  </si>
+  <si>
+    <t>e_w26814283-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0162,elc_spv-DEU_0162</t>
+  </si>
+  <si>
+    <t>e_w29331499-220,e_w29331499-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0167,elc_spv-DEU_0167</t>
+  </si>
+  <si>
+    <t>e_w946710698-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0006,elc_spv-DEU_0006</t>
+  </si>
+  <si>
+    <t>e_DE62-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0009,elc_spv-DEU_0009</t>
+  </si>
+  <si>
+    <t>e_w156402422-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0128,elc_spv-DEU_0128</t>
+  </si>
+  <si>
+    <t>e_DE151-220,e_w1086825107-220,e_w1086825107-380,e_w148211527-380,e_w156673637-220,e_w156673637-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0001,elc_spv-DEU_0001</t>
+  </si>
+  <si>
+    <t>e_DE164-220,e_DE167-380,e_DE170-380,e_DE172-220,e_DE172-380,e_DE173-220,e_w145680894-220,e_w151967290-220,e_w151967290-380,e_w151967291-220,e_w151967291-380,e_w89176939-220,e_w89176956-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0184,elc_spv-DEU_0184</t>
+  </si>
+  <si>
+    <t>e_DE46-380,e_w52983550-380,e_w941198517-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0085,elc_spv-DEU_0085</t>
+  </si>
+  <si>
+    <t>e_DE7-220,e_DE8-380,e_w1107961833-380,e_w22720647-220,e_w22720647-380,e_w25306938-380,e_w28008024-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0071,elc_spv-DEU_0071</t>
+  </si>
+  <si>
+    <t>e_w31131320-220,e_w31131320-380,e_w31131325-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0138,elc_spv-DEU_0138</t>
+  </si>
+  <si>
+    <t>e_w75865676-220,e_w91080806-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0087,elc_spv-DEU_0087</t>
+  </si>
+  <si>
+    <t>e_w907539360-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0084,elc_spv-DEU_0084</t>
+  </si>
+  <si>
+    <t>e_DE10-380,e_DE11-380,e_DE12-380,e_w11285720-380,e_w24502420-380,e_w881636329-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0044,elc_spv-DEU_0044</t>
+  </si>
+  <si>
+    <t>e_DE146-380,e_DE152-380,e_w1245826064-380,e_w1245867884-380,e_w202747445-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0090,elc_spv-DEU_0090</t>
+  </si>
+  <si>
+    <t>e_DE200-380,e_w1093896544-380,e_w31105067-380,e_w88945213-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0005,elc_spv-DEU_0005</t>
+  </si>
+  <si>
+    <t>e_DE62-220,e_DE62-380,e_DE67-220,e_DE67-380,e_DE70-220,e_DE70-380,e_DE73-220,e_DE73-380,e_DE74-220,e_DE74-380,e_DE77-220,e_DE77-380,e_DE79-220,e_DE93-220,e_DE97-220,e_w23084417-220,e_w23380800-220,e_w23380800-380,e_w24462228-220,e_w24462317-220,e_w24462426-220,e_w24462426-380,e_w24478889-220,e_w24478889-380,e_w24479003-220,e_w24479003-380,e_w311444692-380,e_w35818134-220,e_w35818137-220,e_w37554416-220,e_w92024105-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0082,elc_spv-DEU_0082</t>
+  </si>
+  <si>
+    <t>e_w23682013-220,e_w23816140-220,e_w274621059-220,e_w33042984-220,e_w787265962-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0161,elc_spv-DEU_0161</t>
+  </si>
+  <si>
+    <t>e_w28729619-380,e_w398680313-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0125,elc_spv-DEU_0125</t>
+  </si>
+  <si>
+    <t>e_w28956649-220,e_w28956649-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0174,elc_spv-DEU_0174</t>
+  </si>
+  <si>
+    <t>e_w940922557-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0182,elc_spv-DEU_0182</t>
+  </si>
+  <si>
+    <t>e_w941805476-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0165,elc_spv-DEU_0165</t>
+  </si>
+  <si>
+    <t>e_w947118608-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0154,elc_spv-DEU_0154</t>
+  </si>
+  <si>
+    <t>e_DE206-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0077,elc_spv-DEU_0077</t>
+  </si>
+  <si>
+    <t>e_w148446247-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0107,elc_spv-DEU_0107</t>
+  </si>
+  <si>
+    <t>e_w24768051-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0062,elc_spv-DEU_0062</t>
+  </si>
+  <si>
+    <t>e_DE121-380,e_w156673636-380,e_w41072584-380,e_w41232144-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0028,elc_spv-DEU_0028</t>
+  </si>
+  <si>
+    <t>e_DE135-220,e_DE137-220,e_DE137-380,e_DE140-380,e_DE143-380,e_DE145-220,e_DE147-380,e_DE148-220,e_DE148-380,e_DE150-380,e_w152403632-220,e_w152403632-380,e_w89043564-220,e_w89043564-380,e_w90148336-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0013,elc_spv-DEU_0013</t>
+  </si>
+  <si>
+    <t>e_DE138-220,e_DE138-380,e_DE139-220,e_DE139-380,e_DE144-380,e_DE153-380,e_DE154-380,e_w22765517-220,e_w22765517-380,e_w22766160-220,e_w22766160-380,e_w22767509-220,e_w22767509-380,e_w22796434-220,e_w26777313-380,e_w29374542-220,e_w32148946-220,e_w42423415-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0093,elc_spv-DEU_0093</t>
+  </si>
+  <si>
+    <t>e_DE163-220,e_w108797675-380,e_w24758329-380,e_w499165542-220,e_w499165542-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0080,elc_spv-DEU_0080</t>
+  </si>
+  <si>
+    <t>e_DE59-220,e_DE60-220,e_w952004951-220,e_w952004951-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0055,elc_spv-DEU_0055</t>
+  </si>
+  <si>
+    <t>e_w102743264-220,e_w25306752-220,e_w25306752-380,e_w31367936-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0101,elc_spv-DEU_0101</t>
+  </si>
+  <si>
+    <t>e_w1089911133-380,e_w23583867-380,e_w28327356-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0059,elc_spv-DEU_0059</t>
+  </si>
+  <si>
+    <t>e_w145002769-380,e_w55069713-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0091,elc_spv-DEU_0091</t>
+  </si>
+  <si>
+    <t>e_w38325076-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0019,elc_spv-DEU_0019</t>
+  </si>
+  <si>
+    <t>e_w559702819-220,e_w559702819-380,e_w672738029-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0147,elc_spv-DEU_0147</t>
+  </si>
+  <si>
+    <t>e_w40621568-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0171,elc_spv-DEU_0171</t>
+  </si>
+  <si>
+    <t>e_w942771541-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0067,elc_spv-DEU_0067</t>
+  </si>
+  <si>
+    <t>e_DE13-380,e_DE14-380,e_w1072574879-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0024,elc_spv-DEU_0024</t>
+  </si>
+  <si>
+    <t>e_DE194-220,e_w39011884-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0021,elc_spv-DEU_0021</t>
+  </si>
+  <si>
+    <t>e_DE213-380,e_w202865176-220,e_w202865177-380,e_w88916034-220,e_w88916034-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0081,elc_spv-DEU_0081</t>
+  </si>
+  <si>
+    <t>e_DE55-220,e_DE57-380,e_w23899043-380,e_w30109913-220,e_w699048438-220,e_w810315511-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0086,elc_spv-DEU_0086</t>
+  </si>
+  <si>
+    <t>e_w27646106-220,e_w35176751-220,e_w35176751-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0070,elc_spv-DEU_0070</t>
+  </si>
+  <si>
+    <t>e_w449010725-380,e_w946969736-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0120,elc_spv-DEU_0120</t>
+  </si>
+  <si>
+    <t>e_w275466323-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0143,elc_spv-DEU_0143</t>
+  </si>
+  <si>
+    <t>e_w167352587-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0158,elc_spv-DEU_0158</t>
+  </si>
+  <si>
+    <t>e_w166604822-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0029,elc_spv-DEU_0029</t>
+  </si>
+  <si>
+    <t>e_DE109-220,e_DE132-220,e_w132814303-220,e_w83916207-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0000,elc_spv-DEU_0000</t>
+  </si>
+  <si>
+    <t>e_DE175-220,e_DE177-220,e_w82773910-220,e_w82773910-380,e_w82773910-400,e_w89215122-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0057,elc_spv-DEU_0057</t>
+  </si>
+  <si>
+    <t>e_DE184-380,e_DE185-380,e_DE186-380,e_DE187-380,e_DE188-380,e_DE189-380,e_DE190-380,e_DE191-380,e_DE192-380,e_DE193-380,e_w147878692-380,e_w22960899-380,e_w25786404-220,e_w25786404-380,e_w37721677-380,e_w41334805-220,e_w41334805-380,e_w43688805-220,e_w43688805-380,e_w48428875-380,e_w97825259-220,e_w97825259-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0163,elc_spv-DEU_0163</t>
+  </si>
+  <si>
+    <t>e_DE21-220,e_DE25-380,e_w11500045-380,e_w27149550-220,e_w27149550-380,e_w30132758-380,e_w30303506-380,e_w30309989-220,e_w43163132-380,e_w46615737-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0099,elc_spv-DEU_0099</t>
+  </si>
+  <si>
+    <t>e_DE36-220,e_w24258096-380,e_w24272339-380,e_w24272541-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0016,elc_spv-DEU_0016</t>
+  </si>
+  <si>
+    <t>e_DE39-220,e_DE41-380,e_DE45-380,e_DE50-380,e_DE54-380,e_w844075808-380,e_w952346322-380,e_w979801144-220,e_w979801144-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0152,elc_spv-DEU_0152</t>
+  </si>
+  <si>
+    <t>e_DE5-380,e_w32063539-380,e_w32318130-220,e_w940919943</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0151,elc_spv-DEU_0151</t>
+  </si>
+  <si>
+    <t>e_w1094015892-220,e_w1094015892-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0102,elc_spv-DEU_0102</t>
+  </si>
+  <si>
+    <t>e_w1102237380-220,e_w1102237380-380,e_w1191459479-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0010,elc_spv-DEU_0010</t>
+  </si>
+  <si>
+    <t>e_w152018146-220,e_w152018146-380,e_w156402422-220,e_w207756597-220,e_w54359256-220,e_w54359256-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0122,elc_spv-DEU_0122</t>
+  </si>
+  <si>
+    <t>e_w24158385-220,e_w26245195-220,e_w26245195-380,e_w5404079-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0011,elc_spv-DEU_0011</t>
+  </si>
+  <si>
+    <t>e_w42097854-220,e_w42097854-380,e_w66764943-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0008,elc_spv-DEU_0008</t>
+  </si>
+  <si>
+    <t>e_w672738029-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0169,elc_spv-DEU_0169</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0092,elc_spv-DEU_0092</t>
+  </si>
+  <si>
+    <t>e_w24705761-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0095,elc_spv-DEU_0095</t>
+  </si>
+  <si>
+    <t>e_w948341123-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0066,elc_spv-DEU_0066</t>
+  </si>
+  <si>
+    <t>e_DE15-220,e_w229565743-220,e_w28812249-220,e_w955268863-220,e_w955268863-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0043,elc_spv-DEU_0043</t>
+  </si>
+  <si>
+    <t>e_DE159-380,e_DE160-220,e_DE161-380,e_DE162-380,e_w169244940-220,e_w169244940-380,e_w23641079-220,e_w23641079-380,e_w38661452-380,e_w4826893-220,e_w62061952-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0175,elc_spv-DEU_0175</t>
+  </si>
+  <si>
+    <t>e_DE22-220,e_DE22-380,e_DE23-220,e_DE23-380,e_DE24-220,e_DE24-380,e_DE26-380,e_DE27-220,e_DE27-380,e_w22973052-220,e_w22973070-220,e_w22973070-380,e_w30954714-380,e_w940636813-220,e_w940636813-380,e_w942448206-220,e_w942448206-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0114,elc_spv-DEU_0114</t>
+  </si>
+  <si>
+    <t>e_DE44-380,e_w26474759-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0069,elc_spv-DEU_0069</t>
+  </si>
+  <si>
+    <t>e_w1071504343-380,e_w603661085-380,e_w907539360-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0179,elc_spv-DEU_0179</t>
+  </si>
+  <si>
+    <t>e_w1091984573-220,e_w1091984573-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0050,elc_spv-DEU_0050</t>
+  </si>
+  <si>
+    <t>e_w1134105414-380,e_w157421333-220,e_w266684854-380,e_w32076853-220,e_w32076853-380,e_w42872354-220,e_w829116805-220,e_w829116805-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0124,elc_spv-DEU_0124</t>
+  </si>
+  <si>
+    <t>e_w137602559-220,e_w137602559-380,e_w24759324-220,e_w24768051-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0045,elc_spv-DEU_0045</t>
+  </si>
+  <si>
+    <t>e_w42799487-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0156,elc_spv-DEU_0156</t>
+  </si>
+  <si>
+    <t>e_w78441561-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0129,elc_spv-DEU_0129</t>
+  </si>
+  <si>
+    <t>e_w29713902-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0020,elc_spv-DEU_0020</t>
+  </si>
+  <si>
+    <t>e_w559702819-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0052,elc_spv-DEU_0052</t>
+  </si>
+  <si>
+    <t>e_w603661085-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0053,elc_spv-DEU_0053</t>
+  </si>
+  <si>
+    <t>e_w946969736-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0181,elc_spv-DEU_0181</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0127,elc_spv-DEU_0127</t>
+  </si>
+  <si>
+    <t>e_DE157-380,e_DE158-380,e_w93341407-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0042,elc_spv-DEU_0042</t>
+  </si>
+  <si>
+    <t>e_DE165-380,e_DE168-380,e_w1223405794-220,e_w1223405794-380,e_w147521567-220,e_w147521567-380,e_w149987048-220,e_w149987048-380,e_w23284340-220,e_w23284340-380,e_w24685992-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0076,elc_spv-DEU_0076</t>
+  </si>
+  <si>
+    <t>e_DE169-220,e_w24765111-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0155,elc_spv-DEU_0155</t>
+  </si>
+  <si>
+    <t>e_DE201-220,e_DE203-220,e_DE204-220,e_DE206-220,e_w24976300-220,e_w24976300-380,e_w91086220-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0103,elc_spv-DEU_0103</t>
+  </si>
+  <si>
+    <t>e_DE4-220,e_w27124619-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0002,elc_spv-DEU_0002</t>
+  </si>
+  <si>
+    <t>e_w1024536785-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0118,elc_spv-DEU_0118</t>
+  </si>
+  <si>
+    <t>e_w275466323,e_w275466323-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0142,elc_spv-DEU_0142</t>
+  </si>
+  <si>
+    <t>e_w29084374-220,e_w29084374-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0037,elc_spv-DEU_0037</t>
+  </si>
+  <si>
+    <t>e_w31367940-220,e_w31367940-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0166,elc_spv-DEU_0166</t>
+  </si>
+  <si>
+    <t>e_w39688875-220,e_w515358077-380,e_w941453716-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0119,elc_spv-DEU_0119</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0187,elc_spv-DEU_0187</t>
+  </si>
+  <si>
+    <t>e_w170123812-400</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0115,elc_spv-DEU_0115</t>
+  </si>
+  <si>
+    <t>e_w26474759-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0015,elc_spv-DEU_0015</t>
+  </si>
+  <si>
+    <t>e_DE100-220,e_DE100-380,e_DE102-220,e_DE102-380,e_DE66-220,e_DE66-380,e_DE68-220,e_DE68-380,e_DE69-220,e_DE69-380,e_DE72-220,e_DE75-380,e_DE76-380,e_DE78-220,e_DE80-220,e_DE80-380,e_DE81-220,e_DE82-220,e_DE83-220,e_DE84-220,e_DE86-220,e_DE87-220,e_DE87-380,e_DE89-220,e_DE89-380,e_DE92-220,e_DE96-220,e_DE96-380,e_DE98-220,e_w1076001174-220,e_w1076001174-380,e_w113546939-220,e_w113546939-380,e_w121199242-220,e_w121199242-380,e_w1303270458-220,e_w1303270458-380,e_w150267232-220,e_w156973363-220,e_w22944791-220,e_w22964137-380,e_w23022100-220,e_w23022100-380,e_w23067006-380,e_w24280460-380,e_w24415232-220,e_w24921206-220,e_w24921206-380,e_w25051880-220,e_w26291794-380,e_w275138524-380,e_w28452784-220,e_w29077623-220,e_w29077623-380,e_w311444691-380,e_w32472806-380,e_w35763480-220,e_w35763480-380,e_w38584673-220,e_w425100082-380,e_w59925390-220,e_w59925390-380,e_w63114179-220,e_w63114179-380,e_w66038431-220,e_w68549340-220,e_w68549340-380,e_w698870101-220,e_w787840119-220,e_w799361667-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0183,elc_spv-DEU_0183</t>
+  </si>
+  <si>
+    <t>e_DE58-380,e_DE99-380,e_w157806991-380,e_w30164703-380,e_w58429825-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0112,elc_spv-DEU_0112</t>
+  </si>
+  <si>
+    <t>e_w143882655-220,e_w143882655-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0078,elc_spv-DEU_0078</t>
+  </si>
+  <si>
+    <t>e_w148446247-380,e_w29309786-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0012,elc_spv-DEU_0012</t>
+  </si>
+  <si>
+    <t>e_w154869247-220,e_w395847307-220,e_w395847307-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0126,elc_spv-DEU_0126</t>
+  </si>
+  <si>
+    <t>e_w93341407-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0007,elc_spv-DEU_0007</t>
+  </si>
+  <si>
+    <t>e_w979801144-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0157,elc_spv-DEU_0157</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0083,elc_spv-DEU_0083</t>
+  </si>
+  <si>
+    <t>e_w23816140-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0040,elc_spv-DEU_0040</t>
+  </si>
+  <si>
+    <t>e_DE183-220,e_w152261133-220,e_w152261133-380,e_w254326606-380,e_w32151621-220,e_w32725957-220,e_w32725958-220,e_w32731290-220,e_w32966636-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0018,elc_spv-DEU_0018</t>
+  </si>
+  <si>
+    <t>e_DE20-380,e_w1280840211-380,e_w142487746-380,e_w206289192-380,e_w32042992-380,e_w797009308-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0073,elc_spv-DEU_0073</t>
+  </si>
+  <si>
+    <t>e_DE202-220,e_DE202-380,e_DE205-220,e_DE205-380,e_w26404600-380,e_w41389594-220,e_w41389594-380,e_w85523877-220,e_w85523877-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0104,elc_spv-DEU_0104</t>
+  </si>
+  <si>
+    <t>e_DE211-220,e_DE212-220,e_w68532663-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0131,elc_spv-DEU_0131</t>
+  </si>
+  <si>
+    <t>e_DE47-220,e_w26472665-220,e_w26472665-380,e_w943939310-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0064,elc_spv-DEU_0064</t>
+  </si>
+  <si>
+    <t>e_DE49-380,e_w23135618-220,e_w24413992-380,e_w28397771-220,e_w288305056-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0186,elc_spv-DEU_0186</t>
+  </si>
+  <si>
+    <t>e_w170123812-220,e_w170123812-380,e_w170123812-400</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0105,elc_spv-DEU_0105</t>
+  </si>
+  <si>
+    <t>e_w23907283-380,e_w24237879-220,e_w30613895-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0088,elc_spv-DEU_0088</t>
+  </si>
+  <si>
+    <t>e_w57727004-220,e_w57727004-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0089,elc_spv-DEU_0089</t>
+  </si>
+  <si>
+    <t>e_w683227471-380,e_w77038371-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0023,elc_spv-DEU_0023</t>
+  </si>
+  <si>
+    <t>e_w82130902-225,e_w933248930-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0137,elc_spv-DEU_0137</t>
+  </si>
+  <si>
+    <t>e_w75865676-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0036,elc_spv-DEU_0036</t>
+  </si>
+  <si>
+    <t>e_w29420322-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0188,elc_spv-DEU_0188</t>
+  </si>
+  <si>
+    <t>e_w1222597066-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0061,elc_spv-DEU_0061</t>
+  </si>
+  <si>
+    <t>e_w156673636-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0113,elc_spv-DEU_0113</t>
+  </si>
+  <si>
+    <t>e_w32690742-380</t>
+  </si>
+  <si>
     <t>elc_won-DEU_0049,elc_spv-DEU_0049</t>
   </si>
   <si>
@@ -4136,9 +4985,6 @@
     <t>elc_won-DEU_0148,elc_spv-DEU_0148</t>
   </si>
   <si>
-    <t>e_w40621568-220</t>
-  </si>
-  <si>
     <t>elc_won-DEU_0178,elc_spv-DEU_0178</t>
   </si>
   <si>
@@ -4151,252 +4997,6 @@
     <t>e_w41389594-220</t>
   </si>
   <si>
-    <t>elc_won-DEU_0127,elc_spv-DEU_0127</t>
-  </si>
-  <si>
-    <t>e_DE157-380,e_DE158-380,e_w93341407-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0042,elc_spv-DEU_0042</t>
-  </si>
-  <si>
-    <t>e_DE165-380,e_DE168-380,e_w1223405794-220,e_w1223405794-380,e_w147521567-220,e_w147521567-380,e_w149987048-220,e_w149987048-380,e_w23284340-220,e_w23284340-380,e_w24685992-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0076,elc_spv-DEU_0076</t>
-  </si>
-  <si>
-    <t>e_DE169-220,e_w24765111-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0155,elc_spv-DEU_0155</t>
-  </si>
-  <si>
-    <t>e_DE201-220,e_DE203-220,e_DE204-220,e_DE206-220,e_w24976300-220,e_w24976300-380,e_w91086220-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0103,elc_spv-DEU_0103</t>
-  </si>
-  <si>
-    <t>e_DE4-220,e_w27124619-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0002,elc_spv-DEU_0002</t>
-  </si>
-  <si>
-    <t>e_w1024536785-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0118,elc_spv-DEU_0118</t>
-  </si>
-  <si>
-    <t>e_w275466323,e_w275466323-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0142,elc_spv-DEU_0142</t>
-  </si>
-  <si>
-    <t>e_w29084374-220,e_w29084374-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0037,elc_spv-DEU_0037</t>
-  </si>
-  <si>
-    <t>e_w31367940-220,e_w31367940-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0166,elc_spv-DEU_0166</t>
-  </si>
-  <si>
-    <t>e_w39688875-220,e_w515358077-380,e_w941453716-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0119,elc_spv-DEU_0119</t>
-  </si>
-  <si>
-    <t>e_w275466323-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0187,elc_spv-DEU_0187</t>
-  </si>
-  <si>
-    <t>e_w170123812-400</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0115,elc_spv-DEU_0115</t>
-  </si>
-  <si>
-    <t>e_w26474759-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0004,elc_spv-DEU_0004</t>
-  </si>
-  <si>
-    <t>e_DE106-220,e_DE107-220,e_DE107-380,e_DE110-220,e_DE110-380,e_DE112-380,e_DE113-220,e_DE114-380,e_DE117-380,e_DE125-220,e_DE125-380,e_DE127-380,e_DE128-380,e_DE131-220,e_DE133-380,e_w1040551074-220,e_w188276460-220,e_w188276460-380,e_w23084554-220,e_w23084554-380,e_w24267175-220,e_w24479984-220,e_w24479984-380,e_w24799890-220,e_w24799890-380,e_w24815262-220,e_w24839976-220,e_w24839976-380,e_w26927264-380,e_w27919734-220,e_w27919734-380,e_w31762305-220,e_w49577401-220,e_w49577401-380,e_w91854336-220,e_w91854336-380,e_w92877635-220,e_w93278553-220,e_w95434457-220,e_w95434457-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0144,elc_spv-DEU_0144</t>
-  </si>
-  <si>
-    <t>e_DE142-380,e_w167352587-220,e_w173112252-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0177,elc_spv-DEU_0177</t>
-  </si>
-  <si>
-    <t>e_w1222597066-220,e_w1222597066-380,e_w30039908-220,e_w30039908-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0075,elc_spv-DEU_0075</t>
-  </si>
-  <si>
-    <t>e_w143854536-380,e_w31653753-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0106,elc_spv-DEU_0106</t>
-  </si>
-  <si>
-    <t>e_w18629425-220,e_w18629425-380,e_w53378027-380,e_w76246159-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0039,elc_spv-DEU_0039</t>
-  </si>
-  <si>
-    <t>e_w26814283-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0162,elc_spv-DEU_0162</t>
-  </si>
-  <si>
-    <t>e_w29331499-220,e_w29331499-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0167,elc_spv-DEU_0167</t>
-  </si>
-  <si>
-    <t>e_w946710698-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0006,elc_spv-DEU_0006</t>
-  </si>
-  <si>
-    <t>e_DE62-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0009,elc_spv-DEU_0009</t>
-  </si>
-  <si>
-    <t>e_w156402422-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0015,elc_spv-DEU_0015</t>
-  </si>
-  <si>
-    <t>e_DE100-220,e_DE100-380,e_DE102-220,e_DE102-380,e_DE66-220,e_DE66-380,e_DE68-220,e_DE68-380,e_DE69-220,e_DE69-380,e_DE72-220,e_DE75-380,e_DE76-380,e_DE78-220,e_DE80-220,e_DE80-380,e_DE81-220,e_DE82-220,e_DE83-220,e_DE84-220,e_DE86-220,e_DE87-220,e_DE87-380,e_DE89-220,e_DE89-380,e_DE92-220,e_DE96-220,e_DE96-380,e_DE98-220,e_w1076001174-220,e_w1076001174-380,e_w113546939-220,e_w113546939-380,e_w121199242-220,e_w121199242-380,e_w1303270458-220,e_w1303270458-380,e_w150267232-220,e_w156973363-220,e_w22944791-220,e_w22964137-380,e_w23022100-220,e_w23022100-380,e_w23067006-380,e_w24280460-380,e_w24415232-220,e_w24921206-220,e_w24921206-380,e_w25051880-220,e_w26291794-380,e_w275138524-380,e_w28452784-220,e_w29077623-220,e_w29077623-380,e_w311444691-380,e_w32472806-380,e_w35763480-220,e_w35763480-380,e_w38584673-220,e_w425100082-380,e_w59925390-220,e_w59925390-380,e_w63114179-220,e_w63114179-380,e_w66038431-220,e_w68549340-220,e_w68549340-380,e_w698870101-220,e_w787840119-220,e_w799361667-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0183,elc_spv-DEU_0183</t>
-  </si>
-  <si>
-    <t>e_DE58-380,e_DE99-380,e_w157806991-380,e_w30164703-380,e_w58429825-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0112,elc_spv-DEU_0112</t>
-  </si>
-  <si>
-    <t>e_w143882655-220,e_w143882655-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0078,elc_spv-DEU_0078</t>
-  </si>
-  <si>
-    <t>e_w148446247-380,e_w29309786-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0012,elc_spv-DEU_0012</t>
-  </si>
-  <si>
-    <t>e_w154869247-220,e_w395847307-220,e_w395847307-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0126,elc_spv-DEU_0126</t>
-  </si>
-  <si>
-    <t>e_w93341407-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0007,elc_spv-DEU_0007</t>
-  </si>
-  <si>
-    <t>e_w979801144-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0157,elc_spv-DEU_0157</t>
-  </si>
-  <si>
-    <t>e_w78441561-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0083,elc_spv-DEU_0083</t>
-  </si>
-  <si>
-    <t>e_w23816140-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0063,elc_spv-DEU_0063</t>
-  </si>
-  <si>
-    <t>e_DE104-380,e_w274630377-220,e_w274630377-380,e_w42681484-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0145,elc_spv-DEU_0145</t>
-  </si>
-  <si>
-    <t>e_DE119-380,e_w23161029-220,e_w32843531-220,e_w32843531-380,e_w442199284-380,e_w714098678-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0027,elc_spv-DEU_0027</t>
-  </si>
-  <si>
-    <t>e_DE155-380,e_DE156-380,e_w160584794-380,e_w50898216-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0058,elc_spv-DEU_0058</t>
-  </si>
-  <si>
-    <t>e_DE179-220,e_w1104947187-380,e_w1327333163-220,e_w1327333163-380,e_w143903369-220,e_w143903369-380,e_w159326655-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0068,elc_spv-DEU_0068</t>
-  </si>
-  <si>
-    <t>e_DE6-380,e_w1089769599-220,e_w1089769599-380,e_w1280364401-380,e_w289836713-380,e_w525964617,e_w525964629-380,e_w60032354-220,e_w87722999-220,e_w87722999-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0140,elc_spv-DEU_0140</t>
-  </si>
-  <si>
-    <t>e_w29417741-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0116,elc_spv-DEU_0116</t>
-  </si>
-  <si>
-    <t>e_w30040568-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0136,elc_spv-DEU_0136</t>
-  </si>
-  <si>
-    <t>e_DE5-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0054,elc_spv-DEU_0054</t>
-  </si>
-  <si>
-    <t>e_w31367936-220</t>
-  </si>
-  <si>
     <t>elc_won-DEU_0180,elc_spv-DEU_0180</t>
   </si>
   <si>
@@ -4448,9 +5048,6 @@
     <t>elc_won-DEU_0172,elc_spv-DEU_0172</t>
   </si>
   <si>
-    <t>e_w942771541-380</t>
-  </si>
-  <si>
     <t>elc_won-DEU_0141,elc_spv-DEU_0141</t>
   </si>
   <si>
@@ -4466,9 +5063,6 @@
     <t>elc_won-DEU_0035,elc_spv-DEU_0035</t>
   </si>
   <si>
-    <t>e_w29420322-220</t>
-  </si>
-  <si>
     <t>elc_won-DEU_0111,elc_spv-DEU_0111</t>
   </si>
   <si>
@@ -4532,9 +5126,6 @@
     <t>elc_won-DEU_0096,elc_spv-DEU_0096</t>
   </si>
   <si>
-    <t>e_w948341123-380</t>
-  </si>
-  <si>
     <t>elc_won-DEU_0153,elc_spv-DEU_0153</t>
   </si>
   <si>
@@ -4604,595 +5195,202 @@
     <t>e_w234171369-380</t>
   </si>
   <si>
-    <t>elc_won-DEU_0066,elc_spv-DEU_0066</t>
-  </si>
-  <si>
-    <t>e_DE15-220,e_w229565743-220,e_w28812249-220,e_w955268863-220,e_w955268863-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0043,elc_spv-DEU_0043</t>
-  </si>
-  <si>
-    <t>e_DE159-380,e_DE160-220,e_DE161-380,e_DE162-380,e_w169244940-220,e_w169244940-380,e_w23641079-220,e_w23641079-380,e_w38661452-380,e_w4826893-220,e_w62061952-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0175,elc_spv-DEU_0175</t>
-  </si>
-  <si>
-    <t>e_DE22-220,e_DE22-380,e_DE23-220,e_DE23-380,e_DE24-220,e_DE24-380,e_DE26-380,e_DE27-220,e_DE27-380,e_w22973052-220,e_w22973070-220,e_w22973070-380,e_w30954714-380,e_w940636813-220,e_w940636813-380,e_w942448206-220,e_w942448206-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0114,elc_spv-DEU_0114</t>
-  </si>
-  <si>
-    <t>e_DE44-380,e_w26474759-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0069,elc_spv-DEU_0069</t>
-  </si>
-  <si>
-    <t>e_w1071504343-380,e_w603661085-380,e_w907539360-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0179,elc_spv-DEU_0179</t>
-  </si>
-  <si>
-    <t>e_w1091984573-220,e_w1091984573-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0050,elc_spv-DEU_0050</t>
-  </si>
-  <si>
-    <t>e_w1134105414-380,e_w157421333-220,e_w266684854-380,e_w32076853-220,e_w32076853-380,e_w42872354-220,e_w829116805-220,e_w829116805-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0124,elc_spv-DEU_0124</t>
-  </si>
-  <si>
-    <t>e_w137602559-220,e_w137602559-380,e_w24759324-220,e_w24768051-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0045,elc_spv-DEU_0045</t>
-  </si>
-  <si>
-    <t>e_w42799487-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0156,elc_spv-DEU_0156</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0129,elc_spv-DEU_0129</t>
-  </si>
-  <si>
-    <t>e_w29713902-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0020,elc_spv-DEU_0020</t>
-  </si>
-  <si>
-    <t>e_w559702819-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0052,elc_spv-DEU_0052</t>
-  </si>
-  <si>
-    <t>e_w603661085-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0053,elc_spv-DEU_0053</t>
-  </si>
-  <si>
-    <t>e_w946969736-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0181,elc_spv-DEU_0181</t>
-  </si>
-  <si>
-    <t>e_w941805476-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0062,elc_spv-DEU_0062</t>
-  </si>
-  <si>
-    <t>e_DE121-380,e_w156673636-380,e_w41072584-380,e_w41232144-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0028,elc_spv-DEU_0028</t>
-  </si>
-  <si>
-    <t>e_DE135-220,e_DE137-220,e_DE137-380,e_DE140-380,e_DE143-380,e_DE145-220,e_DE147-380,e_DE148-220,e_DE148-380,e_DE150-380,e_w152403632-220,e_w152403632-380,e_w89043564-220,e_w89043564-380,e_w90148336-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0013,elc_spv-DEU_0013</t>
-  </si>
-  <si>
-    <t>e_DE138-220,e_DE138-380,e_DE139-220,e_DE139-380,e_DE144-380,e_DE153-380,e_DE154-380,e_w22765517-220,e_w22765517-380,e_w22766160-220,e_w22766160-380,e_w22767509-220,e_w22767509-380,e_w22796434-220,e_w26777313-380,e_w29374542-220,e_w32148946-220,e_w42423415-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0093,elc_spv-DEU_0093</t>
-  </si>
-  <si>
-    <t>e_DE163-220,e_w108797675-380,e_w24758329-380,e_w499165542-220,e_w499165542-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0080,elc_spv-DEU_0080</t>
-  </si>
-  <si>
-    <t>e_DE59-220,e_DE60-220,e_w952004951-220,e_w952004951-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0055,elc_spv-DEU_0055</t>
-  </si>
-  <si>
-    <t>e_w102743264-220,e_w25306752-220,e_w25306752-380,e_w31367936-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0101,elc_spv-DEU_0101</t>
-  </si>
-  <si>
-    <t>e_w1089911133-380,e_w23583867-380,e_w28327356-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0059,elc_spv-DEU_0059</t>
-  </si>
-  <si>
-    <t>e_w145002769-380,e_w55069713-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0091,elc_spv-DEU_0091</t>
-  </si>
-  <si>
-    <t>e_w38325076-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0019,elc_spv-DEU_0019</t>
-  </si>
-  <si>
-    <t>e_w559702819-220,e_w559702819-380,e_w672738029-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0147,elc_spv-DEU_0147</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0171,elc_spv-DEU_0171</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0130,elc_spv-DEU_0130</t>
-  </si>
-  <si>
-    <t>e_DE103-380,e_w29713902-380,e_w32690742-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0159,elc_spv-DEU_0159</t>
-  </si>
-  <si>
-    <t>e_DE149-380,e_w1081302145-220,e_w109917397-380,e_w166604822-380,e_w36183042-380,e_w943135226-220,e_w943135226-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0038,elc_spv-DEU_0038</t>
-  </si>
-  <si>
-    <t>e_DE207-380,e_DE208-380,e_DE209-380,e_w35954395-380,e_w42049947-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0098,elc_spv-DEU_0098</t>
-  </si>
-  <si>
-    <t>e_DE40-220,e_DE43-220,e_w151507370-220,e_w24262656-220,e_w24262656-380,e_w28227099-220,e_w30017786-220,e_w953757606-380,e_w953757608-220,e_w953757608-380,e_w97857512-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0047,elc_spv-DEU_0047</t>
-  </si>
-  <si>
-    <t>e_DE42-220,e_DE51-220,e_DE52-220,e_w24230738-380,e_w26383042-380,e_w39229429-380,e_w957746797-220,e_w957746797-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0034,elc_spv-DEU_0034</t>
-  </si>
-  <si>
-    <t>e_w1128250707-220,e_w1128250707-380,e_w23744346-220,e_w26455019-220,e_w29420322-220,e_w31024391-220,e_w31024391-380,e_w883768276-380,e_w883768277-380,e_w883928228-380,e_w883928229-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0110,elc_spv-DEU_0110</t>
-  </si>
-  <si>
-    <t>e_w24757392-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0074,elc_spv-DEU_0074</t>
-  </si>
-  <si>
-    <t>e_w26403575-380,e_w42050342-220,e_w42050342-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0100,elc_spv-DEU_0100</t>
-  </si>
-  <si>
-    <t>e_w28343121-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0117,elc_spv-DEU_0117</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0139,elc_spv-DEU_0139</t>
-  </si>
-  <si>
-    <t>e_w77694901-220,e_w77697810-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0146,elc_spv-DEU_0146</t>
-  </si>
-  <si>
-    <t>e_w946025110-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0121,elc_spv-DEU_0121</t>
-  </si>
-  <si>
-    <t>e_DE212-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0170,elc_spv-DEU_0170</t>
-  </si>
-  <si>
-    <t>e_w24976300-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0094,elc_spv-DEU_0094</t>
-  </si>
-  <si>
-    <t>e_DE163-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0040,elc_spv-DEU_0040</t>
-  </si>
-  <si>
-    <t>e_DE183-220,e_w152261133-220,e_w152261133-380,e_w254326606-380,e_w32151621-220,e_w32725957-220,e_w32725958-220,e_w32731290-220,e_w32966636-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0018,elc_spv-DEU_0018</t>
-  </si>
-  <si>
-    <t>e_DE20-380,e_w1280840211-380,e_w142487746-380,e_w206289192-380,e_w32042992-380,e_w797009308-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0073,elc_spv-DEU_0073</t>
-  </si>
-  <si>
-    <t>e_DE202-220,e_DE202-380,e_DE205-220,e_DE205-380,e_w26404600-380,e_w41389594-220,e_w41389594-380,e_w85523877-220,e_w85523877-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0104,elc_spv-DEU_0104</t>
-  </si>
-  <si>
-    <t>e_DE211-220,e_DE212-220,e_w68532663-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0131,elc_spv-DEU_0131</t>
-  </si>
-  <si>
-    <t>e_DE47-220,e_w26472665-220,e_w26472665-380,e_w943939310-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0064,elc_spv-DEU_0064</t>
-  </si>
-  <si>
-    <t>e_DE49-380,e_w23135618-220,e_w24413992-380,e_w28397771-220,e_w288305056-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0186,elc_spv-DEU_0186</t>
-  </si>
-  <si>
-    <t>e_w170123812-220,e_w170123812-380,e_w170123812-400</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0105,elc_spv-DEU_0105</t>
-  </si>
-  <si>
-    <t>e_w23907283-380,e_w24237879-220,e_w30613895-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0088,elc_spv-DEU_0088</t>
-  </si>
-  <si>
-    <t>e_w57727004-220,e_w57727004-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0089,elc_spv-DEU_0089</t>
-  </si>
-  <si>
-    <t>e_w683227471-380,e_w77038371-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0023,elc_spv-DEU_0023</t>
-  </si>
-  <si>
-    <t>e_w82130902-225,e_w933248930-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0137,elc_spv-DEU_0137</t>
-  </si>
-  <si>
-    <t>e_w75865676-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0036,elc_spv-DEU_0036</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0188,elc_spv-DEU_0188</t>
-  </si>
-  <si>
-    <t>e_w1222597066-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0061,elc_spv-DEU_0061</t>
-  </si>
-  <si>
-    <t>e_w156673636-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0113,elc_spv-DEU_0113</t>
-  </si>
-  <si>
-    <t>e_w32690742-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0084,elc_spv-DEU_0084</t>
-  </si>
-  <si>
-    <t>e_DE10-380,e_DE11-380,e_DE12-380,e_w11285720-380,e_w24502420-380,e_w881636329-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0044,elc_spv-DEU_0044</t>
-  </si>
-  <si>
-    <t>e_DE146-380,e_DE152-380,e_w1245826064-380,e_w1245867884-380,e_w202747445-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0090,elc_spv-DEU_0090</t>
-  </si>
-  <si>
-    <t>e_DE200-380,e_w1093896544-380,e_w31105067-380,e_w88945213-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0005,elc_spv-DEU_0005</t>
-  </si>
-  <si>
-    <t>e_DE62-220,e_DE62-380,e_DE67-220,e_DE67-380,e_DE70-220,e_DE70-380,e_DE73-220,e_DE73-380,e_DE74-220,e_DE74-380,e_DE77-220,e_DE77-380,e_DE79-220,e_DE93-220,e_DE97-220,e_w23084417-220,e_w23380800-220,e_w23380800-380,e_w24462228-220,e_w24462317-220,e_w24462426-220,e_w24462426-380,e_w24478889-220,e_w24478889-380,e_w24479003-220,e_w24479003-380,e_w311444692-380,e_w35818134-220,e_w35818137-220,e_w37554416-220,e_w92024105-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0082,elc_spv-DEU_0082</t>
-  </si>
-  <si>
-    <t>e_w23682013-220,e_w23816140-220,e_w274621059-220,e_w33042984-220,e_w787265962-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0161,elc_spv-DEU_0161</t>
-  </si>
-  <si>
-    <t>e_w28729619-380,e_w398680313-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0125,elc_spv-DEU_0125</t>
-  </si>
-  <si>
-    <t>e_w28956649-220,e_w28956649-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0174,elc_spv-DEU_0174</t>
-  </si>
-  <si>
-    <t>e_w940922557-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0182,elc_spv-DEU_0182</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0165,elc_spv-DEU_0165</t>
-  </si>
-  <si>
-    <t>e_w947118608-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0154,elc_spv-DEU_0154</t>
-  </si>
-  <si>
-    <t>e_DE206-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0077,elc_spv-DEU_0077</t>
-  </si>
-  <si>
-    <t>e_w148446247-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0107,elc_spv-DEU_0107</t>
-  </si>
-  <si>
-    <t>e_w24768051-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0067,elc_spv-DEU_0067</t>
-  </si>
-  <si>
-    <t>e_DE13-380,e_DE14-380,e_w1072574879-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0024,elc_spv-DEU_0024</t>
-  </si>
-  <si>
-    <t>e_DE194-220,e_w39011884-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0021,elc_spv-DEU_0021</t>
-  </si>
-  <si>
-    <t>e_DE213-380,e_w202865176-220,e_w202865177-380,e_w88916034-220,e_w88916034-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0081,elc_spv-DEU_0081</t>
-  </si>
-  <si>
-    <t>e_DE55-220,e_DE57-380,e_w23899043-380,e_w30109913-220,e_w699048438-220,e_w810315511-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0086,elc_spv-DEU_0086</t>
-  </si>
-  <si>
-    <t>e_w27646106-220,e_w35176751-220,e_w35176751-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0070,elc_spv-DEU_0070</t>
-  </si>
-  <si>
-    <t>e_w449010725-380,e_w946969736-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0120,elc_spv-DEU_0120</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0143,elc_spv-DEU_0143</t>
-  </si>
-  <si>
-    <t>e_w167352587-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0158,elc_spv-DEU_0158</t>
-  </si>
-  <si>
-    <t>e_w166604822-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0128,elc_spv-DEU_0128</t>
-  </si>
-  <si>
-    <t>e_DE151-220,e_w1086825107-220,e_w1086825107-380,e_w148211527-380,e_w156673637-220,e_w156673637-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0001,elc_spv-DEU_0001</t>
-  </si>
-  <si>
-    <t>e_DE164-220,e_DE167-380,e_DE170-380,e_DE172-220,e_DE172-380,e_DE173-220,e_w145680894-220,e_w151967290-220,e_w151967290-380,e_w151967291-220,e_w151967291-380,e_w89176939-220,e_w89176956-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0184,elc_spv-DEU_0184</t>
-  </si>
-  <si>
-    <t>e_DE46-380,e_w52983550-380,e_w941198517-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0085,elc_spv-DEU_0085</t>
-  </si>
-  <si>
-    <t>e_DE7-220,e_DE8-380,e_w1107961833-380,e_w22720647-220,e_w22720647-380,e_w25306938-380,e_w28008024-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0071,elc_spv-DEU_0071</t>
-  </si>
-  <si>
-    <t>e_w31131320-220,e_w31131320-380,e_w31131325-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0138,elc_spv-DEU_0138</t>
-  </si>
-  <si>
-    <t>e_w75865676-220,e_w91080806-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0087,elc_spv-DEU_0087</t>
-  </si>
-  <si>
-    <t>e_w907539360-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0029,elc_spv-DEU_0029</t>
-  </si>
-  <si>
-    <t>e_DE109-220,e_DE132-220,e_w132814303-220,e_w83916207-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0000,elc_spv-DEU_0000</t>
-  </si>
-  <si>
-    <t>e_DE175-220,e_DE177-220,e_w82773910-220,e_w82773910-380,e_w82773910-400,e_w89215122-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0057,elc_spv-DEU_0057</t>
-  </si>
-  <si>
-    <t>e_DE184-380,e_DE185-380,e_DE186-380,e_DE187-380,e_DE188-380,e_DE189-380,e_DE190-380,e_DE191-380,e_DE192-380,e_DE193-380,e_w147878692-380,e_w22960899-380,e_w25786404-220,e_w25786404-380,e_w37721677-380,e_w41334805-220,e_w41334805-380,e_w43688805-220,e_w43688805-380,e_w48428875-380,e_w97825259-220,e_w97825259-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0163,elc_spv-DEU_0163</t>
-  </si>
-  <si>
-    <t>e_DE21-220,e_DE25-380,e_w11500045-380,e_w27149550-220,e_w27149550-380,e_w30132758-380,e_w30303506-380,e_w30309989-220,e_w43163132-380,e_w46615737-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0099,elc_spv-DEU_0099</t>
-  </si>
-  <si>
-    <t>e_DE36-220,e_w24258096-380,e_w24272339-380,e_w24272541-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0016,elc_spv-DEU_0016</t>
-  </si>
-  <si>
-    <t>e_DE39-220,e_DE41-380,e_DE45-380,e_DE50-380,e_DE54-380,e_w844075808-380,e_w952346322-380,e_w979801144-220,e_w979801144-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0152,elc_spv-DEU_0152</t>
-  </si>
-  <si>
-    <t>e_DE5-380,e_w32063539-380,e_w32318130-220,e_w940919943</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0151,elc_spv-DEU_0151</t>
-  </si>
-  <si>
-    <t>e_w1094015892-220,e_w1094015892-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0102,elc_spv-DEU_0102</t>
-  </si>
-  <si>
-    <t>e_w1102237380-220,e_w1102237380-380,e_w1191459479-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0010,elc_spv-DEU_0010</t>
-  </si>
-  <si>
-    <t>e_w152018146-220,e_w152018146-380,e_w156402422-220,e_w207756597-220,e_w54359256-220,e_w54359256-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0122,elc_spv-DEU_0122</t>
-  </si>
-  <si>
-    <t>e_w24158385-220,e_w26245195-220,e_w26245195-380,e_w5404079-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0011,elc_spv-DEU_0011</t>
-  </si>
-  <si>
-    <t>e_w42097854-220,e_w42097854-380,e_w66764943-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0008,elc_spv-DEU_0008</t>
-  </si>
-  <si>
-    <t>e_w672738029-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0169,elc_spv-DEU_0169</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0092,elc_spv-DEU_0092</t>
-  </si>
-  <si>
-    <t>e_w24705761-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0095,elc_spv-DEU_0095</t>
+    <t>distr_wofelc_wof-DEU_0021</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_21</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0118</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_118</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0055</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_55</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0087</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_87</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0037</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_37</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0009</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_9</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0149</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_149</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0052</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_52</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0038</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_38</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0134</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_134</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0103</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_103</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0022</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_22</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0119</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_119</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0133</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_133</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0012</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_12</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0010</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_10</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0054</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_54</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0069</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_69</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0053</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_53</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0163</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_163</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0180</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_180</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0036</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_36</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0001</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_1</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0002</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_2</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0173</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_173</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0178</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_178</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0003</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_3</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0023</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_23</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0084</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_84</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0085</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_85</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0172</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_172</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0039</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_39</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0011</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_11</t>
   </si>
   <si>
     <t>distr_wofelc_wof-DEU_0020</t>
@@ -5219,208 +5417,142 @@
     <t>connecting wind offshore to buses in grid cell DEU_179</t>
   </si>
   <si>
-    <t>distr_wofelc_wof-DEU_0069</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_69</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0053</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_53</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0163</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_163</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0087</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_87</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0037</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_37</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0009</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_9</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0023</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_23</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0118</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_118</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0055</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_55</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0173</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_173</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0178</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_178</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0003</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_3</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0054</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_54</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0039</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_39</t>
-  </si>
-  <si>
     <t>distr_wofelc_wof-DEU_0004</t>
   </si>
   <si>
     <t>connecting wind offshore to buses in grid cell DEU_4</t>
   </si>
   <si>
-    <t>distr_wofelc_wof-DEU_0180</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_180</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0036</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_36</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0001</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_1</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0002</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_2</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0103</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_103</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0022</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_22</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0119</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_119</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0021</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_21</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0084</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_84</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0085</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_85</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0172</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_172</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0149</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_149</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0052</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_52</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0038</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_38</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0134</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_134</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0011</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_11</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0133</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_133</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0012</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_12</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0010</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_10</t>
+    <t>elc_wof-DEU_0021</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0118</t>
+  </si>
+  <si>
+    <t>e_w1102237380-220,e_w1102237380-380,e_w275466323,e_w275466323-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0055</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0087</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0037</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0009</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0149</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0052</t>
+  </si>
+  <si>
+    <t>e_w1128250707-220,e_w1128250707-380,e_w157421333-220,e_w23744346-220,e_w266684854-380,e_w31024391-220,e_w31024391-380,e_w32076853-220,e_w32076853-380,e_w42872354-220,e_w829116805-220,e_w829116805-380,e_w883768276-380,e_w883768277-380,e_w883928228-380,e_w883928229-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0038</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0134</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0103</t>
+  </si>
+  <si>
+    <t>e_DE4-220,e_w27124619-220,e_w27646106-220</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0022</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0119</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0133</t>
+  </si>
+  <si>
+    <t>e_w234171369-380,e_w30040568-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0012</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0010</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0054</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0069</t>
+  </si>
+  <si>
+    <t>e_w1089769599-220,e_w1089769599-380,e_w1280364401-380,e_w289836713-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0053</t>
+  </si>
+  <si>
+    <t>e_w1134105414-380,e_w26455019-220,e_w29420322-220</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0163</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0180</t>
+  </si>
+  <si>
+    <t>e_DE2-220</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0036</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0001</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0002</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0173</t>
+  </si>
+  <si>
+    <t>e_DE1-220,e_DE3-220</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0178</t>
+  </si>
+  <si>
+    <t>e_DE16-220,e_w1222597066-220,e_w1222597066-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0003</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0023</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0084</t>
+  </si>
+  <si>
+    <t>e_DE10-380,e_DE11-380,e_DE12-380,e_DE13-380,e_DE14-380,e_w11285720-380,e_w24502420-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0085</t>
+  </si>
+  <si>
+    <t>e_DE6-380,e_DE7-220,e_DE8-380,e_w1107961833-380,e_w25306938-380,e_w525964617,e_w525964629-380,e_w60032354-220,e_w87722999-220,e_w87722999-380,e_w881636329-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0172</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0039</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0011</t>
   </si>
   <si>
     <t>elc_wof-DEU_0020</t>
@@ -5441,139 +5573,7 @@
     <t>elc_wof-DEU_0179</t>
   </si>
   <si>
-    <t>e_DE2-220</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0069</t>
-  </si>
-  <si>
-    <t>e_w1089769599-220,e_w1089769599-380,e_w1280364401-380,e_w289836713-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0053</t>
-  </si>
-  <si>
-    <t>e_w1134105414-380,e_w26455019-220,e_w29420322-220</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0163</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0087</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0037</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0009</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0023</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0118</t>
-  </si>
-  <si>
-    <t>e_w1102237380-220,e_w1102237380-380,e_w275466323,e_w275466323-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0055</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0173</t>
-  </si>
-  <si>
-    <t>e_DE1-220,e_DE3-220</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0178</t>
-  </si>
-  <si>
-    <t>e_DE16-220,e_w1222597066-220,e_w1222597066-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0003</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0054</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0039</t>
-  </si>
-  <si>
     <t>elc_wof-DEU_0004</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0180</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0036</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0001</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0002</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0103</t>
-  </si>
-  <si>
-    <t>e_DE4-220,e_w27124619-220,e_w27646106-220</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0022</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0119</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0021</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0084</t>
-  </si>
-  <si>
-    <t>e_DE10-380,e_DE11-380,e_DE12-380,e_DE13-380,e_DE14-380,e_w11285720-380,e_w24502420-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0085</t>
-  </si>
-  <si>
-    <t>e_DE6-380,e_DE7-220,e_DE8-380,e_w1107961833-380,e_w25306938-380,e_w525964617,e_w525964629-380,e_w60032354-220,e_w87722999-220,e_w87722999-380,e_w881636329-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0172</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0149</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0052</t>
-  </si>
-  <si>
-    <t>e_w1128250707-220,e_w1128250707-380,e_w157421333-220,e_w23744346-220,e_w266684854-380,e_w31024391-220,e_w31024391-380,e_w32076853-220,e_w32076853-380,e_w42872354-220,e_w829116805-220,e_w829116805-380,e_w883768276-380,e_w883768277-380,e_w883928228-380,e_w883928229-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0038</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0134</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0011</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0133</t>
-  </si>
-  <si>
-    <t>e_w234171369-380,e_w30040568-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0012</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0010</t>
   </si>
   <si>
     <t>e_won-DEU_0000</t>
@@ -15133,7 +15133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E1060F-12AA-4294-AD98-21E48F2B67A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA3CF17-3D73-40C1-A918-763C1C6F125D}">
   <dimension ref="B9:AR198"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15350,7 +15350,7 @@
         <v>1</v>
       </c>
       <c r="AC11" t="s">
-        <v>663</v>
+        <v>823</v>
       </c>
       <c r="AE11" t="s">
         <v>942</v>
@@ -15383,13 +15383,13 @@
         <v>1764</v>
       </c>
       <c r="AP11" t="s">
-        <v>1765</v>
+        <v>1496</v>
       </c>
       <c r="AQ11">
         <v>1</v>
       </c>
       <c r="AR11" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="12" spans="2:44">
@@ -15466,7 +15466,7 @@
         <v>1</v>
       </c>
       <c r="AC12" t="s">
-        <v>647</v>
+        <v>881</v>
       </c>
       <c r="AE12" t="s">
         <v>942</v>
@@ -15496,16 +15496,16 @@
         <v>1690</v>
       </c>
       <c r="AO12" t="s">
+        <v>1765</v>
+      </c>
+      <c r="AP12" t="s">
         <v>1766</v>
       </c>
-      <c r="AP12" t="s">
-        <v>1767</v>
-      </c>
       <c r="AQ12">
         <v>1</v>
       </c>
       <c r="AR12" t="s">
-        <v>735</v>
+        <v>799</v>
       </c>
     </row>
     <row r="13" spans="2:44">
@@ -15582,7 +15582,7 @@
         <v>1</v>
       </c>
       <c r="AC13" t="s">
-        <v>829</v>
+        <v>641</v>
       </c>
       <c r="AE13" t="s">
         <v>942</v>
@@ -15612,16 +15612,16 @@
         <v>1692</v>
       </c>
       <c r="AO13" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="AP13" t="s">
-        <v>1513</v>
+        <v>1529</v>
       </c>
       <c r="AQ13">
         <v>1</v>
       </c>
       <c r="AR13" t="s">
-        <v>613</v>
+        <v>673</v>
       </c>
     </row>
     <row r="14" spans="2:44">
@@ -15698,7 +15698,7 @@
         <v>1</v>
       </c>
       <c r="AC14" t="s">
-        <v>831</v>
+        <v>759</v>
       </c>
       <c r="AE14" t="s">
         <v>942</v>
@@ -15728,16 +15728,16 @@
         <v>1694</v>
       </c>
       <c r="AO14" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="AP14" t="s">
-        <v>1770</v>
+        <v>1402</v>
       </c>
       <c r="AQ14">
         <v>1</v>
       </c>
       <c r="AR14" t="s">
-        <v>921</v>
+        <v>737</v>
       </c>
     </row>
     <row r="15" spans="2:44">
@@ -15814,7 +15814,7 @@
         <v>1</v>
       </c>
       <c r="AC15" t="s">
-        <v>683</v>
+        <v>659</v>
       </c>
       <c r="AE15" t="s">
         <v>942</v>
@@ -15844,16 +15844,16 @@
         <v>1696</v>
       </c>
       <c r="AO15" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="AP15" t="s">
-        <v>1772</v>
+        <v>1598</v>
       </c>
       <c r="AQ15">
         <v>1</v>
       </c>
       <c r="AR15" t="s">
-        <v>701</v>
+        <v>639</v>
       </c>
     </row>
     <row r="16" spans="2:44">
@@ -15930,7 +15930,7 @@
         <v>1</v>
       </c>
       <c r="AC16" t="s">
-        <v>779</v>
+        <v>633</v>
       </c>
       <c r="AE16" t="s">
         <v>942</v>
@@ -15960,16 +15960,16 @@
         <v>1698</v>
       </c>
       <c r="AO16" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="AP16" t="s">
-        <v>1774</v>
+        <v>1496</v>
       </c>
       <c r="AQ16">
         <v>1</v>
       </c>
       <c r="AR16" t="s">
-        <v>669</v>
+        <v>583</v>
       </c>
     </row>
     <row r="17" spans="2:44">
@@ -16046,7 +16046,7 @@
         <v>1</v>
       </c>
       <c r="AC17" t="s">
-        <v>859</v>
+        <v>783</v>
       </c>
       <c r="AE17" t="s">
         <v>942</v>
@@ -16076,16 +16076,16 @@
         <v>1700</v>
       </c>
       <c r="AO17" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
       <c r="AP17" t="s">
-        <v>1381</v>
+        <v>1484</v>
       </c>
       <c r="AQ17">
         <v>1</v>
       </c>
       <c r="AR17" t="s">
-        <v>889</v>
+        <v>861</v>
       </c>
     </row>
     <row r="18" spans="2:44">
@@ -16162,7 +16162,7 @@
         <v>1</v>
       </c>
       <c r="AC18" t="s">
-        <v>919</v>
+        <v>711</v>
       </c>
       <c r="AE18" t="s">
         <v>942</v>
@@ -16192,16 +16192,16 @@
         <v>1702</v>
       </c>
       <c r="AO18" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
       <c r="AP18" t="s">
-        <v>1657</v>
+        <v>1773</v>
       </c>
       <c r="AQ18">
         <v>1</v>
       </c>
       <c r="AR18" t="s">
-        <v>737</v>
+        <v>667</v>
       </c>
     </row>
     <row r="19" spans="2:44">
@@ -16278,7 +16278,7 @@
         <v>1</v>
       </c>
       <c r="AC19" t="s">
-        <v>707</v>
+        <v>763</v>
       </c>
       <c r="AE19" t="s">
         <v>942</v>
@@ -16308,16 +16308,16 @@
         <v>1704</v>
       </c>
       <c r="AO19" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="AP19" t="s">
-        <v>1445</v>
+        <v>1598</v>
       </c>
       <c r="AQ19">
         <v>1</v>
       </c>
       <c r="AR19" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="20" spans="2:44">
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="AC20" t="s">
-        <v>817</v>
+        <v>797</v>
       </c>
       <c r="AE20" t="s">
         <v>942</v>
@@ -16424,16 +16424,16 @@
         <v>1706</v>
       </c>
       <c r="AO20" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="AP20" t="s">
-        <v>1683</v>
+        <v>1366</v>
       </c>
       <c r="AQ20">
         <v>1</v>
       </c>
       <c r="AR20" t="s">
-        <v>583</v>
+        <v>831</v>
       </c>
     </row>
     <row r="21" spans="2:44">
@@ -16510,7 +16510,7 @@
         <v>1</v>
       </c>
       <c r="AC21" t="s">
-        <v>649</v>
+        <v>841</v>
       </c>
       <c r="AE21" t="s">
         <v>942</v>
@@ -16540,16 +16540,16 @@
         <v>1708</v>
       </c>
       <c r="AO21" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="AP21" t="s">
-        <v>1513</v>
+        <v>1777</v>
       </c>
       <c r="AQ21">
         <v>1</v>
       </c>
       <c r="AR21" t="s">
-        <v>611</v>
+        <v>769</v>
       </c>
     </row>
     <row r="22" spans="2:44">
@@ -16626,7 +16626,7 @@
         <v>1</v>
       </c>
       <c r="AC22" t="s">
-        <v>715</v>
+        <v>855</v>
       </c>
       <c r="AE22" t="s">
         <v>942</v>
@@ -16656,16 +16656,16 @@
         <v>1710</v>
       </c>
       <c r="AO22" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="AP22" t="s">
-        <v>1781</v>
+        <v>1525</v>
       </c>
       <c r="AQ22">
         <v>1</v>
       </c>
       <c r="AR22" t="s">
-        <v>799</v>
+        <v>609</v>
       </c>
     </row>
     <row r="23" spans="2:44">
@@ -16742,7 +16742,7 @@
         <v>1</v>
       </c>
       <c r="AC23" t="s">
-        <v>873</v>
+        <v>805</v>
       </c>
       <c r="AE23" t="s">
         <v>942</v>
@@ -16772,16 +16772,16 @@
         <v>1712</v>
       </c>
       <c r="AO23" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
       <c r="AP23" t="s">
-        <v>1517</v>
+        <v>1466</v>
       </c>
       <c r="AQ23">
         <v>1</v>
       </c>
       <c r="AR23" t="s">
-        <v>673</v>
+        <v>801</v>
       </c>
     </row>
     <row r="24" spans="2:44">
@@ -16858,7 +16858,7 @@
         <v>1</v>
       </c>
       <c r="AC24" t="s">
-        <v>769</v>
+        <v>903</v>
       </c>
       <c r="AE24" t="s">
         <v>942</v>
@@ -16888,16 +16888,16 @@
         <v>1714</v>
       </c>
       <c r="AO24" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="AP24" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="AQ24">
         <v>1</v>
       </c>
       <c r="AR24" t="s">
-        <v>909</v>
+        <v>829</v>
       </c>
     </row>
     <row r="25" spans="2:44">
@@ -16974,7 +16974,7 @@
         <v>1</v>
       </c>
       <c r="AC25" t="s">
-        <v>569</v>
+        <v>751</v>
       </c>
       <c r="AE25" t="s">
         <v>942</v>
@@ -17004,16 +17004,16 @@
         <v>1716</v>
       </c>
       <c r="AO25" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="AP25" t="s">
-        <v>1786</v>
+        <v>1496</v>
       </c>
       <c r="AQ25">
         <v>1</v>
       </c>
       <c r="AR25" t="s">
-        <v>919</v>
+        <v>589</v>
       </c>
     </row>
     <row r="26" spans="2:44">
@@ -17090,7 +17090,7 @@
         <v>1</v>
       </c>
       <c r="AC26" t="s">
-        <v>799</v>
+        <v>689</v>
       </c>
       <c r="AE26" t="s">
         <v>942</v>
@@ -17120,16 +17120,16 @@
         <v>1718</v>
       </c>
       <c r="AO26" t="s">
-        <v>1787</v>
+        <v>1783</v>
       </c>
       <c r="AP26" t="s">
-        <v>1683</v>
+        <v>1496</v>
       </c>
       <c r="AQ26">
         <v>1</v>
       </c>
       <c r="AR26" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
     </row>
     <row r="27" spans="2:44">
@@ -17206,7 +17206,7 @@
         <v>1</v>
       </c>
       <c r="AC27" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="AE27" t="s">
         <v>942</v>
@@ -17236,10 +17236,10 @@
         <v>1720</v>
       </c>
       <c r="AO27" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="AP27" t="s">
-        <v>1445</v>
+        <v>1598</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -17322,7 +17322,7 @@
         <v>1</v>
       </c>
       <c r="AC28" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="AE28" t="s">
         <v>942</v>
@@ -17352,16 +17352,16 @@
         <v>1722</v>
       </c>
       <c r="AO28" t="s">
-        <v>1789</v>
+        <v>1785</v>
       </c>
       <c r="AP28" t="s">
-        <v>1517</v>
+        <v>1786</v>
       </c>
       <c r="AQ28">
         <v>1</v>
       </c>
       <c r="AR28" t="s">
-        <v>643</v>
+        <v>701</v>
       </c>
     </row>
     <row r="29" spans="2:44">
@@ -17438,7 +17438,7 @@
         <v>1</v>
       </c>
       <c r="AC29" t="s">
-        <v>895</v>
+        <v>679</v>
       </c>
       <c r="AE29" t="s">
         <v>942</v>
@@ -17468,16 +17468,16 @@
         <v>1724</v>
       </c>
       <c r="AO29" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="AP29" t="s">
-        <v>1683</v>
+        <v>1788</v>
       </c>
       <c r="AQ29">
         <v>1</v>
       </c>
       <c r="AR29" t="s">
-        <v>573</v>
+        <v>669</v>
       </c>
     </row>
     <row r="30" spans="2:44">
@@ -17554,7 +17554,7 @@
         <v>1</v>
       </c>
       <c r="AC30" t="s">
-        <v>801</v>
+        <v>699</v>
       </c>
       <c r="AE30" t="s">
         <v>942</v>
@@ -17584,16 +17584,16 @@
         <v>1726</v>
       </c>
       <c r="AO30" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="AP30" t="s">
-        <v>1770</v>
+        <v>1384</v>
       </c>
       <c r="AQ30">
         <v>1</v>
       </c>
       <c r="AR30" t="s">
-        <v>923</v>
+        <v>889</v>
       </c>
     </row>
     <row r="31" spans="2:44">
@@ -17670,7 +17670,7 @@
         <v>1</v>
       </c>
       <c r="AC31" t="s">
-        <v>937</v>
+        <v>843</v>
       </c>
       <c r="AE31" t="s">
         <v>942</v>
@@ -17700,16 +17700,16 @@
         <v>1728</v>
       </c>
       <c r="AO31" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="AP31" t="s">
-        <v>1445</v>
+        <v>1791</v>
       </c>
       <c r="AQ31">
         <v>1</v>
       </c>
       <c r="AR31" t="s">
-        <v>637</v>
+        <v>923</v>
       </c>
     </row>
     <row r="32" spans="2:44">
@@ -17780,13 +17780,13 @@
         <v>1364</v>
       </c>
       <c r="AA32" t="s">
-        <v>1365</v>
+        <v>1341</v>
       </c>
       <c r="AB32">
         <v>1</v>
       </c>
       <c r="AC32" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="AE32" t="s">
         <v>942</v>
@@ -17816,16 +17816,16 @@
         <v>1730</v>
       </c>
       <c r="AO32" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="AP32" t="s">
-        <v>1683</v>
+        <v>1598</v>
       </c>
       <c r="AQ32">
         <v>1</v>
       </c>
       <c r="AR32" t="s">
-        <v>567</v>
+        <v>637</v>
       </c>
     </row>
     <row r="33" spans="2:44">
@@ -17893,16 +17893,16 @@
         <v>989</v>
       </c>
       <c r="Z33" t="s">
+        <v>1365</v>
+      </c>
+      <c r="AA33" t="s">
         <v>1366</v>
       </c>
-      <c r="AA33" t="s">
-        <v>1367</v>
-      </c>
       <c r="AB33">
         <v>1</v>
       </c>
       <c r="AC33" t="s">
-        <v>573</v>
+        <v>835</v>
       </c>
       <c r="AE33" t="s">
         <v>942</v>
@@ -17932,16 +17932,16 @@
         <v>1732</v>
       </c>
       <c r="AO33" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="AP33" t="s">
-        <v>1683</v>
+        <v>1496</v>
       </c>
       <c r="AQ33">
         <v>1</v>
       </c>
       <c r="AR33" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="34" spans="2:44">
@@ -18009,16 +18009,16 @@
         <v>991</v>
       </c>
       <c r="Z34" t="s">
+        <v>1367</v>
+      </c>
+      <c r="AA34" t="s">
         <v>1368</v>
       </c>
-      <c r="AA34" t="s">
-        <v>1369</v>
-      </c>
       <c r="AB34">
         <v>1</v>
       </c>
       <c r="AC34" t="s">
-        <v>851</v>
+        <v>671</v>
       </c>
       <c r="AE34" t="s">
         <v>942</v>
@@ -18048,16 +18048,16 @@
         <v>1734</v>
       </c>
       <c r="AO34" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="AP34" t="s">
-        <v>1796</v>
+        <v>1496</v>
       </c>
       <c r="AQ34">
         <v>1</v>
       </c>
       <c r="AR34" t="s">
-        <v>769</v>
+        <v>569</v>
       </c>
     </row>
     <row r="35" spans="2:44">
@@ -18125,16 +18125,16 @@
         <v>993</v>
       </c>
       <c r="Z35" t="s">
+        <v>1369</v>
+      </c>
+      <c r="AA35" t="s">
         <v>1370</v>
       </c>
-      <c r="AA35" t="s">
-        <v>1371</v>
-      </c>
       <c r="AB35">
         <v>1</v>
       </c>
       <c r="AC35" t="s">
-        <v>917</v>
+        <v>573</v>
       </c>
       <c r="AE35" t="s">
         <v>942</v>
@@ -18164,16 +18164,16 @@
         <v>1736</v>
       </c>
       <c r="AO35" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="AP35" t="s">
-        <v>1513</v>
+        <v>1796</v>
       </c>
       <c r="AQ35">
         <v>1</v>
       </c>
       <c r="AR35" t="s">
-        <v>609</v>
+        <v>909</v>
       </c>
     </row>
     <row r="36" spans="2:44">
@@ -18241,16 +18241,16 @@
         <v>995</v>
       </c>
       <c r="Z36" t="s">
+        <v>1371</v>
+      </c>
+      <c r="AA36" t="s">
         <v>1372</v>
       </c>
-      <c r="AA36" t="s">
-        <v>1373</v>
-      </c>
       <c r="AB36">
         <v>1</v>
       </c>
       <c r="AC36" t="s">
-        <v>713</v>
+        <v>851</v>
       </c>
       <c r="AE36" t="s">
         <v>942</v>
@@ -18280,16 +18280,16 @@
         <v>1738</v>
       </c>
       <c r="AO36" t="s">
+        <v>1797</v>
+      </c>
+      <c r="AP36" t="s">
         <v>1798</v>
       </c>
-      <c r="AP36" t="s">
-        <v>1361</v>
-      </c>
       <c r="AQ36">
         <v>1</v>
       </c>
       <c r="AR36" t="s">
-        <v>801</v>
+        <v>919</v>
       </c>
     </row>
     <row r="37" spans="2:44">
@@ -18357,16 +18357,16 @@
         <v>997</v>
       </c>
       <c r="Z37" t="s">
+        <v>1373</v>
+      </c>
+      <c r="AA37" t="s">
         <v>1374</v>
       </c>
-      <c r="AA37" t="s">
-        <v>1375</v>
-      </c>
       <c r="AB37">
         <v>1</v>
       </c>
       <c r="AC37" t="s">
-        <v>775</v>
+        <v>917</v>
       </c>
       <c r="AE37" t="s">
         <v>942</v>
@@ -18399,13 +18399,13 @@
         <v>1799</v>
       </c>
       <c r="AP37" t="s">
-        <v>1683</v>
+        <v>1496</v>
       </c>
       <c r="AQ37">
         <v>1</v>
       </c>
       <c r="AR37" t="s">
-        <v>607</v>
+        <v>571</v>
       </c>
     </row>
     <row r="38" spans="2:44">
@@ -18473,16 +18473,16 @@
         <v>999</v>
       </c>
       <c r="Z38" t="s">
+        <v>1375</v>
+      </c>
+      <c r="AA38" t="s">
         <v>1376</v>
       </c>
-      <c r="AA38" t="s">
-        <v>1377</v>
-      </c>
       <c r="AB38">
         <v>1</v>
       </c>
       <c r="AC38" t="s">
-        <v>643</v>
+        <v>713</v>
       </c>
       <c r="AE38" t="s">
         <v>942</v>
@@ -18515,13 +18515,13 @@
         <v>1800</v>
       </c>
       <c r="AP38" t="s">
-        <v>1801</v>
+        <v>1525</v>
       </c>
       <c r="AQ38">
         <v>1</v>
       </c>
       <c r="AR38" t="s">
-        <v>731</v>
+        <v>611</v>
       </c>
     </row>
     <row r="39" spans="2:44">
@@ -18589,16 +18589,16 @@
         <v>1001</v>
       </c>
       <c r="Z39" t="s">
+        <v>1377</v>
+      </c>
+      <c r="AA39" t="s">
         <v>1378</v>
       </c>
-      <c r="AA39" t="s">
-        <v>1379</v>
-      </c>
       <c r="AB39">
         <v>1</v>
       </c>
       <c r="AC39" t="s">
-        <v>887</v>
+        <v>775</v>
       </c>
       <c r="AE39" t="s">
         <v>942</v>
@@ -18628,16 +18628,16 @@
         <v>1744</v>
       </c>
       <c r="AO39" t="s">
+        <v>1801</v>
+      </c>
+      <c r="AP39" t="s">
         <v>1802</v>
       </c>
-      <c r="AP39" t="s">
-        <v>1803</v>
-      </c>
       <c r="AQ39">
         <v>1</v>
       </c>
       <c r="AR39" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="40" spans="2:44">
@@ -18705,16 +18705,16 @@
         <v>1003</v>
       </c>
       <c r="Z40" t="s">
+        <v>1379</v>
+      </c>
+      <c r="AA40" t="s">
         <v>1380</v>
       </c>
-      <c r="AA40" t="s">
-        <v>1381</v>
-      </c>
       <c r="AB40">
         <v>1</v>
       </c>
       <c r="AC40" t="s">
-        <v>897</v>
+        <v>643</v>
       </c>
       <c r="AE40" t="s">
         <v>942</v>
@@ -18744,16 +18744,16 @@
         <v>1746</v>
       </c>
       <c r="AO40" t="s">
+        <v>1803</v>
+      </c>
+      <c r="AP40" t="s">
         <v>1804</v>
       </c>
-      <c r="AP40" t="s">
-        <v>1502</v>
-      </c>
       <c r="AQ40">
         <v>1</v>
       </c>
       <c r="AR40" t="s">
-        <v>907</v>
+        <v>733</v>
       </c>
     </row>
     <row r="41" spans="2:44">
@@ -18821,16 +18821,16 @@
         <v>1005</v>
       </c>
       <c r="Z41" t="s">
+        <v>1381</v>
+      </c>
+      <c r="AA41" t="s">
         <v>1382</v>
       </c>
-      <c r="AA41" t="s">
-        <v>1383</v>
-      </c>
       <c r="AB41">
         <v>1</v>
       </c>
       <c r="AC41" t="s">
-        <v>577</v>
+        <v>887</v>
       </c>
       <c r="AE41" t="s">
         <v>942</v>
@@ -18863,13 +18863,13 @@
         <v>1805</v>
       </c>
       <c r="AP41" t="s">
-        <v>1671</v>
+        <v>1513</v>
       </c>
       <c r="AQ41">
         <v>1</v>
       </c>
       <c r="AR41" t="s">
-        <v>861</v>
+        <v>907</v>
       </c>
     </row>
     <row r="42" spans="2:44">
@@ -18937,16 +18937,16 @@
         <v>1007</v>
       </c>
       <c r="Z42" t="s">
+        <v>1383</v>
+      </c>
+      <c r="AA42" t="s">
         <v>1384</v>
       </c>
-      <c r="AA42" t="s">
-        <v>1385</v>
-      </c>
       <c r="AB42">
         <v>1</v>
       </c>
       <c r="AC42" t="s">
-        <v>583</v>
+        <v>897</v>
       </c>
       <c r="AE42" t="s">
         <v>942</v>
@@ -18979,13 +18979,13 @@
         <v>1806</v>
       </c>
       <c r="AP42" t="s">
-        <v>1807</v>
+        <v>1529</v>
       </c>
       <c r="AQ42">
         <v>1</v>
       </c>
       <c r="AR42" t="s">
-        <v>667</v>
+        <v>643</v>
       </c>
     </row>
     <row r="43" spans="2:44">
@@ -19053,16 +19053,16 @@
         <v>1009</v>
       </c>
       <c r="Z43" t="s">
+        <v>1385</v>
+      </c>
+      <c r="AA43" t="s">
         <v>1386</v>
       </c>
-      <c r="AA43" t="s">
-        <v>1387</v>
-      </c>
       <c r="AB43">
         <v>1</v>
       </c>
       <c r="AC43" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="AE43" t="s">
         <v>942</v>
@@ -19092,16 +19092,16 @@
         <v>1752</v>
       </c>
       <c r="AO43" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="AP43" t="s">
-        <v>1445</v>
+        <v>1496</v>
       </c>
       <c r="AQ43">
         <v>1</v>
       </c>
       <c r="AR43" t="s">
-        <v>641</v>
+        <v>587</v>
       </c>
     </row>
     <row r="44" spans="2:44">
@@ -19169,16 +19169,16 @@
         <v>1011</v>
       </c>
       <c r="Z44" t="s">
+        <v>1387</v>
+      </c>
+      <c r="AA44" t="s">
         <v>1388</v>
       </c>
-      <c r="AA44" t="s">
-        <v>1389</v>
-      </c>
       <c r="AB44">
         <v>1</v>
       </c>
       <c r="AC44" t="s">
-        <v>929</v>
+        <v>583</v>
       </c>
       <c r="AE44" t="s">
         <v>942</v>
@@ -19208,16 +19208,16 @@
         <v>1754</v>
       </c>
       <c r="AO44" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AP44" t="s">
         <v>1809</v>
       </c>
-      <c r="AP44" t="s">
-        <v>1419</v>
-      </c>
       <c r="AQ44">
         <v>1</v>
       </c>
       <c r="AR44" t="s">
-        <v>831</v>
+        <v>605</v>
       </c>
     </row>
     <row r="45" spans="2:44">
@@ -19285,16 +19285,16 @@
         <v>1013</v>
       </c>
       <c r="Z45" t="s">
+        <v>1389</v>
+      </c>
+      <c r="AA45" t="s">
         <v>1390</v>
       </c>
-      <c r="AA45" t="s">
-        <v>1391</v>
-      </c>
       <c r="AB45">
         <v>1</v>
       </c>
       <c r="AC45" t="s">
-        <v>787</v>
+        <v>819</v>
       </c>
       <c r="AE45" t="s">
         <v>942</v>
@@ -19327,13 +19327,13 @@
         <v>1810</v>
       </c>
       <c r="AP45" t="s">
-        <v>1683</v>
+        <v>1811</v>
       </c>
       <c r="AQ45">
         <v>1</v>
       </c>
       <c r="AR45" t="s">
-        <v>587</v>
+        <v>735</v>
       </c>
     </row>
     <row r="46" spans="2:44">
@@ -19401,16 +19401,16 @@
         <v>1015</v>
       </c>
       <c r="Z46" t="s">
+        <v>1391</v>
+      </c>
+      <c r="AA46" t="s">
         <v>1392</v>
       </c>
-      <c r="AA46" t="s">
-        <v>1393</v>
-      </c>
       <c r="AB46">
         <v>1</v>
       </c>
       <c r="AC46" t="s">
-        <v>719</v>
+        <v>567</v>
       </c>
       <c r="AE46" t="s">
         <v>942</v>
@@ -19440,16 +19440,16 @@
         <v>1758</v>
       </c>
       <c r="AO46" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="AP46" t="s">
-        <v>1812</v>
+        <v>1525</v>
       </c>
       <c r="AQ46">
         <v>1</v>
       </c>
       <c r="AR46" t="s">
-        <v>829</v>
+        <v>613</v>
       </c>
     </row>
     <row r="47" spans="2:44">
@@ -19517,16 +19517,16 @@
         <v>1017</v>
       </c>
       <c r="Z47" t="s">
+        <v>1393</v>
+      </c>
+      <c r="AA47" t="s">
         <v>1394</v>
       </c>
-      <c r="AA47" t="s">
-        <v>1395</v>
-      </c>
       <c r="AB47">
         <v>1</v>
       </c>
       <c r="AC47" t="s">
-        <v>589</v>
+        <v>931</v>
       </c>
       <c r="AE47" t="s">
         <v>942</v>
@@ -19559,13 +19559,13 @@
         <v>1813</v>
       </c>
       <c r="AP47" t="s">
-        <v>1683</v>
+        <v>1791</v>
       </c>
       <c r="AQ47">
         <v>1</v>
       </c>
       <c r="AR47" t="s">
-        <v>589</v>
+        <v>921</v>
       </c>
     </row>
     <row r="48" spans="2:44">
@@ -19633,16 +19633,16 @@
         <v>1019</v>
       </c>
       <c r="Z48" t="s">
+        <v>1395</v>
+      </c>
+      <c r="AA48" t="s">
         <v>1396</v>
       </c>
-      <c r="AA48" t="s">
-        <v>1397</v>
-      </c>
       <c r="AB48">
         <v>1</v>
       </c>
       <c r="AC48" t="s">
-        <v>815</v>
+        <v>733</v>
       </c>
       <c r="AE48" t="s">
         <v>942</v>
@@ -19675,13 +19675,13 @@
         <v>1814</v>
       </c>
       <c r="AP48" t="s">
-        <v>1683</v>
+        <v>1496</v>
       </c>
       <c r="AQ48">
         <v>1</v>
       </c>
       <c r="AR48" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
     </row>
     <row r="49" spans="2:29">
@@ -19749,16 +19749,16 @@
         <v>1021</v>
       </c>
       <c r="Z49" t="s">
+        <v>1397</v>
+      </c>
+      <c r="AA49" t="s">
         <v>1398</v>
       </c>
-      <c r="AA49" t="s">
-        <v>1399</v>
-      </c>
       <c r="AB49">
         <v>1</v>
       </c>
       <c r="AC49" t="s">
-        <v>579</v>
+        <v>705</v>
       </c>
     </row>
     <row r="50" spans="2:29">
@@ -19826,16 +19826,16 @@
         <v>1023</v>
       </c>
       <c r="Z50" t="s">
+        <v>1399</v>
+      </c>
+      <c r="AA50" t="s">
         <v>1400</v>
       </c>
-      <c r="AA50" t="s">
-        <v>1401</v>
-      </c>
       <c r="AB50">
         <v>1</v>
       </c>
       <c r="AC50" t="s">
-        <v>877</v>
+        <v>839</v>
       </c>
     </row>
     <row r="51" spans="2:29">
@@ -19903,16 +19903,16 @@
         <v>1025</v>
       </c>
       <c r="Z51" t="s">
+        <v>1401</v>
+      </c>
+      <c r="AA51" t="s">
         <v>1402</v>
       </c>
-      <c r="AA51" t="s">
-        <v>1403</v>
-      </c>
       <c r="AB51">
         <v>1</v>
       </c>
       <c r="AC51" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
     </row>
     <row r="52" spans="2:29">
@@ -19980,16 +19980,16 @@
         <v>1027</v>
       </c>
       <c r="Z52" t="s">
+        <v>1403</v>
+      </c>
+      <c r="AA52" t="s">
         <v>1404</v>
       </c>
-      <c r="AA52" t="s">
-        <v>1405</v>
-      </c>
       <c r="AB52">
         <v>1</v>
       </c>
       <c r="AC52" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
     </row>
     <row r="53" spans="2:29">
@@ -20057,16 +20057,16 @@
         <v>1029</v>
       </c>
       <c r="Z53" t="s">
+        <v>1405</v>
+      </c>
+      <c r="AA53" t="s">
         <v>1406</v>
       </c>
-      <c r="AA53" t="s">
-        <v>1407</v>
-      </c>
       <c r="AB53">
         <v>1</v>
       </c>
       <c r="AC53" t="s">
-        <v>853</v>
+        <v>653</v>
       </c>
     </row>
     <row r="54" spans="2:29">
@@ -20134,16 +20134,16 @@
         <v>1031</v>
       </c>
       <c r="Z54" t="s">
+        <v>1407</v>
+      </c>
+      <c r="AA54" t="s">
         <v>1408</v>
       </c>
-      <c r="AA54" t="s">
-        <v>1409</v>
-      </c>
       <c r="AB54">
         <v>1</v>
       </c>
       <c r="AC54" t="s">
-        <v>619</v>
+        <v>743</v>
       </c>
     </row>
     <row r="55" spans="2:29">
@@ -20211,16 +20211,16 @@
         <v>1033</v>
       </c>
       <c r="Z55" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AA55" t="s">
         <v>1410</v>
       </c>
-      <c r="AA55" t="s">
-        <v>1411</v>
-      </c>
       <c r="AB55">
         <v>1</v>
       </c>
       <c r="AC55" t="s">
-        <v>679</v>
+        <v>575</v>
       </c>
     </row>
     <row r="56" spans="2:29">
@@ -20288,16 +20288,16 @@
         <v>1035</v>
       </c>
       <c r="Z56" t="s">
+        <v>1411</v>
+      </c>
+      <c r="AA56" t="s">
         <v>1412</v>
       </c>
-      <c r="AA56" t="s">
-        <v>1413</v>
-      </c>
       <c r="AB56">
         <v>1</v>
       </c>
       <c r="AC56" t="s">
-        <v>699</v>
+        <v>727</v>
       </c>
     </row>
     <row r="57" spans="2:29">
@@ -20365,16 +20365,16 @@
         <v>1037</v>
       </c>
       <c r="Z57" t="s">
+        <v>1413</v>
+      </c>
+      <c r="AA57" t="s">
         <v>1414</v>
       </c>
-      <c r="AA57" t="s">
-        <v>1415</v>
-      </c>
       <c r="AB57">
         <v>1</v>
       </c>
       <c r="AC57" t="s">
-        <v>843</v>
+        <v>885</v>
       </c>
     </row>
     <row r="58" spans="2:29">
@@ -20442,16 +20442,16 @@
         <v>1039</v>
       </c>
       <c r="Z58" t="s">
+        <v>1415</v>
+      </c>
+      <c r="AA58" t="s">
         <v>1416</v>
       </c>
-      <c r="AA58" t="s">
-        <v>1417</v>
-      </c>
       <c r="AB58">
         <v>1</v>
       </c>
       <c r="AC58" t="s">
-        <v>795</v>
+        <v>813</v>
       </c>
     </row>
     <row r="59" spans="2:29">
@@ -20519,16 +20519,16 @@
         <v>1041</v>
       </c>
       <c r="Z59" t="s">
+        <v>1417</v>
+      </c>
+      <c r="AA59" t="s">
         <v>1418</v>
       </c>
-      <c r="AA59" t="s">
-        <v>1419</v>
-      </c>
       <c r="AB59">
         <v>1</v>
       </c>
       <c r="AC59" t="s">
-        <v>835</v>
+        <v>911</v>
       </c>
     </row>
     <row r="60" spans="2:29">
@@ -20596,16 +20596,16 @@
         <v>1043</v>
       </c>
       <c r="Z60" t="s">
+        <v>1419</v>
+      </c>
+      <c r="AA60" t="s">
         <v>1420</v>
       </c>
-      <c r="AA60" t="s">
-        <v>1421</v>
-      </c>
       <c r="AB60">
         <v>1</v>
       </c>
       <c r="AC60" t="s">
-        <v>671</v>
+        <v>927</v>
       </c>
     </row>
     <row r="61" spans="2:29">
@@ -20673,16 +20673,16 @@
         <v>1045</v>
       </c>
       <c r="Z61" t="s">
+        <v>1421</v>
+      </c>
+      <c r="AA61" t="s">
         <v>1422</v>
       </c>
-      <c r="AA61" t="s">
-        <v>1423</v>
-      </c>
       <c r="AB61">
         <v>1</v>
       </c>
       <c r="AC61" t="s">
-        <v>923</v>
+        <v>893</v>
       </c>
     </row>
     <row r="62" spans="2:29">
@@ -20750,16 +20750,16 @@
         <v>1047</v>
       </c>
       <c r="Z62" t="s">
+        <v>1423</v>
+      </c>
+      <c r="AA62" t="s">
         <v>1424</v>
       </c>
-      <c r="AA62" t="s">
-        <v>1425</v>
-      </c>
       <c r="AB62">
         <v>1</v>
       </c>
       <c r="AC62" t="s">
-        <v>721</v>
+        <v>871</v>
       </c>
     </row>
     <row r="63" spans="2:29">
@@ -20827,16 +20827,16 @@
         <v>1049</v>
       </c>
       <c r="Z63" t="s">
+        <v>1425</v>
+      </c>
+      <c r="AA63" t="s">
         <v>1426</v>
       </c>
-      <c r="AA63" t="s">
-        <v>1427</v>
-      </c>
       <c r="AB63">
         <v>1</v>
       </c>
       <c r="AC63" t="s">
-        <v>915</v>
+        <v>717</v>
       </c>
     </row>
     <row r="64" spans="2:29">
@@ -20904,16 +20904,16 @@
         <v>1051</v>
       </c>
       <c r="Z64" t="s">
+        <v>1427</v>
+      </c>
+      <c r="AA64" t="s">
         <v>1428</v>
       </c>
-      <c r="AA64" t="s">
-        <v>1429</v>
-      </c>
       <c r="AB64">
         <v>1</v>
       </c>
       <c r="AC64" t="s">
-        <v>599</v>
+        <v>777</v>
       </c>
     </row>
     <row r="65" spans="2:29">
@@ -20981,16 +20981,16 @@
         <v>1053</v>
       </c>
       <c r="Z65" t="s">
+        <v>1429</v>
+      </c>
+      <c r="AA65" t="s">
         <v>1430</v>
       </c>
-      <c r="AA65" t="s">
-        <v>1431</v>
-      </c>
       <c r="AB65">
         <v>1</v>
       </c>
       <c r="AC65" t="s">
-        <v>657</v>
+        <v>687</v>
       </c>
     </row>
     <row r="66" spans="2:29">
@@ -21058,16 +21058,16 @@
         <v>1055</v>
       </c>
       <c r="Z66" t="s">
+        <v>1431</v>
+      </c>
+      <c r="AA66" t="s">
         <v>1432</v>
       </c>
-      <c r="AA66" t="s">
-        <v>1433</v>
-      </c>
       <c r="AB66">
         <v>1</v>
       </c>
       <c r="AC66" t="s">
-        <v>809</v>
+        <v>621</v>
       </c>
     </row>
     <row r="67" spans="2:29">
@@ -21135,16 +21135,16 @@
         <v>1057</v>
       </c>
       <c r="Z67" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AA67" t="s">
         <v>1434</v>
       </c>
-      <c r="AA67" t="s">
-        <v>1435</v>
-      </c>
       <c r="AB67">
         <v>1</v>
       </c>
       <c r="AC67" t="s">
-        <v>757</v>
+        <v>591</v>
       </c>
     </row>
     <row r="68" spans="2:29">
@@ -21212,16 +21212,16 @@
         <v>1059</v>
       </c>
       <c r="Z68" t="s">
+        <v>1435</v>
+      </c>
+      <c r="AA68" t="s">
         <v>1436</v>
       </c>
-      <c r="AA68" t="s">
-        <v>1437</v>
-      </c>
       <c r="AB68">
         <v>1</v>
       </c>
       <c r="AC68" t="s">
-        <v>933</v>
+        <v>749</v>
       </c>
     </row>
     <row r="69" spans="2:29">
@@ -21289,16 +21289,16 @@
         <v>1061</v>
       </c>
       <c r="Z69" t="s">
+        <v>1437</v>
+      </c>
+      <c r="AA69" t="s">
         <v>1438</v>
       </c>
-      <c r="AA69" t="s">
-        <v>1439</v>
-      </c>
       <c r="AB69">
         <v>1</v>
       </c>
       <c r="AC69" t="s">
-        <v>907</v>
+        <v>723</v>
       </c>
     </row>
     <row r="70" spans="2:29">
@@ -21366,16 +21366,16 @@
         <v>1063</v>
       </c>
       <c r="Z70" t="s">
+        <v>1439</v>
+      </c>
+      <c r="AA70" t="s">
         <v>1440</v>
       </c>
-      <c r="AA70" t="s">
-        <v>1441</v>
-      </c>
       <c r="AB70">
         <v>1</v>
       </c>
       <c r="AC70" t="s">
-        <v>845</v>
+        <v>673</v>
       </c>
     </row>
     <row r="71" spans="2:29">
@@ -21443,16 +21443,16 @@
         <v>1065</v>
       </c>
       <c r="Z71" t="s">
+        <v>1441</v>
+      </c>
+      <c r="AA71" t="s">
         <v>1442</v>
       </c>
-      <c r="AA71" t="s">
-        <v>1443</v>
-      </c>
       <c r="AB71">
         <v>1</v>
       </c>
       <c r="AC71" t="s">
-        <v>861</v>
+        <v>765</v>
       </c>
     </row>
     <row r="72" spans="2:29">
@@ -21520,16 +21520,16 @@
         <v>1067</v>
       </c>
       <c r="Z72" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AA72" t="s">
         <v>1444</v>
       </c>
-      <c r="AA72" t="s">
-        <v>1445</v>
-      </c>
       <c r="AB72">
         <v>1</v>
       </c>
       <c r="AC72" t="s">
-        <v>635</v>
+        <v>681</v>
       </c>
     </row>
     <row r="73" spans="2:29">
@@ -21597,16 +21597,16 @@
         <v>1069</v>
       </c>
       <c r="Z73" t="s">
+        <v>1445</v>
+      </c>
+      <c r="AA73" t="s">
         <v>1446</v>
       </c>
-      <c r="AA73" t="s">
-        <v>1447</v>
-      </c>
       <c r="AB73">
         <v>1</v>
       </c>
       <c r="AC73" t="s">
-        <v>785</v>
+        <v>745</v>
       </c>
     </row>
     <row r="74" spans="2:29">
@@ -21674,16 +21674,16 @@
         <v>1071</v>
       </c>
       <c r="Z74" t="s">
+        <v>1447</v>
+      </c>
+      <c r="AA74" t="s">
         <v>1448</v>
       </c>
-      <c r="AA74" t="s">
-        <v>1449</v>
-      </c>
       <c r="AB74">
         <v>1</v>
       </c>
       <c r="AC74" t="s">
-        <v>571</v>
+        <v>603</v>
       </c>
     </row>
     <row r="75" spans="2:29">
@@ -21751,16 +21751,16 @@
         <v>1073</v>
       </c>
       <c r="Z75" t="s">
+        <v>1449</v>
+      </c>
+      <c r="AA75" t="s">
         <v>1450</v>
       </c>
-      <c r="AA75" t="s">
-        <v>1451</v>
-      </c>
       <c r="AB75">
         <v>1</v>
       </c>
       <c r="AC75" t="s">
-        <v>675</v>
+        <v>857</v>
       </c>
     </row>
     <row r="76" spans="2:29">
@@ -21828,16 +21828,16 @@
         <v>1075</v>
       </c>
       <c r="Z76" t="s">
+        <v>1451</v>
+      </c>
+      <c r="AA76" t="s">
         <v>1452</v>
       </c>
-      <c r="AA76" t="s">
-        <v>1453</v>
-      </c>
       <c r="AB76">
         <v>1</v>
       </c>
       <c r="AC76" t="s">
-        <v>863</v>
+        <v>905</v>
       </c>
     </row>
     <row r="77" spans="2:29">
@@ -21905,16 +21905,16 @@
         <v>1077</v>
       </c>
       <c r="Z77" t="s">
+        <v>1453</v>
+      </c>
+      <c r="AA77" t="s">
         <v>1454</v>
       </c>
-      <c r="AA77" t="s">
-        <v>1455</v>
-      </c>
       <c r="AB77">
         <v>1</v>
       </c>
       <c r="AC77" t="s">
-        <v>629</v>
+        <v>697</v>
       </c>
     </row>
     <row r="78" spans="2:29">
@@ -21982,16 +21982,16 @@
         <v>1079</v>
       </c>
       <c r="Z78" t="s">
+        <v>1455</v>
+      </c>
+      <c r="AA78" t="s">
         <v>1456</v>
       </c>
-      <c r="AA78" t="s">
-        <v>1457</v>
-      </c>
       <c r="AB78">
         <v>1</v>
       </c>
       <c r="AC78" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="79" spans="2:29">
@@ -22059,16 +22059,16 @@
         <v>1081</v>
       </c>
       <c r="Z79" t="s">
+        <v>1457</v>
+      </c>
+      <c r="AA79" t="s">
         <v>1458</v>
       </c>
-      <c r="AA79" t="s">
-        <v>1459</v>
-      </c>
       <c r="AB79">
         <v>1</v>
       </c>
       <c r="AC79" t="s">
-        <v>883</v>
+        <v>607</v>
       </c>
     </row>
     <row r="80" spans="2:29">
@@ -22136,16 +22136,16 @@
         <v>1083</v>
       </c>
       <c r="Z80" t="s">
+        <v>1459</v>
+      </c>
+      <c r="AA80" t="s">
         <v>1460</v>
       </c>
-      <c r="AA80" t="s">
-        <v>1461</v>
-      </c>
       <c r="AB80">
         <v>1</v>
       </c>
       <c r="AC80" t="s">
-        <v>781</v>
+        <v>725</v>
       </c>
     </row>
     <row r="81" spans="2:29">
@@ -22213,16 +22213,16 @@
         <v>1085</v>
       </c>
       <c r="Z81" t="s">
+        <v>1461</v>
+      </c>
+      <c r="AA81" t="s">
         <v>1462</v>
       </c>
-      <c r="AA81" t="s">
-        <v>1463</v>
-      </c>
       <c r="AB81">
         <v>1</v>
       </c>
       <c r="AC81" t="s">
-        <v>891</v>
+        <v>735</v>
       </c>
     </row>
     <row r="82" spans="2:29">
@@ -22290,16 +22290,16 @@
         <v>1087</v>
       </c>
       <c r="Z82" t="s">
+        <v>1463</v>
+      </c>
+      <c r="AA82" t="s">
         <v>1464</v>
       </c>
-      <c r="AA82" t="s">
-        <v>1465</v>
-      </c>
       <c r="AB82">
         <v>1</v>
       </c>
       <c r="AC82" t="s">
-        <v>609</v>
+        <v>703</v>
       </c>
     </row>
     <row r="83" spans="2:29">
@@ -22367,16 +22367,16 @@
         <v>1089</v>
       </c>
       <c r="Z83" t="s">
+        <v>1465</v>
+      </c>
+      <c r="AA83" t="s">
         <v>1466</v>
       </c>
-      <c r="AA83" t="s">
-        <v>1467</v>
-      </c>
       <c r="AB83">
         <v>1</v>
       </c>
       <c r="AC83" t="s">
-        <v>755</v>
+        <v>803</v>
       </c>
     </row>
     <row r="84" spans="2:29">
@@ -22444,16 +22444,16 @@
         <v>1091</v>
       </c>
       <c r="Z84" t="s">
+        <v>1467</v>
+      </c>
+      <c r="AA84" t="s">
         <v>1468</v>
       </c>
-      <c r="AA84" t="s">
-        <v>1469</v>
-      </c>
       <c r="AB84">
         <v>1</v>
       </c>
       <c r="AC84" t="s">
-        <v>869</v>
+        <v>849</v>
       </c>
     </row>
     <row r="85" spans="2:29">
@@ -22521,16 +22521,16 @@
         <v>1093</v>
       </c>
       <c r="Z85" t="s">
+        <v>1469</v>
+      </c>
+      <c r="AA85" t="s">
         <v>1470</v>
       </c>
-      <c r="AA85" t="s">
-        <v>1381</v>
-      </c>
       <c r="AB85">
         <v>1</v>
       </c>
       <c r="AC85" t="s">
-        <v>899</v>
+        <v>879</v>
       </c>
     </row>
     <row r="86" spans="2:29">
@@ -22607,7 +22607,7 @@
         <v>1</v>
       </c>
       <c r="AC86" t="s">
-        <v>593</v>
+        <v>623</v>
       </c>
     </row>
     <row r="87" spans="2:29">
@@ -22684,7 +22684,7 @@
         <v>1</v>
       </c>
       <c r="AC87" t="s">
-        <v>617</v>
+        <v>565</v>
       </c>
     </row>
     <row r="88" spans="2:29">
@@ -22761,7 +22761,7 @@
         <v>1</v>
       </c>
       <c r="AC88" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
     </row>
     <row r="89" spans="2:29">
@@ -22838,7 +22838,7 @@
         <v>1</v>
       </c>
       <c r="AC89" t="s">
-        <v>827</v>
+        <v>889</v>
       </c>
     </row>
     <row r="90" spans="2:29">
@@ -22915,7 +22915,7 @@
         <v>1</v>
       </c>
       <c r="AC90" t="s">
-        <v>661</v>
+        <v>761</v>
       </c>
     </row>
     <row r="91" spans="2:29">
@@ -22992,7 +22992,7 @@
         <v>1</v>
       </c>
       <c r="AC91" t="s">
-        <v>627</v>
+        <v>597</v>
       </c>
     </row>
     <row r="92" spans="2:29">
@@ -23069,7 +23069,7 @@
         <v>1</v>
       </c>
       <c r="AC92" t="s">
-        <v>625</v>
+        <v>867</v>
       </c>
     </row>
     <row r="93" spans="2:29">
@@ -23146,7 +23146,7 @@
         <v>1</v>
       </c>
       <c r="AC93" t="s">
-        <v>909</v>
+        <v>865</v>
       </c>
     </row>
     <row r="94" spans="2:29">
@@ -23223,7 +23223,7 @@
         <v>1</v>
       </c>
       <c r="AC94" t="s">
-        <v>631</v>
+        <v>767</v>
       </c>
     </row>
     <row r="95" spans="2:29">
@@ -23300,7 +23300,7 @@
         <v>1</v>
       </c>
       <c r="AC95" t="s">
-        <v>833</v>
+        <v>585</v>
       </c>
     </row>
     <row r="96" spans="2:29">
@@ -23377,7 +23377,7 @@
         <v>1</v>
       </c>
       <c r="AC96" t="s">
-        <v>695</v>
+        <v>807</v>
       </c>
     </row>
     <row r="97" spans="2:29">
@@ -23454,7 +23454,7 @@
         <v>1</v>
       </c>
       <c r="AC97" t="s">
-        <v>651</v>
+        <v>587</v>
       </c>
     </row>
     <row r="98" spans="2:29">
@@ -23531,7 +23531,7 @@
         <v>1</v>
       </c>
       <c r="AC98" t="s">
-        <v>913</v>
+        <v>581</v>
       </c>
     </row>
     <row r="99" spans="2:29">
@@ -23602,13 +23602,13 @@
         <v>1497</v>
       </c>
       <c r="AA99" t="s">
-        <v>1498</v>
+        <v>1349</v>
       </c>
       <c r="AB99">
         <v>1</v>
       </c>
       <c r="AC99" t="s">
-        <v>791</v>
+        <v>901</v>
       </c>
     </row>
     <row r="100" spans="2:29">
@@ -23676,16 +23676,16 @@
         <v>1123</v>
       </c>
       <c r="Z100" t="s">
+        <v>1498</v>
+      </c>
+      <c r="AA100" t="s">
         <v>1499</v>
       </c>
-      <c r="AA100" t="s">
-        <v>1500</v>
-      </c>
       <c r="AB100">
         <v>1</v>
       </c>
       <c r="AC100" t="s">
-        <v>701</v>
+        <v>747</v>
       </c>
     </row>
     <row r="101" spans="2:29">
@@ -23753,16 +23753,16 @@
         <v>1125</v>
       </c>
       <c r="Z101" t="s">
+        <v>1500</v>
+      </c>
+      <c r="AA101" t="s">
         <v>1501</v>
       </c>
-      <c r="AA101" t="s">
-        <v>1502</v>
-      </c>
       <c r="AB101">
         <v>1</v>
       </c>
       <c r="AC101" t="s">
-        <v>921</v>
+        <v>753</v>
       </c>
     </row>
     <row r="102" spans="2:29">
@@ -23830,16 +23830,16 @@
         <v>1127</v>
       </c>
       <c r="Z102" t="s">
+        <v>1502</v>
+      </c>
+      <c r="AA102" t="s">
         <v>1503</v>
       </c>
-      <c r="AA102" t="s">
-        <v>1504</v>
-      </c>
       <c r="AB102">
         <v>1</v>
       </c>
       <c r="AC102" t="s">
-        <v>665</v>
+        <v>695</v>
       </c>
     </row>
     <row r="103" spans="2:29">
@@ -23907,16 +23907,16 @@
         <v>1129</v>
       </c>
       <c r="Z103" t="s">
+        <v>1504</v>
+      </c>
+      <c r="AA103" t="s">
         <v>1505</v>
       </c>
-      <c r="AA103" t="s">
-        <v>1506</v>
-      </c>
       <c r="AB103">
         <v>1</v>
       </c>
       <c r="AC103" t="s">
-        <v>811</v>
+        <v>651</v>
       </c>
     </row>
     <row r="104" spans="2:29">
@@ -23984,16 +23984,16 @@
         <v>1131</v>
       </c>
       <c r="Z104" t="s">
+        <v>1506</v>
+      </c>
+      <c r="AA104" t="s">
         <v>1507</v>
       </c>
-      <c r="AA104" t="s">
-        <v>1508</v>
-      </c>
       <c r="AB104">
         <v>1</v>
       </c>
       <c r="AC104" t="s">
-        <v>655</v>
+        <v>913</v>
       </c>
     </row>
     <row r="105" spans="2:29">
@@ -24061,16 +24061,16 @@
         <v>1133</v>
       </c>
       <c r="Z105" t="s">
+        <v>1508</v>
+      </c>
+      <c r="AA105" t="s">
         <v>1509</v>
       </c>
-      <c r="AA105" t="s">
-        <v>1401</v>
-      </c>
       <c r="AB105">
         <v>1</v>
       </c>
       <c r="AC105" t="s">
-        <v>875</v>
+        <v>791</v>
       </c>
     </row>
     <row r="106" spans="2:29">
@@ -24147,7 +24147,7 @@
         <v>1</v>
       </c>
       <c r="AC106" t="s">
-        <v>821</v>
+        <v>701</v>
       </c>
     </row>
     <row r="107" spans="2:29">
@@ -24224,7 +24224,7 @@
         <v>1</v>
       </c>
       <c r="AC107" t="s">
-        <v>605</v>
+        <v>921</v>
       </c>
     </row>
     <row r="108" spans="2:29">
@@ -24301,7 +24301,7 @@
         <v>1</v>
       </c>
       <c r="AC108" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="109" spans="2:29">
@@ -24378,7 +24378,7 @@
         <v>1</v>
       </c>
       <c r="AC109" t="s">
-        <v>669</v>
+        <v>811</v>
       </c>
     </row>
     <row r="110" spans="2:29">
@@ -24455,7 +24455,7 @@
         <v>1</v>
       </c>
       <c r="AC110" t="s">
-        <v>925</v>
+        <v>655</v>
       </c>
     </row>
     <row r="111" spans="2:29">
@@ -24532,7 +24532,7 @@
         <v>1</v>
       </c>
       <c r="AC111" t="s">
-        <v>687</v>
+        <v>875</v>
       </c>
     </row>
     <row r="112" spans="2:29">
@@ -24609,7 +24609,7 @@
         <v>1</v>
       </c>
       <c r="AC112" t="s">
-        <v>621</v>
+        <v>821</v>
       </c>
     </row>
     <row r="113" spans="2:29">
@@ -24686,7 +24686,7 @@
         <v>1</v>
       </c>
       <c r="AC113" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
     </row>
     <row r="114" spans="2:29">
@@ -24763,7 +24763,7 @@
         <v>1</v>
       </c>
       <c r="AC114" t="s">
-        <v>749</v>
+        <v>667</v>
       </c>
     </row>
     <row r="115" spans="2:29">
@@ -24840,7 +24840,7 @@
         <v>1</v>
       </c>
       <c r="AC115" t="s">
-        <v>723</v>
+        <v>669</v>
       </c>
     </row>
     <row r="116" spans="2:29">
@@ -24911,13 +24911,13 @@
         <v>1530</v>
       </c>
       <c r="AA116" t="s">
-        <v>1531</v>
+        <v>1420</v>
       </c>
       <c r="AB116">
         <v>1</v>
       </c>
       <c r="AC116" t="s">
-        <v>673</v>
+        <v>925</v>
       </c>
     </row>
     <row r="117" spans="2:29">
@@ -24985,16 +24985,16 @@
         <v>1157</v>
       </c>
       <c r="Z117" t="s">
+        <v>1531</v>
+      </c>
+      <c r="AA117" t="s">
         <v>1532</v>
       </c>
-      <c r="AA117" t="s">
-        <v>1533</v>
-      </c>
       <c r="AB117">
         <v>1</v>
       </c>
       <c r="AC117" t="s">
-        <v>765</v>
+        <v>817</v>
       </c>
     </row>
     <row r="118" spans="2:29">
@@ -25062,16 +25062,16 @@
         <v>1159</v>
       </c>
       <c r="Z118" t="s">
+        <v>1533</v>
+      </c>
+      <c r="AA118" t="s">
         <v>1534</v>
       </c>
-      <c r="AA118" t="s">
-        <v>1535</v>
-      </c>
       <c r="AB118">
         <v>1</v>
       </c>
       <c r="AC118" t="s">
-        <v>681</v>
+        <v>649</v>
       </c>
     </row>
     <row r="119" spans="2:29">
@@ -25139,16 +25139,16 @@
         <v>1161</v>
       </c>
       <c r="Z119" t="s">
+        <v>1535</v>
+      </c>
+      <c r="AA119" t="s">
         <v>1536</v>
       </c>
-      <c r="AA119" t="s">
-        <v>1537</v>
-      </c>
       <c r="AB119">
         <v>1</v>
       </c>
       <c r="AC119" t="s">
-        <v>745</v>
+        <v>715</v>
       </c>
     </row>
     <row r="120" spans="2:29">
@@ -25216,16 +25216,16 @@
         <v>1163</v>
       </c>
       <c r="Z120" t="s">
+        <v>1537</v>
+      </c>
+      <c r="AA120" t="s">
         <v>1538</v>
       </c>
-      <c r="AA120" t="s">
-        <v>1539</v>
-      </c>
       <c r="AB120">
         <v>1</v>
       </c>
       <c r="AC120" t="s">
-        <v>603</v>
+        <v>873</v>
       </c>
     </row>
     <row r="121" spans="2:29">
@@ -25293,16 +25293,16 @@
         <v>1165</v>
       </c>
       <c r="Z121" t="s">
+        <v>1539</v>
+      </c>
+      <c r="AA121" t="s">
         <v>1540</v>
       </c>
-      <c r="AA121" t="s">
-        <v>1335</v>
-      </c>
       <c r="AB121">
         <v>1</v>
       </c>
       <c r="AC121" t="s">
-        <v>857</v>
+        <v>769</v>
       </c>
     </row>
     <row r="122" spans="2:29">
@@ -25373,13 +25373,13 @@
         <v>1541</v>
       </c>
       <c r="AA122" t="s">
-        <v>1439</v>
+        <v>1542</v>
       </c>
       <c r="AB122">
         <v>1</v>
       </c>
       <c r="AC122" t="s">
-        <v>905</v>
+        <v>569</v>
       </c>
     </row>
     <row r="123" spans="2:29">
@@ -25447,16 +25447,16 @@
         <v>1169</v>
       </c>
       <c r="Z123" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="AA123" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="AB123">
         <v>1</v>
       </c>
       <c r="AC123" t="s">
-        <v>823</v>
+        <v>799</v>
       </c>
     </row>
     <row r="124" spans="2:29">
@@ -25524,16 +25524,16 @@
         <v>1171</v>
       </c>
       <c r="Z124" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="AA124" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="AB124">
         <v>1</v>
       </c>
       <c r="AC124" t="s">
-        <v>881</v>
+        <v>847</v>
       </c>
     </row>
     <row r="125" spans="2:29">
@@ -25601,16 +25601,16 @@
         <v>1173</v>
       </c>
       <c r="Z125" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="AA125" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="AB125">
         <v>1</v>
       </c>
       <c r="AC125" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="126" spans="2:29">
@@ -25678,16 +25678,16 @@
         <v>1175</v>
       </c>
       <c r="Z126" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="AA126" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="AB126">
         <v>1</v>
       </c>
       <c r="AC126" t="s">
-        <v>759</v>
+        <v>895</v>
       </c>
     </row>
     <row r="127" spans="2:29">
@@ -25755,16 +25755,16 @@
         <v>1177</v>
       </c>
       <c r="Z127" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="AA127" t="s">
-        <v>1551</v>
+        <v>1466</v>
       </c>
       <c r="AB127">
         <v>1</v>
       </c>
       <c r="AC127" t="s">
-        <v>659</v>
+        <v>801</v>
       </c>
     </row>
     <row r="128" spans="2:29">
@@ -25841,7 +25841,7 @@
         <v>1</v>
       </c>
       <c r="AC128" t="s">
-        <v>633</v>
+        <v>937</v>
       </c>
     </row>
     <row r="129" spans="2:29">
@@ -25918,7 +25918,7 @@
         <v>1</v>
       </c>
       <c r="AC129" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
     </row>
     <row r="130" spans="2:29">
@@ -25995,7 +25995,7 @@
         <v>1</v>
       </c>
       <c r="AC130" t="s">
-        <v>711</v>
+        <v>595</v>
       </c>
     </row>
     <row r="131" spans="2:29">
@@ -26072,7 +26072,7 @@
         <v>1</v>
       </c>
       <c r="AC131" t="s">
-        <v>763</v>
+        <v>929</v>
       </c>
     </row>
     <row r="132" spans="2:29">
@@ -26143,13 +26143,13 @@
         <v>1560</v>
       </c>
       <c r="AA132" t="s">
-        <v>1417</v>
+        <v>1561</v>
       </c>
       <c r="AB132">
         <v>1</v>
       </c>
       <c r="AC132" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
     </row>
     <row r="133" spans="2:29">
@@ -26217,16 +26217,16 @@
         <v>1189</v>
       </c>
       <c r="Z133" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="AA133" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="AB133">
         <v>1</v>
       </c>
       <c r="AC133" t="s">
-        <v>841</v>
+        <v>719</v>
       </c>
     </row>
     <row r="134" spans="2:29">
@@ -26294,16 +26294,16 @@
         <v>1191</v>
       </c>
       <c r="Z134" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="AA134" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="AB134">
         <v>1</v>
       </c>
       <c r="AC134" t="s">
-        <v>855</v>
+        <v>589</v>
       </c>
     </row>
     <row r="135" spans="2:29">
@@ -26371,16 +26371,16 @@
         <v>1193</v>
       </c>
       <c r="Z135" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="AA135" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="AB135">
         <v>1</v>
       </c>
       <c r="AC135" t="s">
-        <v>805</v>
+        <v>815</v>
       </c>
     </row>
     <row r="136" spans="2:29">
@@ -26448,16 +26448,16 @@
         <v>1195</v>
       </c>
       <c r="Z136" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="AA136" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="AB136">
         <v>1</v>
       </c>
       <c r="AC136" t="s">
-        <v>903</v>
+        <v>579</v>
       </c>
     </row>
     <row r="137" spans="2:29">
@@ -26525,16 +26525,16 @@
         <v>1197</v>
       </c>
       <c r="Z137" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="AA137" t="s">
-        <v>1570</v>
+        <v>1521</v>
       </c>
       <c r="AB137">
         <v>1</v>
       </c>
       <c r="AC137" t="s">
-        <v>751</v>
+        <v>877</v>
       </c>
     </row>
     <row r="138" spans="2:29">
@@ -26611,7 +26611,7 @@
         <v>1</v>
       </c>
       <c r="AC138" t="s">
-        <v>645</v>
+        <v>729</v>
       </c>
     </row>
     <row r="139" spans="2:29">
@@ -26688,7 +26688,7 @@
         <v>1</v>
       </c>
       <c r="AC139" t="s">
-        <v>601</v>
+        <v>645</v>
       </c>
     </row>
     <row r="140" spans="2:29">
@@ -26765,7 +26765,7 @@
         <v>1</v>
       </c>
       <c r="AC140" t="s">
-        <v>709</v>
+        <v>601</v>
       </c>
     </row>
     <row r="141" spans="2:29">
@@ -26842,7 +26842,7 @@
         <v>1</v>
       </c>
       <c r="AC141" t="s">
-        <v>771</v>
+        <v>709</v>
       </c>
     </row>
     <row r="142" spans="2:29">
@@ -26919,7 +26919,7 @@
         <v>1</v>
       </c>
       <c r="AC142" t="s">
-        <v>825</v>
+        <v>771</v>
       </c>
     </row>
     <row r="143" spans="2:29">
@@ -26996,7 +26996,7 @@
         <v>1</v>
       </c>
       <c r="AC143" t="s">
-        <v>691</v>
+        <v>825</v>
       </c>
     </row>
     <row r="144" spans="2:29">
@@ -27073,7 +27073,7 @@
         <v>1</v>
       </c>
       <c r="AC144" t="s">
-        <v>935</v>
+        <v>691</v>
       </c>
     </row>
     <row r="145" spans="2:29">
@@ -27150,7 +27150,7 @@
         <v>1</v>
       </c>
       <c r="AC145" t="s">
-        <v>773</v>
+        <v>935</v>
       </c>
     </row>
     <row r="146" spans="2:29">
@@ -27227,7 +27227,7 @@
         <v>1</v>
       </c>
       <c r="AC146" t="s">
-        <v>739</v>
+        <v>773</v>
       </c>
     </row>
     <row r="147" spans="2:29">
@@ -27304,7 +27304,7 @@
         <v>1</v>
       </c>
       <c r="AC147" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="148" spans="2:29">
@@ -27381,7 +27381,7 @@
         <v>1</v>
       </c>
       <c r="AC148" t="s">
-        <v>611</v>
+        <v>741</v>
       </c>
     </row>
     <row r="149" spans="2:29">
@@ -27458,7 +27458,7 @@
         <v>1</v>
       </c>
       <c r="AC149" t="s">
-        <v>837</v>
+        <v>611</v>
       </c>
     </row>
     <row r="150" spans="2:29">
@@ -27529,13 +27529,13 @@
         <v>1595</v>
       </c>
       <c r="AA150" t="s">
-        <v>1445</v>
+        <v>1596</v>
       </c>
       <c r="AB150">
         <v>1</v>
       </c>
       <c r="AC150" t="s">
-        <v>637</v>
+        <v>837</v>
       </c>
     </row>
     <row r="151" spans="2:29">
@@ -27603,16 +27603,16 @@
         <v>1225</v>
       </c>
       <c r="Z151" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="AA151" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="AB151">
         <v>1</v>
       </c>
       <c r="AC151" t="s">
-        <v>939</v>
+        <v>637</v>
       </c>
     </row>
     <row r="152" spans="2:29">
@@ -27680,16 +27680,16 @@
         <v>1227</v>
       </c>
       <c r="Z152" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="AA152" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="AB152">
         <v>1</v>
       </c>
       <c r="AC152" t="s">
-        <v>685</v>
+        <v>939</v>
       </c>
     </row>
     <row r="153" spans="2:29">
@@ -27757,16 +27757,16 @@
         <v>1229</v>
       </c>
       <c r="Z153" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="AA153" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="AB153">
         <v>1</v>
       </c>
       <c r="AC153" t="s">
-        <v>789</v>
+        <v>685</v>
       </c>
     </row>
     <row r="154" spans="2:29">
@@ -27834,16 +27834,16 @@
         <v>1231</v>
       </c>
       <c r="Z154" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="AA154" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="AB154">
         <v>1</v>
       </c>
       <c r="AC154" t="s">
-        <v>731</v>
+        <v>789</v>
       </c>
     </row>
     <row r="155" spans="2:29">
@@ -27911,16 +27911,16 @@
         <v>1233</v>
       </c>
       <c r="Z155" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="AA155" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="AB155">
         <v>1</v>
       </c>
       <c r="AC155" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
     </row>
     <row r="156" spans="2:29">
@@ -27988,16 +27988,16 @@
         <v>1235</v>
       </c>
       <c r="Z156" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="AA156" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="AB156">
         <v>1</v>
       </c>
       <c r="AC156" t="s">
-        <v>743</v>
+        <v>647</v>
       </c>
     </row>
     <row r="157" spans="2:29">
@@ -28065,16 +28065,16 @@
         <v>1237</v>
       </c>
       <c r="Z157" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="AA157" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="AB157">
         <v>1</v>
       </c>
       <c r="AC157" t="s">
-        <v>575</v>
+        <v>829</v>
       </c>
     </row>
     <row r="158" spans="2:29">
@@ -28142,16 +28142,16 @@
         <v>1239</v>
       </c>
       <c r="Z158" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="AA158" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="AB158">
         <v>1</v>
       </c>
       <c r="AC158" t="s">
-        <v>727</v>
+        <v>831</v>
       </c>
     </row>
     <row r="159" spans="2:29">
@@ -28219,16 +28219,16 @@
         <v>1241</v>
       </c>
       <c r="Z159" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="AA159" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="AB159">
         <v>1</v>
       </c>
       <c r="AC159" t="s">
-        <v>885</v>
+        <v>683</v>
       </c>
     </row>
     <row r="160" spans="2:29">
@@ -28296,16 +28296,16 @@
         <v>1243</v>
       </c>
       <c r="Z160" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="AA160" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="AB160">
         <v>1</v>
       </c>
       <c r="AC160" t="s">
-        <v>813</v>
+        <v>779</v>
       </c>
     </row>
     <row r="161" spans="2:29">
@@ -28373,16 +28373,16 @@
         <v>1245</v>
       </c>
       <c r="Z161" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="AA161" t="s">
-        <v>1617</v>
+        <v>1450</v>
       </c>
       <c r="AB161">
         <v>1</v>
       </c>
       <c r="AC161" t="s">
-        <v>911</v>
+        <v>859</v>
       </c>
     </row>
     <row r="162" spans="2:29">
@@ -28453,13 +28453,13 @@
         <v>1618</v>
       </c>
       <c r="AA162" t="s">
-        <v>1519</v>
+        <v>1619</v>
       </c>
       <c r="AB162">
         <v>1</v>
       </c>
       <c r="AC162" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
     </row>
     <row r="163" spans="2:29">
@@ -28527,16 +28527,16 @@
         <v>1249</v>
       </c>
       <c r="Z163" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="AA163" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="AB163">
         <v>1</v>
       </c>
       <c r="AC163" t="s">
-        <v>893</v>
+        <v>707</v>
       </c>
     </row>
     <row r="164" spans="2:29">
@@ -28604,16 +28604,16 @@
         <v>1251</v>
       </c>
       <c r="Z164" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="AA164" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="AB164">
         <v>1</v>
       </c>
       <c r="AC164" t="s">
-        <v>871</v>
+        <v>923</v>
       </c>
     </row>
     <row r="165" spans="2:29">
@@ -28681,16 +28681,16 @@
         <v>1253</v>
       </c>
       <c r="Z165" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="AA165" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="AB165">
         <v>1</v>
       </c>
       <c r="AC165" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
     </row>
     <row r="166" spans="2:29">
@@ -28758,16 +28758,16 @@
         <v>1255</v>
       </c>
       <c r="Z166" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="AA166" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="AB166">
         <v>1</v>
       </c>
       <c r="AC166" t="s">
-        <v>777</v>
+        <v>915</v>
       </c>
     </row>
     <row r="167" spans="2:29">
@@ -28835,16 +28835,16 @@
         <v>1257</v>
       </c>
       <c r="Z167" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="AA167" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="AB167">
         <v>1</v>
       </c>
       <c r="AC167" t="s">
-        <v>697</v>
+        <v>599</v>
       </c>
     </row>
     <row r="168" spans="2:29">
@@ -28912,16 +28912,16 @@
         <v>1259</v>
       </c>
       <c r="Z168" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="AA168" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="AB168">
         <v>1</v>
       </c>
       <c r="AC168" t="s">
-        <v>613</v>
+        <v>657</v>
       </c>
     </row>
     <row r="169" spans="2:29">
@@ -28989,16 +28989,16 @@
         <v>1261</v>
       </c>
       <c r="Z169" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="AA169" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="AB169">
         <v>1</v>
       </c>
       <c r="AC169" t="s">
-        <v>607</v>
+        <v>809</v>
       </c>
     </row>
     <row r="170" spans="2:29">
@@ -29066,16 +29066,16 @@
         <v>1263</v>
       </c>
       <c r="Z170" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="AA170" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="AB170">
         <v>1</v>
       </c>
       <c r="AC170" t="s">
-        <v>725</v>
+        <v>757</v>
       </c>
     </row>
     <row r="171" spans="2:29">
@@ -29143,16 +29143,16 @@
         <v>1265</v>
       </c>
       <c r="Z171" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="AA171" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="AB171">
         <v>1</v>
       </c>
       <c r="AC171" t="s">
-        <v>735</v>
+        <v>933</v>
       </c>
     </row>
     <row r="172" spans="2:29">
@@ -29220,16 +29220,16 @@
         <v>1267</v>
       </c>
       <c r="Z172" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="AA172" t="s">
-        <v>1638</v>
+        <v>1452</v>
       </c>
       <c r="AB172">
         <v>1</v>
       </c>
       <c r="AC172" t="s">
-        <v>703</v>
+        <v>907</v>
       </c>
     </row>
     <row r="173" spans="2:29">
@@ -29300,13 +29300,13 @@
         <v>1639</v>
       </c>
       <c r="AA173" t="s">
-        <v>1361</v>
+        <v>1640</v>
       </c>
       <c r="AB173">
         <v>1</v>
       </c>
       <c r="AC173" t="s">
-        <v>803</v>
+        <v>845</v>
       </c>
     </row>
     <row r="174" spans="2:29">
@@ -29374,16 +29374,16 @@
         <v>1271</v>
       </c>
       <c r="Z174" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="AA174" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="AB174">
         <v>1</v>
       </c>
       <c r="AC174" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
     </row>
     <row r="175" spans="2:29">
@@ -29451,16 +29451,16 @@
         <v>1273</v>
       </c>
       <c r="Z175" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="AA175" t="s">
-        <v>1643</v>
+        <v>1598</v>
       </c>
       <c r="AB175">
         <v>1</v>
       </c>
       <c r="AC175" t="s">
-        <v>879</v>
+        <v>635</v>
       </c>
     </row>
     <row r="176" spans="2:29">
@@ -29537,7 +29537,7 @@
         <v>1</v>
       </c>
       <c r="AC176" t="s">
-        <v>819</v>
+        <v>785</v>
       </c>
     </row>
     <row r="177" spans="2:29">
@@ -29614,7 +29614,7 @@
         <v>1</v>
       </c>
       <c r="AC177" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="178" spans="2:29">
@@ -29691,7 +29691,7 @@
         <v>1</v>
       </c>
       <c r="AC178" t="s">
-        <v>931</v>
+        <v>675</v>
       </c>
     </row>
     <row r="179" spans="2:29">
@@ -29768,7 +29768,7 @@
         <v>1</v>
       </c>
       <c r="AC179" t="s">
-        <v>733</v>
+        <v>863</v>
       </c>
     </row>
     <row r="180" spans="2:29">
@@ -29845,7 +29845,7 @@
         <v>1</v>
       </c>
       <c r="AC180" t="s">
-        <v>705</v>
+        <v>629</v>
       </c>
     </row>
     <row r="181" spans="2:29">
@@ -29922,7 +29922,7 @@
         <v>1</v>
       </c>
       <c r="AC181" t="s">
-        <v>839</v>
+        <v>615</v>
       </c>
     </row>
     <row r="182" spans="2:29">
@@ -29999,7 +29999,7 @@
         <v>1</v>
       </c>
       <c r="AC182" t="s">
-        <v>737</v>
+        <v>883</v>
       </c>
     </row>
     <row r="183" spans="2:29">
@@ -30076,7 +30076,7 @@
         <v>1</v>
       </c>
       <c r="AC183" t="s">
-        <v>623</v>
+        <v>781</v>
       </c>
     </row>
     <row r="184" spans="2:29">
@@ -30153,7 +30153,7 @@
         <v>1</v>
       </c>
       <c r="AC184" t="s">
-        <v>565</v>
+        <v>891</v>
       </c>
     </row>
     <row r="185" spans="2:29">
@@ -30230,7 +30230,7 @@
         <v>1</v>
       </c>
       <c r="AC185" t="s">
-        <v>677</v>
+        <v>609</v>
       </c>
     </row>
     <row r="186" spans="2:29">
@@ -30301,13 +30301,13 @@
         <v>1664</v>
       </c>
       <c r="AA186" t="s">
-        <v>1665</v>
+        <v>1501</v>
       </c>
       <c r="AB186">
         <v>1</v>
       </c>
       <c r="AC186" t="s">
-        <v>889</v>
+        <v>755</v>
       </c>
     </row>
     <row r="187" spans="2:29">
@@ -30375,16 +30375,16 @@
         <v>1297</v>
       </c>
       <c r="Z187" t="s">
+        <v>1665</v>
+      </c>
+      <c r="AA187" t="s">
         <v>1666</v>
       </c>
-      <c r="AA187" t="s">
-        <v>1667</v>
-      </c>
       <c r="AB187">
         <v>1</v>
       </c>
       <c r="AC187" t="s">
-        <v>761</v>
+        <v>869</v>
       </c>
     </row>
     <row r="188" spans="2:29">
@@ -30452,16 +30452,16 @@
         <v>1299</v>
       </c>
       <c r="Z188" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="AA188" t="s">
-        <v>1669</v>
+        <v>1384</v>
       </c>
       <c r="AB188">
         <v>1</v>
       </c>
       <c r="AC188" t="s">
-        <v>597</v>
+        <v>899</v>
       </c>
     </row>
     <row r="189" spans="2:29">
@@ -30529,16 +30529,16 @@
         <v>1301</v>
       </c>
       <c r="Z189" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="AA189" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="AB189">
         <v>1</v>
       </c>
       <c r="AC189" t="s">
-        <v>867</v>
+        <v>593</v>
       </c>
     </row>
     <row r="190" spans="2:29">
@@ -30606,16 +30606,16 @@
         <v>1303</v>
       </c>
       <c r="Z190" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="AA190" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="AB190">
         <v>1</v>
       </c>
       <c r="AC190" t="s">
-        <v>865</v>
+        <v>617</v>
       </c>
     </row>
     <row r="191" spans="2:29">
@@ -30683,16 +30683,16 @@
         <v>1305</v>
       </c>
       <c r="Z191" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="AA191" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="AB191">
         <v>1</v>
       </c>
       <c r="AC191" t="s">
-        <v>767</v>
+        <v>693</v>
       </c>
     </row>
     <row r="192" spans="2:29">
@@ -30760,16 +30760,16 @@
         <v>1307</v>
       </c>
       <c r="Z192" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="AA192" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="AB192">
         <v>1</v>
       </c>
       <c r="AC192" t="s">
-        <v>585</v>
+        <v>827</v>
       </c>
     </row>
     <row r="193" spans="2:29">
@@ -30837,16 +30837,16 @@
         <v>1309</v>
       </c>
       <c r="Z193" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="AA193" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="AB193">
         <v>1</v>
       </c>
       <c r="AC193" t="s">
-        <v>807</v>
+        <v>661</v>
       </c>
     </row>
     <row r="194" spans="2:29">
@@ -30914,16 +30914,16 @@
         <v>1311</v>
       </c>
       <c r="Z194" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="AA194" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="AB194">
         <v>1</v>
       </c>
       <c r="AC194" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
     </row>
     <row r="195" spans="2:29">
@@ -30991,16 +30991,16 @@
         <v>1313</v>
       </c>
       <c r="Z195" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="AA195" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="AB195">
         <v>1</v>
       </c>
       <c r="AC195" t="s">
-        <v>581</v>
+        <v>625</v>
       </c>
     </row>
     <row r="196" spans="2:29">
@@ -31068,16 +31068,16 @@
         <v>1315</v>
       </c>
       <c r="Z196" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="AA196" t="s">
-        <v>1568</v>
+        <v>1683</v>
       </c>
       <c r="AB196">
         <v>1</v>
       </c>
       <c r="AC196" t="s">
-        <v>901</v>
+        <v>909</v>
       </c>
     </row>
     <row r="197" spans="2:29">
@@ -31145,16 +31145,16 @@
         <v>1317</v>
       </c>
       <c r="Z197" t="s">
+        <v>1684</v>
+      </c>
+      <c r="AA197" t="s">
         <v>1685</v>
       </c>
-      <c r="AA197" t="s">
-        <v>1686</v>
-      </c>
       <c r="AB197">
         <v>1</v>
       </c>
       <c r="AC197" t="s">
-        <v>747</v>
+        <v>631</v>
       </c>
     </row>
     <row r="198" spans="2:29">
@@ -31222,16 +31222,16 @@
         <v>1319</v>
       </c>
       <c r="Z198" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AA198" t="s">
         <v>1687</v>
       </c>
-      <c r="AA198" t="s">
-        <v>1467</v>
-      </c>
       <c r="AB198">
         <v>1</v>
       </c>
       <c r="AC198" t="s">
-        <v>753</v>
+        <v>833</v>
       </c>
     </row>
   </sheetData>
@@ -31240,7 +31240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3532FAC1-CD31-41A6-92D0-D78B50012E21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE41B5A6-E68B-4C0E-BC82-36E532B261F9}">
   <dimension ref="B9:AB199"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -31548,7 +31548,7 @@
         <v>2385</v>
       </c>
       <c r="Z13" t="s">
-        <v>1787</v>
+        <v>1799</v>
       </c>
       <c r="AA13">
         <v>13.8675</v>
@@ -31622,7 +31622,7 @@
         <v>2386</v>
       </c>
       <c r="Z14" t="s">
-        <v>1790</v>
+        <v>1814</v>
       </c>
       <c r="AA14">
         <v>13.8675</v>
@@ -31696,7 +31696,7 @@
         <v>2387</v>
       </c>
       <c r="Z15" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="AA15">
         <v>13.23875</v>
@@ -31770,7 +31770,7 @@
         <v>2388</v>
       </c>
       <c r="Z16" t="s">
-        <v>1814</v>
+        <v>1783</v>
       </c>
       <c r="AA16">
         <v>14.02875</v>
@@ -31844,7 +31844,7 @@
         <v>2389</v>
       </c>
       <c r="Z17" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="AA17">
         <v>13.8675</v>
@@ -31918,7 +31918,7 @@
         <v>2390</v>
       </c>
       <c r="Z18" t="s">
-        <v>1813</v>
+        <v>1782</v>
       </c>
       <c r="AA18">
         <v>13.8675</v>
@@ -31992,7 +31992,7 @@
         <v>2391</v>
       </c>
       <c r="Z19" t="s">
-        <v>1764</v>
+        <v>1808</v>
       </c>
       <c r="AA19">
         <v>0.11874999999999999</v>
@@ -32066,7 +32066,7 @@
         <v>2392</v>
       </c>
       <c r="Z20" t="s">
-        <v>1799</v>
+        <v>1764</v>
       </c>
       <c r="AA20">
         <v>9.06</v>
@@ -32140,7 +32140,7 @@
         <v>2393</v>
       </c>
       <c r="Z21" t="s">
-        <v>1797</v>
+        <v>1778</v>
       </c>
       <c r="AA21">
         <v>14.02875</v>
@@ -32214,7 +32214,7 @@
         <v>2394</v>
       </c>
       <c r="Z22" t="s">
-        <v>1779</v>
+        <v>1800</v>
       </c>
       <c r="AA22">
         <v>13.8675</v>
@@ -32288,7 +32288,7 @@
         <v>2395</v>
       </c>
       <c r="Z23" t="s">
-        <v>1768</v>
+        <v>1812</v>
       </c>
       <c r="AA23">
         <v>13.8675</v>
@@ -32436,7 +32436,7 @@
         <v>2397</v>
       </c>
       <c r="Z25" t="s">
-        <v>1777</v>
+        <v>1769</v>
       </c>
       <c r="AA25">
         <v>13.92625</v>
@@ -32510,7 +32510,7 @@
         <v>2398</v>
       </c>
       <c r="Z26" t="s">
-        <v>1808</v>
+        <v>1774</v>
       </c>
       <c r="AA26">
         <v>13.827500000000001</v>
@@ -32584,7 +32584,7 @@
         <v>2399</v>
       </c>
       <c r="Z27" t="s">
-        <v>1789</v>
+        <v>1806</v>
       </c>
       <c r="AA27">
         <v>13.8675</v>
@@ -32658,7 +32658,7 @@
         <v>2400</v>
       </c>
       <c r="Z28" t="s">
-        <v>1806</v>
+        <v>1772</v>
       </c>
       <c r="AA28">
         <v>3.7499999999999999E-3</v>
@@ -32732,7 +32732,7 @@
         <v>2401</v>
       </c>
       <c r="Z29" t="s">
-        <v>1773</v>
+        <v>1787</v>
       </c>
       <c r="AA29">
         <v>2.8424999999999998</v>
@@ -32806,7 +32806,7 @@
         <v>2402</v>
       </c>
       <c r="Z30" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="AA30">
         <v>8.1549999999999994</v>
@@ -32880,7 +32880,7 @@
         <v>2403</v>
       </c>
       <c r="Z31" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
       <c r="AA31">
         <v>4.5162500000000003</v>
@@ -32954,7 +32954,7 @@
         <v>2404</v>
       </c>
       <c r="Z32" t="s">
-        <v>1771</v>
+        <v>1785</v>
       </c>
       <c r="AA32">
         <v>0.57625000000000004</v>
@@ -33028,7 +33028,7 @@
         <v>2405</v>
       </c>
       <c r="Z33" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="AA33">
         <v>1.125E-2</v>
@@ -33102,7 +33102,7 @@
         <v>2406</v>
       </c>
       <c r="Z34" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="AA34">
         <v>0.33500000000000002</v>
@@ -33176,7 +33176,7 @@
         <v>2407</v>
       </c>
       <c r="Z35" t="s">
-        <v>1766</v>
+        <v>1810</v>
       </c>
       <c r="AA35">
         <v>1.7500000000000002E-2</v>
@@ -33250,7 +33250,7 @@
         <v>2408</v>
       </c>
       <c r="Z36" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="AA36">
         <v>0.58250000000000002</v>
@@ -33324,7 +33324,7 @@
         <v>2409</v>
       </c>
       <c r="Z37" t="s">
-        <v>1795</v>
+        <v>1776</v>
       </c>
       <c r="AA37">
         <v>1.0075000000000001</v>
@@ -33398,7 +33398,7 @@
         <v>2410</v>
       </c>
       <c r="Z38" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
       <c r="AA38">
         <v>0.21625</v>
@@ -33472,7 +33472,7 @@
         <v>2411</v>
       </c>
       <c r="Z39" t="s">
-        <v>1798</v>
+        <v>1779</v>
       </c>
       <c r="AA39">
         <v>5.9212499999999997</v>
@@ -33546,7 +33546,7 @@
         <v>2412</v>
       </c>
       <c r="Z40" t="s">
-        <v>1811</v>
+        <v>1780</v>
       </c>
       <c r="AA40">
         <v>2.75E-2</v>
@@ -33620,7 +33620,7 @@
         <v>2413</v>
       </c>
       <c r="Z41" t="s">
-        <v>1809</v>
+        <v>1775</v>
       </c>
       <c r="AA41">
         <v>10.682499999999999</v>
@@ -33694,7 +33694,7 @@
         <v>2414</v>
       </c>
       <c r="Z42" t="s">
-        <v>1805</v>
+        <v>1771</v>
       </c>
       <c r="AA42">
         <v>3.9175</v>
@@ -33768,7 +33768,7 @@
         <v>2415</v>
       </c>
       <c r="Z43" t="s">
-        <v>1775</v>
+        <v>1789</v>
       </c>
       <c r="AA43">
         <v>10.8575</v>
@@ -33842,7 +33842,7 @@
         <v>2416</v>
       </c>
       <c r="Z44" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="AA44">
         <v>2.61375</v>
@@ -33916,7 +33916,7 @@
         <v>2417</v>
       </c>
       <c r="Z45" t="s">
-        <v>1783</v>
+        <v>1795</v>
       </c>
       <c r="AA45">
         <v>11.2575</v>
@@ -33990,7 +33990,7 @@
         <v>2418</v>
       </c>
       <c r="Z46" t="s">
-        <v>1785</v>
+        <v>1797</v>
       </c>
       <c r="AA46">
         <v>5.0000000000000001E-3</v>
@@ -34064,7 +34064,7 @@
         <v>2419</v>
       </c>
       <c r="Z47" t="s">
-        <v>1769</v>
+        <v>1813</v>
       </c>
       <c r="AA47">
         <v>12.063750000000001</v>
@@ -34138,7 +34138,7 @@
         <v>2420</v>
       </c>
       <c r="Z48" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="AA48">
         <v>13.8675</v>
@@ -39891,7 +39891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33858F11-03FE-4C0A-9ACD-1FDFF93F6AB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB02801-F6CD-450D-9DA4-BB85F42E9364}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41711,7 +41711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1203362F-79AF-4C24-969E-AC3480341E6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8BF3AF8-F52C-41F3-AD9D-C119E479D366}">
   <dimension ref="B2:M317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -42979,7 +42979,7 @@
         <v>2520</v>
       </c>
       <c r="C42" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="D42" t="s">
         <v>2521</v>
@@ -43014,7 +43014,7 @@
         <v>2521</v>
       </c>
       <c r="D43" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -44006,7 +44006,7 @@
         <v>2584</v>
       </c>
       <c r="D74" t="s">
-        <v>1337</v>
+        <v>1619</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -44035,7 +44035,7 @@
         <v>2585</v>
       </c>
       <c r="C75" t="s">
-        <v>1337</v>
+        <v>1619</v>
       </c>
       <c r="D75" t="s">
         <v>2584</v>
@@ -44451,7 +44451,7 @@
         <v>2610</v>
       </c>
       <c r="C88" t="s">
-        <v>1597</v>
+        <v>1600</v>
       </c>
       <c r="D88" t="s">
         <v>2611</v>
@@ -44486,7 +44486,7 @@
         <v>2611</v>
       </c>
       <c r="D89" t="s">
-        <v>1597</v>
+        <v>1600</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -45603,7 +45603,7 @@
         <v>2681</v>
       </c>
       <c r="C124" t="s">
-        <v>1363</v>
+        <v>1553</v>
       </c>
       <c r="D124" t="s">
         <v>2682</v>
@@ -45638,7 +45638,7 @@
         <v>2682</v>
       </c>
       <c r="D125" t="s">
-        <v>1363</v>
+        <v>1553</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -47078,7 +47078,7 @@
         <v>2772</v>
       </c>
       <c r="D170" t="s">
-        <v>1686</v>
+        <v>1499</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -47107,7 +47107,7 @@
         <v>2773</v>
       </c>
       <c r="C171" t="s">
-        <v>1686</v>
+        <v>1499</v>
       </c>
       <c r="D171" t="s">
         <v>2772</v>
@@ -47331,7 +47331,7 @@
         <v>2786</v>
       </c>
       <c r="C178" t="s">
-        <v>1568</v>
+        <v>1349</v>
       </c>
       <c r="D178" t="s">
         <v>2787</v>
@@ -47366,7 +47366,7 @@
         <v>2787</v>
       </c>
       <c r="D179" t="s">
-        <v>1568</v>
+        <v>1349</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -47846,7 +47846,7 @@
         <v>2818</v>
       </c>
       <c r="D194" t="s">
-        <v>1361</v>
+        <v>1466</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -47875,7 +47875,7 @@
         <v>2819</v>
       </c>
       <c r="C195" t="s">
-        <v>1361</v>
+        <v>1466</v>
       </c>
       <c r="D195" t="s">
         <v>2818</v>
@@ -48035,7 +48035,7 @@
         <v>2828</v>
       </c>
       <c r="C200" t="s">
-        <v>1441</v>
+        <v>1640</v>
       </c>
       <c r="D200" t="s">
         <v>2829</v>
@@ -48070,7 +48070,7 @@
         <v>2829</v>
       </c>
       <c r="D201" t="s">
-        <v>1441</v>
+        <v>1640</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -49190,7 +49190,7 @@
         <v>2900</v>
       </c>
       <c r="D236" t="s">
-        <v>1339</v>
+        <v>1621</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -49219,7 +49219,7 @@
         <v>2901</v>
       </c>
       <c r="C237" t="s">
-        <v>1339</v>
+        <v>1621</v>
       </c>
       <c r="D237" t="s">
         <v>2900</v>
@@ -49958,7 +49958,7 @@
         <v>2947</v>
       </c>
       <c r="D260" t="s">
-        <v>1513</v>
+        <v>1525</v>
       </c>
       <c r="E260">
         <v>1</v>
@@ -49987,7 +49987,7 @@
         <v>2948</v>
       </c>
       <c r="C261" t="s">
-        <v>1513</v>
+        <v>1525</v>
       </c>
       <c r="D261" t="s">
         <v>2947</v>
@@ -51750,7 +51750,7 @@
         <v>3056</v>
       </c>
       <c r="D316" t="s">
-        <v>1399</v>
+        <v>1569</v>
       </c>
       <c r="E316">
         <v>1</v>
@@ -51779,7 +51779,7 @@
         <v>3057</v>
       </c>
       <c r="C317" t="s">
-        <v>1399</v>
+        <v>1569</v>
       </c>
       <c r="D317" t="s">
         <v>3056</v>

--- a/VerveStacks_DEU_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_DEU_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34F48346-4068-4491-87C5-104AE8D0B97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFA23241-E233-4823-A7EC-48FC2C9D678F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2960,18 +2960,558 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_solelc_won-DEU_0015</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_15</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0183</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_183</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0112</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_112</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0078</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_78</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0012</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_12</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0126</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_126</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0007</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_7</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0157</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_157</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0083</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_83</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_4</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0144</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_144</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0177</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_177</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0075</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_75</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0106</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_106</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0039</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_39</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0162</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_162</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0167</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_167</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_6</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_9</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0067</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_67</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0024</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_24</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0021</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_21</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0081</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_81</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0086</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_86</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0070</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_70</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0120</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_120</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0143</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_143</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0158</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_158</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0111</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_111</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0003</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_3</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0056</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_56</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0150</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_150</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0032</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_32</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0025</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_25</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0160</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_160</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0109</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_109</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0164</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_164</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_22</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0096</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_96</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0153</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_153</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0168</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_168</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0062</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_62</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0028</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_28</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_13</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0093</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_93</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0080</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_80</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0055</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_55</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0101</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_101</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0059</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_59</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0091</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_91</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_19</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0147</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_147</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0171</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_171</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0127</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_127</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0042</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_42</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0076</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_76</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0155</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_155</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0103</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_103</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_2</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0118</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_118</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0142</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_142</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0037</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_37</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0166</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_166</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0119</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_119</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0187</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_187</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0115</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_115</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0066</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_66</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0043</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_43</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0175</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_175</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0114</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_114</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0069</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_69</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0179</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_179</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0050</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_50</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0124</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_124</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0045</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_45</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0156</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_156</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0129</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_129</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_20</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0052</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_52</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0053</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_53</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0181</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_181</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0049</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_49</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0041</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_41</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0133</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_133</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0134</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_134</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0060</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_60</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0108</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_108</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0148</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_148</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0178</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_178</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0072</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_72</t>
+  </si>
+  <si>
     <t>distr_solelc_won-DEU_0130</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell DEU_130</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
     <t>distr_solelc_won-DEU_0159</t>
   </si>
   <si>
@@ -3110,64 +3650,328 @@
     <t>connecting solar and wind to buses in grid cell DEU_54</t>
   </si>
   <si>
-    <t>distr_solelc_won-DEU_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_4</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0144</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_144</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0177</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_177</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0075</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_75</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0106</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_106</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0039</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_39</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0162</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_162</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0167</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_167</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_6</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_9</t>
+    <t>distr_solelc_won-DEU_0040</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_40</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0018</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_18</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0073</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_73</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0104</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_104</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0131</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_131</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0064</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_64</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0186</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_186</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0105</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_105</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0088</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_88</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0089</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_89</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_23</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0137</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_137</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0036</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_36</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0188</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_188</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0061</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_61</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0113</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_113</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0180</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_180</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0079</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_79</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0176</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_176</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0017</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_17</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0046</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_46</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0123</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_123</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0097</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_97</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0185</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_185</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0172</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_172</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0141</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_141</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0149</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_149</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0035</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_35</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0014</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_14</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0026</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_26</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0065</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_65</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0132</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_132</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0048</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_48</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0031</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_31</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0030</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_30</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0173</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_173</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0033</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_33</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0135</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_135</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0029</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_29</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0000</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_0</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0057</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_57</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0163</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_163</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0099</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_99</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0016</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_16</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0152</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_152</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0151</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_151</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0102</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_102</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0010</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_10</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0122</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_122</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0011</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_11</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0008</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_8</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0169</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_169</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0092</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_92</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0095</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_95</t>
   </si>
   <si>
     <t>distr_solelc_won-DEU_0128</t>
@@ -3290,813 +4094,537 @@
     <t>connecting solar and wind to buses in grid cell DEU_107</t>
   </si>
   <si>
-    <t>distr_solelc_won-DEU_0062</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_62</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0028</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_28</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_13</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0093</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_93</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0080</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_80</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0055</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_55</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0101</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_101</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0059</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_59</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0091</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_91</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_19</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0147</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_147</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0171</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_171</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0067</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_67</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0024</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_24</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0021</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_21</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0081</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_81</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0086</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_86</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0070</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_70</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0120</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_120</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0143</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_143</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0158</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_158</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0029</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_29</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0000</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_0</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0057</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_57</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0163</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_163</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0099</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_99</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0016</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_16</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0152</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_152</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0151</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_151</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0102</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_102</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0010</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_10</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0122</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_122</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0011</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_11</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0008</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_8</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0169</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_169</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0092</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_92</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0095</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_95</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0066</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_66</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0043</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_43</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0175</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_175</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0114</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_114</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0069</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_69</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0179</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_179</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0050</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_50</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0124</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_124</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0045</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_45</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0156</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_156</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0129</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_129</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0020</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_20</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0052</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_52</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0053</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_53</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0181</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_181</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0127</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_127</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0042</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_42</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0076</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_76</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0155</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_155</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0103</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_103</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_2</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0118</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_118</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0142</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_142</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0037</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_37</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0166</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_166</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0119</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_119</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0187</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_187</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0115</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_115</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0015</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_15</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0183</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_183</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0112</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_112</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0078</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_78</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0012</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_12</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0126</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_126</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0007</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_7</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0157</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_157</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0083</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_83</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0040</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_40</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0018</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_18</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0073</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_73</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0104</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_104</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0131</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_131</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0064</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_64</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0186</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_186</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0105</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_105</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0088</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_88</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0089</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_89</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_23</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0137</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_137</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0036</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_36</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0188</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_188</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0061</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_61</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0113</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_113</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0049</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_49</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0041</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_41</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0133</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_133</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0134</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_134</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0060</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_60</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0108</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_108</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0148</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_148</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0178</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_178</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0072</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_72</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0180</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_180</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0079</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_79</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0176</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_176</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0017</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_17</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0046</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_46</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0123</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_123</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0097</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_97</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0185</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_185</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0172</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_172</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0141</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_141</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0149</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_149</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0035</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_35</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0111</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_111</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0003</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_3</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0056</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_56</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0150</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_150</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0032</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_32</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0025</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_25</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0160</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_160</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0109</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_109</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0164</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_164</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0022</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_22</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0096</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_96</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0153</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_153</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0168</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_168</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0014</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_14</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0026</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_26</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0065</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_65</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0132</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_132</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0048</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_48</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0031</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_31</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0030</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_30</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0173</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_173</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0033</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_33</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0135</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_135</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
+    <t>elc_won-DEU_0015,elc_spv-DEU_0015</t>
+  </si>
+  <si>
+    <t>e_DE100-220,e_DE100-380,e_DE102-220,e_DE102-380,e_DE66-220,e_DE66-380,e_DE68-220,e_DE68-380,e_DE69-220,e_DE69-380,e_DE72-220,e_DE75-380,e_DE76-380,e_DE78-220,e_DE80-220,e_DE80-380,e_DE81-220,e_DE82-220,e_DE83-220,e_DE84-220,e_DE86-220,e_DE87-220,e_DE87-380,e_DE89-220,e_DE89-380,e_DE92-220,e_DE96-220,e_DE96-380,e_DE98-220,e_w1076001174-220,e_w1076001174-380,e_w113546939-220,e_w113546939-380,e_w121199242-220,e_w121199242-380,e_w1303270458-220,e_w1303270458-380,e_w150267232-220,e_w156973363-220,e_w22944791-220,e_w22964137-380,e_w23022100-220,e_w23022100-380,e_w23067006-380,e_w24280460-380,e_w24415232-220,e_w24921206-220,e_w24921206-380,e_w25051880-220,e_w26291794-380,e_w275138524-380,e_w28452784-220,e_w29077623-220,e_w29077623-380,e_w311444691-380,e_w32472806-380,e_w35763480-220,e_w35763480-380,e_w38584673-220,e_w425100082-380,e_w59925390-220,e_w59925390-380,e_w63114179-220,e_w63114179-380,e_w66038431-220,e_w68549340-220,e_w68549340-380,e_w698870101-220,e_w787840119-220,e_w799361667-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0183,elc_spv-DEU_0183</t>
+  </si>
+  <si>
+    <t>e_DE58-380,e_DE99-380,e_w157806991-380,e_w30164703-380,e_w58429825-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0112,elc_spv-DEU_0112</t>
+  </si>
+  <si>
+    <t>e_w143882655-220,e_w143882655-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0078,elc_spv-DEU_0078</t>
+  </si>
+  <si>
+    <t>e_w148446247-380,e_w29309786-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0012,elc_spv-DEU_0012</t>
+  </si>
+  <si>
+    <t>e_w154869247-220,e_w395847307-220,e_w395847307-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0126,elc_spv-DEU_0126</t>
+  </si>
+  <si>
+    <t>e_w93341407-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0007,elc_spv-DEU_0007</t>
+  </si>
+  <si>
+    <t>e_w979801144-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0157,elc_spv-DEU_0157</t>
+  </si>
+  <si>
+    <t>e_w78441561-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0083,elc_spv-DEU_0083</t>
+  </si>
+  <si>
+    <t>e_w23816140-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0004,elc_spv-DEU_0004</t>
+  </si>
+  <si>
+    <t>e_DE106-220,e_DE107-220,e_DE107-380,e_DE110-220,e_DE110-380,e_DE112-380,e_DE113-220,e_DE114-380,e_DE117-380,e_DE125-220,e_DE125-380,e_DE127-380,e_DE128-380,e_DE131-220,e_DE133-380,e_w1040551074-220,e_w188276460-220,e_w188276460-380,e_w23084554-220,e_w23084554-380,e_w24267175-220,e_w24479984-220,e_w24479984-380,e_w24799890-220,e_w24799890-380,e_w24815262-220,e_w24839976-220,e_w24839976-380,e_w26927264-380,e_w27919734-220,e_w27919734-380,e_w31762305-220,e_w49577401-220,e_w49577401-380,e_w91854336-220,e_w91854336-380,e_w92877635-220,e_w93278553-220,e_w95434457-220,e_w95434457-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0144,elc_spv-DEU_0144</t>
+  </si>
+  <si>
+    <t>e_DE142-380,e_w167352587-220,e_w173112252-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0177,elc_spv-DEU_0177</t>
+  </si>
+  <si>
+    <t>e_w1222597066-220,e_w1222597066-380,e_w30039908-220,e_w30039908-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0075,elc_spv-DEU_0075</t>
+  </si>
+  <si>
+    <t>e_w143854536-380,e_w31653753-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0106,elc_spv-DEU_0106</t>
+  </si>
+  <si>
+    <t>e_w18629425-220,e_w18629425-380,e_w53378027-380,e_w76246159-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0039,elc_spv-DEU_0039</t>
+  </si>
+  <si>
+    <t>e_w26814283-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0162,elc_spv-DEU_0162</t>
+  </si>
+  <si>
+    <t>e_w29331499-220,e_w29331499-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0167,elc_spv-DEU_0167</t>
+  </si>
+  <si>
+    <t>e_w946710698-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0006,elc_spv-DEU_0006</t>
+  </si>
+  <si>
+    <t>e_DE62-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0009,elc_spv-DEU_0009</t>
+  </si>
+  <si>
+    <t>e_w156402422-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0067,elc_spv-DEU_0067</t>
+  </si>
+  <si>
+    <t>e_DE13-380,e_DE14-380,e_w1072574879-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0024,elc_spv-DEU_0024</t>
+  </si>
+  <si>
+    <t>e_DE194-220,e_w39011884-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0021,elc_spv-DEU_0021</t>
+  </si>
+  <si>
+    <t>e_DE213-380,e_w202865176-220,e_w202865177-380,e_w88916034-220,e_w88916034-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0081,elc_spv-DEU_0081</t>
+  </si>
+  <si>
+    <t>e_DE55-220,e_DE57-380,e_w23899043-380,e_w30109913-220,e_w699048438-220,e_w810315511-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0086,elc_spv-DEU_0086</t>
+  </si>
+  <si>
+    <t>e_w27646106-220,e_w35176751-220,e_w35176751-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0070,elc_spv-DEU_0070</t>
+  </si>
+  <si>
+    <t>e_w449010725-380,e_w946969736-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0120,elc_spv-DEU_0120</t>
+  </si>
+  <si>
+    <t>e_w275466323-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0143,elc_spv-DEU_0143</t>
+  </si>
+  <si>
+    <t>e_w167352587-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0158,elc_spv-DEU_0158</t>
+  </si>
+  <si>
+    <t>e_w166604822-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0111,elc_spv-DEU_0111</t>
+  </si>
+  <si>
+    <t>e_DE134-380,e_w149256409-380,e_w152219167-220,e_w25746125-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0003,elc_spv-DEU_0003</t>
+  </si>
+  <si>
+    <t>e_DE136-380,e_DE141-380,e_w24268944-380,e_w25426571-380,e_w25992879-380,e_w26593935-380,e_w870598507,e_w870598507-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0056,elc_spv-DEU_0056</t>
+  </si>
+  <si>
+    <t>e_DE195-380,e_DE196-380,e_DE197-380,e_DE198-380,e_DE199-380,e_w26260052-380,e_w30734324-380,e_w42736239-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0150,elc_spv-DEU_0150</t>
+  </si>
+  <si>
+    <t>e_DE9-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0032,elc_spv-DEU_0032</t>
+  </si>
+  <si>
+    <t>e_w150200540-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0025,elc_spv-DEU_0025</t>
+  </si>
+  <si>
+    <t>e_w152107815-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0160,elc_spv-DEU_0160</t>
+  </si>
+  <si>
+    <t>e_w157328339-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0109,elc_spv-DEU_0109</t>
+  </si>
+  <si>
+    <t>e_w24757393-380,e_w24757833-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0164,elc_spv-DEU_0164</t>
+  </si>
+  <si>
+    <t>e_w518455594-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0022,elc_spv-DEU_0022</t>
+  </si>
+  <si>
+    <t>e_w87653464-220,e_w87653464-380,e_w87653464-400</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0096,elc_spv-DEU_0096</t>
+  </si>
+  <si>
+    <t>e_w948341123-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0153,elc_spv-DEU_0153</t>
+  </si>
+  <si>
+    <t>e_w91080806-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0168,elc_spv-DEU_0168</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0062,elc_spv-DEU_0062</t>
+  </si>
+  <si>
+    <t>e_DE121-380,e_w156673636-380,e_w41072584-380,e_w41232144-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0028,elc_spv-DEU_0028</t>
+  </si>
+  <si>
+    <t>e_DE135-220,e_DE137-220,e_DE137-380,e_DE140-380,e_DE143-380,e_DE145-220,e_DE147-380,e_DE148-220,e_DE148-380,e_DE150-380,e_w152403632-220,e_w152403632-380,e_w89043564-220,e_w89043564-380,e_w90148336-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0013,elc_spv-DEU_0013</t>
+  </si>
+  <si>
+    <t>e_DE138-220,e_DE138-380,e_DE139-220,e_DE139-380,e_DE144-380,e_DE153-380,e_DE154-380,e_w22765517-220,e_w22765517-380,e_w22766160-220,e_w22766160-380,e_w22767509-220,e_w22767509-380,e_w22796434-220,e_w26777313-380,e_w29374542-220,e_w32148946-220,e_w42423415-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0093,elc_spv-DEU_0093</t>
+  </si>
+  <si>
+    <t>e_DE163-220,e_w108797675-380,e_w24758329-380,e_w499165542-220,e_w499165542-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0080,elc_spv-DEU_0080</t>
+  </si>
+  <si>
+    <t>e_DE59-220,e_DE60-220,e_w952004951-220,e_w952004951-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0055,elc_spv-DEU_0055</t>
+  </si>
+  <si>
+    <t>e_w102743264-220,e_w25306752-220,e_w25306752-380,e_w31367936-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0101,elc_spv-DEU_0101</t>
+  </si>
+  <si>
+    <t>e_w1089911133-380,e_w23583867-380,e_w28327356-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0059,elc_spv-DEU_0059</t>
+  </si>
+  <si>
+    <t>e_w145002769-380,e_w55069713-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0091,elc_spv-DEU_0091</t>
+  </si>
+  <si>
+    <t>e_w38325076-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0019,elc_spv-DEU_0019</t>
+  </si>
+  <si>
+    <t>e_w559702819-220,e_w559702819-380,e_w672738029-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0147,elc_spv-DEU_0147</t>
+  </si>
+  <si>
+    <t>e_w40621568-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0171,elc_spv-DEU_0171</t>
+  </si>
+  <si>
+    <t>e_w942771541-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0127,elc_spv-DEU_0127</t>
+  </si>
+  <si>
+    <t>e_DE157-380,e_DE158-380,e_w93341407-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0042,elc_spv-DEU_0042</t>
+  </si>
+  <si>
+    <t>e_DE165-380,e_DE168-380,e_w1223405794-220,e_w1223405794-380,e_w147521567-220,e_w147521567-380,e_w149987048-220,e_w149987048-380,e_w23284340-220,e_w23284340-380,e_w24685992-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0076,elc_spv-DEU_0076</t>
+  </si>
+  <si>
+    <t>e_DE169-220,e_w24765111-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0155,elc_spv-DEU_0155</t>
+  </si>
+  <si>
+    <t>e_DE201-220,e_DE203-220,e_DE204-220,e_DE206-220,e_w24976300-220,e_w24976300-380,e_w91086220-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0103,elc_spv-DEU_0103</t>
+  </si>
+  <si>
+    <t>e_DE4-220,e_w27124619-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0002,elc_spv-DEU_0002</t>
+  </si>
+  <si>
+    <t>e_w1024536785-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0118,elc_spv-DEU_0118</t>
+  </si>
+  <si>
+    <t>e_w275466323,e_w275466323-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0142,elc_spv-DEU_0142</t>
+  </si>
+  <si>
+    <t>e_w29084374-220,e_w29084374-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0037,elc_spv-DEU_0037</t>
+  </si>
+  <si>
+    <t>e_w31367940-220,e_w31367940-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0166,elc_spv-DEU_0166</t>
+  </si>
+  <si>
+    <t>e_w39688875-220,e_w515358077-380,e_w941453716-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0119,elc_spv-DEU_0119</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0187,elc_spv-DEU_0187</t>
+  </si>
+  <si>
+    <t>e_w170123812-400</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0115,elc_spv-DEU_0115</t>
+  </si>
+  <si>
+    <t>e_w26474759-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0066,elc_spv-DEU_0066</t>
+  </si>
+  <si>
+    <t>e_DE15-220,e_w229565743-220,e_w28812249-220,e_w955268863-220,e_w955268863-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0043,elc_spv-DEU_0043</t>
+  </si>
+  <si>
+    <t>e_DE159-380,e_DE160-220,e_DE161-380,e_DE162-380,e_w169244940-220,e_w169244940-380,e_w23641079-220,e_w23641079-380,e_w38661452-380,e_w4826893-220,e_w62061952-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0175,elc_spv-DEU_0175</t>
+  </si>
+  <si>
+    <t>e_DE22-220,e_DE22-380,e_DE23-220,e_DE23-380,e_DE24-220,e_DE24-380,e_DE26-380,e_DE27-220,e_DE27-380,e_w22973052-220,e_w22973070-220,e_w22973070-380,e_w30954714-380,e_w940636813-220,e_w940636813-380,e_w942448206-220,e_w942448206-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0114,elc_spv-DEU_0114</t>
+  </si>
+  <si>
+    <t>e_DE44-380,e_w26474759-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0069,elc_spv-DEU_0069</t>
+  </si>
+  <si>
+    <t>e_w1071504343-380,e_w603661085-380,e_w907539360-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0179,elc_spv-DEU_0179</t>
+  </si>
+  <si>
+    <t>e_w1091984573-220,e_w1091984573-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0050,elc_spv-DEU_0050</t>
+  </si>
+  <si>
+    <t>e_w1134105414-380,e_w157421333-220,e_w266684854-380,e_w32076853-220,e_w32076853-380,e_w42872354-220,e_w829116805-220,e_w829116805-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0124,elc_spv-DEU_0124</t>
+  </si>
+  <si>
+    <t>e_w137602559-220,e_w137602559-380,e_w24759324-220,e_w24768051-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0045,elc_spv-DEU_0045</t>
+  </si>
+  <si>
+    <t>e_w42799487-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0156,elc_spv-DEU_0156</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0129,elc_spv-DEU_0129</t>
+  </si>
+  <si>
+    <t>e_w29713902-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0020,elc_spv-DEU_0020</t>
+  </si>
+  <si>
+    <t>e_w559702819-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0052,elc_spv-DEU_0052</t>
+  </si>
+  <si>
+    <t>e_w603661085-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0053,elc_spv-DEU_0053</t>
+  </si>
+  <si>
+    <t>e_w946969736-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0181,elc_spv-DEU_0181</t>
+  </si>
+  <si>
+    <t>e_w941805476-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0049,elc_spv-DEU_0049</t>
+  </si>
+  <si>
+    <t>e_DE17-380,e_w24493551-380,e_w44717036-380,e_w871646309-380,e_w951273401-380,e_w951773852-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0041,elc_spv-DEU_0041</t>
+  </si>
+  <si>
+    <t>e_DE174-220,e_DE176-220,e_DE178-380,e_DE180-220,e_DE181-380,e_DE182-380,e_r17591073-220,e_w152924498-220,e_w152924498-380,e_w152924508-220,e_w152973139-220,e_w152973139-380,e_w156676050-220,e_w160929097-220,e_w207248812-220,e_w207248812-380,e_w259561755-380,e_w409305507-220,e_w46584363-220,e_w46584363-380,e_w48057110-380,e_w600395952-220,e_w600395952-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0133,elc_spv-DEU_0133</t>
+  </si>
+  <si>
+    <t>e_DE18-220,e_DE18-380,e_DE19-380,e_w59707532-220,e_w59707532-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0134,elc_spv-DEU_0134</t>
+  </si>
+  <si>
+    <t>e_w234171369-380,e_w274603394-380,e_w517421342-220,e_w517421342-380,e_w851299584-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0060,elc_spv-DEU_0060</t>
+  </si>
+  <si>
+    <t>e_w23881272-220,e_w24042358-380,e_w42372159-380,e_w42410916-220,e_w42410916-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0108,elc_spv-DEU_0108</t>
+  </si>
+  <si>
+    <t>e_w24705761-220,e_w24705761-380,e_w28613721-380,e_w954971276-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0148,elc_spv-DEU_0148</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0178,elc_spv-DEU_0178</t>
+  </si>
+  <si>
+    <t>e_w1091984573-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0072,elc_spv-DEU_0072</t>
+  </si>
+  <si>
+    <t>e_w41389594-220</t>
+  </si>
+  <si>
     <t>elc_won-DEU_0130,elc_spv-DEU_0130</t>
   </si>
   <si>
@@ -4238,64 +4766,316 @@
     <t>e_w31367936-220</t>
   </si>
   <si>
-    <t>elc_won-DEU_0004,elc_spv-DEU_0004</t>
-  </si>
-  <si>
-    <t>e_DE106-220,e_DE107-220,e_DE107-380,e_DE110-220,e_DE110-380,e_DE112-380,e_DE113-220,e_DE114-380,e_DE117-380,e_DE125-220,e_DE125-380,e_DE127-380,e_DE128-380,e_DE131-220,e_DE133-380,e_w1040551074-220,e_w188276460-220,e_w188276460-380,e_w23084554-220,e_w23084554-380,e_w24267175-220,e_w24479984-220,e_w24479984-380,e_w24799890-220,e_w24799890-380,e_w24815262-220,e_w24839976-220,e_w24839976-380,e_w26927264-380,e_w27919734-220,e_w27919734-380,e_w31762305-220,e_w49577401-220,e_w49577401-380,e_w91854336-220,e_w91854336-380,e_w92877635-220,e_w93278553-220,e_w95434457-220,e_w95434457-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0144,elc_spv-DEU_0144</t>
-  </si>
-  <si>
-    <t>e_DE142-380,e_w167352587-220,e_w173112252-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0177,elc_spv-DEU_0177</t>
-  </si>
-  <si>
-    <t>e_w1222597066-220,e_w1222597066-380,e_w30039908-220,e_w30039908-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0075,elc_spv-DEU_0075</t>
-  </si>
-  <si>
-    <t>e_w143854536-380,e_w31653753-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0106,elc_spv-DEU_0106</t>
-  </si>
-  <si>
-    <t>e_w18629425-220,e_w18629425-380,e_w53378027-380,e_w76246159-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0039,elc_spv-DEU_0039</t>
-  </si>
-  <si>
-    <t>e_w26814283-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0162,elc_spv-DEU_0162</t>
-  </si>
-  <si>
-    <t>e_w29331499-220,e_w29331499-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0167,elc_spv-DEU_0167</t>
-  </si>
-  <si>
-    <t>e_w946710698-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0006,elc_spv-DEU_0006</t>
-  </si>
-  <si>
-    <t>e_DE62-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0009,elc_spv-DEU_0009</t>
-  </si>
-  <si>
-    <t>e_w156402422-220</t>
+    <t>elc_won-DEU_0040,elc_spv-DEU_0040</t>
+  </si>
+  <si>
+    <t>e_DE183-220,e_w152261133-220,e_w152261133-380,e_w254326606-380,e_w32151621-220,e_w32725957-220,e_w32725958-220,e_w32731290-220,e_w32966636-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0018,elc_spv-DEU_0018</t>
+  </si>
+  <si>
+    <t>e_DE20-380,e_w1280840211-380,e_w142487746-380,e_w206289192-380,e_w32042992-380,e_w797009308-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0073,elc_spv-DEU_0073</t>
+  </si>
+  <si>
+    <t>e_DE202-220,e_DE202-380,e_DE205-220,e_DE205-380,e_w26404600-380,e_w41389594-220,e_w41389594-380,e_w85523877-220,e_w85523877-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0104,elc_spv-DEU_0104</t>
+  </si>
+  <si>
+    <t>e_DE211-220,e_DE212-220,e_w68532663-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0131,elc_spv-DEU_0131</t>
+  </si>
+  <si>
+    <t>e_DE47-220,e_w26472665-220,e_w26472665-380,e_w943939310-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0064,elc_spv-DEU_0064</t>
+  </si>
+  <si>
+    <t>e_DE49-380,e_w23135618-220,e_w24413992-380,e_w28397771-220,e_w288305056-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0186,elc_spv-DEU_0186</t>
+  </si>
+  <si>
+    <t>e_w170123812-220,e_w170123812-380,e_w170123812-400</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0105,elc_spv-DEU_0105</t>
+  </si>
+  <si>
+    <t>e_w23907283-380,e_w24237879-220,e_w30613895-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0088,elc_spv-DEU_0088</t>
+  </si>
+  <si>
+    <t>e_w57727004-220,e_w57727004-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0089,elc_spv-DEU_0089</t>
+  </si>
+  <si>
+    <t>e_w683227471-380,e_w77038371-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0023,elc_spv-DEU_0023</t>
+  </si>
+  <si>
+    <t>e_w82130902-225,e_w933248930-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0137,elc_spv-DEU_0137</t>
+  </si>
+  <si>
+    <t>e_w75865676-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0036,elc_spv-DEU_0036</t>
+  </si>
+  <si>
+    <t>e_w29420322-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0188,elc_spv-DEU_0188</t>
+  </si>
+  <si>
+    <t>e_w1222597066-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0061,elc_spv-DEU_0061</t>
+  </si>
+  <si>
+    <t>e_w156673636-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0113,elc_spv-DEU_0113</t>
+  </si>
+  <si>
+    <t>e_w32690742-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0180,elc_spv-DEU_0180</t>
+  </si>
+  <si>
+    <t>e_DE1-220,e_DE2-220,e_DE3-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0079,elc_spv-DEU_0079</t>
+  </si>
+  <si>
+    <t>e_DE108-220,e_w156960655-380,e_w172997498-220,e_w456386244-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0176,elc_spv-DEU_0176</t>
+  </si>
+  <si>
+    <t>e_DE16-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0017,elc_spv-DEU_0017</t>
+  </si>
+  <si>
+    <t>e_DE31-380,e_w61918154-220,e_w61918154-380,e_w796306640-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0046,elc_spv-DEU_0046</t>
+  </si>
+  <si>
+    <t>e_DE63-220,e_DE94-380,e_DE95-380,e_w25943440-220,e_w25943440-380,e_w42797575-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0123,elc_spv-DEU_0123</t>
+  </si>
+  <si>
+    <t>e_w133342285-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0097,elc_spv-DEU_0097</t>
+  </si>
+  <si>
+    <t>e_w157164284-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0185,elc_spv-DEU_0185</t>
+  </si>
+  <si>
+    <t>e_w414169327-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0172,elc_spv-DEU_0172</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0141,elc_spv-DEU_0141</t>
+  </si>
+  <si>
+    <t>e_w28956649-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0149,elc_spv-DEU_0149</t>
+  </si>
+  <si>
+    <t>e_w851299584-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0035,elc_spv-DEU_0035</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0014,elc_spv-DEU_0014</t>
+  </si>
+  <si>
+    <t>e_DE105-220,e_DE111-380,e_DE118-220,e_DE122-220,e_DE124-380,e_DE126-220,e_DE129-220,e_DE130-380,e_w106096507-380,e_w1118059105-220,e_w22690852-220,e_w22761692-220,e_w22761692-380,e_w22761839-220,e_w22761839-380,e_w23140544-220,e_w23192640-220,e_w25043127-380,e_w25044557-380,e_w27871140-220,e_w33816726-380,e_w87767098-380,e_w92165128-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0026,elc_spv-DEU_0026</t>
+  </si>
+  <si>
+    <t>e_DE166-220,e_DE171-220,e_w198448981-380,e_w373967500-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0065,elc_spv-DEU_0065</t>
+  </si>
+  <si>
+    <t>e_DE28-380,e_w202164315-380,e_w24604789-380,e_w27739871-220,e_w27739871-380,e_w953015049-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0132,elc_spv-DEU_0132</t>
+  </si>
+  <si>
+    <t>e_DE29-220,e_w33169401-220,e_w33169401-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0048,elc_spv-DEU_0048</t>
+  </si>
+  <si>
+    <t>e_DE30-220,e_DE30-380,e_DE32-220,e_DE33-380,e_DE34-380,e_DE35-220,e_DE35-380,e_w32904794-380,e_w33411203-220,e_w33411203-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0031,elc_spv-DEU_0031</t>
+  </si>
+  <si>
+    <t>e_DE37-220,e_DE38-220,e_DE53-380,e_DE56-380,e_w111973179-220,e_w114319248-220,e_w114319248-380,e_w25506770-380,e_w29472852-220,e_w29472852-380,e_w37764852-220,e_w37764852-380,e_w42861703-220,e_w42861703-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0030,elc_spv-DEU_0030</t>
+  </si>
+  <si>
+    <t>e_DE61-380,e_DE64-220,e_DE65-380,e_DE71-220,e_DE85-380,e_DE88-380,e_DE91-380,e_w112695048-380,e_w157628351-380,e_w24414688-220,e_w24667346-220,e_w24667346-380,e_w24858617-220,e_w42488850-380,e_w42507488-220,e_w42507488-380,e_w42560068-380,e_w42809973-380,e_w51940126-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0173,elc_spv-DEU_0173</t>
+  </si>
+  <si>
+    <t>e_w1068350839-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0033,elc_spv-DEU_0033</t>
+  </si>
+  <si>
+    <t>e_w50643382-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0135,elc_spv-DEU_0135</t>
+  </si>
+  <si>
+    <t>e_w234171369-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0029,elc_spv-DEU_0029</t>
+  </si>
+  <si>
+    <t>e_DE109-220,e_DE132-220,e_w132814303-220,e_w83916207-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0000,elc_spv-DEU_0000</t>
+  </si>
+  <si>
+    <t>e_DE175-220,e_DE177-220,e_w82773910-220,e_w82773910-380,e_w82773910-400,e_w89215122-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0057,elc_spv-DEU_0057</t>
+  </si>
+  <si>
+    <t>e_DE184-380,e_DE185-380,e_DE186-380,e_DE187-380,e_DE188-380,e_DE189-380,e_DE190-380,e_DE191-380,e_DE192-380,e_DE193-380,e_w147878692-380,e_w22960899-380,e_w25786404-220,e_w25786404-380,e_w37721677-380,e_w41334805-220,e_w41334805-380,e_w43688805-220,e_w43688805-380,e_w48428875-380,e_w97825259-220,e_w97825259-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0163,elc_spv-DEU_0163</t>
+  </si>
+  <si>
+    <t>e_DE21-220,e_DE25-380,e_w11500045-380,e_w27149550-220,e_w27149550-380,e_w30132758-380,e_w30303506-380,e_w30309989-220,e_w43163132-380,e_w46615737-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0099,elc_spv-DEU_0099</t>
+  </si>
+  <si>
+    <t>e_DE36-220,e_w24258096-380,e_w24272339-380,e_w24272541-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0016,elc_spv-DEU_0016</t>
+  </si>
+  <si>
+    <t>e_DE39-220,e_DE41-380,e_DE45-380,e_DE50-380,e_DE54-380,e_w844075808-380,e_w952346322-380,e_w979801144-220,e_w979801144-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0152,elc_spv-DEU_0152</t>
+  </si>
+  <si>
+    <t>e_DE5-380,e_w32063539-380,e_w32318130-220,e_w940919943</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0151,elc_spv-DEU_0151</t>
+  </si>
+  <si>
+    <t>e_w1094015892-220,e_w1094015892-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0102,elc_spv-DEU_0102</t>
+  </si>
+  <si>
+    <t>e_w1102237380-220,e_w1102237380-380,e_w1191459479-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0010,elc_spv-DEU_0010</t>
+  </si>
+  <si>
+    <t>e_w152018146-220,e_w152018146-380,e_w156402422-220,e_w207756597-220,e_w54359256-220,e_w54359256-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0122,elc_spv-DEU_0122</t>
+  </si>
+  <si>
+    <t>e_w24158385-220,e_w26245195-220,e_w26245195-380,e_w5404079-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0011,elc_spv-DEU_0011</t>
+  </si>
+  <si>
+    <t>e_w42097854-220,e_w42097854-380,e_w66764943-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0008,elc_spv-DEU_0008</t>
+  </si>
+  <si>
+    <t>e_w672738029-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0169,elc_spv-DEU_0169</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0092,elc_spv-DEU_0092</t>
+  </si>
+  <si>
+    <t>e_w24705761-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0095,elc_spv-DEU_0095</t>
   </si>
   <si>
     <t>elc_won-DEU_0128,elc_spv-DEU_0128</t>
@@ -4391,9 +5171,6 @@
     <t>elc_won-DEU_0182,elc_spv-DEU_0182</t>
   </si>
   <si>
-    <t>e_w941805476-380</t>
-  </si>
-  <si>
     <t>elc_won-DEU_0165,elc_spv-DEU_0165</t>
   </si>
   <si>
@@ -4418,781 +5195,100 @@
     <t>e_w24768051-220</t>
   </si>
   <si>
-    <t>elc_won-DEU_0062,elc_spv-DEU_0062</t>
-  </si>
-  <si>
-    <t>e_DE121-380,e_w156673636-380,e_w41072584-380,e_w41232144-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0028,elc_spv-DEU_0028</t>
-  </si>
-  <si>
-    <t>e_DE135-220,e_DE137-220,e_DE137-380,e_DE140-380,e_DE143-380,e_DE145-220,e_DE147-380,e_DE148-220,e_DE148-380,e_DE150-380,e_w152403632-220,e_w152403632-380,e_w89043564-220,e_w89043564-380,e_w90148336-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0013,elc_spv-DEU_0013</t>
-  </si>
-  <si>
-    <t>e_DE138-220,e_DE138-380,e_DE139-220,e_DE139-380,e_DE144-380,e_DE153-380,e_DE154-380,e_w22765517-220,e_w22765517-380,e_w22766160-220,e_w22766160-380,e_w22767509-220,e_w22767509-380,e_w22796434-220,e_w26777313-380,e_w29374542-220,e_w32148946-220,e_w42423415-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0093,elc_spv-DEU_0093</t>
-  </si>
-  <si>
-    <t>e_DE163-220,e_w108797675-380,e_w24758329-380,e_w499165542-220,e_w499165542-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0080,elc_spv-DEU_0080</t>
-  </si>
-  <si>
-    <t>e_DE59-220,e_DE60-220,e_w952004951-220,e_w952004951-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0055,elc_spv-DEU_0055</t>
-  </si>
-  <si>
-    <t>e_w102743264-220,e_w25306752-220,e_w25306752-380,e_w31367936-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0101,elc_spv-DEU_0101</t>
-  </si>
-  <si>
-    <t>e_w1089911133-380,e_w23583867-380,e_w28327356-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0059,elc_spv-DEU_0059</t>
-  </si>
-  <si>
-    <t>e_w145002769-380,e_w55069713-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0091,elc_spv-DEU_0091</t>
-  </si>
-  <si>
-    <t>e_w38325076-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0019,elc_spv-DEU_0019</t>
-  </si>
-  <si>
-    <t>e_w559702819-220,e_w559702819-380,e_w672738029-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0147,elc_spv-DEU_0147</t>
-  </si>
-  <si>
-    <t>e_w40621568-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0171,elc_spv-DEU_0171</t>
-  </si>
-  <si>
-    <t>e_w942771541-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0067,elc_spv-DEU_0067</t>
-  </si>
-  <si>
-    <t>e_DE13-380,e_DE14-380,e_w1072574879-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0024,elc_spv-DEU_0024</t>
-  </si>
-  <si>
-    <t>e_DE194-220,e_w39011884-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0021,elc_spv-DEU_0021</t>
-  </si>
-  <si>
-    <t>e_DE213-380,e_w202865176-220,e_w202865177-380,e_w88916034-220,e_w88916034-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0081,elc_spv-DEU_0081</t>
-  </si>
-  <si>
-    <t>e_DE55-220,e_DE57-380,e_w23899043-380,e_w30109913-220,e_w699048438-220,e_w810315511-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0086,elc_spv-DEU_0086</t>
-  </si>
-  <si>
-    <t>e_w27646106-220,e_w35176751-220,e_w35176751-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0070,elc_spv-DEU_0070</t>
-  </si>
-  <si>
-    <t>e_w449010725-380,e_w946969736-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0120,elc_spv-DEU_0120</t>
-  </si>
-  <si>
-    <t>e_w275466323-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0143,elc_spv-DEU_0143</t>
-  </si>
-  <si>
-    <t>e_w167352587-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0158,elc_spv-DEU_0158</t>
-  </si>
-  <si>
-    <t>e_w166604822-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0029,elc_spv-DEU_0029</t>
-  </si>
-  <si>
-    <t>e_DE109-220,e_DE132-220,e_w132814303-220,e_w83916207-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0000,elc_spv-DEU_0000</t>
-  </si>
-  <si>
-    <t>e_DE175-220,e_DE177-220,e_w82773910-220,e_w82773910-380,e_w82773910-400,e_w89215122-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0057,elc_spv-DEU_0057</t>
-  </si>
-  <si>
-    <t>e_DE184-380,e_DE185-380,e_DE186-380,e_DE187-380,e_DE188-380,e_DE189-380,e_DE190-380,e_DE191-380,e_DE192-380,e_DE193-380,e_w147878692-380,e_w22960899-380,e_w25786404-220,e_w25786404-380,e_w37721677-380,e_w41334805-220,e_w41334805-380,e_w43688805-220,e_w43688805-380,e_w48428875-380,e_w97825259-220,e_w97825259-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0163,elc_spv-DEU_0163</t>
-  </si>
-  <si>
-    <t>e_DE21-220,e_DE25-380,e_w11500045-380,e_w27149550-220,e_w27149550-380,e_w30132758-380,e_w30303506-380,e_w30309989-220,e_w43163132-380,e_w46615737-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0099,elc_spv-DEU_0099</t>
-  </si>
-  <si>
-    <t>e_DE36-220,e_w24258096-380,e_w24272339-380,e_w24272541-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0016,elc_spv-DEU_0016</t>
-  </si>
-  <si>
-    <t>e_DE39-220,e_DE41-380,e_DE45-380,e_DE50-380,e_DE54-380,e_w844075808-380,e_w952346322-380,e_w979801144-220,e_w979801144-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0152,elc_spv-DEU_0152</t>
-  </si>
-  <si>
-    <t>e_DE5-380,e_w32063539-380,e_w32318130-220,e_w940919943</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0151,elc_spv-DEU_0151</t>
-  </si>
-  <si>
-    <t>e_w1094015892-220,e_w1094015892-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0102,elc_spv-DEU_0102</t>
-  </si>
-  <si>
-    <t>e_w1102237380-220,e_w1102237380-380,e_w1191459479-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0010,elc_spv-DEU_0010</t>
-  </si>
-  <si>
-    <t>e_w152018146-220,e_w152018146-380,e_w156402422-220,e_w207756597-220,e_w54359256-220,e_w54359256-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0122,elc_spv-DEU_0122</t>
-  </si>
-  <si>
-    <t>e_w24158385-220,e_w26245195-220,e_w26245195-380,e_w5404079-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0011,elc_spv-DEU_0011</t>
-  </si>
-  <si>
-    <t>e_w42097854-220,e_w42097854-380,e_w66764943-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0008,elc_spv-DEU_0008</t>
-  </si>
-  <si>
-    <t>e_w672738029-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0169,elc_spv-DEU_0169</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0092,elc_spv-DEU_0092</t>
-  </si>
-  <si>
-    <t>e_w24705761-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0095,elc_spv-DEU_0095</t>
-  </si>
-  <si>
-    <t>e_w948341123-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0066,elc_spv-DEU_0066</t>
-  </si>
-  <si>
-    <t>e_DE15-220,e_w229565743-220,e_w28812249-220,e_w955268863-220,e_w955268863-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0043,elc_spv-DEU_0043</t>
-  </si>
-  <si>
-    <t>e_DE159-380,e_DE160-220,e_DE161-380,e_DE162-380,e_w169244940-220,e_w169244940-380,e_w23641079-220,e_w23641079-380,e_w38661452-380,e_w4826893-220,e_w62061952-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0175,elc_spv-DEU_0175</t>
-  </si>
-  <si>
-    <t>e_DE22-220,e_DE22-380,e_DE23-220,e_DE23-380,e_DE24-220,e_DE24-380,e_DE26-380,e_DE27-220,e_DE27-380,e_w22973052-220,e_w22973070-220,e_w22973070-380,e_w30954714-380,e_w940636813-220,e_w940636813-380,e_w942448206-220,e_w942448206-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0114,elc_spv-DEU_0114</t>
-  </si>
-  <si>
-    <t>e_DE44-380,e_w26474759-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0069,elc_spv-DEU_0069</t>
-  </si>
-  <si>
-    <t>e_w1071504343-380,e_w603661085-380,e_w907539360-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0179,elc_spv-DEU_0179</t>
-  </si>
-  <si>
-    <t>e_w1091984573-220,e_w1091984573-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0050,elc_spv-DEU_0050</t>
-  </si>
-  <si>
-    <t>e_w1134105414-380,e_w157421333-220,e_w266684854-380,e_w32076853-220,e_w32076853-380,e_w42872354-220,e_w829116805-220,e_w829116805-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0124,elc_spv-DEU_0124</t>
-  </si>
-  <si>
-    <t>e_w137602559-220,e_w137602559-380,e_w24759324-220,e_w24768051-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0045,elc_spv-DEU_0045</t>
-  </si>
-  <si>
-    <t>e_w42799487-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0156,elc_spv-DEU_0156</t>
-  </si>
-  <si>
-    <t>e_w78441561-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0129,elc_spv-DEU_0129</t>
-  </si>
-  <si>
-    <t>e_w29713902-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0020,elc_spv-DEU_0020</t>
-  </si>
-  <si>
-    <t>e_w559702819-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0052,elc_spv-DEU_0052</t>
-  </si>
-  <si>
-    <t>e_w603661085-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0053,elc_spv-DEU_0053</t>
-  </si>
-  <si>
-    <t>e_w946969736-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0181,elc_spv-DEU_0181</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0127,elc_spv-DEU_0127</t>
-  </si>
-  <si>
-    <t>e_DE157-380,e_DE158-380,e_w93341407-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0042,elc_spv-DEU_0042</t>
-  </si>
-  <si>
-    <t>e_DE165-380,e_DE168-380,e_w1223405794-220,e_w1223405794-380,e_w147521567-220,e_w147521567-380,e_w149987048-220,e_w149987048-380,e_w23284340-220,e_w23284340-380,e_w24685992-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0076,elc_spv-DEU_0076</t>
-  </si>
-  <si>
-    <t>e_DE169-220,e_w24765111-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0155,elc_spv-DEU_0155</t>
-  </si>
-  <si>
-    <t>e_DE201-220,e_DE203-220,e_DE204-220,e_DE206-220,e_w24976300-220,e_w24976300-380,e_w91086220-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0103,elc_spv-DEU_0103</t>
-  </si>
-  <si>
-    <t>e_DE4-220,e_w27124619-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0002,elc_spv-DEU_0002</t>
-  </si>
-  <si>
-    <t>e_w1024536785-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0118,elc_spv-DEU_0118</t>
-  </si>
-  <si>
-    <t>e_w275466323,e_w275466323-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0142,elc_spv-DEU_0142</t>
-  </si>
-  <si>
-    <t>e_w29084374-220,e_w29084374-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0037,elc_spv-DEU_0037</t>
-  </si>
-  <si>
-    <t>e_w31367940-220,e_w31367940-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0166,elc_spv-DEU_0166</t>
-  </si>
-  <si>
-    <t>e_w39688875-220,e_w515358077-380,e_w941453716-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0119,elc_spv-DEU_0119</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0187,elc_spv-DEU_0187</t>
-  </si>
-  <si>
-    <t>e_w170123812-400</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0115,elc_spv-DEU_0115</t>
-  </si>
-  <si>
-    <t>e_w26474759-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0015,elc_spv-DEU_0015</t>
-  </si>
-  <si>
-    <t>e_DE100-220,e_DE100-380,e_DE102-220,e_DE102-380,e_DE66-220,e_DE66-380,e_DE68-220,e_DE68-380,e_DE69-220,e_DE69-380,e_DE72-220,e_DE75-380,e_DE76-380,e_DE78-220,e_DE80-220,e_DE80-380,e_DE81-220,e_DE82-220,e_DE83-220,e_DE84-220,e_DE86-220,e_DE87-220,e_DE87-380,e_DE89-220,e_DE89-380,e_DE92-220,e_DE96-220,e_DE96-380,e_DE98-220,e_w1076001174-220,e_w1076001174-380,e_w113546939-220,e_w113546939-380,e_w121199242-220,e_w121199242-380,e_w1303270458-220,e_w1303270458-380,e_w150267232-220,e_w156973363-220,e_w22944791-220,e_w22964137-380,e_w23022100-220,e_w23022100-380,e_w23067006-380,e_w24280460-380,e_w24415232-220,e_w24921206-220,e_w24921206-380,e_w25051880-220,e_w26291794-380,e_w275138524-380,e_w28452784-220,e_w29077623-220,e_w29077623-380,e_w311444691-380,e_w32472806-380,e_w35763480-220,e_w35763480-380,e_w38584673-220,e_w425100082-380,e_w59925390-220,e_w59925390-380,e_w63114179-220,e_w63114179-380,e_w66038431-220,e_w68549340-220,e_w68549340-380,e_w698870101-220,e_w787840119-220,e_w799361667-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0183,elc_spv-DEU_0183</t>
-  </si>
-  <si>
-    <t>e_DE58-380,e_DE99-380,e_w157806991-380,e_w30164703-380,e_w58429825-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0112,elc_spv-DEU_0112</t>
-  </si>
-  <si>
-    <t>e_w143882655-220,e_w143882655-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0078,elc_spv-DEU_0078</t>
-  </si>
-  <si>
-    <t>e_w148446247-380,e_w29309786-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0012,elc_spv-DEU_0012</t>
-  </si>
-  <si>
-    <t>e_w154869247-220,e_w395847307-220,e_w395847307-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0126,elc_spv-DEU_0126</t>
-  </si>
-  <si>
-    <t>e_w93341407-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0007,elc_spv-DEU_0007</t>
-  </si>
-  <si>
-    <t>e_w979801144-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0157,elc_spv-DEU_0157</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0083,elc_spv-DEU_0083</t>
-  </si>
-  <si>
-    <t>e_w23816140-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0040,elc_spv-DEU_0040</t>
-  </si>
-  <si>
-    <t>e_DE183-220,e_w152261133-220,e_w152261133-380,e_w254326606-380,e_w32151621-220,e_w32725957-220,e_w32725958-220,e_w32731290-220,e_w32966636-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0018,elc_spv-DEU_0018</t>
-  </si>
-  <si>
-    <t>e_DE20-380,e_w1280840211-380,e_w142487746-380,e_w206289192-380,e_w32042992-380,e_w797009308-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0073,elc_spv-DEU_0073</t>
-  </si>
-  <si>
-    <t>e_DE202-220,e_DE202-380,e_DE205-220,e_DE205-380,e_w26404600-380,e_w41389594-220,e_w41389594-380,e_w85523877-220,e_w85523877-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0104,elc_spv-DEU_0104</t>
-  </si>
-  <si>
-    <t>e_DE211-220,e_DE212-220,e_w68532663-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0131,elc_spv-DEU_0131</t>
-  </si>
-  <si>
-    <t>e_DE47-220,e_w26472665-220,e_w26472665-380,e_w943939310-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0064,elc_spv-DEU_0064</t>
-  </si>
-  <si>
-    <t>e_DE49-380,e_w23135618-220,e_w24413992-380,e_w28397771-220,e_w288305056-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0186,elc_spv-DEU_0186</t>
-  </si>
-  <si>
-    <t>e_w170123812-220,e_w170123812-380,e_w170123812-400</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0105,elc_spv-DEU_0105</t>
-  </si>
-  <si>
-    <t>e_w23907283-380,e_w24237879-220,e_w30613895-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0088,elc_spv-DEU_0088</t>
-  </si>
-  <si>
-    <t>e_w57727004-220,e_w57727004-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0089,elc_spv-DEU_0089</t>
-  </si>
-  <si>
-    <t>e_w683227471-380,e_w77038371-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0023,elc_spv-DEU_0023</t>
-  </si>
-  <si>
-    <t>e_w82130902-225,e_w933248930-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0137,elc_spv-DEU_0137</t>
-  </si>
-  <si>
-    <t>e_w75865676-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0036,elc_spv-DEU_0036</t>
-  </si>
-  <si>
-    <t>e_w29420322-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0188,elc_spv-DEU_0188</t>
-  </si>
-  <si>
-    <t>e_w1222597066-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0061,elc_spv-DEU_0061</t>
-  </si>
-  <si>
-    <t>e_w156673636-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0113,elc_spv-DEU_0113</t>
-  </si>
-  <si>
-    <t>e_w32690742-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0049,elc_spv-DEU_0049</t>
-  </si>
-  <si>
-    <t>e_DE17-380,e_w24493551-380,e_w44717036-380,e_w871646309-380,e_w951273401-380,e_w951773852-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0041,elc_spv-DEU_0041</t>
-  </si>
-  <si>
-    <t>e_DE174-220,e_DE176-220,e_DE178-380,e_DE180-220,e_DE181-380,e_DE182-380,e_r17591073-220,e_w152924498-220,e_w152924498-380,e_w152924508-220,e_w152973139-220,e_w152973139-380,e_w156676050-220,e_w160929097-220,e_w207248812-220,e_w207248812-380,e_w259561755-380,e_w409305507-220,e_w46584363-220,e_w46584363-380,e_w48057110-380,e_w600395952-220,e_w600395952-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0133,elc_spv-DEU_0133</t>
-  </si>
-  <si>
-    <t>e_DE18-220,e_DE18-380,e_DE19-380,e_w59707532-220,e_w59707532-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0134,elc_spv-DEU_0134</t>
-  </si>
-  <si>
-    <t>e_w234171369-380,e_w274603394-380,e_w517421342-220,e_w517421342-380,e_w851299584-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0060,elc_spv-DEU_0060</t>
-  </si>
-  <si>
-    <t>e_w23881272-220,e_w24042358-380,e_w42372159-380,e_w42410916-220,e_w42410916-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0108,elc_spv-DEU_0108</t>
-  </si>
-  <si>
-    <t>e_w24705761-220,e_w24705761-380,e_w28613721-380,e_w954971276-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0148,elc_spv-DEU_0148</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0178,elc_spv-DEU_0178</t>
-  </si>
-  <si>
-    <t>e_w1091984573-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0072,elc_spv-DEU_0072</t>
-  </si>
-  <si>
-    <t>e_w41389594-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0180,elc_spv-DEU_0180</t>
-  </si>
-  <si>
-    <t>e_DE1-220,e_DE2-220,e_DE3-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0079,elc_spv-DEU_0079</t>
-  </si>
-  <si>
-    <t>e_DE108-220,e_w156960655-380,e_w172997498-220,e_w456386244-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0176,elc_spv-DEU_0176</t>
-  </si>
-  <si>
-    <t>e_DE16-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0017,elc_spv-DEU_0017</t>
-  </si>
-  <si>
-    <t>e_DE31-380,e_w61918154-220,e_w61918154-380,e_w796306640-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0046,elc_spv-DEU_0046</t>
-  </si>
-  <si>
-    <t>e_DE63-220,e_DE94-380,e_DE95-380,e_w25943440-220,e_w25943440-380,e_w42797575-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0123,elc_spv-DEU_0123</t>
-  </si>
-  <si>
-    <t>e_w133342285-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0097,elc_spv-DEU_0097</t>
-  </si>
-  <si>
-    <t>e_w157164284-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0185,elc_spv-DEU_0185</t>
-  </si>
-  <si>
-    <t>e_w414169327-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0172,elc_spv-DEU_0172</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0141,elc_spv-DEU_0141</t>
-  </si>
-  <si>
-    <t>e_w28956649-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0149,elc_spv-DEU_0149</t>
-  </si>
-  <si>
-    <t>e_w851299584-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0035,elc_spv-DEU_0035</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0111,elc_spv-DEU_0111</t>
-  </si>
-  <si>
-    <t>e_DE134-380,e_w149256409-380,e_w152219167-220,e_w25746125-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0003,elc_spv-DEU_0003</t>
-  </si>
-  <si>
-    <t>e_DE136-380,e_DE141-380,e_w24268944-380,e_w25426571-380,e_w25992879-380,e_w26593935-380,e_w870598507,e_w870598507-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0056,elc_spv-DEU_0056</t>
-  </si>
-  <si>
-    <t>e_DE195-380,e_DE196-380,e_DE197-380,e_DE198-380,e_DE199-380,e_w26260052-380,e_w30734324-380,e_w42736239-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0150,elc_spv-DEU_0150</t>
-  </si>
-  <si>
-    <t>e_DE9-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0032,elc_spv-DEU_0032</t>
-  </si>
-  <si>
-    <t>e_w150200540-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0025,elc_spv-DEU_0025</t>
-  </si>
-  <si>
-    <t>e_w152107815-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0160,elc_spv-DEU_0160</t>
-  </si>
-  <si>
-    <t>e_w157328339-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0109,elc_spv-DEU_0109</t>
-  </si>
-  <si>
-    <t>e_w24757393-380,e_w24757833-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0164,elc_spv-DEU_0164</t>
-  </si>
-  <si>
-    <t>e_w518455594-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0022,elc_spv-DEU_0022</t>
-  </si>
-  <si>
-    <t>e_w87653464-220,e_w87653464-380,e_w87653464-400</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0096,elc_spv-DEU_0096</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0153,elc_spv-DEU_0153</t>
-  </si>
-  <si>
-    <t>e_w91080806-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0168,elc_spv-DEU_0168</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0014,elc_spv-DEU_0014</t>
-  </si>
-  <si>
-    <t>e_DE105-220,e_DE111-380,e_DE118-220,e_DE122-220,e_DE124-380,e_DE126-220,e_DE129-220,e_DE130-380,e_w106096507-380,e_w1118059105-220,e_w22690852-220,e_w22761692-220,e_w22761692-380,e_w22761839-220,e_w22761839-380,e_w23140544-220,e_w23192640-220,e_w25043127-380,e_w25044557-380,e_w27871140-220,e_w33816726-380,e_w87767098-380,e_w92165128-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0026,elc_spv-DEU_0026</t>
-  </si>
-  <si>
-    <t>e_DE166-220,e_DE171-220,e_w198448981-380,e_w373967500-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0065,elc_spv-DEU_0065</t>
-  </si>
-  <si>
-    <t>e_DE28-380,e_w202164315-380,e_w24604789-380,e_w27739871-220,e_w27739871-380,e_w953015049-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0132,elc_spv-DEU_0132</t>
-  </si>
-  <si>
-    <t>e_DE29-220,e_w33169401-220,e_w33169401-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0048,elc_spv-DEU_0048</t>
-  </si>
-  <si>
-    <t>e_DE30-220,e_DE30-380,e_DE32-220,e_DE33-380,e_DE34-380,e_DE35-220,e_DE35-380,e_w32904794-380,e_w33411203-220,e_w33411203-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0031,elc_spv-DEU_0031</t>
-  </si>
-  <si>
-    <t>e_DE37-220,e_DE38-220,e_DE53-380,e_DE56-380,e_w111973179-220,e_w114319248-220,e_w114319248-380,e_w25506770-380,e_w29472852-220,e_w29472852-380,e_w37764852-220,e_w37764852-380,e_w42861703-220,e_w42861703-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0030,elc_spv-DEU_0030</t>
-  </si>
-  <si>
-    <t>e_DE61-380,e_DE64-220,e_DE65-380,e_DE71-220,e_DE85-380,e_DE88-380,e_DE91-380,e_w112695048-380,e_w157628351-380,e_w24414688-220,e_w24667346-220,e_w24667346-380,e_w24858617-220,e_w42488850-380,e_w42507488-220,e_w42507488-380,e_w42560068-380,e_w42809973-380,e_w51940126-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0173,elc_spv-DEU_0173</t>
-  </si>
-  <si>
-    <t>e_w1068350839-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0033,elc_spv-DEU_0033</t>
-  </si>
-  <si>
-    <t>e_w50643382-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0135,elc_spv-DEU_0135</t>
-  </si>
-  <si>
-    <t>e_w234171369-380</t>
+    <t>distr_wofelc_wof-DEU_0118</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_118</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0055</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_55</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0087</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_87</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0037</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_37</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0009</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_9</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0011</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_11</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0054</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_54</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0023</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_23</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0020</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_20</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0086</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_86</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0024</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_24</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0179</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_179</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0084</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_84</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0085</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_85</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0172</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_172</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0004</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_4</t>
   </si>
   <si>
     <t>distr_wofelc_wof-DEU_0021</t>
@@ -5201,36 +5297,6 @@
     <t>connecting wind offshore to buses in grid cell DEU_21</t>
   </si>
   <si>
-    <t>distr_wofelc_wof-DEU_0118</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_118</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0055</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_55</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0087</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_87</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0037</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_37</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0009</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_9</t>
-  </si>
-  <si>
     <t>distr_wofelc_wof-DEU_0149</t>
   </si>
   <si>
@@ -5255,6 +5321,48 @@
     <t>connecting wind offshore to buses in grid cell DEU_134</t>
   </si>
   <si>
+    <t>distr_wofelc_wof-DEU_0180</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_180</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0036</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_36</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0001</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_1</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0002</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_2</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0133</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_133</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0012</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_12</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0010</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_10</t>
+  </si>
+  <si>
     <t>distr_wofelc_wof-DEU_0103</t>
   </si>
   <si>
@@ -5273,30 +5381,6 @@
     <t>connecting wind offshore to buses in grid cell DEU_119</t>
   </si>
   <si>
-    <t>distr_wofelc_wof-DEU_0133</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_133</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0012</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_12</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0010</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_10</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0054</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_54</t>
-  </si>
-  <si>
     <t>distr_wofelc_wof-DEU_0069</t>
   </si>
   <si>
@@ -5315,30 +5399,6 @@
     <t>connecting wind offshore to buses in grid cell DEU_163</t>
   </si>
   <si>
-    <t>distr_wofelc_wof-DEU_0180</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_180</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0036</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_36</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0001</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_1</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0002</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_2</t>
-  </si>
-  <si>
     <t>distr_wofelc_wof-DEU_0173</t>
   </si>
   <si>
@@ -5357,93 +5417,81 @@
     <t>connecting wind offshore to buses in grid cell DEU_3</t>
   </si>
   <si>
-    <t>distr_wofelc_wof-DEU_0023</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_23</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0084</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_84</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0085</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_85</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0172</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_172</t>
-  </si>
-  <si>
     <t>distr_wofelc_wof-DEU_0039</t>
   </si>
   <si>
     <t>connecting wind offshore to buses in grid cell DEU_39</t>
   </si>
   <si>
-    <t>distr_wofelc_wof-DEU_0011</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_11</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0020</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_20</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0086</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_86</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0024</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_24</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0179</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_179</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0004</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_4</t>
+    <t>elc_wof-DEU_0118</t>
+  </si>
+  <si>
+    <t>e_w1102237380-220,e_w1102237380-380,e_w275466323,e_w275466323-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0055</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0087</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0037</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0009</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0011</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0054</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0023</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0020</t>
+  </si>
+  <si>
+    <t>e_w1280840211-380,e_w559702819-220,e_w559702819-380,e_w672738029-220</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0086</t>
+  </si>
+  <si>
+    <t>e_w35176751-220,e_w35176751-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0024</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0179</t>
+  </si>
+  <si>
+    <t>e_DE2-220</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0084</t>
+  </si>
+  <si>
+    <t>e_DE10-380,e_DE11-380,e_DE12-380,e_DE13-380,e_DE14-380,e_w11285720-380,e_w24502420-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0085</t>
+  </si>
+  <si>
+    <t>e_DE6-380,e_DE7-220,e_DE8-380,e_w1107961833-380,e_w25306938-380,e_w525964617,e_w525964629-380,e_w60032354-220,e_w87722999-220,e_w87722999-380,e_w881636329-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0172</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0004</t>
   </si>
   <si>
     <t>elc_wof-DEU_0021</t>
   </si>
   <si>
-    <t>elc_wof-DEU_0118</t>
-  </si>
-  <si>
-    <t>e_w1102237380-220,e_w1102237380-380,e_w275466323,e_w275466323-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0055</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0087</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0037</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0009</t>
-  </si>
-  <si>
     <t>elc_wof-DEU_0149</t>
   </si>
   <si>
@@ -5459,6 +5507,30 @@
     <t>elc_wof-DEU_0134</t>
   </si>
   <si>
+    <t>elc_wof-DEU_0180</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0036</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0001</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0002</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0133</t>
+  </si>
+  <si>
+    <t>e_w234171369-380,e_w30040568-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0012</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0010</t>
+  </si>
+  <si>
     <t>elc_wof-DEU_0103</t>
   </si>
   <si>
@@ -5471,21 +5543,6 @@
     <t>elc_wof-DEU_0119</t>
   </si>
   <si>
-    <t>elc_wof-DEU_0133</t>
-  </si>
-  <si>
-    <t>e_w234171369-380,e_w30040568-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0012</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0010</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0054</t>
-  </si>
-  <si>
     <t>elc_wof-DEU_0069</t>
   </si>
   <si>
@@ -5501,21 +5558,6 @@
     <t>elc_wof-DEU_0163</t>
   </si>
   <si>
-    <t>elc_wof-DEU_0180</t>
-  </si>
-  <si>
-    <t>e_DE2-220</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0036</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0001</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0002</t>
-  </si>
-  <si>
     <t>elc_wof-DEU_0173</t>
   </si>
   <si>
@@ -5531,49 +5573,7 @@
     <t>elc_wof-DEU_0003</t>
   </si>
   <si>
-    <t>elc_wof-DEU_0023</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0084</t>
-  </si>
-  <si>
-    <t>e_DE10-380,e_DE11-380,e_DE12-380,e_DE13-380,e_DE14-380,e_w11285720-380,e_w24502420-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0085</t>
-  </si>
-  <si>
-    <t>e_DE6-380,e_DE7-220,e_DE8-380,e_w1107961833-380,e_w25306938-380,e_w525964617,e_w525964629-380,e_w60032354-220,e_w87722999-220,e_w87722999-380,e_w881636329-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0172</t>
-  </si>
-  <si>
     <t>elc_wof-DEU_0039</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0011</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0020</t>
-  </si>
-  <si>
-    <t>e_w1280840211-380,e_w559702819-220,e_w559702819-380,e_w672738029-220</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0086</t>
-  </si>
-  <si>
-    <t>e_w35176751-220,e_w35176751-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0024</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0179</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0004</t>
   </si>
   <si>
     <t>e_won-DEU_0000</t>
@@ -15133,7 +15133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA3CF17-3D73-40C1-A918-763C1C6F125D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1135997F-61A1-4C4F-8775-2D100EBA0CBD}">
   <dimension ref="B9:AR198"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15350,7 +15350,7 @@
         <v>1</v>
       </c>
       <c r="AC11" t="s">
-        <v>823</v>
+        <v>595</v>
       </c>
       <c r="AE11" t="s">
         <v>942</v>
@@ -15383,13 +15383,13 @@
         <v>1764</v>
       </c>
       <c r="AP11" t="s">
-        <v>1496</v>
+        <v>1765</v>
       </c>
       <c r="AQ11">
         <v>1</v>
       </c>
       <c r="AR11" t="s">
-        <v>607</v>
+        <v>799</v>
       </c>
     </row>
     <row r="12" spans="2:44">
@@ -15466,7 +15466,7 @@
         <v>1</v>
       </c>
       <c r="AC12" t="s">
-        <v>881</v>
+        <v>929</v>
       </c>
       <c r="AE12" t="s">
         <v>942</v>
@@ -15496,16 +15496,16 @@
         <v>1690</v>
       </c>
       <c r="AO12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="AP12" t="s">
-        <v>1766</v>
+        <v>1478</v>
       </c>
       <c r="AQ12">
         <v>1</v>
       </c>
       <c r="AR12" t="s">
-        <v>799</v>
+        <v>673</v>
       </c>
     </row>
     <row r="13" spans="2:44">
@@ -15582,7 +15582,7 @@
         <v>1</v>
       </c>
       <c r="AC13" t="s">
-        <v>641</v>
+        <v>787</v>
       </c>
       <c r="AE13" t="s">
         <v>942</v>
@@ -15615,13 +15615,13 @@
         <v>1767</v>
       </c>
       <c r="AP13" t="s">
-        <v>1529</v>
+        <v>1662</v>
       </c>
       <c r="AQ13">
         <v>1</v>
       </c>
       <c r="AR13" t="s">
-        <v>673</v>
+        <v>737</v>
       </c>
     </row>
     <row r="14" spans="2:44">
@@ -15698,7 +15698,7 @@
         <v>1</v>
       </c>
       <c r="AC14" t="s">
-        <v>759</v>
+        <v>719</v>
       </c>
       <c r="AE14" t="s">
         <v>942</v>
@@ -15731,13 +15731,13 @@
         <v>1768</v>
       </c>
       <c r="AP14" t="s">
-        <v>1402</v>
+        <v>1570</v>
       </c>
       <c r="AQ14">
         <v>1</v>
       </c>
       <c r="AR14" t="s">
-        <v>737</v>
+        <v>639</v>
       </c>
     </row>
     <row r="15" spans="2:44">
@@ -15814,7 +15814,7 @@
         <v>1</v>
       </c>
       <c r="AC15" t="s">
-        <v>659</v>
+        <v>589</v>
       </c>
       <c r="AE15" t="s">
         <v>942</v>
@@ -15847,13 +15847,13 @@
         <v>1769</v>
       </c>
       <c r="AP15" t="s">
-        <v>1598</v>
+        <v>1644</v>
       </c>
       <c r="AQ15">
         <v>1</v>
       </c>
       <c r="AR15" t="s">
-        <v>639</v>
+        <v>583</v>
       </c>
     </row>
     <row r="16" spans="2:44">
@@ -15930,7 +15930,7 @@
         <v>1</v>
       </c>
       <c r="AC16" t="s">
-        <v>633</v>
+        <v>815</v>
       </c>
       <c r="AE16" t="s">
         <v>942</v>
@@ -15963,13 +15963,13 @@
         <v>1770</v>
       </c>
       <c r="AP16" t="s">
-        <v>1496</v>
+        <v>1644</v>
       </c>
       <c r="AQ16">
         <v>1</v>
       </c>
       <c r="AR16" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="17" spans="2:44">
@@ -16046,7 +16046,7 @@
         <v>1</v>
       </c>
       <c r="AC17" t="s">
-        <v>783</v>
+        <v>579</v>
       </c>
       <c r="AE17" t="s">
         <v>942</v>
@@ -16079,13 +16079,13 @@
         <v>1771</v>
       </c>
       <c r="AP17" t="s">
-        <v>1484</v>
+        <v>1570</v>
       </c>
       <c r="AQ17">
         <v>1</v>
       </c>
       <c r="AR17" t="s">
-        <v>861</v>
+        <v>671</v>
       </c>
     </row>
     <row r="18" spans="2:44">
@@ -16162,7 +16162,7 @@
         <v>1</v>
       </c>
       <c r="AC18" t="s">
-        <v>711</v>
+        <v>877</v>
       </c>
       <c r="AE18" t="s">
         <v>942</v>
@@ -16195,13 +16195,13 @@
         <v>1772</v>
       </c>
       <c r="AP18" t="s">
-        <v>1773</v>
+        <v>1474</v>
       </c>
       <c r="AQ18">
         <v>1</v>
       </c>
       <c r="AR18" t="s">
-        <v>667</v>
+        <v>611</v>
       </c>
     </row>
     <row r="19" spans="2:44">
@@ -16278,7 +16278,7 @@
         <v>1</v>
       </c>
       <c r="AC19" t="s">
-        <v>763</v>
+        <v>729</v>
       </c>
       <c r="AE19" t="s">
         <v>942</v>
@@ -16308,16 +16308,16 @@
         <v>1704</v>
       </c>
       <c r="AO19" t="s">
+        <v>1773</v>
+      </c>
+      <c r="AP19" t="s">
         <v>1774</v>
       </c>
-      <c r="AP19" t="s">
-        <v>1598</v>
-      </c>
       <c r="AQ19">
         <v>1</v>
       </c>
       <c r="AR19" t="s">
-        <v>641</v>
+        <v>605</v>
       </c>
     </row>
     <row r="20" spans="2:44">
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="AC20" t="s">
-        <v>797</v>
+        <v>573</v>
       </c>
       <c r="AE20" t="s">
         <v>942</v>
@@ -16427,13 +16427,13 @@
         <v>1775</v>
       </c>
       <c r="AP20" t="s">
-        <v>1366</v>
+        <v>1776</v>
       </c>
       <c r="AQ20">
         <v>1</v>
       </c>
       <c r="AR20" t="s">
-        <v>831</v>
+        <v>735</v>
       </c>
     </row>
     <row r="21" spans="2:44">
@@ -16510,7 +16510,7 @@
         <v>1</v>
       </c>
       <c r="AC21" t="s">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="AE21" t="s">
         <v>942</v>
@@ -16540,16 +16540,16 @@
         <v>1708</v>
       </c>
       <c r="AO21" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="AP21" t="s">
-        <v>1777</v>
+        <v>1474</v>
       </c>
       <c r="AQ21">
         <v>1</v>
       </c>
       <c r="AR21" t="s">
-        <v>769</v>
+        <v>613</v>
       </c>
     </row>
     <row r="22" spans="2:44">
@@ -16626,7 +16626,7 @@
         <v>1</v>
       </c>
       <c r="AC22" t="s">
-        <v>855</v>
+        <v>917</v>
       </c>
       <c r="AE22" t="s">
         <v>942</v>
@@ -16659,13 +16659,13 @@
         <v>1778</v>
       </c>
       <c r="AP22" t="s">
-        <v>1525</v>
+        <v>1779</v>
       </c>
       <c r="AQ22">
         <v>1</v>
       </c>
       <c r="AR22" t="s">
-        <v>609</v>
+        <v>921</v>
       </c>
     </row>
     <row r="23" spans="2:44">
@@ -16742,7 +16742,7 @@
         <v>1</v>
       </c>
       <c r="AC23" t="s">
-        <v>805</v>
+        <v>713</v>
       </c>
       <c r="AE23" t="s">
         <v>942</v>
@@ -16772,16 +16772,16 @@
         <v>1712</v>
       </c>
       <c r="AO23" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="AP23" t="s">
-        <v>1466</v>
+        <v>1781</v>
       </c>
       <c r="AQ23">
         <v>1</v>
       </c>
       <c r="AR23" t="s">
-        <v>801</v>
+        <v>731</v>
       </c>
     </row>
     <row r="24" spans="2:44">
@@ -16858,7 +16858,7 @@
         <v>1</v>
       </c>
       <c r="AC24" t="s">
-        <v>903</v>
+        <v>775</v>
       </c>
       <c r="AE24" t="s">
         <v>942</v>
@@ -16888,16 +16888,16 @@
         <v>1714</v>
       </c>
       <c r="AO24" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="AP24" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="AQ24">
         <v>1</v>
       </c>
       <c r="AR24" t="s">
-        <v>829</v>
+        <v>733</v>
       </c>
     </row>
     <row r="25" spans="2:44">
@@ -16974,7 +16974,7 @@
         <v>1</v>
       </c>
       <c r="AC25" t="s">
-        <v>751</v>
+        <v>643</v>
       </c>
       <c r="AE25" t="s">
         <v>942</v>
@@ -17004,16 +17004,16 @@
         <v>1716</v>
       </c>
       <c r="AO25" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="AP25" t="s">
-        <v>1496</v>
+        <v>1463</v>
       </c>
       <c r="AQ25">
         <v>1</v>
       </c>
       <c r="AR25" t="s">
-        <v>589</v>
+        <v>907</v>
       </c>
     </row>
     <row r="26" spans="2:44">
@@ -17090,7 +17090,7 @@
         <v>1</v>
       </c>
       <c r="AC26" t="s">
-        <v>689</v>
+        <v>887</v>
       </c>
       <c r="AE26" t="s">
         <v>942</v>
@@ -17120,16 +17120,16 @@
         <v>1718</v>
       </c>
       <c r="AO26" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="AP26" t="s">
-        <v>1496</v>
+        <v>1644</v>
       </c>
       <c r="AQ26">
         <v>1</v>
       </c>
       <c r="AR26" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
     </row>
     <row r="27" spans="2:44">
@@ -17206,7 +17206,7 @@
         <v>1</v>
       </c>
       <c r="AC27" t="s">
-        <v>853</v>
+        <v>897</v>
       </c>
       <c r="AE27" t="s">
         <v>942</v>
@@ -17236,16 +17236,16 @@
         <v>1720</v>
       </c>
       <c r="AO27" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="AP27" t="s">
-        <v>1598</v>
+        <v>1644</v>
       </c>
       <c r="AQ27">
         <v>1</v>
       </c>
       <c r="AR27" t="s">
-        <v>671</v>
+        <v>607</v>
       </c>
     </row>
     <row r="28" spans="2:44">
@@ -17322,7 +17322,7 @@
         <v>1</v>
       </c>
       <c r="AC28" t="s">
-        <v>619</v>
+        <v>577</v>
       </c>
       <c r="AE28" t="s">
         <v>942</v>
@@ -17352,16 +17352,16 @@
         <v>1722</v>
       </c>
       <c r="AO28" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="AP28" t="s">
-        <v>1786</v>
+        <v>1632</v>
       </c>
       <c r="AQ28">
         <v>1</v>
       </c>
       <c r="AR28" t="s">
-        <v>701</v>
+        <v>861</v>
       </c>
     </row>
     <row r="29" spans="2:44">
@@ -17438,7 +17438,7 @@
         <v>1</v>
       </c>
       <c r="AC29" t="s">
-        <v>679</v>
+        <v>583</v>
       </c>
       <c r="AE29" t="s">
         <v>942</v>
@@ -17468,16 +17468,16 @@
         <v>1724</v>
       </c>
       <c r="AO29" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="AP29" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="AQ29">
         <v>1</v>
       </c>
       <c r="AR29" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="30" spans="2:44">
@@ -17554,7 +17554,7 @@
         <v>1</v>
       </c>
       <c r="AC30" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AE30" t="s">
         <v>942</v>
@@ -17584,16 +17584,16 @@
         <v>1726</v>
       </c>
       <c r="AO30" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="AP30" t="s">
-        <v>1384</v>
+        <v>1570</v>
       </c>
       <c r="AQ30">
         <v>1</v>
       </c>
       <c r="AR30" t="s">
-        <v>889</v>
+        <v>641</v>
       </c>
     </row>
     <row r="31" spans="2:44">
@@ -17670,7 +17670,7 @@
         <v>1</v>
       </c>
       <c r="AC31" t="s">
-        <v>843</v>
+        <v>613</v>
       </c>
       <c r="AE31" t="s">
         <v>942</v>
@@ -17700,16 +17700,16 @@
         <v>1728</v>
       </c>
       <c r="AO31" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="AP31" t="s">
-        <v>1791</v>
+        <v>1542</v>
       </c>
       <c r="AQ31">
         <v>1</v>
       </c>
       <c r="AR31" t="s">
-        <v>923</v>
+        <v>831</v>
       </c>
     </row>
     <row r="32" spans="2:44">
@@ -17780,13 +17780,13 @@
         <v>1364</v>
       </c>
       <c r="AA32" t="s">
-        <v>1341</v>
+        <v>1365</v>
       </c>
       <c r="AB32">
         <v>1</v>
       </c>
       <c r="AC32" t="s">
-        <v>795</v>
+        <v>607</v>
       </c>
       <c r="AE32" t="s">
         <v>942</v>
@@ -17819,13 +17819,13 @@
         <v>1792</v>
       </c>
       <c r="AP32" t="s">
-        <v>1598</v>
+        <v>1779</v>
       </c>
       <c r="AQ32">
         <v>1</v>
       </c>
       <c r="AR32" t="s">
-        <v>637</v>
+        <v>923</v>
       </c>
     </row>
     <row r="33" spans="2:44">
@@ -17893,16 +17893,16 @@
         <v>989</v>
       </c>
       <c r="Z33" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="AA33" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="AB33">
         <v>1</v>
       </c>
       <c r="AC33" t="s">
-        <v>835</v>
+        <v>725</v>
       </c>
       <c r="AE33" t="s">
         <v>942</v>
@@ -17935,13 +17935,13 @@
         <v>1793</v>
       </c>
       <c r="AP33" t="s">
-        <v>1496</v>
+        <v>1570</v>
       </c>
       <c r="AQ33">
         <v>1</v>
       </c>
       <c r="AR33" t="s">
-        <v>567</v>
+        <v>637</v>
       </c>
     </row>
     <row r="34" spans="2:44">
@@ -18009,16 +18009,16 @@
         <v>991</v>
       </c>
       <c r="Z34" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="AA34" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="AB34">
         <v>1</v>
       </c>
       <c r="AC34" t="s">
-        <v>671</v>
+        <v>735</v>
       </c>
       <c r="AE34" t="s">
         <v>942</v>
@@ -18051,13 +18051,13 @@
         <v>1794</v>
       </c>
       <c r="AP34" t="s">
-        <v>1496</v>
+        <v>1644</v>
       </c>
       <c r="AQ34">
         <v>1</v>
       </c>
       <c r="AR34" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="35" spans="2:44">
@@ -18125,16 +18125,16 @@
         <v>993</v>
       </c>
       <c r="Z35" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="AA35" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="AB35">
         <v>1</v>
       </c>
       <c r="AC35" t="s">
-        <v>573</v>
+        <v>703</v>
       </c>
       <c r="AE35" t="s">
         <v>942</v>
@@ -18167,13 +18167,13 @@
         <v>1795</v>
       </c>
       <c r="AP35" t="s">
-        <v>1796</v>
+        <v>1644</v>
       </c>
       <c r="AQ35">
         <v>1</v>
       </c>
       <c r="AR35" t="s">
-        <v>909</v>
+        <v>569</v>
       </c>
     </row>
     <row r="36" spans="2:44">
@@ -18241,16 +18241,16 @@
         <v>995</v>
       </c>
       <c r="Z36" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="AA36" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="AB36">
         <v>1</v>
       </c>
       <c r="AC36" t="s">
-        <v>851</v>
+        <v>803</v>
       </c>
       <c r="AE36" t="s">
         <v>942</v>
@@ -18280,16 +18280,16 @@
         <v>1738</v>
       </c>
       <c r="AO36" t="s">
+        <v>1796</v>
+      </c>
+      <c r="AP36" t="s">
         <v>1797</v>
       </c>
-      <c r="AP36" t="s">
-        <v>1798</v>
-      </c>
       <c r="AQ36">
         <v>1</v>
       </c>
       <c r="AR36" t="s">
-        <v>919</v>
+        <v>829</v>
       </c>
     </row>
     <row r="37" spans="2:44">
@@ -18357,16 +18357,16 @@
         <v>997</v>
       </c>
       <c r="Z37" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="AA37" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="AB37">
         <v>1</v>
       </c>
       <c r="AC37" t="s">
-        <v>917</v>
+        <v>849</v>
       </c>
       <c r="AE37" t="s">
         <v>942</v>
@@ -18396,16 +18396,16 @@
         <v>1740</v>
       </c>
       <c r="AO37" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="AP37" t="s">
-        <v>1496</v>
+        <v>1644</v>
       </c>
       <c r="AQ37">
         <v>1</v>
       </c>
       <c r="AR37" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
     </row>
     <row r="38" spans="2:44">
@@ -18473,16 +18473,16 @@
         <v>999</v>
       </c>
       <c r="Z38" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="AA38" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="AB38">
         <v>1</v>
       </c>
       <c r="AC38" t="s">
-        <v>713</v>
+        <v>879</v>
       </c>
       <c r="AE38" t="s">
         <v>942</v>
@@ -18512,16 +18512,16 @@
         <v>1742</v>
       </c>
       <c r="AO38" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="AP38" t="s">
-        <v>1525</v>
+        <v>1644</v>
       </c>
       <c r="AQ38">
         <v>1</v>
       </c>
       <c r="AR38" t="s">
-        <v>611</v>
+        <v>585</v>
       </c>
     </row>
     <row r="39" spans="2:44">
@@ -18589,16 +18589,16 @@
         <v>1001</v>
       </c>
       <c r="Z39" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="AA39" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="AB39">
         <v>1</v>
       </c>
       <c r="AC39" t="s">
-        <v>775</v>
+        <v>785</v>
       </c>
       <c r="AE39" t="s">
         <v>942</v>
@@ -18628,16 +18628,16 @@
         <v>1744</v>
       </c>
       <c r="AO39" t="s">
+        <v>1800</v>
+      </c>
+      <c r="AP39" t="s">
         <v>1801</v>
       </c>
-      <c r="AP39" t="s">
-        <v>1802</v>
-      </c>
       <c r="AQ39">
         <v>1</v>
       </c>
       <c r="AR39" t="s">
-        <v>731</v>
+        <v>769</v>
       </c>
     </row>
     <row r="40" spans="2:44">
@@ -18705,16 +18705,16 @@
         <v>1003</v>
       </c>
       <c r="Z40" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="AA40" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="AB40">
         <v>1</v>
       </c>
       <c r="AC40" t="s">
-        <v>643</v>
+        <v>571</v>
       </c>
       <c r="AE40" t="s">
         <v>942</v>
@@ -18744,16 +18744,16 @@
         <v>1746</v>
       </c>
       <c r="AO40" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="AP40" t="s">
-        <v>1804</v>
+        <v>1474</v>
       </c>
       <c r="AQ40">
         <v>1</v>
       </c>
       <c r="AR40" t="s">
-        <v>733</v>
+        <v>609</v>
       </c>
     </row>
     <row r="41" spans="2:44">
@@ -18821,16 +18821,16 @@
         <v>1005</v>
       </c>
       <c r="Z41" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="AA41" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="AB41">
         <v>1</v>
       </c>
       <c r="AC41" t="s">
-        <v>887</v>
+        <v>675</v>
       </c>
       <c r="AE41" t="s">
         <v>942</v>
@@ -18860,16 +18860,16 @@
         <v>1748</v>
       </c>
       <c r="AO41" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="AP41" t="s">
-        <v>1513</v>
+        <v>1373</v>
       </c>
       <c r="AQ41">
         <v>1</v>
       </c>
       <c r="AR41" t="s">
-        <v>907</v>
+        <v>801</v>
       </c>
     </row>
     <row r="42" spans="2:44">
@@ -18937,16 +18937,16 @@
         <v>1007</v>
       </c>
       <c r="Z42" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="AA42" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="AB42">
         <v>1</v>
       </c>
       <c r="AC42" t="s">
-        <v>897</v>
+        <v>863</v>
       </c>
       <c r="AE42" t="s">
         <v>942</v>
@@ -18976,16 +18976,16 @@
         <v>1750</v>
       </c>
       <c r="AO42" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="AP42" t="s">
-        <v>1529</v>
+        <v>1805</v>
       </c>
       <c r="AQ42">
         <v>1</v>
       </c>
       <c r="AR42" t="s">
-        <v>643</v>
+        <v>701</v>
       </c>
     </row>
     <row r="43" spans="2:44">
@@ -19053,16 +19053,16 @@
         <v>1009</v>
       </c>
       <c r="Z43" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="AA43" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="AB43">
         <v>1</v>
       </c>
       <c r="AC43" t="s">
-        <v>577</v>
+        <v>629</v>
       </c>
       <c r="AE43" t="s">
         <v>942</v>
@@ -19092,16 +19092,16 @@
         <v>1752</v>
       </c>
       <c r="AO43" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AP43" t="s">
         <v>1807</v>
       </c>
-      <c r="AP43" t="s">
-        <v>1496</v>
-      </c>
       <c r="AQ43">
         <v>1</v>
       </c>
       <c r="AR43" t="s">
-        <v>587</v>
+        <v>669</v>
       </c>
     </row>
     <row r="44" spans="2:44">
@@ -19169,16 +19169,16 @@
         <v>1011</v>
       </c>
       <c r="Z44" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="AA44" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="AB44">
         <v>1</v>
       </c>
       <c r="AC44" t="s">
-        <v>583</v>
+        <v>615</v>
       </c>
       <c r="AE44" t="s">
         <v>942</v>
@@ -19211,13 +19211,13 @@
         <v>1808</v>
       </c>
       <c r="AP44" t="s">
-        <v>1809</v>
+        <v>1355</v>
       </c>
       <c r="AQ44">
         <v>1</v>
       </c>
       <c r="AR44" t="s">
-        <v>605</v>
+        <v>889</v>
       </c>
     </row>
     <row r="45" spans="2:44">
@@ -19285,16 +19285,16 @@
         <v>1013</v>
       </c>
       <c r="Z45" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="AA45" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="AB45">
         <v>1</v>
       </c>
       <c r="AC45" t="s">
-        <v>819</v>
+        <v>883</v>
       </c>
       <c r="AE45" t="s">
         <v>942</v>
@@ -19324,16 +19324,16 @@
         <v>1756</v>
       </c>
       <c r="AO45" t="s">
+        <v>1809</v>
+      </c>
+      <c r="AP45" t="s">
         <v>1810</v>
       </c>
-      <c r="AP45" t="s">
-        <v>1811</v>
-      </c>
       <c r="AQ45">
         <v>1</v>
       </c>
       <c r="AR45" t="s">
-        <v>735</v>
+        <v>909</v>
       </c>
     </row>
     <row r="46" spans="2:44">
@@ -19401,16 +19401,16 @@
         <v>1015</v>
       </c>
       <c r="Z46" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="AA46" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="AB46">
         <v>1</v>
       </c>
       <c r="AC46" t="s">
-        <v>567</v>
+        <v>781</v>
       </c>
       <c r="AE46" t="s">
         <v>942</v>
@@ -19440,16 +19440,16 @@
         <v>1758</v>
       </c>
       <c r="AO46" t="s">
+        <v>1811</v>
+      </c>
+      <c r="AP46" t="s">
         <v>1812</v>
       </c>
-      <c r="AP46" t="s">
-        <v>1525</v>
-      </c>
       <c r="AQ46">
         <v>1</v>
       </c>
       <c r="AR46" t="s">
-        <v>613</v>
+        <v>919</v>
       </c>
     </row>
     <row r="47" spans="2:44">
@@ -19517,16 +19517,16 @@
         <v>1017</v>
       </c>
       <c r="Z47" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="AA47" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="AB47">
         <v>1</v>
       </c>
       <c r="AC47" t="s">
-        <v>931</v>
+        <v>891</v>
       </c>
       <c r="AE47" t="s">
         <v>942</v>
@@ -19559,13 +19559,13 @@
         <v>1813</v>
       </c>
       <c r="AP47" t="s">
-        <v>1791</v>
+        <v>1644</v>
       </c>
       <c r="AQ47">
         <v>1</v>
       </c>
       <c r="AR47" t="s">
-        <v>921</v>
+        <v>571</v>
       </c>
     </row>
     <row r="48" spans="2:44">
@@ -19633,16 +19633,16 @@
         <v>1019</v>
       </c>
       <c r="Z48" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="AA48" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="AB48">
         <v>1</v>
       </c>
       <c r="AC48" t="s">
-        <v>733</v>
+        <v>609</v>
       </c>
       <c r="AE48" t="s">
         <v>942</v>
@@ -19675,13 +19675,13 @@
         <v>1814</v>
       </c>
       <c r="AP48" t="s">
-        <v>1496</v>
+        <v>1478</v>
       </c>
       <c r="AQ48">
         <v>1</v>
       </c>
       <c r="AR48" t="s">
-        <v>573</v>
+        <v>643</v>
       </c>
     </row>
     <row r="49" spans="2:29">
@@ -19749,16 +19749,16 @@
         <v>1021</v>
       </c>
       <c r="Z49" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="AA49" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="AB49">
         <v>1</v>
       </c>
       <c r="AC49" t="s">
-        <v>705</v>
+        <v>755</v>
       </c>
     </row>
     <row r="50" spans="2:29">
@@ -19826,16 +19826,16 @@
         <v>1023</v>
       </c>
       <c r="Z50" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="AA50" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="AB50">
         <v>1</v>
       </c>
       <c r="AC50" t="s">
-        <v>839</v>
+        <v>869</v>
       </c>
     </row>
     <row r="51" spans="2:29">
@@ -19903,16 +19903,16 @@
         <v>1025</v>
       </c>
       <c r="Z51" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="AA51" t="s">
-        <v>1402</v>
+        <v>1355</v>
       </c>
       <c r="AB51">
         <v>1</v>
       </c>
       <c r="AC51" t="s">
-        <v>737</v>
+        <v>899</v>
       </c>
     </row>
     <row r="52" spans="2:29">
@@ -19989,7 +19989,7 @@
         <v>1</v>
       </c>
       <c r="AC52" t="s">
-        <v>731</v>
+        <v>687</v>
       </c>
     </row>
     <row r="53" spans="2:29">
@@ -20066,7 +20066,7 @@
         <v>1</v>
       </c>
       <c r="AC53" t="s">
-        <v>653</v>
+        <v>621</v>
       </c>
     </row>
     <row r="54" spans="2:29">
@@ -20143,7 +20143,7 @@
         <v>1</v>
       </c>
       <c r="AC54" t="s">
-        <v>743</v>
+        <v>591</v>
       </c>
     </row>
     <row r="55" spans="2:29">
@@ -20220,7 +20220,7 @@
         <v>1</v>
       </c>
       <c r="AC55" t="s">
-        <v>575</v>
+        <v>749</v>
       </c>
     </row>
     <row r="56" spans="2:29">
@@ -20297,7 +20297,7 @@
         <v>1</v>
       </c>
       <c r="AC56" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="57" spans="2:29">
@@ -20374,7 +20374,7 @@
         <v>1</v>
       </c>
       <c r="AC57" t="s">
-        <v>885</v>
+        <v>673</v>
       </c>
     </row>
     <row r="58" spans="2:29">
@@ -20451,7 +20451,7 @@
         <v>1</v>
       </c>
       <c r="AC58" t="s">
-        <v>813</v>
+        <v>765</v>
       </c>
     </row>
     <row r="59" spans="2:29">
@@ -20528,7 +20528,7 @@
         <v>1</v>
       </c>
       <c r="AC59" t="s">
-        <v>911</v>
+        <v>681</v>
       </c>
     </row>
     <row r="60" spans="2:29">
@@ -20605,7 +20605,7 @@
         <v>1</v>
       </c>
       <c r="AC60" t="s">
-        <v>927</v>
+        <v>745</v>
       </c>
     </row>
     <row r="61" spans="2:29">
@@ -20682,7 +20682,7 @@
         <v>1</v>
       </c>
       <c r="AC61" t="s">
-        <v>893</v>
+        <v>603</v>
       </c>
     </row>
     <row r="62" spans="2:29">
@@ -20759,7 +20759,7 @@
         <v>1</v>
       </c>
       <c r="AC62" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
     </row>
     <row r="63" spans="2:29">
@@ -20836,7 +20836,7 @@
         <v>1</v>
       </c>
       <c r="AC63" t="s">
-        <v>717</v>
+        <v>905</v>
       </c>
     </row>
     <row r="64" spans="2:29">
@@ -20913,7 +20913,7 @@
         <v>1</v>
       </c>
       <c r="AC64" t="s">
-        <v>777</v>
+        <v>817</v>
       </c>
     </row>
     <row r="65" spans="2:29">
@@ -20990,7 +20990,7 @@
         <v>1</v>
       </c>
       <c r="AC65" t="s">
-        <v>687</v>
+        <v>649</v>
       </c>
     </row>
     <row r="66" spans="2:29">
@@ -21067,7 +21067,7 @@
         <v>1</v>
       </c>
       <c r="AC66" t="s">
-        <v>621</v>
+        <v>715</v>
       </c>
     </row>
     <row r="67" spans="2:29">
@@ -21144,7 +21144,7 @@
         <v>1</v>
       </c>
       <c r="AC67" t="s">
-        <v>591</v>
+        <v>873</v>
       </c>
     </row>
     <row r="68" spans="2:29">
@@ -21221,7 +21221,7 @@
         <v>1</v>
       </c>
       <c r="AC68" t="s">
-        <v>749</v>
+        <v>769</v>
       </c>
     </row>
     <row r="69" spans="2:29">
@@ -21298,7 +21298,7 @@
         <v>1</v>
       </c>
       <c r="AC69" t="s">
-        <v>723</v>
+        <v>569</v>
       </c>
     </row>
     <row r="70" spans="2:29">
@@ -21375,7 +21375,7 @@
         <v>1</v>
       </c>
       <c r="AC70" t="s">
-        <v>673</v>
+        <v>799</v>
       </c>
     </row>
     <row r="71" spans="2:29">
@@ -21452,7 +21452,7 @@
         <v>1</v>
       </c>
       <c r="AC71" t="s">
-        <v>765</v>
+        <v>847</v>
       </c>
     </row>
     <row r="72" spans="2:29">
@@ -21529,7 +21529,7 @@
         <v>1</v>
       </c>
       <c r="AC72" t="s">
-        <v>681</v>
+        <v>639</v>
       </c>
     </row>
     <row r="73" spans="2:29">
@@ -21606,7 +21606,7 @@
         <v>1</v>
       </c>
       <c r="AC73" t="s">
-        <v>745</v>
+        <v>895</v>
       </c>
     </row>
     <row r="74" spans="2:29">
@@ -21677,13 +21677,13 @@
         <v>1447</v>
       </c>
       <c r="AA74" t="s">
-        <v>1448</v>
+        <v>1373</v>
       </c>
       <c r="AB74">
         <v>1</v>
       </c>
       <c r="AC74" t="s">
-        <v>603</v>
+        <v>801</v>
       </c>
     </row>
     <row r="75" spans="2:29">
@@ -21751,16 +21751,16 @@
         <v>1073</v>
       </c>
       <c r="Z75" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AA75" t="s">
         <v>1449</v>
       </c>
-      <c r="AA75" t="s">
-        <v>1450</v>
-      </c>
       <c r="AB75">
         <v>1</v>
       </c>
       <c r="AC75" t="s">
-        <v>857</v>
+        <v>937</v>
       </c>
     </row>
     <row r="76" spans="2:29">
@@ -21828,16 +21828,16 @@
         <v>1075</v>
       </c>
       <c r="Z76" t="s">
+        <v>1450</v>
+      </c>
+      <c r="AA76" t="s">
         <v>1451</v>
       </c>
-      <c r="AA76" t="s">
-        <v>1452</v>
-      </c>
       <c r="AB76">
         <v>1</v>
       </c>
       <c r="AC76" t="s">
-        <v>905</v>
+        <v>793</v>
       </c>
     </row>
     <row r="77" spans="2:29">
@@ -21905,16 +21905,16 @@
         <v>1077</v>
       </c>
       <c r="Z77" t="s">
+        <v>1452</v>
+      </c>
+      <c r="AA77" t="s">
         <v>1453</v>
       </c>
-      <c r="AA77" t="s">
-        <v>1454</v>
-      </c>
       <c r="AB77">
         <v>1</v>
       </c>
       <c r="AC77" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="78" spans="2:29">
@@ -21982,16 +21982,16 @@
         <v>1079</v>
       </c>
       <c r="Z78" t="s">
+        <v>1454</v>
+      </c>
+      <c r="AA78" t="s">
         <v>1455</v>
       </c>
-      <c r="AA78" t="s">
-        <v>1456</v>
-      </c>
       <c r="AB78">
         <v>1</v>
       </c>
       <c r="AC78" t="s">
-        <v>613</v>
+        <v>651</v>
       </c>
     </row>
     <row r="79" spans="2:29">
@@ -22059,16 +22059,16 @@
         <v>1081</v>
       </c>
       <c r="Z79" t="s">
+        <v>1456</v>
+      </c>
+      <c r="AA79" t="s">
         <v>1457</v>
       </c>
-      <c r="AA79" t="s">
-        <v>1458</v>
-      </c>
       <c r="AB79">
         <v>1</v>
       </c>
       <c r="AC79" t="s">
-        <v>607</v>
+        <v>913</v>
       </c>
     </row>
     <row r="80" spans="2:29">
@@ -22136,16 +22136,16 @@
         <v>1083</v>
       </c>
       <c r="Z80" t="s">
+        <v>1458</v>
+      </c>
+      <c r="AA80" t="s">
         <v>1459</v>
       </c>
-      <c r="AA80" t="s">
-        <v>1460</v>
-      </c>
       <c r="AB80">
         <v>1</v>
       </c>
       <c r="AC80" t="s">
-        <v>725</v>
+        <v>791</v>
       </c>
     </row>
     <row r="81" spans="2:29">
@@ -22213,16 +22213,16 @@
         <v>1085</v>
       </c>
       <c r="Z81" t="s">
+        <v>1460</v>
+      </c>
+      <c r="AA81" t="s">
         <v>1461</v>
       </c>
-      <c r="AA81" t="s">
-        <v>1462</v>
-      </c>
       <c r="AB81">
         <v>1</v>
       </c>
       <c r="AC81" t="s">
-        <v>735</v>
+        <v>701</v>
       </c>
     </row>
     <row r="82" spans="2:29">
@@ -22290,16 +22290,16 @@
         <v>1087</v>
       </c>
       <c r="Z82" t="s">
+        <v>1462</v>
+      </c>
+      <c r="AA82" t="s">
         <v>1463</v>
       </c>
-      <c r="AA82" t="s">
-        <v>1464</v>
-      </c>
       <c r="AB82">
         <v>1</v>
       </c>
       <c r="AC82" t="s">
-        <v>703</v>
+        <v>921</v>
       </c>
     </row>
     <row r="83" spans="2:29">
@@ -22367,16 +22367,16 @@
         <v>1089</v>
       </c>
       <c r="Z83" t="s">
+        <v>1464</v>
+      </c>
+      <c r="AA83" t="s">
         <v>1465</v>
       </c>
-      <c r="AA83" t="s">
-        <v>1466</v>
-      </c>
       <c r="AB83">
         <v>1</v>
       </c>
       <c r="AC83" t="s">
-        <v>803</v>
+        <v>665</v>
       </c>
     </row>
     <row r="84" spans="2:29">
@@ -22444,16 +22444,16 @@
         <v>1091</v>
       </c>
       <c r="Z84" t="s">
+        <v>1466</v>
+      </c>
+      <c r="AA84" t="s">
         <v>1467</v>
       </c>
-      <c r="AA84" t="s">
-        <v>1468</v>
-      </c>
       <c r="AB84">
         <v>1</v>
       </c>
       <c r="AC84" t="s">
-        <v>849</v>
+        <v>811</v>
       </c>
     </row>
     <row r="85" spans="2:29">
@@ -22521,16 +22521,16 @@
         <v>1093</v>
       </c>
       <c r="Z85" t="s">
+        <v>1468</v>
+      </c>
+      <c r="AA85" t="s">
         <v>1469</v>
       </c>
-      <c r="AA85" t="s">
-        <v>1470</v>
-      </c>
       <c r="AB85">
         <v>1</v>
       </c>
       <c r="AC85" t="s">
-        <v>879</v>
+        <v>655</v>
       </c>
     </row>
     <row r="86" spans="2:29">
@@ -22598,16 +22598,16 @@
         <v>1095</v>
       </c>
       <c r="Z86" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="AA86" t="s">
-        <v>1472</v>
+        <v>1337</v>
       </c>
       <c r="AB86">
         <v>1</v>
       </c>
       <c r="AC86" t="s">
-        <v>623</v>
+        <v>875</v>
       </c>
     </row>
     <row r="87" spans="2:29">
@@ -22675,16 +22675,16 @@
         <v>1097</v>
       </c>
       <c r="Z87" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="AA87" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="AB87">
         <v>1</v>
       </c>
       <c r="AC87" t="s">
-        <v>565</v>
+        <v>821</v>
       </c>
     </row>
     <row r="88" spans="2:29">
@@ -22752,16 +22752,16 @@
         <v>1099</v>
       </c>
       <c r="Z88" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="AA88" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="AB88">
         <v>1</v>
       </c>
       <c r="AC88" t="s">
-        <v>677</v>
+        <v>605</v>
       </c>
     </row>
     <row r="89" spans="2:29">
@@ -22829,16 +22829,16 @@
         <v>1101</v>
       </c>
       <c r="Z89" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="AA89" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="AB89">
         <v>1</v>
       </c>
       <c r="AC89" t="s">
-        <v>889</v>
+        <v>667</v>
       </c>
     </row>
     <row r="90" spans="2:29">
@@ -22906,16 +22906,16 @@
         <v>1103</v>
       </c>
       <c r="Z90" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="AA90" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="AB90">
         <v>1</v>
       </c>
       <c r="AC90" t="s">
-        <v>761</v>
+        <v>669</v>
       </c>
     </row>
     <row r="91" spans="2:29">
@@ -22983,16 +22983,16 @@
         <v>1105</v>
       </c>
       <c r="Z91" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="AA91" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="AB91">
         <v>1</v>
       </c>
       <c r="AC91" t="s">
-        <v>597</v>
+        <v>925</v>
       </c>
     </row>
     <row r="92" spans="2:29">
@@ -23060,16 +23060,16 @@
         <v>1107</v>
       </c>
       <c r="Z92" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="AA92" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="AB92">
         <v>1</v>
       </c>
       <c r="AC92" t="s">
-        <v>867</v>
+        <v>663</v>
       </c>
     </row>
     <row r="93" spans="2:29">
@@ -23137,16 +23137,16 @@
         <v>1109</v>
       </c>
       <c r="Z93" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="AA93" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="AB93">
         <v>1</v>
       </c>
       <c r="AC93" t="s">
-        <v>865</v>
+        <v>647</v>
       </c>
     </row>
     <row r="94" spans="2:29">
@@ -23214,16 +23214,16 @@
         <v>1111</v>
       </c>
       <c r="Z94" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="AA94" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="AB94">
         <v>1</v>
       </c>
       <c r="AC94" t="s">
-        <v>767</v>
+        <v>829</v>
       </c>
     </row>
     <row r="95" spans="2:29">
@@ -23291,16 +23291,16 @@
         <v>1113</v>
       </c>
       <c r="Z95" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="AA95" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="AB95">
         <v>1</v>
       </c>
       <c r="AC95" t="s">
-        <v>585</v>
+        <v>831</v>
       </c>
     </row>
     <row r="96" spans="2:29">
@@ -23368,16 +23368,16 @@
         <v>1115</v>
       </c>
       <c r="Z96" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="AA96" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="AB96">
         <v>1</v>
       </c>
       <c r="AC96" t="s">
-        <v>807</v>
+        <v>683</v>
       </c>
     </row>
     <row r="97" spans="2:29">
@@ -23445,16 +23445,16 @@
         <v>1117</v>
       </c>
       <c r="Z97" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="AA97" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="AB97">
         <v>1</v>
       </c>
       <c r="AC97" t="s">
-        <v>587</v>
+        <v>779</v>
       </c>
     </row>
     <row r="98" spans="2:29">
@@ -23522,16 +23522,16 @@
         <v>1119</v>
       </c>
       <c r="Z98" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="AA98" t="s">
-        <v>1496</v>
+        <v>1424</v>
       </c>
       <c r="AB98">
         <v>1</v>
       </c>
       <c r="AC98" t="s">
-        <v>581</v>
+        <v>859</v>
       </c>
     </row>
     <row r="99" spans="2:29">
@@ -23599,16 +23599,16 @@
         <v>1121</v>
       </c>
       <c r="Z99" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="AA99" t="s">
-        <v>1349</v>
+        <v>1495</v>
       </c>
       <c r="AB99">
         <v>1</v>
       </c>
       <c r="AC99" t="s">
-        <v>901</v>
+        <v>919</v>
       </c>
     </row>
     <row r="100" spans="2:29">
@@ -23676,16 +23676,16 @@
         <v>1123</v>
       </c>
       <c r="Z100" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="AA100" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="AB100">
         <v>1</v>
       </c>
       <c r="AC100" t="s">
-        <v>747</v>
+        <v>707</v>
       </c>
     </row>
     <row r="101" spans="2:29">
@@ -23753,16 +23753,16 @@
         <v>1125</v>
       </c>
       <c r="Z101" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="AA101" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="AB101">
         <v>1</v>
       </c>
       <c r="AC101" t="s">
-        <v>753</v>
+        <v>823</v>
       </c>
     </row>
     <row r="102" spans="2:29">
@@ -23830,16 +23830,16 @@
         <v>1127</v>
       </c>
       <c r="Z102" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="AA102" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="AB102">
         <v>1</v>
       </c>
       <c r="AC102" t="s">
-        <v>695</v>
+        <v>881</v>
       </c>
     </row>
     <row r="103" spans="2:29">
@@ -23907,16 +23907,16 @@
         <v>1129</v>
       </c>
       <c r="Z103" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="AA103" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="AB103">
         <v>1</v>
       </c>
       <c r="AC103" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
     </row>
     <row r="104" spans="2:29">
@@ -23984,16 +23984,16 @@
         <v>1131</v>
       </c>
       <c r="Z104" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="AA104" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="AB104">
         <v>1</v>
       </c>
       <c r="AC104" t="s">
-        <v>913</v>
+        <v>759</v>
       </c>
     </row>
     <row r="105" spans="2:29">
@@ -24061,16 +24061,16 @@
         <v>1133</v>
       </c>
       <c r="Z105" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="AA105" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="AB105">
         <v>1</v>
       </c>
       <c r="AC105" t="s">
-        <v>791</v>
+        <v>659</v>
       </c>
     </row>
     <row r="106" spans="2:29">
@@ -24138,16 +24138,16 @@
         <v>1135</v>
       </c>
       <c r="Z106" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="AA106" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="AB106">
         <v>1</v>
       </c>
       <c r="AC106" t="s">
-        <v>701</v>
+        <v>633</v>
       </c>
     </row>
     <row r="107" spans="2:29">
@@ -24215,16 +24215,16 @@
         <v>1137</v>
       </c>
       <c r="Z107" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="AA107" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="AB107">
         <v>1</v>
       </c>
       <c r="AC107" t="s">
-        <v>921</v>
+        <v>783</v>
       </c>
     </row>
     <row r="108" spans="2:29">
@@ -24292,16 +24292,16 @@
         <v>1139</v>
       </c>
       <c r="Z108" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="AA108" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="AB108">
         <v>1</v>
       </c>
       <c r="AC108" t="s">
-        <v>665</v>
+        <v>711</v>
       </c>
     </row>
     <row r="109" spans="2:29">
@@ -24369,16 +24369,16 @@
         <v>1141</v>
       </c>
       <c r="Z109" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="AA109" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="AB109">
         <v>1</v>
       </c>
       <c r="AC109" t="s">
-        <v>811</v>
+        <v>763</v>
       </c>
     </row>
     <row r="110" spans="2:29">
@@ -24446,16 +24446,16 @@
         <v>1143</v>
       </c>
       <c r="Z110" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="AA110" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AB110">
         <v>1</v>
       </c>
       <c r="AC110" t="s">
-        <v>655</v>
+        <v>797</v>
       </c>
     </row>
     <row r="111" spans="2:29">
@@ -24523,16 +24523,16 @@
         <v>1145</v>
       </c>
       <c r="Z111" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="AA111" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="AB111">
         <v>1</v>
       </c>
       <c r="AC111" t="s">
-        <v>875</v>
+        <v>841</v>
       </c>
     </row>
     <row r="112" spans="2:29">
@@ -24600,16 +24600,16 @@
         <v>1147</v>
       </c>
       <c r="Z112" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="AA112" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="AB112">
         <v>1</v>
       </c>
       <c r="AC112" t="s">
-        <v>821</v>
+        <v>855</v>
       </c>
     </row>
     <row r="113" spans="2:29">
@@ -24677,16 +24677,16 @@
         <v>1149</v>
       </c>
       <c r="Z113" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="AA113" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="AB113">
         <v>1</v>
       </c>
       <c r="AC113" t="s">
-        <v>605</v>
+        <v>805</v>
       </c>
     </row>
     <row r="114" spans="2:29">
@@ -24754,16 +24754,16 @@
         <v>1151</v>
       </c>
       <c r="Z114" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="AA114" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="AB114">
         <v>1</v>
       </c>
       <c r="AC114" t="s">
-        <v>667</v>
+        <v>903</v>
       </c>
     </row>
     <row r="115" spans="2:29">
@@ -24831,16 +24831,16 @@
         <v>1153</v>
       </c>
       <c r="Z115" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="AA115" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="AB115">
         <v>1</v>
       </c>
       <c r="AC115" t="s">
-        <v>669</v>
+        <v>751</v>
       </c>
     </row>
     <row r="116" spans="2:29">
@@ -24908,16 +24908,16 @@
         <v>1155</v>
       </c>
       <c r="Z116" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="AA116" t="s">
-        <v>1420</v>
+        <v>1529</v>
       </c>
       <c r="AB116">
         <v>1</v>
       </c>
       <c r="AC116" t="s">
-        <v>925</v>
+        <v>689</v>
       </c>
     </row>
     <row r="117" spans="2:29">
@@ -24985,16 +24985,16 @@
         <v>1157</v>
       </c>
       <c r="Z117" t="s">
+        <v>1530</v>
+      </c>
+      <c r="AA117" t="s">
         <v>1531</v>
       </c>
-      <c r="AA117" t="s">
-        <v>1532</v>
-      </c>
       <c r="AB117">
         <v>1</v>
       </c>
       <c r="AC117" t="s">
-        <v>817</v>
+        <v>853</v>
       </c>
     </row>
     <row r="118" spans="2:29">
@@ -25062,16 +25062,16 @@
         <v>1159</v>
       </c>
       <c r="Z118" t="s">
+        <v>1532</v>
+      </c>
+      <c r="AA118" t="s">
         <v>1533</v>
       </c>
-      <c r="AA118" t="s">
-        <v>1534</v>
-      </c>
       <c r="AB118">
         <v>1</v>
       </c>
       <c r="AC118" t="s">
-        <v>649</v>
+        <v>619</v>
       </c>
     </row>
     <row r="119" spans="2:29">
@@ -25139,16 +25139,16 @@
         <v>1161</v>
       </c>
       <c r="Z119" t="s">
+        <v>1534</v>
+      </c>
+      <c r="AA119" t="s">
         <v>1535</v>
       </c>
-      <c r="AA119" t="s">
-        <v>1536</v>
-      </c>
       <c r="AB119">
         <v>1</v>
       </c>
       <c r="AC119" t="s">
-        <v>715</v>
+        <v>679</v>
       </c>
     </row>
     <row r="120" spans="2:29">
@@ -25216,16 +25216,16 @@
         <v>1163</v>
       </c>
       <c r="Z120" t="s">
+        <v>1536</v>
+      </c>
+      <c r="AA120" t="s">
         <v>1537</v>
       </c>
-      <c r="AA120" t="s">
-        <v>1538</v>
-      </c>
       <c r="AB120">
         <v>1</v>
       </c>
       <c r="AC120" t="s">
-        <v>873</v>
+        <v>699</v>
       </c>
     </row>
     <row r="121" spans="2:29">
@@ -25293,16 +25293,16 @@
         <v>1165</v>
       </c>
       <c r="Z121" t="s">
+        <v>1538</v>
+      </c>
+      <c r="AA121" t="s">
         <v>1539</v>
       </c>
-      <c r="AA121" t="s">
-        <v>1540</v>
-      </c>
       <c r="AB121">
         <v>1</v>
       </c>
       <c r="AC121" t="s">
-        <v>769</v>
+        <v>843</v>
       </c>
     </row>
     <row r="122" spans="2:29">
@@ -25370,16 +25370,16 @@
         <v>1167</v>
       </c>
       <c r="Z122" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="AA122" t="s">
-        <v>1542</v>
+        <v>1517</v>
       </c>
       <c r="AB122">
         <v>1</v>
       </c>
       <c r="AC122" t="s">
-        <v>569</v>
+        <v>795</v>
       </c>
     </row>
     <row r="123" spans="2:29">
@@ -25447,16 +25447,16 @@
         <v>1169</v>
       </c>
       <c r="Z123" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="AA123" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="AB123">
         <v>1</v>
       </c>
       <c r="AC123" t="s">
-        <v>799</v>
+        <v>835</v>
       </c>
     </row>
     <row r="124" spans="2:29">
@@ -25524,16 +25524,16 @@
         <v>1171</v>
       </c>
       <c r="Z124" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="AA124" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="AB124">
         <v>1</v>
       </c>
       <c r="AC124" t="s">
-        <v>847</v>
+        <v>671</v>
       </c>
     </row>
     <row r="125" spans="2:29">
@@ -25601,16 +25601,16 @@
         <v>1173</v>
       </c>
       <c r="Z125" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="AA125" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="AB125">
         <v>1</v>
       </c>
       <c r="AC125" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="126" spans="2:29">
@@ -25678,16 +25678,16 @@
         <v>1175</v>
       </c>
       <c r="Z126" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="AA126" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="AB126">
         <v>1</v>
       </c>
       <c r="AC126" t="s">
-        <v>895</v>
+        <v>601</v>
       </c>
     </row>
     <row r="127" spans="2:29">
@@ -25755,16 +25755,16 @@
         <v>1177</v>
       </c>
       <c r="Z127" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="AA127" t="s">
-        <v>1466</v>
+        <v>1550</v>
       </c>
       <c r="AB127">
         <v>1</v>
       </c>
       <c r="AC127" t="s">
-        <v>801</v>
+        <v>709</v>
       </c>
     </row>
     <row r="128" spans="2:29">
@@ -25832,16 +25832,16 @@
         <v>1179</v>
       </c>
       <c r="Z128" t="s">
+        <v>1551</v>
+      </c>
+      <c r="AA128" t="s">
         <v>1552</v>
       </c>
-      <c r="AA128" t="s">
-        <v>1553</v>
-      </c>
       <c r="AB128">
         <v>1</v>
       </c>
       <c r="AC128" t="s">
-        <v>937</v>
+        <v>771</v>
       </c>
     </row>
     <row r="129" spans="2:29">
@@ -25909,16 +25909,16 @@
         <v>1181</v>
       </c>
       <c r="Z129" t="s">
+        <v>1553</v>
+      </c>
+      <c r="AA129" t="s">
         <v>1554</v>
       </c>
-      <c r="AA129" t="s">
-        <v>1555</v>
-      </c>
       <c r="AB129">
         <v>1</v>
       </c>
       <c r="AC129" t="s">
-        <v>793</v>
+        <v>825</v>
       </c>
     </row>
     <row r="130" spans="2:29">
@@ -25986,16 +25986,16 @@
         <v>1183</v>
       </c>
       <c r="Z130" t="s">
+        <v>1555</v>
+      </c>
+      <c r="AA130" t="s">
         <v>1556</v>
       </c>
-      <c r="AA130" t="s">
-        <v>1557</v>
-      </c>
       <c r="AB130">
         <v>1</v>
       </c>
       <c r="AC130" t="s">
-        <v>595</v>
+        <v>691</v>
       </c>
     </row>
     <row r="131" spans="2:29">
@@ -26063,16 +26063,16 @@
         <v>1185</v>
       </c>
       <c r="Z131" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AA131" t="s">
         <v>1558</v>
       </c>
-      <c r="AA131" t="s">
-        <v>1559</v>
-      </c>
       <c r="AB131">
         <v>1</v>
       </c>
       <c r="AC131" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
     </row>
     <row r="132" spans="2:29">
@@ -26140,16 +26140,16 @@
         <v>1187</v>
       </c>
       <c r="Z132" t="s">
+        <v>1559</v>
+      </c>
+      <c r="AA132" t="s">
         <v>1560</v>
       </c>
-      <c r="AA132" t="s">
-        <v>1561</v>
-      </c>
       <c r="AB132">
         <v>1</v>
       </c>
       <c r="AC132" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
     </row>
     <row r="133" spans="2:29">
@@ -26217,16 +26217,16 @@
         <v>1189</v>
       </c>
       <c r="Z133" t="s">
+        <v>1561</v>
+      </c>
+      <c r="AA133" t="s">
         <v>1562</v>
       </c>
-      <c r="AA133" t="s">
-        <v>1563</v>
-      </c>
       <c r="AB133">
         <v>1</v>
       </c>
       <c r="AC133" t="s">
-        <v>719</v>
+        <v>739</v>
       </c>
     </row>
     <row r="134" spans="2:29">
@@ -26294,16 +26294,16 @@
         <v>1191</v>
       </c>
       <c r="Z134" t="s">
+        <v>1563</v>
+      </c>
+      <c r="AA134" t="s">
         <v>1564</v>
       </c>
-      <c r="AA134" t="s">
-        <v>1565</v>
-      </c>
       <c r="AB134">
         <v>1</v>
       </c>
       <c r="AC134" t="s">
-        <v>589</v>
+        <v>741</v>
       </c>
     </row>
     <row r="135" spans="2:29">
@@ -26371,16 +26371,16 @@
         <v>1193</v>
       </c>
       <c r="Z135" t="s">
+        <v>1565</v>
+      </c>
+      <c r="AA135" t="s">
         <v>1566</v>
       </c>
-      <c r="AA135" t="s">
-        <v>1567</v>
-      </c>
       <c r="AB135">
         <v>1</v>
       </c>
       <c r="AC135" t="s">
-        <v>815</v>
+        <v>611</v>
       </c>
     </row>
     <row r="136" spans="2:29">
@@ -26448,16 +26448,16 @@
         <v>1195</v>
       </c>
       <c r="Z136" t="s">
+        <v>1567</v>
+      </c>
+      <c r="AA136" t="s">
         <v>1568</v>
       </c>
-      <c r="AA136" t="s">
-        <v>1569</v>
-      </c>
       <c r="AB136">
         <v>1</v>
       </c>
       <c r="AC136" t="s">
-        <v>579</v>
+        <v>837</v>
       </c>
     </row>
     <row r="137" spans="2:29">
@@ -26525,16 +26525,16 @@
         <v>1197</v>
       </c>
       <c r="Z137" t="s">
+        <v>1569</v>
+      </c>
+      <c r="AA137" t="s">
         <v>1570</v>
       </c>
-      <c r="AA137" t="s">
-        <v>1521</v>
-      </c>
       <c r="AB137">
         <v>1</v>
       </c>
       <c r="AC137" t="s">
-        <v>877</v>
+        <v>637</v>
       </c>
     </row>
     <row r="138" spans="2:29">
@@ -26611,7 +26611,7 @@
         <v>1</v>
       </c>
       <c r="AC138" t="s">
-        <v>729</v>
+        <v>939</v>
       </c>
     </row>
     <row r="139" spans="2:29">
@@ -26688,7 +26688,7 @@
         <v>1</v>
       </c>
       <c r="AC139" t="s">
-        <v>645</v>
+        <v>685</v>
       </c>
     </row>
     <row r="140" spans="2:29">
@@ -26765,7 +26765,7 @@
         <v>1</v>
       </c>
       <c r="AC140" t="s">
-        <v>601</v>
+        <v>789</v>
       </c>
     </row>
     <row r="141" spans="2:29">
@@ -26842,7 +26842,7 @@
         <v>1</v>
       </c>
       <c r="AC141" t="s">
-        <v>709</v>
+        <v>923</v>
       </c>
     </row>
     <row r="142" spans="2:29">
@@ -26919,7 +26919,7 @@
         <v>1</v>
       </c>
       <c r="AC142" t="s">
-        <v>771</v>
+        <v>721</v>
       </c>
     </row>
     <row r="143" spans="2:29">
@@ -26996,7 +26996,7 @@
         <v>1</v>
       </c>
       <c r="AC143" t="s">
-        <v>825</v>
+        <v>915</v>
       </c>
     </row>
     <row r="144" spans="2:29">
@@ -27073,7 +27073,7 @@
         <v>1</v>
       </c>
       <c r="AC144" t="s">
-        <v>691</v>
+        <v>599</v>
       </c>
     </row>
     <row r="145" spans="2:29">
@@ -27150,7 +27150,7 @@
         <v>1</v>
       </c>
       <c r="AC145" t="s">
-        <v>935</v>
+        <v>657</v>
       </c>
     </row>
     <row r="146" spans="2:29">
@@ -27227,7 +27227,7 @@
         <v>1</v>
       </c>
       <c r="AC146" t="s">
-        <v>773</v>
+        <v>809</v>
       </c>
     </row>
     <row r="147" spans="2:29">
@@ -27304,7 +27304,7 @@
         <v>1</v>
       </c>
       <c r="AC147" t="s">
-        <v>739</v>
+        <v>757</v>
       </c>
     </row>
     <row r="148" spans="2:29">
@@ -27381,7 +27381,7 @@
         <v>1</v>
       </c>
       <c r="AC148" t="s">
-        <v>741</v>
+        <v>933</v>
       </c>
     </row>
     <row r="149" spans="2:29">
@@ -27452,13 +27452,13 @@
         <v>1593</v>
       </c>
       <c r="AA149" t="s">
-        <v>1594</v>
+        <v>1426</v>
       </c>
       <c r="AB149">
         <v>1</v>
       </c>
       <c r="AC149" t="s">
-        <v>611</v>
+        <v>907</v>
       </c>
     </row>
     <row r="150" spans="2:29">
@@ -27526,16 +27526,16 @@
         <v>1223</v>
       </c>
       <c r="Z150" t="s">
+        <v>1594</v>
+      </c>
+      <c r="AA150" t="s">
         <v>1595</v>
       </c>
-      <c r="AA150" t="s">
-        <v>1596</v>
-      </c>
       <c r="AB150">
         <v>1</v>
       </c>
       <c r="AC150" t="s">
-        <v>837</v>
+        <v>845</v>
       </c>
     </row>
     <row r="151" spans="2:29">
@@ -27603,16 +27603,16 @@
         <v>1225</v>
       </c>
       <c r="Z151" t="s">
+        <v>1596</v>
+      </c>
+      <c r="AA151" t="s">
         <v>1597</v>
       </c>
-      <c r="AA151" t="s">
-        <v>1598</v>
-      </c>
       <c r="AB151">
         <v>1</v>
       </c>
       <c r="AC151" t="s">
-        <v>637</v>
+        <v>861</v>
       </c>
     </row>
     <row r="152" spans="2:29">
@@ -27680,16 +27680,16 @@
         <v>1227</v>
       </c>
       <c r="Z152" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="AA152" t="s">
-        <v>1600</v>
+        <v>1570</v>
       </c>
       <c r="AB152">
         <v>1</v>
       </c>
       <c r="AC152" t="s">
-        <v>939</v>
+        <v>635</v>
       </c>
     </row>
     <row r="153" spans="2:29">
@@ -27757,16 +27757,16 @@
         <v>1229</v>
       </c>
       <c r="Z153" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="AA153" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="AB153">
         <v>1</v>
       </c>
       <c r="AC153" t="s">
-        <v>685</v>
+        <v>593</v>
       </c>
     </row>
     <row r="154" spans="2:29">
@@ -27834,16 +27834,16 @@
         <v>1231</v>
       </c>
       <c r="Z154" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="AA154" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="AB154">
         <v>1</v>
       </c>
       <c r="AC154" t="s">
-        <v>789</v>
+        <v>617</v>
       </c>
     </row>
     <row r="155" spans="2:29">
@@ -27911,16 +27911,16 @@
         <v>1233</v>
       </c>
       <c r="Z155" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="AA155" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="AB155">
         <v>1</v>
       </c>
       <c r="AC155" t="s">
-        <v>663</v>
+        <v>693</v>
       </c>
     </row>
     <row r="156" spans="2:29">
@@ -27988,16 +27988,16 @@
         <v>1235</v>
       </c>
       <c r="Z156" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="AA156" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="AB156">
         <v>1</v>
       </c>
       <c r="AC156" t="s">
-        <v>647</v>
+        <v>827</v>
       </c>
     </row>
     <row r="157" spans="2:29">
@@ -28065,16 +28065,16 @@
         <v>1237</v>
       </c>
       <c r="Z157" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="AA157" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="AB157">
         <v>1</v>
       </c>
       <c r="AC157" t="s">
-        <v>829</v>
+        <v>661</v>
       </c>
     </row>
     <row r="158" spans="2:29">
@@ -28142,16 +28142,16 @@
         <v>1239</v>
       </c>
       <c r="Z158" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="AA158" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="AB158">
         <v>1</v>
       </c>
       <c r="AC158" t="s">
-        <v>831</v>
+        <v>627</v>
       </c>
     </row>
     <row r="159" spans="2:29">
@@ -28219,16 +28219,16 @@
         <v>1241</v>
       </c>
       <c r="Z159" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="AA159" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="AB159">
         <v>1</v>
       </c>
       <c r="AC159" t="s">
-        <v>683</v>
+        <v>625</v>
       </c>
     </row>
     <row r="160" spans="2:29">
@@ -28296,16 +28296,16 @@
         <v>1243</v>
       </c>
       <c r="Z160" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="AA160" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="AB160">
         <v>1</v>
       </c>
       <c r="AC160" t="s">
-        <v>779</v>
+        <v>909</v>
       </c>
     </row>
     <row r="161" spans="2:29">
@@ -28373,16 +28373,16 @@
         <v>1245</v>
       </c>
       <c r="Z161" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="AA161" t="s">
-        <v>1450</v>
+        <v>1616</v>
       </c>
       <c r="AB161">
         <v>1</v>
       </c>
       <c r="AC161" t="s">
-        <v>859</v>
+        <v>631</v>
       </c>
     </row>
     <row r="162" spans="2:29">
@@ -28450,16 +28450,16 @@
         <v>1247</v>
       </c>
       <c r="Z162" t="s">
+        <v>1617</v>
+      </c>
+      <c r="AA162" t="s">
         <v>1618</v>
       </c>
-      <c r="AA162" t="s">
-        <v>1619</v>
-      </c>
       <c r="AB162">
         <v>1</v>
       </c>
       <c r="AC162" t="s">
-        <v>919</v>
+        <v>833</v>
       </c>
     </row>
     <row r="163" spans="2:29">
@@ -28527,16 +28527,16 @@
         <v>1249</v>
       </c>
       <c r="Z163" t="s">
+        <v>1619</v>
+      </c>
+      <c r="AA163" t="s">
         <v>1620</v>
       </c>
-      <c r="AA163" t="s">
-        <v>1621</v>
-      </c>
       <c r="AB163">
         <v>1</v>
       </c>
       <c r="AC163" t="s">
-        <v>707</v>
+        <v>623</v>
       </c>
     </row>
     <row r="164" spans="2:29">
@@ -28604,16 +28604,16 @@
         <v>1251</v>
       </c>
       <c r="Z164" t="s">
+        <v>1621</v>
+      </c>
+      <c r="AA164" t="s">
         <v>1622</v>
       </c>
-      <c r="AA164" t="s">
-        <v>1623</v>
-      </c>
       <c r="AB164">
         <v>1</v>
       </c>
       <c r="AC164" t="s">
-        <v>923</v>
+        <v>565</v>
       </c>
     </row>
     <row r="165" spans="2:29">
@@ -28681,16 +28681,16 @@
         <v>1253</v>
       </c>
       <c r="Z165" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AA165" t="s">
         <v>1624</v>
       </c>
-      <c r="AA165" t="s">
-        <v>1625</v>
-      </c>
       <c r="AB165">
         <v>1</v>
       </c>
       <c r="AC165" t="s">
-        <v>721</v>
+        <v>677</v>
       </c>
     </row>
     <row r="166" spans="2:29">
@@ -28758,16 +28758,16 @@
         <v>1255</v>
       </c>
       <c r="Z166" t="s">
+        <v>1625</v>
+      </c>
+      <c r="AA166" t="s">
         <v>1626</v>
       </c>
-      <c r="AA166" t="s">
-        <v>1627</v>
-      </c>
       <c r="AB166">
         <v>1</v>
       </c>
       <c r="AC166" t="s">
-        <v>915</v>
+        <v>889</v>
       </c>
     </row>
     <row r="167" spans="2:29">
@@ -28835,16 +28835,16 @@
         <v>1257</v>
       </c>
       <c r="Z167" t="s">
+        <v>1627</v>
+      </c>
+      <c r="AA167" t="s">
         <v>1628</v>
       </c>
-      <c r="AA167" t="s">
-        <v>1629</v>
-      </c>
       <c r="AB167">
         <v>1</v>
       </c>
       <c r="AC167" t="s">
-        <v>599</v>
+        <v>761</v>
       </c>
     </row>
     <row r="168" spans="2:29">
@@ -28912,16 +28912,16 @@
         <v>1259</v>
       </c>
       <c r="Z168" t="s">
+        <v>1629</v>
+      </c>
+      <c r="AA168" t="s">
         <v>1630</v>
       </c>
-      <c r="AA168" t="s">
-        <v>1631</v>
-      </c>
       <c r="AB168">
         <v>1</v>
       </c>
       <c r="AC168" t="s">
-        <v>657</v>
+        <v>597</v>
       </c>
     </row>
     <row r="169" spans="2:29">
@@ -28989,16 +28989,16 @@
         <v>1261</v>
       </c>
       <c r="Z169" t="s">
+        <v>1631</v>
+      </c>
+      <c r="AA169" t="s">
         <v>1632</v>
       </c>
-      <c r="AA169" t="s">
-        <v>1633</v>
-      </c>
       <c r="AB169">
         <v>1</v>
       </c>
       <c r="AC169" t="s">
-        <v>809</v>
+        <v>867</v>
       </c>
     </row>
     <row r="170" spans="2:29">
@@ -29066,16 +29066,16 @@
         <v>1263</v>
       </c>
       <c r="Z170" t="s">
+        <v>1633</v>
+      </c>
+      <c r="AA170" t="s">
         <v>1634</v>
       </c>
-      <c r="AA170" t="s">
-        <v>1635</v>
-      </c>
       <c r="AB170">
         <v>1</v>
       </c>
       <c r="AC170" t="s">
-        <v>757</v>
+        <v>865</v>
       </c>
     </row>
     <row r="171" spans="2:29">
@@ -29143,16 +29143,16 @@
         <v>1265</v>
       </c>
       <c r="Z171" t="s">
+        <v>1635</v>
+      </c>
+      <c r="AA171" t="s">
         <v>1636</v>
       </c>
-      <c r="AA171" t="s">
-        <v>1637</v>
-      </c>
       <c r="AB171">
         <v>1</v>
       </c>
       <c r="AC171" t="s">
-        <v>933</v>
+        <v>767</v>
       </c>
     </row>
     <row r="172" spans="2:29">
@@ -29220,16 +29220,16 @@
         <v>1267</v>
       </c>
       <c r="Z172" t="s">
+        <v>1637</v>
+      </c>
+      <c r="AA172" t="s">
         <v>1638</v>
       </c>
-      <c r="AA172" t="s">
-        <v>1452</v>
-      </c>
       <c r="AB172">
         <v>1</v>
       </c>
       <c r="AC172" t="s">
-        <v>907</v>
+        <v>585</v>
       </c>
     </row>
     <row r="173" spans="2:29">
@@ -29306,7 +29306,7 @@
         <v>1</v>
       </c>
       <c r="AC173" t="s">
-        <v>845</v>
+        <v>807</v>
       </c>
     </row>
     <row r="174" spans="2:29">
@@ -29383,7 +29383,7 @@
         <v>1</v>
       </c>
       <c r="AC174" t="s">
-        <v>861</v>
+        <v>587</v>
       </c>
     </row>
     <row r="175" spans="2:29">
@@ -29454,13 +29454,13 @@
         <v>1643</v>
       </c>
       <c r="AA175" t="s">
-        <v>1598</v>
+        <v>1644</v>
       </c>
       <c r="AB175">
         <v>1</v>
       </c>
       <c r="AC175" t="s">
-        <v>635</v>
+        <v>581</v>
       </c>
     </row>
     <row r="176" spans="2:29">
@@ -29528,16 +29528,16 @@
         <v>1275</v>
       </c>
       <c r="Z176" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="AA176" t="s">
-        <v>1645</v>
+        <v>1525</v>
       </c>
       <c r="AB176">
         <v>1</v>
       </c>
       <c r="AC176" t="s">
-        <v>785</v>
+        <v>901</v>
       </c>
     </row>
     <row r="177" spans="2:29">
@@ -29614,7 +29614,7 @@
         <v>1</v>
       </c>
       <c r="AC177" t="s">
-        <v>571</v>
+        <v>747</v>
       </c>
     </row>
     <row r="178" spans="2:29">
@@ -29685,13 +29685,13 @@
         <v>1648</v>
       </c>
       <c r="AA178" t="s">
-        <v>1649</v>
+        <v>1399</v>
       </c>
       <c r="AB178">
         <v>1</v>
       </c>
       <c r="AC178" t="s">
-        <v>675</v>
+        <v>753</v>
       </c>
     </row>
     <row r="179" spans="2:29">
@@ -29759,16 +29759,16 @@
         <v>1281</v>
       </c>
       <c r="Z179" t="s">
+        <v>1649</v>
+      </c>
+      <c r="AA179" t="s">
         <v>1650</v>
       </c>
-      <c r="AA179" t="s">
-        <v>1651</v>
-      </c>
       <c r="AB179">
         <v>1</v>
       </c>
       <c r="AC179" t="s">
-        <v>863</v>
+        <v>819</v>
       </c>
     </row>
     <row r="180" spans="2:29">
@@ -29836,16 +29836,16 @@
         <v>1283</v>
       </c>
       <c r="Z180" t="s">
+        <v>1651</v>
+      </c>
+      <c r="AA180" t="s">
         <v>1652</v>
       </c>
-      <c r="AA180" t="s">
-        <v>1653</v>
-      </c>
       <c r="AB180">
         <v>1</v>
       </c>
       <c r="AC180" t="s">
-        <v>629</v>
+        <v>567</v>
       </c>
     </row>
     <row r="181" spans="2:29">
@@ -29913,16 +29913,16 @@
         <v>1285</v>
       </c>
       <c r="Z181" t="s">
+        <v>1653</v>
+      </c>
+      <c r="AA181" t="s">
         <v>1654</v>
       </c>
-      <c r="AA181" t="s">
-        <v>1655</v>
-      </c>
       <c r="AB181">
         <v>1</v>
       </c>
       <c r="AC181" t="s">
-        <v>615</v>
+        <v>931</v>
       </c>
     </row>
     <row r="182" spans="2:29">
@@ -29990,16 +29990,16 @@
         <v>1287</v>
       </c>
       <c r="Z182" t="s">
+        <v>1655</v>
+      </c>
+      <c r="AA182" t="s">
         <v>1656</v>
       </c>
-      <c r="AA182" t="s">
-        <v>1657</v>
-      </c>
       <c r="AB182">
         <v>1</v>
       </c>
       <c r="AC182" t="s">
-        <v>883</v>
+        <v>733</v>
       </c>
     </row>
     <row r="183" spans="2:29">
@@ -30067,16 +30067,16 @@
         <v>1289</v>
       </c>
       <c r="Z183" t="s">
+        <v>1657</v>
+      </c>
+      <c r="AA183" t="s">
         <v>1658</v>
       </c>
-      <c r="AA183" t="s">
-        <v>1659</v>
-      </c>
       <c r="AB183">
         <v>1</v>
       </c>
       <c r="AC183" t="s">
-        <v>781</v>
+        <v>705</v>
       </c>
     </row>
     <row r="184" spans="2:29">
@@ -30144,16 +30144,16 @@
         <v>1291</v>
       </c>
       <c r="Z184" t="s">
+        <v>1659</v>
+      </c>
+      <c r="AA184" t="s">
         <v>1660</v>
       </c>
-      <c r="AA184" t="s">
-        <v>1661</v>
-      </c>
       <c r="AB184">
         <v>1</v>
       </c>
       <c r="AC184" t="s">
-        <v>891</v>
+        <v>839</v>
       </c>
     </row>
     <row r="185" spans="2:29">
@@ -30221,16 +30221,16 @@
         <v>1293</v>
       </c>
       <c r="Z185" t="s">
+        <v>1661</v>
+      </c>
+      <c r="AA185" t="s">
         <v>1662</v>
       </c>
-      <c r="AA185" t="s">
-        <v>1663</v>
-      </c>
       <c r="AB185">
         <v>1</v>
       </c>
       <c r="AC185" t="s">
-        <v>609</v>
+        <v>737</v>
       </c>
     </row>
     <row r="186" spans="2:29">
@@ -30298,16 +30298,16 @@
         <v>1295</v>
       </c>
       <c r="Z186" t="s">
+        <v>1663</v>
+      </c>
+      <c r="AA186" t="s">
         <v>1664</v>
       </c>
-      <c r="AA186" t="s">
-        <v>1501</v>
-      </c>
       <c r="AB186">
         <v>1</v>
       </c>
       <c r="AC186" t="s">
-        <v>755</v>
+        <v>731</v>
       </c>
     </row>
     <row r="187" spans="2:29">
@@ -30384,7 +30384,7 @@
         <v>1</v>
       </c>
       <c r="AC187" t="s">
-        <v>869</v>
+        <v>653</v>
       </c>
     </row>
     <row r="188" spans="2:29">
@@ -30455,13 +30455,13 @@
         <v>1667</v>
       </c>
       <c r="AA188" t="s">
-        <v>1384</v>
+        <v>1668</v>
       </c>
       <c r="AB188">
         <v>1</v>
       </c>
       <c r="AC188" t="s">
-        <v>899</v>
+        <v>743</v>
       </c>
     </row>
     <row r="189" spans="2:29">
@@ -30529,16 +30529,16 @@
         <v>1301</v>
       </c>
       <c r="Z189" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="AA189" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="AB189">
         <v>1</v>
       </c>
       <c r="AC189" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
     </row>
     <row r="190" spans="2:29">
@@ -30606,16 +30606,16 @@
         <v>1303</v>
       </c>
       <c r="Z190" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="AA190" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="AB190">
         <v>1</v>
       </c>
       <c r="AC190" t="s">
-        <v>617</v>
+        <v>727</v>
       </c>
     </row>
     <row r="191" spans="2:29">
@@ -30683,16 +30683,16 @@
         <v>1305</v>
       </c>
       <c r="Z191" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="AA191" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="AB191">
         <v>1</v>
       </c>
       <c r="AC191" t="s">
-        <v>693</v>
+        <v>885</v>
       </c>
     </row>
     <row r="192" spans="2:29">
@@ -30760,16 +30760,16 @@
         <v>1307</v>
       </c>
       <c r="Z192" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="AA192" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="AB192">
         <v>1</v>
       </c>
       <c r="AC192" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
     </row>
     <row r="193" spans="2:29">
@@ -30837,16 +30837,16 @@
         <v>1309</v>
       </c>
       <c r="Z193" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="AA193" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="AB193">
         <v>1</v>
       </c>
       <c r="AC193" t="s">
-        <v>661</v>
+        <v>911</v>
       </c>
     </row>
     <row r="194" spans="2:29">
@@ -30914,16 +30914,16 @@
         <v>1311</v>
       </c>
       <c r="Z194" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="AA194" t="s">
-        <v>1679</v>
+        <v>1480</v>
       </c>
       <c r="AB194">
         <v>1</v>
       </c>
       <c r="AC194" t="s">
-        <v>627</v>
+        <v>927</v>
       </c>
     </row>
     <row r="195" spans="2:29">
@@ -31000,7 +31000,7 @@
         <v>1</v>
       </c>
       <c r="AC195" t="s">
-        <v>625</v>
+        <v>893</v>
       </c>
     </row>
     <row r="196" spans="2:29">
@@ -31077,7 +31077,7 @@
         <v>1</v>
       </c>
       <c r="AC196" t="s">
-        <v>909</v>
+        <v>871</v>
       </c>
     </row>
     <row r="197" spans="2:29">
@@ -31154,7 +31154,7 @@
         <v>1</v>
       </c>
       <c r="AC197" t="s">
-        <v>631</v>
+        <v>717</v>
       </c>
     </row>
     <row r="198" spans="2:29">
@@ -31231,7 +31231,7 @@
         <v>1</v>
       </c>
       <c r="AC198" t="s">
-        <v>833</v>
+        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -31240,7 +31240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE41B5A6-E68B-4C0E-BC82-36E532B261F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6206C170-C8FC-40D6-9890-7CF527A08396}">
   <dimension ref="B9:AB199"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -31400,7 +31400,7 @@
         <v>2383</v>
       </c>
       <c r="Z11" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="AA11">
         <v>13.8675</v>
@@ -31474,7 +31474,7 @@
         <v>2384</v>
       </c>
       <c r="Z12" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="AA12">
         <v>11.755000000000001</v>
@@ -31548,7 +31548,7 @@
         <v>2385</v>
       </c>
       <c r="Z13" t="s">
-        <v>1799</v>
+        <v>1813</v>
       </c>
       <c r="AA13">
         <v>13.8675</v>
@@ -31622,7 +31622,7 @@
         <v>2386</v>
       </c>
       <c r="Z14" t="s">
-        <v>1814</v>
+        <v>1785</v>
       </c>
       <c r="AA14">
         <v>13.8675</v>
@@ -31696,7 +31696,7 @@
         <v>2387</v>
       </c>
       <c r="Z15" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="AA15">
         <v>13.23875</v>
@@ -31770,7 +31770,7 @@
         <v>2388</v>
       </c>
       <c r="Z16" t="s">
-        <v>1783</v>
+        <v>1799</v>
       </c>
       <c r="AA16">
         <v>14.02875</v>
@@ -31844,7 +31844,7 @@
         <v>2389</v>
       </c>
       <c r="Z17" t="s">
-        <v>1807</v>
+        <v>1770</v>
       </c>
       <c r="AA17">
         <v>13.8675</v>
@@ -31918,7 +31918,7 @@
         <v>2390</v>
       </c>
       <c r="Z18" t="s">
-        <v>1782</v>
+        <v>1798</v>
       </c>
       <c r="AA18">
         <v>13.8675</v>
@@ -31992,7 +31992,7 @@
         <v>2391</v>
       </c>
       <c r="Z19" t="s">
-        <v>1808</v>
+        <v>1773</v>
       </c>
       <c r="AA19">
         <v>0.11874999999999999</v>
@@ -32066,7 +32066,7 @@
         <v>2392</v>
       </c>
       <c r="Z20" t="s">
-        <v>1764</v>
+        <v>1786</v>
       </c>
       <c r="AA20">
         <v>9.06</v>
@@ -32140,7 +32140,7 @@
         <v>2393</v>
       </c>
       <c r="Z21" t="s">
-        <v>1778</v>
+        <v>1802</v>
       </c>
       <c r="AA21">
         <v>14.02875</v>
@@ -32214,7 +32214,7 @@
         <v>2394</v>
       </c>
       <c r="Z22" t="s">
-        <v>1800</v>
+        <v>1772</v>
       </c>
       <c r="AA22">
         <v>13.8675</v>
@@ -32288,7 +32288,7 @@
         <v>2395</v>
       </c>
       <c r="Z23" t="s">
-        <v>1812</v>
+        <v>1777</v>
       </c>
       <c r="AA23">
         <v>13.8675</v>
@@ -32362,7 +32362,7 @@
         <v>2396</v>
       </c>
       <c r="Z24" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="AA24">
         <v>6.6375000000000002</v>
@@ -32436,7 +32436,7 @@
         <v>2397</v>
       </c>
       <c r="Z25" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="AA25">
         <v>13.92625</v>
@@ -32510,7 +32510,7 @@
         <v>2398</v>
       </c>
       <c r="Z26" t="s">
-        <v>1774</v>
+        <v>1790</v>
       </c>
       <c r="AA26">
         <v>13.827500000000001</v>
@@ -32584,7 +32584,7 @@
         <v>2399</v>
       </c>
       <c r="Z27" t="s">
-        <v>1806</v>
+        <v>1814</v>
       </c>
       <c r="AA27">
         <v>13.8675</v>
@@ -32658,7 +32658,7 @@
         <v>2400</v>
       </c>
       <c r="Z28" t="s">
-        <v>1772</v>
+        <v>1788</v>
       </c>
       <c r="AA28">
         <v>3.7499999999999999E-3</v>
@@ -32732,7 +32732,7 @@
         <v>2401</v>
       </c>
       <c r="Z29" t="s">
-        <v>1787</v>
+        <v>1806</v>
       </c>
       <c r="AA29">
         <v>2.8424999999999998</v>
@@ -32806,7 +32806,7 @@
         <v>2402</v>
       </c>
       <c r="Z30" t="s">
-        <v>1784</v>
+        <v>1771</v>
       </c>
       <c r="AA30">
         <v>8.1549999999999994</v>
@@ -32880,7 +32880,7 @@
         <v>2403</v>
       </c>
       <c r="Z31" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="AA31">
         <v>4.5162500000000003</v>
@@ -32954,7 +32954,7 @@
         <v>2404</v>
       </c>
       <c r="Z32" t="s">
-        <v>1785</v>
+        <v>1804</v>
       </c>
       <c r="AA32">
         <v>0.57625000000000004</v>
@@ -33028,7 +33028,7 @@
         <v>2405</v>
       </c>
       <c r="Z33" t="s">
-        <v>1801</v>
+        <v>1780</v>
       </c>
       <c r="AA33">
         <v>1.125E-2</v>
@@ -33102,7 +33102,7 @@
         <v>2406</v>
       </c>
       <c r="Z34" t="s">
-        <v>1803</v>
+        <v>1782</v>
       </c>
       <c r="AA34">
         <v>0.33500000000000002</v>
@@ -33176,7 +33176,7 @@
         <v>2407</v>
       </c>
       <c r="Z35" t="s">
-        <v>1810</v>
+        <v>1775</v>
       </c>
       <c r="AA35">
         <v>1.7500000000000002E-2</v>
@@ -33250,7 +33250,7 @@
         <v>2408</v>
       </c>
       <c r="Z36" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="AA36">
         <v>0.58250000000000002</v>
@@ -33324,7 +33324,7 @@
         <v>2409</v>
       </c>
       <c r="Z37" t="s">
-        <v>1776</v>
+        <v>1800</v>
       </c>
       <c r="AA37">
         <v>1.0075000000000001</v>
@@ -33398,7 +33398,7 @@
         <v>2410</v>
       </c>
       <c r="Z38" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="AA38">
         <v>0.21625</v>
@@ -33472,7 +33472,7 @@
         <v>2411</v>
       </c>
       <c r="Z39" t="s">
-        <v>1779</v>
+        <v>1803</v>
       </c>
       <c r="AA39">
         <v>5.9212499999999997</v>
@@ -33546,7 +33546,7 @@
         <v>2412</v>
       </c>
       <c r="Z40" t="s">
-        <v>1780</v>
+        <v>1796</v>
       </c>
       <c r="AA40">
         <v>2.75E-2</v>
@@ -33620,7 +33620,7 @@
         <v>2413</v>
       </c>
       <c r="Z41" t="s">
-        <v>1775</v>
+        <v>1791</v>
       </c>
       <c r="AA41">
         <v>10.682499999999999</v>
@@ -33694,7 +33694,7 @@
         <v>2414</v>
       </c>
       <c r="Z42" t="s">
-        <v>1771</v>
+        <v>1787</v>
       </c>
       <c r="AA42">
         <v>3.9175</v>
@@ -33768,7 +33768,7 @@
         <v>2415</v>
       </c>
       <c r="Z43" t="s">
-        <v>1789</v>
+        <v>1808</v>
       </c>
       <c r="AA43">
         <v>10.8575</v>
@@ -33842,7 +33842,7 @@
         <v>2416</v>
       </c>
       <c r="Z44" t="s">
-        <v>1805</v>
+        <v>1784</v>
       </c>
       <c r="AA44">
         <v>2.61375</v>
@@ -33916,7 +33916,7 @@
         <v>2417</v>
       </c>
       <c r="Z45" t="s">
-        <v>1795</v>
+        <v>1809</v>
       </c>
       <c r="AA45">
         <v>11.2575</v>
@@ -33990,7 +33990,7 @@
         <v>2418</v>
       </c>
       <c r="Z46" t="s">
-        <v>1797</v>
+        <v>1811</v>
       </c>
       <c r="AA46">
         <v>5.0000000000000001E-3</v>
@@ -34064,7 +34064,7 @@
         <v>2419</v>
       </c>
       <c r="Z47" t="s">
-        <v>1813</v>
+        <v>1778</v>
       </c>
       <c r="AA47">
         <v>12.063750000000001</v>
@@ -34138,7 +34138,7 @@
         <v>2420</v>
       </c>
       <c r="Z48" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="AA48">
         <v>13.8675</v>
@@ -39891,7 +39891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB02801-F6CD-450D-9DA4-BB85F42E9364}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F09EA1D-4FBA-453D-905A-DD48DAC64190}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41711,7 +41711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8BF3AF8-F52C-41F3-AD9D-C119E479D366}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E94E33-5A05-407C-812E-B60B1F578854}">
   <dimension ref="B2:M317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -42979,7 +42979,7 @@
         <v>2520</v>
       </c>
       <c r="C42" t="s">
-        <v>1386</v>
+        <v>1357</v>
       </c>
       <c r="D42" t="s">
         <v>2521</v>
@@ -43014,7 +43014,7 @@
         <v>2521</v>
       </c>
       <c r="D43" t="s">
-        <v>1386</v>
+        <v>1357</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -44006,7 +44006,7 @@
         <v>2584</v>
       </c>
       <c r="D74" t="s">
-        <v>1619</v>
+        <v>1495</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -44035,7 +44035,7 @@
         <v>2585</v>
       </c>
       <c r="C75" t="s">
-        <v>1619</v>
+        <v>1495</v>
       </c>
       <c r="D75" t="s">
         <v>2584</v>
@@ -44451,7 +44451,7 @@
         <v>2610</v>
       </c>
       <c r="C88" t="s">
-        <v>1600</v>
+        <v>1572</v>
       </c>
       <c r="D88" t="s">
         <v>2611</v>
@@ -44486,7 +44486,7 @@
         <v>2611</v>
       </c>
       <c r="D89" t="s">
-        <v>1600</v>
+        <v>1572</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -45603,7 +45603,7 @@
         <v>2681</v>
       </c>
       <c r="C124" t="s">
-        <v>1553</v>
+        <v>1449</v>
       </c>
       <c r="D124" t="s">
         <v>2682</v>
@@ -45638,7 +45638,7 @@
         <v>2682</v>
       </c>
       <c r="D125" t="s">
-        <v>1553</v>
+        <v>1449</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -47078,7 +47078,7 @@
         <v>2772</v>
       </c>
       <c r="D170" t="s">
-        <v>1499</v>
+        <v>1647</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -47107,7 +47107,7 @@
         <v>2773</v>
       </c>
       <c r="C171" t="s">
-        <v>1499</v>
+        <v>1647</v>
       </c>
       <c r="D171" t="s">
         <v>2772</v>
@@ -47331,7 +47331,7 @@
         <v>2786</v>
       </c>
       <c r="C178" t="s">
-        <v>1349</v>
+        <v>1525</v>
       </c>
       <c r="D178" t="s">
         <v>2787</v>
@@ -47366,7 +47366,7 @@
         <v>2787</v>
       </c>
       <c r="D179" t="s">
-        <v>1349</v>
+        <v>1525</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -47846,7 +47846,7 @@
         <v>2818</v>
       </c>
       <c r="D194" t="s">
-        <v>1466</v>
+        <v>1373</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -47875,7 +47875,7 @@
         <v>2819</v>
       </c>
       <c r="C195" t="s">
-        <v>1466</v>
+        <v>1373</v>
       </c>
       <c r="D195" t="s">
         <v>2818</v>
@@ -48035,7 +48035,7 @@
         <v>2828</v>
       </c>
       <c r="C200" t="s">
-        <v>1640</v>
+        <v>1595</v>
       </c>
       <c r="D200" t="s">
         <v>2829</v>
@@ -48070,7 +48070,7 @@
         <v>2829</v>
       </c>
       <c r="D201" t="s">
-        <v>1640</v>
+        <v>1595</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -49190,7 +49190,7 @@
         <v>2900</v>
       </c>
       <c r="D236" t="s">
-        <v>1621</v>
+        <v>1497</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -49219,7 +49219,7 @@
         <v>2901</v>
       </c>
       <c r="C237" t="s">
-        <v>1621</v>
+        <v>1497</v>
       </c>
       <c r="D237" t="s">
         <v>2900</v>
@@ -49958,7 +49958,7 @@
         <v>2947</v>
       </c>
       <c r="D260" t="s">
-        <v>1525</v>
+        <v>1474</v>
       </c>
       <c r="E260">
         <v>1</v>
@@ -49987,7 +49987,7 @@
         <v>2948</v>
       </c>
       <c r="C261" t="s">
-        <v>1525</v>
+        <v>1474</v>
       </c>
       <c r="D261" t="s">
         <v>2947</v>
@@ -51750,7 +51750,7 @@
         <v>3056</v>
       </c>
       <c r="D316" t="s">
-        <v>1569</v>
+        <v>1335</v>
       </c>
       <c r="E316">
         <v>1</v>
@@ -51779,7 +51779,7 @@
         <v>3057</v>
       </c>
       <c r="C317" t="s">
-        <v>1569</v>
+        <v>1335</v>
       </c>
       <c r="D317" t="s">
         <v>3056</v>

--- a/VerveStacks_DEU_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_DEU_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFA23241-E233-4823-A7EC-48FC2C9D678F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA26DF38-289C-4D8D-AE69-8E81F39F0E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2960,18 +2960,1092 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_solelc_won-DEU_0130</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_130</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0159</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_159</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0038</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_38</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0098</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_98</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0047</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_47</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0034</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_34</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0110</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_110</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0074</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_74</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0100</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_100</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0117</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_117</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0139</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_139</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0146</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_146</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0121</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_121</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0170</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_170</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0094</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_94</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0084</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_84</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0044</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_44</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0090</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_90</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0005</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_5</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0082</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_82</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0161</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_161</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0125</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_125</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0174</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_174</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0182</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_182</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0165</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_165</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0154</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_154</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0077</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_77</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0107</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_107</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0128</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_128</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0001</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_1</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0184</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_184</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0085</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_85</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0071</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_71</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0138</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_138</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0087</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_87</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0180</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_180</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0079</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_79</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0176</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_176</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0017</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_17</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0046</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_46</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0123</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_123</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0097</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_97</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0185</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_185</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0172</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_172</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0141</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_141</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0149</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_149</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0035</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_35</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0049</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_49</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0041</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_41</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0133</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_133</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0134</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_134</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0060</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_60</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0108</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_108</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0148</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_148</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0178</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_178</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0072</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_72</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0127</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_127</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0042</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_42</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0076</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_76</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0155</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_155</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0103</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_103</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_2</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0118</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_118</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0142</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_142</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0037</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_37</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0166</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_166</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0119</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_119</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0187</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_187</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0115</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_115</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_4</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0144</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_144</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0177</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_177</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0075</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_75</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0106</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_106</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0039</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_39</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0162</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_162</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0167</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_167</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_6</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_9</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0063</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_63</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0145</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_145</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0027</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_27</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0058</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_58</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0068</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_68</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0140</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_140</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0116</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_116</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0136</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_136</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0054</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_54</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0014</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_14</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0026</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_26</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0065</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_65</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0132</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_132</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0048</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_48</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0031</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_31</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0030</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_30</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0173</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_173</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0033</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_33</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0135</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_135</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0067</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_67</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0024</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_24</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0021</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_21</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0081</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_81</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0086</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_86</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0070</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_70</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0120</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_120</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0143</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_143</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0158</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_158</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0029</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_29</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0000</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_0</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0057</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_57</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0163</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_163</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0099</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_99</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0016</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_16</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0152</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_152</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0151</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_151</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0102</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_102</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0010</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_10</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0122</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_122</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0011</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_11</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0008</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_8</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0169</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_169</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0092</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_92</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0095</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_95</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0062</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_62</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0028</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_28</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_13</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0093</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_93</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0080</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_80</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0055</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_55</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0101</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_101</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0059</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_59</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0091</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_91</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_19</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0147</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_147</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0171</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_171</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0066</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_66</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0043</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_43</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0175</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_175</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0114</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_114</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0069</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_69</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0179</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_179</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0050</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_50</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0124</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_124</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0045</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_45</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0156</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_156</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0129</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_129</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_20</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0052</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_52</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0053</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_53</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0181</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_181</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0040</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_40</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0018</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_18</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0073</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_73</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0104</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_104</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0131</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_131</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0064</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_64</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0186</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_186</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0105</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_105</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0088</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_88</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0089</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_89</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_23</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0137</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_137</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0036</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_36</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0188</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_188</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0061</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_61</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0113</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_113</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0111</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_111</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0003</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_3</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0056</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_56</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0150</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_150</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0032</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_32</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0025</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_25</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0160</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_160</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0109</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_109</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0164</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_164</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_22</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0096</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_96</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0153</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_153</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0168</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_168</t>
+  </si>
+  <si>
     <t>distr_solelc_won-DEU_0015</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell DEU_15</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
     <t>distr_solelc_won-DEU_0183</t>
   </si>
   <si>
@@ -3020,1083 +4094,1056 @@
     <t>connecting solar and wind to buses in grid cell DEU_83</t>
   </si>
   <si>
-    <t>distr_solelc_won-DEU_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_4</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0144</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_144</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0177</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_177</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0075</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_75</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0106</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_106</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0039</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_39</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0162</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_162</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0167</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_167</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_6</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_9</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0067</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_67</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0024</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_24</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0021</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_21</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0081</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_81</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0086</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_86</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0070</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_70</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0120</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_120</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0143</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_143</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0158</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_158</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0111</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_111</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0003</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_3</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0056</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_56</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0150</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_150</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0032</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_32</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0025</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_25</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0160</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_160</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0109</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_109</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0164</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_164</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0022</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_22</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0096</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_96</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0153</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_153</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0168</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_168</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0062</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_62</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0028</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_28</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_13</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0093</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_93</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0080</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_80</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0055</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_55</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0101</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_101</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0059</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_59</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0091</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_91</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_19</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0147</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_147</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0171</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_171</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0127</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_127</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0042</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_42</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0076</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_76</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0155</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_155</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0103</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_103</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_2</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0118</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_118</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0142</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_142</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0037</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_37</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0166</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_166</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0119</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_119</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0187</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_187</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0115</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_115</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0066</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_66</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0043</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_43</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0175</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_175</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0114</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_114</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0069</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_69</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0179</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_179</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0050</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_50</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0124</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_124</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0045</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_45</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0156</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_156</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0129</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_129</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0020</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_20</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0052</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_52</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0053</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_53</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0181</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_181</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0049</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_49</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0041</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_41</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0133</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_133</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0134</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_134</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0060</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_60</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0108</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_108</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0148</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_148</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0178</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_178</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0072</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_72</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0130</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_130</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0159</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_159</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0038</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_38</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0098</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_98</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0047</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_47</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0034</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_34</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0110</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_110</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0074</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_74</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0100</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_100</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0117</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_117</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0139</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_139</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0146</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_146</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0121</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_121</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0170</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_170</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0094</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_94</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0063</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_63</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0145</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_145</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0027</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_27</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0058</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_58</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0068</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_68</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0140</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_140</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0116</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_116</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0136</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_136</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0054</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_54</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0040</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_40</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0018</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_18</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0073</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_73</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0104</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_104</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0131</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_131</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0064</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_64</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0186</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_186</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0105</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_105</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0088</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_88</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0089</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_89</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_23</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0137</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_137</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0036</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_36</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0188</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_188</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0061</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_61</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0113</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_113</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0180</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_180</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0079</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_79</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0176</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_176</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0017</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_17</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0046</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_46</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0123</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_123</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0097</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_97</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0185</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_185</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0172</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_172</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0141</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_141</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0149</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_149</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0035</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_35</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0014</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_14</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0026</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_26</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0065</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_65</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0132</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_132</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0048</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_48</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0031</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_31</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0030</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_30</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0173</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_173</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0033</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_33</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0135</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_135</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0029</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_29</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0000</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_0</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0057</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_57</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0163</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_163</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0099</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_99</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0016</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_16</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0152</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_152</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0151</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_151</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0102</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_102</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0010</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_10</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0122</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_122</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0011</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_11</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0008</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_8</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0169</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_169</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0092</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_92</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0095</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_95</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0128</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_128</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0001</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_1</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0184</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_184</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0085</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_85</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0071</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_71</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0138</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_138</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0087</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_87</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0084</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_84</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0044</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_44</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0090</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_90</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0005</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_5</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0082</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_82</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0161</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_161</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0125</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_125</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0174</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_174</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0182</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_182</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0165</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_165</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0154</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_154</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0077</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_77</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0107</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_107</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
+    <t>elc_won-DEU_0130,elc_spv-DEU_0130</t>
+  </si>
+  <si>
+    <t>e_DE103-380,e_w29713902-380,e_w32690742-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0159,elc_spv-DEU_0159</t>
+  </si>
+  <si>
+    <t>e_DE149-380,e_w1081302145-220,e_w109917397-380,e_w166604822-380,e_w36183042-380,e_w943135226-220,e_w943135226-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0038,elc_spv-DEU_0038</t>
+  </si>
+  <si>
+    <t>e_DE207-380,e_DE208-380,e_DE209-380,e_w35954395-380,e_w42049947-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0098,elc_spv-DEU_0098</t>
+  </si>
+  <si>
+    <t>e_DE40-220,e_DE43-220,e_w151507370-220,e_w24262656-220,e_w24262656-380,e_w28227099-220,e_w30017786-220,e_w953757606-380,e_w953757608-220,e_w953757608-380,e_w97857512-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0047,elc_spv-DEU_0047</t>
+  </si>
+  <si>
+    <t>e_DE42-220,e_DE51-220,e_DE52-220,e_w24230738-380,e_w26383042-380,e_w39229429-380,e_w957746797-220,e_w957746797-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0034,elc_spv-DEU_0034</t>
+  </si>
+  <si>
+    <t>e_w1128250707-220,e_w1128250707-380,e_w23744346-220,e_w26455019-220,e_w29420322-220,e_w31024391-220,e_w31024391-380,e_w883768276-380,e_w883768277-380,e_w883928228-380,e_w883928229-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0110,elc_spv-DEU_0110</t>
+  </si>
+  <si>
+    <t>e_w24757392-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0074,elc_spv-DEU_0074</t>
+  </si>
+  <si>
+    <t>e_w26403575-380,e_w42050342-220,e_w42050342-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0100,elc_spv-DEU_0100</t>
+  </si>
+  <si>
+    <t>e_w28343121-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0117,elc_spv-DEU_0117</t>
+  </si>
+  <si>
+    <t>e_w30040568-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0139,elc_spv-DEU_0139</t>
+  </si>
+  <si>
+    <t>e_w77694901-220,e_w77697810-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0146,elc_spv-DEU_0146</t>
+  </si>
+  <si>
+    <t>e_w946025110-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0121,elc_spv-DEU_0121</t>
+  </si>
+  <si>
+    <t>e_DE212-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0170,elc_spv-DEU_0170</t>
+  </si>
+  <si>
+    <t>e_w24976300-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0094,elc_spv-DEU_0094</t>
+  </si>
+  <si>
+    <t>e_DE163-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0084,elc_spv-DEU_0084</t>
+  </si>
+  <si>
+    <t>e_DE10-380,e_DE11-380,e_DE12-380,e_w11285720-380,e_w24502420-380,e_w881636329-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0044,elc_spv-DEU_0044</t>
+  </si>
+  <si>
+    <t>e_DE146-380,e_DE152-380,e_w1245826064-380,e_w1245867884-380,e_w202747445-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0090,elc_spv-DEU_0090</t>
+  </si>
+  <si>
+    <t>e_DE200-380,e_w1093896544-380,e_w31105067-380,e_w88945213-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0005,elc_spv-DEU_0005</t>
+  </si>
+  <si>
+    <t>e_DE62-220,e_DE62-380,e_DE67-220,e_DE67-380,e_DE70-220,e_DE70-380,e_DE73-220,e_DE73-380,e_DE74-220,e_DE74-380,e_DE77-220,e_DE77-380,e_DE79-220,e_DE93-220,e_DE97-220,e_w23084417-220,e_w23380800-220,e_w23380800-380,e_w24462228-220,e_w24462317-220,e_w24462426-220,e_w24462426-380,e_w24478889-220,e_w24478889-380,e_w24479003-220,e_w24479003-380,e_w311444692-380,e_w35818134-220,e_w35818137-220,e_w37554416-220,e_w92024105-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0082,elc_spv-DEU_0082</t>
+  </si>
+  <si>
+    <t>e_w23682013-220,e_w23816140-220,e_w274621059-220,e_w33042984-220,e_w787265962-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0161,elc_spv-DEU_0161</t>
+  </si>
+  <si>
+    <t>e_w28729619-380,e_w398680313-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0125,elc_spv-DEU_0125</t>
+  </si>
+  <si>
+    <t>e_w28956649-220,e_w28956649-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0174,elc_spv-DEU_0174</t>
+  </si>
+  <si>
+    <t>e_w940922557-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0182,elc_spv-DEU_0182</t>
+  </si>
+  <si>
+    <t>e_w941805476-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0165,elc_spv-DEU_0165</t>
+  </si>
+  <si>
+    <t>e_w947118608-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0154,elc_spv-DEU_0154</t>
+  </si>
+  <si>
+    <t>e_DE206-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0077,elc_spv-DEU_0077</t>
+  </si>
+  <si>
+    <t>e_w148446247-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0107,elc_spv-DEU_0107</t>
+  </si>
+  <si>
+    <t>e_w24768051-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0128,elc_spv-DEU_0128</t>
+  </si>
+  <si>
+    <t>e_DE151-220,e_w1086825107-220,e_w1086825107-380,e_w148211527-380,e_w156673637-220,e_w156673637-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0001,elc_spv-DEU_0001</t>
+  </si>
+  <si>
+    <t>e_DE164-220,e_DE167-380,e_DE170-380,e_DE172-220,e_DE172-380,e_DE173-220,e_w145680894-220,e_w151967290-220,e_w151967290-380,e_w151967291-220,e_w151967291-380,e_w89176939-220,e_w89176956-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0184,elc_spv-DEU_0184</t>
+  </si>
+  <si>
+    <t>e_DE46-380,e_w52983550-380,e_w941198517-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0085,elc_spv-DEU_0085</t>
+  </si>
+  <si>
+    <t>e_DE7-220,e_DE8-380,e_w1107961833-380,e_w22720647-220,e_w22720647-380,e_w25306938-380,e_w28008024-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0071,elc_spv-DEU_0071</t>
+  </si>
+  <si>
+    <t>e_w31131320-220,e_w31131320-380,e_w31131325-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0138,elc_spv-DEU_0138</t>
+  </si>
+  <si>
+    <t>e_w75865676-220,e_w91080806-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0087,elc_spv-DEU_0087</t>
+  </si>
+  <si>
+    <t>e_w907539360-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0180,elc_spv-DEU_0180</t>
+  </si>
+  <si>
+    <t>e_DE1-220,e_DE2-220,e_DE3-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0079,elc_spv-DEU_0079</t>
+  </si>
+  <si>
+    <t>e_DE108-220,e_w156960655-380,e_w172997498-220,e_w456386244-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0176,elc_spv-DEU_0176</t>
+  </si>
+  <si>
+    <t>e_DE16-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0017,elc_spv-DEU_0017</t>
+  </si>
+  <si>
+    <t>e_DE31-380,e_w61918154-220,e_w61918154-380,e_w796306640-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0046,elc_spv-DEU_0046</t>
+  </si>
+  <si>
+    <t>e_DE63-220,e_DE94-380,e_DE95-380,e_w25943440-220,e_w25943440-380,e_w42797575-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0123,elc_spv-DEU_0123</t>
+  </si>
+  <si>
+    <t>e_w133342285-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0097,elc_spv-DEU_0097</t>
+  </si>
+  <si>
+    <t>e_w157164284-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0185,elc_spv-DEU_0185</t>
+  </si>
+  <si>
+    <t>e_w414169327-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0172,elc_spv-DEU_0172</t>
+  </si>
+  <si>
+    <t>e_w942771541-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0141,elc_spv-DEU_0141</t>
+  </si>
+  <si>
+    <t>e_w28956649-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0149,elc_spv-DEU_0149</t>
+  </si>
+  <si>
+    <t>e_w851299584-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0035,elc_spv-DEU_0035</t>
+  </si>
+  <si>
+    <t>e_w29420322-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0049,elc_spv-DEU_0049</t>
+  </si>
+  <si>
+    <t>e_DE17-380,e_w24493551-380,e_w44717036-380,e_w871646309-380,e_w951273401-380,e_w951773852-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0041,elc_spv-DEU_0041</t>
+  </si>
+  <si>
+    <t>e_DE174-220,e_DE176-220,e_DE178-380,e_DE180-220,e_DE181-380,e_DE182-380,e_r17591073-220,e_w152924498-220,e_w152924498-380,e_w152924508-220,e_w152973139-220,e_w152973139-380,e_w156676050-220,e_w160929097-220,e_w207248812-220,e_w207248812-380,e_w259561755-380,e_w409305507-220,e_w46584363-220,e_w46584363-380,e_w48057110-380,e_w600395952-220,e_w600395952-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0133,elc_spv-DEU_0133</t>
+  </si>
+  <si>
+    <t>e_DE18-220,e_DE18-380,e_DE19-380,e_w59707532-220,e_w59707532-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0134,elc_spv-DEU_0134</t>
+  </si>
+  <si>
+    <t>e_w234171369-380,e_w274603394-380,e_w517421342-220,e_w517421342-380,e_w851299584-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0060,elc_spv-DEU_0060</t>
+  </si>
+  <si>
+    <t>e_w23881272-220,e_w24042358-380,e_w42372159-380,e_w42410916-220,e_w42410916-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0108,elc_spv-DEU_0108</t>
+  </si>
+  <si>
+    <t>e_w24705761-220,e_w24705761-380,e_w28613721-380,e_w954971276-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0148,elc_spv-DEU_0148</t>
+  </si>
+  <si>
+    <t>e_w40621568-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0178,elc_spv-DEU_0178</t>
+  </si>
+  <si>
+    <t>e_w1091984573-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0072,elc_spv-DEU_0072</t>
+  </si>
+  <si>
+    <t>e_w41389594-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0127,elc_spv-DEU_0127</t>
+  </si>
+  <si>
+    <t>e_DE157-380,e_DE158-380,e_w93341407-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0042,elc_spv-DEU_0042</t>
+  </si>
+  <si>
+    <t>e_DE165-380,e_DE168-380,e_w1223405794-220,e_w1223405794-380,e_w147521567-220,e_w147521567-380,e_w149987048-220,e_w149987048-380,e_w23284340-220,e_w23284340-380,e_w24685992-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0076,elc_spv-DEU_0076</t>
+  </si>
+  <si>
+    <t>e_DE169-220,e_w24765111-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0155,elc_spv-DEU_0155</t>
+  </si>
+  <si>
+    <t>e_DE201-220,e_DE203-220,e_DE204-220,e_DE206-220,e_w24976300-220,e_w24976300-380,e_w91086220-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0103,elc_spv-DEU_0103</t>
+  </si>
+  <si>
+    <t>e_DE4-220,e_w27124619-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0002,elc_spv-DEU_0002</t>
+  </si>
+  <si>
+    <t>e_w1024536785-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0118,elc_spv-DEU_0118</t>
+  </si>
+  <si>
+    <t>e_w275466323,e_w275466323-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0142,elc_spv-DEU_0142</t>
+  </si>
+  <si>
+    <t>e_w29084374-220,e_w29084374-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0037,elc_spv-DEU_0037</t>
+  </si>
+  <si>
+    <t>e_w31367940-220,e_w31367940-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0166,elc_spv-DEU_0166</t>
+  </si>
+  <si>
+    <t>e_w39688875-220,e_w515358077-380,e_w941453716-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0119,elc_spv-DEU_0119</t>
+  </si>
+  <si>
+    <t>e_w275466323-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0187,elc_spv-DEU_0187</t>
+  </si>
+  <si>
+    <t>e_w170123812-400</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0115,elc_spv-DEU_0115</t>
+  </si>
+  <si>
+    <t>e_w26474759-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0004,elc_spv-DEU_0004</t>
+  </si>
+  <si>
+    <t>e_DE106-220,e_DE107-220,e_DE107-380,e_DE110-220,e_DE110-380,e_DE112-380,e_DE113-220,e_DE114-380,e_DE117-380,e_DE125-220,e_DE125-380,e_DE127-380,e_DE128-380,e_DE131-220,e_DE133-380,e_w1040551074-220,e_w188276460-220,e_w188276460-380,e_w23084554-220,e_w23084554-380,e_w24267175-220,e_w24479984-220,e_w24479984-380,e_w24799890-220,e_w24799890-380,e_w24815262-220,e_w24839976-220,e_w24839976-380,e_w26927264-380,e_w27919734-220,e_w27919734-380,e_w31762305-220,e_w49577401-220,e_w49577401-380,e_w91854336-220,e_w91854336-380,e_w92877635-220,e_w93278553-220,e_w95434457-220,e_w95434457-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0144,elc_spv-DEU_0144</t>
+  </si>
+  <si>
+    <t>e_DE142-380,e_w167352587-220,e_w173112252-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0177,elc_spv-DEU_0177</t>
+  </si>
+  <si>
+    <t>e_w1222597066-220,e_w1222597066-380,e_w30039908-220,e_w30039908-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0075,elc_spv-DEU_0075</t>
+  </si>
+  <si>
+    <t>e_w143854536-380,e_w31653753-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0106,elc_spv-DEU_0106</t>
+  </si>
+  <si>
+    <t>e_w18629425-220,e_w18629425-380,e_w53378027-380,e_w76246159-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0039,elc_spv-DEU_0039</t>
+  </si>
+  <si>
+    <t>e_w26814283-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0162,elc_spv-DEU_0162</t>
+  </si>
+  <si>
+    <t>e_w29331499-220,e_w29331499-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0167,elc_spv-DEU_0167</t>
+  </si>
+  <si>
+    <t>e_w946710698-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0006,elc_spv-DEU_0006</t>
+  </si>
+  <si>
+    <t>e_DE62-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0009,elc_spv-DEU_0009</t>
+  </si>
+  <si>
+    <t>e_w156402422-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0063,elc_spv-DEU_0063</t>
+  </si>
+  <si>
+    <t>e_DE104-380,e_w274630377-220,e_w274630377-380,e_w42681484-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0145,elc_spv-DEU_0145</t>
+  </si>
+  <si>
+    <t>e_DE119-380,e_w23161029-220,e_w32843531-220,e_w32843531-380,e_w442199284-380,e_w714098678-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0027,elc_spv-DEU_0027</t>
+  </si>
+  <si>
+    <t>e_DE155-380,e_DE156-380,e_w160584794-380,e_w50898216-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0058,elc_spv-DEU_0058</t>
+  </si>
+  <si>
+    <t>e_DE179-220,e_w1104947187-380,e_w1327333163-220,e_w1327333163-380,e_w143903369-220,e_w143903369-380,e_w159326655-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0068,elc_spv-DEU_0068</t>
+  </si>
+  <si>
+    <t>e_DE6-380,e_w1089769599-220,e_w1089769599-380,e_w1280364401-380,e_w289836713-380,e_w525964617,e_w525964629-380,e_w60032354-220,e_w87722999-220,e_w87722999-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0140,elc_spv-DEU_0140</t>
+  </si>
+  <si>
+    <t>e_w29417741-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0116,elc_spv-DEU_0116</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0136,elc_spv-DEU_0136</t>
+  </si>
+  <si>
+    <t>e_DE5-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0054,elc_spv-DEU_0054</t>
+  </si>
+  <si>
+    <t>e_w31367936-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0014,elc_spv-DEU_0014</t>
+  </si>
+  <si>
+    <t>e_DE105-220,e_DE111-380,e_DE118-220,e_DE122-220,e_DE124-380,e_DE126-220,e_DE129-220,e_DE130-380,e_w106096507-380,e_w1118059105-220,e_w22690852-220,e_w22761692-220,e_w22761692-380,e_w22761839-220,e_w22761839-380,e_w23140544-220,e_w23192640-220,e_w25043127-380,e_w25044557-380,e_w27871140-220,e_w33816726-380,e_w87767098-380,e_w92165128-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0026,elc_spv-DEU_0026</t>
+  </si>
+  <si>
+    <t>e_DE166-220,e_DE171-220,e_w198448981-380,e_w373967500-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0065,elc_spv-DEU_0065</t>
+  </si>
+  <si>
+    <t>e_DE28-380,e_w202164315-380,e_w24604789-380,e_w27739871-220,e_w27739871-380,e_w953015049-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0132,elc_spv-DEU_0132</t>
+  </si>
+  <si>
+    <t>e_DE29-220,e_w33169401-220,e_w33169401-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0048,elc_spv-DEU_0048</t>
+  </si>
+  <si>
+    <t>e_DE30-220,e_DE30-380,e_DE32-220,e_DE33-380,e_DE34-380,e_DE35-220,e_DE35-380,e_w32904794-380,e_w33411203-220,e_w33411203-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0031,elc_spv-DEU_0031</t>
+  </si>
+  <si>
+    <t>e_DE37-220,e_DE38-220,e_DE53-380,e_DE56-380,e_w111973179-220,e_w114319248-220,e_w114319248-380,e_w25506770-380,e_w29472852-220,e_w29472852-380,e_w37764852-220,e_w37764852-380,e_w42861703-220,e_w42861703-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0030,elc_spv-DEU_0030</t>
+  </si>
+  <si>
+    <t>e_DE61-380,e_DE64-220,e_DE65-380,e_DE71-220,e_DE85-380,e_DE88-380,e_DE91-380,e_w112695048-380,e_w157628351-380,e_w24414688-220,e_w24667346-220,e_w24667346-380,e_w24858617-220,e_w42488850-380,e_w42507488-220,e_w42507488-380,e_w42560068-380,e_w42809973-380,e_w51940126-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0173,elc_spv-DEU_0173</t>
+  </si>
+  <si>
+    <t>e_w1068350839-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0033,elc_spv-DEU_0033</t>
+  </si>
+  <si>
+    <t>e_w50643382-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0135,elc_spv-DEU_0135</t>
+  </si>
+  <si>
+    <t>e_w234171369-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0067,elc_spv-DEU_0067</t>
+  </si>
+  <si>
+    <t>e_DE13-380,e_DE14-380,e_w1072574879-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0024,elc_spv-DEU_0024</t>
+  </si>
+  <si>
+    <t>e_DE194-220,e_w39011884-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0021,elc_spv-DEU_0021</t>
+  </si>
+  <si>
+    <t>e_DE213-380,e_w202865176-220,e_w202865177-380,e_w88916034-220,e_w88916034-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0081,elc_spv-DEU_0081</t>
+  </si>
+  <si>
+    <t>e_DE55-220,e_DE57-380,e_w23899043-380,e_w30109913-220,e_w699048438-220,e_w810315511-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0086,elc_spv-DEU_0086</t>
+  </si>
+  <si>
+    <t>e_w27646106-220,e_w35176751-220,e_w35176751-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0070,elc_spv-DEU_0070</t>
+  </si>
+  <si>
+    <t>e_w449010725-380,e_w946969736-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0120,elc_spv-DEU_0120</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0143,elc_spv-DEU_0143</t>
+  </si>
+  <si>
+    <t>e_w167352587-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0158,elc_spv-DEU_0158</t>
+  </si>
+  <si>
+    <t>e_w166604822-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0029,elc_spv-DEU_0029</t>
+  </si>
+  <si>
+    <t>e_DE109-220,e_DE132-220,e_w132814303-220,e_w83916207-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0000,elc_spv-DEU_0000</t>
+  </si>
+  <si>
+    <t>e_DE175-220,e_DE177-220,e_w82773910-220,e_w82773910-380,e_w82773910-400,e_w89215122-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0057,elc_spv-DEU_0057</t>
+  </si>
+  <si>
+    <t>e_DE184-380,e_DE185-380,e_DE186-380,e_DE187-380,e_DE188-380,e_DE189-380,e_DE190-380,e_DE191-380,e_DE192-380,e_DE193-380,e_w147878692-380,e_w22960899-380,e_w25786404-220,e_w25786404-380,e_w37721677-380,e_w41334805-220,e_w41334805-380,e_w43688805-220,e_w43688805-380,e_w48428875-380,e_w97825259-220,e_w97825259-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0163,elc_spv-DEU_0163</t>
+  </si>
+  <si>
+    <t>e_DE21-220,e_DE25-380,e_w11500045-380,e_w27149550-220,e_w27149550-380,e_w30132758-380,e_w30303506-380,e_w30309989-220,e_w43163132-380,e_w46615737-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0099,elc_spv-DEU_0099</t>
+  </si>
+  <si>
+    <t>e_DE36-220,e_w24258096-380,e_w24272339-380,e_w24272541-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0016,elc_spv-DEU_0016</t>
+  </si>
+  <si>
+    <t>e_DE39-220,e_DE41-380,e_DE45-380,e_DE50-380,e_DE54-380,e_w844075808-380,e_w952346322-380,e_w979801144-220,e_w979801144-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0152,elc_spv-DEU_0152</t>
+  </si>
+  <si>
+    <t>e_DE5-380,e_w32063539-380,e_w32318130-220,e_w940919943</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0151,elc_spv-DEU_0151</t>
+  </si>
+  <si>
+    <t>e_w1094015892-220,e_w1094015892-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0102,elc_spv-DEU_0102</t>
+  </si>
+  <si>
+    <t>e_w1102237380-220,e_w1102237380-380,e_w1191459479-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0010,elc_spv-DEU_0010</t>
+  </si>
+  <si>
+    <t>e_w152018146-220,e_w152018146-380,e_w156402422-220,e_w207756597-220,e_w54359256-220,e_w54359256-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0122,elc_spv-DEU_0122</t>
+  </si>
+  <si>
+    <t>e_w24158385-220,e_w26245195-220,e_w26245195-380,e_w5404079-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0011,elc_spv-DEU_0011</t>
+  </si>
+  <si>
+    <t>e_w42097854-220,e_w42097854-380,e_w66764943-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0008,elc_spv-DEU_0008</t>
+  </si>
+  <si>
+    <t>e_w672738029-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0169,elc_spv-DEU_0169</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0092,elc_spv-DEU_0092</t>
+  </si>
+  <si>
+    <t>e_w24705761-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0095,elc_spv-DEU_0095</t>
+  </si>
+  <si>
+    <t>e_w948341123-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0062,elc_spv-DEU_0062</t>
+  </si>
+  <si>
+    <t>e_DE121-380,e_w156673636-380,e_w41072584-380,e_w41232144-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0028,elc_spv-DEU_0028</t>
+  </si>
+  <si>
+    <t>e_DE135-220,e_DE137-220,e_DE137-380,e_DE140-380,e_DE143-380,e_DE145-220,e_DE147-380,e_DE148-220,e_DE148-380,e_DE150-380,e_w152403632-220,e_w152403632-380,e_w89043564-220,e_w89043564-380,e_w90148336-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0013,elc_spv-DEU_0013</t>
+  </si>
+  <si>
+    <t>e_DE138-220,e_DE138-380,e_DE139-220,e_DE139-380,e_DE144-380,e_DE153-380,e_DE154-380,e_w22765517-220,e_w22765517-380,e_w22766160-220,e_w22766160-380,e_w22767509-220,e_w22767509-380,e_w22796434-220,e_w26777313-380,e_w29374542-220,e_w32148946-220,e_w42423415-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0093,elc_spv-DEU_0093</t>
+  </si>
+  <si>
+    <t>e_DE163-220,e_w108797675-380,e_w24758329-380,e_w499165542-220,e_w499165542-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0080,elc_spv-DEU_0080</t>
+  </si>
+  <si>
+    <t>e_DE59-220,e_DE60-220,e_w952004951-220,e_w952004951-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0055,elc_spv-DEU_0055</t>
+  </si>
+  <si>
+    <t>e_w102743264-220,e_w25306752-220,e_w25306752-380,e_w31367936-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0101,elc_spv-DEU_0101</t>
+  </si>
+  <si>
+    <t>e_w1089911133-380,e_w23583867-380,e_w28327356-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0059,elc_spv-DEU_0059</t>
+  </si>
+  <si>
+    <t>e_w145002769-380,e_w55069713-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0091,elc_spv-DEU_0091</t>
+  </si>
+  <si>
+    <t>e_w38325076-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0019,elc_spv-DEU_0019</t>
+  </si>
+  <si>
+    <t>e_w559702819-220,e_w559702819-380,e_w672738029-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0147,elc_spv-DEU_0147</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0171,elc_spv-DEU_0171</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0066,elc_spv-DEU_0066</t>
+  </si>
+  <si>
+    <t>e_DE15-220,e_w229565743-220,e_w28812249-220,e_w955268863-220,e_w955268863-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0043,elc_spv-DEU_0043</t>
+  </si>
+  <si>
+    <t>e_DE159-380,e_DE160-220,e_DE161-380,e_DE162-380,e_w169244940-220,e_w169244940-380,e_w23641079-220,e_w23641079-380,e_w38661452-380,e_w4826893-220,e_w62061952-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0175,elc_spv-DEU_0175</t>
+  </si>
+  <si>
+    <t>e_DE22-220,e_DE22-380,e_DE23-220,e_DE23-380,e_DE24-220,e_DE24-380,e_DE26-380,e_DE27-220,e_DE27-380,e_w22973052-220,e_w22973070-220,e_w22973070-380,e_w30954714-380,e_w940636813-220,e_w940636813-380,e_w942448206-220,e_w942448206-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0114,elc_spv-DEU_0114</t>
+  </si>
+  <si>
+    <t>e_DE44-380,e_w26474759-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0069,elc_spv-DEU_0069</t>
+  </si>
+  <si>
+    <t>e_w1071504343-380,e_w603661085-380,e_w907539360-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0179,elc_spv-DEU_0179</t>
+  </si>
+  <si>
+    <t>e_w1091984573-220,e_w1091984573-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0050,elc_spv-DEU_0050</t>
+  </si>
+  <si>
+    <t>e_w1134105414-380,e_w157421333-220,e_w266684854-380,e_w32076853-220,e_w32076853-380,e_w42872354-220,e_w829116805-220,e_w829116805-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0124,elc_spv-DEU_0124</t>
+  </si>
+  <si>
+    <t>e_w137602559-220,e_w137602559-380,e_w24759324-220,e_w24768051-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0045,elc_spv-DEU_0045</t>
+  </si>
+  <si>
+    <t>e_w42799487-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0156,elc_spv-DEU_0156</t>
+  </si>
+  <si>
+    <t>e_w78441561-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0129,elc_spv-DEU_0129</t>
+  </si>
+  <si>
+    <t>e_w29713902-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0020,elc_spv-DEU_0020</t>
+  </si>
+  <si>
+    <t>e_w559702819-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0052,elc_spv-DEU_0052</t>
+  </si>
+  <si>
+    <t>e_w603661085-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0053,elc_spv-DEU_0053</t>
+  </si>
+  <si>
+    <t>e_w946969736-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0181,elc_spv-DEU_0181</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0040,elc_spv-DEU_0040</t>
+  </si>
+  <si>
+    <t>e_DE183-220,e_w152261133-220,e_w152261133-380,e_w254326606-380,e_w32151621-220,e_w32725957-220,e_w32725958-220,e_w32731290-220,e_w32966636-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0018,elc_spv-DEU_0018</t>
+  </si>
+  <si>
+    <t>e_DE20-380,e_w1280840211-380,e_w142487746-380,e_w206289192-380,e_w32042992-380,e_w797009308-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0073,elc_spv-DEU_0073</t>
+  </si>
+  <si>
+    <t>e_DE202-220,e_DE202-380,e_DE205-220,e_DE205-380,e_w26404600-380,e_w41389594-220,e_w41389594-380,e_w85523877-220,e_w85523877-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0104,elc_spv-DEU_0104</t>
+  </si>
+  <si>
+    <t>e_DE211-220,e_DE212-220,e_w68532663-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0131,elc_spv-DEU_0131</t>
+  </si>
+  <si>
+    <t>e_DE47-220,e_w26472665-220,e_w26472665-380,e_w943939310-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0064,elc_spv-DEU_0064</t>
+  </si>
+  <si>
+    <t>e_DE49-380,e_w23135618-220,e_w24413992-380,e_w28397771-220,e_w288305056-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0186,elc_spv-DEU_0186</t>
+  </si>
+  <si>
+    <t>e_w170123812-220,e_w170123812-380,e_w170123812-400</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0105,elc_spv-DEU_0105</t>
+  </si>
+  <si>
+    <t>e_w23907283-380,e_w24237879-220,e_w30613895-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0088,elc_spv-DEU_0088</t>
+  </si>
+  <si>
+    <t>e_w57727004-220,e_w57727004-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0089,elc_spv-DEU_0089</t>
+  </si>
+  <si>
+    <t>e_w683227471-380,e_w77038371-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0023,elc_spv-DEU_0023</t>
+  </si>
+  <si>
+    <t>e_w82130902-225,e_w933248930-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0137,elc_spv-DEU_0137</t>
+  </si>
+  <si>
+    <t>e_w75865676-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0036,elc_spv-DEU_0036</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0188,elc_spv-DEU_0188</t>
+  </si>
+  <si>
+    <t>e_w1222597066-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0061,elc_spv-DEU_0061</t>
+  </si>
+  <si>
+    <t>e_w156673636-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0113,elc_spv-DEU_0113</t>
+  </si>
+  <si>
+    <t>e_w32690742-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0111,elc_spv-DEU_0111</t>
+  </si>
+  <si>
+    <t>e_DE134-380,e_w149256409-380,e_w152219167-220,e_w25746125-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0003,elc_spv-DEU_0003</t>
+  </si>
+  <si>
+    <t>e_DE136-380,e_DE141-380,e_w24268944-380,e_w25426571-380,e_w25992879-380,e_w26593935-380,e_w870598507,e_w870598507-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0056,elc_spv-DEU_0056</t>
+  </si>
+  <si>
+    <t>e_DE195-380,e_DE196-380,e_DE197-380,e_DE198-380,e_DE199-380,e_w26260052-380,e_w30734324-380,e_w42736239-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0150,elc_spv-DEU_0150</t>
+  </si>
+  <si>
+    <t>e_DE9-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0032,elc_spv-DEU_0032</t>
+  </si>
+  <si>
+    <t>e_w150200540-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0025,elc_spv-DEU_0025</t>
+  </si>
+  <si>
+    <t>e_w152107815-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0160,elc_spv-DEU_0160</t>
+  </si>
+  <si>
+    <t>e_w157328339-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0109,elc_spv-DEU_0109</t>
+  </si>
+  <si>
+    <t>e_w24757393-380,e_w24757833-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0164,elc_spv-DEU_0164</t>
+  </si>
+  <si>
+    <t>e_w518455594-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0022,elc_spv-DEU_0022</t>
+  </si>
+  <si>
+    <t>e_w87653464-220,e_w87653464-380,e_w87653464-400</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0096,elc_spv-DEU_0096</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0153,elc_spv-DEU_0153</t>
+  </si>
+  <si>
+    <t>e_w91080806-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0168,elc_spv-DEU_0168</t>
+  </si>
+  <si>
     <t>elc_won-DEU_0015,elc_spv-DEU_0015</t>
   </si>
   <si>
@@ -4142,1057 +5189,142 @@
     <t>elc_won-DEU_0157,elc_spv-DEU_0157</t>
   </si>
   <si>
-    <t>e_w78441561-380</t>
-  </si>
-  <si>
     <t>elc_won-DEU_0083,elc_spv-DEU_0083</t>
   </si>
   <si>
     <t>e_w23816140-220</t>
   </si>
   <si>
-    <t>elc_won-DEU_0004,elc_spv-DEU_0004</t>
-  </si>
-  <si>
-    <t>e_DE106-220,e_DE107-220,e_DE107-380,e_DE110-220,e_DE110-380,e_DE112-380,e_DE113-220,e_DE114-380,e_DE117-380,e_DE125-220,e_DE125-380,e_DE127-380,e_DE128-380,e_DE131-220,e_DE133-380,e_w1040551074-220,e_w188276460-220,e_w188276460-380,e_w23084554-220,e_w23084554-380,e_w24267175-220,e_w24479984-220,e_w24479984-380,e_w24799890-220,e_w24799890-380,e_w24815262-220,e_w24839976-220,e_w24839976-380,e_w26927264-380,e_w27919734-220,e_w27919734-380,e_w31762305-220,e_w49577401-220,e_w49577401-380,e_w91854336-220,e_w91854336-380,e_w92877635-220,e_w93278553-220,e_w95434457-220,e_w95434457-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0144,elc_spv-DEU_0144</t>
-  </si>
-  <si>
-    <t>e_DE142-380,e_w167352587-220,e_w173112252-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0177,elc_spv-DEU_0177</t>
-  </si>
-  <si>
-    <t>e_w1222597066-220,e_w1222597066-380,e_w30039908-220,e_w30039908-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0075,elc_spv-DEU_0075</t>
-  </si>
-  <si>
-    <t>e_w143854536-380,e_w31653753-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0106,elc_spv-DEU_0106</t>
-  </si>
-  <si>
-    <t>e_w18629425-220,e_w18629425-380,e_w53378027-380,e_w76246159-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0039,elc_spv-DEU_0039</t>
-  </si>
-  <si>
-    <t>e_w26814283-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0162,elc_spv-DEU_0162</t>
-  </si>
-  <si>
-    <t>e_w29331499-220,e_w29331499-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0167,elc_spv-DEU_0167</t>
-  </si>
-  <si>
-    <t>e_w946710698-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0006,elc_spv-DEU_0006</t>
-  </si>
-  <si>
-    <t>e_DE62-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0009,elc_spv-DEU_0009</t>
-  </si>
-  <si>
-    <t>e_w156402422-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0067,elc_spv-DEU_0067</t>
-  </si>
-  <si>
-    <t>e_DE13-380,e_DE14-380,e_w1072574879-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0024,elc_spv-DEU_0024</t>
-  </si>
-  <si>
-    <t>e_DE194-220,e_w39011884-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0021,elc_spv-DEU_0021</t>
-  </si>
-  <si>
-    <t>e_DE213-380,e_w202865176-220,e_w202865177-380,e_w88916034-220,e_w88916034-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0081,elc_spv-DEU_0081</t>
-  </si>
-  <si>
-    <t>e_DE55-220,e_DE57-380,e_w23899043-380,e_w30109913-220,e_w699048438-220,e_w810315511-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0086,elc_spv-DEU_0086</t>
-  </si>
-  <si>
-    <t>e_w27646106-220,e_w35176751-220,e_w35176751-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0070,elc_spv-DEU_0070</t>
-  </si>
-  <si>
-    <t>e_w449010725-380,e_w946969736-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0120,elc_spv-DEU_0120</t>
-  </si>
-  <si>
-    <t>e_w275466323-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0143,elc_spv-DEU_0143</t>
-  </si>
-  <si>
-    <t>e_w167352587-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0158,elc_spv-DEU_0158</t>
-  </si>
-  <si>
-    <t>e_w166604822-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0111,elc_spv-DEU_0111</t>
-  </si>
-  <si>
-    <t>e_DE134-380,e_w149256409-380,e_w152219167-220,e_w25746125-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0003,elc_spv-DEU_0003</t>
-  </si>
-  <si>
-    <t>e_DE136-380,e_DE141-380,e_w24268944-380,e_w25426571-380,e_w25992879-380,e_w26593935-380,e_w870598507,e_w870598507-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0056,elc_spv-DEU_0056</t>
-  </si>
-  <si>
-    <t>e_DE195-380,e_DE196-380,e_DE197-380,e_DE198-380,e_DE199-380,e_w26260052-380,e_w30734324-380,e_w42736239-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0150,elc_spv-DEU_0150</t>
-  </si>
-  <si>
-    <t>e_DE9-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0032,elc_spv-DEU_0032</t>
-  </si>
-  <si>
-    <t>e_w150200540-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0025,elc_spv-DEU_0025</t>
-  </si>
-  <si>
-    <t>e_w152107815-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0160,elc_spv-DEU_0160</t>
-  </si>
-  <si>
-    <t>e_w157328339-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0109,elc_spv-DEU_0109</t>
-  </si>
-  <si>
-    <t>e_w24757393-380,e_w24757833-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0164,elc_spv-DEU_0164</t>
-  </si>
-  <si>
-    <t>e_w518455594-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0022,elc_spv-DEU_0022</t>
-  </si>
-  <si>
-    <t>e_w87653464-220,e_w87653464-380,e_w87653464-400</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0096,elc_spv-DEU_0096</t>
-  </si>
-  <si>
-    <t>e_w948341123-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0153,elc_spv-DEU_0153</t>
-  </si>
-  <si>
-    <t>e_w91080806-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0168,elc_spv-DEU_0168</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0062,elc_spv-DEU_0062</t>
-  </si>
-  <si>
-    <t>e_DE121-380,e_w156673636-380,e_w41072584-380,e_w41232144-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0028,elc_spv-DEU_0028</t>
-  </si>
-  <si>
-    <t>e_DE135-220,e_DE137-220,e_DE137-380,e_DE140-380,e_DE143-380,e_DE145-220,e_DE147-380,e_DE148-220,e_DE148-380,e_DE150-380,e_w152403632-220,e_w152403632-380,e_w89043564-220,e_w89043564-380,e_w90148336-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0013,elc_spv-DEU_0013</t>
-  </si>
-  <si>
-    <t>e_DE138-220,e_DE138-380,e_DE139-220,e_DE139-380,e_DE144-380,e_DE153-380,e_DE154-380,e_w22765517-220,e_w22765517-380,e_w22766160-220,e_w22766160-380,e_w22767509-220,e_w22767509-380,e_w22796434-220,e_w26777313-380,e_w29374542-220,e_w32148946-220,e_w42423415-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0093,elc_spv-DEU_0093</t>
-  </si>
-  <si>
-    <t>e_DE163-220,e_w108797675-380,e_w24758329-380,e_w499165542-220,e_w499165542-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0080,elc_spv-DEU_0080</t>
-  </si>
-  <si>
-    <t>e_DE59-220,e_DE60-220,e_w952004951-220,e_w952004951-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0055,elc_spv-DEU_0055</t>
-  </si>
-  <si>
-    <t>e_w102743264-220,e_w25306752-220,e_w25306752-380,e_w31367936-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0101,elc_spv-DEU_0101</t>
-  </si>
-  <si>
-    <t>e_w1089911133-380,e_w23583867-380,e_w28327356-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0059,elc_spv-DEU_0059</t>
-  </si>
-  <si>
-    <t>e_w145002769-380,e_w55069713-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0091,elc_spv-DEU_0091</t>
-  </si>
-  <si>
-    <t>e_w38325076-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0019,elc_spv-DEU_0019</t>
-  </si>
-  <si>
-    <t>e_w559702819-220,e_w559702819-380,e_w672738029-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0147,elc_spv-DEU_0147</t>
-  </si>
-  <si>
-    <t>e_w40621568-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0171,elc_spv-DEU_0171</t>
-  </si>
-  <si>
-    <t>e_w942771541-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0127,elc_spv-DEU_0127</t>
-  </si>
-  <si>
-    <t>e_DE157-380,e_DE158-380,e_w93341407-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0042,elc_spv-DEU_0042</t>
-  </si>
-  <si>
-    <t>e_DE165-380,e_DE168-380,e_w1223405794-220,e_w1223405794-380,e_w147521567-220,e_w147521567-380,e_w149987048-220,e_w149987048-380,e_w23284340-220,e_w23284340-380,e_w24685992-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0076,elc_spv-DEU_0076</t>
-  </si>
-  <si>
-    <t>e_DE169-220,e_w24765111-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0155,elc_spv-DEU_0155</t>
-  </si>
-  <si>
-    <t>e_DE201-220,e_DE203-220,e_DE204-220,e_DE206-220,e_w24976300-220,e_w24976300-380,e_w91086220-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0103,elc_spv-DEU_0103</t>
-  </si>
-  <si>
-    <t>e_DE4-220,e_w27124619-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0002,elc_spv-DEU_0002</t>
-  </si>
-  <si>
-    <t>e_w1024536785-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0118,elc_spv-DEU_0118</t>
-  </si>
-  <si>
-    <t>e_w275466323,e_w275466323-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0142,elc_spv-DEU_0142</t>
-  </si>
-  <si>
-    <t>e_w29084374-220,e_w29084374-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0037,elc_spv-DEU_0037</t>
-  </si>
-  <si>
-    <t>e_w31367940-220,e_w31367940-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0166,elc_spv-DEU_0166</t>
-  </si>
-  <si>
-    <t>e_w39688875-220,e_w515358077-380,e_w941453716-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0119,elc_spv-DEU_0119</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0187,elc_spv-DEU_0187</t>
-  </si>
-  <si>
-    <t>e_w170123812-400</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0115,elc_spv-DEU_0115</t>
-  </si>
-  <si>
-    <t>e_w26474759-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0066,elc_spv-DEU_0066</t>
-  </si>
-  <si>
-    <t>e_DE15-220,e_w229565743-220,e_w28812249-220,e_w955268863-220,e_w955268863-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0043,elc_spv-DEU_0043</t>
-  </si>
-  <si>
-    <t>e_DE159-380,e_DE160-220,e_DE161-380,e_DE162-380,e_w169244940-220,e_w169244940-380,e_w23641079-220,e_w23641079-380,e_w38661452-380,e_w4826893-220,e_w62061952-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0175,elc_spv-DEU_0175</t>
-  </si>
-  <si>
-    <t>e_DE22-220,e_DE22-380,e_DE23-220,e_DE23-380,e_DE24-220,e_DE24-380,e_DE26-380,e_DE27-220,e_DE27-380,e_w22973052-220,e_w22973070-220,e_w22973070-380,e_w30954714-380,e_w940636813-220,e_w940636813-380,e_w942448206-220,e_w942448206-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0114,elc_spv-DEU_0114</t>
-  </si>
-  <si>
-    <t>e_DE44-380,e_w26474759-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0069,elc_spv-DEU_0069</t>
-  </si>
-  <si>
-    <t>e_w1071504343-380,e_w603661085-380,e_w907539360-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0179,elc_spv-DEU_0179</t>
-  </si>
-  <si>
-    <t>e_w1091984573-220,e_w1091984573-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0050,elc_spv-DEU_0050</t>
-  </si>
-  <si>
-    <t>e_w1134105414-380,e_w157421333-220,e_w266684854-380,e_w32076853-220,e_w32076853-380,e_w42872354-220,e_w829116805-220,e_w829116805-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0124,elc_spv-DEU_0124</t>
-  </si>
-  <si>
-    <t>e_w137602559-220,e_w137602559-380,e_w24759324-220,e_w24768051-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0045,elc_spv-DEU_0045</t>
-  </si>
-  <si>
-    <t>e_w42799487-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0156,elc_spv-DEU_0156</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0129,elc_spv-DEU_0129</t>
-  </si>
-  <si>
-    <t>e_w29713902-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0020,elc_spv-DEU_0020</t>
-  </si>
-  <si>
-    <t>e_w559702819-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0052,elc_spv-DEU_0052</t>
-  </si>
-  <si>
-    <t>e_w603661085-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0053,elc_spv-DEU_0053</t>
-  </si>
-  <si>
-    <t>e_w946969736-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0181,elc_spv-DEU_0181</t>
-  </si>
-  <si>
-    <t>e_w941805476-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0049,elc_spv-DEU_0049</t>
-  </si>
-  <si>
-    <t>e_DE17-380,e_w24493551-380,e_w44717036-380,e_w871646309-380,e_w951273401-380,e_w951773852-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0041,elc_spv-DEU_0041</t>
-  </si>
-  <si>
-    <t>e_DE174-220,e_DE176-220,e_DE178-380,e_DE180-220,e_DE181-380,e_DE182-380,e_r17591073-220,e_w152924498-220,e_w152924498-380,e_w152924508-220,e_w152973139-220,e_w152973139-380,e_w156676050-220,e_w160929097-220,e_w207248812-220,e_w207248812-380,e_w259561755-380,e_w409305507-220,e_w46584363-220,e_w46584363-380,e_w48057110-380,e_w600395952-220,e_w600395952-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0133,elc_spv-DEU_0133</t>
-  </si>
-  <si>
-    <t>e_DE18-220,e_DE18-380,e_DE19-380,e_w59707532-220,e_w59707532-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0134,elc_spv-DEU_0134</t>
-  </si>
-  <si>
-    <t>e_w234171369-380,e_w274603394-380,e_w517421342-220,e_w517421342-380,e_w851299584-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0060,elc_spv-DEU_0060</t>
-  </si>
-  <si>
-    <t>e_w23881272-220,e_w24042358-380,e_w42372159-380,e_w42410916-220,e_w42410916-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0108,elc_spv-DEU_0108</t>
-  </si>
-  <si>
-    <t>e_w24705761-220,e_w24705761-380,e_w28613721-380,e_w954971276-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0148,elc_spv-DEU_0148</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0178,elc_spv-DEU_0178</t>
-  </si>
-  <si>
-    <t>e_w1091984573-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0072,elc_spv-DEU_0072</t>
-  </si>
-  <si>
-    <t>e_w41389594-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0130,elc_spv-DEU_0130</t>
-  </si>
-  <si>
-    <t>e_DE103-380,e_w29713902-380,e_w32690742-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0159,elc_spv-DEU_0159</t>
-  </si>
-  <si>
-    <t>e_DE149-380,e_w1081302145-220,e_w109917397-380,e_w166604822-380,e_w36183042-380,e_w943135226-220,e_w943135226-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0038,elc_spv-DEU_0038</t>
-  </si>
-  <si>
-    <t>e_DE207-380,e_DE208-380,e_DE209-380,e_w35954395-380,e_w42049947-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0098,elc_spv-DEU_0098</t>
-  </si>
-  <si>
-    <t>e_DE40-220,e_DE43-220,e_w151507370-220,e_w24262656-220,e_w24262656-380,e_w28227099-220,e_w30017786-220,e_w953757606-380,e_w953757608-220,e_w953757608-380,e_w97857512-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0047,elc_spv-DEU_0047</t>
-  </si>
-  <si>
-    <t>e_DE42-220,e_DE51-220,e_DE52-220,e_w24230738-380,e_w26383042-380,e_w39229429-380,e_w957746797-220,e_w957746797-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0034,elc_spv-DEU_0034</t>
-  </si>
-  <si>
-    <t>e_w1128250707-220,e_w1128250707-380,e_w23744346-220,e_w26455019-220,e_w29420322-220,e_w31024391-220,e_w31024391-380,e_w883768276-380,e_w883768277-380,e_w883928228-380,e_w883928229-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0110,elc_spv-DEU_0110</t>
-  </si>
-  <si>
-    <t>e_w24757392-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0074,elc_spv-DEU_0074</t>
-  </si>
-  <si>
-    <t>e_w26403575-380,e_w42050342-220,e_w42050342-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0100,elc_spv-DEU_0100</t>
-  </si>
-  <si>
-    <t>e_w28343121-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0117,elc_spv-DEU_0117</t>
-  </si>
-  <si>
-    <t>e_w30040568-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0139,elc_spv-DEU_0139</t>
-  </si>
-  <si>
-    <t>e_w77694901-220,e_w77697810-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0146,elc_spv-DEU_0146</t>
-  </si>
-  <si>
-    <t>e_w946025110-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0121,elc_spv-DEU_0121</t>
-  </si>
-  <si>
-    <t>e_DE212-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0170,elc_spv-DEU_0170</t>
-  </si>
-  <si>
-    <t>e_w24976300-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0094,elc_spv-DEU_0094</t>
-  </si>
-  <si>
-    <t>e_DE163-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0063,elc_spv-DEU_0063</t>
-  </si>
-  <si>
-    <t>e_DE104-380,e_w274630377-220,e_w274630377-380,e_w42681484-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0145,elc_spv-DEU_0145</t>
-  </si>
-  <si>
-    <t>e_DE119-380,e_w23161029-220,e_w32843531-220,e_w32843531-380,e_w442199284-380,e_w714098678-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0027,elc_spv-DEU_0027</t>
-  </si>
-  <si>
-    <t>e_DE155-380,e_DE156-380,e_w160584794-380,e_w50898216-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0058,elc_spv-DEU_0058</t>
-  </si>
-  <si>
-    <t>e_DE179-220,e_w1104947187-380,e_w1327333163-220,e_w1327333163-380,e_w143903369-220,e_w143903369-380,e_w159326655-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0068,elc_spv-DEU_0068</t>
-  </si>
-  <si>
-    <t>e_DE6-380,e_w1089769599-220,e_w1089769599-380,e_w1280364401-380,e_w289836713-380,e_w525964617,e_w525964629-380,e_w60032354-220,e_w87722999-220,e_w87722999-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0140,elc_spv-DEU_0140</t>
-  </si>
-  <si>
-    <t>e_w29417741-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0116,elc_spv-DEU_0116</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0136,elc_spv-DEU_0136</t>
-  </si>
-  <si>
-    <t>e_DE5-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0054,elc_spv-DEU_0054</t>
-  </si>
-  <si>
-    <t>e_w31367936-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0040,elc_spv-DEU_0040</t>
-  </si>
-  <si>
-    <t>e_DE183-220,e_w152261133-220,e_w152261133-380,e_w254326606-380,e_w32151621-220,e_w32725957-220,e_w32725958-220,e_w32731290-220,e_w32966636-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0018,elc_spv-DEU_0018</t>
-  </si>
-  <si>
-    <t>e_DE20-380,e_w1280840211-380,e_w142487746-380,e_w206289192-380,e_w32042992-380,e_w797009308-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0073,elc_spv-DEU_0073</t>
-  </si>
-  <si>
-    <t>e_DE202-220,e_DE202-380,e_DE205-220,e_DE205-380,e_w26404600-380,e_w41389594-220,e_w41389594-380,e_w85523877-220,e_w85523877-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0104,elc_spv-DEU_0104</t>
-  </si>
-  <si>
-    <t>e_DE211-220,e_DE212-220,e_w68532663-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0131,elc_spv-DEU_0131</t>
-  </si>
-  <si>
-    <t>e_DE47-220,e_w26472665-220,e_w26472665-380,e_w943939310-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0064,elc_spv-DEU_0064</t>
-  </si>
-  <si>
-    <t>e_DE49-380,e_w23135618-220,e_w24413992-380,e_w28397771-220,e_w288305056-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0186,elc_spv-DEU_0186</t>
-  </si>
-  <si>
-    <t>e_w170123812-220,e_w170123812-380,e_w170123812-400</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0105,elc_spv-DEU_0105</t>
-  </si>
-  <si>
-    <t>e_w23907283-380,e_w24237879-220,e_w30613895-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0088,elc_spv-DEU_0088</t>
-  </si>
-  <si>
-    <t>e_w57727004-220,e_w57727004-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0089,elc_spv-DEU_0089</t>
-  </si>
-  <si>
-    <t>e_w683227471-380,e_w77038371-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0023,elc_spv-DEU_0023</t>
-  </si>
-  <si>
-    <t>e_w82130902-225,e_w933248930-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0137,elc_spv-DEU_0137</t>
-  </si>
-  <si>
-    <t>e_w75865676-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0036,elc_spv-DEU_0036</t>
-  </si>
-  <si>
-    <t>e_w29420322-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0188,elc_spv-DEU_0188</t>
-  </si>
-  <si>
-    <t>e_w1222597066-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0061,elc_spv-DEU_0061</t>
-  </si>
-  <si>
-    <t>e_w156673636-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0113,elc_spv-DEU_0113</t>
-  </si>
-  <si>
-    <t>e_w32690742-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0180,elc_spv-DEU_0180</t>
-  </si>
-  <si>
-    <t>e_DE1-220,e_DE2-220,e_DE3-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0079,elc_spv-DEU_0079</t>
-  </si>
-  <si>
-    <t>e_DE108-220,e_w156960655-380,e_w172997498-220,e_w456386244-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0176,elc_spv-DEU_0176</t>
-  </si>
-  <si>
-    <t>e_DE16-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0017,elc_spv-DEU_0017</t>
-  </si>
-  <si>
-    <t>e_DE31-380,e_w61918154-220,e_w61918154-380,e_w796306640-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0046,elc_spv-DEU_0046</t>
-  </si>
-  <si>
-    <t>e_DE63-220,e_DE94-380,e_DE95-380,e_w25943440-220,e_w25943440-380,e_w42797575-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0123,elc_spv-DEU_0123</t>
-  </si>
-  <si>
-    <t>e_w133342285-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0097,elc_spv-DEU_0097</t>
-  </si>
-  <si>
-    <t>e_w157164284-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0185,elc_spv-DEU_0185</t>
-  </si>
-  <si>
-    <t>e_w414169327-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0172,elc_spv-DEU_0172</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0141,elc_spv-DEU_0141</t>
-  </si>
-  <si>
-    <t>e_w28956649-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0149,elc_spv-DEU_0149</t>
-  </si>
-  <si>
-    <t>e_w851299584-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0035,elc_spv-DEU_0035</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0014,elc_spv-DEU_0014</t>
-  </si>
-  <si>
-    <t>e_DE105-220,e_DE111-380,e_DE118-220,e_DE122-220,e_DE124-380,e_DE126-220,e_DE129-220,e_DE130-380,e_w106096507-380,e_w1118059105-220,e_w22690852-220,e_w22761692-220,e_w22761692-380,e_w22761839-220,e_w22761839-380,e_w23140544-220,e_w23192640-220,e_w25043127-380,e_w25044557-380,e_w27871140-220,e_w33816726-380,e_w87767098-380,e_w92165128-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0026,elc_spv-DEU_0026</t>
-  </si>
-  <si>
-    <t>e_DE166-220,e_DE171-220,e_w198448981-380,e_w373967500-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0065,elc_spv-DEU_0065</t>
-  </si>
-  <si>
-    <t>e_DE28-380,e_w202164315-380,e_w24604789-380,e_w27739871-220,e_w27739871-380,e_w953015049-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0132,elc_spv-DEU_0132</t>
-  </si>
-  <si>
-    <t>e_DE29-220,e_w33169401-220,e_w33169401-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0048,elc_spv-DEU_0048</t>
-  </si>
-  <si>
-    <t>e_DE30-220,e_DE30-380,e_DE32-220,e_DE33-380,e_DE34-380,e_DE35-220,e_DE35-380,e_w32904794-380,e_w33411203-220,e_w33411203-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0031,elc_spv-DEU_0031</t>
-  </si>
-  <si>
-    <t>e_DE37-220,e_DE38-220,e_DE53-380,e_DE56-380,e_w111973179-220,e_w114319248-220,e_w114319248-380,e_w25506770-380,e_w29472852-220,e_w29472852-380,e_w37764852-220,e_w37764852-380,e_w42861703-220,e_w42861703-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0030,elc_spv-DEU_0030</t>
-  </si>
-  <si>
-    <t>e_DE61-380,e_DE64-220,e_DE65-380,e_DE71-220,e_DE85-380,e_DE88-380,e_DE91-380,e_w112695048-380,e_w157628351-380,e_w24414688-220,e_w24667346-220,e_w24667346-380,e_w24858617-220,e_w42488850-380,e_w42507488-220,e_w42507488-380,e_w42560068-380,e_w42809973-380,e_w51940126-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0173,elc_spv-DEU_0173</t>
-  </si>
-  <si>
-    <t>e_w1068350839-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0033,elc_spv-DEU_0033</t>
-  </si>
-  <si>
-    <t>e_w50643382-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0135,elc_spv-DEU_0135</t>
-  </si>
-  <si>
-    <t>e_w234171369-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0029,elc_spv-DEU_0029</t>
-  </si>
-  <si>
-    <t>e_DE109-220,e_DE132-220,e_w132814303-220,e_w83916207-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0000,elc_spv-DEU_0000</t>
-  </si>
-  <si>
-    <t>e_DE175-220,e_DE177-220,e_w82773910-220,e_w82773910-380,e_w82773910-400,e_w89215122-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0057,elc_spv-DEU_0057</t>
-  </si>
-  <si>
-    <t>e_DE184-380,e_DE185-380,e_DE186-380,e_DE187-380,e_DE188-380,e_DE189-380,e_DE190-380,e_DE191-380,e_DE192-380,e_DE193-380,e_w147878692-380,e_w22960899-380,e_w25786404-220,e_w25786404-380,e_w37721677-380,e_w41334805-220,e_w41334805-380,e_w43688805-220,e_w43688805-380,e_w48428875-380,e_w97825259-220,e_w97825259-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0163,elc_spv-DEU_0163</t>
-  </si>
-  <si>
-    <t>e_DE21-220,e_DE25-380,e_w11500045-380,e_w27149550-220,e_w27149550-380,e_w30132758-380,e_w30303506-380,e_w30309989-220,e_w43163132-380,e_w46615737-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0099,elc_spv-DEU_0099</t>
-  </si>
-  <si>
-    <t>e_DE36-220,e_w24258096-380,e_w24272339-380,e_w24272541-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0016,elc_spv-DEU_0016</t>
-  </si>
-  <si>
-    <t>e_DE39-220,e_DE41-380,e_DE45-380,e_DE50-380,e_DE54-380,e_w844075808-380,e_w952346322-380,e_w979801144-220,e_w979801144-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0152,elc_spv-DEU_0152</t>
-  </si>
-  <si>
-    <t>e_DE5-380,e_w32063539-380,e_w32318130-220,e_w940919943</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0151,elc_spv-DEU_0151</t>
-  </si>
-  <si>
-    <t>e_w1094015892-220,e_w1094015892-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0102,elc_spv-DEU_0102</t>
-  </si>
-  <si>
-    <t>e_w1102237380-220,e_w1102237380-380,e_w1191459479-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0010,elc_spv-DEU_0010</t>
-  </si>
-  <si>
-    <t>e_w152018146-220,e_w152018146-380,e_w156402422-220,e_w207756597-220,e_w54359256-220,e_w54359256-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0122,elc_spv-DEU_0122</t>
-  </si>
-  <si>
-    <t>e_w24158385-220,e_w26245195-220,e_w26245195-380,e_w5404079-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0011,elc_spv-DEU_0011</t>
-  </si>
-  <si>
-    <t>e_w42097854-220,e_w42097854-380,e_w66764943-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0008,elc_spv-DEU_0008</t>
-  </si>
-  <si>
-    <t>e_w672738029-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0169,elc_spv-DEU_0169</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0092,elc_spv-DEU_0092</t>
-  </si>
-  <si>
-    <t>e_w24705761-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0095,elc_spv-DEU_0095</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0128,elc_spv-DEU_0128</t>
-  </si>
-  <si>
-    <t>e_DE151-220,e_w1086825107-220,e_w1086825107-380,e_w148211527-380,e_w156673637-220,e_w156673637-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0001,elc_spv-DEU_0001</t>
-  </si>
-  <si>
-    <t>e_DE164-220,e_DE167-380,e_DE170-380,e_DE172-220,e_DE172-380,e_DE173-220,e_w145680894-220,e_w151967290-220,e_w151967290-380,e_w151967291-220,e_w151967291-380,e_w89176939-220,e_w89176956-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0184,elc_spv-DEU_0184</t>
-  </si>
-  <si>
-    <t>e_DE46-380,e_w52983550-380,e_w941198517-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0085,elc_spv-DEU_0085</t>
-  </si>
-  <si>
-    <t>e_DE7-220,e_DE8-380,e_w1107961833-380,e_w22720647-220,e_w22720647-380,e_w25306938-380,e_w28008024-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0071,elc_spv-DEU_0071</t>
-  </si>
-  <si>
-    <t>e_w31131320-220,e_w31131320-380,e_w31131325-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0138,elc_spv-DEU_0138</t>
-  </si>
-  <si>
-    <t>e_w75865676-220,e_w91080806-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0087,elc_spv-DEU_0087</t>
-  </si>
-  <si>
-    <t>e_w907539360-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0084,elc_spv-DEU_0084</t>
-  </si>
-  <si>
-    <t>e_DE10-380,e_DE11-380,e_DE12-380,e_w11285720-380,e_w24502420-380,e_w881636329-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0044,elc_spv-DEU_0044</t>
-  </si>
-  <si>
-    <t>e_DE146-380,e_DE152-380,e_w1245826064-380,e_w1245867884-380,e_w202747445-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0090,elc_spv-DEU_0090</t>
-  </si>
-  <si>
-    <t>e_DE200-380,e_w1093896544-380,e_w31105067-380,e_w88945213-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0005,elc_spv-DEU_0005</t>
-  </si>
-  <si>
-    <t>e_DE62-220,e_DE62-380,e_DE67-220,e_DE67-380,e_DE70-220,e_DE70-380,e_DE73-220,e_DE73-380,e_DE74-220,e_DE74-380,e_DE77-220,e_DE77-380,e_DE79-220,e_DE93-220,e_DE97-220,e_w23084417-220,e_w23380800-220,e_w23380800-380,e_w24462228-220,e_w24462317-220,e_w24462426-220,e_w24462426-380,e_w24478889-220,e_w24478889-380,e_w24479003-220,e_w24479003-380,e_w311444692-380,e_w35818134-220,e_w35818137-220,e_w37554416-220,e_w92024105-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0082,elc_spv-DEU_0082</t>
-  </si>
-  <si>
-    <t>e_w23682013-220,e_w23816140-220,e_w274621059-220,e_w33042984-220,e_w787265962-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0161,elc_spv-DEU_0161</t>
-  </si>
-  <si>
-    <t>e_w28729619-380,e_w398680313-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0125,elc_spv-DEU_0125</t>
-  </si>
-  <si>
-    <t>e_w28956649-220,e_w28956649-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0174,elc_spv-DEU_0174</t>
-  </si>
-  <si>
-    <t>e_w940922557-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0182,elc_spv-DEU_0182</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0165,elc_spv-DEU_0165</t>
-  </si>
-  <si>
-    <t>e_w947118608-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0154,elc_spv-DEU_0154</t>
-  </si>
-  <si>
-    <t>e_DE206-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0077,elc_spv-DEU_0077</t>
-  </si>
-  <si>
-    <t>e_w148446247-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0107,elc_spv-DEU_0107</t>
-  </si>
-  <si>
-    <t>e_w24768051-220</t>
+    <t>distr_wofelc_wof-DEU_0004</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_4</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0133</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_133</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0012</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_12</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0010</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_10</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0180</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_180</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0036</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_36</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0001</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_1</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0002</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_2</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0103</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_103</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0022</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_22</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0119</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_119</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0087</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_87</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0037</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_37</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0009</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_9</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0039</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_39</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0084</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_84</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0085</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_85</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0172</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_172</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0021</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_21</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0069</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_69</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0053</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_53</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0163</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_163</t>
   </si>
   <si>
     <t>distr_wofelc_wof-DEU_0118</t>
@@ -5207,22 +5339,28 @@
     <t>connecting wind offshore to buses in grid cell DEU_55</t>
   </si>
   <si>
-    <t>distr_wofelc_wof-DEU_0087</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_87</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0037</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_37</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0009</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_9</t>
+    <t>distr_wofelc_wof-DEU_0149</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_149</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0052</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_52</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0038</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_38</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0134</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_134</t>
   </si>
   <si>
     <t>distr_wofelc_wof-DEU_0011</t>
@@ -5231,196 +5369,145 @@
     <t>connecting wind offshore to buses in grid cell DEU_11</t>
   </si>
   <si>
+    <t>distr_wofelc_wof-DEU_0020</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_20</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0086</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_86</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0024</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_24</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0179</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_179</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0173</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_173</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0178</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_178</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0003</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_3</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0023</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_23</t>
+  </si>
+  <si>
     <t>distr_wofelc_wof-DEU_0054</t>
   </si>
   <si>
     <t>connecting wind offshore to buses in grid cell DEU_54</t>
   </si>
   <si>
-    <t>distr_wofelc_wof-DEU_0023</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_23</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0020</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_20</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0086</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_86</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0024</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_24</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0179</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_179</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0084</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_84</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0085</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_85</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0172</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_172</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0004</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_4</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0021</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_21</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0149</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_149</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0052</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_52</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0038</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_38</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0134</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_134</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0180</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_180</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0036</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_36</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0001</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_1</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0002</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_2</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0133</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_133</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0012</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_12</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0010</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_10</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0103</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_103</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0022</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_22</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0119</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_119</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0069</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_69</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0053</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_53</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0163</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_163</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0173</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_173</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0178</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_178</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0003</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_3</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0039</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_39</t>
+    <t>elc_wof-DEU_0004</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0133</t>
+  </si>
+  <si>
+    <t>e_w234171369-380,e_w30040568-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0012</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0010</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0180</t>
+  </si>
+  <si>
+    <t>e_DE2-220</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0036</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0001</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0002</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0103</t>
+  </si>
+  <si>
+    <t>e_DE4-220,e_w27124619-220,e_w27646106-220</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0022</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0119</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0087</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0037</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0009</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0039</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0084</t>
+  </si>
+  <si>
+    <t>e_DE10-380,e_DE11-380,e_DE12-380,e_DE13-380,e_DE14-380,e_w11285720-380,e_w24502420-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0085</t>
+  </si>
+  <si>
+    <t>e_DE6-380,e_DE7-220,e_DE8-380,e_w1107961833-380,e_w25306938-380,e_w525964617,e_w525964629-380,e_w60032354-220,e_w87722999-220,e_w87722999-380,e_w881636329-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0172</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0021</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0069</t>
+  </si>
+  <si>
+    <t>e_w1089769599-220,e_w1089769599-380,e_w1280364401-380,e_w289836713-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0053</t>
+  </si>
+  <si>
+    <t>e_w1134105414-380,e_w26455019-220,e_w29420322-220</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0163</t>
   </si>
   <si>
     <t>elc_wof-DEU_0118</t>
@@ -5432,148 +5519,61 @@
     <t>elc_wof-DEU_0055</t>
   </si>
   <si>
-    <t>elc_wof-DEU_0087</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0037</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0009</t>
+    <t>elc_wof-DEU_0149</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0052</t>
+  </si>
+  <si>
+    <t>e_w1128250707-220,e_w1128250707-380,e_w157421333-220,e_w23744346-220,e_w266684854-380,e_w31024391-220,e_w31024391-380,e_w32076853-220,e_w32076853-380,e_w42872354-220,e_w829116805-220,e_w829116805-380,e_w883768276-380,e_w883768277-380,e_w883928228-380,e_w883928229-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0038</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0134</t>
   </si>
   <si>
     <t>elc_wof-DEU_0011</t>
   </si>
   <si>
+    <t>elc_wof-DEU_0020</t>
+  </si>
+  <si>
+    <t>e_w1280840211-380,e_w559702819-220,e_w559702819-380,e_w672738029-220</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0086</t>
+  </si>
+  <si>
+    <t>e_w35176751-220,e_w35176751-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0024</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0179</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0173</t>
+  </si>
+  <si>
+    <t>e_DE1-220,e_DE3-220</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0178</t>
+  </si>
+  <si>
+    <t>e_DE16-220,e_w1222597066-220,e_w1222597066-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0003</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0023</t>
+  </si>
+  <si>
     <t>elc_wof-DEU_0054</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0023</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0020</t>
-  </si>
-  <si>
-    <t>e_w1280840211-380,e_w559702819-220,e_w559702819-380,e_w672738029-220</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0086</t>
-  </si>
-  <si>
-    <t>e_w35176751-220,e_w35176751-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0024</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0179</t>
-  </si>
-  <si>
-    <t>e_DE2-220</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0084</t>
-  </si>
-  <si>
-    <t>e_DE10-380,e_DE11-380,e_DE12-380,e_DE13-380,e_DE14-380,e_w11285720-380,e_w24502420-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0085</t>
-  </si>
-  <si>
-    <t>e_DE6-380,e_DE7-220,e_DE8-380,e_w1107961833-380,e_w25306938-380,e_w525964617,e_w525964629-380,e_w60032354-220,e_w87722999-220,e_w87722999-380,e_w881636329-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0172</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0004</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0021</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0149</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0052</t>
-  </si>
-  <si>
-    <t>e_w1128250707-220,e_w1128250707-380,e_w157421333-220,e_w23744346-220,e_w266684854-380,e_w31024391-220,e_w31024391-380,e_w32076853-220,e_w32076853-380,e_w42872354-220,e_w829116805-220,e_w829116805-380,e_w883768276-380,e_w883768277-380,e_w883928228-380,e_w883928229-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0038</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0134</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0180</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0036</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0001</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0002</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0133</t>
-  </si>
-  <si>
-    <t>e_w234171369-380,e_w30040568-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0012</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0010</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0103</t>
-  </si>
-  <si>
-    <t>e_DE4-220,e_w27124619-220,e_w27646106-220</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0022</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0119</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0069</t>
-  </si>
-  <si>
-    <t>e_w1089769599-220,e_w1089769599-380,e_w1280364401-380,e_w289836713-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0053</t>
-  </si>
-  <si>
-    <t>e_w1134105414-380,e_w26455019-220,e_w29420322-220</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0163</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0173</t>
-  </si>
-  <si>
-    <t>e_DE1-220,e_DE3-220</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0178</t>
-  </si>
-  <si>
-    <t>e_DE16-220,e_w1222597066-220,e_w1222597066-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0003</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0039</t>
   </si>
   <si>
     <t>e_won-DEU_0000</t>
@@ -15133,7 +15133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1135997F-61A1-4C4F-8775-2D100EBA0CBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147FCA9B-8350-4CC1-A45F-31FD4067463F}">
   <dimension ref="B9:AR198"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15350,7 +15350,7 @@
         <v>1</v>
       </c>
       <c r="AC11" t="s">
-        <v>595</v>
+        <v>823</v>
       </c>
       <c r="AE11" t="s">
         <v>942</v>
@@ -15383,13 +15383,13 @@
         <v>1764</v>
       </c>
       <c r="AP11" t="s">
-        <v>1765</v>
+        <v>1559</v>
       </c>
       <c r="AQ11">
         <v>1</v>
       </c>
       <c r="AR11" t="s">
-        <v>799</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" spans="2:44">
@@ -15466,7 +15466,7 @@
         <v>1</v>
       </c>
       <c r="AC12" t="s">
-        <v>929</v>
+        <v>881</v>
       </c>
       <c r="AE12" t="s">
         <v>942</v>
@@ -15496,16 +15496,16 @@
         <v>1690</v>
       </c>
       <c r="AO12" t="s">
+        <v>1765</v>
+      </c>
+      <c r="AP12" t="s">
         <v>1766</v>
       </c>
-      <c r="AP12" t="s">
-        <v>1478</v>
-      </c>
       <c r="AQ12">
         <v>1</v>
       </c>
       <c r="AR12" t="s">
-        <v>673</v>
+        <v>829</v>
       </c>
     </row>
     <row r="13" spans="2:44">
@@ -15582,7 +15582,7 @@
         <v>1</v>
       </c>
       <c r="AC13" t="s">
-        <v>787</v>
+        <v>641</v>
       </c>
       <c r="AE13" t="s">
         <v>942</v>
@@ -15615,13 +15615,13 @@
         <v>1767</v>
       </c>
       <c r="AP13" t="s">
-        <v>1662</v>
+        <v>1559</v>
       </c>
       <c r="AQ13">
         <v>1</v>
       </c>
       <c r="AR13" t="s">
-        <v>737</v>
+        <v>589</v>
       </c>
     </row>
     <row r="14" spans="2:44">
@@ -15698,7 +15698,7 @@
         <v>1</v>
       </c>
       <c r="AC14" t="s">
-        <v>719</v>
+        <v>759</v>
       </c>
       <c r="AE14" t="s">
         <v>942</v>
@@ -15731,13 +15731,13 @@
         <v>1768</v>
       </c>
       <c r="AP14" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="AQ14">
         <v>1</v>
       </c>
       <c r="AR14" t="s">
-        <v>639</v>
+        <v>585</v>
       </c>
     </row>
     <row r="15" spans="2:44">
@@ -15814,7 +15814,7 @@
         <v>1</v>
       </c>
       <c r="AC15" t="s">
-        <v>589</v>
+        <v>659</v>
       </c>
       <c r="AE15" t="s">
         <v>942</v>
@@ -15847,13 +15847,13 @@
         <v>1769</v>
       </c>
       <c r="AP15" t="s">
-        <v>1644</v>
+        <v>1770</v>
       </c>
       <c r="AQ15">
         <v>1</v>
       </c>
       <c r="AR15" t="s">
-        <v>583</v>
+        <v>923</v>
       </c>
     </row>
     <row r="16" spans="2:44">
@@ -15930,7 +15930,7 @@
         <v>1</v>
       </c>
       <c r="AC16" t="s">
-        <v>815</v>
+        <v>633</v>
       </c>
       <c r="AE16" t="s">
         <v>942</v>
@@ -15960,16 +15960,16 @@
         <v>1698</v>
       </c>
       <c r="AO16" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="AP16" t="s">
-        <v>1644</v>
+        <v>1415</v>
       </c>
       <c r="AQ16">
         <v>1</v>
       </c>
       <c r="AR16" t="s">
-        <v>587</v>
+        <v>637</v>
       </c>
     </row>
     <row r="17" spans="2:44">
@@ -16046,7 +16046,7 @@
         <v>1</v>
       </c>
       <c r="AC17" t="s">
-        <v>579</v>
+        <v>783</v>
       </c>
       <c r="AE17" t="s">
         <v>942</v>
@@ -16076,16 +16076,16 @@
         <v>1700</v>
       </c>
       <c r="AO17" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="AP17" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="AQ17">
         <v>1</v>
       </c>
       <c r="AR17" t="s">
-        <v>671</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="2:44">
@@ -16162,7 +16162,7 @@
         <v>1</v>
       </c>
       <c r="AC18" t="s">
-        <v>877</v>
+        <v>711</v>
       </c>
       <c r="AE18" t="s">
         <v>942</v>
@@ -16192,16 +16192,16 @@
         <v>1702</v>
       </c>
       <c r="AO18" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="AP18" t="s">
-        <v>1474</v>
+        <v>1559</v>
       </c>
       <c r="AQ18">
         <v>1</v>
       </c>
       <c r="AR18" t="s">
-        <v>611</v>
+        <v>569</v>
       </c>
     </row>
     <row r="19" spans="2:44">
@@ -16278,7 +16278,7 @@
         <v>1</v>
       </c>
       <c r="AC19" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="AE19" t="s">
         <v>942</v>
@@ -16308,16 +16308,16 @@
         <v>1704</v>
       </c>
       <c r="AO19" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="AP19" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="AQ19">
         <v>1</v>
       </c>
       <c r="AR19" t="s">
-        <v>605</v>
+        <v>769</v>
       </c>
     </row>
     <row r="20" spans="2:44">
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="AC20" t="s">
-        <v>573</v>
+        <v>797</v>
       </c>
       <c r="AE20" t="s">
         <v>942</v>
@@ -16424,16 +16424,16 @@
         <v>1706</v>
       </c>
       <c r="AO20" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="AP20" t="s">
-        <v>1776</v>
+        <v>1610</v>
       </c>
       <c r="AQ20">
         <v>1</v>
       </c>
       <c r="AR20" t="s">
-        <v>735</v>
+        <v>609</v>
       </c>
     </row>
     <row r="21" spans="2:44">
@@ -16510,7 +16510,7 @@
         <v>1</v>
       </c>
       <c r="AC21" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="AE21" t="s">
         <v>942</v>
@@ -16543,13 +16543,13 @@
         <v>1777</v>
       </c>
       <c r="AP21" t="s">
-        <v>1474</v>
+        <v>1455</v>
       </c>
       <c r="AQ21">
         <v>1</v>
       </c>
       <c r="AR21" t="s">
-        <v>613</v>
+        <v>801</v>
       </c>
     </row>
     <row r="22" spans="2:44">
@@ -16626,7 +16626,7 @@
         <v>1</v>
       </c>
       <c r="AC22" t="s">
-        <v>917</v>
+        <v>855</v>
       </c>
       <c r="AE22" t="s">
         <v>942</v>
@@ -16659,13 +16659,13 @@
         <v>1778</v>
       </c>
       <c r="AP22" t="s">
-        <v>1779</v>
+        <v>1391</v>
       </c>
       <c r="AQ22">
         <v>1</v>
       </c>
       <c r="AR22" t="s">
-        <v>921</v>
+        <v>737</v>
       </c>
     </row>
     <row r="23" spans="2:44">
@@ -16742,7 +16742,7 @@
         <v>1</v>
       </c>
       <c r="AC23" t="s">
-        <v>713</v>
+        <v>805</v>
       </c>
       <c r="AE23" t="s">
         <v>942</v>
@@ -16772,16 +16772,16 @@
         <v>1712</v>
       </c>
       <c r="AO23" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="AP23" t="s">
-        <v>1781</v>
+        <v>1415</v>
       </c>
       <c r="AQ23">
         <v>1</v>
       </c>
       <c r="AR23" t="s">
-        <v>731</v>
+        <v>639</v>
       </c>
     </row>
     <row r="24" spans="2:44">
@@ -16858,7 +16858,7 @@
         <v>1</v>
       </c>
       <c r="AC24" t="s">
-        <v>775</v>
+        <v>903</v>
       </c>
       <c r="AE24" t="s">
         <v>942</v>
@@ -16888,16 +16888,16 @@
         <v>1714</v>
       </c>
       <c r="AO24" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="AP24" t="s">
-        <v>1783</v>
+        <v>1559</v>
       </c>
       <c r="AQ24">
         <v>1</v>
       </c>
       <c r="AR24" t="s">
-        <v>733</v>
+        <v>583</v>
       </c>
     </row>
     <row r="25" spans="2:44">
@@ -16974,7 +16974,7 @@
         <v>1</v>
       </c>
       <c r="AC25" t="s">
-        <v>643</v>
+        <v>751</v>
       </c>
       <c r="AE25" t="s">
         <v>942</v>
@@ -17004,16 +17004,16 @@
         <v>1716</v>
       </c>
       <c r="AO25" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="AP25" t="s">
-        <v>1463</v>
+        <v>1614</v>
       </c>
       <c r="AQ25">
         <v>1</v>
       </c>
       <c r="AR25" t="s">
-        <v>907</v>
+        <v>643</v>
       </c>
     </row>
     <row r="26" spans="2:44">
@@ -17090,7 +17090,7 @@
         <v>1</v>
       </c>
       <c r="AC26" t="s">
-        <v>887</v>
+        <v>731</v>
       </c>
       <c r="AE26" t="s">
         <v>942</v>
@@ -17120,16 +17120,16 @@
         <v>1718</v>
       </c>
       <c r="AO26" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="AP26" t="s">
-        <v>1644</v>
+        <v>1783</v>
       </c>
       <c r="AQ26">
         <v>1</v>
       </c>
       <c r="AR26" t="s">
-        <v>573</v>
+        <v>731</v>
       </c>
     </row>
     <row r="27" spans="2:44">
@@ -17206,7 +17206,7 @@
         <v>1</v>
       </c>
       <c r="AC27" t="s">
-        <v>897</v>
+        <v>653</v>
       </c>
       <c r="AE27" t="s">
         <v>942</v>
@@ -17236,16 +17236,16 @@
         <v>1720</v>
       </c>
       <c r="AO27" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="AP27" t="s">
-        <v>1644</v>
+        <v>1785</v>
       </c>
       <c r="AQ27">
         <v>1</v>
       </c>
       <c r="AR27" t="s">
-        <v>607</v>
+        <v>733</v>
       </c>
     </row>
     <row r="28" spans="2:44">
@@ -17322,7 +17322,7 @@
         <v>1</v>
       </c>
       <c r="AC28" t="s">
-        <v>577</v>
+        <v>743</v>
       </c>
       <c r="AE28" t="s">
         <v>942</v>
@@ -17352,16 +17352,16 @@
         <v>1722</v>
       </c>
       <c r="AO28" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AP28" t="s">
-        <v>1632</v>
+        <v>1598</v>
       </c>
       <c r="AQ28">
         <v>1</v>
       </c>
       <c r="AR28" t="s">
-        <v>861</v>
+        <v>907</v>
       </c>
     </row>
     <row r="29" spans="2:44">
@@ -17438,7 +17438,7 @@
         <v>1</v>
       </c>
       <c r="AC29" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="AE29" t="s">
         <v>942</v>
@@ -17468,16 +17468,16 @@
         <v>1724</v>
       </c>
       <c r="AO29" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="AP29" t="s">
-        <v>1789</v>
+        <v>1559</v>
       </c>
       <c r="AQ29">
         <v>1</v>
       </c>
       <c r="AR29" t="s">
-        <v>667</v>
+        <v>607</v>
       </c>
     </row>
     <row r="30" spans="2:44">
@@ -17554,7 +17554,7 @@
         <v>1</v>
       </c>
       <c r="AC30" t="s">
-        <v>697</v>
+        <v>727</v>
       </c>
       <c r="AE30" t="s">
         <v>942</v>
@@ -17584,16 +17584,16 @@
         <v>1726</v>
       </c>
       <c r="AO30" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="AP30" t="s">
-        <v>1570</v>
+        <v>1789</v>
       </c>
       <c r="AQ30">
         <v>1</v>
       </c>
       <c r="AR30" t="s">
-        <v>641</v>
+        <v>701</v>
       </c>
     </row>
     <row r="31" spans="2:44">
@@ -17670,7 +17670,7 @@
         <v>1</v>
       </c>
       <c r="AC31" t="s">
-        <v>613</v>
+        <v>885</v>
       </c>
       <c r="AE31" t="s">
         <v>942</v>
@@ -17700,16 +17700,16 @@
         <v>1728</v>
       </c>
       <c r="AO31" t="s">
+        <v>1790</v>
+      </c>
+      <c r="AP31" t="s">
         <v>1791</v>
       </c>
-      <c r="AP31" t="s">
-        <v>1542</v>
-      </c>
       <c r="AQ31">
         <v>1</v>
       </c>
       <c r="AR31" t="s">
-        <v>831</v>
+        <v>669</v>
       </c>
     </row>
     <row r="32" spans="2:44">
@@ -17786,7 +17786,7 @@
         <v>1</v>
       </c>
       <c r="AC32" t="s">
-        <v>607</v>
+        <v>813</v>
       </c>
       <c r="AE32" t="s">
         <v>942</v>
@@ -17819,13 +17819,13 @@
         <v>1792</v>
       </c>
       <c r="AP32" t="s">
-        <v>1779</v>
+        <v>1475</v>
       </c>
       <c r="AQ32">
         <v>1</v>
       </c>
       <c r="AR32" t="s">
-        <v>923</v>
+        <v>889</v>
       </c>
     </row>
     <row r="33" spans="2:44">
@@ -17902,7 +17902,7 @@
         <v>1</v>
       </c>
       <c r="AC33" t="s">
-        <v>725</v>
+        <v>911</v>
       </c>
       <c r="AE33" t="s">
         <v>942</v>
@@ -17935,13 +17935,13 @@
         <v>1793</v>
       </c>
       <c r="AP33" t="s">
-        <v>1570</v>
+        <v>1794</v>
       </c>
       <c r="AQ33">
         <v>1</v>
       </c>
       <c r="AR33" t="s">
-        <v>637</v>
+        <v>799</v>
       </c>
     </row>
     <row r="34" spans="2:44">
@@ -18018,7 +18018,7 @@
         <v>1</v>
       </c>
       <c r="AC34" t="s">
-        <v>735</v>
+        <v>927</v>
       </c>
       <c r="AE34" t="s">
         <v>942</v>
@@ -18048,16 +18048,16 @@
         <v>1734</v>
       </c>
       <c r="AO34" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="AP34" t="s">
-        <v>1644</v>
+        <v>1614</v>
       </c>
       <c r="AQ34">
         <v>1</v>
       </c>
       <c r="AR34" t="s">
-        <v>567</v>
+        <v>673</v>
       </c>
     </row>
     <row r="35" spans="2:44">
@@ -18134,7 +18134,7 @@
         <v>1</v>
       </c>
       <c r="AC35" t="s">
-        <v>703</v>
+        <v>893</v>
       </c>
       <c r="AE35" t="s">
         <v>942</v>
@@ -18164,16 +18164,16 @@
         <v>1736</v>
       </c>
       <c r="AO35" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="AP35" t="s">
-        <v>1644</v>
+        <v>1547</v>
       </c>
       <c r="AQ35">
         <v>1</v>
       </c>
       <c r="AR35" t="s">
-        <v>569</v>
+        <v>861</v>
       </c>
     </row>
     <row r="36" spans="2:44">
@@ -18250,7 +18250,7 @@
         <v>1</v>
       </c>
       <c r="AC36" t="s">
-        <v>803</v>
+        <v>871</v>
       </c>
       <c r="AE36" t="s">
         <v>942</v>
@@ -18280,16 +18280,16 @@
         <v>1738</v>
       </c>
       <c r="AO36" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="AP36" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="AQ36">
         <v>1</v>
       </c>
       <c r="AR36" t="s">
-        <v>829</v>
+        <v>667</v>
       </c>
     </row>
     <row r="37" spans="2:44">
@@ -18366,7 +18366,7 @@
         <v>1</v>
       </c>
       <c r="AC37" t="s">
-        <v>849</v>
+        <v>717</v>
       </c>
       <c r="AE37" t="s">
         <v>942</v>
@@ -18396,16 +18396,16 @@
         <v>1740</v>
       </c>
       <c r="AO37" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="AP37" t="s">
-        <v>1644</v>
+        <v>1415</v>
       </c>
       <c r="AQ37">
         <v>1</v>
       </c>
       <c r="AR37" t="s">
-        <v>589</v>
+        <v>641</v>
       </c>
     </row>
     <row r="38" spans="2:44">
@@ -18482,7 +18482,7 @@
         <v>1</v>
       </c>
       <c r="AC38" t="s">
-        <v>879</v>
+        <v>777</v>
       </c>
       <c r="AE38" t="s">
         <v>942</v>
@@ -18512,16 +18512,16 @@
         <v>1742</v>
       </c>
       <c r="AO38" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="AP38" t="s">
-        <v>1644</v>
+        <v>1494</v>
       </c>
       <c r="AQ38">
         <v>1</v>
       </c>
       <c r="AR38" t="s">
-        <v>585</v>
+        <v>831</v>
       </c>
     </row>
     <row r="39" spans="2:44">
@@ -18598,7 +18598,7 @@
         <v>1</v>
       </c>
       <c r="AC39" t="s">
-        <v>785</v>
+        <v>819</v>
       </c>
       <c r="AE39" t="s">
         <v>942</v>
@@ -18628,16 +18628,16 @@
         <v>1744</v>
       </c>
       <c r="AO39" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="AP39" t="s">
-        <v>1801</v>
+        <v>1559</v>
       </c>
       <c r="AQ39">
         <v>1</v>
       </c>
       <c r="AR39" t="s">
-        <v>769</v>
+        <v>587</v>
       </c>
     </row>
     <row r="40" spans="2:44">
@@ -18714,7 +18714,7 @@
         <v>1</v>
       </c>
       <c r="AC40" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="AE40" t="s">
         <v>942</v>
@@ -18747,13 +18747,13 @@
         <v>1802</v>
       </c>
       <c r="AP40" t="s">
-        <v>1474</v>
+        <v>1803</v>
       </c>
       <c r="AQ40">
         <v>1</v>
       </c>
       <c r="AR40" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="41" spans="2:44">
@@ -18830,7 +18830,7 @@
         <v>1</v>
       </c>
       <c r="AC41" t="s">
-        <v>675</v>
+        <v>931</v>
       </c>
       <c r="AE41" t="s">
         <v>942</v>
@@ -18860,16 +18860,16 @@
         <v>1748</v>
       </c>
       <c r="AO41" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="AP41" t="s">
-        <v>1373</v>
+        <v>1805</v>
       </c>
       <c r="AQ41">
         <v>1</v>
       </c>
       <c r="AR41" t="s">
-        <v>801</v>
+        <v>735</v>
       </c>
     </row>
     <row r="42" spans="2:44">
@@ -18946,7 +18946,7 @@
         <v>1</v>
       </c>
       <c r="AC42" t="s">
-        <v>863</v>
+        <v>733</v>
       </c>
       <c r="AE42" t="s">
         <v>942</v>
@@ -18976,16 +18976,16 @@
         <v>1750</v>
       </c>
       <c r="AO42" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="AP42" t="s">
-        <v>1805</v>
+        <v>1610</v>
       </c>
       <c r="AQ42">
         <v>1</v>
       </c>
       <c r="AR42" t="s">
-        <v>701</v>
+        <v>613</v>
       </c>
     </row>
     <row r="43" spans="2:44">
@@ -19062,7 +19062,7 @@
         <v>1</v>
       </c>
       <c r="AC43" t="s">
-        <v>629</v>
+        <v>705</v>
       </c>
       <c r="AE43" t="s">
         <v>942</v>
@@ -19092,16 +19092,16 @@
         <v>1752</v>
       </c>
       <c r="AO43" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="AP43" t="s">
-        <v>1807</v>
+        <v>1770</v>
       </c>
       <c r="AQ43">
         <v>1</v>
       </c>
       <c r="AR43" t="s">
-        <v>669</v>
+        <v>921</v>
       </c>
     </row>
     <row r="44" spans="2:44">
@@ -19178,7 +19178,7 @@
         <v>1</v>
       </c>
       <c r="AC44" t="s">
-        <v>615</v>
+        <v>839</v>
       </c>
       <c r="AE44" t="s">
         <v>942</v>
@@ -19211,13 +19211,13 @@
         <v>1808</v>
       </c>
       <c r="AP44" t="s">
-        <v>1355</v>
+        <v>1809</v>
       </c>
       <c r="AQ44">
         <v>1</v>
       </c>
       <c r="AR44" t="s">
-        <v>889</v>
+        <v>909</v>
       </c>
     </row>
     <row r="45" spans="2:44">
@@ -19294,7 +19294,7 @@
         <v>1</v>
       </c>
       <c r="AC45" t="s">
-        <v>883</v>
+        <v>737</v>
       </c>
       <c r="AE45" t="s">
         <v>942</v>
@@ -19324,16 +19324,16 @@
         <v>1756</v>
       </c>
       <c r="AO45" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="AP45" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="AQ45">
         <v>1</v>
       </c>
       <c r="AR45" t="s">
-        <v>909</v>
+        <v>919</v>
       </c>
     </row>
     <row r="46" spans="2:44">
@@ -19410,7 +19410,7 @@
         <v>1</v>
       </c>
       <c r="AC46" t="s">
-        <v>781</v>
+        <v>923</v>
       </c>
       <c r="AE46" t="s">
         <v>942</v>
@@ -19440,16 +19440,16 @@
         <v>1758</v>
       </c>
       <c r="AO46" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="AP46" t="s">
-        <v>1812</v>
+        <v>1559</v>
       </c>
       <c r="AQ46">
         <v>1</v>
       </c>
       <c r="AR46" t="s">
-        <v>919</v>
+        <v>571</v>
       </c>
     </row>
     <row r="47" spans="2:44">
@@ -19526,7 +19526,7 @@
         <v>1</v>
       </c>
       <c r="AC47" t="s">
-        <v>891</v>
+        <v>721</v>
       </c>
       <c r="AE47" t="s">
         <v>942</v>
@@ -19559,13 +19559,13 @@
         <v>1813</v>
       </c>
       <c r="AP47" t="s">
-        <v>1644</v>
+        <v>1610</v>
       </c>
       <c r="AQ47">
         <v>1</v>
       </c>
       <c r="AR47" t="s">
-        <v>571</v>
+        <v>611</v>
       </c>
     </row>
     <row r="48" spans="2:44">
@@ -19642,7 +19642,7 @@
         <v>1</v>
       </c>
       <c r="AC48" t="s">
-        <v>609</v>
+        <v>915</v>
       </c>
       <c r="AE48" t="s">
         <v>942</v>
@@ -19675,13 +19675,13 @@
         <v>1814</v>
       </c>
       <c r="AP48" t="s">
-        <v>1478</v>
+        <v>1415</v>
       </c>
       <c r="AQ48">
         <v>1</v>
       </c>
       <c r="AR48" t="s">
-        <v>643</v>
+        <v>671</v>
       </c>
     </row>
     <row r="49" spans="2:29">
@@ -19758,7 +19758,7 @@
         <v>1</v>
       </c>
       <c r="AC49" t="s">
-        <v>755</v>
+        <v>599</v>
       </c>
     </row>
     <row r="50" spans="2:29">
@@ -19835,7 +19835,7 @@
         <v>1</v>
       </c>
       <c r="AC50" t="s">
-        <v>869</v>
+        <v>657</v>
       </c>
     </row>
     <row r="51" spans="2:29">
@@ -19906,13 +19906,13 @@
         <v>1402</v>
       </c>
       <c r="AA51" t="s">
-        <v>1355</v>
+        <v>1403</v>
       </c>
       <c r="AB51">
         <v>1</v>
       </c>
       <c r="AC51" t="s">
-        <v>899</v>
+        <v>809</v>
       </c>
     </row>
     <row r="52" spans="2:29">
@@ -19980,16 +19980,16 @@
         <v>1027</v>
       </c>
       <c r="Z52" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="AA52" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="AB52">
         <v>1</v>
       </c>
       <c r="AC52" t="s">
-        <v>687</v>
+        <v>757</v>
       </c>
     </row>
     <row r="53" spans="2:29">
@@ -20057,16 +20057,16 @@
         <v>1029</v>
       </c>
       <c r="Z53" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="AA53" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="AB53">
         <v>1</v>
       </c>
       <c r="AC53" t="s">
-        <v>621</v>
+        <v>933</v>
       </c>
     </row>
     <row r="54" spans="2:29">
@@ -20134,16 +20134,16 @@
         <v>1031</v>
       </c>
       <c r="Z54" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="AA54" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="AB54">
         <v>1</v>
       </c>
       <c r="AC54" t="s">
-        <v>591</v>
+        <v>907</v>
       </c>
     </row>
     <row r="55" spans="2:29">
@@ -20211,16 +20211,16 @@
         <v>1033</v>
       </c>
       <c r="Z55" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="AA55" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="AB55">
         <v>1</v>
       </c>
       <c r="AC55" t="s">
-        <v>749</v>
+        <v>845</v>
       </c>
     </row>
     <row r="56" spans="2:29">
@@ -20288,16 +20288,16 @@
         <v>1035</v>
       </c>
       <c r="Z56" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="AA56" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="AB56">
         <v>1</v>
       </c>
       <c r="AC56" t="s">
-        <v>723</v>
+        <v>861</v>
       </c>
     </row>
     <row r="57" spans="2:29">
@@ -20365,16 +20365,16 @@
         <v>1037</v>
       </c>
       <c r="Z57" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AA57" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="AB57">
         <v>1</v>
       </c>
       <c r="AC57" t="s">
-        <v>673</v>
+        <v>635</v>
       </c>
     </row>
     <row r="58" spans="2:29">
@@ -20442,16 +20442,16 @@
         <v>1039</v>
       </c>
       <c r="Z58" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="AA58" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="AB58">
         <v>1</v>
       </c>
       <c r="AC58" t="s">
-        <v>765</v>
+        <v>663</v>
       </c>
     </row>
     <row r="59" spans="2:29">
@@ -20519,16 +20519,16 @@
         <v>1041</v>
       </c>
       <c r="Z59" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="AA59" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="AB59">
         <v>1</v>
       </c>
       <c r="AC59" t="s">
-        <v>681</v>
+        <v>647</v>
       </c>
     </row>
     <row r="60" spans="2:29">
@@ -20596,16 +20596,16 @@
         <v>1043</v>
       </c>
       <c r="Z60" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="AA60" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="AB60">
         <v>1</v>
       </c>
       <c r="AC60" t="s">
-        <v>745</v>
+        <v>829</v>
       </c>
     </row>
     <row r="61" spans="2:29">
@@ -20673,16 +20673,16 @@
         <v>1045</v>
       </c>
       <c r="Z61" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="AA61" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="AB61">
         <v>1</v>
       </c>
       <c r="AC61" t="s">
-        <v>603</v>
+        <v>831</v>
       </c>
     </row>
     <row r="62" spans="2:29">
@@ -20750,16 +20750,16 @@
         <v>1047</v>
       </c>
       <c r="Z62" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="AA62" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="AB62">
         <v>1</v>
       </c>
       <c r="AC62" t="s">
-        <v>857</v>
+        <v>683</v>
       </c>
     </row>
     <row r="63" spans="2:29">
@@ -20827,16 +20827,16 @@
         <v>1049</v>
       </c>
       <c r="Z63" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="AA63" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="AB63">
         <v>1</v>
       </c>
       <c r="AC63" t="s">
-        <v>905</v>
+        <v>779</v>
       </c>
     </row>
     <row r="64" spans="2:29">
@@ -20904,16 +20904,16 @@
         <v>1051</v>
       </c>
       <c r="Z64" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="AA64" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="AB64">
         <v>1</v>
       </c>
       <c r="AC64" t="s">
-        <v>817</v>
+        <v>859</v>
       </c>
     </row>
     <row r="65" spans="2:29">
@@ -20981,16 +20981,16 @@
         <v>1053</v>
       </c>
       <c r="Z65" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="AA65" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="AB65">
         <v>1</v>
       </c>
       <c r="AC65" t="s">
-        <v>649</v>
+        <v>919</v>
       </c>
     </row>
     <row r="66" spans="2:29">
@@ -21058,16 +21058,16 @@
         <v>1055</v>
       </c>
       <c r="Z66" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="AA66" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="AB66">
         <v>1</v>
       </c>
       <c r="AC66" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
     </row>
     <row r="67" spans="2:29">
@@ -21135,16 +21135,16 @@
         <v>1057</v>
       </c>
       <c r="Z67" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="AA67" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="AB67">
         <v>1</v>
       </c>
       <c r="AC67" t="s">
-        <v>873</v>
+        <v>817</v>
       </c>
     </row>
     <row r="68" spans="2:29">
@@ -21212,16 +21212,16 @@
         <v>1059</v>
       </c>
       <c r="Z68" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="AA68" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="AB68">
         <v>1</v>
       </c>
       <c r="AC68" t="s">
-        <v>769</v>
+        <v>649</v>
       </c>
     </row>
     <row r="69" spans="2:29">
@@ -21289,16 +21289,16 @@
         <v>1061</v>
       </c>
       <c r="Z69" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="AA69" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="AB69">
         <v>1</v>
       </c>
       <c r="AC69" t="s">
-        <v>569</v>
+        <v>715</v>
       </c>
     </row>
     <row r="70" spans="2:29">
@@ -21366,16 +21366,16 @@
         <v>1063</v>
       </c>
       <c r="Z70" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="AA70" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="AB70">
         <v>1</v>
       </c>
       <c r="AC70" t="s">
-        <v>799</v>
+        <v>873</v>
       </c>
     </row>
     <row r="71" spans="2:29">
@@ -21443,16 +21443,16 @@
         <v>1065</v>
       </c>
       <c r="Z71" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="AA71" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="AB71">
         <v>1</v>
       </c>
       <c r="AC71" t="s">
-        <v>847</v>
+        <v>769</v>
       </c>
     </row>
     <row r="72" spans="2:29">
@@ -21520,16 +21520,16 @@
         <v>1067</v>
       </c>
       <c r="Z72" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="AA72" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="AB72">
         <v>1</v>
       </c>
       <c r="AC72" t="s">
-        <v>639</v>
+        <v>569</v>
       </c>
     </row>
     <row r="73" spans="2:29">
@@ -21597,16 +21597,16 @@
         <v>1069</v>
       </c>
       <c r="Z73" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="AA73" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="AB73">
         <v>1</v>
       </c>
       <c r="AC73" t="s">
-        <v>895</v>
+        <v>799</v>
       </c>
     </row>
     <row r="74" spans="2:29">
@@ -21674,16 +21674,16 @@
         <v>1071</v>
       </c>
       <c r="Z74" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="AA74" t="s">
-        <v>1373</v>
+        <v>1449</v>
       </c>
       <c r="AB74">
         <v>1</v>
       </c>
       <c r="AC74" t="s">
-        <v>801</v>
+        <v>847</v>
       </c>
     </row>
     <row r="75" spans="2:29">
@@ -21751,16 +21751,16 @@
         <v>1073</v>
       </c>
       <c r="Z75" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="AA75" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="AB75">
         <v>1</v>
       </c>
       <c r="AC75" t="s">
-        <v>937</v>
+        <v>639</v>
       </c>
     </row>
     <row r="76" spans="2:29">
@@ -21828,16 +21828,16 @@
         <v>1075</v>
       </c>
       <c r="Z76" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="AA76" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="AB76">
         <v>1</v>
       </c>
       <c r="AC76" t="s">
-        <v>793</v>
+        <v>895</v>
       </c>
     </row>
     <row r="77" spans="2:29">
@@ -21905,16 +21905,16 @@
         <v>1077</v>
       </c>
       <c r="Z77" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="AA77" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="AB77">
         <v>1</v>
       </c>
       <c r="AC77" t="s">
-        <v>695</v>
+        <v>801</v>
       </c>
     </row>
     <row r="78" spans="2:29">
@@ -21982,16 +21982,16 @@
         <v>1079</v>
       </c>
       <c r="Z78" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="AA78" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="AB78">
         <v>1</v>
       </c>
       <c r="AC78" t="s">
-        <v>651</v>
+        <v>937</v>
       </c>
     </row>
     <row r="79" spans="2:29">
@@ -22059,16 +22059,16 @@
         <v>1081</v>
       </c>
       <c r="Z79" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="AA79" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="AB79">
         <v>1</v>
       </c>
       <c r="AC79" t="s">
-        <v>913</v>
+        <v>793</v>
       </c>
     </row>
     <row r="80" spans="2:29">
@@ -22136,16 +22136,16 @@
         <v>1083</v>
       </c>
       <c r="Z80" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="AA80" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="AB80">
         <v>1</v>
       </c>
       <c r="AC80" t="s">
-        <v>791</v>
+        <v>573</v>
       </c>
     </row>
     <row r="81" spans="2:29">
@@ -22213,16 +22213,16 @@
         <v>1085</v>
       </c>
       <c r="Z81" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="AA81" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="AB81">
         <v>1</v>
       </c>
       <c r="AC81" t="s">
-        <v>701</v>
+        <v>851</v>
       </c>
     </row>
     <row r="82" spans="2:29">
@@ -22290,16 +22290,16 @@
         <v>1087</v>
       </c>
       <c r="Z82" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="AA82" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="AB82">
         <v>1</v>
       </c>
       <c r="AC82" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="83" spans="2:29">
@@ -22367,16 +22367,16 @@
         <v>1089</v>
       </c>
       <c r="Z83" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="AA83" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="AB83">
         <v>1</v>
       </c>
       <c r="AC83" t="s">
-        <v>665</v>
+        <v>713</v>
       </c>
     </row>
     <row r="84" spans="2:29">
@@ -22444,16 +22444,16 @@
         <v>1091</v>
       </c>
       <c r="Z84" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="AA84" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="AB84">
         <v>1</v>
       </c>
       <c r="AC84" t="s">
-        <v>811</v>
+        <v>775</v>
       </c>
     </row>
     <row r="85" spans="2:29">
@@ -22521,16 +22521,16 @@
         <v>1093</v>
       </c>
       <c r="Z85" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="AA85" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="AB85">
         <v>1</v>
       </c>
       <c r="AC85" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
     </row>
     <row r="86" spans="2:29">
@@ -22598,16 +22598,16 @@
         <v>1095</v>
       </c>
       <c r="Z86" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="AA86" t="s">
-        <v>1337</v>
+        <v>1473</v>
       </c>
       <c r="AB86">
         <v>1</v>
       </c>
       <c r="AC86" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
     </row>
     <row r="87" spans="2:29">
@@ -22675,16 +22675,16 @@
         <v>1097</v>
       </c>
       <c r="Z87" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="AA87" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="AB87">
         <v>1</v>
       </c>
       <c r="AC87" t="s">
-        <v>821</v>
+        <v>897</v>
       </c>
     </row>
     <row r="88" spans="2:29">
@@ -22752,16 +22752,16 @@
         <v>1099</v>
       </c>
       <c r="Z88" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="AA88" t="s">
-        <v>1474</v>
+        <v>1477</v>
       </c>
       <c r="AB88">
         <v>1</v>
       </c>
       <c r="AC88" t="s">
-        <v>605</v>
+        <v>577</v>
       </c>
     </row>
     <row r="89" spans="2:29">
@@ -22829,16 +22829,16 @@
         <v>1101</v>
       </c>
       <c r="Z89" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="AA89" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="AB89">
         <v>1</v>
       </c>
       <c r="AC89" t="s">
-        <v>667</v>
+        <v>583</v>
       </c>
     </row>
     <row r="90" spans="2:29">
@@ -22906,16 +22906,16 @@
         <v>1103</v>
       </c>
       <c r="Z90" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="AA90" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="AB90">
         <v>1</v>
       </c>
       <c r="AC90" t="s">
-        <v>669</v>
+        <v>689</v>
       </c>
     </row>
     <row r="91" spans="2:29">
@@ -22983,16 +22983,16 @@
         <v>1105</v>
       </c>
       <c r="Z91" t="s">
-        <v>1479</v>
+        <v>1482</v>
       </c>
       <c r="AA91" t="s">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="AB91">
         <v>1</v>
       </c>
       <c r="AC91" t="s">
-        <v>925</v>
+        <v>853</v>
       </c>
     </row>
     <row r="92" spans="2:29">
@@ -23060,16 +23060,16 @@
         <v>1107</v>
       </c>
       <c r="Z92" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="AA92" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="AB92">
         <v>1</v>
       </c>
       <c r="AC92" t="s">
-        <v>663</v>
+        <v>619</v>
       </c>
     </row>
     <row r="93" spans="2:29">
@@ -23137,16 +23137,16 @@
         <v>1109</v>
       </c>
       <c r="Z93" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="AA93" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="AB93">
         <v>1</v>
       </c>
       <c r="AC93" t="s">
-        <v>647</v>
+        <v>679</v>
       </c>
     </row>
     <row r="94" spans="2:29">
@@ -23214,16 +23214,16 @@
         <v>1111</v>
       </c>
       <c r="Z94" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="AA94" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
       <c r="AB94">
         <v>1</v>
       </c>
       <c r="AC94" t="s">
-        <v>829</v>
+        <v>699</v>
       </c>
     </row>
     <row r="95" spans="2:29">
@@ -23291,16 +23291,16 @@
         <v>1113</v>
       </c>
       <c r="Z95" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="AA95" t="s">
-        <v>1488</v>
+        <v>1491</v>
       </c>
       <c r="AB95">
         <v>1</v>
       </c>
       <c r="AC95" t="s">
-        <v>831</v>
+        <v>843</v>
       </c>
     </row>
     <row r="96" spans="2:29">
@@ -23368,16 +23368,16 @@
         <v>1115</v>
       </c>
       <c r="Z96" t="s">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="AA96" t="s">
-        <v>1490</v>
+        <v>1341</v>
       </c>
       <c r="AB96">
         <v>1</v>
       </c>
       <c r="AC96" t="s">
-        <v>683</v>
+        <v>795</v>
       </c>
     </row>
     <row r="97" spans="2:29">
@@ -23445,16 +23445,16 @@
         <v>1117</v>
       </c>
       <c r="Z97" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="AA97" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="AB97">
         <v>1</v>
       </c>
       <c r="AC97" t="s">
-        <v>779</v>
+        <v>835</v>
       </c>
     </row>
     <row r="98" spans="2:29">
@@ -23522,16 +23522,16 @@
         <v>1119</v>
       </c>
       <c r="Z98" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="AA98" t="s">
-        <v>1424</v>
+        <v>1496</v>
       </c>
       <c r="AB98">
         <v>1</v>
       </c>
       <c r="AC98" t="s">
-        <v>859</v>
+        <v>671</v>
       </c>
     </row>
     <row r="99" spans="2:29">
@@ -23599,16 +23599,16 @@
         <v>1121</v>
       </c>
       <c r="Z99" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="AA99" t="s">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="AB99">
         <v>1</v>
       </c>
       <c r="AC99" t="s">
-        <v>919</v>
+        <v>593</v>
       </c>
     </row>
     <row r="100" spans="2:29">
@@ -23676,16 +23676,16 @@
         <v>1123</v>
       </c>
       <c r="Z100" t="s">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="AA100" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="AB100">
         <v>1</v>
       </c>
       <c r="AC100" t="s">
-        <v>707</v>
+        <v>617</v>
       </c>
     </row>
     <row r="101" spans="2:29">
@@ -23753,16 +23753,16 @@
         <v>1125</v>
       </c>
       <c r="Z101" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
       <c r="AA101" t="s">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="AB101">
         <v>1</v>
       </c>
       <c r="AC101" t="s">
-        <v>823</v>
+        <v>693</v>
       </c>
     </row>
     <row r="102" spans="2:29">
@@ -23830,16 +23830,16 @@
         <v>1127</v>
       </c>
       <c r="Z102" t="s">
-        <v>1500</v>
+        <v>1503</v>
       </c>
       <c r="AA102" t="s">
-        <v>1501</v>
+        <v>1504</v>
       </c>
       <c r="AB102">
         <v>1</v>
       </c>
       <c r="AC102" t="s">
-        <v>881</v>
+        <v>827</v>
       </c>
     </row>
     <row r="103" spans="2:29">
@@ -23907,16 +23907,16 @@
         <v>1129</v>
       </c>
       <c r="Z103" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="AA103" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="AB103">
         <v>1</v>
       </c>
       <c r="AC103" t="s">
-        <v>641</v>
+        <v>661</v>
       </c>
     </row>
     <row r="104" spans="2:29">
@@ -23984,16 +23984,16 @@
         <v>1131</v>
       </c>
       <c r="Z104" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="AA104" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="AB104">
         <v>1</v>
       </c>
       <c r="AC104" t="s">
-        <v>759</v>
+        <v>627</v>
       </c>
     </row>
     <row r="105" spans="2:29">
@@ -24061,16 +24061,16 @@
         <v>1133</v>
       </c>
       <c r="Z105" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="AA105" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="AB105">
         <v>1</v>
       </c>
       <c r="AC105" t="s">
-        <v>659</v>
+        <v>625</v>
       </c>
     </row>
     <row r="106" spans="2:29">
@@ -24138,16 +24138,16 @@
         <v>1135</v>
       </c>
       <c r="Z106" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="AA106" t="s">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="AB106">
         <v>1</v>
       </c>
       <c r="AC106" t="s">
-        <v>633</v>
+        <v>909</v>
       </c>
     </row>
     <row r="107" spans="2:29">
@@ -24215,16 +24215,16 @@
         <v>1137</v>
       </c>
       <c r="Z107" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="AA107" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="AB107">
         <v>1</v>
       </c>
       <c r="AC107" t="s">
-        <v>783</v>
+        <v>631</v>
       </c>
     </row>
     <row r="108" spans="2:29">
@@ -24292,16 +24292,16 @@
         <v>1139</v>
       </c>
       <c r="Z108" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="AA108" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="AB108">
         <v>1</v>
       </c>
       <c r="AC108" t="s">
-        <v>711</v>
+        <v>833</v>
       </c>
     </row>
     <row r="109" spans="2:29">
@@ -24369,16 +24369,16 @@
         <v>1141</v>
       </c>
       <c r="Z109" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="AA109" t="s">
-        <v>1515</v>
+        <v>1518</v>
       </c>
       <c r="AB109">
         <v>1</v>
       </c>
       <c r="AC109" t="s">
-        <v>763</v>
+        <v>697</v>
       </c>
     </row>
     <row r="110" spans="2:29">
@@ -24446,16 +24446,16 @@
         <v>1143</v>
       </c>
       <c r="Z110" t="s">
-        <v>1516</v>
+        <v>1519</v>
       </c>
       <c r="AA110" t="s">
-        <v>1517</v>
+        <v>1520</v>
       </c>
       <c r="AB110">
         <v>1</v>
       </c>
       <c r="AC110" t="s">
-        <v>797</v>
+        <v>613</v>
       </c>
     </row>
     <row r="111" spans="2:29">
@@ -24523,16 +24523,16 @@
         <v>1145</v>
       </c>
       <c r="Z111" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="AA111" t="s">
-        <v>1519</v>
+        <v>1522</v>
       </c>
       <c r="AB111">
         <v>1</v>
       </c>
       <c r="AC111" t="s">
-        <v>841</v>
+        <v>607</v>
       </c>
     </row>
     <row r="112" spans="2:29">
@@ -24600,16 +24600,16 @@
         <v>1147</v>
       </c>
       <c r="Z112" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="AA112" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="AB112">
         <v>1</v>
       </c>
       <c r="AC112" t="s">
-        <v>855</v>
+        <v>725</v>
       </c>
     </row>
     <row r="113" spans="2:29">
@@ -24677,16 +24677,16 @@
         <v>1149</v>
       </c>
       <c r="Z113" t="s">
-        <v>1522</v>
+        <v>1525</v>
       </c>
       <c r="AA113" t="s">
-        <v>1523</v>
+        <v>1526</v>
       </c>
       <c r="AB113">
         <v>1</v>
       </c>
       <c r="AC113" t="s">
-        <v>805</v>
+        <v>735</v>
       </c>
     </row>
     <row r="114" spans="2:29">
@@ -24754,16 +24754,16 @@
         <v>1151</v>
       </c>
       <c r="Z114" t="s">
-        <v>1524</v>
+        <v>1527</v>
       </c>
       <c r="AA114" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
       <c r="AB114">
         <v>1</v>
       </c>
       <c r="AC114" t="s">
-        <v>903</v>
+        <v>703</v>
       </c>
     </row>
     <row r="115" spans="2:29">
@@ -24831,16 +24831,16 @@
         <v>1153</v>
       </c>
       <c r="Z115" t="s">
-        <v>1526</v>
+        <v>1529</v>
       </c>
       <c r="AA115" t="s">
-        <v>1527</v>
+        <v>1455</v>
       </c>
       <c r="AB115">
         <v>1</v>
       </c>
       <c r="AC115" t="s">
-        <v>751</v>
+        <v>803</v>
       </c>
     </row>
     <row r="116" spans="2:29">
@@ -24908,16 +24908,16 @@
         <v>1155</v>
       </c>
       <c r="Z116" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="AA116" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="AB116">
         <v>1</v>
       </c>
       <c r="AC116" t="s">
-        <v>689</v>
+        <v>849</v>
       </c>
     </row>
     <row r="117" spans="2:29">
@@ -24985,16 +24985,16 @@
         <v>1157</v>
       </c>
       <c r="Z117" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="AA117" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="AB117">
         <v>1</v>
       </c>
       <c r="AC117" t="s">
-        <v>853</v>
+        <v>879</v>
       </c>
     </row>
     <row r="118" spans="2:29">
@@ -25062,16 +25062,16 @@
         <v>1159</v>
       </c>
       <c r="Z118" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="AA118" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="AB118">
         <v>1</v>
       </c>
       <c r="AC118" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="119" spans="2:29">
@@ -25139,16 +25139,16 @@
         <v>1161</v>
       </c>
       <c r="Z119" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="AA119" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="AB119">
         <v>1</v>
       </c>
       <c r="AC119" t="s">
-        <v>679</v>
+        <v>565</v>
       </c>
     </row>
     <row r="120" spans="2:29">
@@ -25216,16 +25216,16 @@
         <v>1163</v>
       </c>
       <c r="Z120" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="AA120" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="AB120">
         <v>1</v>
       </c>
       <c r="AC120" t="s">
-        <v>699</v>
+        <v>677</v>
       </c>
     </row>
     <row r="121" spans="2:29">
@@ -25293,16 +25293,16 @@
         <v>1165</v>
       </c>
       <c r="Z121" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="AA121" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="AB121">
         <v>1</v>
       </c>
       <c r="AC121" t="s">
-        <v>843</v>
+        <v>889</v>
       </c>
     </row>
     <row r="122" spans="2:29">
@@ -25370,16 +25370,16 @@
         <v>1167</v>
       </c>
       <c r="Z122" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="AA122" t="s">
-        <v>1517</v>
+        <v>1543</v>
       </c>
       <c r="AB122">
         <v>1</v>
       </c>
       <c r="AC122" t="s">
-        <v>795</v>
+        <v>761</v>
       </c>
     </row>
     <row r="123" spans="2:29">
@@ -25447,16 +25447,16 @@
         <v>1169</v>
       </c>
       <c r="Z123" t="s">
-        <v>1541</v>
+        <v>1544</v>
       </c>
       <c r="AA123" t="s">
-        <v>1542</v>
+        <v>1545</v>
       </c>
       <c r="AB123">
         <v>1</v>
       </c>
       <c r="AC123" t="s">
-        <v>835</v>
+        <v>597</v>
       </c>
     </row>
     <row r="124" spans="2:29">
@@ -25524,16 +25524,16 @@
         <v>1171</v>
       </c>
       <c r="Z124" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
       <c r="AA124" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
       <c r="AB124">
         <v>1</v>
       </c>
       <c r="AC124" t="s">
-        <v>671</v>
+        <v>867</v>
       </c>
     </row>
     <row r="125" spans="2:29">
@@ -25601,16 +25601,16 @@
         <v>1173</v>
       </c>
       <c r="Z125" t="s">
-        <v>1545</v>
+        <v>1548</v>
       </c>
       <c r="AA125" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
       <c r="AB125">
         <v>1</v>
       </c>
       <c r="AC125" t="s">
-        <v>645</v>
+        <v>865</v>
       </c>
     </row>
     <row r="126" spans="2:29">
@@ -25678,16 +25678,16 @@
         <v>1175</v>
       </c>
       <c r="Z126" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="AA126" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="AB126">
         <v>1</v>
       </c>
       <c r="AC126" t="s">
-        <v>601</v>
+        <v>767</v>
       </c>
     </row>
     <row r="127" spans="2:29">
@@ -25755,16 +25755,16 @@
         <v>1177</v>
       </c>
       <c r="Z127" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="AA127" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="AB127">
         <v>1</v>
       </c>
       <c r="AC127" t="s">
-        <v>709</v>
+        <v>585</v>
       </c>
     </row>
     <row r="128" spans="2:29">
@@ -25832,16 +25832,16 @@
         <v>1179</v>
       </c>
       <c r="Z128" t="s">
-        <v>1551</v>
+        <v>1554</v>
       </c>
       <c r="AA128" t="s">
-        <v>1552</v>
+        <v>1555</v>
       </c>
       <c r="AB128">
         <v>1</v>
       </c>
       <c r="AC128" t="s">
-        <v>771</v>
+        <v>807</v>
       </c>
     </row>
     <row r="129" spans="2:29">
@@ -25909,16 +25909,16 @@
         <v>1181</v>
       </c>
       <c r="Z129" t="s">
-        <v>1553</v>
+        <v>1556</v>
       </c>
       <c r="AA129" t="s">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="AB129">
         <v>1</v>
       </c>
       <c r="AC129" t="s">
-        <v>825</v>
+        <v>587</v>
       </c>
     </row>
     <row r="130" spans="2:29">
@@ -25986,16 +25986,16 @@
         <v>1183</v>
       </c>
       <c r="Z130" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="AA130" t="s">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="AB130">
         <v>1</v>
       </c>
       <c r="AC130" t="s">
-        <v>691</v>
+        <v>581</v>
       </c>
     </row>
     <row r="131" spans="2:29">
@@ -26063,16 +26063,16 @@
         <v>1185</v>
       </c>
       <c r="Z131" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="AA131" t="s">
-        <v>1558</v>
+        <v>1349</v>
       </c>
       <c r="AB131">
         <v>1</v>
       </c>
       <c r="AC131" t="s">
-        <v>935</v>
+        <v>901</v>
       </c>
     </row>
     <row r="132" spans="2:29">
@@ -26140,16 +26140,16 @@
         <v>1187</v>
       </c>
       <c r="Z132" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="AA132" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="AB132">
         <v>1</v>
       </c>
       <c r="AC132" t="s">
-        <v>773</v>
+        <v>747</v>
       </c>
     </row>
     <row r="133" spans="2:29">
@@ -26217,16 +26217,16 @@
         <v>1189</v>
       </c>
       <c r="Z133" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AA133" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="AB133">
         <v>1</v>
       </c>
       <c r="AC133" t="s">
-        <v>739</v>
+        <v>753</v>
       </c>
     </row>
     <row r="134" spans="2:29">
@@ -26294,16 +26294,16 @@
         <v>1191</v>
       </c>
       <c r="Z134" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="AA134" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="AB134">
         <v>1</v>
       </c>
       <c r="AC134" t="s">
-        <v>741</v>
+        <v>687</v>
       </c>
     </row>
     <row r="135" spans="2:29">
@@ -26371,16 +26371,16 @@
         <v>1193</v>
       </c>
       <c r="Z135" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="AA135" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="AB135">
         <v>1</v>
       </c>
       <c r="AC135" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
     </row>
     <row r="136" spans="2:29">
@@ -26448,16 +26448,16 @@
         <v>1195</v>
       </c>
       <c r="Z136" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="AA136" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="AB136">
         <v>1</v>
       </c>
       <c r="AC136" t="s">
-        <v>837</v>
+        <v>591</v>
       </c>
     </row>
     <row r="137" spans="2:29">
@@ -26525,16 +26525,16 @@
         <v>1197</v>
       </c>
       <c r="Z137" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="AA137" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="AB137">
         <v>1</v>
       </c>
       <c r="AC137" t="s">
-        <v>637</v>
+        <v>749</v>
       </c>
     </row>
     <row r="138" spans="2:29">
@@ -26602,16 +26602,16 @@
         <v>1199</v>
       </c>
       <c r="Z138" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="AA138" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="AB138">
         <v>1</v>
       </c>
       <c r="AC138" t="s">
-        <v>939</v>
+        <v>723</v>
       </c>
     </row>
     <row r="139" spans="2:29">
@@ -26679,16 +26679,16 @@
         <v>1201</v>
       </c>
       <c r="Z139" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="AA139" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="AB139">
         <v>1</v>
       </c>
       <c r="AC139" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
     </row>
     <row r="140" spans="2:29">
@@ -26756,16 +26756,16 @@
         <v>1203</v>
       </c>
       <c r="Z140" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="AA140" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="AB140">
         <v>1</v>
       </c>
       <c r="AC140" t="s">
-        <v>789</v>
+        <v>765</v>
       </c>
     </row>
     <row r="141" spans="2:29">
@@ -26833,16 +26833,16 @@
         <v>1205</v>
       </c>
       <c r="Z141" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="AA141" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="AB141">
         <v>1</v>
       </c>
       <c r="AC141" t="s">
-        <v>923</v>
+        <v>681</v>
       </c>
     </row>
     <row r="142" spans="2:29">
@@ -26910,16 +26910,16 @@
         <v>1207</v>
       </c>
       <c r="Z142" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="AA142" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="AB142">
         <v>1</v>
       </c>
       <c r="AC142" t="s">
-        <v>721</v>
+        <v>745</v>
       </c>
     </row>
     <row r="143" spans="2:29">
@@ -26987,16 +26987,16 @@
         <v>1209</v>
       </c>
       <c r="Z143" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="AA143" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="AB143">
         <v>1</v>
       </c>
       <c r="AC143" t="s">
-        <v>915</v>
+        <v>603</v>
       </c>
     </row>
     <row r="144" spans="2:29">
@@ -27064,16 +27064,16 @@
         <v>1211</v>
       </c>
       <c r="Z144" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="AA144" t="s">
-        <v>1584</v>
+        <v>1429</v>
       </c>
       <c r="AB144">
         <v>1</v>
       </c>
       <c r="AC144" t="s">
-        <v>599</v>
+        <v>857</v>
       </c>
     </row>
     <row r="145" spans="2:29">
@@ -27141,16 +27141,16 @@
         <v>1213</v>
       </c>
       <c r="Z145" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="AA145" t="s">
-        <v>1586</v>
+        <v>1409</v>
       </c>
       <c r="AB145">
         <v>1</v>
       </c>
       <c r="AC145" t="s">
-        <v>657</v>
+        <v>905</v>
       </c>
     </row>
     <row r="146" spans="2:29">
@@ -27227,7 +27227,7 @@
         <v>1</v>
       </c>
       <c r="AC146" t="s">
-        <v>809</v>
+        <v>695</v>
       </c>
     </row>
     <row r="147" spans="2:29">
@@ -27304,7 +27304,7 @@
         <v>1</v>
       </c>
       <c r="AC147" t="s">
-        <v>757</v>
+        <v>651</v>
       </c>
     </row>
     <row r="148" spans="2:29">
@@ -27381,7 +27381,7 @@
         <v>1</v>
       </c>
       <c r="AC148" t="s">
-        <v>933</v>
+        <v>913</v>
       </c>
     </row>
     <row r="149" spans="2:29">
@@ -27452,13 +27452,13 @@
         <v>1593</v>
       </c>
       <c r="AA149" t="s">
-        <v>1426</v>
+        <v>1594</v>
       </c>
       <c r="AB149">
         <v>1</v>
       </c>
       <c r="AC149" t="s">
-        <v>907</v>
+        <v>791</v>
       </c>
     </row>
     <row r="150" spans="2:29">
@@ -27526,16 +27526,16 @@
         <v>1223</v>
       </c>
       <c r="Z150" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="AA150" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="AB150">
         <v>1</v>
       </c>
       <c r="AC150" t="s">
-        <v>845</v>
+        <v>701</v>
       </c>
     </row>
     <row r="151" spans="2:29">
@@ -27603,16 +27603,16 @@
         <v>1225</v>
       </c>
       <c r="Z151" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="AA151" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="AB151">
         <v>1</v>
       </c>
       <c r="AC151" t="s">
-        <v>861</v>
+        <v>921</v>
       </c>
     </row>
     <row r="152" spans="2:29">
@@ -27680,16 +27680,16 @@
         <v>1227</v>
       </c>
       <c r="Z152" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="AA152" t="s">
-        <v>1570</v>
+        <v>1600</v>
       </c>
       <c r="AB152">
         <v>1</v>
       </c>
       <c r="AC152" t="s">
-        <v>635</v>
+        <v>665</v>
       </c>
     </row>
     <row r="153" spans="2:29">
@@ -27757,16 +27757,16 @@
         <v>1229</v>
       </c>
       <c r="Z153" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="AA153" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="AB153">
         <v>1</v>
       </c>
       <c r="AC153" t="s">
-        <v>593</v>
+        <v>811</v>
       </c>
     </row>
     <row r="154" spans="2:29">
@@ -27834,16 +27834,16 @@
         <v>1231</v>
       </c>
       <c r="Z154" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="AA154" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="AB154">
         <v>1</v>
       </c>
       <c r="AC154" t="s">
-        <v>617</v>
+        <v>655</v>
       </c>
     </row>
     <row r="155" spans="2:29">
@@ -27911,16 +27911,16 @@
         <v>1233</v>
       </c>
       <c r="Z155" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="AA155" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="AB155">
         <v>1</v>
       </c>
       <c r="AC155" t="s">
-        <v>693</v>
+        <v>875</v>
       </c>
     </row>
     <row r="156" spans="2:29">
@@ -27988,16 +27988,16 @@
         <v>1235</v>
       </c>
       <c r="Z156" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="AA156" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="AB156">
         <v>1</v>
       </c>
       <c r="AC156" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
     </row>
     <row r="157" spans="2:29">
@@ -28065,16 +28065,16 @@
         <v>1237</v>
       </c>
       <c r="Z157" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="AA157" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="AB157">
         <v>1</v>
       </c>
       <c r="AC157" t="s">
-        <v>661</v>
+        <v>605</v>
       </c>
     </row>
     <row r="158" spans="2:29">
@@ -28142,16 +28142,16 @@
         <v>1239</v>
       </c>
       <c r="Z158" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="AA158" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="AB158">
         <v>1</v>
       </c>
       <c r="AC158" t="s">
-        <v>627</v>
+        <v>667</v>
       </c>
     </row>
     <row r="159" spans="2:29">
@@ -28219,16 +28219,16 @@
         <v>1241</v>
       </c>
       <c r="Z159" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="AA159" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="AB159">
         <v>1</v>
       </c>
       <c r="AC159" t="s">
-        <v>625</v>
+        <v>669</v>
       </c>
     </row>
     <row r="160" spans="2:29">
@@ -28296,16 +28296,16 @@
         <v>1243</v>
       </c>
       <c r="Z160" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="AA160" t="s">
-        <v>1614</v>
+        <v>1369</v>
       </c>
       <c r="AB160">
         <v>1</v>
       </c>
       <c r="AC160" t="s">
-        <v>909</v>
+        <v>925</v>
       </c>
     </row>
     <row r="161" spans="2:29">
@@ -28373,16 +28373,16 @@
         <v>1245</v>
       </c>
       <c r="Z161" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="AA161" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="AB161">
         <v>1</v>
       </c>
       <c r="AC161" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
     </row>
     <row r="162" spans="2:29">
@@ -28450,16 +28450,16 @@
         <v>1247</v>
       </c>
       <c r="Z162" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="AA162" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="AB162">
         <v>1</v>
       </c>
       <c r="AC162" t="s">
-        <v>833</v>
+        <v>601</v>
       </c>
     </row>
     <row r="163" spans="2:29">
@@ -28527,16 +28527,16 @@
         <v>1249</v>
       </c>
       <c r="Z163" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="AA163" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="AB163">
         <v>1</v>
       </c>
       <c r="AC163" t="s">
-        <v>623</v>
+        <v>709</v>
       </c>
     </row>
     <row r="164" spans="2:29">
@@ -28604,16 +28604,16 @@
         <v>1251</v>
       </c>
       <c r="Z164" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="AA164" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="AB164">
         <v>1</v>
       </c>
       <c r="AC164" t="s">
-        <v>565</v>
+        <v>771</v>
       </c>
     </row>
     <row r="165" spans="2:29">
@@ -28681,16 +28681,16 @@
         <v>1253</v>
       </c>
       <c r="Z165" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="AA165" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="AB165">
         <v>1</v>
       </c>
       <c r="AC165" t="s">
-        <v>677</v>
+        <v>825</v>
       </c>
     </row>
     <row r="166" spans="2:29">
@@ -28758,16 +28758,16 @@
         <v>1255</v>
       </c>
       <c r="Z166" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="AA166" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="AB166">
         <v>1</v>
       </c>
       <c r="AC166" t="s">
-        <v>889</v>
+        <v>691</v>
       </c>
     </row>
     <row r="167" spans="2:29">
@@ -28835,16 +28835,16 @@
         <v>1257</v>
       </c>
       <c r="Z167" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="AA167" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="AB167">
         <v>1</v>
       </c>
       <c r="AC167" t="s">
-        <v>761</v>
+        <v>935</v>
       </c>
     </row>
     <row r="168" spans="2:29">
@@ -28912,16 +28912,16 @@
         <v>1259</v>
       </c>
       <c r="Z168" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="AA168" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="AB168">
         <v>1</v>
       </c>
       <c r="AC168" t="s">
-        <v>597</v>
+        <v>773</v>
       </c>
     </row>
     <row r="169" spans="2:29">
@@ -28989,16 +28989,16 @@
         <v>1261</v>
       </c>
       <c r="Z169" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="AA169" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="AB169">
         <v>1</v>
       </c>
       <c r="AC169" t="s">
-        <v>867</v>
+        <v>739</v>
       </c>
     </row>
     <row r="170" spans="2:29">
@@ -29066,16 +29066,16 @@
         <v>1263</v>
       </c>
       <c r="Z170" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="AA170" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="AB170">
         <v>1</v>
       </c>
       <c r="AC170" t="s">
-        <v>865</v>
+        <v>741</v>
       </c>
     </row>
     <row r="171" spans="2:29">
@@ -29143,16 +29143,16 @@
         <v>1265</v>
       </c>
       <c r="Z171" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="AA171" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="AB171">
         <v>1</v>
       </c>
       <c r="AC171" t="s">
-        <v>767</v>
+        <v>611</v>
       </c>
     </row>
     <row r="172" spans="2:29">
@@ -29220,16 +29220,16 @@
         <v>1267</v>
       </c>
       <c r="Z172" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="AA172" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="AB172">
         <v>1</v>
       </c>
       <c r="AC172" t="s">
-        <v>585</v>
+        <v>837</v>
       </c>
     </row>
     <row r="173" spans="2:29">
@@ -29297,16 +29297,16 @@
         <v>1269</v>
       </c>
       <c r="Z173" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="AA173" t="s">
-        <v>1640</v>
+        <v>1415</v>
       </c>
       <c r="AB173">
         <v>1</v>
       </c>
       <c r="AC173" t="s">
-        <v>807</v>
+        <v>637</v>
       </c>
     </row>
     <row r="174" spans="2:29">
@@ -29383,7 +29383,7 @@
         <v>1</v>
       </c>
       <c r="AC174" t="s">
-        <v>587</v>
+        <v>939</v>
       </c>
     </row>
     <row r="175" spans="2:29">
@@ -29460,7 +29460,7 @@
         <v>1</v>
       </c>
       <c r="AC175" t="s">
-        <v>581</v>
+        <v>685</v>
       </c>
     </row>
     <row r="176" spans="2:29">
@@ -29531,13 +29531,13 @@
         <v>1645</v>
       </c>
       <c r="AA176" t="s">
-        <v>1525</v>
+        <v>1646</v>
       </c>
       <c r="AB176">
         <v>1</v>
       </c>
       <c r="AC176" t="s">
-        <v>901</v>
+        <v>789</v>
       </c>
     </row>
     <row r="177" spans="2:29">
@@ -29605,16 +29605,16 @@
         <v>1277</v>
       </c>
       <c r="Z177" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="AA177" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="AB177">
         <v>1</v>
       </c>
       <c r="AC177" t="s">
-        <v>747</v>
+        <v>785</v>
       </c>
     </row>
     <row r="178" spans="2:29">
@@ -29682,16 +29682,16 @@
         <v>1279</v>
       </c>
       <c r="Z178" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="AA178" t="s">
-        <v>1399</v>
+        <v>1650</v>
       </c>
       <c r="AB178">
         <v>1</v>
       </c>
       <c r="AC178" t="s">
-        <v>753</v>
+        <v>571</v>
       </c>
     </row>
     <row r="179" spans="2:29">
@@ -29759,16 +29759,16 @@
         <v>1281</v>
       </c>
       <c r="Z179" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="AA179" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="AB179">
         <v>1</v>
       </c>
       <c r="AC179" t="s">
-        <v>819</v>
+        <v>675</v>
       </c>
     </row>
     <row r="180" spans="2:29">
@@ -29836,16 +29836,16 @@
         <v>1283</v>
       </c>
       <c r="Z180" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="AA180" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="AB180">
         <v>1</v>
       </c>
       <c r="AC180" t="s">
-        <v>567</v>
+        <v>863</v>
       </c>
     </row>
     <row r="181" spans="2:29">
@@ -29913,16 +29913,16 @@
         <v>1285</v>
       </c>
       <c r="Z181" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="AA181" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="AB181">
         <v>1</v>
       </c>
       <c r="AC181" t="s">
-        <v>931</v>
+        <v>629</v>
       </c>
     </row>
     <row r="182" spans="2:29">
@@ -29990,16 +29990,16 @@
         <v>1287</v>
       </c>
       <c r="Z182" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="AA182" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="AB182">
         <v>1</v>
       </c>
       <c r="AC182" t="s">
-        <v>733</v>
+        <v>615</v>
       </c>
     </row>
     <row r="183" spans="2:29">
@@ -30067,16 +30067,16 @@
         <v>1289</v>
       </c>
       <c r="Z183" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AA183" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="AB183">
         <v>1</v>
       </c>
       <c r="AC183" t="s">
-        <v>705</v>
+        <v>883</v>
       </c>
     </row>
     <row r="184" spans="2:29">
@@ -30144,16 +30144,16 @@
         <v>1291</v>
       </c>
       <c r="Z184" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="AA184" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="AB184">
         <v>1</v>
       </c>
       <c r="AC184" t="s">
-        <v>839</v>
+        <v>781</v>
       </c>
     </row>
     <row r="185" spans="2:29">
@@ -30221,16 +30221,16 @@
         <v>1293</v>
       </c>
       <c r="Z185" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="AA185" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="AB185">
         <v>1</v>
       </c>
       <c r="AC185" t="s">
-        <v>737</v>
+        <v>891</v>
       </c>
     </row>
     <row r="186" spans="2:29">
@@ -30298,16 +30298,16 @@
         <v>1295</v>
       </c>
       <c r="Z186" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="AA186" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="AB186">
         <v>1</v>
       </c>
       <c r="AC186" t="s">
-        <v>731</v>
+        <v>609</v>
       </c>
     </row>
     <row r="187" spans="2:29">
@@ -30375,16 +30375,16 @@
         <v>1297</v>
       </c>
       <c r="Z187" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="AA187" t="s">
-        <v>1666</v>
+        <v>1564</v>
       </c>
       <c r="AB187">
         <v>1</v>
       </c>
       <c r="AC187" t="s">
-        <v>653</v>
+        <v>755</v>
       </c>
     </row>
     <row r="188" spans="2:29">
@@ -30452,16 +30452,16 @@
         <v>1299</v>
       </c>
       <c r="Z188" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="AA188" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="AB188">
         <v>1</v>
       </c>
       <c r="AC188" t="s">
-        <v>743</v>
+        <v>869</v>
       </c>
     </row>
     <row r="189" spans="2:29">
@@ -30529,16 +30529,16 @@
         <v>1301</v>
       </c>
       <c r="Z189" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="AA189" t="s">
-        <v>1670</v>
+        <v>1475</v>
       </c>
       <c r="AB189">
         <v>1</v>
       </c>
       <c r="AC189" t="s">
-        <v>575</v>
+        <v>899</v>
       </c>
     </row>
     <row r="190" spans="2:29">
@@ -30615,7 +30615,7 @@
         <v>1</v>
       </c>
       <c r="AC190" t="s">
-        <v>727</v>
+        <v>595</v>
       </c>
     </row>
     <row r="191" spans="2:29">
@@ -30692,7 +30692,7 @@
         <v>1</v>
       </c>
       <c r="AC191" t="s">
-        <v>885</v>
+        <v>929</v>
       </c>
     </row>
     <row r="192" spans="2:29">
@@ -30769,7 +30769,7 @@
         <v>1</v>
       </c>
       <c r="AC192" t="s">
-        <v>813</v>
+        <v>787</v>
       </c>
     </row>
     <row r="193" spans="2:29">
@@ -30846,7 +30846,7 @@
         <v>1</v>
       </c>
       <c r="AC193" t="s">
-        <v>911</v>
+        <v>719</v>
       </c>
     </row>
     <row r="194" spans="2:29">
@@ -30917,13 +30917,13 @@
         <v>1679</v>
       </c>
       <c r="AA194" t="s">
-        <v>1480</v>
+        <v>1680</v>
       </c>
       <c r="AB194">
         <v>1</v>
       </c>
       <c r="AC194" t="s">
-        <v>927</v>
+        <v>589</v>
       </c>
     </row>
     <row r="195" spans="2:29">
@@ -30991,16 +30991,16 @@
         <v>1313</v>
       </c>
       <c r="Z195" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="AA195" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="AB195">
         <v>1</v>
       </c>
       <c r="AC195" t="s">
-        <v>893</v>
+        <v>815</v>
       </c>
     </row>
     <row r="196" spans="2:29">
@@ -31068,16 +31068,16 @@
         <v>1315</v>
       </c>
       <c r="Z196" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="AA196" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="AB196">
         <v>1</v>
       </c>
       <c r="AC196" t="s">
-        <v>871</v>
+        <v>579</v>
       </c>
     </row>
     <row r="197" spans="2:29">
@@ -31145,16 +31145,16 @@
         <v>1317</v>
       </c>
       <c r="Z197" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="AA197" t="s">
-        <v>1685</v>
+        <v>1606</v>
       </c>
       <c r="AB197">
         <v>1</v>
       </c>
       <c r="AC197" t="s">
-        <v>717</v>
+        <v>877</v>
       </c>
     </row>
     <row r="198" spans="2:29">
@@ -31231,7 +31231,7 @@
         <v>1</v>
       </c>
       <c r="AC198" t="s">
-        <v>777</v>
+        <v>729</v>
       </c>
     </row>
   </sheetData>
@@ -31240,7 +31240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6206C170-C8FC-40D6-9890-7CF527A08396}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D51A89-2BF7-45BB-94DF-E91956C7F826}">
   <dimension ref="B9:AB199"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -31400,7 +31400,7 @@
         <v>2383</v>
       </c>
       <c r="Z11" t="s">
-        <v>1794</v>
+        <v>1772</v>
       </c>
       <c r="AA11">
         <v>13.8675</v>
@@ -31474,7 +31474,7 @@
         <v>2384</v>
       </c>
       <c r="Z12" t="s">
-        <v>1795</v>
+        <v>1773</v>
       </c>
       <c r="AA12">
         <v>11.755000000000001</v>
@@ -31548,7 +31548,7 @@
         <v>2385</v>
       </c>
       <c r="Z13" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="AA13">
         <v>13.8675</v>
@@ -31622,7 +31622,7 @@
         <v>2386</v>
       </c>
       <c r="Z14" t="s">
-        <v>1785</v>
+        <v>1764</v>
       </c>
       <c r="AA14">
         <v>13.8675</v>
@@ -31696,7 +31696,7 @@
         <v>2387</v>
       </c>
       <c r="Z15" t="s">
-        <v>1769</v>
+        <v>1780</v>
       </c>
       <c r="AA15">
         <v>13.23875</v>
@@ -31770,7 +31770,7 @@
         <v>2388</v>
       </c>
       <c r="Z16" t="s">
-        <v>1799</v>
+        <v>1768</v>
       </c>
       <c r="AA16">
         <v>14.02875</v>
@@ -31844,7 +31844,7 @@
         <v>2389</v>
       </c>
       <c r="Z17" t="s">
-        <v>1770</v>
+        <v>1801</v>
       </c>
       <c r="AA17">
         <v>13.8675</v>
@@ -31918,7 +31918,7 @@
         <v>2390</v>
       </c>
       <c r="Z18" t="s">
-        <v>1798</v>
+        <v>1767</v>
       </c>
       <c r="AA18">
         <v>13.8675</v>
@@ -31992,7 +31992,7 @@
         <v>2391</v>
       </c>
       <c r="Z19" t="s">
-        <v>1773</v>
+        <v>1802</v>
       </c>
       <c r="AA19">
         <v>0.11874999999999999</v>
@@ -32066,7 +32066,7 @@
         <v>2392</v>
       </c>
       <c r="Z20" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="AA20">
         <v>9.06</v>
@@ -32140,7 +32140,7 @@
         <v>2393</v>
       </c>
       <c r="Z21" t="s">
-        <v>1802</v>
+        <v>1776</v>
       </c>
       <c r="AA21">
         <v>14.02875</v>
@@ -32214,7 +32214,7 @@
         <v>2394</v>
       </c>
       <c r="Z22" t="s">
-        <v>1772</v>
+        <v>1813</v>
       </c>
       <c r="AA22">
         <v>13.8675</v>
@@ -32288,7 +32288,7 @@
         <v>2395</v>
       </c>
       <c r="Z23" t="s">
-        <v>1777</v>
+        <v>1806</v>
       </c>
       <c r="AA23">
         <v>13.8675</v>
@@ -32362,7 +32362,7 @@
         <v>2396</v>
       </c>
       <c r="Z24" t="s">
-        <v>1793</v>
+        <v>1771</v>
       </c>
       <c r="AA24">
         <v>6.6375000000000002</v>
@@ -32436,7 +32436,7 @@
         <v>2397</v>
       </c>
       <c r="Z25" t="s">
-        <v>1768</v>
+        <v>1779</v>
       </c>
       <c r="AA25">
         <v>13.92625</v>
@@ -32510,7 +32510,7 @@
         <v>2398</v>
       </c>
       <c r="Z26" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="AA26">
         <v>13.827500000000001</v>
@@ -32584,7 +32584,7 @@
         <v>2399</v>
       </c>
       <c r="Z27" t="s">
-        <v>1814</v>
+        <v>1781</v>
       </c>
       <c r="AA27">
         <v>13.8675</v>
@@ -32658,7 +32658,7 @@
         <v>2400</v>
       </c>
       <c r="Z28" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="AA28">
         <v>3.7499999999999999E-3</v>
@@ -32732,7 +32732,7 @@
         <v>2401</v>
       </c>
       <c r="Z29" t="s">
-        <v>1806</v>
+        <v>1790</v>
       </c>
       <c r="AA29">
         <v>2.8424999999999998</v>
@@ -32806,7 +32806,7 @@
         <v>2402</v>
       </c>
       <c r="Z30" t="s">
-        <v>1771</v>
+        <v>1814</v>
       </c>
       <c r="AA30">
         <v>8.1549999999999994</v>
@@ -32880,7 +32880,7 @@
         <v>2403</v>
       </c>
       <c r="Z31" t="s">
-        <v>1766</v>
+        <v>1795</v>
       </c>
       <c r="AA31">
         <v>4.5162500000000003</v>
@@ -32954,7 +32954,7 @@
         <v>2404</v>
       </c>
       <c r="Z32" t="s">
-        <v>1804</v>
+        <v>1788</v>
       </c>
       <c r="AA32">
         <v>0.57625000000000004</v>
@@ -33028,7 +33028,7 @@
         <v>2405</v>
       </c>
       <c r="Z33" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="AA33">
         <v>1.125E-2</v>
@@ -33102,7 +33102,7 @@
         <v>2406</v>
       </c>
       <c r="Z34" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="AA34">
         <v>0.33500000000000002</v>
@@ -33176,7 +33176,7 @@
         <v>2407</v>
       </c>
       <c r="Z35" t="s">
-        <v>1775</v>
+        <v>1804</v>
       </c>
       <c r="AA35">
         <v>1.7500000000000002E-2</v>
@@ -33250,7 +33250,7 @@
         <v>2408</v>
       </c>
       <c r="Z36" t="s">
-        <v>1767</v>
+        <v>1778</v>
       </c>
       <c r="AA36">
         <v>0.58250000000000002</v>
@@ -33324,7 +33324,7 @@
         <v>2409</v>
       </c>
       <c r="Z37" t="s">
-        <v>1800</v>
+        <v>1774</v>
       </c>
       <c r="AA37">
         <v>1.0075000000000001</v>
@@ -33398,7 +33398,7 @@
         <v>2410</v>
       </c>
       <c r="Z38" t="s">
-        <v>1764</v>
+        <v>1793</v>
       </c>
       <c r="AA38">
         <v>0.21625</v>
@@ -33472,7 +33472,7 @@
         <v>2411</v>
       </c>
       <c r="Z39" t="s">
-        <v>1803</v>
+        <v>1777</v>
       </c>
       <c r="AA39">
         <v>5.9212499999999997</v>
@@ -33546,7 +33546,7 @@
         <v>2412</v>
       </c>
       <c r="Z40" t="s">
-        <v>1796</v>
+        <v>1765</v>
       </c>
       <c r="AA40">
         <v>2.75E-2</v>
@@ -33620,7 +33620,7 @@
         <v>2413</v>
       </c>
       <c r="Z41" t="s">
-        <v>1791</v>
+        <v>1800</v>
       </c>
       <c r="AA41">
         <v>10.682499999999999</v>
@@ -33694,7 +33694,7 @@
         <v>2414</v>
       </c>
       <c r="Z42" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="AA42">
         <v>3.9175</v>
@@ -33768,7 +33768,7 @@
         <v>2415</v>
       </c>
       <c r="Z43" t="s">
-        <v>1808</v>
+        <v>1792</v>
       </c>
       <c r="AA43">
         <v>10.8575</v>
@@ -33842,7 +33842,7 @@
         <v>2416</v>
       </c>
       <c r="Z44" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="AA44">
         <v>2.61375</v>
@@ -33916,7 +33916,7 @@
         <v>2417</v>
       </c>
       <c r="Z45" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="AA45">
         <v>11.2575</v>
@@ -33990,7 +33990,7 @@
         <v>2418</v>
       </c>
       <c r="Z46" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="AA46">
         <v>5.0000000000000001E-3</v>
@@ -34064,7 +34064,7 @@
         <v>2419</v>
       </c>
       <c r="Z47" t="s">
-        <v>1778</v>
+        <v>1807</v>
       </c>
       <c r="AA47">
         <v>12.063750000000001</v>
@@ -34138,7 +34138,7 @@
         <v>2420</v>
       </c>
       <c r="Z48" t="s">
-        <v>1792</v>
+        <v>1769</v>
       </c>
       <c r="AA48">
         <v>13.8675</v>
@@ -39891,7 +39891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F09EA1D-4FBA-453D-905A-DD48DAC64190}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293EBC44-4849-423E-9942-7EE1C936FA00}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41711,7 +41711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E94E33-5A05-407C-812E-B60B1F578854}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A00DE15-2D8F-4AFB-A7DC-F6A0B0D68100}">
   <dimension ref="B2:M317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -42979,7 +42979,7 @@
         <v>2520</v>
       </c>
       <c r="C42" t="s">
-        <v>1357</v>
+        <v>1477</v>
       </c>
       <c r="D42" t="s">
         <v>2521</v>
@@ -43014,7 +43014,7 @@
         <v>2521</v>
       </c>
       <c r="D43" t="s">
-        <v>1357</v>
+        <v>1477</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -44006,7 +44006,7 @@
         <v>2584</v>
       </c>
       <c r="D74" t="s">
-        <v>1495</v>
+        <v>1431</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -44035,7 +44035,7 @@
         <v>2585</v>
       </c>
       <c r="C75" t="s">
-        <v>1495</v>
+        <v>1431</v>
       </c>
       <c r="D75" t="s">
         <v>2584</v>
@@ -44451,7 +44451,7 @@
         <v>2610</v>
       </c>
       <c r="C88" t="s">
-        <v>1572</v>
+        <v>1642</v>
       </c>
       <c r="D88" t="s">
         <v>2611</v>
@@ -44486,7 +44486,7 @@
         <v>2611</v>
       </c>
       <c r="D89" t="s">
-        <v>1572</v>
+        <v>1642</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -45603,7 +45603,7 @@
         <v>2681</v>
       </c>
       <c r="C124" t="s">
-        <v>1449</v>
+        <v>1457</v>
       </c>
       <c r="D124" t="s">
         <v>2682</v>
@@ -45638,7 +45638,7 @@
         <v>2682</v>
       </c>
       <c r="D125" t="s">
-        <v>1449</v>
+        <v>1457</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -47078,7 +47078,7 @@
         <v>2772</v>
       </c>
       <c r="D170" t="s">
-        <v>1647</v>
+        <v>1562</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -47107,7 +47107,7 @@
         <v>2773</v>
       </c>
       <c r="C171" t="s">
-        <v>1647</v>
+        <v>1562</v>
       </c>
       <c r="D171" t="s">
         <v>2772</v>
@@ -47331,7 +47331,7 @@
         <v>2786</v>
       </c>
       <c r="C178" t="s">
-        <v>1525</v>
+        <v>1349</v>
       </c>
       <c r="D178" t="s">
         <v>2787</v>
@@ -47366,7 +47366,7 @@
         <v>2787</v>
       </c>
       <c r="D179" t="s">
-        <v>1525</v>
+        <v>1349</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -47846,7 +47846,7 @@
         <v>2818</v>
       </c>
       <c r="D194" t="s">
-        <v>1373</v>
+        <v>1455</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -47875,7 +47875,7 @@
         <v>2819</v>
       </c>
       <c r="C195" t="s">
-        <v>1373</v>
+        <v>1455</v>
       </c>
       <c r="D195" t="s">
         <v>2818</v>
@@ -48035,7 +48035,7 @@
         <v>2828</v>
       </c>
       <c r="C200" t="s">
-        <v>1595</v>
+        <v>1411</v>
       </c>
       <c r="D200" t="s">
         <v>2829</v>
@@ -48070,7 +48070,7 @@
         <v>2829</v>
       </c>
       <c r="D201" t="s">
-        <v>1595</v>
+        <v>1411</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -49190,7 +49190,7 @@
         <v>2900</v>
       </c>
       <c r="D236" t="s">
-        <v>1497</v>
+        <v>1433</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -49219,7 +49219,7 @@
         <v>2901</v>
       </c>
       <c r="C237" t="s">
-        <v>1497</v>
+        <v>1433</v>
       </c>
       <c r="D237" t="s">
         <v>2900</v>
@@ -49958,7 +49958,7 @@
         <v>2947</v>
       </c>
       <c r="D260" t="s">
-        <v>1474</v>
+        <v>1610</v>
       </c>
       <c r="E260">
         <v>1</v>
@@ -49987,7 +49987,7 @@
         <v>2948</v>
       </c>
       <c r="C261" t="s">
-        <v>1474</v>
+        <v>1610</v>
       </c>
       <c r="D261" t="s">
         <v>2947</v>
@@ -51750,7 +51750,7 @@
         <v>3056</v>
       </c>
       <c r="D316" t="s">
-        <v>1335</v>
+        <v>1684</v>
       </c>
       <c r="E316">
         <v>1</v>
@@ -51779,7 +51779,7 @@
         <v>3057</v>
       </c>
       <c r="C317" t="s">
-        <v>1335</v>
+        <v>1684</v>
       </c>
       <c r="D317" t="s">
         <v>3056</v>

--- a/VerveStacks_DEU_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_DEU_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA26DF38-289C-4D8D-AE69-8E81F39F0E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E2D30B5-BFCE-4F97-8825-D73FAA314D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2960,18 +2960,402 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_solelc_won-DEU_0128</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_128</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0001</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_1</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0184</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_184</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0085</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_85</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0071</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_71</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0138</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_138</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0087</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_87</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0049</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_49</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0041</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_41</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0133</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_133</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0134</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_134</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0060</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_60</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0108</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_108</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0148</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_148</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0178</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_178</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0072</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_72</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_4</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0144</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_144</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0177</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_177</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0075</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_75</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0106</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_106</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0039</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_39</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0162</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_162</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0167</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_167</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_6</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_9</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0062</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_62</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0028</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_28</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_13</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0093</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_93</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0080</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_80</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0055</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_55</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0101</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_101</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0059</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_59</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0091</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_91</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_19</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0147</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_147</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0171</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_171</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0040</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_40</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0018</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_18</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0073</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_73</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0104</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_104</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0131</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_131</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0064</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_64</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0186</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_186</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0105</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_105</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0088</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_88</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0089</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_89</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_23</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0137</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_137</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0036</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_36</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0188</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_188</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0061</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_61</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0113</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_113</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0014</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_14</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0026</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_26</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0065</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_65</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0132</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_132</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0048</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_48</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0031</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_31</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0030</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_30</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0173</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_173</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0033</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_33</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0135</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_135</t>
+  </si>
+  <si>
     <t>distr_solelc_won-DEU_0130</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell DEU_130</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
     <t>distr_solelc_won-DEU_0159</t>
   </si>
   <si>
@@ -3056,6 +3440,324 @@
     <t>connecting solar and wind to buses in grid cell DEU_94</t>
   </si>
   <si>
+    <t>distr_solelc_won-DEU_0111</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_111</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0003</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_3</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0056</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_56</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0150</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_150</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0032</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_32</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0025</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_25</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0160</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_160</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0109</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_109</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0164</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_164</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_22</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0096</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_96</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0153</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_153</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0168</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_168</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0180</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_180</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0079</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_79</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0176</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_176</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0017</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_17</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0046</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_46</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0123</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_123</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0097</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_97</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0185</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_185</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0172</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_172</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0141</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_141</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0149</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_149</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0035</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_35</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0066</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_66</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0043</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_43</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0175</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_175</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0114</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_114</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0069</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_69</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0179</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_179</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0050</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_50</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0124</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_124</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0045</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_45</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0156</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_156</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0129</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_129</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_20</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0052</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_52</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0053</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_53</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0181</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_181</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0127</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_127</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0042</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_42</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0076</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_76</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0155</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_155</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0103</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_103</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_2</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0118</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_118</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0142</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_142</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0037</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_37</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0166</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_166</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0119</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_119</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0187</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_187</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0115</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_115</t>
+  </si>
+  <si>
     <t>distr_solelc_won-DEU_0084</t>
   </si>
   <si>
@@ -3134,312 +3836,6 @@
     <t>connecting solar and wind to buses in grid cell DEU_107</t>
   </si>
   <si>
-    <t>distr_solelc_won-DEU_0128</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_128</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0001</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_1</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0184</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_184</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0085</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_85</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0071</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_71</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0138</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_138</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0087</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_87</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0180</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_180</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0079</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_79</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0176</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_176</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0017</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_17</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0046</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_46</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0123</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_123</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0097</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_97</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0185</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_185</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0172</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_172</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0141</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_141</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0149</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_149</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0035</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_35</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0049</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_49</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0041</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_41</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0133</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_133</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0134</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_134</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0060</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_60</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0108</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_108</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0148</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_148</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0178</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_178</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0072</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_72</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0127</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_127</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0042</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_42</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0076</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_76</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0155</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_155</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0103</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_103</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_2</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0118</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_118</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0142</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_142</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0037</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_37</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0166</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_166</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0119</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_119</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0187</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_187</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0115</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_115</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_4</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0144</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_144</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0177</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_177</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0075</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_75</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0106</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_106</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0039</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_39</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0162</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_162</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0167</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_167</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_6</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_9</t>
-  </si>
-  <si>
     <t>distr_solelc_won-DEU_0063</t>
   </si>
   <si>
@@ -3494,64 +3890,154 @@
     <t>connecting solar and wind to buses in grid cell DEU_54</t>
   </si>
   <si>
-    <t>distr_solelc_won-DEU_0014</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_14</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0026</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_26</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0065</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_65</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0132</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_132</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0048</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_48</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0031</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_31</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0030</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_30</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0173</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_173</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0033</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_33</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0135</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_135</t>
+    <t>distr_solelc_won-DEU_0029</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_29</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0000</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_0</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0057</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_57</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0163</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_163</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0099</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_99</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0016</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_16</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0152</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_152</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0151</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_151</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0102</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_102</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0010</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_10</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0122</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_122</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0011</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_11</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0008</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_8</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0169</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_169</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0092</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_92</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0095</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_95</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0015</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_15</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0183</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_183</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0112</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_112</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0078</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_78</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0012</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_12</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0126</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_126</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0007</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_7</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0157</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_157</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0083</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_83</t>
   </si>
   <si>
     <t>distr_solelc_won-DEU_0067</t>
@@ -3608,495 +4094,390 @@
     <t>connecting solar and wind to buses in grid cell DEU_158</t>
   </si>
   <si>
-    <t>distr_solelc_won-DEU_0029</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_29</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0000</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_0</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0057</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_57</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0163</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_163</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0099</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_99</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0016</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_16</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0152</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_152</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0151</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_151</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0102</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_102</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0010</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_10</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0122</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_122</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0011</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_11</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0008</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_8</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0169</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_169</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0092</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_92</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0095</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_95</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0062</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_62</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0028</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_28</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_13</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0093</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_93</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0080</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_80</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0055</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_55</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0101</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_101</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0059</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_59</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0091</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_91</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_19</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0147</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_147</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0171</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_171</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0066</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_66</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0043</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_43</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0175</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_175</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0114</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_114</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0069</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_69</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0179</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_179</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0050</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_50</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0124</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_124</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0045</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_45</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0156</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_156</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0129</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_129</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0020</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_20</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0052</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_52</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0053</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_53</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0181</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_181</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0040</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_40</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0018</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_18</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0073</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_73</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0104</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_104</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0131</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_131</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0064</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_64</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0186</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_186</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0105</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_105</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0088</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_88</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0089</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_89</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_23</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0137</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_137</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0036</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_36</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0188</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_188</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0061</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_61</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0113</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_113</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0111</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_111</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0003</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_3</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0056</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_56</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0150</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_150</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0032</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_32</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0025</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_25</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0160</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_160</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0109</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_109</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0164</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_164</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0022</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_22</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0096</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_96</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0153</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_153</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0168</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_168</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0015</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_15</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0183</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_183</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0112</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_112</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0078</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_78</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0012</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_12</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0126</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_126</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0007</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_7</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0157</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_157</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0083</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_83</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
+    <t>elc_won-DEU_0128,elc_spv-DEU_0128</t>
+  </si>
+  <si>
+    <t>e_DE151-220,e_w1086825107-220,e_w1086825107-380,e_w148211527-380,e_w156673637-220,e_w156673637-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0001,elc_spv-DEU_0001</t>
+  </si>
+  <si>
+    <t>e_DE164-220,e_DE167-380,e_DE170-380,e_DE172-220,e_DE172-380,e_DE173-220,e_w145680894-220,e_w151967290-220,e_w151967290-380,e_w151967291-220,e_w151967291-380,e_w89176939-220,e_w89176956-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0184,elc_spv-DEU_0184</t>
+  </si>
+  <si>
+    <t>e_DE46-380,e_w52983550-380,e_w941198517-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0085,elc_spv-DEU_0085</t>
+  </si>
+  <si>
+    <t>e_DE7-220,e_DE8-380,e_w1107961833-380,e_w22720647-220,e_w22720647-380,e_w25306938-380,e_w28008024-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0071,elc_spv-DEU_0071</t>
+  </si>
+  <si>
+    <t>e_w31131320-220,e_w31131320-380,e_w31131325-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0138,elc_spv-DEU_0138</t>
+  </si>
+  <si>
+    <t>e_w75865676-220,e_w91080806-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0087,elc_spv-DEU_0087</t>
+  </si>
+  <si>
+    <t>e_w907539360-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0049,elc_spv-DEU_0049</t>
+  </si>
+  <si>
+    <t>e_DE17-380,e_w24493551-380,e_w44717036-380,e_w871646309-380,e_w951273401-380,e_w951773852-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0041,elc_spv-DEU_0041</t>
+  </si>
+  <si>
+    <t>e_DE174-220,e_DE176-220,e_DE178-380,e_DE180-220,e_DE181-380,e_DE182-380,e_r17591073-220,e_w152924498-220,e_w152924498-380,e_w152924508-220,e_w152973139-220,e_w152973139-380,e_w156676050-220,e_w160929097-220,e_w207248812-220,e_w207248812-380,e_w259561755-380,e_w409305507-220,e_w46584363-220,e_w46584363-380,e_w48057110-380,e_w600395952-220,e_w600395952-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0133,elc_spv-DEU_0133</t>
+  </si>
+  <si>
+    <t>e_DE18-220,e_DE18-380,e_DE19-380,e_w59707532-220,e_w59707532-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0134,elc_spv-DEU_0134</t>
+  </si>
+  <si>
+    <t>e_w234171369-380,e_w274603394-380,e_w517421342-220,e_w517421342-380,e_w851299584-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0060,elc_spv-DEU_0060</t>
+  </si>
+  <si>
+    <t>e_w23881272-220,e_w24042358-380,e_w42372159-380,e_w42410916-220,e_w42410916-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0108,elc_spv-DEU_0108</t>
+  </si>
+  <si>
+    <t>e_w24705761-220,e_w24705761-380,e_w28613721-380,e_w954971276-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0148,elc_spv-DEU_0148</t>
+  </si>
+  <si>
+    <t>e_w40621568-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0178,elc_spv-DEU_0178</t>
+  </si>
+  <si>
+    <t>e_w1091984573-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0072,elc_spv-DEU_0072</t>
+  </si>
+  <si>
+    <t>e_w41389594-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0004,elc_spv-DEU_0004</t>
+  </si>
+  <si>
+    <t>e_DE106-220,e_DE107-220,e_DE107-380,e_DE110-220,e_DE110-380,e_DE112-380,e_DE113-220,e_DE114-380,e_DE117-380,e_DE125-220,e_DE125-380,e_DE127-380,e_DE128-380,e_DE131-220,e_DE133-380,e_w1040551074-220,e_w188276460-220,e_w188276460-380,e_w23084554-220,e_w23084554-380,e_w24267175-220,e_w24479984-220,e_w24479984-380,e_w24799890-220,e_w24799890-380,e_w24815262-220,e_w24839976-220,e_w24839976-380,e_w26927264-380,e_w27919734-220,e_w27919734-380,e_w31762305-220,e_w49577401-220,e_w49577401-380,e_w91854336-220,e_w91854336-380,e_w92877635-220,e_w93278553-220,e_w95434457-220,e_w95434457-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0144,elc_spv-DEU_0144</t>
+  </si>
+  <si>
+    <t>e_DE142-380,e_w167352587-220,e_w173112252-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0177,elc_spv-DEU_0177</t>
+  </si>
+  <si>
+    <t>e_w1222597066-220,e_w1222597066-380,e_w30039908-220,e_w30039908-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0075,elc_spv-DEU_0075</t>
+  </si>
+  <si>
+    <t>e_w143854536-380,e_w31653753-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0106,elc_spv-DEU_0106</t>
+  </si>
+  <si>
+    <t>e_w18629425-220,e_w18629425-380,e_w53378027-380,e_w76246159-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0039,elc_spv-DEU_0039</t>
+  </si>
+  <si>
+    <t>e_w26814283-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0162,elc_spv-DEU_0162</t>
+  </si>
+  <si>
+    <t>e_w29331499-220,e_w29331499-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0167,elc_spv-DEU_0167</t>
+  </si>
+  <si>
+    <t>e_w946710698-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0006,elc_spv-DEU_0006</t>
+  </si>
+  <si>
+    <t>e_DE62-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0009,elc_spv-DEU_0009</t>
+  </si>
+  <si>
+    <t>e_w156402422-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0062,elc_spv-DEU_0062</t>
+  </si>
+  <si>
+    <t>e_DE121-380,e_w156673636-380,e_w41072584-380,e_w41232144-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0028,elc_spv-DEU_0028</t>
+  </si>
+  <si>
+    <t>e_DE135-220,e_DE137-220,e_DE137-380,e_DE140-380,e_DE143-380,e_DE145-220,e_DE147-380,e_DE148-220,e_DE148-380,e_DE150-380,e_w152403632-220,e_w152403632-380,e_w89043564-220,e_w89043564-380,e_w90148336-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0013,elc_spv-DEU_0013</t>
+  </si>
+  <si>
+    <t>e_DE138-220,e_DE138-380,e_DE139-220,e_DE139-380,e_DE144-380,e_DE153-380,e_DE154-380,e_w22765517-220,e_w22765517-380,e_w22766160-220,e_w22766160-380,e_w22767509-220,e_w22767509-380,e_w22796434-220,e_w26777313-380,e_w29374542-220,e_w32148946-220,e_w42423415-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0093,elc_spv-DEU_0093</t>
+  </si>
+  <si>
+    <t>e_DE163-220,e_w108797675-380,e_w24758329-380,e_w499165542-220,e_w499165542-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0080,elc_spv-DEU_0080</t>
+  </si>
+  <si>
+    <t>e_DE59-220,e_DE60-220,e_w952004951-220,e_w952004951-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0055,elc_spv-DEU_0055</t>
+  </si>
+  <si>
+    <t>e_w102743264-220,e_w25306752-220,e_w25306752-380,e_w31367936-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0101,elc_spv-DEU_0101</t>
+  </si>
+  <si>
+    <t>e_w1089911133-380,e_w23583867-380,e_w28327356-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0059,elc_spv-DEU_0059</t>
+  </si>
+  <si>
+    <t>e_w145002769-380,e_w55069713-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0091,elc_spv-DEU_0091</t>
+  </si>
+  <si>
+    <t>e_w38325076-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0019,elc_spv-DEU_0019</t>
+  </si>
+  <si>
+    <t>e_w559702819-220,e_w559702819-380,e_w672738029-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0147,elc_spv-DEU_0147</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0171,elc_spv-DEU_0171</t>
+  </si>
+  <si>
+    <t>e_w942771541-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0040,elc_spv-DEU_0040</t>
+  </si>
+  <si>
+    <t>e_DE183-220,e_w152261133-220,e_w152261133-380,e_w254326606-380,e_w32151621-220,e_w32725957-220,e_w32725958-220,e_w32731290-220,e_w32966636-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0018,elc_spv-DEU_0018</t>
+  </si>
+  <si>
+    <t>e_DE20-380,e_w1280840211-380,e_w142487746-380,e_w206289192-380,e_w32042992-380,e_w797009308-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0073,elc_spv-DEU_0073</t>
+  </si>
+  <si>
+    <t>e_DE202-220,e_DE202-380,e_DE205-220,e_DE205-380,e_w26404600-380,e_w41389594-220,e_w41389594-380,e_w85523877-220,e_w85523877-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0104,elc_spv-DEU_0104</t>
+  </si>
+  <si>
+    <t>e_DE211-220,e_DE212-220,e_w68532663-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0131,elc_spv-DEU_0131</t>
+  </si>
+  <si>
+    <t>e_DE47-220,e_w26472665-220,e_w26472665-380,e_w943939310-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0064,elc_spv-DEU_0064</t>
+  </si>
+  <si>
+    <t>e_DE49-380,e_w23135618-220,e_w24413992-380,e_w28397771-220,e_w288305056-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0186,elc_spv-DEU_0186</t>
+  </si>
+  <si>
+    <t>e_w170123812-220,e_w170123812-380,e_w170123812-400</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0105,elc_spv-DEU_0105</t>
+  </si>
+  <si>
+    <t>e_w23907283-380,e_w24237879-220,e_w30613895-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0088,elc_spv-DEU_0088</t>
+  </si>
+  <si>
+    <t>e_w57727004-220,e_w57727004-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0089,elc_spv-DEU_0089</t>
+  </si>
+  <si>
+    <t>e_w683227471-380,e_w77038371-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0023,elc_spv-DEU_0023</t>
+  </si>
+  <si>
+    <t>e_w82130902-225,e_w933248930-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0137,elc_spv-DEU_0137</t>
+  </si>
+  <si>
+    <t>e_w75865676-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0036,elc_spv-DEU_0036</t>
+  </si>
+  <si>
+    <t>e_w29420322-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0188,elc_spv-DEU_0188</t>
+  </si>
+  <si>
+    <t>e_w1222597066-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0061,elc_spv-DEU_0061</t>
+  </si>
+  <si>
+    <t>e_w156673636-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0113,elc_spv-DEU_0113</t>
+  </si>
+  <si>
+    <t>e_w32690742-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0014,elc_spv-DEU_0014</t>
+  </si>
+  <si>
+    <t>e_DE105-220,e_DE111-380,e_DE118-220,e_DE122-220,e_DE124-380,e_DE126-220,e_DE129-220,e_DE130-380,e_w106096507-380,e_w1118059105-220,e_w22690852-220,e_w22761692-220,e_w22761692-380,e_w22761839-220,e_w22761839-380,e_w23140544-220,e_w23192640-220,e_w25043127-380,e_w25044557-380,e_w27871140-220,e_w33816726-380,e_w87767098-380,e_w92165128-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0026,elc_spv-DEU_0026</t>
+  </si>
+  <si>
+    <t>e_DE166-220,e_DE171-220,e_w198448981-380,e_w373967500-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0065,elc_spv-DEU_0065</t>
+  </si>
+  <si>
+    <t>e_DE28-380,e_w202164315-380,e_w24604789-380,e_w27739871-220,e_w27739871-380,e_w953015049-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0132,elc_spv-DEU_0132</t>
+  </si>
+  <si>
+    <t>e_DE29-220,e_w33169401-220,e_w33169401-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0048,elc_spv-DEU_0048</t>
+  </si>
+  <si>
+    <t>e_DE30-220,e_DE30-380,e_DE32-220,e_DE33-380,e_DE34-380,e_DE35-220,e_DE35-380,e_w32904794-380,e_w33411203-220,e_w33411203-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0031,elc_spv-DEU_0031</t>
+  </si>
+  <si>
+    <t>e_DE37-220,e_DE38-220,e_DE53-380,e_DE56-380,e_w111973179-220,e_w114319248-220,e_w114319248-380,e_w25506770-380,e_w29472852-220,e_w29472852-380,e_w37764852-220,e_w37764852-380,e_w42861703-220,e_w42861703-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0030,elc_spv-DEU_0030</t>
+  </si>
+  <si>
+    <t>e_DE61-380,e_DE64-220,e_DE65-380,e_DE71-220,e_DE85-380,e_DE88-380,e_DE91-380,e_w112695048-380,e_w157628351-380,e_w24414688-220,e_w24667346-220,e_w24667346-380,e_w24858617-220,e_w42488850-380,e_w42507488-220,e_w42507488-380,e_w42560068-380,e_w42809973-380,e_w51940126-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0173,elc_spv-DEU_0173</t>
+  </si>
+  <si>
+    <t>e_w1068350839-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0033,elc_spv-DEU_0033</t>
+  </si>
+  <si>
+    <t>e_w50643382-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0135,elc_spv-DEU_0135</t>
+  </si>
+  <si>
+    <t>e_w234171369-380</t>
+  </si>
+  <si>
     <t>elc_won-DEU_0130,elc_spv-DEU_0130</t>
   </si>
   <si>
@@ -4187,6 +4568,315 @@
     <t>e_DE163-220</t>
   </si>
   <si>
+    <t>elc_won-DEU_0111,elc_spv-DEU_0111</t>
+  </si>
+  <si>
+    <t>e_DE134-380,e_w149256409-380,e_w152219167-220,e_w25746125-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0003,elc_spv-DEU_0003</t>
+  </si>
+  <si>
+    <t>e_DE136-380,e_DE141-380,e_w24268944-380,e_w25426571-380,e_w25992879-380,e_w26593935-380,e_w870598507,e_w870598507-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0056,elc_spv-DEU_0056</t>
+  </si>
+  <si>
+    <t>e_DE195-380,e_DE196-380,e_DE197-380,e_DE198-380,e_DE199-380,e_w26260052-380,e_w30734324-380,e_w42736239-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0150,elc_spv-DEU_0150</t>
+  </si>
+  <si>
+    <t>e_DE9-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0032,elc_spv-DEU_0032</t>
+  </si>
+  <si>
+    <t>e_w150200540-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0025,elc_spv-DEU_0025</t>
+  </si>
+  <si>
+    <t>e_w152107815-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0160,elc_spv-DEU_0160</t>
+  </si>
+  <si>
+    <t>e_w157328339-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0109,elc_spv-DEU_0109</t>
+  </si>
+  <si>
+    <t>e_w24757393-380,e_w24757833-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0164,elc_spv-DEU_0164</t>
+  </si>
+  <si>
+    <t>e_w518455594-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0022,elc_spv-DEU_0022</t>
+  </si>
+  <si>
+    <t>e_w87653464-220,e_w87653464-380,e_w87653464-400</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0096,elc_spv-DEU_0096</t>
+  </si>
+  <si>
+    <t>e_w948341123-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0153,elc_spv-DEU_0153</t>
+  </si>
+  <si>
+    <t>e_w91080806-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0168,elc_spv-DEU_0168</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0180,elc_spv-DEU_0180</t>
+  </si>
+  <si>
+    <t>e_DE1-220,e_DE2-220,e_DE3-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0079,elc_spv-DEU_0079</t>
+  </si>
+  <si>
+    <t>e_DE108-220,e_w156960655-380,e_w172997498-220,e_w456386244-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0176,elc_spv-DEU_0176</t>
+  </si>
+  <si>
+    <t>e_DE16-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0017,elc_spv-DEU_0017</t>
+  </si>
+  <si>
+    <t>e_DE31-380,e_w61918154-220,e_w61918154-380,e_w796306640-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0046,elc_spv-DEU_0046</t>
+  </si>
+  <si>
+    <t>e_DE63-220,e_DE94-380,e_DE95-380,e_w25943440-220,e_w25943440-380,e_w42797575-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0123,elc_spv-DEU_0123</t>
+  </si>
+  <si>
+    <t>e_w133342285-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0097,elc_spv-DEU_0097</t>
+  </si>
+  <si>
+    <t>e_w157164284-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0185,elc_spv-DEU_0185</t>
+  </si>
+  <si>
+    <t>e_w414169327-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0172,elc_spv-DEU_0172</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0141,elc_spv-DEU_0141</t>
+  </si>
+  <si>
+    <t>e_w28956649-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0149,elc_spv-DEU_0149</t>
+  </si>
+  <si>
+    <t>e_w851299584-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0035,elc_spv-DEU_0035</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0066,elc_spv-DEU_0066</t>
+  </si>
+  <si>
+    <t>e_DE15-220,e_w229565743-220,e_w28812249-220,e_w955268863-220,e_w955268863-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0043,elc_spv-DEU_0043</t>
+  </si>
+  <si>
+    <t>e_DE159-380,e_DE160-220,e_DE161-380,e_DE162-380,e_w169244940-220,e_w169244940-380,e_w23641079-220,e_w23641079-380,e_w38661452-380,e_w4826893-220,e_w62061952-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0175,elc_spv-DEU_0175</t>
+  </si>
+  <si>
+    <t>e_DE22-220,e_DE22-380,e_DE23-220,e_DE23-380,e_DE24-220,e_DE24-380,e_DE26-380,e_DE27-220,e_DE27-380,e_w22973052-220,e_w22973070-220,e_w22973070-380,e_w30954714-380,e_w940636813-220,e_w940636813-380,e_w942448206-220,e_w942448206-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0114,elc_spv-DEU_0114</t>
+  </si>
+  <si>
+    <t>e_DE44-380,e_w26474759-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0069,elc_spv-DEU_0069</t>
+  </si>
+  <si>
+    <t>e_w1071504343-380,e_w603661085-380,e_w907539360-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0179,elc_spv-DEU_0179</t>
+  </si>
+  <si>
+    <t>e_w1091984573-220,e_w1091984573-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0050,elc_spv-DEU_0050</t>
+  </si>
+  <si>
+    <t>e_w1134105414-380,e_w157421333-220,e_w266684854-380,e_w32076853-220,e_w32076853-380,e_w42872354-220,e_w829116805-220,e_w829116805-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0124,elc_spv-DEU_0124</t>
+  </si>
+  <si>
+    <t>e_w137602559-220,e_w137602559-380,e_w24759324-220,e_w24768051-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0045,elc_spv-DEU_0045</t>
+  </si>
+  <si>
+    <t>e_w42799487-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0156,elc_spv-DEU_0156</t>
+  </si>
+  <si>
+    <t>e_w78441561-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0129,elc_spv-DEU_0129</t>
+  </si>
+  <si>
+    <t>e_w29713902-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0020,elc_spv-DEU_0020</t>
+  </si>
+  <si>
+    <t>e_w559702819-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0052,elc_spv-DEU_0052</t>
+  </si>
+  <si>
+    <t>e_w603661085-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0053,elc_spv-DEU_0053</t>
+  </si>
+  <si>
+    <t>e_w946969736-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0181,elc_spv-DEU_0181</t>
+  </si>
+  <si>
+    <t>e_w941805476-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0127,elc_spv-DEU_0127</t>
+  </si>
+  <si>
+    <t>e_DE157-380,e_DE158-380,e_w93341407-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0042,elc_spv-DEU_0042</t>
+  </si>
+  <si>
+    <t>e_DE165-380,e_DE168-380,e_w1223405794-220,e_w1223405794-380,e_w147521567-220,e_w147521567-380,e_w149987048-220,e_w149987048-380,e_w23284340-220,e_w23284340-380,e_w24685992-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0076,elc_spv-DEU_0076</t>
+  </si>
+  <si>
+    <t>e_DE169-220,e_w24765111-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0155,elc_spv-DEU_0155</t>
+  </si>
+  <si>
+    <t>e_DE201-220,e_DE203-220,e_DE204-220,e_DE206-220,e_w24976300-220,e_w24976300-380,e_w91086220-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0103,elc_spv-DEU_0103</t>
+  </si>
+  <si>
+    <t>e_DE4-220,e_w27124619-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0002,elc_spv-DEU_0002</t>
+  </si>
+  <si>
+    <t>e_w1024536785-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0118,elc_spv-DEU_0118</t>
+  </si>
+  <si>
+    <t>e_w275466323,e_w275466323-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0142,elc_spv-DEU_0142</t>
+  </si>
+  <si>
+    <t>e_w29084374-220,e_w29084374-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0037,elc_spv-DEU_0037</t>
+  </si>
+  <si>
+    <t>e_w31367940-220,e_w31367940-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0166,elc_spv-DEU_0166</t>
+  </si>
+  <si>
+    <t>e_w39688875-220,e_w515358077-380,e_w941453716-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0119,elc_spv-DEU_0119</t>
+  </si>
+  <si>
+    <t>e_w275466323-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0187,elc_spv-DEU_0187</t>
+  </si>
+  <si>
+    <t>e_w170123812-400</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0115,elc_spv-DEU_0115</t>
+  </si>
+  <si>
+    <t>e_w26474759-380</t>
+  </si>
+  <si>
     <t>elc_won-DEU_0084,elc_spv-DEU_0084</t>
   </si>
   <si>
@@ -4238,9 +4928,6 @@
     <t>elc_won-DEU_0182,elc_spv-DEU_0182</t>
   </si>
   <si>
-    <t>e_w941805476-380</t>
-  </si>
-  <si>
     <t>elc_won-DEU_0165,elc_spv-DEU_0165</t>
   </si>
   <si>
@@ -4265,312 +4952,6 @@
     <t>e_w24768051-220</t>
   </si>
   <si>
-    <t>elc_won-DEU_0128,elc_spv-DEU_0128</t>
-  </si>
-  <si>
-    <t>e_DE151-220,e_w1086825107-220,e_w1086825107-380,e_w148211527-380,e_w156673637-220,e_w156673637-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0001,elc_spv-DEU_0001</t>
-  </si>
-  <si>
-    <t>e_DE164-220,e_DE167-380,e_DE170-380,e_DE172-220,e_DE172-380,e_DE173-220,e_w145680894-220,e_w151967290-220,e_w151967290-380,e_w151967291-220,e_w151967291-380,e_w89176939-220,e_w89176956-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0184,elc_spv-DEU_0184</t>
-  </si>
-  <si>
-    <t>e_DE46-380,e_w52983550-380,e_w941198517-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0085,elc_spv-DEU_0085</t>
-  </si>
-  <si>
-    <t>e_DE7-220,e_DE8-380,e_w1107961833-380,e_w22720647-220,e_w22720647-380,e_w25306938-380,e_w28008024-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0071,elc_spv-DEU_0071</t>
-  </si>
-  <si>
-    <t>e_w31131320-220,e_w31131320-380,e_w31131325-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0138,elc_spv-DEU_0138</t>
-  </si>
-  <si>
-    <t>e_w75865676-220,e_w91080806-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0087,elc_spv-DEU_0087</t>
-  </si>
-  <si>
-    <t>e_w907539360-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0180,elc_spv-DEU_0180</t>
-  </si>
-  <si>
-    <t>e_DE1-220,e_DE2-220,e_DE3-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0079,elc_spv-DEU_0079</t>
-  </si>
-  <si>
-    <t>e_DE108-220,e_w156960655-380,e_w172997498-220,e_w456386244-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0176,elc_spv-DEU_0176</t>
-  </si>
-  <si>
-    <t>e_DE16-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0017,elc_spv-DEU_0017</t>
-  </si>
-  <si>
-    <t>e_DE31-380,e_w61918154-220,e_w61918154-380,e_w796306640-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0046,elc_spv-DEU_0046</t>
-  </si>
-  <si>
-    <t>e_DE63-220,e_DE94-380,e_DE95-380,e_w25943440-220,e_w25943440-380,e_w42797575-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0123,elc_spv-DEU_0123</t>
-  </si>
-  <si>
-    <t>e_w133342285-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0097,elc_spv-DEU_0097</t>
-  </si>
-  <si>
-    <t>e_w157164284-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0185,elc_spv-DEU_0185</t>
-  </si>
-  <si>
-    <t>e_w414169327-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0172,elc_spv-DEU_0172</t>
-  </si>
-  <si>
-    <t>e_w942771541-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0141,elc_spv-DEU_0141</t>
-  </si>
-  <si>
-    <t>e_w28956649-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0149,elc_spv-DEU_0149</t>
-  </si>
-  <si>
-    <t>e_w851299584-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0035,elc_spv-DEU_0035</t>
-  </si>
-  <si>
-    <t>e_w29420322-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0049,elc_spv-DEU_0049</t>
-  </si>
-  <si>
-    <t>e_DE17-380,e_w24493551-380,e_w44717036-380,e_w871646309-380,e_w951273401-380,e_w951773852-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0041,elc_spv-DEU_0041</t>
-  </si>
-  <si>
-    <t>e_DE174-220,e_DE176-220,e_DE178-380,e_DE180-220,e_DE181-380,e_DE182-380,e_r17591073-220,e_w152924498-220,e_w152924498-380,e_w152924508-220,e_w152973139-220,e_w152973139-380,e_w156676050-220,e_w160929097-220,e_w207248812-220,e_w207248812-380,e_w259561755-380,e_w409305507-220,e_w46584363-220,e_w46584363-380,e_w48057110-380,e_w600395952-220,e_w600395952-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0133,elc_spv-DEU_0133</t>
-  </si>
-  <si>
-    <t>e_DE18-220,e_DE18-380,e_DE19-380,e_w59707532-220,e_w59707532-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0134,elc_spv-DEU_0134</t>
-  </si>
-  <si>
-    <t>e_w234171369-380,e_w274603394-380,e_w517421342-220,e_w517421342-380,e_w851299584-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0060,elc_spv-DEU_0060</t>
-  </si>
-  <si>
-    <t>e_w23881272-220,e_w24042358-380,e_w42372159-380,e_w42410916-220,e_w42410916-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0108,elc_spv-DEU_0108</t>
-  </si>
-  <si>
-    <t>e_w24705761-220,e_w24705761-380,e_w28613721-380,e_w954971276-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0148,elc_spv-DEU_0148</t>
-  </si>
-  <si>
-    <t>e_w40621568-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0178,elc_spv-DEU_0178</t>
-  </si>
-  <si>
-    <t>e_w1091984573-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0072,elc_spv-DEU_0072</t>
-  </si>
-  <si>
-    <t>e_w41389594-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0127,elc_spv-DEU_0127</t>
-  </si>
-  <si>
-    <t>e_DE157-380,e_DE158-380,e_w93341407-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0042,elc_spv-DEU_0042</t>
-  </si>
-  <si>
-    <t>e_DE165-380,e_DE168-380,e_w1223405794-220,e_w1223405794-380,e_w147521567-220,e_w147521567-380,e_w149987048-220,e_w149987048-380,e_w23284340-220,e_w23284340-380,e_w24685992-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0076,elc_spv-DEU_0076</t>
-  </si>
-  <si>
-    <t>e_DE169-220,e_w24765111-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0155,elc_spv-DEU_0155</t>
-  </si>
-  <si>
-    <t>e_DE201-220,e_DE203-220,e_DE204-220,e_DE206-220,e_w24976300-220,e_w24976300-380,e_w91086220-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0103,elc_spv-DEU_0103</t>
-  </si>
-  <si>
-    <t>e_DE4-220,e_w27124619-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0002,elc_spv-DEU_0002</t>
-  </si>
-  <si>
-    <t>e_w1024536785-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0118,elc_spv-DEU_0118</t>
-  </si>
-  <si>
-    <t>e_w275466323,e_w275466323-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0142,elc_spv-DEU_0142</t>
-  </si>
-  <si>
-    <t>e_w29084374-220,e_w29084374-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0037,elc_spv-DEU_0037</t>
-  </si>
-  <si>
-    <t>e_w31367940-220,e_w31367940-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0166,elc_spv-DEU_0166</t>
-  </si>
-  <si>
-    <t>e_w39688875-220,e_w515358077-380,e_w941453716-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0119,elc_spv-DEU_0119</t>
-  </si>
-  <si>
-    <t>e_w275466323-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0187,elc_spv-DEU_0187</t>
-  </si>
-  <si>
-    <t>e_w170123812-400</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0115,elc_spv-DEU_0115</t>
-  </si>
-  <si>
-    <t>e_w26474759-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0004,elc_spv-DEU_0004</t>
-  </si>
-  <si>
-    <t>e_DE106-220,e_DE107-220,e_DE107-380,e_DE110-220,e_DE110-380,e_DE112-380,e_DE113-220,e_DE114-380,e_DE117-380,e_DE125-220,e_DE125-380,e_DE127-380,e_DE128-380,e_DE131-220,e_DE133-380,e_w1040551074-220,e_w188276460-220,e_w188276460-380,e_w23084554-220,e_w23084554-380,e_w24267175-220,e_w24479984-220,e_w24479984-380,e_w24799890-220,e_w24799890-380,e_w24815262-220,e_w24839976-220,e_w24839976-380,e_w26927264-380,e_w27919734-220,e_w27919734-380,e_w31762305-220,e_w49577401-220,e_w49577401-380,e_w91854336-220,e_w91854336-380,e_w92877635-220,e_w93278553-220,e_w95434457-220,e_w95434457-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0144,elc_spv-DEU_0144</t>
-  </si>
-  <si>
-    <t>e_DE142-380,e_w167352587-220,e_w173112252-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0177,elc_spv-DEU_0177</t>
-  </si>
-  <si>
-    <t>e_w1222597066-220,e_w1222597066-380,e_w30039908-220,e_w30039908-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0075,elc_spv-DEU_0075</t>
-  </si>
-  <si>
-    <t>e_w143854536-380,e_w31653753-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0106,elc_spv-DEU_0106</t>
-  </si>
-  <si>
-    <t>e_w18629425-220,e_w18629425-380,e_w53378027-380,e_w76246159-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0039,elc_spv-DEU_0039</t>
-  </si>
-  <si>
-    <t>e_w26814283-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0162,elc_spv-DEU_0162</t>
-  </si>
-  <si>
-    <t>e_w29331499-220,e_w29331499-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0167,elc_spv-DEU_0167</t>
-  </si>
-  <si>
-    <t>e_w946710698-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0006,elc_spv-DEU_0006</t>
-  </si>
-  <si>
-    <t>e_DE62-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0009,elc_spv-DEU_0009</t>
-  </si>
-  <si>
-    <t>e_w156402422-220</t>
-  </si>
-  <si>
     <t>elc_won-DEU_0063,elc_spv-DEU_0063</t>
   </si>
   <si>
@@ -4622,64 +5003,145 @@
     <t>e_w31367936-220</t>
   </si>
   <si>
-    <t>elc_won-DEU_0014,elc_spv-DEU_0014</t>
-  </si>
-  <si>
-    <t>e_DE105-220,e_DE111-380,e_DE118-220,e_DE122-220,e_DE124-380,e_DE126-220,e_DE129-220,e_DE130-380,e_w106096507-380,e_w1118059105-220,e_w22690852-220,e_w22761692-220,e_w22761692-380,e_w22761839-220,e_w22761839-380,e_w23140544-220,e_w23192640-220,e_w25043127-380,e_w25044557-380,e_w27871140-220,e_w33816726-380,e_w87767098-380,e_w92165128-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0026,elc_spv-DEU_0026</t>
-  </si>
-  <si>
-    <t>e_DE166-220,e_DE171-220,e_w198448981-380,e_w373967500-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0065,elc_spv-DEU_0065</t>
-  </si>
-  <si>
-    <t>e_DE28-380,e_w202164315-380,e_w24604789-380,e_w27739871-220,e_w27739871-380,e_w953015049-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0132,elc_spv-DEU_0132</t>
-  </si>
-  <si>
-    <t>e_DE29-220,e_w33169401-220,e_w33169401-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0048,elc_spv-DEU_0048</t>
-  </si>
-  <si>
-    <t>e_DE30-220,e_DE30-380,e_DE32-220,e_DE33-380,e_DE34-380,e_DE35-220,e_DE35-380,e_w32904794-380,e_w33411203-220,e_w33411203-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0031,elc_spv-DEU_0031</t>
-  </si>
-  <si>
-    <t>e_DE37-220,e_DE38-220,e_DE53-380,e_DE56-380,e_w111973179-220,e_w114319248-220,e_w114319248-380,e_w25506770-380,e_w29472852-220,e_w29472852-380,e_w37764852-220,e_w37764852-380,e_w42861703-220,e_w42861703-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0030,elc_spv-DEU_0030</t>
-  </si>
-  <si>
-    <t>e_DE61-380,e_DE64-220,e_DE65-380,e_DE71-220,e_DE85-380,e_DE88-380,e_DE91-380,e_w112695048-380,e_w157628351-380,e_w24414688-220,e_w24667346-220,e_w24667346-380,e_w24858617-220,e_w42488850-380,e_w42507488-220,e_w42507488-380,e_w42560068-380,e_w42809973-380,e_w51940126-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0173,elc_spv-DEU_0173</t>
-  </si>
-  <si>
-    <t>e_w1068350839-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0033,elc_spv-DEU_0033</t>
-  </si>
-  <si>
-    <t>e_w50643382-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0135,elc_spv-DEU_0135</t>
-  </si>
-  <si>
-    <t>e_w234171369-380</t>
+    <t>elc_won-DEU_0029,elc_spv-DEU_0029</t>
+  </si>
+  <si>
+    <t>e_DE109-220,e_DE132-220,e_w132814303-220,e_w83916207-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0000,elc_spv-DEU_0000</t>
+  </si>
+  <si>
+    <t>e_DE175-220,e_DE177-220,e_w82773910-220,e_w82773910-380,e_w82773910-400,e_w89215122-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0057,elc_spv-DEU_0057</t>
+  </si>
+  <si>
+    <t>e_DE184-380,e_DE185-380,e_DE186-380,e_DE187-380,e_DE188-380,e_DE189-380,e_DE190-380,e_DE191-380,e_DE192-380,e_DE193-380,e_w147878692-380,e_w22960899-380,e_w25786404-220,e_w25786404-380,e_w37721677-380,e_w41334805-220,e_w41334805-380,e_w43688805-220,e_w43688805-380,e_w48428875-380,e_w97825259-220,e_w97825259-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0163,elc_spv-DEU_0163</t>
+  </si>
+  <si>
+    <t>e_DE21-220,e_DE25-380,e_w11500045-380,e_w27149550-220,e_w27149550-380,e_w30132758-380,e_w30303506-380,e_w30309989-220,e_w43163132-380,e_w46615737-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0099,elc_spv-DEU_0099</t>
+  </si>
+  <si>
+    <t>e_DE36-220,e_w24258096-380,e_w24272339-380,e_w24272541-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0016,elc_spv-DEU_0016</t>
+  </si>
+  <si>
+    <t>e_DE39-220,e_DE41-380,e_DE45-380,e_DE50-380,e_DE54-380,e_w844075808-380,e_w952346322-380,e_w979801144-220,e_w979801144-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0152,elc_spv-DEU_0152</t>
+  </si>
+  <si>
+    <t>e_DE5-380,e_w32063539-380,e_w32318130-220,e_w940919943</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0151,elc_spv-DEU_0151</t>
+  </si>
+  <si>
+    <t>e_w1094015892-220,e_w1094015892-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0102,elc_spv-DEU_0102</t>
+  </si>
+  <si>
+    <t>e_w1102237380-220,e_w1102237380-380,e_w1191459479-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0010,elc_spv-DEU_0010</t>
+  </si>
+  <si>
+    <t>e_w152018146-220,e_w152018146-380,e_w156402422-220,e_w207756597-220,e_w54359256-220,e_w54359256-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0122,elc_spv-DEU_0122</t>
+  </si>
+  <si>
+    <t>e_w24158385-220,e_w26245195-220,e_w26245195-380,e_w5404079-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0011,elc_spv-DEU_0011</t>
+  </si>
+  <si>
+    <t>e_w42097854-220,e_w42097854-380,e_w66764943-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0008,elc_spv-DEU_0008</t>
+  </si>
+  <si>
+    <t>e_w672738029-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0169,elc_spv-DEU_0169</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0092,elc_spv-DEU_0092</t>
+  </si>
+  <si>
+    <t>e_w24705761-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0095,elc_spv-DEU_0095</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0015,elc_spv-DEU_0015</t>
+  </si>
+  <si>
+    <t>e_DE100-220,e_DE100-380,e_DE102-220,e_DE102-380,e_DE66-220,e_DE66-380,e_DE68-220,e_DE68-380,e_DE69-220,e_DE69-380,e_DE72-220,e_DE75-380,e_DE76-380,e_DE78-220,e_DE80-220,e_DE80-380,e_DE81-220,e_DE82-220,e_DE83-220,e_DE84-220,e_DE86-220,e_DE87-220,e_DE87-380,e_DE89-220,e_DE89-380,e_DE92-220,e_DE96-220,e_DE96-380,e_DE98-220,e_w1076001174-220,e_w1076001174-380,e_w113546939-220,e_w113546939-380,e_w121199242-220,e_w121199242-380,e_w1303270458-220,e_w1303270458-380,e_w150267232-220,e_w156973363-220,e_w22944791-220,e_w22964137-380,e_w23022100-220,e_w23022100-380,e_w23067006-380,e_w24280460-380,e_w24415232-220,e_w24921206-220,e_w24921206-380,e_w25051880-220,e_w26291794-380,e_w275138524-380,e_w28452784-220,e_w29077623-220,e_w29077623-380,e_w311444691-380,e_w32472806-380,e_w35763480-220,e_w35763480-380,e_w38584673-220,e_w425100082-380,e_w59925390-220,e_w59925390-380,e_w63114179-220,e_w63114179-380,e_w66038431-220,e_w68549340-220,e_w68549340-380,e_w698870101-220,e_w787840119-220,e_w799361667-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0183,elc_spv-DEU_0183</t>
+  </si>
+  <si>
+    <t>e_DE58-380,e_DE99-380,e_w157806991-380,e_w30164703-380,e_w58429825-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0112,elc_spv-DEU_0112</t>
+  </si>
+  <si>
+    <t>e_w143882655-220,e_w143882655-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0078,elc_spv-DEU_0078</t>
+  </si>
+  <si>
+    <t>e_w148446247-380,e_w29309786-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0012,elc_spv-DEU_0012</t>
+  </si>
+  <si>
+    <t>e_w154869247-220,e_w395847307-220,e_w395847307-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0126,elc_spv-DEU_0126</t>
+  </si>
+  <si>
+    <t>e_w93341407-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0007,elc_spv-DEU_0007</t>
+  </si>
+  <si>
+    <t>e_w979801144-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0157,elc_spv-DEU_0157</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0083,elc_spv-DEU_0083</t>
+  </si>
+  <si>
+    <t>e_w23816140-220</t>
   </si>
   <si>
     <t>elc_won-DEU_0067,elc_spv-DEU_0067</t>
@@ -4733,466 +5195,70 @@
     <t>e_w166604822-380</t>
   </si>
   <si>
-    <t>elc_won-DEU_0029,elc_spv-DEU_0029</t>
-  </si>
-  <si>
-    <t>e_DE109-220,e_DE132-220,e_w132814303-220,e_w83916207-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0000,elc_spv-DEU_0000</t>
-  </si>
-  <si>
-    <t>e_DE175-220,e_DE177-220,e_w82773910-220,e_w82773910-380,e_w82773910-400,e_w89215122-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0057,elc_spv-DEU_0057</t>
-  </si>
-  <si>
-    <t>e_DE184-380,e_DE185-380,e_DE186-380,e_DE187-380,e_DE188-380,e_DE189-380,e_DE190-380,e_DE191-380,e_DE192-380,e_DE193-380,e_w147878692-380,e_w22960899-380,e_w25786404-220,e_w25786404-380,e_w37721677-380,e_w41334805-220,e_w41334805-380,e_w43688805-220,e_w43688805-380,e_w48428875-380,e_w97825259-220,e_w97825259-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0163,elc_spv-DEU_0163</t>
-  </si>
-  <si>
-    <t>e_DE21-220,e_DE25-380,e_w11500045-380,e_w27149550-220,e_w27149550-380,e_w30132758-380,e_w30303506-380,e_w30309989-220,e_w43163132-380,e_w46615737-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0099,elc_spv-DEU_0099</t>
-  </si>
-  <si>
-    <t>e_DE36-220,e_w24258096-380,e_w24272339-380,e_w24272541-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0016,elc_spv-DEU_0016</t>
-  </si>
-  <si>
-    <t>e_DE39-220,e_DE41-380,e_DE45-380,e_DE50-380,e_DE54-380,e_w844075808-380,e_w952346322-380,e_w979801144-220,e_w979801144-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0152,elc_spv-DEU_0152</t>
-  </si>
-  <si>
-    <t>e_DE5-380,e_w32063539-380,e_w32318130-220,e_w940919943</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0151,elc_spv-DEU_0151</t>
-  </si>
-  <si>
-    <t>e_w1094015892-220,e_w1094015892-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0102,elc_spv-DEU_0102</t>
-  </si>
-  <si>
-    <t>e_w1102237380-220,e_w1102237380-380,e_w1191459479-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0010,elc_spv-DEU_0010</t>
-  </si>
-  <si>
-    <t>e_w152018146-220,e_w152018146-380,e_w156402422-220,e_w207756597-220,e_w54359256-220,e_w54359256-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0122,elc_spv-DEU_0122</t>
-  </si>
-  <si>
-    <t>e_w24158385-220,e_w26245195-220,e_w26245195-380,e_w5404079-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0011,elc_spv-DEU_0011</t>
-  </si>
-  <si>
-    <t>e_w42097854-220,e_w42097854-380,e_w66764943-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0008,elc_spv-DEU_0008</t>
-  </si>
-  <si>
-    <t>e_w672738029-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0169,elc_spv-DEU_0169</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0092,elc_spv-DEU_0092</t>
-  </si>
-  <si>
-    <t>e_w24705761-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0095,elc_spv-DEU_0095</t>
-  </si>
-  <si>
-    <t>e_w948341123-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0062,elc_spv-DEU_0062</t>
-  </si>
-  <si>
-    <t>e_DE121-380,e_w156673636-380,e_w41072584-380,e_w41232144-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0028,elc_spv-DEU_0028</t>
-  </si>
-  <si>
-    <t>e_DE135-220,e_DE137-220,e_DE137-380,e_DE140-380,e_DE143-380,e_DE145-220,e_DE147-380,e_DE148-220,e_DE148-380,e_DE150-380,e_w152403632-220,e_w152403632-380,e_w89043564-220,e_w89043564-380,e_w90148336-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0013,elc_spv-DEU_0013</t>
-  </si>
-  <si>
-    <t>e_DE138-220,e_DE138-380,e_DE139-220,e_DE139-380,e_DE144-380,e_DE153-380,e_DE154-380,e_w22765517-220,e_w22765517-380,e_w22766160-220,e_w22766160-380,e_w22767509-220,e_w22767509-380,e_w22796434-220,e_w26777313-380,e_w29374542-220,e_w32148946-220,e_w42423415-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0093,elc_spv-DEU_0093</t>
-  </si>
-  <si>
-    <t>e_DE163-220,e_w108797675-380,e_w24758329-380,e_w499165542-220,e_w499165542-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0080,elc_spv-DEU_0080</t>
-  </si>
-  <si>
-    <t>e_DE59-220,e_DE60-220,e_w952004951-220,e_w952004951-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0055,elc_spv-DEU_0055</t>
-  </si>
-  <si>
-    <t>e_w102743264-220,e_w25306752-220,e_w25306752-380,e_w31367936-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0101,elc_spv-DEU_0101</t>
-  </si>
-  <si>
-    <t>e_w1089911133-380,e_w23583867-380,e_w28327356-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0059,elc_spv-DEU_0059</t>
-  </si>
-  <si>
-    <t>e_w145002769-380,e_w55069713-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0091,elc_spv-DEU_0091</t>
-  </si>
-  <si>
-    <t>e_w38325076-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0019,elc_spv-DEU_0019</t>
-  </si>
-  <si>
-    <t>e_w559702819-220,e_w559702819-380,e_w672738029-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0147,elc_spv-DEU_0147</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0171,elc_spv-DEU_0171</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0066,elc_spv-DEU_0066</t>
-  </si>
-  <si>
-    <t>e_DE15-220,e_w229565743-220,e_w28812249-220,e_w955268863-220,e_w955268863-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0043,elc_spv-DEU_0043</t>
-  </si>
-  <si>
-    <t>e_DE159-380,e_DE160-220,e_DE161-380,e_DE162-380,e_w169244940-220,e_w169244940-380,e_w23641079-220,e_w23641079-380,e_w38661452-380,e_w4826893-220,e_w62061952-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0175,elc_spv-DEU_0175</t>
-  </si>
-  <si>
-    <t>e_DE22-220,e_DE22-380,e_DE23-220,e_DE23-380,e_DE24-220,e_DE24-380,e_DE26-380,e_DE27-220,e_DE27-380,e_w22973052-220,e_w22973070-220,e_w22973070-380,e_w30954714-380,e_w940636813-220,e_w940636813-380,e_w942448206-220,e_w942448206-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0114,elc_spv-DEU_0114</t>
-  </si>
-  <si>
-    <t>e_DE44-380,e_w26474759-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0069,elc_spv-DEU_0069</t>
-  </si>
-  <si>
-    <t>e_w1071504343-380,e_w603661085-380,e_w907539360-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0179,elc_spv-DEU_0179</t>
-  </si>
-  <si>
-    <t>e_w1091984573-220,e_w1091984573-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0050,elc_spv-DEU_0050</t>
-  </si>
-  <si>
-    <t>e_w1134105414-380,e_w157421333-220,e_w266684854-380,e_w32076853-220,e_w32076853-380,e_w42872354-220,e_w829116805-220,e_w829116805-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0124,elc_spv-DEU_0124</t>
-  </si>
-  <si>
-    <t>e_w137602559-220,e_w137602559-380,e_w24759324-220,e_w24768051-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0045,elc_spv-DEU_0045</t>
-  </si>
-  <si>
-    <t>e_w42799487-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0156,elc_spv-DEU_0156</t>
-  </si>
-  <si>
-    <t>e_w78441561-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0129,elc_spv-DEU_0129</t>
-  </si>
-  <si>
-    <t>e_w29713902-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0020,elc_spv-DEU_0020</t>
-  </si>
-  <si>
-    <t>e_w559702819-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0052,elc_spv-DEU_0052</t>
-  </si>
-  <si>
-    <t>e_w603661085-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0053,elc_spv-DEU_0053</t>
-  </si>
-  <si>
-    <t>e_w946969736-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0181,elc_spv-DEU_0181</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0040,elc_spv-DEU_0040</t>
-  </si>
-  <si>
-    <t>e_DE183-220,e_w152261133-220,e_w152261133-380,e_w254326606-380,e_w32151621-220,e_w32725957-220,e_w32725958-220,e_w32731290-220,e_w32966636-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0018,elc_spv-DEU_0018</t>
-  </si>
-  <si>
-    <t>e_DE20-380,e_w1280840211-380,e_w142487746-380,e_w206289192-380,e_w32042992-380,e_w797009308-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0073,elc_spv-DEU_0073</t>
-  </si>
-  <si>
-    <t>e_DE202-220,e_DE202-380,e_DE205-220,e_DE205-380,e_w26404600-380,e_w41389594-220,e_w41389594-380,e_w85523877-220,e_w85523877-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0104,elc_spv-DEU_0104</t>
-  </si>
-  <si>
-    <t>e_DE211-220,e_DE212-220,e_w68532663-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0131,elc_spv-DEU_0131</t>
-  </si>
-  <si>
-    <t>e_DE47-220,e_w26472665-220,e_w26472665-380,e_w943939310-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0064,elc_spv-DEU_0064</t>
-  </si>
-  <si>
-    <t>e_DE49-380,e_w23135618-220,e_w24413992-380,e_w28397771-220,e_w288305056-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0186,elc_spv-DEU_0186</t>
-  </si>
-  <si>
-    <t>e_w170123812-220,e_w170123812-380,e_w170123812-400</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0105,elc_spv-DEU_0105</t>
-  </si>
-  <si>
-    <t>e_w23907283-380,e_w24237879-220,e_w30613895-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0088,elc_spv-DEU_0088</t>
-  </si>
-  <si>
-    <t>e_w57727004-220,e_w57727004-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0089,elc_spv-DEU_0089</t>
-  </si>
-  <si>
-    <t>e_w683227471-380,e_w77038371-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0023,elc_spv-DEU_0023</t>
-  </si>
-  <si>
-    <t>e_w82130902-225,e_w933248930-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0137,elc_spv-DEU_0137</t>
-  </si>
-  <si>
-    <t>e_w75865676-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0036,elc_spv-DEU_0036</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0188,elc_spv-DEU_0188</t>
-  </si>
-  <si>
-    <t>e_w1222597066-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0061,elc_spv-DEU_0061</t>
-  </si>
-  <si>
-    <t>e_w156673636-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0113,elc_spv-DEU_0113</t>
-  </si>
-  <si>
-    <t>e_w32690742-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0111,elc_spv-DEU_0111</t>
-  </si>
-  <si>
-    <t>e_DE134-380,e_w149256409-380,e_w152219167-220,e_w25746125-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0003,elc_spv-DEU_0003</t>
-  </si>
-  <si>
-    <t>e_DE136-380,e_DE141-380,e_w24268944-380,e_w25426571-380,e_w25992879-380,e_w26593935-380,e_w870598507,e_w870598507-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0056,elc_spv-DEU_0056</t>
-  </si>
-  <si>
-    <t>e_DE195-380,e_DE196-380,e_DE197-380,e_DE198-380,e_DE199-380,e_w26260052-380,e_w30734324-380,e_w42736239-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0150,elc_spv-DEU_0150</t>
-  </si>
-  <si>
-    <t>e_DE9-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0032,elc_spv-DEU_0032</t>
-  </si>
-  <si>
-    <t>e_w150200540-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0025,elc_spv-DEU_0025</t>
-  </si>
-  <si>
-    <t>e_w152107815-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0160,elc_spv-DEU_0160</t>
-  </si>
-  <si>
-    <t>e_w157328339-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0109,elc_spv-DEU_0109</t>
-  </si>
-  <si>
-    <t>e_w24757393-380,e_w24757833-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0164,elc_spv-DEU_0164</t>
-  </si>
-  <si>
-    <t>e_w518455594-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0022,elc_spv-DEU_0022</t>
-  </si>
-  <si>
-    <t>e_w87653464-220,e_w87653464-380,e_w87653464-400</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0096,elc_spv-DEU_0096</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0153,elc_spv-DEU_0153</t>
-  </si>
-  <si>
-    <t>e_w91080806-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0168,elc_spv-DEU_0168</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0015,elc_spv-DEU_0015</t>
-  </si>
-  <si>
-    <t>e_DE100-220,e_DE100-380,e_DE102-220,e_DE102-380,e_DE66-220,e_DE66-380,e_DE68-220,e_DE68-380,e_DE69-220,e_DE69-380,e_DE72-220,e_DE75-380,e_DE76-380,e_DE78-220,e_DE80-220,e_DE80-380,e_DE81-220,e_DE82-220,e_DE83-220,e_DE84-220,e_DE86-220,e_DE87-220,e_DE87-380,e_DE89-220,e_DE89-380,e_DE92-220,e_DE96-220,e_DE96-380,e_DE98-220,e_w1076001174-220,e_w1076001174-380,e_w113546939-220,e_w113546939-380,e_w121199242-220,e_w121199242-380,e_w1303270458-220,e_w1303270458-380,e_w150267232-220,e_w156973363-220,e_w22944791-220,e_w22964137-380,e_w23022100-220,e_w23022100-380,e_w23067006-380,e_w24280460-380,e_w24415232-220,e_w24921206-220,e_w24921206-380,e_w25051880-220,e_w26291794-380,e_w275138524-380,e_w28452784-220,e_w29077623-220,e_w29077623-380,e_w311444691-380,e_w32472806-380,e_w35763480-220,e_w35763480-380,e_w38584673-220,e_w425100082-380,e_w59925390-220,e_w59925390-380,e_w63114179-220,e_w63114179-380,e_w66038431-220,e_w68549340-220,e_w68549340-380,e_w698870101-220,e_w787840119-220,e_w799361667-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0183,elc_spv-DEU_0183</t>
-  </si>
-  <si>
-    <t>e_DE58-380,e_DE99-380,e_w157806991-380,e_w30164703-380,e_w58429825-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0112,elc_spv-DEU_0112</t>
-  </si>
-  <si>
-    <t>e_w143882655-220,e_w143882655-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0078,elc_spv-DEU_0078</t>
-  </si>
-  <si>
-    <t>e_w148446247-380,e_w29309786-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0012,elc_spv-DEU_0012</t>
-  </si>
-  <si>
-    <t>e_w154869247-220,e_w395847307-220,e_w395847307-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0126,elc_spv-DEU_0126</t>
-  </si>
-  <si>
-    <t>e_w93341407-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0007,elc_spv-DEU_0007</t>
-  </si>
-  <si>
-    <t>e_w979801144-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0157,elc_spv-DEU_0157</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0083,elc_spv-DEU_0083</t>
-  </si>
-  <si>
-    <t>e_w23816140-220</t>
+    <t>distr_wofelc_wof-DEU_0103</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_103</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0022</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_22</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0119</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_119</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0054</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_54</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0069</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_69</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0053</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_53</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0163</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_163</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0180</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_180</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0036</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_36</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0001</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_1</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0002</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_2</t>
   </si>
   <si>
     <t>distr_wofelc_wof-DEU_0004</t>
@@ -5201,6 +5267,24 @@
     <t>connecting wind offshore to buses in grid cell DEU_4</t>
   </si>
   <si>
+    <t>distr_wofelc_wof-DEU_0087</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_87</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0037</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_37</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0009</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_9</t>
+  </si>
+  <si>
     <t>distr_wofelc_wof-DEU_0133</t>
   </si>
   <si>
@@ -5219,64 +5303,82 @@
     <t>connecting wind offshore to buses in grid cell DEU_10</t>
   </si>
   <si>
-    <t>distr_wofelc_wof-DEU_0180</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_180</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0036</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_36</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0001</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_1</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0002</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_2</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0103</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_103</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0022</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_22</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0119</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_119</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0087</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_87</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0037</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_37</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0009</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_9</t>
+    <t>distr_wofelc_wof-DEU_0084</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_84</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0085</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_85</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0172</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_172</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0023</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_23</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0118</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_118</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0055</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_55</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0020</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_20</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0086</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_86</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0024</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_24</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0179</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_179</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0173</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_173</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0178</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_178</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0003</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_3</t>
   </si>
   <si>
     <t>distr_wofelc_wof-DEU_0039</t>
@@ -5285,22 +5387,28 @@
     <t>connecting wind offshore to buses in grid cell DEU_39</t>
   </si>
   <si>
-    <t>distr_wofelc_wof-DEU_0084</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_84</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0085</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_85</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0172</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_172</t>
+    <t>distr_wofelc_wof-DEU_0149</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_149</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0052</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_52</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0038</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_38</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0134</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_134</t>
   </si>
   <si>
     <t>distr_wofelc_wof-DEU_0021</t>
@@ -5309,123 +5417,69 @@
     <t>connecting wind offshore to buses in grid cell DEU_21</t>
   </si>
   <si>
-    <t>distr_wofelc_wof-DEU_0069</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_69</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0053</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_53</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0163</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_163</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0118</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_118</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0055</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_55</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0149</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_149</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0052</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_52</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0038</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_38</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0134</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_134</t>
-  </si>
-  <si>
     <t>distr_wofelc_wof-DEU_0011</t>
   </si>
   <si>
     <t>connecting wind offshore to buses in grid cell DEU_11</t>
   </si>
   <si>
-    <t>distr_wofelc_wof-DEU_0020</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_20</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0086</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_86</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0024</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_24</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0179</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_179</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0173</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_173</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0178</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_178</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0003</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_3</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0023</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_23</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0054</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_54</t>
+    <t>elc_wof-DEU_0103</t>
+  </si>
+  <si>
+    <t>e_DE4-220,e_w27124619-220,e_w27646106-220</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0022</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0119</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0054</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0069</t>
+  </si>
+  <si>
+    <t>e_w1089769599-220,e_w1089769599-380,e_w1280364401-380,e_w289836713-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0053</t>
+  </si>
+  <si>
+    <t>e_w1134105414-380,e_w26455019-220,e_w29420322-220</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0163</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0180</t>
+  </si>
+  <si>
+    <t>e_DE2-220</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0036</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0001</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0002</t>
   </si>
   <si>
     <t>elc_wof-DEU_0004</t>
   </si>
   <si>
+    <t>elc_wof-DEU_0087</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0037</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0009</t>
+  </si>
+  <si>
     <t>elc_wof-DEU_0133</t>
   </si>
   <si>
@@ -5438,142 +5492,88 @@
     <t>elc_wof-DEU_0010</t>
   </si>
   <si>
-    <t>elc_wof-DEU_0180</t>
-  </si>
-  <si>
-    <t>e_DE2-220</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0036</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0001</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0002</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0103</t>
-  </si>
-  <si>
-    <t>e_DE4-220,e_w27124619-220,e_w27646106-220</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0022</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0119</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0087</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0037</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0009</t>
+    <t>elc_wof-DEU_0084</t>
+  </si>
+  <si>
+    <t>e_DE10-380,e_DE11-380,e_DE12-380,e_DE13-380,e_DE14-380,e_w11285720-380,e_w24502420-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0085</t>
+  </si>
+  <si>
+    <t>e_DE6-380,e_DE7-220,e_DE8-380,e_w1107961833-380,e_w25306938-380,e_w525964617,e_w525964629-380,e_w60032354-220,e_w87722999-220,e_w87722999-380,e_w881636329-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0172</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0023</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0118</t>
+  </si>
+  <si>
+    <t>e_w1102237380-220,e_w1102237380-380,e_w275466323,e_w275466323-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0055</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0020</t>
+  </si>
+  <si>
+    <t>e_w1280840211-380,e_w559702819-220,e_w559702819-380,e_w672738029-220</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0086</t>
+  </si>
+  <si>
+    <t>e_w35176751-220,e_w35176751-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0024</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0179</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0173</t>
+  </si>
+  <si>
+    <t>e_DE1-220,e_DE3-220</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0178</t>
+  </si>
+  <si>
+    <t>e_DE16-220,e_w1222597066-220,e_w1222597066-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0003</t>
   </si>
   <si>
     <t>elc_wof-DEU_0039</t>
   </si>
   <si>
-    <t>elc_wof-DEU_0084</t>
-  </si>
-  <si>
-    <t>e_DE10-380,e_DE11-380,e_DE12-380,e_DE13-380,e_DE14-380,e_w11285720-380,e_w24502420-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0085</t>
-  </si>
-  <si>
-    <t>e_DE6-380,e_DE7-220,e_DE8-380,e_w1107961833-380,e_w25306938-380,e_w525964617,e_w525964629-380,e_w60032354-220,e_w87722999-220,e_w87722999-380,e_w881636329-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0172</t>
+    <t>elc_wof-DEU_0149</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0052</t>
+  </si>
+  <si>
+    <t>e_w1128250707-220,e_w1128250707-380,e_w157421333-220,e_w23744346-220,e_w266684854-380,e_w31024391-220,e_w31024391-380,e_w32076853-220,e_w32076853-380,e_w42872354-220,e_w829116805-220,e_w829116805-380,e_w883768276-380,e_w883768277-380,e_w883928228-380,e_w883928229-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0038</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0134</t>
   </si>
   <si>
     <t>elc_wof-DEU_0021</t>
   </si>
   <si>
-    <t>elc_wof-DEU_0069</t>
-  </si>
-  <si>
-    <t>e_w1089769599-220,e_w1089769599-380,e_w1280364401-380,e_w289836713-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0053</t>
-  </si>
-  <si>
-    <t>e_w1134105414-380,e_w26455019-220,e_w29420322-220</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0163</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0118</t>
-  </si>
-  <si>
-    <t>e_w1102237380-220,e_w1102237380-380,e_w275466323,e_w275466323-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0055</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0149</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0052</t>
-  </si>
-  <si>
-    <t>e_w1128250707-220,e_w1128250707-380,e_w157421333-220,e_w23744346-220,e_w266684854-380,e_w31024391-220,e_w31024391-380,e_w32076853-220,e_w32076853-380,e_w42872354-220,e_w829116805-220,e_w829116805-380,e_w883768276-380,e_w883768277-380,e_w883928228-380,e_w883928229-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0038</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0134</t>
-  </si>
-  <si>
     <t>elc_wof-DEU_0011</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0020</t>
-  </si>
-  <si>
-    <t>e_w1280840211-380,e_w559702819-220,e_w559702819-380,e_w672738029-220</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0086</t>
-  </si>
-  <si>
-    <t>e_w35176751-220,e_w35176751-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0024</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0179</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0173</t>
-  </si>
-  <si>
-    <t>e_DE1-220,e_DE3-220</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0178</t>
-  </si>
-  <si>
-    <t>e_DE16-220,e_w1222597066-220,e_w1222597066-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0003</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0023</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0054</t>
   </si>
   <si>
     <t>e_won-DEU_0000</t>
@@ -15133,7 +15133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147FCA9B-8350-4CC1-A45F-31FD4067463F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF68F5D4-4914-4E30-BCC3-6BD9D07618FE}">
   <dimension ref="B9:AR198"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15350,7 +15350,7 @@
         <v>1</v>
       </c>
       <c r="AC11" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="AE11" t="s">
         <v>942</v>
@@ -15383,13 +15383,13 @@
         <v>1764</v>
       </c>
       <c r="AP11" t="s">
-        <v>1559</v>
+        <v>1765</v>
       </c>
       <c r="AQ11">
         <v>1</v>
       </c>
       <c r="AR11" t="s">
-        <v>573</v>
+        <v>769</v>
       </c>
     </row>
     <row r="12" spans="2:44">
@@ -15466,7 +15466,7 @@
         <v>1</v>
       </c>
       <c r="AC12" t="s">
-        <v>881</v>
+        <v>567</v>
       </c>
       <c r="AE12" t="s">
         <v>942</v>
@@ -15496,16 +15496,16 @@
         <v>1690</v>
       </c>
       <c r="AO12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="AP12" t="s">
-        <v>1766</v>
+        <v>1549</v>
       </c>
       <c r="AQ12">
         <v>1</v>
       </c>
       <c r="AR12" t="s">
-        <v>829</v>
+        <v>609</v>
       </c>
     </row>
     <row r="13" spans="2:44">
@@ -15582,7 +15582,7 @@
         <v>1</v>
       </c>
       <c r="AC13" t="s">
-        <v>641</v>
+        <v>931</v>
       </c>
       <c r="AE13" t="s">
         <v>942</v>
@@ -15615,13 +15615,13 @@
         <v>1767</v>
       </c>
       <c r="AP13" t="s">
-        <v>1559</v>
+        <v>1577</v>
       </c>
       <c r="AQ13">
         <v>1</v>
       </c>
       <c r="AR13" t="s">
-        <v>589</v>
+        <v>801</v>
       </c>
     </row>
     <row r="14" spans="2:44">
@@ -15698,7 +15698,7 @@
         <v>1</v>
       </c>
       <c r="AC14" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="AE14" t="s">
         <v>942</v>
@@ -15731,13 +15731,13 @@
         <v>1768</v>
       </c>
       <c r="AP14" t="s">
-        <v>1559</v>
+        <v>1422</v>
       </c>
       <c r="AQ14">
         <v>1</v>
       </c>
       <c r="AR14" t="s">
-        <v>585</v>
+        <v>671</v>
       </c>
     </row>
     <row r="15" spans="2:44">
@@ -15814,7 +15814,7 @@
         <v>1</v>
       </c>
       <c r="AC15" t="s">
-        <v>659</v>
+        <v>705</v>
       </c>
       <c r="AE15" t="s">
         <v>942</v>
@@ -15853,7 +15853,7 @@
         <v>1</v>
       </c>
       <c r="AR15" t="s">
-        <v>923</v>
+        <v>701</v>
       </c>
     </row>
     <row r="16" spans="2:44">
@@ -15930,7 +15930,7 @@
         <v>1</v>
       </c>
       <c r="AC16" t="s">
-        <v>633</v>
+        <v>839</v>
       </c>
       <c r="AE16" t="s">
         <v>942</v>
@@ -15963,13 +15963,13 @@
         <v>1771</v>
       </c>
       <c r="AP16" t="s">
-        <v>1415</v>
+        <v>1772</v>
       </c>
       <c r="AQ16">
         <v>1</v>
       </c>
       <c r="AR16" t="s">
-        <v>637</v>
+        <v>669</v>
       </c>
     </row>
     <row r="17" spans="2:44">
@@ -16046,7 +16046,7 @@
         <v>1</v>
       </c>
       <c r="AC17" t="s">
-        <v>783</v>
+        <v>737</v>
       </c>
       <c r="AE17" t="s">
         <v>942</v>
@@ -16076,16 +16076,16 @@
         <v>1700</v>
       </c>
       <c r="AO17" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="AP17" t="s">
-        <v>1559</v>
+        <v>1369</v>
       </c>
       <c r="AQ17">
         <v>1</v>
       </c>
       <c r="AR17" t="s">
-        <v>567</v>
+        <v>889</v>
       </c>
     </row>
     <row r="18" spans="2:44">
@@ -16162,7 +16162,7 @@
         <v>1</v>
       </c>
       <c r="AC18" t="s">
-        <v>711</v>
+        <v>663</v>
       </c>
       <c r="AE18" t="s">
         <v>942</v>
@@ -16192,16 +16192,16 @@
         <v>1702</v>
       </c>
       <c r="AO18" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="AP18" t="s">
-        <v>1559</v>
+        <v>1775</v>
       </c>
       <c r="AQ18">
         <v>1</v>
       </c>
       <c r="AR18" t="s">
-        <v>569</v>
+        <v>923</v>
       </c>
     </row>
     <row r="19" spans="2:44">
@@ -16278,7 +16278,7 @@
         <v>1</v>
       </c>
       <c r="AC19" t="s">
-        <v>763</v>
+        <v>647</v>
       </c>
       <c r="AE19" t="s">
         <v>942</v>
@@ -16308,16 +16308,16 @@
         <v>1704</v>
       </c>
       <c r="AO19" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="AP19" t="s">
-        <v>1775</v>
+        <v>1422</v>
       </c>
       <c r="AQ19">
         <v>1</v>
       </c>
       <c r="AR19" t="s">
-        <v>769</v>
+        <v>637</v>
       </c>
     </row>
     <row r="20" spans="2:44">
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="AC20" t="s">
-        <v>797</v>
+        <v>829</v>
       </c>
       <c r="AE20" t="s">
         <v>942</v>
@@ -16424,16 +16424,16 @@
         <v>1706</v>
       </c>
       <c r="AO20" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="AP20" t="s">
-        <v>1610</v>
+        <v>1649</v>
       </c>
       <c r="AQ20">
         <v>1</v>
       </c>
       <c r="AR20" t="s">
-        <v>609</v>
+        <v>567</v>
       </c>
     </row>
     <row r="21" spans="2:44">
@@ -16510,7 +16510,7 @@
         <v>1</v>
       </c>
       <c r="AC21" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="AE21" t="s">
         <v>942</v>
@@ -16540,16 +16540,16 @@
         <v>1708</v>
       </c>
       <c r="AO21" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="AP21" t="s">
-        <v>1455</v>
+        <v>1649</v>
       </c>
       <c r="AQ21">
         <v>1</v>
       </c>
       <c r="AR21" t="s">
-        <v>801</v>
+        <v>569</v>
       </c>
     </row>
     <row r="22" spans="2:44">
@@ -16626,7 +16626,7 @@
         <v>1</v>
       </c>
       <c r="AC22" t="s">
-        <v>855</v>
+        <v>683</v>
       </c>
       <c r="AE22" t="s">
         <v>942</v>
@@ -16656,16 +16656,16 @@
         <v>1710</v>
       </c>
       <c r="AO22" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="AP22" t="s">
-        <v>1391</v>
+        <v>1649</v>
       </c>
       <c r="AQ22">
         <v>1</v>
       </c>
       <c r="AR22" t="s">
-        <v>737</v>
+        <v>573</v>
       </c>
     </row>
     <row r="23" spans="2:44">
@@ -16742,7 +16742,7 @@
         <v>1</v>
       </c>
       <c r="AC23" t="s">
-        <v>805</v>
+        <v>779</v>
       </c>
       <c r="AE23" t="s">
         <v>942</v>
@@ -16772,16 +16772,16 @@
         <v>1712</v>
       </c>
       <c r="AO23" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="AP23" t="s">
-        <v>1415</v>
+        <v>1335</v>
       </c>
       <c r="AQ23">
         <v>1</v>
       </c>
       <c r="AR23" t="s">
-        <v>639</v>
+        <v>737</v>
       </c>
     </row>
     <row r="24" spans="2:44">
@@ -16858,7 +16858,7 @@
         <v>1</v>
       </c>
       <c r="AC24" t="s">
-        <v>903</v>
+        <v>859</v>
       </c>
       <c r="AE24" t="s">
         <v>942</v>
@@ -16888,16 +16888,16 @@
         <v>1714</v>
       </c>
       <c r="AO24" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="AP24" t="s">
-        <v>1559</v>
+        <v>1422</v>
       </c>
       <c r="AQ24">
         <v>1</v>
       </c>
       <c r="AR24" t="s">
-        <v>583</v>
+        <v>639</v>
       </c>
     </row>
     <row r="25" spans="2:44">
@@ -16974,7 +16974,7 @@
         <v>1</v>
       </c>
       <c r="AC25" t="s">
-        <v>751</v>
+        <v>919</v>
       </c>
       <c r="AE25" t="s">
         <v>942</v>
@@ -17004,16 +17004,16 @@
         <v>1716</v>
       </c>
       <c r="AO25" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="AP25" t="s">
-        <v>1614</v>
+        <v>1649</v>
       </c>
       <c r="AQ25">
         <v>1</v>
       </c>
       <c r="AR25" t="s">
-        <v>643</v>
+        <v>583</v>
       </c>
     </row>
     <row r="26" spans="2:44">
@@ -17090,7 +17090,7 @@
         <v>1</v>
       </c>
       <c r="AC26" t="s">
-        <v>731</v>
+        <v>707</v>
       </c>
       <c r="AE26" t="s">
         <v>942</v>
@@ -17120,16 +17120,16 @@
         <v>1718</v>
       </c>
       <c r="AO26" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="AP26" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="AQ26">
         <v>1</v>
       </c>
       <c r="AR26" t="s">
-        <v>731</v>
+        <v>829</v>
       </c>
     </row>
     <row r="27" spans="2:44">
@@ -17206,7 +17206,7 @@
         <v>1</v>
       </c>
       <c r="AC27" t="s">
-        <v>653</v>
+        <v>573</v>
       </c>
       <c r="AE27" t="s">
         <v>942</v>
@@ -17236,16 +17236,16 @@
         <v>1720</v>
       </c>
       <c r="AO27" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="AP27" t="s">
-        <v>1785</v>
+        <v>1649</v>
       </c>
       <c r="AQ27">
         <v>1</v>
       </c>
       <c r="AR27" t="s">
-        <v>733</v>
+        <v>589</v>
       </c>
     </row>
     <row r="28" spans="2:44">
@@ -17322,7 +17322,7 @@
         <v>1</v>
       </c>
       <c r="AC28" t="s">
-        <v>743</v>
+        <v>851</v>
       </c>
       <c r="AE28" t="s">
         <v>942</v>
@@ -17355,13 +17355,13 @@
         <v>1786</v>
       </c>
       <c r="AP28" t="s">
-        <v>1598</v>
+        <v>1649</v>
       </c>
       <c r="AQ28">
         <v>1</v>
       </c>
       <c r="AR28" t="s">
-        <v>907</v>
+        <v>585</v>
       </c>
     </row>
     <row r="29" spans="2:44">
@@ -17438,7 +17438,7 @@
         <v>1</v>
       </c>
       <c r="AC29" t="s">
-        <v>575</v>
+        <v>917</v>
       </c>
       <c r="AE29" t="s">
         <v>942</v>
@@ -17471,13 +17471,13 @@
         <v>1787</v>
       </c>
       <c r="AP29" t="s">
-        <v>1559</v>
+        <v>1788</v>
       </c>
       <c r="AQ29">
         <v>1</v>
       </c>
       <c r="AR29" t="s">
-        <v>607</v>
+        <v>731</v>
       </c>
     </row>
     <row r="30" spans="2:44">
@@ -17554,7 +17554,7 @@
         <v>1</v>
       </c>
       <c r="AC30" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="AE30" t="s">
         <v>942</v>
@@ -17584,16 +17584,16 @@
         <v>1726</v>
       </c>
       <c r="AO30" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="AP30" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="AQ30">
         <v>1</v>
       </c>
       <c r="AR30" t="s">
-        <v>701</v>
+        <v>733</v>
       </c>
     </row>
     <row r="31" spans="2:44">
@@ -17670,7 +17670,7 @@
         <v>1</v>
       </c>
       <c r="AC31" t="s">
-        <v>885</v>
+        <v>775</v>
       </c>
       <c r="AE31" t="s">
         <v>942</v>
@@ -17700,16 +17700,16 @@
         <v>1728</v>
       </c>
       <c r="AO31" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="AP31" t="s">
-        <v>1791</v>
+        <v>1537</v>
       </c>
       <c r="AQ31">
         <v>1</v>
       </c>
       <c r="AR31" t="s">
-        <v>669</v>
+        <v>907</v>
       </c>
     </row>
     <row r="32" spans="2:44">
@@ -17786,7 +17786,7 @@
         <v>1</v>
       </c>
       <c r="AC32" t="s">
-        <v>813</v>
+        <v>643</v>
       </c>
       <c r="AE32" t="s">
         <v>942</v>
@@ -17819,13 +17819,13 @@
         <v>1792</v>
       </c>
       <c r="AP32" t="s">
-        <v>1475</v>
+        <v>1549</v>
       </c>
       <c r="AQ32">
         <v>1</v>
       </c>
       <c r="AR32" t="s">
-        <v>889</v>
+        <v>611</v>
       </c>
     </row>
     <row r="33" spans="2:44">
@@ -17902,7 +17902,7 @@
         <v>1</v>
       </c>
       <c r="AC33" t="s">
-        <v>911</v>
+        <v>887</v>
       </c>
       <c r="AE33" t="s">
         <v>942</v>
@@ -18018,7 +18018,7 @@
         <v>1</v>
       </c>
       <c r="AC34" t="s">
-        <v>927</v>
+        <v>897</v>
       </c>
       <c r="AE34" t="s">
         <v>942</v>
@@ -18051,7 +18051,7 @@
         <v>1795</v>
       </c>
       <c r="AP34" t="s">
-        <v>1614</v>
+        <v>1553</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -18134,7 +18134,7 @@
         <v>1</v>
       </c>
       <c r="AC35" t="s">
-        <v>893</v>
+        <v>577</v>
       </c>
       <c r="AE35" t="s">
         <v>942</v>
@@ -18167,13 +18167,13 @@
         <v>1796</v>
       </c>
       <c r="AP35" t="s">
-        <v>1547</v>
+        <v>1797</v>
       </c>
       <c r="AQ35">
         <v>1</v>
       </c>
       <c r="AR35" t="s">
-        <v>861</v>
+        <v>605</v>
       </c>
     </row>
     <row r="36" spans="2:44">
@@ -18250,7 +18250,7 @@
         <v>1</v>
       </c>
       <c r="AC36" t="s">
-        <v>871</v>
+        <v>583</v>
       </c>
       <c r="AE36" t="s">
         <v>942</v>
@@ -18280,16 +18280,16 @@
         <v>1738</v>
       </c>
       <c r="AO36" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="AP36" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="AQ36">
         <v>1</v>
       </c>
       <c r="AR36" t="s">
-        <v>667</v>
+        <v>735</v>
       </c>
     </row>
     <row r="37" spans="2:44">
@@ -18366,7 +18366,7 @@
         <v>1</v>
       </c>
       <c r="AC37" t="s">
-        <v>717</v>
+        <v>687</v>
       </c>
       <c r="AE37" t="s">
         <v>942</v>
@@ -18396,16 +18396,16 @@
         <v>1740</v>
       </c>
       <c r="AO37" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="AP37" t="s">
-        <v>1415</v>
+        <v>1549</v>
       </c>
       <c r="AQ37">
         <v>1</v>
       </c>
       <c r="AR37" t="s">
-        <v>641</v>
+        <v>613</v>
       </c>
     </row>
     <row r="38" spans="2:44">
@@ -18482,7 +18482,7 @@
         <v>1</v>
       </c>
       <c r="AC38" t="s">
-        <v>777</v>
+        <v>621</v>
       </c>
       <c r="AE38" t="s">
         <v>942</v>
@@ -18512,16 +18512,16 @@
         <v>1742</v>
       </c>
       <c r="AO38" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="AP38" t="s">
-        <v>1494</v>
+        <v>1775</v>
       </c>
       <c r="AQ38">
         <v>1</v>
       </c>
       <c r="AR38" t="s">
-        <v>831</v>
+        <v>921</v>
       </c>
     </row>
     <row r="39" spans="2:44">
@@ -18598,7 +18598,7 @@
         <v>1</v>
       </c>
       <c r="AC39" t="s">
-        <v>819</v>
+        <v>591</v>
       </c>
       <c r="AE39" t="s">
         <v>942</v>
@@ -18628,16 +18628,16 @@
         <v>1744</v>
       </c>
       <c r="AO39" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="AP39" t="s">
-        <v>1559</v>
+        <v>1803</v>
       </c>
       <c r="AQ39">
         <v>1</v>
       </c>
       <c r="AR39" t="s">
-        <v>587</v>
+        <v>909</v>
       </c>
     </row>
     <row r="40" spans="2:44">
@@ -18714,7 +18714,7 @@
         <v>1</v>
       </c>
       <c r="AC40" t="s">
-        <v>567</v>
+        <v>749</v>
       </c>
       <c r="AE40" t="s">
         <v>942</v>
@@ -18744,16 +18744,16 @@
         <v>1746</v>
       </c>
       <c r="AO40" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="AP40" t="s">
-        <v>1803</v>
+        <v>1805</v>
       </c>
       <c r="AQ40">
         <v>1</v>
       </c>
       <c r="AR40" t="s">
-        <v>605</v>
+        <v>919</v>
       </c>
     </row>
     <row r="41" spans="2:44">
@@ -18830,7 +18830,7 @@
         <v>1</v>
       </c>
       <c r="AC41" t="s">
-        <v>931</v>
+        <v>723</v>
       </c>
       <c r="AE41" t="s">
         <v>942</v>
@@ -18860,16 +18860,16 @@
         <v>1748</v>
       </c>
       <c r="AO41" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="AP41" t="s">
-        <v>1805</v>
+        <v>1649</v>
       </c>
       <c r="AQ41">
         <v>1</v>
       </c>
       <c r="AR41" t="s">
-        <v>735</v>
+        <v>571</v>
       </c>
     </row>
     <row r="42" spans="2:44">
@@ -18946,7 +18946,7 @@
         <v>1</v>
       </c>
       <c r="AC42" t="s">
-        <v>733</v>
+        <v>673</v>
       </c>
       <c r="AE42" t="s">
         <v>942</v>
@@ -18976,16 +18976,16 @@
         <v>1750</v>
       </c>
       <c r="AO42" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="AP42" t="s">
-        <v>1610</v>
+        <v>1553</v>
       </c>
       <c r="AQ42">
         <v>1</v>
       </c>
       <c r="AR42" t="s">
-        <v>613</v>
+        <v>643</v>
       </c>
     </row>
     <row r="43" spans="2:44">
@@ -19062,7 +19062,7 @@
         <v>1</v>
       </c>
       <c r="AC43" t="s">
-        <v>705</v>
+        <v>765</v>
       </c>
       <c r="AE43" t="s">
         <v>942</v>
@@ -19092,16 +19092,16 @@
         <v>1752</v>
       </c>
       <c r="AO43" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="AP43" t="s">
-        <v>1770</v>
+        <v>1637</v>
       </c>
       <c r="AQ43">
         <v>1</v>
       </c>
       <c r="AR43" t="s">
-        <v>921</v>
+        <v>861</v>
       </c>
     </row>
     <row r="44" spans="2:44">
@@ -19178,7 +19178,7 @@
         <v>1</v>
       </c>
       <c r="AC44" t="s">
-        <v>839</v>
+        <v>681</v>
       </c>
       <c r="AE44" t="s">
         <v>942</v>
@@ -19208,16 +19208,16 @@
         <v>1754</v>
       </c>
       <c r="AO44" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="AP44" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="AQ44">
         <v>1</v>
       </c>
       <c r="AR44" t="s">
-        <v>909</v>
+        <v>667</v>
       </c>
     </row>
     <row r="45" spans="2:44">
@@ -19294,7 +19294,7 @@
         <v>1</v>
       </c>
       <c r="AC45" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="AE45" t="s">
         <v>942</v>
@@ -19324,16 +19324,16 @@
         <v>1756</v>
       </c>
       <c r="AO45" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="AP45" t="s">
-        <v>1811</v>
+        <v>1422</v>
       </c>
       <c r="AQ45">
         <v>1</v>
       </c>
       <c r="AR45" t="s">
-        <v>919</v>
+        <v>641</v>
       </c>
     </row>
     <row r="46" spans="2:44">
@@ -19410,7 +19410,7 @@
         <v>1</v>
       </c>
       <c r="AC46" t="s">
-        <v>923</v>
+        <v>603</v>
       </c>
       <c r="AE46" t="s">
         <v>942</v>
@@ -19443,13 +19443,13 @@
         <v>1812</v>
       </c>
       <c r="AP46" t="s">
-        <v>1559</v>
+        <v>1621</v>
       </c>
       <c r="AQ46">
         <v>1</v>
       </c>
       <c r="AR46" t="s">
-        <v>571</v>
+        <v>831</v>
       </c>
     </row>
     <row r="47" spans="2:44">
@@ -19520,13 +19520,13 @@
         <v>1394</v>
       </c>
       <c r="AA47" t="s">
-        <v>1395</v>
+        <v>1349</v>
       </c>
       <c r="AB47">
         <v>1</v>
       </c>
       <c r="AC47" t="s">
-        <v>721</v>
+        <v>857</v>
       </c>
       <c r="AE47" t="s">
         <v>942</v>
@@ -19559,13 +19559,13 @@
         <v>1813</v>
       </c>
       <c r="AP47" t="s">
-        <v>1610</v>
+        <v>1649</v>
       </c>
       <c r="AQ47">
         <v>1</v>
       </c>
       <c r="AR47" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="48" spans="2:44">
@@ -19633,16 +19633,16 @@
         <v>1019</v>
       </c>
       <c r="Z48" t="s">
+        <v>1395</v>
+      </c>
+      <c r="AA48" t="s">
         <v>1396</v>
       </c>
-      <c r="AA48" t="s">
-        <v>1397</v>
-      </c>
       <c r="AB48">
         <v>1</v>
       </c>
       <c r="AC48" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="AE48" t="s">
         <v>942</v>
@@ -19675,13 +19675,13 @@
         <v>1814</v>
       </c>
       <c r="AP48" t="s">
-        <v>1415</v>
+        <v>1649</v>
       </c>
       <c r="AQ48">
         <v>1</v>
       </c>
       <c r="AR48" t="s">
-        <v>671</v>
+        <v>587</v>
       </c>
     </row>
     <row r="49" spans="2:29">
@@ -19749,16 +19749,16 @@
         <v>1021</v>
       </c>
       <c r="Z49" t="s">
+        <v>1397</v>
+      </c>
+      <c r="AA49" t="s">
         <v>1398</v>
       </c>
-      <c r="AA49" t="s">
-        <v>1399</v>
-      </c>
       <c r="AB49">
         <v>1</v>
       </c>
       <c r="AC49" t="s">
-        <v>599</v>
+        <v>645</v>
       </c>
     </row>
     <row r="50" spans="2:29">
@@ -19826,16 +19826,16 @@
         <v>1023</v>
       </c>
       <c r="Z50" t="s">
+        <v>1399</v>
+      </c>
+      <c r="AA50" t="s">
         <v>1400</v>
       </c>
-      <c r="AA50" t="s">
-        <v>1401</v>
-      </c>
       <c r="AB50">
         <v>1</v>
       </c>
       <c r="AC50" t="s">
-        <v>657</v>
+        <v>601</v>
       </c>
     </row>
     <row r="51" spans="2:29">
@@ -19903,16 +19903,16 @@
         <v>1025</v>
       </c>
       <c r="Z51" t="s">
+        <v>1401</v>
+      </c>
+      <c r="AA51" t="s">
         <v>1402</v>
       </c>
-      <c r="AA51" t="s">
-        <v>1403</v>
-      </c>
       <c r="AB51">
         <v>1</v>
       </c>
       <c r="AC51" t="s">
-        <v>809</v>
+        <v>709</v>
       </c>
     </row>
     <row r="52" spans="2:29">
@@ -19980,16 +19980,16 @@
         <v>1027</v>
       </c>
       <c r="Z52" t="s">
+        <v>1403</v>
+      </c>
+      <c r="AA52" t="s">
         <v>1404</v>
       </c>
-      <c r="AA52" t="s">
-        <v>1405</v>
-      </c>
       <c r="AB52">
         <v>1</v>
       </c>
       <c r="AC52" t="s">
-        <v>757</v>
+        <v>771</v>
       </c>
     </row>
     <row r="53" spans="2:29">
@@ -20057,16 +20057,16 @@
         <v>1029</v>
       </c>
       <c r="Z53" t="s">
+        <v>1405</v>
+      </c>
+      <c r="AA53" t="s">
         <v>1406</v>
       </c>
-      <c r="AA53" t="s">
-        <v>1407</v>
-      </c>
       <c r="AB53">
         <v>1</v>
       </c>
       <c r="AC53" t="s">
-        <v>933</v>
+        <v>825</v>
       </c>
     </row>
     <row r="54" spans="2:29">
@@ -20134,16 +20134,16 @@
         <v>1031</v>
       </c>
       <c r="Z54" t="s">
+        <v>1407</v>
+      </c>
+      <c r="AA54" t="s">
         <v>1408</v>
       </c>
-      <c r="AA54" t="s">
-        <v>1409</v>
-      </c>
       <c r="AB54">
         <v>1</v>
       </c>
       <c r="AC54" t="s">
-        <v>907</v>
+        <v>691</v>
       </c>
     </row>
     <row r="55" spans="2:29">
@@ -20211,16 +20211,16 @@
         <v>1033</v>
       </c>
       <c r="Z55" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AA55" t="s">
         <v>1410</v>
       </c>
-      <c r="AA55" t="s">
-        <v>1411</v>
-      </c>
       <c r="AB55">
         <v>1</v>
       </c>
       <c r="AC55" t="s">
-        <v>845</v>
+        <v>935</v>
       </c>
     </row>
     <row r="56" spans="2:29">
@@ -20288,16 +20288,16 @@
         <v>1035</v>
       </c>
       <c r="Z56" t="s">
+        <v>1411</v>
+      </c>
+      <c r="AA56" t="s">
         <v>1412</v>
       </c>
-      <c r="AA56" t="s">
-        <v>1413</v>
-      </c>
       <c r="AB56">
         <v>1</v>
       </c>
       <c r="AC56" t="s">
-        <v>861</v>
+        <v>773</v>
       </c>
     </row>
     <row r="57" spans="2:29">
@@ -20365,16 +20365,16 @@
         <v>1037</v>
       </c>
       <c r="Z57" t="s">
+        <v>1413</v>
+      </c>
+      <c r="AA57" t="s">
         <v>1414</v>
       </c>
-      <c r="AA57" t="s">
-        <v>1415</v>
-      </c>
       <c r="AB57">
         <v>1</v>
       </c>
       <c r="AC57" t="s">
-        <v>635</v>
+        <v>739</v>
       </c>
     </row>
     <row r="58" spans="2:29">
@@ -20442,16 +20442,16 @@
         <v>1039</v>
       </c>
       <c r="Z58" t="s">
+        <v>1415</v>
+      </c>
+      <c r="AA58" t="s">
         <v>1416</v>
       </c>
-      <c r="AA58" t="s">
-        <v>1417</v>
-      </c>
       <c r="AB58">
         <v>1</v>
       </c>
       <c r="AC58" t="s">
-        <v>663</v>
+        <v>741</v>
       </c>
     </row>
     <row r="59" spans="2:29">
@@ -20519,16 +20519,16 @@
         <v>1041</v>
       </c>
       <c r="Z59" t="s">
+        <v>1417</v>
+      </c>
+      <c r="AA59" t="s">
         <v>1418</v>
       </c>
-      <c r="AA59" t="s">
-        <v>1419</v>
-      </c>
       <c r="AB59">
         <v>1</v>
       </c>
       <c r="AC59" t="s">
-        <v>647</v>
+        <v>611</v>
       </c>
     </row>
     <row r="60" spans="2:29">
@@ -20596,16 +20596,16 @@
         <v>1043</v>
       </c>
       <c r="Z60" t="s">
+        <v>1419</v>
+      </c>
+      <c r="AA60" t="s">
         <v>1420</v>
       </c>
-      <c r="AA60" t="s">
-        <v>1421</v>
-      </c>
       <c r="AB60">
         <v>1</v>
       </c>
       <c r="AC60" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
     </row>
     <row r="61" spans="2:29">
@@ -20673,16 +20673,16 @@
         <v>1045</v>
       </c>
       <c r="Z61" t="s">
+        <v>1421</v>
+      </c>
+      <c r="AA61" t="s">
         <v>1422</v>
       </c>
-      <c r="AA61" t="s">
-        <v>1423</v>
-      </c>
       <c r="AB61">
         <v>1</v>
       </c>
       <c r="AC61" t="s">
-        <v>831</v>
+        <v>637</v>
       </c>
     </row>
     <row r="62" spans="2:29">
@@ -20750,16 +20750,16 @@
         <v>1047</v>
       </c>
       <c r="Z62" t="s">
+        <v>1423</v>
+      </c>
+      <c r="AA62" t="s">
         <v>1424</v>
       </c>
-      <c r="AA62" t="s">
-        <v>1425</v>
-      </c>
       <c r="AB62">
         <v>1</v>
       </c>
       <c r="AC62" t="s">
-        <v>683</v>
+        <v>939</v>
       </c>
     </row>
     <row r="63" spans="2:29">
@@ -20827,16 +20827,16 @@
         <v>1049</v>
       </c>
       <c r="Z63" t="s">
+        <v>1425</v>
+      </c>
+      <c r="AA63" t="s">
         <v>1426</v>
       </c>
-      <c r="AA63" t="s">
-        <v>1427</v>
-      </c>
       <c r="AB63">
         <v>1</v>
       </c>
       <c r="AC63" t="s">
-        <v>779</v>
+        <v>685</v>
       </c>
     </row>
     <row r="64" spans="2:29">
@@ -20904,16 +20904,16 @@
         <v>1051</v>
       </c>
       <c r="Z64" t="s">
+        <v>1427</v>
+      </c>
+      <c r="AA64" t="s">
         <v>1428</v>
       </c>
-      <c r="AA64" t="s">
-        <v>1429</v>
-      </c>
       <c r="AB64">
         <v>1</v>
       </c>
       <c r="AC64" t="s">
-        <v>859</v>
+        <v>789</v>
       </c>
     </row>
     <row r="65" spans="2:29">
@@ -20981,16 +20981,16 @@
         <v>1053</v>
       </c>
       <c r="Z65" t="s">
+        <v>1429</v>
+      </c>
+      <c r="AA65" t="s">
         <v>1430</v>
       </c>
-      <c r="AA65" t="s">
-        <v>1431</v>
-      </c>
       <c r="AB65">
         <v>1</v>
       </c>
       <c r="AC65" t="s">
-        <v>919</v>
+        <v>593</v>
       </c>
     </row>
     <row r="66" spans="2:29">
@@ -21058,16 +21058,16 @@
         <v>1055</v>
       </c>
       <c r="Z66" t="s">
+        <v>1431</v>
+      </c>
+      <c r="AA66" t="s">
         <v>1432</v>
       </c>
-      <c r="AA66" t="s">
-        <v>1433</v>
-      </c>
       <c r="AB66">
         <v>1</v>
       </c>
       <c r="AC66" t="s">
-        <v>707</v>
+        <v>617</v>
       </c>
     </row>
     <row r="67" spans="2:29">
@@ -21135,16 +21135,16 @@
         <v>1057</v>
       </c>
       <c r="Z67" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AA67" t="s">
         <v>1434</v>
       </c>
-      <c r="AA67" t="s">
-        <v>1435</v>
-      </c>
       <c r="AB67">
         <v>1</v>
       </c>
       <c r="AC67" t="s">
-        <v>817</v>
+        <v>693</v>
       </c>
     </row>
     <row r="68" spans="2:29">
@@ -21212,16 +21212,16 @@
         <v>1059</v>
       </c>
       <c r="Z68" t="s">
+        <v>1435</v>
+      </c>
+      <c r="AA68" t="s">
         <v>1436</v>
       </c>
-      <c r="AA68" t="s">
-        <v>1437</v>
-      </c>
       <c r="AB68">
         <v>1</v>
       </c>
       <c r="AC68" t="s">
-        <v>649</v>
+        <v>827</v>
       </c>
     </row>
     <row r="69" spans="2:29">
@@ -21289,16 +21289,16 @@
         <v>1061</v>
       </c>
       <c r="Z69" t="s">
+        <v>1437</v>
+      </c>
+      <c r="AA69" t="s">
         <v>1438</v>
       </c>
-      <c r="AA69" t="s">
-        <v>1439</v>
-      </c>
       <c r="AB69">
         <v>1</v>
       </c>
       <c r="AC69" t="s">
-        <v>715</v>
+        <v>661</v>
       </c>
     </row>
     <row r="70" spans="2:29">
@@ -21366,16 +21366,16 @@
         <v>1063</v>
       </c>
       <c r="Z70" t="s">
+        <v>1439</v>
+      </c>
+      <c r="AA70" t="s">
         <v>1440</v>
       </c>
-      <c r="AA70" t="s">
-        <v>1441</v>
-      </c>
       <c r="AB70">
         <v>1</v>
       </c>
       <c r="AC70" t="s">
-        <v>873</v>
+        <v>627</v>
       </c>
     </row>
     <row r="71" spans="2:29">
@@ -21443,16 +21443,16 @@
         <v>1065</v>
       </c>
       <c r="Z71" t="s">
+        <v>1441</v>
+      </c>
+      <c r="AA71" t="s">
         <v>1442</v>
       </c>
-      <c r="AA71" t="s">
-        <v>1443</v>
-      </c>
       <c r="AB71">
         <v>1</v>
       </c>
       <c r="AC71" t="s">
-        <v>769</v>
+        <v>625</v>
       </c>
     </row>
     <row r="72" spans="2:29">
@@ -21520,16 +21520,16 @@
         <v>1067</v>
       </c>
       <c r="Z72" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AA72" t="s">
         <v>1444</v>
       </c>
-      <c r="AA72" t="s">
-        <v>1445</v>
-      </c>
       <c r="AB72">
         <v>1</v>
       </c>
       <c r="AC72" t="s">
-        <v>569</v>
+        <v>909</v>
       </c>
     </row>
     <row r="73" spans="2:29">
@@ -21597,16 +21597,16 @@
         <v>1069</v>
       </c>
       <c r="Z73" t="s">
+        <v>1445</v>
+      </c>
+      <c r="AA73" t="s">
         <v>1446</v>
       </c>
-      <c r="AA73" t="s">
-        <v>1447</v>
-      </c>
       <c r="AB73">
         <v>1</v>
       </c>
       <c r="AC73" t="s">
-        <v>799</v>
+        <v>631</v>
       </c>
     </row>
     <row r="74" spans="2:29">
@@ -21674,16 +21674,16 @@
         <v>1071</v>
       </c>
       <c r="Z74" t="s">
+        <v>1447</v>
+      </c>
+      <c r="AA74" t="s">
         <v>1448</v>
       </c>
-      <c r="AA74" t="s">
-        <v>1449</v>
-      </c>
       <c r="AB74">
         <v>1</v>
       </c>
       <c r="AC74" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
     </row>
     <row r="75" spans="2:29">
@@ -21751,16 +21751,16 @@
         <v>1073</v>
       </c>
       <c r="Z75" t="s">
+        <v>1449</v>
+      </c>
+      <c r="AA75" t="s">
         <v>1450</v>
       </c>
-      <c r="AA75" t="s">
-        <v>1451</v>
-      </c>
       <c r="AB75">
         <v>1</v>
       </c>
       <c r="AC75" t="s">
-        <v>639</v>
+        <v>823</v>
       </c>
     </row>
     <row r="76" spans="2:29">
@@ -21828,16 +21828,16 @@
         <v>1075</v>
       </c>
       <c r="Z76" t="s">
+        <v>1451</v>
+      </c>
+      <c r="AA76" t="s">
         <v>1452</v>
       </c>
-      <c r="AA76" t="s">
-        <v>1453</v>
-      </c>
       <c r="AB76">
         <v>1</v>
       </c>
       <c r="AC76" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
     </row>
     <row r="77" spans="2:29">
@@ -21905,16 +21905,16 @@
         <v>1077</v>
       </c>
       <c r="Z77" t="s">
+        <v>1453</v>
+      </c>
+      <c r="AA77" t="s">
         <v>1454</v>
       </c>
-      <c r="AA77" t="s">
-        <v>1455</v>
-      </c>
       <c r="AB77">
         <v>1</v>
       </c>
       <c r="AC77" t="s">
-        <v>801</v>
+        <v>641</v>
       </c>
     </row>
     <row r="78" spans="2:29">
@@ -21982,16 +21982,16 @@
         <v>1079</v>
       </c>
       <c r="Z78" t="s">
+        <v>1455</v>
+      </c>
+      <c r="AA78" t="s">
         <v>1456</v>
       </c>
-      <c r="AA78" t="s">
-        <v>1457</v>
-      </c>
       <c r="AB78">
         <v>1</v>
       </c>
       <c r="AC78" t="s">
-        <v>937</v>
+        <v>759</v>
       </c>
     </row>
     <row r="79" spans="2:29">
@@ -22059,16 +22059,16 @@
         <v>1081</v>
       </c>
       <c r="Z79" t="s">
+        <v>1457</v>
+      </c>
+      <c r="AA79" t="s">
         <v>1458</v>
       </c>
-      <c r="AA79" t="s">
-        <v>1459</v>
-      </c>
       <c r="AB79">
         <v>1</v>
       </c>
       <c r="AC79" t="s">
-        <v>793</v>
+        <v>659</v>
       </c>
     </row>
     <row r="80" spans="2:29">
@@ -22136,16 +22136,16 @@
         <v>1083</v>
       </c>
       <c r="Z80" t="s">
+        <v>1459</v>
+      </c>
+      <c r="AA80" t="s">
         <v>1460</v>
       </c>
-      <c r="AA80" t="s">
-        <v>1461</v>
-      </c>
       <c r="AB80">
         <v>1</v>
       </c>
       <c r="AC80" t="s">
-        <v>573</v>
+        <v>633</v>
       </c>
     </row>
     <row r="81" spans="2:29">
@@ -22213,16 +22213,16 @@
         <v>1085</v>
       </c>
       <c r="Z81" t="s">
+        <v>1461</v>
+      </c>
+      <c r="AA81" t="s">
         <v>1462</v>
       </c>
-      <c r="AA81" t="s">
-        <v>1463</v>
-      </c>
       <c r="AB81">
         <v>1</v>
       </c>
       <c r="AC81" t="s">
-        <v>851</v>
+        <v>783</v>
       </c>
     </row>
     <row r="82" spans="2:29">
@@ -22290,16 +22290,16 @@
         <v>1087</v>
       </c>
       <c r="Z82" t="s">
+        <v>1463</v>
+      </c>
+      <c r="AA82" t="s">
         <v>1464</v>
       </c>
-      <c r="AA82" t="s">
-        <v>1465</v>
-      </c>
       <c r="AB82">
         <v>1</v>
       </c>
       <c r="AC82" t="s">
-        <v>917</v>
+        <v>711</v>
       </c>
     </row>
     <row r="83" spans="2:29">
@@ -22367,16 +22367,16 @@
         <v>1089</v>
       </c>
       <c r="Z83" t="s">
+        <v>1465</v>
+      </c>
+      <c r="AA83" t="s">
         <v>1466</v>
       </c>
-      <c r="AA83" t="s">
-        <v>1467</v>
-      </c>
       <c r="AB83">
         <v>1</v>
       </c>
       <c r="AC83" t="s">
-        <v>713</v>
+        <v>763</v>
       </c>
     </row>
     <row r="84" spans="2:29">
@@ -22444,16 +22444,16 @@
         <v>1091</v>
       </c>
       <c r="Z84" t="s">
+        <v>1467</v>
+      </c>
+      <c r="AA84" t="s">
         <v>1468</v>
       </c>
-      <c r="AA84" t="s">
-        <v>1469</v>
-      </c>
       <c r="AB84">
         <v>1</v>
       </c>
       <c r="AC84" t="s">
-        <v>775</v>
+        <v>797</v>
       </c>
     </row>
     <row r="85" spans="2:29">
@@ -22521,16 +22521,16 @@
         <v>1093</v>
       </c>
       <c r="Z85" t="s">
+        <v>1469</v>
+      </c>
+      <c r="AA85" t="s">
         <v>1470</v>
       </c>
-      <c r="AA85" t="s">
-        <v>1471</v>
-      </c>
       <c r="AB85">
         <v>1</v>
       </c>
       <c r="AC85" t="s">
-        <v>643</v>
+        <v>841</v>
       </c>
     </row>
     <row r="86" spans="2:29">
@@ -22598,16 +22598,16 @@
         <v>1095</v>
       </c>
       <c r="Z86" t="s">
+        <v>1471</v>
+      </c>
+      <c r="AA86" t="s">
         <v>1472</v>
       </c>
-      <c r="AA86" t="s">
-        <v>1473</v>
-      </c>
       <c r="AB86">
         <v>1</v>
       </c>
       <c r="AC86" t="s">
-        <v>887</v>
+        <v>855</v>
       </c>
     </row>
     <row r="87" spans="2:29">
@@ -22675,16 +22675,16 @@
         <v>1097</v>
       </c>
       <c r="Z87" t="s">
+        <v>1473</v>
+      </c>
+      <c r="AA87" t="s">
         <v>1474</v>
       </c>
-      <c r="AA87" t="s">
-        <v>1475</v>
-      </c>
       <c r="AB87">
         <v>1</v>
       </c>
       <c r="AC87" t="s">
-        <v>897</v>
+        <v>805</v>
       </c>
     </row>
     <row r="88" spans="2:29">
@@ -22752,16 +22752,16 @@
         <v>1099</v>
       </c>
       <c r="Z88" t="s">
+        <v>1475</v>
+      </c>
+      <c r="AA88" t="s">
         <v>1476</v>
       </c>
-      <c r="AA88" t="s">
-        <v>1477</v>
-      </c>
       <c r="AB88">
         <v>1</v>
       </c>
       <c r="AC88" t="s">
-        <v>577</v>
+        <v>903</v>
       </c>
     </row>
     <row r="89" spans="2:29">
@@ -22829,16 +22829,16 @@
         <v>1101</v>
       </c>
       <c r="Z89" t="s">
+        <v>1477</v>
+      </c>
+      <c r="AA89" t="s">
         <v>1478</v>
       </c>
-      <c r="AA89" t="s">
-        <v>1479</v>
-      </c>
       <c r="AB89">
         <v>1</v>
       </c>
       <c r="AC89" t="s">
-        <v>583</v>
+        <v>751</v>
       </c>
     </row>
     <row r="90" spans="2:29">
@@ -22906,16 +22906,16 @@
         <v>1103</v>
       </c>
       <c r="Z90" t="s">
+        <v>1479</v>
+      </c>
+      <c r="AA90" t="s">
         <v>1480</v>
       </c>
-      <c r="AA90" t="s">
-        <v>1481</v>
-      </c>
       <c r="AB90">
         <v>1</v>
       </c>
       <c r="AC90" t="s">
-        <v>689</v>
+        <v>785</v>
       </c>
     </row>
     <row r="91" spans="2:29">
@@ -22983,16 +22983,16 @@
         <v>1105</v>
       </c>
       <c r="Z91" t="s">
+        <v>1481</v>
+      </c>
+      <c r="AA91" t="s">
         <v>1482</v>
       </c>
-      <c r="AA91" t="s">
-        <v>1483</v>
-      </c>
       <c r="AB91">
         <v>1</v>
       </c>
       <c r="AC91" t="s">
-        <v>853</v>
+        <v>571</v>
       </c>
     </row>
     <row r="92" spans="2:29">
@@ -23060,16 +23060,16 @@
         <v>1107</v>
       </c>
       <c r="Z92" t="s">
+        <v>1483</v>
+      </c>
+      <c r="AA92" t="s">
         <v>1484</v>
       </c>
-      <c r="AA92" t="s">
-        <v>1485</v>
-      </c>
       <c r="AB92">
         <v>1</v>
       </c>
       <c r="AC92" t="s">
-        <v>619</v>
+        <v>675</v>
       </c>
     </row>
     <row r="93" spans="2:29">
@@ -23137,16 +23137,16 @@
         <v>1109</v>
       </c>
       <c r="Z93" t="s">
+        <v>1485</v>
+      </c>
+      <c r="AA93" t="s">
         <v>1486</v>
       </c>
-      <c r="AA93" t="s">
-        <v>1487</v>
-      </c>
       <c r="AB93">
         <v>1</v>
       </c>
       <c r="AC93" t="s">
-        <v>679</v>
+        <v>863</v>
       </c>
     </row>
     <row r="94" spans="2:29">
@@ -23214,16 +23214,16 @@
         <v>1111</v>
       </c>
       <c r="Z94" t="s">
+        <v>1487</v>
+      </c>
+      <c r="AA94" t="s">
         <v>1488</v>
       </c>
-      <c r="AA94" t="s">
-        <v>1489</v>
-      </c>
       <c r="AB94">
         <v>1</v>
       </c>
       <c r="AC94" t="s">
-        <v>699</v>
+        <v>629</v>
       </c>
     </row>
     <row r="95" spans="2:29">
@@ -23291,16 +23291,16 @@
         <v>1113</v>
       </c>
       <c r="Z95" t="s">
+        <v>1489</v>
+      </c>
+      <c r="AA95" t="s">
         <v>1490</v>
       </c>
-      <c r="AA95" t="s">
-        <v>1491</v>
-      </c>
       <c r="AB95">
         <v>1</v>
       </c>
       <c r="AC95" t="s">
-        <v>843</v>
+        <v>615</v>
       </c>
     </row>
     <row r="96" spans="2:29">
@@ -23368,16 +23368,16 @@
         <v>1115</v>
       </c>
       <c r="Z96" t="s">
+        <v>1491</v>
+      </c>
+      <c r="AA96" t="s">
         <v>1492</v>
       </c>
-      <c r="AA96" t="s">
-        <v>1341</v>
-      </c>
       <c r="AB96">
         <v>1</v>
       </c>
       <c r="AC96" t="s">
-        <v>795</v>
+        <v>883</v>
       </c>
     </row>
     <row r="97" spans="2:29">
@@ -23454,7 +23454,7 @@
         <v>1</v>
       </c>
       <c r="AC97" t="s">
-        <v>835</v>
+        <v>781</v>
       </c>
     </row>
     <row r="98" spans="2:29">
@@ -23531,7 +23531,7 @@
         <v>1</v>
       </c>
       <c r="AC98" t="s">
-        <v>671</v>
+        <v>891</v>
       </c>
     </row>
     <row r="99" spans="2:29">
@@ -23608,7 +23608,7 @@
         <v>1</v>
       </c>
       <c r="AC99" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
     </row>
     <row r="100" spans="2:29">
@@ -23685,7 +23685,7 @@
         <v>1</v>
       </c>
       <c r="AC100" t="s">
-        <v>617</v>
+        <v>755</v>
       </c>
     </row>
     <row r="101" spans="2:29">
@@ -23762,7 +23762,7 @@
         <v>1</v>
       </c>
       <c r="AC101" t="s">
-        <v>693</v>
+        <v>869</v>
       </c>
     </row>
     <row r="102" spans="2:29">
@@ -23833,13 +23833,13 @@
         <v>1503</v>
       </c>
       <c r="AA102" t="s">
-        <v>1504</v>
+        <v>1369</v>
       </c>
       <c r="AB102">
         <v>1</v>
       </c>
       <c r="AC102" t="s">
-        <v>827</v>
+        <v>899</v>
       </c>
     </row>
     <row r="103" spans="2:29">
@@ -23907,16 +23907,16 @@
         <v>1129</v>
       </c>
       <c r="Z103" t="s">
+        <v>1504</v>
+      </c>
+      <c r="AA103" t="s">
         <v>1505</v>
       </c>
-      <c r="AA103" t="s">
-        <v>1506</v>
-      </c>
       <c r="AB103">
         <v>1</v>
       </c>
       <c r="AC103" t="s">
-        <v>661</v>
+        <v>923</v>
       </c>
     </row>
     <row r="104" spans="2:29">
@@ -23984,16 +23984,16 @@
         <v>1131</v>
       </c>
       <c r="Z104" t="s">
+        <v>1506</v>
+      </c>
+      <c r="AA104" t="s">
         <v>1507</v>
       </c>
-      <c r="AA104" t="s">
-        <v>1508</v>
-      </c>
       <c r="AB104">
         <v>1</v>
       </c>
       <c r="AC104" t="s">
-        <v>627</v>
+        <v>721</v>
       </c>
     </row>
     <row r="105" spans="2:29">
@@ -24061,16 +24061,16 @@
         <v>1133</v>
       </c>
       <c r="Z105" t="s">
+        <v>1508</v>
+      </c>
+      <c r="AA105" t="s">
         <v>1509</v>
       </c>
-      <c r="AA105" t="s">
-        <v>1510</v>
-      </c>
       <c r="AB105">
         <v>1</v>
       </c>
       <c r="AC105" t="s">
-        <v>625</v>
+        <v>915</v>
       </c>
     </row>
     <row r="106" spans="2:29">
@@ -24138,16 +24138,16 @@
         <v>1135</v>
       </c>
       <c r="Z106" t="s">
+        <v>1510</v>
+      </c>
+      <c r="AA106" t="s">
         <v>1511</v>
       </c>
-      <c r="AA106" t="s">
-        <v>1512</v>
-      </c>
       <c r="AB106">
         <v>1</v>
       </c>
       <c r="AC106" t="s">
-        <v>909</v>
+        <v>599</v>
       </c>
     </row>
     <row r="107" spans="2:29">
@@ -24215,16 +24215,16 @@
         <v>1137</v>
       </c>
       <c r="Z107" t="s">
+        <v>1512</v>
+      </c>
+      <c r="AA107" t="s">
         <v>1513</v>
       </c>
-      <c r="AA107" t="s">
-        <v>1514</v>
-      </c>
       <c r="AB107">
         <v>1</v>
       </c>
       <c r="AC107" t="s">
-        <v>631</v>
+        <v>657</v>
       </c>
     </row>
     <row r="108" spans="2:29">
@@ -24292,16 +24292,16 @@
         <v>1139</v>
       </c>
       <c r="Z108" t="s">
+        <v>1514</v>
+      </c>
+      <c r="AA108" t="s">
         <v>1515</v>
       </c>
-      <c r="AA108" t="s">
-        <v>1516</v>
-      </c>
       <c r="AB108">
         <v>1</v>
       </c>
       <c r="AC108" t="s">
-        <v>833</v>
+        <v>809</v>
       </c>
     </row>
     <row r="109" spans="2:29">
@@ -24369,16 +24369,16 @@
         <v>1141</v>
       </c>
       <c r="Z109" t="s">
+        <v>1516</v>
+      </c>
+      <c r="AA109" t="s">
         <v>1517</v>
       </c>
-      <c r="AA109" t="s">
-        <v>1518</v>
-      </c>
       <c r="AB109">
         <v>1</v>
       </c>
       <c r="AC109" t="s">
-        <v>697</v>
+        <v>757</v>
       </c>
     </row>
     <row r="110" spans="2:29">
@@ -24446,16 +24446,16 @@
         <v>1143</v>
       </c>
       <c r="Z110" t="s">
+        <v>1518</v>
+      </c>
+      <c r="AA110" t="s">
         <v>1519</v>
       </c>
-      <c r="AA110" t="s">
-        <v>1520</v>
-      </c>
       <c r="AB110">
         <v>1</v>
       </c>
       <c r="AC110" t="s">
-        <v>613</v>
+        <v>933</v>
       </c>
     </row>
     <row r="111" spans="2:29">
@@ -24523,16 +24523,16 @@
         <v>1145</v>
       </c>
       <c r="Z111" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="AA111" t="s">
-        <v>1522</v>
+        <v>1396</v>
       </c>
       <c r="AB111">
         <v>1</v>
       </c>
       <c r="AC111" t="s">
-        <v>607</v>
+        <v>907</v>
       </c>
     </row>
     <row r="112" spans="2:29">
@@ -24600,16 +24600,16 @@
         <v>1147</v>
       </c>
       <c r="Z112" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="AA112" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="AB112">
         <v>1</v>
       </c>
       <c r="AC112" t="s">
-        <v>725</v>
+        <v>845</v>
       </c>
     </row>
     <row r="113" spans="2:29">
@@ -24677,16 +24677,16 @@
         <v>1149</v>
       </c>
       <c r="Z113" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="AA113" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="AB113">
         <v>1</v>
       </c>
       <c r="AC113" t="s">
-        <v>735</v>
+        <v>861</v>
       </c>
     </row>
     <row r="114" spans="2:29">
@@ -24754,16 +24754,16 @@
         <v>1151</v>
       </c>
       <c r="Z114" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="AA114" t="s">
-        <v>1528</v>
+        <v>1422</v>
       </c>
       <c r="AB114">
         <v>1</v>
       </c>
       <c r="AC114" t="s">
-        <v>703</v>
+        <v>635</v>
       </c>
     </row>
     <row r="115" spans="2:29">
@@ -24831,16 +24831,16 @@
         <v>1153</v>
       </c>
       <c r="Z115" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="AA115" t="s">
-        <v>1455</v>
+        <v>1527</v>
       </c>
       <c r="AB115">
         <v>1</v>
       </c>
       <c r="AC115" t="s">
-        <v>803</v>
+        <v>695</v>
       </c>
     </row>
     <row r="116" spans="2:29">
@@ -24908,16 +24908,16 @@
         <v>1155</v>
       </c>
       <c r="Z116" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="AA116" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="AB116">
         <v>1</v>
       </c>
       <c r="AC116" t="s">
-        <v>849</v>
+        <v>651</v>
       </c>
     </row>
     <row r="117" spans="2:29">
@@ -24985,16 +24985,16 @@
         <v>1157</v>
       </c>
       <c r="Z117" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="AA117" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="AB117">
         <v>1</v>
       </c>
       <c r="AC117" t="s">
-        <v>879</v>
+        <v>913</v>
       </c>
     </row>
     <row r="118" spans="2:29">
@@ -25062,16 +25062,16 @@
         <v>1159</v>
       </c>
       <c r="Z118" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="AA118" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="AB118">
         <v>1</v>
       </c>
       <c r="AC118" t="s">
-        <v>623</v>
+        <v>791</v>
       </c>
     </row>
     <row r="119" spans="2:29">
@@ -25139,16 +25139,16 @@
         <v>1161</v>
       </c>
       <c r="Z119" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="AA119" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="AB119">
         <v>1</v>
       </c>
       <c r="AC119" t="s">
-        <v>565</v>
+        <v>701</v>
       </c>
     </row>
     <row r="120" spans="2:29">
@@ -25216,16 +25216,16 @@
         <v>1163</v>
       </c>
       <c r="Z120" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="AA120" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="AB120">
         <v>1</v>
       </c>
       <c r="AC120" t="s">
-        <v>677</v>
+        <v>921</v>
       </c>
     </row>
     <row r="121" spans="2:29">
@@ -25293,16 +25293,16 @@
         <v>1165</v>
       </c>
       <c r="Z121" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="AA121" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="AB121">
         <v>1</v>
       </c>
       <c r="AC121" t="s">
-        <v>889</v>
+        <v>665</v>
       </c>
     </row>
     <row r="122" spans="2:29">
@@ -25370,16 +25370,16 @@
         <v>1167</v>
       </c>
       <c r="Z122" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="AA122" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="AB122">
         <v>1</v>
       </c>
       <c r="AC122" t="s">
-        <v>761</v>
+        <v>811</v>
       </c>
     </row>
     <row r="123" spans="2:29">
@@ -25447,16 +25447,16 @@
         <v>1169</v>
       </c>
       <c r="Z123" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="AA123" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="AB123">
         <v>1</v>
       </c>
       <c r="AC123" t="s">
-        <v>597</v>
+        <v>655</v>
       </c>
     </row>
     <row r="124" spans="2:29">
@@ -25524,16 +25524,16 @@
         <v>1171</v>
       </c>
       <c r="Z124" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="AA124" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="AB124">
         <v>1</v>
       </c>
       <c r="AC124" t="s">
-        <v>867</v>
+        <v>875</v>
       </c>
     </row>
     <row r="125" spans="2:29">
@@ -25601,16 +25601,16 @@
         <v>1173</v>
       </c>
       <c r="Z125" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="AA125" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="AB125">
         <v>1</v>
       </c>
       <c r="AC125" t="s">
-        <v>865</v>
+        <v>821</v>
       </c>
     </row>
     <row r="126" spans="2:29">
@@ -25678,16 +25678,16 @@
         <v>1175</v>
       </c>
       <c r="Z126" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="AA126" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="AB126">
         <v>1</v>
       </c>
       <c r="AC126" t="s">
-        <v>767</v>
+        <v>605</v>
       </c>
     </row>
     <row r="127" spans="2:29">
@@ -25755,16 +25755,16 @@
         <v>1177</v>
       </c>
       <c r="Z127" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="AA127" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="AB127">
         <v>1</v>
       </c>
       <c r="AC127" t="s">
-        <v>585</v>
+        <v>667</v>
       </c>
     </row>
     <row r="128" spans="2:29">
@@ -25832,16 +25832,16 @@
         <v>1179</v>
       </c>
       <c r="Z128" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="AA128" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="AB128">
         <v>1</v>
       </c>
       <c r="AC128" t="s">
-        <v>807</v>
+        <v>669</v>
       </c>
     </row>
     <row r="129" spans="2:29">
@@ -25909,16 +25909,16 @@
         <v>1181</v>
       </c>
       <c r="Z129" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="AA129" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="AB129">
         <v>1</v>
       </c>
       <c r="AC129" t="s">
-        <v>587</v>
+        <v>925</v>
       </c>
     </row>
     <row r="130" spans="2:29">
@@ -25986,16 +25986,16 @@
         <v>1183</v>
       </c>
       <c r="Z130" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="AA130" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="AB130">
         <v>1</v>
       </c>
       <c r="AC130" t="s">
-        <v>581</v>
+        <v>817</v>
       </c>
     </row>
     <row r="131" spans="2:29">
@@ -26063,16 +26063,16 @@
         <v>1185</v>
       </c>
       <c r="Z131" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="AA131" t="s">
-        <v>1349</v>
+        <v>1559</v>
       </c>
       <c r="AB131">
         <v>1</v>
       </c>
       <c r="AC131" t="s">
-        <v>901</v>
+        <v>649</v>
       </c>
     </row>
     <row r="132" spans="2:29">
@@ -26140,16 +26140,16 @@
         <v>1187</v>
       </c>
       <c r="Z132" t="s">
+        <v>1560</v>
+      </c>
+      <c r="AA132" t="s">
         <v>1561</v>
       </c>
-      <c r="AA132" t="s">
-        <v>1562</v>
-      </c>
       <c r="AB132">
         <v>1</v>
       </c>
       <c r="AC132" t="s">
-        <v>747</v>
+        <v>715</v>
       </c>
     </row>
     <row r="133" spans="2:29">
@@ -26217,16 +26217,16 @@
         <v>1189</v>
       </c>
       <c r="Z133" t="s">
+        <v>1562</v>
+      </c>
+      <c r="AA133" t="s">
         <v>1563</v>
       </c>
-      <c r="AA133" t="s">
-        <v>1564</v>
-      </c>
       <c r="AB133">
         <v>1</v>
       </c>
       <c r="AC133" t="s">
-        <v>753</v>
+        <v>873</v>
       </c>
     </row>
     <row r="134" spans="2:29">
@@ -26294,16 +26294,16 @@
         <v>1191</v>
       </c>
       <c r="Z134" t="s">
+        <v>1564</v>
+      </c>
+      <c r="AA134" t="s">
         <v>1565</v>
       </c>
-      <c r="AA134" t="s">
-        <v>1566</v>
-      </c>
       <c r="AB134">
         <v>1</v>
       </c>
       <c r="AC134" t="s">
-        <v>687</v>
+        <v>769</v>
       </c>
     </row>
     <row r="135" spans="2:29">
@@ -26371,16 +26371,16 @@
         <v>1193</v>
       </c>
       <c r="Z135" t="s">
+        <v>1566</v>
+      </c>
+      <c r="AA135" t="s">
         <v>1567</v>
       </c>
-      <c r="AA135" t="s">
-        <v>1568</v>
-      </c>
       <c r="AB135">
         <v>1</v>
       </c>
       <c r="AC135" t="s">
-        <v>621</v>
+        <v>569</v>
       </c>
     </row>
     <row r="136" spans="2:29">
@@ -26448,16 +26448,16 @@
         <v>1195</v>
       </c>
       <c r="Z136" t="s">
+        <v>1568</v>
+      </c>
+      <c r="AA136" t="s">
         <v>1569</v>
       </c>
-      <c r="AA136" t="s">
-        <v>1570</v>
-      </c>
       <c r="AB136">
         <v>1</v>
       </c>
       <c r="AC136" t="s">
-        <v>591</v>
+        <v>799</v>
       </c>
     </row>
     <row r="137" spans="2:29">
@@ -26525,16 +26525,16 @@
         <v>1197</v>
       </c>
       <c r="Z137" t="s">
+        <v>1570</v>
+      </c>
+      <c r="AA137" t="s">
         <v>1571</v>
       </c>
-      <c r="AA137" t="s">
-        <v>1572</v>
-      </c>
       <c r="AB137">
         <v>1</v>
       </c>
       <c r="AC137" t="s">
-        <v>749</v>
+        <v>847</v>
       </c>
     </row>
     <row r="138" spans="2:29">
@@ -26602,16 +26602,16 @@
         <v>1199</v>
       </c>
       <c r="Z138" t="s">
+        <v>1572</v>
+      </c>
+      <c r="AA138" t="s">
         <v>1573</v>
       </c>
-      <c r="AA138" t="s">
-        <v>1574</v>
-      </c>
       <c r="AB138">
         <v>1</v>
       </c>
       <c r="AC138" t="s">
-        <v>723</v>
+        <v>639</v>
       </c>
     </row>
     <row r="139" spans="2:29">
@@ -26679,16 +26679,16 @@
         <v>1201</v>
       </c>
       <c r="Z139" t="s">
+        <v>1574</v>
+      </c>
+      <c r="AA139" t="s">
         <v>1575</v>
       </c>
-      <c r="AA139" t="s">
-        <v>1576</v>
-      </c>
       <c r="AB139">
         <v>1</v>
       </c>
       <c r="AC139" t="s">
-        <v>673</v>
+        <v>895</v>
       </c>
     </row>
     <row r="140" spans="2:29">
@@ -26756,16 +26756,16 @@
         <v>1203</v>
       </c>
       <c r="Z140" t="s">
+        <v>1576</v>
+      </c>
+      <c r="AA140" t="s">
         <v>1577</v>
       </c>
-      <c r="AA140" t="s">
-        <v>1578</v>
-      </c>
       <c r="AB140">
         <v>1</v>
       </c>
       <c r="AC140" t="s">
-        <v>765</v>
+        <v>801</v>
       </c>
     </row>
     <row r="141" spans="2:29">
@@ -26833,16 +26833,16 @@
         <v>1205</v>
       </c>
       <c r="Z141" t="s">
+        <v>1578</v>
+      </c>
+      <c r="AA141" t="s">
         <v>1579</v>
       </c>
-      <c r="AA141" t="s">
-        <v>1580</v>
-      </c>
       <c r="AB141">
         <v>1</v>
       </c>
       <c r="AC141" t="s">
-        <v>681</v>
+        <v>937</v>
       </c>
     </row>
     <row r="142" spans="2:29">
@@ -26910,16 +26910,16 @@
         <v>1207</v>
       </c>
       <c r="Z142" t="s">
+        <v>1580</v>
+      </c>
+      <c r="AA142" t="s">
         <v>1581</v>
       </c>
-      <c r="AA142" t="s">
-        <v>1582</v>
-      </c>
       <c r="AB142">
         <v>1</v>
       </c>
       <c r="AC142" t="s">
-        <v>745</v>
+        <v>793</v>
       </c>
     </row>
     <row r="143" spans="2:29">
@@ -26987,16 +26987,16 @@
         <v>1209</v>
       </c>
       <c r="Z143" t="s">
+        <v>1582</v>
+      </c>
+      <c r="AA143" t="s">
         <v>1583</v>
       </c>
-      <c r="AA143" t="s">
-        <v>1584</v>
-      </c>
       <c r="AB143">
         <v>1</v>
       </c>
       <c r="AC143" t="s">
-        <v>603</v>
+        <v>731</v>
       </c>
     </row>
     <row r="144" spans="2:29">
@@ -27064,16 +27064,16 @@
         <v>1211</v>
       </c>
       <c r="Z144" t="s">
+        <v>1584</v>
+      </c>
+      <c r="AA144" t="s">
         <v>1585</v>
       </c>
-      <c r="AA144" t="s">
-        <v>1429</v>
-      </c>
       <c r="AB144">
         <v>1</v>
       </c>
       <c r="AC144" t="s">
-        <v>857</v>
+        <v>653</v>
       </c>
     </row>
     <row r="145" spans="2:29">
@@ -27144,13 +27144,13 @@
         <v>1586</v>
       </c>
       <c r="AA145" t="s">
-        <v>1409</v>
+        <v>1587</v>
       </c>
       <c r="AB145">
         <v>1</v>
       </c>
       <c r="AC145" t="s">
-        <v>905</v>
+        <v>743</v>
       </c>
     </row>
     <row r="146" spans="2:29">
@@ -27218,16 +27218,16 @@
         <v>1215</v>
       </c>
       <c r="Z146" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="AA146" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="AB146">
         <v>1</v>
       </c>
       <c r="AC146" t="s">
-        <v>695</v>
+        <v>575</v>
       </c>
     </row>
     <row r="147" spans="2:29">
@@ -27295,16 +27295,16 @@
         <v>1217</v>
       </c>
       <c r="Z147" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="AA147" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="AB147">
         <v>1</v>
       </c>
       <c r="AC147" t="s">
-        <v>651</v>
+        <v>727</v>
       </c>
     </row>
     <row r="148" spans="2:29">
@@ -27372,16 +27372,16 @@
         <v>1219</v>
       </c>
       <c r="Z148" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="AA148" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="AB148">
         <v>1</v>
       </c>
       <c r="AC148" t="s">
-        <v>913</v>
+        <v>885</v>
       </c>
     </row>
     <row r="149" spans="2:29">
@@ -27449,16 +27449,16 @@
         <v>1221</v>
       </c>
       <c r="Z149" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="AA149" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="AB149">
         <v>1</v>
       </c>
       <c r="AC149" t="s">
-        <v>791</v>
+        <v>813</v>
       </c>
     </row>
     <row r="150" spans="2:29">
@@ -27526,16 +27526,16 @@
         <v>1223</v>
       </c>
       <c r="Z150" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="AA150" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="AB150">
         <v>1</v>
       </c>
       <c r="AC150" t="s">
-        <v>701</v>
+        <v>911</v>
       </c>
     </row>
     <row r="151" spans="2:29">
@@ -27603,16 +27603,16 @@
         <v>1225</v>
       </c>
       <c r="Z151" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="AA151" t="s">
-        <v>1598</v>
+        <v>1555</v>
       </c>
       <c r="AB151">
         <v>1</v>
       </c>
       <c r="AC151" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
     </row>
     <row r="152" spans="2:29">
@@ -27689,7 +27689,7 @@
         <v>1</v>
       </c>
       <c r="AC152" t="s">
-        <v>665</v>
+        <v>893</v>
       </c>
     </row>
     <row r="153" spans="2:29">
@@ -27766,7 +27766,7 @@
         <v>1</v>
       </c>
       <c r="AC153" t="s">
-        <v>811</v>
+        <v>871</v>
       </c>
     </row>
     <row r="154" spans="2:29">
@@ -27843,7 +27843,7 @@
         <v>1</v>
       </c>
       <c r="AC154" t="s">
-        <v>655</v>
+        <v>717</v>
       </c>
     </row>
     <row r="155" spans="2:29">
@@ -27920,7 +27920,7 @@
         <v>1</v>
       </c>
       <c r="AC155" t="s">
-        <v>875</v>
+        <v>777</v>
       </c>
     </row>
     <row r="156" spans="2:29">
@@ -27997,7 +27997,7 @@
         <v>1</v>
       </c>
       <c r="AC156" t="s">
-        <v>821</v>
+        <v>689</v>
       </c>
     </row>
     <row r="157" spans="2:29">
@@ -28074,7 +28074,7 @@
         <v>1</v>
       </c>
       <c r="AC157" t="s">
-        <v>605</v>
+        <v>853</v>
       </c>
     </row>
     <row r="158" spans="2:29">
@@ -28151,7 +28151,7 @@
         <v>1</v>
       </c>
       <c r="AC158" t="s">
-        <v>667</v>
+        <v>619</v>
       </c>
     </row>
     <row r="159" spans="2:29">
@@ -28228,7 +28228,7 @@
         <v>1</v>
       </c>
       <c r="AC159" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
     </row>
     <row r="160" spans="2:29">
@@ -28299,13 +28299,13 @@
         <v>1615</v>
       </c>
       <c r="AA160" t="s">
-        <v>1369</v>
+        <v>1616</v>
       </c>
       <c r="AB160">
         <v>1</v>
       </c>
       <c r="AC160" t="s">
-        <v>925</v>
+        <v>699</v>
       </c>
     </row>
     <row r="161" spans="2:29">
@@ -28373,16 +28373,16 @@
         <v>1245</v>
       </c>
       <c r="Z161" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="AA161" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="AB161">
         <v>1</v>
       </c>
       <c r="AC161" t="s">
-        <v>645</v>
+        <v>843</v>
       </c>
     </row>
     <row r="162" spans="2:29">
@@ -28450,16 +28450,16 @@
         <v>1247</v>
       </c>
       <c r="Z162" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="AA162" t="s">
-        <v>1619</v>
+        <v>1468</v>
       </c>
       <c r="AB162">
         <v>1</v>
       </c>
       <c r="AC162" t="s">
-        <v>601</v>
+        <v>795</v>
       </c>
     </row>
     <row r="163" spans="2:29">
@@ -28536,7 +28536,7 @@
         <v>1</v>
       </c>
       <c r="AC163" t="s">
-        <v>709</v>
+        <v>835</v>
       </c>
     </row>
     <row r="164" spans="2:29">
@@ -28613,7 +28613,7 @@
         <v>1</v>
       </c>
       <c r="AC164" t="s">
-        <v>771</v>
+        <v>671</v>
       </c>
     </row>
     <row r="165" spans="2:29">
@@ -28690,7 +28690,7 @@
         <v>1</v>
       </c>
       <c r="AC165" t="s">
-        <v>825</v>
+        <v>623</v>
       </c>
     </row>
     <row r="166" spans="2:29">
@@ -28767,7 +28767,7 @@
         <v>1</v>
       </c>
       <c r="AC166" t="s">
-        <v>691</v>
+        <v>565</v>
       </c>
     </row>
     <row r="167" spans="2:29">
@@ -28844,7 +28844,7 @@
         <v>1</v>
       </c>
       <c r="AC167" t="s">
-        <v>935</v>
+        <v>677</v>
       </c>
     </row>
     <row r="168" spans="2:29">
@@ -28921,7 +28921,7 @@
         <v>1</v>
       </c>
       <c r="AC168" t="s">
-        <v>773</v>
+        <v>889</v>
       </c>
     </row>
     <row r="169" spans="2:29">
@@ -28998,7 +28998,7 @@
         <v>1</v>
       </c>
       <c r="AC169" t="s">
-        <v>739</v>
+        <v>761</v>
       </c>
     </row>
     <row r="170" spans="2:29">
@@ -29075,7 +29075,7 @@
         <v>1</v>
       </c>
       <c r="AC170" t="s">
-        <v>741</v>
+        <v>597</v>
       </c>
     </row>
     <row r="171" spans="2:29">
@@ -29152,7 +29152,7 @@
         <v>1</v>
       </c>
       <c r="AC171" t="s">
-        <v>611</v>
+        <v>867</v>
       </c>
     </row>
     <row r="172" spans="2:29">
@@ -29229,7 +29229,7 @@
         <v>1</v>
       </c>
       <c r="AC172" t="s">
-        <v>837</v>
+        <v>865</v>
       </c>
     </row>
     <row r="173" spans="2:29">
@@ -29300,13 +29300,13 @@
         <v>1640</v>
       </c>
       <c r="AA173" t="s">
-        <v>1415</v>
+        <v>1641</v>
       </c>
       <c r="AB173">
         <v>1</v>
       </c>
       <c r="AC173" t="s">
-        <v>637</v>
+        <v>767</v>
       </c>
     </row>
     <row r="174" spans="2:29">
@@ -29374,16 +29374,16 @@
         <v>1271</v>
       </c>
       <c r="Z174" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="AA174" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="AB174">
         <v>1</v>
       </c>
       <c r="AC174" t="s">
-        <v>939</v>
+        <v>585</v>
       </c>
     </row>
     <row r="175" spans="2:29">
@@ -29451,16 +29451,16 @@
         <v>1273</v>
       </c>
       <c r="Z175" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="AA175" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="AB175">
         <v>1</v>
       </c>
       <c r="AC175" t="s">
-        <v>685</v>
+        <v>807</v>
       </c>
     </row>
     <row r="176" spans="2:29">
@@ -29528,16 +29528,16 @@
         <v>1275</v>
       </c>
       <c r="Z176" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="AA176" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="AB176">
         <v>1</v>
       </c>
       <c r="AC176" t="s">
-        <v>789</v>
+        <v>587</v>
       </c>
     </row>
     <row r="177" spans="2:29">
@@ -29605,16 +29605,16 @@
         <v>1277</v>
       </c>
       <c r="Z177" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="AA177" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="AB177">
         <v>1</v>
       </c>
       <c r="AC177" t="s">
-        <v>785</v>
+        <v>581</v>
       </c>
     </row>
     <row r="178" spans="2:29">
@@ -29682,16 +29682,16 @@
         <v>1279</v>
       </c>
       <c r="Z178" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="AA178" t="s">
-        <v>1650</v>
+        <v>1476</v>
       </c>
       <c r="AB178">
         <v>1</v>
       </c>
       <c r="AC178" t="s">
-        <v>571</v>
+        <v>901</v>
       </c>
     </row>
     <row r="179" spans="2:29">
@@ -29768,7 +29768,7 @@
         <v>1</v>
       </c>
       <c r="AC179" t="s">
-        <v>675</v>
+        <v>747</v>
       </c>
     </row>
     <row r="180" spans="2:29">
@@ -29839,13 +29839,13 @@
         <v>1653</v>
       </c>
       <c r="AA180" t="s">
-        <v>1654</v>
+        <v>1500</v>
       </c>
       <c r="AB180">
         <v>1</v>
       </c>
       <c r="AC180" t="s">
-        <v>863</v>
+        <v>753</v>
       </c>
     </row>
     <row r="181" spans="2:29">
@@ -29913,16 +29913,16 @@
         <v>1285</v>
       </c>
       <c r="Z181" t="s">
+        <v>1654</v>
+      </c>
+      <c r="AA181" t="s">
         <v>1655</v>
       </c>
-      <c r="AA181" t="s">
-        <v>1656</v>
-      </c>
       <c r="AB181">
         <v>1</v>
       </c>
       <c r="AC181" t="s">
-        <v>629</v>
+        <v>595</v>
       </c>
     </row>
     <row r="182" spans="2:29">
@@ -29990,16 +29990,16 @@
         <v>1287</v>
       </c>
       <c r="Z182" t="s">
+        <v>1656</v>
+      </c>
+      <c r="AA182" t="s">
         <v>1657</v>
       </c>
-      <c r="AA182" t="s">
-        <v>1658</v>
-      </c>
       <c r="AB182">
         <v>1</v>
       </c>
       <c r="AC182" t="s">
-        <v>615</v>
+        <v>929</v>
       </c>
     </row>
     <row r="183" spans="2:29">
@@ -30067,16 +30067,16 @@
         <v>1289</v>
       </c>
       <c r="Z183" t="s">
+        <v>1658</v>
+      </c>
+      <c r="AA183" t="s">
         <v>1659</v>
       </c>
-      <c r="AA183" t="s">
-        <v>1660</v>
-      </c>
       <c r="AB183">
         <v>1</v>
       </c>
       <c r="AC183" t="s">
-        <v>883</v>
+        <v>787</v>
       </c>
     </row>
     <row r="184" spans="2:29">
@@ -30144,16 +30144,16 @@
         <v>1291</v>
       </c>
       <c r="Z184" t="s">
+        <v>1660</v>
+      </c>
+      <c r="AA184" t="s">
         <v>1661</v>
       </c>
-      <c r="AA184" t="s">
-        <v>1662</v>
-      </c>
       <c r="AB184">
         <v>1</v>
       </c>
       <c r="AC184" t="s">
-        <v>781</v>
+        <v>719</v>
       </c>
     </row>
     <row r="185" spans="2:29">
@@ -30221,16 +30221,16 @@
         <v>1293</v>
       </c>
       <c r="Z185" t="s">
+        <v>1662</v>
+      </c>
+      <c r="AA185" t="s">
         <v>1663</v>
       </c>
-      <c r="AA185" t="s">
-        <v>1664</v>
-      </c>
       <c r="AB185">
         <v>1</v>
       </c>
       <c r="AC185" t="s">
-        <v>891</v>
+        <v>589</v>
       </c>
     </row>
     <row r="186" spans="2:29">
@@ -30298,16 +30298,16 @@
         <v>1295</v>
       </c>
       <c r="Z186" t="s">
+        <v>1664</v>
+      </c>
+      <c r="AA186" t="s">
         <v>1665</v>
       </c>
-      <c r="AA186" t="s">
-        <v>1666</v>
-      </c>
       <c r="AB186">
         <v>1</v>
       </c>
       <c r="AC186" t="s">
-        <v>609</v>
+        <v>815</v>
       </c>
     </row>
     <row r="187" spans="2:29">
@@ -30375,16 +30375,16 @@
         <v>1297</v>
       </c>
       <c r="Z187" t="s">
+        <v>1666</v>
+      </c>
+      <c r="AA187" t="s">
         <v>1667</v>
       </c>
-      <c r="AA187" t="s">
-        <v>1564</v>
-      </c>
       <c r="AB187">
         <v>1</v>
       </c>
       <c r="AC187" t="s">
-        <v>755</v>
+        <v>579</v>
       </c>
     </row>
     <row r="188" spans="2:29">
@@ -30455,13 +30455,13 @@
         <v>1668</v>
       </c>
       <c r="AA188" t="s">
-        <v>1669</v>
+        <v>1545</v>
       </c>
       <c r="AB188">
         <v>1</v>
       </c>
       <c r="AC188" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="189" spans="2:29">
@@ -30529,16 +30529,16 @@
         <v>1301</v>
       </c>
       <c r="Z189" t="s">
+        <v>1669</v>
+      </c>
+      <c r="AA189" t="s">
         <v>1670</v>
       </c>
-      <c r="AA189" t="s">
-        <v>1475</v>
-      </c>
       <c r="AB189">
         <v>1</v>
       </c>
       <c r="AC189" t="s">
-        <v>899</v>
+        <v>729</v>
       </c>
     </row>
     <row r="190" spans="2:29">
@@ -30615,7 +30615,7 @@
         <v>1</v>
       </c>
       <c r="AC190" t="s">
-        <v>595</v>
+        <v>697</v>
       </c>
     </row>
     <row r="191" spans="2:29">
@@ -30692,7 +30692,7 @@
         <v>1</v>
       </c>
       <c r="AC191" t="s">
-        <v>929</v>
+        <v>613</v>
       </c>
     </row>
     <row r="192" spans="2:29">
@@ -30769,7 +30769,7 @@
         <v>1</v>
       </c>
       <c r="AC192" t="s">
-        <v>787</v>
+        <v>607</v>
       </c>
     </row>
     <row r="193" spans="2:29">
@@ -30846,7 +30846,7 @@
         <v>1</v>
       </c>
       <c r="AC193" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
     </row>
     <row r="194" spans="2:29">
@@ -30923,7 +30923,7 @@
         <v>1</v>
       </c>
       <c r="AC194" t="s">
-        <v>589</v>
+        <v>735</v>
       </c>
     </row>
     <row r="195" spans="2:29">
@@ -31000,7 +31000,7 @@
         <v>1</v>
       </c>
       <c r="AC195" t="s">
-        <v>815</v>
+        <v>703</v>
       </c>
     </row>
     <row r="196" spans="2:29">
@@ -31071,13 +31071,13 @@
         <v>1683</v>
       </c>
       <c r="AA196" t="s">
-        <v>1684</v>
+        <v>1577</v>
       </c>
       <c r="AB196">
         <v>1</v>
       </c>
       <c r="AC196" t="s">
-        <v>579</v>
+        <v>803</v>
       </c>
     </row>
     <row r="197" spans="2:29">
@@ -31145,16 +31145,16 @@
         <v>1317</v>
       </c>
       <c r="Z197" t="s">
+        <v>1684</v>
+      </c>
+      <c r="AA197" t="s">
         <v>1685</v>
       </c>
-      <c r="AA197" t="s">
-        <v>1606</v>
-      </c>
       <c r="AB197">
         <v>1</v>
       </c>
       <c r="AC197" t="s">
-        <v>877</v>
+        <v>849</v>
       </c>
     </row>
     <row r="198" spans="2:29">
@@ -31231,7 +31231,7 @@
         <v>1</v>
       </c>
       <c r="AC198" t="s">
-        <v>729</v>
+        <v>879</v>
       </c>
     </row>
   </sheetData>
@@ -31240,7 +31240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D51A89-2BF7-45BB-94DF-E91956C7F826}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FFC3E2-1A19-4C7F-A6C4-8AEAC6AA49D4}">
   <dimension ref="B9:AB199"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -31400,7 +31400,7 @@
         <v>2383</v>
       </c>
       <c r="Z11" t="s">
-        <v>1772</v>
+        <v>1777</v>
       </c>
       <c r="AA11">
         <v>13.8675</v>
@@ -31474,7 +31474,7 @@
         <v>2384</v>
       </c>
       <c r="Z12" t="s">
-        <v>1773</v>
+        <v>1778</v>
       </c>
       <c r="AA12">
         <v>11.755000000000001</v>
@@ -31548,7 +31548,7 @@
         <v>2385</v>
       </c>
       <c r="Z13" t="s">
-        <v>1812</v>
+        <v>1806</v>
       </c>
       <c r="AA13">
         <v>13.8675</v>
@@ -31622,7 +31622,7 @@
         <v>2386</v>
       </c>
       <c r="Z14" t="s">
-        <v>1764</v>
+        <v>1779</v>
       </c>
       <c r="AA14">
         <v>13.8675</v>
@@ -31696,7 +31696,7 @@
         <v>2387</v>
       </c>
       <c r="Z15" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="AA15">
         <v>13.23875</v>
@@ -31770,7 +31770,7 @@
         <v>2388</v>
       </c>
       <c r="Z16" t="s">
-        <v>1768</v>
+        <v>1786</v>
       </c>
       <c r="AA16">
         <v>14.02875</v>
@@ -31844,7 +31844,7 @@
         <v>2389</v>
       </c>
       <c r="Z17" t="s">
-        <v>1801</v>
+        <v>1814</v>
       </c>
       <c r="AA17">
         <v>13.8675</v>
@@ -31918,7 +31918,7 @@
         <v>2390</v>
       </c>
       <c r="Z18" t="s">
-        <v>1767</v>
+        <v>1785</v>
       </c>
       <c r="AA18">
         <v>13.8675</v>
@@ -31992,7 +31992,7 @@
         <v>2391</v>
       </c>
       <c r="Z19" t="s">
-        <v>1802</v>
+        <v>1796</v>
       </c>
       <c r="AA19">
         <v>0.11874999999999999</v>
@@ -32066,7 +32066,7 @@
         <v>2392</v>
       </c>
       <c r="Z20" t="s">
-        <v>1787</v>
+        <v>1813</v>
       </c>
       <c r="AA20">
         <v>9.06</v>
@@ -32140,7 +32140,7 @@
         <v>2393</v>
       </c>
       <c r="Z21" t="s">
-        <v>1776</v>
+        <v>1766</v>
       </c>
       <c r="AA21">
         <v>14.02875</v>
@@ -32214,7 +32214,7 @@
         <v>2394</v>
       </c>
       <c r="Z22" t="s">
-        <v>1813</v>
+        <v>1792</v>
       </c>
       <c r="AA22">
         <v>13.8675</v>
@@ -32288,7 +32288,7 @@
         <v>2395</v>
       </c>
       <c r="Z23" t="s">
-        <v>1806</v>
+        <v>1800</v>
       </c>
       <c r="AA23">
         <v>13.8675</v>
@@ -32362,7 +32362,7 @@
         <v>2396</v>
       </c>
       <c r="Z24" t="s">
-        <v>1771</v>
+        <v>1776</v>
       </c>
       <c r="AA24">
         <v>6.6375000000000002</v>
@@ -32436,7 +32436,7 @@
         <v>2397</v>
       </c>
       <c r="Z25" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="AA25">
         <v>13.92625</v>
@@ -32510,7 +32510,7 @@
         <v>2398</v>
       </c>
       <c r="Z26" t="s">
-        <v>1799</v>
+        <v>1811</v>
       </c>
       <c r="AA26">
         <v>13.827500000000001</v>
@@ -32584,7 +32584,7 @@
         <v>2399</v>
       </c>
       <c r="Z27" t="s">
-        <v>1781</v>
+        <v>1807</v>
       </c>
       <c r="AA27">
         <v>13.8675</v>
@@ -32658,7 +32658,7 @@
         <v>2400</v>
       </c>
       <c r="Z28" t="s">
-        <v>1797</v>
+        <v>1809</v>
       </c>
       <c r="AA28">
         <v>3.7499999999999999E-3</v>
@@ -32732,7 +32732,7 @@
         <v>2401</v>
       </c>
       <c r="Z29" t="s">
-        <v>1790</v>
+        <v>1771</v>
       </c>
       <c r="AA29">
         <v>2.8424999999999998</v>
@@ -32806,7 +32806,7 @@
         <v>2402</v>
       </c>
       <c r="Z30" t="s">
-        <v>1814</v>
+        <v>1768</v>
       </c>
       <c r="AA30">
         <v>8.1549999999999994</v>
@@ -32954,7 +32954,7 @@
         <v>2404</v>
       </c>
       <c r="Z32" t="s">
-        <v>1788</v>
+        <v>1769</v>
       </c>
       <c r="AA32">
         <v>0.57625000000000004</v>
@@ -33028,7 +33028,7 @@
         <v>2405</v>
       </c>
       <c r="Z33" t="s">
-        <v>1782</v>
+        <v>1787</v>
       </c>
       <c r="AA33">
         <v>1.125E-2</v>
@@ -33102,7 +33102,7 @@
         <v>2406</v>
       </c>
       <c r="Z34" t="s">
-        <v>1784</v>
+        <v>1789</v>
       </c>
       <c r="AA34">
         <v>0.33500000000000002</v>
@@ -33176,7 +33176,7 @@
         <v>2407</v>
       </c>
       <c r="Z35" t="s">
-        <v>1804</v>
+        <v>1798</v>
       </c>
       <c r="AA35">
         <v>1.7500000000000002E-2</v>
@@ -33250,7 +33250,7 @@
         <v>2408</v>
       </c>
       <c r="Z36" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="AA36">
         <v>0.58250000000000002</v>
@@ -33324,7 +33324,7 @@
         <v>2409</v>
       </c>
       <c r="Z37" t="s">
-        <v>1774</v>
+        <v>1764</v>
       </c>
       <c r="AA37">
         <v>1.0075000000000001</v>
@@ -33472,7 +33472,7 @@
         <v>2411</v>
       </c>
       <c r="Z39" t="s">
-        <v>1777</v>
+        <v>1767</v>
       </c>
       <c r="AA39">
         <v>5.9212499999999997</v>
@@ -33546,7 +33546,7 @@
         <v>2412</v>
       </c>
       <c r="Z40" t="s">
-        <v>1765</v>
+        <v>1783</v>
       </c>
       <c r="AA40">
         <v>2.75E-2</v>
@@ -33620,7 +33620,7 @@
         <v>2413</v>
       </c>
       <c r="Z41" t="s">
-        <v>1800</v>
+        <v>1812</v>
       </c>
       <c r="AA41">
         <v>10.682499999999999</v>
@@ -33694,7 +33694,7 @@
         <v>2414</v>
       </c>
       <c r="Z42" t="s">
-        <v>1796</v>
+        <v>1808</v>
       </c>
       <c r="AA42">
         <v>3.9175</v>
@@ -33768,7 +33768,7 @@
         <v>2415</v>
       </c>
       <c r="Z43" t="s">
-        <v>1792</v>
+        <v>1773</v>
       </c>
       <c r="AA43">
         <v>10.8575</v>
@@ -33842,7 +33842,7 @@
         <v>2416</v>
       </c>
       <c r="Z44" t="s">
-        <v>1786</v>
+        <v>1791</v>
       </c>
       <c r="AA44">
         <v>2.61375</v>
@@ -33916,7 +33916,7 @@
         <v>2417</v>
       </c>
       <c r="Z45" t="s">
-        <v>1808</v>
+        <v>1802</v>
       </c>
       <c r="AA45">
         <v>11.2575</v>
@@ -33990,7 +33990,7 @@
         <v>2418</v>
       </c>
       <c r="Z46" t="s">
-        <v>1810</v>
+        <v>1804</v>
       </c>
       <c r="AA46">
         <v>5.0000000000000001E-3</v>
@@ -34064,7 +34064,7 @@
         <v>2419</v>
       </c>
       <c r="Z47" t="s">
-        <v>1807</v>
+        <v>1801</v>
       </c>
       <c r="AA47">
         <v>12.063750000000001</v>
@@ -34138,7 +34138,7 @@
         <v>2420</v>
       </c>
       <c r="Z48" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
       <c r="AA48">
         <v>13.8675</v>
@@ -39891,7 +39891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293EBC44-4849-423E-9942-7EE1C936FA00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE2593F-62F1-4D83-A03E-EE76949C119A}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41711,7 +41711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A00DE15-2D8F-4AFB-A7DC-F6A0B0D68100}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B68F1B-8E82-4074-A473-82F041E05FE2}">
   <dimension ref="B2:M317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -42979,7 +42979,7 @@
         <v>2520</v>
       </c>
       <c r="C42" t="s">
-        <v>1477</v>
+        <v>1371</v>
       </c>
       <c r="D42" t="s">
         <v>2521</v>
@@ -43014,7 +43014,7 @@
         <v>2521</v>
       </c>
       <c r="D43" t="s">
-        <v>1477</v>
+        <v>1371</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -44006,7 +44006,7 @@
         <v>2584</v>
       </c>
       <c r="D74" t="s">
-        <v>1431</v>
+        <v>1351</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -44035,7 +44035,7 @@
         <v>2585</v>
       </c>
       <c r="C75" t="s">
-        <v>1431</v>
+        <v>1351</v>
       </c>
       <c r="D75" t="s">
         <v>2584</v>
@@ -44451,7 +44451,7 @@
         <v>2610</v>
       </c>
       <c r="C88" t="s">
-        <v>1642</v>
+        <v>1424</v>
       </c>
       <c r="D88" t="s">
         <v>2611</v>
@@ -44486,7 +44486,7 @@
         <v>2611</v>
       </c>
       <c r="D89" t="s">
-        <v>1642</v>
+        <v>1424</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -45603,7 +45603,7 @@
         <v>2681</v>
       </c>
       <c r="C124" t="s">
-        <v>1457</v>
+        <v>1579</v>
       </c>
       <c r="D124" t="s">
         <v>2682</v>
@@ -45638,7 +45638,7 @@
         <v>2682</v>
       </c>
       <c r="D125" t="s">
-        <v>1457</v>
+        <v>1579</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -47078,7 +47078,7 @@
         <v>2772</v>
       </c>
       <c r="D170" t="s">
-        <v>1562</v>
+        <v>1652</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -47107,7 +47107,7 @@
         <v>2773</v>
       </c>
       <c r="C171" t="s">
-        <v>1562</v>
+        <v>1652</v>
       </c>
       <c r="D171" t="s">
         <v>2772</v>
@@ -47331,7 +47331,7 @@
         <v>2786</v>
       </c>
       <c r="C178" t="s">
-        <v>1349</v>
+        <v>1476</v>
       </c>
       <c r="D178" t="s">
         <v>2787</v>
@@ -47366,7 +47366,7 @@
         <v>2787</v>
       </c>
       <c r="D179" t="s">
-        <v>1349</v>
+        <v>1476</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -47846,7 +47846,7 @@
         <v>2818</v>
       </c>
       <c r="D194" t="s">
-        <v>1455</v>
+        <v>1577</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -47875,7 +47875,7 @@
         <v>2819</v>
       </c>
       <c r="C195" t="s">
-        <v>1455</v>
+        <v>1577</v>
       </c>
       <c r="D195" t="s">
         <v>2818</v>
@@ -48035,7 +48035,7 @@
         <v>2828</v>
       </c>
       <c r="C200" t="s">
-        <v>1411</v>
+        <v>1522</v>
       </c>
       <c r="D200" t="s">
         <v>2829</v>
@@ -48070,7 +48070,7 @@
         <v>2829</v>
       </c>
       <c r="D201" t="s">
-        <v>1411</v>
+        <v>1522</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -49190,7 +49190,7 @@
         <v>2900</v>
       </c>
       <c r="D236" t="s">
-        <v>1433</v>
+        <v>1353</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -49219,7 +49219,7 @@
         <v>2901</v>
       </c>
       <c r="C237" t="s">
-        <v>1433</v>
+        <v>1353</v>
       </c>
       <c r="D237" t="s">
         <v>2900</v>
@@ -49958,7 +49958,7 @@
         <v>2947</v>
       </c>
       <c r="D260" t="s">
-        <v>1610</v>
+        <v>1549</v>
       </c>
       <c r="E260">
         <v>1</v>
@@ -49987,7 +49987,7 @@
         <v>2948</v>
       </c>
       <c r="C261" t="s">
-        <v>1610</v>
+        <v>1549</v>
       </c>
       <c r="D261" t="s">
         <v>2947</v>
@@ -51750,7 +51750,7 @@
         <v>3056</v>
       </c>
       <c r="D316" t="s">
-        <v>1684</v>
+        <v>1667</v>
       </c>
       <c r="E316">
         <v>1</v>
@@ -51779,7 +51779,7 @@
         <v>3057</v>
       </c>
       <c r="C317" t="s">
-        <v>1684</v>
+        <v>1667</v>
       </c>
       <c r="D317" t="s">
         <v>3056</v>

--- a/VerveStacks_DEU_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_DEU_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E2D30B5-BFCE-4F97-8825-D73FAA314D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9D0D5BE-792F-40D2-AF39-5502FA7B6D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2960,18 +2960,732 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_solelc_won-DEU_0180</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_180</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0079</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_79</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0176</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_176</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0017</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_17</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0046</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_46</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0123</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_123</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0097</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_97</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0185</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_185</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0172</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_172</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0141</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_141</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0149</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_149</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0035</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_35</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0014</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_14</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0026</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_26</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0065</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_65</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0132</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_132</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0048</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_48</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0031</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_31</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0030</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_30</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0173</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_173</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0033</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_33</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0135</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_135</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0130</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_130</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0159</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_159</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0038</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_38</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0098</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_98</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0047</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_47</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0034</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_34</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0110</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_110</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0074</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_74</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0100</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_100</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0117</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_117</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0139</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_139</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0146</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_146</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0121</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_121</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0170</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_170</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0094</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_94</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0127</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_127</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0042</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_42</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0076</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_76</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0155</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_155</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0103</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_103</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_2</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0118</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_118</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0142</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_142</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0037</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_37</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0166</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_166</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0119</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_119</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0187</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_187</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0115</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_115</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0111</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_111</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0003</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_3</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0056</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_56</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0150</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_150</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0032</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_32</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0025</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_25</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0160</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_160</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0109</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_109</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0164</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_164</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_22</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0096</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_96</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0153</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_153</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0168</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_168</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0049</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_49</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0041</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_41</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0133</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_133</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0134</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_134</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0060</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_60</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0108</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_108</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0148</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_148</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0178</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_178</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0072</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_72</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0015</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_15</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0183</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_183</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0112</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_112</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0078</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_78</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0012</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_12</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0126</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_126</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0007</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_7</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0157</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_157</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0083</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_83</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0040</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_40</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0018</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_18</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0073</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_73</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0104</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_104</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0131</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_131</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0064</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_64</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0186</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_186</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0105</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_105</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0088</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_88</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0089</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_89</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_23</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0137</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_137</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0036</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_36</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0188</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_188</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0061</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_61</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0113</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_113</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0084</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_84</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0044</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_44</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0090</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_90</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0005</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_5</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0082</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_82</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0161</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_161</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0125</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_125</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0174</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_174</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0182</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_182</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0165</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_165</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0154</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_154</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0077</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_77</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0107</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_107</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0067</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_67</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0024</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_24</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0021</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_21</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0081</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_81</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0086</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_86</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0070</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_70</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0120</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_120</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0143</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_143</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0158</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_158</t>
+  </si>
+  <si>
     <t>distr_solelc_won-DEU_0128</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell DEU_128</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
     <t>distr_solelc_won-DEU_0001</t>
   </si>
   <si>
@@ -3008,60 +3722,6 @@
     <t>connecting solar and wind to buses in grid cell DEU_87</t>
   </si>
   <si>
-    <t>distr_solelc_won-DEU_0049</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_49</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0041</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_41</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0133</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_133</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0134</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_134</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0060</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_60</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0108</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_108</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0148</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_148</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0178</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_178</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0072</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_72</t>
-  </si>
-  <si>
     <t>distr_solelc_won-DEU_0004</t>
   </si>
   <si>
@@ -3194,402 +3854,6 @@
     <t>connecting solar and wind to buses in grid cell DEU_171</t>
   </si>
   <si>
-    <t>distr_solelc_won-DEU_0040</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_40</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0018</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_18</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0073</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_73</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0104</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_104</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0131</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_131</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0064</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_64</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0186</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_186</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0105</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_105</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0088</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_88</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0089</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_89</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_23</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0137</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_137</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0036</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_36</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0188</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_188</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0061</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_61</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0113</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_113</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0014</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_14</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0026</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_26</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0065</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_65</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0132</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_132</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0048</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_48</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0031</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_31</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0030</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_30</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0173</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_173</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0033</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_33</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0135</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_135</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0130</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_130</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0159</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_159</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0038</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_38</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0098</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_98</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0047</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_47</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0034</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_34</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0110</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_110</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0074</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_74</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0100</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_100</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0117</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_117</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0139</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_139</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0146</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_146</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0121</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_121</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0170</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_170</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0094</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_94</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0111</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_111</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0003</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_3</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0056</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_56</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0150</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_150</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0032</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_32</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0025</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_25</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0160</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_160</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0109</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_109</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0164</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_164</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0022</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_22</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0096</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_96</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0153</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_153</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0168</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_168</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0180</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_180</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0079</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_79</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0176</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_176</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0017</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_17</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0046</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_46</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0123</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_123</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0097</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_97</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0185</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_185</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0172</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_172</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0141</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_141</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0149</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_149</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0035</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_35</t>
-  </si>
-  <si>
     <t>distr_solelc_won-DEU_0066</t>
   </si>
   <si>
@@ -3680,162 +3944,6 @@
     <t>connecting solar and wind to buses in grid cell DEU_181</t>
   </si>
   <si>
-    <t>distr_solelc_won-DEU_0127</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_127</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0042</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_42</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0076</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_76</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0155</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_155</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0103</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_103</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_2</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0118</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_118</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0142</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_142</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0037</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_37</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0166</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_166</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0119</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_119</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0187</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_187</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0115</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_115</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0084</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_84</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0044</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_44</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0090</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_90</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0005</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_5</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0082</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_82</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0161</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_161</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0125</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_125</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0174</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_174</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0182</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_182</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0165</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_165</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0154</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_154</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0077</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_77</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0107</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_107</t>
-  </si>
-  <si>
     <t>distr_solelc_won-DEU_0063</t>
   </si>
   <si>
@@ -3986,117 +4094,717 @@
     <t>connecting solar and wind to buses in grid cell DEU_95</t>
   </si>
   <si>
-    <t>distr_solelc_won-DEU_0015</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_15</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0183</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_183</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0112</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_112</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0078</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_78</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0012</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_12</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0126</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_126</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0007</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_7</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0157</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_157</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0083</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_83</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0067</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_67</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0024</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_24</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0021</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_21</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0081</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_81</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0086</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_86</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0070</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_70</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0120</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_120</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0143</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_143</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0158</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_158</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
+    <t>elc_won-DEU_0180,elc_spv-DEU_0180</t>
+  </si>
+  <si>
+    <t>e_DE1-220,e_DE2-220,e_DE3-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0079,elc_spv-DEU_0079</t>
+  </si>
+  <si>
+    <t>e_DE108-220,e_w156960655-380,e_w172997498-220,e_w456386244-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0176,elc_spv-DEU_0176</t>
+  </si>
+  <si>
+    <t>e_DE16-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0017,elc_spv-DEU_0017</t>
+  </si>
+  <si>
+    <t>e_DE31-380,e_w61918154-220,e_w61918154-380,e_w796306640-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0046,elc_spv-DEU_0046</t>
+  </si>
+  <si>
+    <t>e_DE63-220,e_DE94-380,e_DE95-380,e_w25943440-220,e_w25943440-380,e_w42797575-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0123,elc_spv-DEU_0123</t>
+  </si>
+  <si>
+    <t>e_w133342285-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0097,elc_spv-DEU_0097</t>
+  </si>
+  <si>
+    <t>e_w157164284-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0185,elc_spv-DEU_0185</t>
+  </si>
+  <si>
+    <t>e_w414169327-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0172,elc_spv-DEU_0172</t>
+  </si>
+  <si>
+    <t>e_w942771541-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0141,elc_spv-DEU_0141</t>
+  </si>
+  <si>
+    <t>e_w28956649-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0149,elc_spv-DEU_0149</t>
+  </si>
+  <si>
+    <t>e_w851299584-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0035,elc_spv-DEU_0035</t>
+  </si>
+  <si>
+    <t>e_w29420322-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0014,elc_spv-DEU_0014</t>
+  </si>
+  <si>
+    <t>e_DE105-220,e_DE111-380,e_DE118-220,e_DE122-220,e_DE124-380,e_DE126-220,e_DE129-220,e_DE130-380,e_w106096507-380,e_w1118059105-220,e_w22690852-220,e_w22761692-220,e_w22761692-380,e_w22761839-220,e_w22761839-380,e_w23140544-220,e_w23192640-220,e_w25043127-380,e_w25044557-380,e_w27871140-220,e_w33816726-380,e_w87767098-380,e_w92165128-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0026,elc_spv-DEU_0026</t>
+  </si>
+  <si>
+    <t>e_DE166-220,e_DE171-220,e_w198448981-380,e_w373967500-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0065,elc_spv-DEU_0065</t>
+  </si>
+  <si>
+    <t>e_DE28-380,e_w202164315-380,e_w24604789-380,e_w27739871-220,e_w27739871-380,e_w953015049-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0132,elc_spv-DEU_0132</t>
+  </si>
+  <si>
+    <t>e_DE29-220,e_w33169401-220,e_w33169401-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0048,elc_spv-DEU_0048</t>
+  </si>
+  <si>
+    <t>e_DE30-220,e_DE30-380,e_DE32-220,e_DE33-380,e_DE34-380,e_DE35-220,e_DE35-380,e_w32904794-380,e_w33411203-220,e_w33411203-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0031,elc_spv-DEU_0031</t>
+  </si>
+  <si>
+    <t>e_DE37-220,e_DE38-220,e_DE53-380,e_DE56-380,e_w111973179-220,e_w114319248-220,e_w114319248-380,e_w25506770-380,e_w29472852-220,e_w29472852-380,e_w37764852-220,e_w37764852-380,e_w42861703-220,e_w42861703-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0030,elc_spv-DEU_0030</t>
+  </si>
+  <si>
+    <t>e_DE61-380,e_DE64-220,e_DE65-380,e_DE71-220,e_DE85-380,e_DE88-380,e_DE91-380,e_w112695048-380,e_w157628351-380,e_w24414688-220,e_w24667346-220,e_w24667346-380,e_w24858617-220,e_w42488850-380,e_w42507488-220,e_w42507488-380,e_w42560068-380,e_w42809973-380,e_w51940126-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0173,elc_spv-DEU_0173</t>
+  </si>
+  <si>
+    <t>e_w1068350839-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0033,elc_spv-DEU_0033</t>
+  </si>
+  <si>
+    <t>e_w50643382-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0135,elc_spv-DEU_0135</t>
+  </si>
+  <si>
+    <t>e_w234171369-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0130,elc_spv-DEU_0130</t>
+  </si>
+  <si>
+    <t>e_DE103-380,e_w29713902-380,e_w32690742-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0159,elc_spv-DEU_0159</t>
+  </si>
+  <si>
+    <t>e_DE149-380,e_w1081302145-220,e_w109917397-380,e_w166604822-380,e_w36183042-380,e_w943135226-220,e_w943135226-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0038,elc_spv-DEU_0038</t>
+  </si>
+  <si>
+    <t>e_DE207-380,e_DE208-380,e_DE209-380,e_w35954395-380,e_w42049947-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0098,elc_spv-DEU_0098</t>
+  </si>
+  <si>
+    <t>e_DE40-220,e_DE43-220,e_w151507370-220,e_w24262656-220,e_w24262656-380,e_w28227099-220,e_w30017786-220,e_w953757606-380,e_w953757608-220,e_w953757608-380,e_w97857512-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0047,elc_spv-DEU_0047</t>
+  </si>
+  <si>
+    <t>e_DE42-220,e_DE51-220,e_DE52-220,e_w24230738-380,e_w26383042-380,e_w39229429-380,e_w957746797-220,e_w957746797-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0034,elc_spv-DEU_0034</t>
+  </si>
+  <si>
+    <t>e_w1128250707-220,e_w1128250707-380,e_w23744346-220,e_w26455019-220,e_w29420322-220,e_w31024391-220,e_w31024391-380,e_w883768276-380,e_w883768277-380,e_w883928228-380,e_w883928229-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0110,elc_spv-DEU_0110</t>
+  </si>
+  <si>
+    <t>e_w24757392-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0074,elc_spv-DEU_0074</t>
+  </si>
+  <si>
+    <t>e_w26403575-380,e_w42050342-220,e_w42050342-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0100,elc_spv-DEU_0100</t>
+  </si>
+  <si>
+    <t>e_w28343121-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0117,elc_spv-DEU_0117</t>
+  </si>
+  <si>
+    <t>e_w30040568-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0139,elc_spv-DEU_0139</t>
+  </si>
+  <si>
+    <t>e_w77694901-220,e_w77697810-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0146,elc_spv-DEU_0146</t>
+  </si>
+  <si>
+    <t>e_w946025110-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0121,elc_spv-DEU_0121</t>
+  </si>
+  <si>
+    <t>e_DE212-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0170,elc_spv-DEU_0170</t>
+  </si>
+  <si>
+    <t>e_w24976300-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0094,elc_spv-DEU_0094</t>
+  </si>
+  <si>
+    <t>e_DE163-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0127,elc_spv-DEU_0127</t>
+  </si>
+  <si>
+    <t>e_DE157-380,e_DE158-380,e_w93341407-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0042,elc_spv-DEU_0042</t>
+  </si>
+  <si>
+    <t>e_DE165-380,e_DE168-380,e_w1223405794-220,e_w1223405794-380,e_w147521567-220,e_w147521567-380,e_w149987048-220,e_w149987048-380,e_w23284340-220,e_w23284340-380,e_w24685992-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0076,elc_spv-DEU_0076</t>
+  </si>
+  <si>
+    <t>e_DE169-220,e_w24765111-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0155,elc_spv-DEU_0155</t>
+  </si>
+  <si>
+    <t>e_DE201-220,e_DE203-220,e_DE204-220,e_DE206-220,e_w24976300-220,e_w24976300-380,e_w91086220-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0103,elc_spv-DEU_0103</t>
+  </si>
+  <si>
+    <t>e_DE4-220,e_w27124619-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0002,elc_spv-DEU_0002</t>
+  </si>
+  <si>
+    <t>e_w1024536785-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0118,elc_spv-DEU_0118</t>
+  </si>
+  <si>
+    <t>e_w275466323,e_w275466323-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0142,elc_spv-DEU_0142</t>
+  </si>
+  <si>
+    <t>e_w29084374-220,e_w29084374-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0037,elc_spv-DEU_0037</t>
+  </si>
+  <si>
+    <t>e_w31367940-220,e_w31367940-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0166,elc_spv-DEU_0166</t>
+  </si>
+  <si>
+    <t>e_w39688875-220,e_w515358077-380,e_w941453716-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0119,elc_spv-DEU_0119</t>
+  </si>
+  <si>
+    <t>e_w275466323-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0187,elc_spv-DEU_0187</t>
+  </si>
+  <si>
+    <t>e_w170123812-400</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0115,elc_spv-DEU_0115</t>
+  </si>
+  <si>
+    <t>e_w26474759-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0111,elc_spv-DEU_0111</t>
+  </si>
+  <si>
+    <t>e_DE134-380,e_w149256409-380,e_w152219167-220,e_w25746125-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0003,elc_spv-DEU_0003</t>
+  </si>
+  <si>
+    <t>e_DE136-380,e_DE141-380,e_w24268944-380,e_w25426571-380,e_w25992879-380,e_w26593935-380,e_w870598507,e_w870598507-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0056,elc_spv-DEU_0056</t>
+  </si>
+  <si>
+    <t>e_DE195-380,e_DE196-380,e_DE197-380,e_DE198-380,e_DE199-380,e_w26260052-380,e_w30734324-380,e_w42736239-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0150,elc_spv-DEU_0150</t>
+  </si>
+  <si>
+    <t>e_DE9-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0032,elc_spv-DEU_0032</t>
+  </si>
+  <si>
+    <t>e_w150200540-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0025,elc_spv-DEU_0025</t>
+  </si>
+  <si>
+    <t>e_w152107815-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0160,elc_spv-DEU_0160</t>
+  </si>
+  <si>
+    <t>e_w157328339-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0109,elc_spv-DEU_0109</t>
+  </si>
+  <si>
+    <t>e_w24757393-380,e_w24757833-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0164,elc_spv-DEU_0164</t>
+  </si>
+  <si>
+    <t>e_w518455594-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0022,elc_spv-DEU_0022</t>
+  </si>
+  <si>
+    <t>e_w87653464-220,e_w87653464-380,e_w87653464-400</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0096,elc_spv-DEU_0096</t>
+  </si>
+  <si>
+    <t>e_w948341123-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0153,elc_spv-DEU_0153</t>
+  </si>
+  <si>
+    <t>e_w91080806-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0168,elc_spv-DEU_0168</t>
+  </si>
+  <si>
+    <t>e_w946710698-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0049,elc_spv-DEU_0049</t>
+  </si>
+  <si>
+    <t>e_DE17-380,e_w24493551-380,e_w44717036-380,e_w871646309-380,e_w951273401-380,e_w951773852-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0041,elc_spv-DEU_0041</t>
+  </si>
+  <si>
+    <t>e_DE174-220,e_DE176-220,e_DE178-380,e_DE180-220,e_DE181-380,e_DE182-380,e_r17591073-220,e_w152924498-220,e_w152924498-380,e_w152924508-220,e_w152973139-220,e_w152973139-380,e_w156676050-220,e_w160929097-220,e_w207248812-220,e_w207248812-380,e_w259561755-380,e_w409305507-220,e_w46584363-220,e_w46584363-380,e_w48057110-380,e_w600395952-220,e_w600395952-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0133,elc_spv-DEU_0133</t>
+  </si>
+  <si>
+    <t>e_DE18-220,e_DE18-380,e_DE19-380,e_w59707532-220,e_w59707532-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0134,elc_spv-DEU_0134</t>
+  </si>
+  <si>
+    <t>e_w234171369-380,e_w274603394-380,e_w517421342-220,e_w517421342-380,e_w851299584-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0060,elc_spv-DEU_0060</t>
+  </si>
+  <si>
+    <t>e_w23881272-220,e_w24042358-380,e_w42372159-380,e_w42410916-220,e_w42410916-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0108,elc_spv-DEU_0108</t>
+  </si>
+  <si>
+    <t>e_w24705761-220,e_w24705761-380,e_w28613721-380,e_w954971276-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0148,elc_spv-DEU_0148</t>
+  </si>
+  <si>
+    <t>e_w40621568-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0178,elc_spv-DEU_0178</t>
+  </si>
+  <si>
+    <t>e_w1091984573-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0072,elc_spv-DEU_0072</t>
+  </si>
+  <si>
+    <t>e_w41389594-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0015,elc_spv-DEU_0015</t>
+  </si>
+  <si>
+    <t>e_DE100-220,e_DE100-380,e_DE102-220,e_DE102-380,e_DE66-220,e_DE66-380,e_DE68-220,e_DE68-380,e_DE69-220,e_DE69-380,e_DE72-220,e_DE75-380,e_DE76-380,e_DE78-220,e_DE80-220,e_DE80-380,e_DE81-220,e_DE82-220,e_DE83-220,e_DE84-220,e_DE86-220,e_DE87-220,e_DE87-380,e_DE89-220,e_DE89-380,e_DE92-220,e_DE96-220,e_DE96-380,e_DE98-220,e_w1076001174-220,e_w1076001174-380,e_w113546939-220,e_w113546939-380,e_w121199242-220,e_w121199242-380,e_w1303270458-220,e_w1303270458-380,e_w150267232-220,e_w156973363-220,e_w22944791-220,e_w22964137-380,e_w23022100-220,e_w23022100-380,e_w23067006-380,e_w24280460-380,e_w24415232-220,e_w24921206-220,e_w24921206-380,e_w25051880-220,e_w26291794-380,e_w275138524-380,e_w28452784-220,e_w29077623-220,e_w29077623-380,e_w311444691-380,e_w32472806-380,e_w35763480-220,e_w35763480-380,e_w38584673-220,e_w425100082-380,e_w59925390-220,e_w59925390-380,e_w63114179-220,e_w63114179-380,e_w66038431-220,e_w68549340-220,e_w68549340-380,e_w698870101-220,e_w787840119-220,e_w799361667-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0183,elc_spv-DEU_0183</t>
+  </si>
+  <si>
+    <t>e_DE58-380,e_DE99-380,e_w157806991-380,e_w30164703-380,e_w58429825-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0112,elc_spv-DEU_0112</t>
+  </si>
+  <si>
+    <t>e_w143882655-220,e_w143882655-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0078,elc_spv-DEU_0078</t>
+  </si>
+  <si>
+    <t>e_w148446247-380,e_w29309786-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0012,elc_spv-DEU_0012</t>
+  </si>
+  <si>
+    <t>e_w154869247-220,e_w395847307-220,e_w395847307-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0126,elc_spv-DEU_0126</t>
+  </si>
+  <si>
+    <t>e_w93341407-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0007,elc_spv-DEU_0007</t>
+  </si>
+  <si>
+    <t>e_w979801144-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0157,elc_spv-DEU_0157</t>
+  </si>
+  <si>
+    <t>e_w78441561-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0083,elc_spv-DEU_0083</t>
+  </si>
+  <si>
+    <t>e_w23816140-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0040,elc_spv-DEU_0040</t>
+  </si>
+  <si>
+    <t>e_DE183-220,e_w152261133-220,e_w152261133-380,e_w254326606-380,e_w32151621-220,e_w32725957-220,e_w32725958-220,e_w32731290-220,e_w32966636-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0018,elc_spv-DEU_0018</t>
+  </si>
+  <si>
+    <t>e_DE20-380,e_w1280840211-380,e_w142487746-380,e_w206289192-380,e_w32042992-380,e_w797009308-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0073,elc_spv-DEU_0073</t>
+  </si>
+  <si>
+    <t>e_DE202-220,e_DE202-380,e_DE205-220,e_DE205-380,e_w26404600-380,e_w41389594-220,e_w41389594-380,e_w85523877-220,e_w85523877-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0104,elc_spv-DEU_0104</t>
+  </si>
+  <si>
+    <t>e_DE211-220,e_DE212-220,e_w68532663-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0131,elc_spv-DEU_0131</t>
+  </si>
+  <si>
+    <t>e_DE47-220,e_w26472665-220,e_w26472665-380,e_w943939310-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0064,elc_spv-DEU_0064</t>
+  </si>
+  <si>
+    <t>e_DE49-380,e_w23135618-220,e_w24413992-380,e_w28397771-220,e_w288305056-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0186,elc_spv-DEU_0186</t>
+  </si>
+  <si>
+    <t>e_w170123812-220,e_w170123812-380,e_w170123812-400</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0105,elc_spv-DEU_0105</t>
+  </si>
+  <si>
+    <t>e_w23907283-380,e_w24237879-220,e_w30613895-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0088,elc_spv-DEU_0088</t>
+  </si>
+  <si>
+    <t>e_w57727004-220,e_w57727004-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0089,elc_spv-DEU_0089</t>
+  </si>
+  <si>
+    <t>e_w683227471-380,e_w77038371-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0023,elc_spv-DEU_0023</t>
+  </si>
+  <si>
+    <t>e_w82130902-225,e_w933248930-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0137,elc_spv-DEU_0137</t>
+  </si>
+  <si>
+    <t>e_w75865676-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0036,elc_spv-DEU_0036</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0188,elc_spv-DEU_0188</t>
+  </si>
+  <si>
+    <t>e_w1222597066-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0061,elc_spv-DEU_0061</t>
+  </si>
+  <si>
+    <t>e_w156673636-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0113,elc_spv-DEU_0113</t>
+  </si>
+  <si>
+    <t>e_w32690742-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0084,elc_spv-DEU_0084</t>
+  </si>
+  <si>
+    <t>e_DE10-380,e_DE11-380,e_DE12-380,e_w11285720-380,e_w24502420-380,e_w881636329-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0044,elc_spv-DEU_0044</t>
+  </si>
+  <si>
+    <t>e_DE146-380,e_DE152-380,e_w1245826064-380,e_w1245867884-380,e_w202747445-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0090,elc_spv-DEU_0090</t>
+  </si>
+  <si>
+    <t>e_DE200-380,e_w1093896544-380,e_w31105067-380,e_w88945213-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0005,elc_spv-DEU_0005</t>
+  </si>
+  <si>
+    <t>e_DE62-220,e_DE62-380,e_DE67-220,e_DE67-380,e_DE70-220,e_DE70-380,e_DE73-220,e_DE73-380,e_DE74-220,e_DE74-380,e_DE77-220,e_DE77-380,e_DE79-220,e_DE93-220,e_DE97-220,e_w23084417-220,e_w23380800-220,e_w23380800-380,e_w24462228-220,e_w24462317-220,e_w24462426-220,e_w24462426-380,e_w24478889-220,e_w24478889-380,e_w24479003-220,e_w24479003-380,e_w311444692-380,e_w35818134-220,e_w35818137-220,e_w37554416-220,e_w92024105-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0082,elc_spv-DEU_0082</t>
+  </si>
+  <si>
+    <t>e_w23682013-220,e_w23816140-220,e_w274621059-220,e_w33042984-220,e_w787265962-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0161,elc_spv-DEU_0161</t>
+  </si>
+  <si>
+    <t>e_w28729619-380,e_w398680313-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0125,elc_spv-DEU_0125</t>
+  </si>
+  <si>
+    <t>e_w28956649-220,e_w28956649-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0174,elc_spv-DEU_0174</t>
+  </si>
+  <si>
+    <t>e_w940922557-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0182,elc_spv-DEU_0182</t>
+  </si>
+  <si>
+    <t>e_w941805476-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0165,elc_spv-DEU_0165</t>
+  </si>
+  <si>
+    <t>e_w947118608-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0154,elc_spv-DEU_0154</t>
+  </si>
+  <si>
+    <t>e_DE206-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0077,elc_spv-DEU_0077</t>
+  </si>
+  <si>
+    <t>e_w148446247-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0107,elc_spv-DEU_0107</t>
+  </si>
+  <si>
+    <t>e_w24768051-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0067,elc_spv-DEU_0067</t>
+  </si>
+  <si>
+    <t>e_DE13-380,e_DE14-380,e_w1072574879-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0024,elc_spv-DEU_0024</t>
+  </si>
+  <si>
+    <t>e_DE194-220,e_w39011884-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0021,elc_spv-DEU_0021</t>
+  </si>
+  <si>
+    <t>e_DE213-380,e_w202865176-220,e_w202865177-380,e_w88916034-220,e_w88916034-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0081,elc_spv-DEU_0081</t>
+  </si>
+  <si>
+    <t>e_DE55-220,e_DE57-380,e_w23899043-380,e_w30109913-220,e_w699048438-220,e_w810315511-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0086,elc_spv-DEU_0086</t>
+  </si>
+  <si>
+    <t>e_w27646106-220,e_w35176751-220,e_w35176751-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0070,elc_spv-DEU_0070</t>
+  </si>
+  <si>
+    <t>e_w449010725-380,e_w946969736-380</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0120,elc_spv-DEU_0120</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0143,elc_spv-DEU_0143</t>
+  </si>
+  <si>
+    <t>e_w167352587-220</t>
+  </si>
+  <si>
+    <t>elc_won-DEU_0158,elc_spv-DEU_0158</t>
+  </si>
+  <si>
+    <t>e_w166604822-380</t>
+  </si>
+  <si>
     <t>elc_won-DEU_0128,elc_spv-DEU_0128</t>
   </si>
   <si>
@@ -4139,60 +4847,6 @@
     <t>e_w907539360-380</t>
   </si>
   <si>
-    <t>elc_won-DEU_0049,elc_spv-DEU_0049</t>
-  </si>
-  <si>
-    <t>e_DE17-380,e_w24493551-380,e_w44717036-380,e_w871646309-380,e_w951273401-380,e_w951773852-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0041,elc_spv-DEU_0041</t>
-  </si>
-  <si>
-    <t>e_DE174-220,e_DE176-220,e_DE178-380,e_DE180-220,e_DE181-380,e_DE182-380,e_r17591073-220,e_w152924498-220,e_w152924498-380,e_w152924508-220,e_w152973139-220,e_w152973139-380,e_w156676050-220,e_w160929097-220,e_w207248812-220,e_w207248812-380,e_w259561755-380,e_w409305507-220,e_w46584363-220,e_w46584363-380,e_w48057110-380,e_w600395952-220,e_w600395952-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0133,elc_spv-DEU_0133</t>
-  </si>
-  <si>
-    <t>e_DE18-220,e_DE18-380,e_DE19-380,e_w59707532-220,e_w59707532-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0134,elc_spv-DEU_0134</t>
-  </si>
-  <si>
-    <t>e_w234171369-380,e_w274603394-380,e_w517421342-220,e_w517421342-380,e_w851299584-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0060,elc_spv-DEU_0060</t>
-  </si>
-  <si>
-    <t>e_w23881272-220,e_w24042358-380,e_w42372159-380,e_w42410916-220,e_w42410916-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0108,elc_spv-DEU_0108</t>
-  </si>
-  <si>
-    <t>e_w24705761-220,e_w24705761-380,e_w28613721-380,e_w954971276-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0148,elc_spv-DEU_0148</t>
-  </si>
-  <si>
-    <t>e_w40621568-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0178,elc_spv-DEU_0178</t>
-  </si>
-  <si>
-    <t>e_w1091984573-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0072,elc_spv-DEU_0072</t>
-  </si>
-  <si>
-    <t>e_w41389594-220</t>
-  </si>
-  <si>
     <t>elc_won-DEU_0004,elc_spv-DEU_0004</t>
   </si>
   <si>
@@ -4238,9 +4892,6 @@
     <t>elc_won-DEU_0167,elc_spv-DEU_0167</t>
   </si>
   <si>
-    <t>e_w946710698-220</t>
-  </si>
-  <si>
     <t>elc_won-DEU_0006,elc_spv-DEU_0006</t>
   </si>
   <si>
@@ -4319,396 +4970,6 @@
     <t>elc_won-DEU_0171,elc_spv-DEU_0171</t>
   </si>
   <si>
-    <t>e_w942771541-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0040,elc_spv-DEU_0040</t>
-  </si>
-  <si>
-    <t>e_DE183-220,e_w152261133-220,e_w152261133-380,e_w254326606-380,e_w32151621-220,e_w32725957-220,e_w32725958-220,e_w32731290-220,e_w32966636-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0018,elc_spv-DEU_0018</t>
-  </si>
-  <si>
-    <t>e_DE20-380,e_w1280840211-380,e_w142487746-380,e_w206289192-380,e_w32042992-380,e_w797009308-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0073,elc_spv-DEU_0073</t>
-  </si>
-  <si>
-    <t>e_DE202-220,e_DE202-380,e_DE205-220,e_DE205-380,e_w26404600-380,e_w41389594-220,e_w41389594-380,e_w85523877-220,e_w85523877-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0104,elc_spv-DEU_0104</t>
-  </si>
-  <si>
-    <t>e_DE211-220,e_DE212-220,e_w68532663-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0131,elc_spv-DEU_0131</t>
-  </si>
-  <si>
-    <t>e_DE47-220,e_w26472665-220,e_w26472665-380,e_w943939310-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0064,elc_spv-DEU_0064</t>
-  </si>
-  <si>
-    <t>e_DE49-380,e_w23135618-220,e_w24413992-380,e_w28397771-220,e_w288305056-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0186,elc_spv-DEU_0186</t>
-  </si>
-  <si>
-    <t>e_w170123812-220,e_w170123812-380,e_w170123812-400</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0105,elc_spv-DEU_0105</t>
-  </si>
-  <si>
-    <t>e_w23907283-380,e_w24237879-220,e_w30613895-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0088,elc_spv-DEU_0088</t>
-  </si>
-  <si>
-    <t>e_w57727004-220,e_w57727004-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0089,elc_spv-DEU_0089</t>
-  </si>
-  <si>
-    <t>e_w683227471-380,e_w77038371-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0023,elc_spv-DEU_0023</t>
-  </si>
-  <si>
-    <t>e_w82130902-225,e_w933248930-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0137,elc_spv-DEU_0137</t>
-  </si>
-  <si>
-    <t>e_w75865676-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0036,elc_spv-DEU_0036</t>
-  </si>
-  <si>
-    <t>e_w29420322-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0188,elc_spv-DEU_0188</t>
-  </si>
-  <si>
-    <t>e_w1222597066-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0061,elc_spv-DEU_0061</t>
-  </si>
-  <si>
-    <t>e_w156673636-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0113,elc_spv-DEU_0113</t>
-  </si>
-  <si>
-    <t>e_w32690742-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0014,elc_spv-DEU_0014</t>
-  </si>
-  <si>
-    <t>e_DE105-220,e_DE111-380,e_DE118-220,e_DE122-220,e_DE124-380,e_DE126-220,e_DE129-220,e_DE130-380,e_w106096507-380,e_w1118059105-220,e_w22690852-220,e_w22761692-220,e_w22761692-380,e_w22761839-220,e_w22761839-380,e_w23140544-220,e_w23192640-220,e_w25043127-380,e_w25044557-380,e_w27871140-220,e_w33816726-380,e_w87767098-380,e_w92165128-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0026,elc_spv-DEU_0026</t>
-  </si>
-  <si>
-    <t>e_DE166-220,e_DE171-220,e_w198448981-380,e_w373967500-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0065,elc_spv-DEU_0065</t>
-  </si>
-  <si>
-    <t>e_DE28-380,e_w202164315-380,e_w24604789-380,e_w27739871-220,e_w27739871-380,e_w953015049-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0132,elc_spv-DEU_0132</t>
-  </si>
-  <si>
-    <t>e_DE29-220,e_w33169401-220,e_w33169401-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0048,elc_spv-DEU_0048</t>
-  </si>
-  <si>
-    <t>e_DE30-220,e_DE30-380,e_DE32-220,e_DE33-380,e_DE34-380,e_DE35-220,e_DE35-380,e_w32904794-380,e_w33411203-220,e_w33411203-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0031,elc_spv-DEU_0031</t>
-  </si>
-  <si>
-    <t>e_DE37-220,e_DE38-220,e_DE53-380,e_DE56-380,e_w111973179-220,e_w114319248-220,e_w114319248-380,e_w25506770-380,e_w29472852-220,e_w29472852-380,e_w37764852-220,e_w37764852-380,e_w42861703-220,e_w42861703-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0030,elc_spv-DEU_0030</t>
-  </si>
-  <si>
-    <t>e_DE61-380,e_DE64-220,e_DE65-380,e_DE71-220,e_DE85-380,e_DE88-380,e_DE91-380,e_w112695048-380,e_w157628351-380,e_w24414688-220,e_w24667346-220,e_w24667346-380,e_w24858617-220,e_w42488850-380,e_w42507488-220,e_w42507488-380,e_w42560068-380,e_w42809973-380,e_w51940126-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0173,elc_spv-DEU_0173</t>
-  </si>
-  <si>
-    <t>e_w1068350839-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0033,elc_spv-DEU_0033</t>
-  </si>
-  <si>
-    <t>e_w50643382-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0135,elc_spv-DEU_0135</t>
-  </si>
-  <si>
-    <t>e_w234171369-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0130,elc_spv-DEU_0130</t>
-  </si>
-  <si>
-    <t>e_DE103-380,e_w29713902-380,e_w32690742-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0159,elc_spv-DEU_0159</t>
-  </si>
-  <si>
-    <t>e_DE149-380,e_w1081302145-220,e_w109917397-380,e_w166604822-380,e_w36183042-380,e_w943135226-220,e_w943135226-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0038,elc_spv-DEU_0038</t>
-  </si>
-  <si>
-    <t>e_DE207-380,e_DE208-380,e_DE209-380,e_w35954395-380,e_w42049947-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0098,elc_spv-DEU_0098</t>
-  </si>
-  <si>
-    <t>e_DE40-220,e_DE43-220,e_w151507370-220,e_w24262656-220,e_w24262656-380,e_w28227099-220,e_w30017786-220,e_w953757606-380,e_w953757608-220,e_w953757608-380,e_w97857512-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0047,elc_spv-DEU_0047</t>
-  </si>
-  <si>
-    <t>e_DE42-220,e_DE51-220,e_DE52-220,e_w24230738-380,e_w26383042-380,e_w39229429-380,e_w957746797-220,e_w957746797-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0034,elc_spv-DEU_0034</t>
-  </si>
-  <si>
-    <t>e_w1128250707-220,e_w1128250707-380,e_w23744346-220,e_w26455019-220,e_w29420322-220,e_w31024391-220,e_w31024391-380,e_w883768276-380,e_w883768277-380,e_w883928228-380,e_w883928229-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0110,elc_spv-DEU_0110</t>
-  </si>
-  <si>
-    <t>e_w24757392-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0074,elc_spv-DEU_0074</t>
-  </si>
-  <si>
-    <t>e_w26403575-380,e_w42050342-220,e_w42050342-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0100,elc_spv-DEU_0100</t>
-  </si>
-  <si>
-    <t>e_w28343121-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0117,elc_spv-DEU_0117</t>
-  </si>
-  <si>
-    <t>e_w30040568-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0139,elc_spv-DEU_0139</t>
-  </si>
-  <si>
-    <t>e_w77694901-220,e_w77697810-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0146,elc_spv-DEU_0146</t>
-  </si>
-  <si>
-    <t>e_w946025110-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0121,elc_spv-DEU_0121</t>
-  </si>
-  <si>
-    <t>e_DE212-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0170,elc_spv-DEU_0170</t>
-  </si>
-  <si>
-    <t>e_w24976300-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0094,elc_spv-DEU_0094</t>
-  </si>
-  <si>
-    <t>e_DE163-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0111,elc_spv-DEU_0111</t>
-  </si>
-  <si>
-    <t>e_DE134-380,e_w149256409-380,e_w152219167-220,e_w25746125-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0003,elc_spv-DEU_0003</t>
-  </si>
-  <si>
-    <t>e_DE136-380,e_DE141-380,e_w24268944-380,e_w25426571-380,e_w25992879-380,e_w26593935-380,e_w870598507,e_w870598507-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0056,elc_spv-DEU_0056</t>
-  </si>
-  <si>
-    <t>e_DE195-380,e_DE196-380,e_DE197-380,e_DE198-380,e_DE199-380,e_w26260052-380,e_w30734324-380,e_w42736239-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0150,elc_spv-DEU_0150</t>
-  </si>
-  <si>
-    <t>e_DE9-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0032,elc_spv-DEU_0032</t>
-  </si>
-  <si>
-    <t>e_w150200540-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0025,elc_spv-DEU_0025</t>
-  </si>
-  <si>
-    <t>e_w152107815-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0160,elc_spv-DEU_0160</t>
-  </si>
-  <si>
-    <t>e_w157328339-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0109,elc_spv-DEU_0109</t>
-  </si>
-  <si>
-    <t>e_w24757393-380,e_w24757833-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0164,elc_spv-DEU_0164</t>
-  </si>
-  <si>
-    <t>e_w518455594-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0022,elc_spv-DEU_0022</t>
-  </si>
-  <si>
-    <t>e_w87653464-220,e_w87653464-380,e_w87653464-400</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0096,elc_spv-DEU_0096</t>
-  </si>
-  <si>
-    <t>e_w948341123-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0153,elc_spv-DEU_0153</t>
-  </si>
-  <si>
-    <t>e_w91080806-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0168,elc_spv-DEU_0168</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0180,elc_spv-DEU_0180</t>
-  </si>
-  <si>
-    <t>e_DE1-220,e_DE2-220,e_DE3-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0079,elc_spv-DEU_0079</t>
-  </si>
-  <si>
-    <t>e_DE108-220,e_w156960655-380,e_w172997498-220,e_w456386244-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0176,elc_spv-DEU_0176</t>
-  </si>
-  <si>
-    <t>e_DE16-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0017,elc_spv-DEU_0017</t>
-  </si>
-  <si>
-    <t>e_DE31-380,e_w61918154-220,e_w61918154-380,e_w796306640-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0046,elc_spv-DEU_0046</t>
-  </si>
-  <si>
-    <t>e_DE63-220,e_DE94-380,e_DE95-380,e_w25943440-220,e_w25943440-380,e_w42797575-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0123,elc_spv-DEU_0123</t>
-  </si>
-  <si>
-    <t>e_w133342285-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0097,elc_spv-DEU_0097</t>
-  </si>
-  <si>
-    <t>e_w157164284-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0185,elc_spv-DEU_0185</t>
-  </si>
-  <si>
-    <t>e_w414169327-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0172,elc_spv-DEU_0172</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0141,elc_spv-DEU_0141</t>
-  </si>
-  <si>
-    <t>e_w28956649-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0149,elc_spv-DEU_0149</t>
-  </si>
-  <si>
-    <t>e_w851299584-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0035,elc_spv-DEU_0035</t>
-  </si>
-  <si>
     <t>elc_won-DEU_0066,elc_spv-DEU_0066</t>
   </si>
   <si>
@@ -4766,9 +5027,6 @@
     <t>elc_won-DEU_0156,elc_spv-DEU_0156</t>
   </si>
   <si>
-    <t>e_w78441561-380</t>
-  </si>
-  <si>
     <t>elc_won-DEU_0129,elc_spv-DEU_0129</t>
   </si>
   <si>
@@ -4796,162 +5054,6 @@
     <t>elc_won-DEU_0181,elc_spv-DEU_0181</t>
   </si>
   <si>
-    <t>e_w941805476-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0127,elc_spv-DEU_0127</t>
-  </si>
-  <si>
-    <t>e_DE157-380,e_DE158-380,e_w93341407-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0042,elc_spv-DEU_0042</t>
-  </si>
-  <si>
-    <t>e_DE165-380,e_DE168-380,e_w1223405794-220,e_w1223405794-380,e_w147521567-220,e_w147521567-380,e_w149987048-220,e_w149987048-380,e_w23284340-220,e_w23284340-380,e_w24685992-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0076,elc_spv-DEU_0076</t>
-  </si>
-  <si>
-    <t>e_DE169-220,e_w24765111-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0155,elc_spv-DEU_0155</t>
-  </si>
-  <si>
-    <t>e_DE201-220,e_DE203-220,e_DE204-220,e_DE206-220,e_w24976300-220,e_w24976300-380,e_w91086220-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0103,elc_spv-DEU_0103</t>
-  </si>
-  <si>
-    <t>e_DE4-220,e_w27124619-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0002,elc_spv-DEU_0002</t>
-  </si>
-  <si>
-    <t>e_w1024536785-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0118,elc_spv-DEU_0118</t>
-  </si>
-  <si>
-    <t>e_w275466323,e_w275466323-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0142,elc_spv-DEU_0142</t>
-  </si>
-  <si>
-    <t>e_w29084374-220,e_w29084374-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0037,elc_spv-DEU_0037</t>
-  </si>
-  <si>
-    <t>e_w31367940-220,e_w31367940-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0166,elc_spv-DEU_0166</t>
-  </si>
-  <si>
-    <t>e_w39688875-220,e_w515358077-380,e_w941453716-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0119,elc_spv-DEU_0119</t>
-  </si>
-  <si>
-    <t>e_w275466323-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0187,elc_spv-DEU_0187</t>
-  </si>
-  <si>
-    <t>e_w170123812-400</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0115,elc_spv-DEU_0115</t>
-  </si>
-  <si>
-    <t>e_w26474759-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0084,elc_spv-DEU_0084</t>
-  </si>
-  <si>
-    <t>e_DE10-380,e_DE11-380,e_DE12-380,e_w11285720-380,e_w24502420-380,e_w881636329-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0044,elc_spv-DEU_0044</t>
-  </si>
-  <si>
-    <t>e_DE146-380,e_DE152-380,e_w1245826064-380,e_w1245867884-380,e_w202747445-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0090,elc_spv-DEU_0090</t>
-  </si>
-  <si>
-    <t>e_DE200-380,e_w1093896544-380,e_w31105067-380,e_w88945213-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0005,elc_spv-DEU_0005</t>
-  </si>
-  <si>
-    <t>e_DE62-220,e_DE62-380,e_DE67-220,e_DE67-380,e_DE70-220,e_DE70-380,e_DE73-220,e_DE73-380,e_DE74-220,e_DE74-380,e_DE77-220,e_DE77-380,e_DE79-220,e_DE93-220,e_DE97-220,e_w23084417-220,e_w23380800-220,e_w23380800-380,e_w24462228-220,e_w24462317-220,e_w24462426-220,e_w24462426-380,e_w24478889-220,e_w24478889-380,e_w24479003-220,e_w24479003-380,e_w311444692-380,e_w35818134-220,e_w35818137-220,e_w37554416-220,e_w92024105-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0082,elc_spv-DEU_0082</t>
-  </si>
-  <si>
-    <t>e_w23682013-220,e_w23816140-220,e_w274621059-220,e_w33042984-220,e_w787265962-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0161,elc_spv-DEU_0161</t>
-  </si>
-  <si>
-    <t>e_w28729619-380,e_w398680313-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0125,elc_spv-DEU_0125</t>
-  </si>
-  <si>
-    <t>e_w28956649-220,e_w28956649-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0174,elc_spv-DEU_0174</t>
-  </si>
-  <si>
-    <t>e_w940922557-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0182,elc_spv-DEU_0182</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0165,elc_spv-DEU_0165</t>
-  </si>
-  <si>
-    <t>e_w947118608-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0154,elc_spv-DEU_0154</t>
-  </si>
-  <si>
-    <t>e_DE206-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0077,elc_spv-DEU_0077</t>
-  </si>
-  <si>
-    <t>e_w148446247-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0107,elc_spv-DEU_0107</t>
-  </si>
-  <si>
-    <t>e_w24768051-220</t>
-  </si>
-  <si>
     <t>elc_won-DEU_0063,elc_spv-DEU_0063</t>
   </si>
   <si>
@@ -5093,106 +5195,166 @@
     <t>elc_won-DEU_0095,elc_spv-DEU_0095</t>
   </si>
   <si>
-    <t>elc_won-DEU_0015,elc_spv-DEU_0015</t>
-  </si>
-  <si>
-    <t>e_DE100-220,e_DE100-380,e_DE102-220,e_DE102-380,e_DE66-220,e_DE66-380,e_DE68-220,e_DE68-380,e_DE69-220,e_DE69-380,e_DE72-220,e_DE75-380,e_DE76-380,e_DE78-220,e_DE80-220,e_DE80-380,e_DE81-220,e_DE82-220,e_DE83-220,e_DE84-220,e_DE86-220,e_DE87-220,e_DE87-380,e_DE89-220,e_DE89-380,e_DE92-220,e_DE96-220,e_DE96-380,e_DE98-220,e_w1076001174-220,e_w1076001174-380,e_w113546939-220,e_w113546939-380,e_w121199242-220,e_w121199242-380,e_w1303270458-220,e_w1303270458-380,e_w150267232-220,e_w156973363-220,e_w22944791-220,e_w22964137-380,e_w23022100-220,e_w23022100-380,e_w23067006-380,e_w24280460-380,e_w24415232-220,e_w24921206-220,e_w24921206-380,e_w25051880-220,e_w26291794-380,e_w275138524-380,e_w28452784-220,e_w29077623-220,e_w29077623-380,e_w311444691-380,e_w32472806-380,e_w35763480-220,e_w35763480-380,e_w38584673-220,e_w425100082-380,e_w59925390-220,e_w59925390-380,e_w63114179-220,e_w63114179-380,e_w66038431-220,e_w68549340-220,e_w68549340-380,e_w698870101-220,e_w787840119-220,e_w799361667-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0183,elc_spv-DEU_0183</t>
-  </si>
-  <si>
-    <t>e_DE58-380,e_DE99-380,e_w157806991-380,e_w30164703-380,e_w58429825-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0112,elc_spv-DEU_0112</t>
-  </si>
-  <si>
-    <t>e_w143882655-220,e_w143882655-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0078,elc_spv-DEU_0078</t>
-  </si>
-  <si>
-    <t>e_w148446247-380,e_w29309786-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0012,elc_spv-DEU_0012</t>
-  </si>
-  <si>
-    <t>e_w154869247-220,e_w395847307-220,e_w395847307-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0126,elc_spv-DEU_0126</t>
-  </si>
-  <si>
-    <t>e_w93341407-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0007,elc_spv-DEU_0007</t>
-  </si>
-  <si>
-    <t>e_w979801144-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0157,elc_spv-DEU_0157</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0083,elc_spv-DEU_0083</t>
-  </si>
-  <si>
-    <t>e_w23816140-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0067,elc_spv-DEU_0067</t>
-  </si>
-  <si>
-    <t>e_DE13-380,e_DE14-380,e_w1072574879-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0024,elc_spv-DEU_0024</t>
-  </si>
-  <si>
-    <t>e_DE194-220,e_w39011884-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0021,elc_spv-DEU_0021</t>
-  </si>
-  <si>
-    <t>e_DE213-380,e_w202865176-220,e_w202865177-380,e_w88916034-220,e_w88916034-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0081,elc_spv-DEU_0081</t>
-  </si>
-  <si>
-    <t>e_DE55-220,e_DE57-380,e_w23899043-380,e_w30109913-220,e_w699048438-220,e_w810315511-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0086,elc_spv-DEU_0086</t>
-  </si>
-  <si>
-    <t>e_w27646106-220,e_w35176751-220,e_w35176751-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0070,elc_spv-DEU_0070</t>
-  </si>
-  <si>
-    <t>e_w449010725-380,e_w946969736-380</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0120,elc_spv-DEU_0120</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0143,elc_spv-DEU_0143</t>
-  </si>
-  <si>
-    <t>e_w167352587-220</t>
-  </si>
-  <si>
-    <t>elc_won-DEU_0158,elc_spv-DEU_0158</t>
-  </si>
-  <si>
-    <t>e_w166604822-380</t>
+    <t>distr_wofelc_wof-DEU_0087</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_87</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0037</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_37</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0009</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_9</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0054</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_54</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0011</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_11</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0173</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_173</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0178</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_178</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0003</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_3</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0004</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_4</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0023</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_23</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0118</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_118</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0055</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_55</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0180</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_180</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0036</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_36</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0001</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_1</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0002</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_2</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0020</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_20</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0086</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_86</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0024</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_24</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0179</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_179</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0021</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_21</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0069</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_69</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0053</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_53</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0163</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_163</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0133</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_133</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0012</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_12</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0010</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_10</t>
   </si>
   <si>
     <t>distr_wofelc_wof-DEU_0103</t>
@@ -5213,94 +5375,34 @@
     <t>connecting wind offshore to buses in grid cell DEU_119</t>
   </si>
   <si>
-    <t>distr_wofelc_wof-DEU_0054</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_54</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0069</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_69</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0053</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_53</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0163</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_163</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0180</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_180</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0036</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_36</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0001</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_1</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0002</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_2</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0004</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_4</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0087</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_87</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0037</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_37</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0009</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_9</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0133</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_133</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0012</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_12</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0010</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_10</t>
+    <t>distr_wofelc_wof-DEU_0039</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_39</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0149</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_149</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0052</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_52</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0038</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_38</t>
+  </si>
+  <si>
+    <t>distr_wofelc_wof-DEU_0134</t>
+  </si>
+  <si>
+    <t>connecting wind offshore to buses in grid cell DEU_134</t>
   </si>
   <si>
     <t>distr_wofelc_wof-DEU_0084</t>
@@ -5321,106 +5423,112 @@
     <t>connecting wind offshore to buses in grid cell DEU_172</t>
   </si>
   <si>
-    <t>distr_wofelc_wof-DEU_0023</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_23</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0118</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_118</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0055</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_55</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0020</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_20</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0086</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_86</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0024</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_24</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0179</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_179</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0173</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_173</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0178</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_178</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0003</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_3</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0039</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_39</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0149</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_149</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0052</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_52</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0038</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_38</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0134</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_134</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0021</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_21</t>
-  </si>
-  <si>
-    <t>distr_wofelc_wof-DEU_0011</t>
-  </si>
-  <si>
-    <t>connecting wind offshore to buses in grid cell DEU_11</t>
+    <t>elc_wof-DEU_0087</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0037</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0009</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0054</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0011</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0173</t>
+  </si>
+  <si>
+    <t>e_DE1-220,e_DE3-220</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0178</t>
+  </si>
+  <si>
+    <t>e_DE16-220,e_w1222597066-220,e_w1222597066-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0003</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0004</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0023</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0118</t>
+  </si>
+  <si>
+    <t>e_w1102237380-220,e_w1102237380-380,e_w275466323,e_w275466323-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0055</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0180</t>
+  </si>
+  <si>
+    <t>e_DE2-220</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0036</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0001</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0002</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0020</t>
+  </si>
+  <si>
+    <t>e_w1280840211-380,e_w559702819-220,e_w559702819-380,e_w672738029-220</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0086</t>
+  </si>
+  <si>
+    <t>e_w35176751-220,e_w35176751-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0024</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0179</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0021</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0069</t>
+  </si>
+  <si>
+    <t>e_w1089769599-220,e_w1089769599-380,e_w1280364401-380,e_w289836713-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0053</t>
+  </si>
+  <si>
+    <t>e_w1134105414-380,e_w26455019-220,e_w29420322-220</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0163</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0133</t>
+  </si>
+  <si>
+    <t>e_w234171369-380,e_w30040568-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0012</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0010</t>
   </si>
   <si>
     <t>elc_wof-DEU_0103</t>
@@ -5435,61 +5543,22 @@
     <t>elc_wof-DEU_0119</t>
   </si>
   <si>
-    <t>elc_wof-DEU_0054</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0069</t>
-  </si>
-  <si>
-    <t>e_w1089769599-220,e_w1089769599-380,e_w1280364401-380,e_w289836713-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0053</t>
-  </si>
-  <si>
-    <t>e_w1134105414-380,e_w26455019-220,e_w29420322-220</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0163</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0180</t>
-  </si>
-  <si>
-    <t>e_DE2-220</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0036</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0001</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0002</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0004</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0087</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0037</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0009</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0133</t>
-  </si>
-  <si>
-    <t>e_w234171369-380,e_w30040568-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0012</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0010</t>
+    <t>elc_wof-DEU_0039</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0149</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0052</t>
+  </si>
+  <si>
+    <t>e_w1128250707-220,e_w1128250707-380,e_w157421333-220,e_w23744346-220,e_w266684854-380,e_w31024391-220,e_w31024391-380,e_w32076853-220,e_w32076853-380,e_w42872354-220,e_w829116805-220,e_w829116805-380,e_w883768276-380,e_w883768277-380,e_w883928228-380,e_w883928229-380</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0038</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU_0134</t>
   </si>
   <si>
     <t>elc_wof-DEU_0084</t>
@@ -5505,75 +5574,6 @@
   </si>
   <si>
     <t>elc_wof-DEU_0172</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0023</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0118</t>
-  </si>
-  <si>
-    <t>e_w1102237380-220,e_w1102237380-380,e_w275466323,e_w275466323-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0055</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0020</t>
-  </si>
-  <si>
-    <t>e_w1280840211-380,e_w559702819-220,e_w559702819-380,e_w672738029-220</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0086</t>
-  </si>
-  <si>
-    <t>e_w35176751-220,e_w35176751-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0024</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0179</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0173</t>
-  </si>
-  <si>
-    <t>e_DE1-220,e_DE3-220</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0178</t>
-  </si>
-  <si>
-    <t>e_DE16-220,e_w1222597066-220,e_w1222597066-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0003</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0039</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0149</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0052</t>
-  </si>
-  <si>
-    <t>e_w1128250707-220,e_w1128250707-380,e_w157421333-220,e_w23744346-220,e_w266684854-380,e_w31024391-220,e_w31024391-380,e_w32076853-220,e_w32076853-380,e_w42872354-220,e_w829116805-220,e_w829116805-380,e_w883768276-380,e_w883768277-380,e_w883928228-380,e_w883928229-380</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0038</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0134</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0021</t>
-  </si>
-  <si>
-    <t>elc_wof-DEU_0011</t>
   </si>
   <si>
     <t>e_won-DEU_0000</t>
@@ -15133,7 +15133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF68F5D4-4914-4E30-BCC3-6BD9D07618FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F379B2-9E31-47F1-BB36-36DB0DDDEA8E}">
   <dimension ref="B9:AR198"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15350,7 +15350,7 @@
         <v>1</v>
       </c>
       <c r="AC11" t="s">
-        <v>819</v>
+        <v>923</v>
       </c>
       <c r="AE11" t="s">
         <v>942</v>
@@ -15383,13 +15383,13 @@
         <v>1764</v>
       </c>
       <c r="AP11" t="s">
-        <v>1765</v>
+        <v>1571</v>
       </c>
       <c r="AQ11">
         <v>1</v>
       </c>
       <c r="AR11" t="s">
-        <v>769</v>
+        <v>737</v>
       </c>
     </row>
     <row r="12" spans="2:44">
@@ -15466,7 +15466,7 @@
         <v>1</v>
       </c>
       <c r="AC12" t="s">
-        <v>567</v>
+        <v>721</v>
       </c>
       <c r="AE12" t="s">
         <v>942</v>
@@ -15496,16 +15496,16 @@
         <v>1690</v>
       </c>
       <c r="AO12" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="AP12" t="s">
-        <v>1549</v>
+        <v>1345</v>
       </c>
       <c r="AQ12">
         <v>1</v>
       </c>
       <c r="AR12" t="s">
-        <v>609</v>
+        <v>639</v>
       </c>
     </row>
     <row r="13" spans="2:44">
@@ -15582,7 +15582,7 @@
         <v>1</v>
       </c>
       <c r="AC13" t="s">
-        <v>931</v>
+        <v>915</v>
       </c>
       <c r="AE13" t="s">
         <v>942</v>
@@ -15612,16 +15612,16 @@
         <v>1692</v>
       </c>
       <c r="AO13" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="AP13" t="s">
-        <v>1577</v>
+        <v>1683</v>
       </c>
       <c r="AQ13">
         <v>1</v>
       </c>
       <c r="AR13" t="s">
-        <v>801</v>
+        <v>583</v>
       </c>
     </row>
     <row r="14" spans="2:44">
@@ -15698,7 +15698,7 @@
         <v>1</v>
       </c>
       <c r="AC14" t="s">
-        <v>733</v>
+        <v>599</v>
       </c>
       <c r="AE14" t="s">
         <v>942</v>
@@ -15728,10 +15728,10 @@
         <v>1694</v>
       </c>
       <c r="AO14" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="AP14" t="s">
-        <v>1422</v>
+        <v>1345</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -15814,7 +15814,7 @@
         <v>1</v>
       </c>
       <c r="AC15" t="s">
-        <v>705</v>
+        <v>657</v>
       </c>
       <c r="AE15" t="s">
         <v>942</v>
@@ -15844,16 +15844,16 @@
         <v>1696</v>
       </c>
       <c r="AO15" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="AP15" t="s">
-        <v>1770</v>
+        <v>1683</v>
       </c>
       <c r="AQ15">
         <v>1</v>
       </c>
       <c r="AR15" t="s">
-        <v>701</v>
+        <v>587</v>
       </c>
     </row>
     <row r="16" spans="2:44">
@@ -15930,7 +15930,7 @@
         <v>1</v>
       </c>
       <c r="AC16" t="s">
-        <v>839</v>
+        <v>809</v>
       </c>
       <c r="AE16" t="s">
         <v>942</v>
@@ -15960,16 +15960,16 @@
         <v>1698</v>
       </c>
       <c r="AO16" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="AP16" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="AQ16">
         <v>1</v>
       </c>
       <c r="AR16" t="s">
-        <v>669</v>
+        <v>909</v>
       </c>
     </row>
     <row r="17" spans="2:44">
@@ -16046,7 +16046,7 @@
         <v>1</v>
       </c>
       <c r="AC17" t="s">
-        <v>737</v>
+        <v>757</v>
       </c>
       <c r="AE17" t="s">
         <v>942</v>
@@ -16076,16 +16076,16 @@
         <v>1700</v>
       </c>
       <c r="AO17" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="AP17" t="s">
-        <v>1369</v>
+        <v>1772</v>
       </c>
       <c r="AQ17">
         <v>1</v>
       </c>
       <c r="AR17" t="s">
-        <v>889</v>
+        <v>919</v>
       </c>
     </row>
     <row r="18" spans="2:44">
@@ -16162,7 +16162,7 @@
         <v>1</v>
       </c>
       <c r="AC18" t="s">
-        <v>663</v>
+        <v>933</v>
       </c>
       <c r="AE18" t="s">
         <v>942</v>
@@ -16192,16 +16192,16 @@
         <v>1702</v>
       </c>
       <c r="AO18" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="AP18" t="s">
-        <v>1775</v>
+        <v>1683</v>
       </c>
       <c r="AQ18">
         <v>1</v>
       </c>
       <c r="AR18" t="s">
-        <v>923</v>
+        <v>571</v>
       </c>
     </row>
     <row r="19" spans="2:44">
@@ -16278,7 +16278,7 @@
         <v>1</v>
       </c>
       <c r="AC19" t="s">
-        <v>647</v>
+        <v>907</v>
       </c>
       <c r="AE19" t="s">
         <v>942</v>
@@ -16308,16 +16308,16 @@
         <v>1704</v>
       </c>
       <c r="AO19" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="AP19" t="s">
-        <v>1422</v>
+        <v>1683</v>
       </c>
       <c r="AQ19">
         <v>1</v>
       </c>
       <c r="AR19" t="s">
-        <v>637</v>
+        <v>573</v>
       </c>
     </row>
     <row r="20" spans="2:44">
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="AC20" t="s">
-        <v>829</v>
+        <v>845</v>
       </c>
       <c r="AE20" t="s">
         <v>942</v>
@@ -16424,16 +16424,16 @@
         <v>1706</v>
       </c>
       <c r="AO20" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="AP20" t="s">
-        <v>1649</v>
+        <v>1635</v>
       </c>
       <c r="AQ20">
         <v>1</v>
       </c>
       <c r="AR20" t="s">
-        <v>567</v>
+        <v>611</v>
       </c>
     </row>
     <row r="21" spans="2:44">
@@ -16510,7 +16510,7 @@
         <v>1</v>
       </c>
       <c r="AC21" t="s">
-        <v>831</v>
+        <v>861</v>
       </c>
       <c r="AE21" t="s">
         <v>942</v>
@@ -16540,16 +16540,16 @@
         <v>1708</v>
       </c>
       <c r="AO21" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="AP21" t="s">
-        <v>1649</v>
+        <v>1777</v>
       </c>
       <c r="AQ21">
         <v>1</v>
       </c>
       <c r="AR21" t="s">
-        <v>569</v>
+        <v>799</v>
       </c>
     </row>
     <row r="22" spans="2:44">
@@ -16626,7 +16626,7 @@
         <v>1</v>
       </c>
       <c r="AC22" t="s">
-        <v>683</v>
+        <v>635</v>
       </c>
       <c r="AE22" t="s">
         <v>942</v>
@@ -16656,16 +16656,16 @@
         <v>1710</v>
       </c>
       <c r="AO22" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="AP22" t="s">
-        <v>1649</v>
+        <v>1639</v>
       </c>
       <c r="AQ22">
         <v>1</v>
       </c>
       <c r="AR22" t="s">
-        <v>573</v>
+        <v>673</v>
       </c>
     </row>
     <row r="23" spans="2:44">
@@ -16742,7 +16742,7 @@
         <v>1</v>
       </c>
       <c r="AC23" t="s">
-        <v>779</v>
+        <v>593</v>
       </c>
       <c r="AE23" t="s">
         <v>942</v>
@@ -16772,16 +16772,16 @@
         <v>1712</v>
       </c>
       <c r="AO23" t="s">
+        <v>1779</v>
+      </c>
+      <c r="AP23" t="s">
         <v>1780</v>
       </c>
-      <c r="AP23" t="s">
-        <v>1335</v>
-      </c>
       <c r="AQ23">
         <v>1</v>
       </c>
       <c r="AR23" t="s">
-        <v>737</v>
+        <v>923</v>
       </c>
     </row>
     <row r="24" spans="2:44">
@@ -16858,7 +16858,7 @@
         <v>1</v>
       </c>
       <c r="AC24" t="s">
-        <v>859</v>
+        <v>617</v>
       </c>
       <c r="AE24" t="s">
         <v>942</v>
@@ -16891,13 +16891,13 @@
         <v>1781</v>
       </c>
       <c r="AP24" t="s">
-        <v>1422</v>
+        <v>1345</v>
       </c>
       <c r="AQ24">
         <v>1</v>
       </c>
       <c r="AR24" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="25" spans="2:44">
@@ -16974,7 +16974,7 @@
         <v>1</v>
       </c>
       <c r="AC25" t="s">
-        <v>919</v>
+        <v>693</v>
       </c>
       <c r="AE25" t="s">
         <v>942</v>
@@ -17007,13 +17007,13 @@
         <v>1782</v>
       </c>
       <c r="AP25" t="s">
-        <v>1649</v>
+        <v>1683</v>
       </c>
       <c r="AQ25">
         <v>1</v>
       </c>
       <c r="AR25" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="2:44">
@@ -17090,7 +17090,7 @@
         <v>1</v>
       </c>
       <c r="AC26" t="s">
-        <v>707</v>
+        <v>827</v>
       </c>
       <c r="AE26" t="s">
         <v>942</v>
@@ -17123,13 +17123,13 @@
         <v>1783</v>
       </c>
       <c r="AP26" t="s">
-        <v>1784</v>
+        <v>1683</v>
       </c>
       <c r="AQ26">
         <v>1</v>
       </c>
       <c r="AR26" t="s">
-        <v>829</v>
+        <v>569</v>
       </c>
     </row>
     <row r="27" spans="2:44">
@@ -17206,7 +17206,7 @@
         <v>1</v>
       </c>
       <c r="AC27" t="s">
-        <v>573</v>
+        <v>661</v>
       </c>
       <c r="AE27" t="s">
         <v>942</v>
@@ -17236,16 +17236,16 @@
         <v>1720</v>
       </c>
       <c r="AO27" t="s">
+        <v>1784</v>
+      </c>
+      <c r="AP27" t="s">
         <v>1785</v>
       </c>
-      <c r="AP27" t="s">
-        <v>1649</v>
-      </c>
       <c r="AQ27">
         <v>1</v>
       </c>
       <c r="AR27" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
     </row>
     <row r="28" spans="2:44">
@@ -17322,7 +17322,7 @@
         <v>1</v>
       </c>
       <c r="AC28" t="s">
-        <v>851</v>
+        <v>627</v>
       </c>
       <c r="AE28" t="s">
         <v>942</v>
@@ -17355,13 +17355,13 @@
         <v>1786</v>
       </c>
       <c r="AP28" t="s">
-        <v>1649</v>
+        <v>1787</v>
       </c>
       <c r="AQ28">
         <v>1</v>
       </c>
       <c r="AR28" t="s">
-        <v>585</v>
+        <v>735</v>
       </c>
     </row>
     <row r="29" spans="2:44">
@@ -17438,7 +17438,7 @@
         <v>1</v>
       </c>
       <c r="AC29" t="s">
-        <v>917</v>
+        <v>625</v>
       </c>
       <c r="AE29" t="s">
         <v>942</v>
@@ -17468,16 +17468,16 @@
         <v>1724</v>
       </c>
       <c r="AO29" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="AP29" t="s">
-        <v>1788</v>
+        <v>1635</v>
       </c>
       <c r="AQ29">
         <v>1</v>
       </c>
       <c r="AR29" t="s">
-        <v>731</v>
+        <v>613</v>
       </c>
     </row>
     <row r="30" spans="2:44">
@@ -17554,7 +17554,7 @@
         <v>1</v>
       </c>
       <c r="AC30" t="s">
-        <v>713</v>
+        <v>909</v>
       </c>
       <c r="AE30" t="s">
         <v>942</v>
@@ -17587,13 +17587,13 @@
         <v>1789</v>
       </c>
       <c r="AP30" t="s">
-        <v>1790</v>
+        <v>1780</v>
       </c>
       <c r="AQ30">
         <v>1</v>
       </c>
       <c r="AR30" t="s">
-        <v>733</v>
+        <v>921</v>
       </c>
     </row>
     <row r="31" spans="2:44">
@@ -17670,7 +17670,7 @@
         <v>1</v>
       </c>
       <c r="AC31" t="s">
-        <v>775</v>
+        <v>631</v>
       </c>
       <c r="AE31" t="s">
         <v>942</v>
@@ -17700,16 +17700,16 @@
         <v>1728</v>
       </c>
       <c r="AO31" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="AP31" t="s">
-        <v>1537</v>
+        <v>1683</v>
       </c>
       <c r="AQ31">
         <v>1</v>
       </c>
       <c r="AR31" t="s">
-        <v>907</v>
+        <v>607</v>
       </c>
     </row>
     <row r="32" spans="2:44">
@@ -17786,7 +17786,7 @@
         <v>1</v>
       </c>
       <c r="AC32" t="s">
-        <v>643</v>
+        <v>833</v>
       </c>
       <c r="AE32" t="s">
         <v>942</v>
@@ -17816,16 +17816,16 @@
         <v>1730</v>
       </c>
       <c r="AO32" t="s">
+        <v>1791</v>
+      </c>
+      <c r="AP32" t="s">
         <v>1792</v>
       </c>
-      <c r="AP32" t="s">
-        <v>1549</v>
-      </c>
       <c r="AQ32">
         <v>1</v>
       </c>
       <c r="AR32" t="s">
-        <v>611</v>
+        <v>701</v>
       </c>
     </row>
     <row r="33" spans="2:44">
@@ -17902,7 +17902,7 @@
         <v>1</v>
       </c>
       <c r="AC33" t="s">
-        <v>887</v>
+        <v>823</v>
       </c>
       <c r="AE33" t="s">
         <v>942</v>
@@ -17941,7 +17941,7 @@
         <v>1</v>
       </c>
       <c r="AR33" t="s">
-        <v>799</v>
+        <v>669</v>
       </c>
     </row>
     <row r="34" spans="2:44">
@@ -18018,7 +18018,7 @@
         <v>1</v>
       </c>
       <c r="AC34" t="s">
-        <v>897</v>
+        <v>881</v>
       </c>
       <c r="AE34" t="s">
         <v>942</v>
@@ -18051,13 +18051,13 @@
         <v>1795</v>
       </c>
       <c r="AP34" t="s">
-        <v>1553</v>
+        <v>1447</v>
       </c>
       <c r="AQ34">
         <v>1</v>
       </c>
       <c r="AR34" t="s">
-        <v>673</v>
+        <v>889</v>
       </c>
     </row>
     <row r="35" spans="2:44">
@@ -18134,7 +18134,7 @@
         <v>1</v>
       </c>
       <c r="AC35" t="s">
-        <v>577</v>
+        <v>641</v>
       </c>
       <c r="AE35" t="s">
         <v>942</v>
@@ -18173,7 +18173,7 @@
         <v>1</v>
       </c>
       <c r="AR35" t="s">
-        <v>605</v>
+        <v>829</v>
       </c>
     </row>
     <row r="36" spans="2:44">
@@ -18250,7 +18250,7 @@
         <v>1</v>
       </c>
       <c r="AC36" t="s">
-        <v>583</v>
+        <v>759</v>
       </c>
       <c r="AE36" t="s">
         <v>942</v>
@@ -18283,13 +18283,13 @@
         <v>1798</v>
       </c>
       <c r="AP36" t="s">
-        <v>1799</v>
+        <v>1683</v>
       </c>
       <c r="AQ36">
         <v>1</v>
       </c>
       <c r="AR36" t="s">
-        <v>735</v>
+        <v>589</v>
       </c>
     </row>
     <row r="37" spans="2:44">
@@ -18366,7 +18366,7 @@
         <v>1</v>
       </c>
       <c r="AC37" t="s">
-        <v>687</v>
+        <v>659</v>
       </c>
       <c r="AE37" t="s">
         <v>942</v>
@@ -18396,16 +18396,16 @@
         <v>1740</v>
       </c>
       <c r="AO37" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="AP37" t="s">
-        <v>1549</v>
+        <v>1683</v>
       </c>
       <c r="AQ37">
         <v>1</v>
       </c>
       <c r="AR37" t="s">
-        <v>613</v>
+        <v>585</v>
       </c>
     </row>
     <row r="38" spans="2:44">
@@ -18482,7 +18482,7 @@
         <v>1</v>
       </c>
       <c r="AC38" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="AE38" t="s">
         <v>942</v>
@@ -18512,16 +18512,16 @@
         <v>1742</v>
       </c>
       <c r="AO38" t="s">
+        <v>1800</v>
+      </c>
+      <c r="AP38" t="s">
         <v>1801</v>
       </c>
-      <c r="AP38" t="s">
-        <v>1775</v>
-      </c>
       <c r="AQ38">
         <v>1</v>
       </c>
       <c r="AR38" t="s">
-        <v>921</v>
+        <v>769</v>
       </c>
     </row>
     <row r="39" spans="2:44">
@@ -18598,7 +18598,7 @@
         <v>1</v>
       </c>
       <c r="AC39" t="s">
-        <v>591</v>
+        <v>783</v>
       </c>
       <c r="AE39" t="s">
         <v>942</v>
@@ -18631,13 +18631,13 @@
         <v>1802</v>
       </c>
       <c r="AP39" t="s">
-        <v>1803</v>
+        <v>1635</v>
       </c>
       <c r="AQ39">
         <v>1</v>
       </c>
       <c r="AR39" t="s">
-        <v>909</v>
+        <v>609</v>
       </c>
     </row>
     <row r="40" spans="2:44">
@@ -18714,7 +18714,7 @@
         <v>1</v>
       </c>
       <c r="AC40" t="s">
-        <v>749</v>
+        <v>711</v>
       </c>
       <c r="AE40" t="s">
         <v>942</v>
@@ -18744,16 +18744,16 @@
         <v>1746</v>
       </c>
       <c r="AO40" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="AP40" t="s">
-        <v>1805</v>
+        <v>1417</v>
       </c>
       <c r="AQ40">
         <v>1</v>
       </c>
       <c r="AR40" t="s">
-        <v>919</v>
+        <v>801</v>
       </c>
     </row>
     <row r="41" spans="2:44">
@@ -18830,7 +18830,7 @@
         <v>1</v>
       </c>
       <c r="AC41" t="s">
-        <v>723</v>
+        <v>763</v>
       </c>
       <c r="AE41" t="s">
         <v>942</v>
@@ -18860,16 +18860,16 @@
         <v>1748</v>
       </c>
       <c r="AO41" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="AP41" t="s">
-        <v>1649</v>
+        <v>1639</v>
       </c>
       <c r="AQ41">
         <v>1</v>
       </c>
       <c r="AR41" t="s">
-        <v>571</v>
+        <v>643</v>
       </c>
     </row>
     <row r="42" spans="2:44">
@@ -18946,7 +18946,7 @@
         <v>1</v>
       </c>
       <c r="AC42" t="s">
-        <v>673</v>
+        <v>797</v>
       </c>
       <c r="AE42" t="s">
         <v>942</v>
@@ -18976,16 +18976,16 @@
         <v>1750</v>
       </c>
       <c r="AO42" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="AP42" t="s">
-        <v>1553</v>
+        <v>1671</v>
       </c>
       <c r="AQ42">
         <v>1</v>
       </c>
       <c r="AR42" t="s">
-        <v>643</v>
+        <v>861</v>
       </c>
     </row>
     <row r="43" spans="2:44">
@@ -19062,7 +19062,7 @@
         <v>1</v>
       </c>
       <c r="AC43" t="s">
-        <v>765</v>
+        <v>841</v>
       </c>
       <c r="AE43" t="s">
         <v>942</v>
@@ -19092,16 +19092,16 @@
         <v>1752</v>
       </c>
       <c r="AO43" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="AP43" t="s">
-        <v>1637</v>
+        <v>1807</v>
       </c>
       <c r="AQ43">
         <v>1</v>
       </c>
       <c r="AR43" t="s">
-        <v>861</v>
+        <v>667</v>
       </c>
     </row>
     <row r="44" spans="2:44">
@@ -19178,7 +19178,7 @@
         <v>1</v>
       </c>
       <c r="AC44" t="s">
-        <v>681</v>
+        <v>855</v>
       </c>
       <c r="AE44" t="s">
         <v>942</v>
@@ -19208,16 +19208,16 @@
         <v>1754</v>
       </c>
       <c r="AO44" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="AP44" t="s">
-        <v>1810</v>
+        <v>1345</v>
       </c>
       <c r="AQ44">
         <v>1</v>
       </c>
       <c r="AR44" t="s">
-        <v>667</v>
+        <v>641</v>
       </c>
     </row>
     <row r="45" spans="2:44">
@@ -19294,7 +19294,7 @@
         <v>1</v>
       </c>
       <c r="AC45" t="s">
-        <v>745</v>
+        <v>805</v>
       </c>
       <c r="AE45" t="s">
         <v>942</v>
@@ -19324,16 +19324,16 @@
         <v>1756</v>
       </c>
       <c r="AO45" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="AP45" t="s">
-        <v>1422</v>
+        <v>1655</v>
       </c>
       <c r="AQ45">
         <v>1</v>
       </c>
       <c r="AR45" t="s">
-        <v>641</v>
+        <v>831</v>
       </c>
     </row>
     <row r="46" spans="2:44">
@@ -19410,7 +19410,7 @@
         <v>1</v>
       </c>
       <c r="AC46" t="s">
-        <v>603</v>
+        <v>903</v>
       </c>
       <c r="AE46" t="s">
         <v>942</v>
@@ -19440,16 +19440,16 @@
         <v>1758</v>
       </c>
       <c r="AO46" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="AP46" t="s">
-        <v>1621</v>
+        <v>1811</v>
       </c>
       <c r="AQ46">
         <v>1</v>
       </c>
       <c r="AR46" t="s">
-        <v>831</v>
+        <v>731</v>
       </c>
     </row>
     <row r="47" spans="2:44">
@@ -19520,13 +19520,13 @@
         <v>1394</v>
       </c>
       <c r="AA47" t="s">
-        <v>1349</v>
+        <v>1395</v>
       </c>
       <c r="AB47">
         <v>1</v>
       </c>
       <c r="AC47" t="s">
-        <v>857</v>
+        <v>751</v>
       </c>
       <c r="AE47" t="s">
         <v>942</v>
@@ -19556,16 +19556,16 @@
         <v>1760</v>
       </c>
       <c r="AO47" t="s">
+        <v>1812</v>
+      </c>
+      <c r="AP47" t="s">
         <v>1813</v>
       </c>
-      <c r="AP47" t="s">
-        <v>1649</v>
-      </c>
       <c r="AQ47">
         <v>1</v>
       </c>
       <c r="AR47" t="s">
-        <v>607</v>
+        <v>733</v>
       </c>
     </row>
     <row r="48" spans="2:44">
@@ -19633,16 +19633,16 @@
         <v>1019</v>
       </c>
       <c r="Z48" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="AA48" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="AB48">
         <v>1</v>
       </c>
       <c r="AC48" t="s">
-        <v>905</v>
+        <v>817</v>
       </c>
       <c r="AE48" t="s">
         <v>942</v>
@@ -19675,13 +19675,13 @@
         <v>1814</v>
       </c>
       <c r="AP48" t="s">
-        <v>1649</v>
+        <v>1624</v>
       </c>
       <c r="AQ48">
         <v>1</v>
       </c>
       <c r="AR48" t="s">
-        <v>587</v>
+        <v>907</v>
       </c>
     </row>
     <row r="49" spans="2:29">
@@ -19749,16 +19749,16 @@
         <v>1021</v>
       </c>
       <c r="Z49" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="AA49" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="AB49">
         <v>1</v>
       </c>
       <c r="AC49" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="50" spans="2:29">
@@ -19826,16 +19826,16 @@
         <v>1023</v>
       </c>
       <c r="Z50" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="AA50" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="AB50">
         <v>1</v>
       </c>
       <c r="AC50" t="s">
-        <v>601</v>
+        <v>715</v>
       </c>
     </row>
     <row r="51" spans="2:29">
@@ -19903,16 +19903,16 @@
         <v>1025</v>
       </c>
       <c r="Z51" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="AA51" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="AB51">
         <v>1</v>
       </c>
       <c r="AC51" t="s">
-        <v>709</v>
+        <v>873</v>
       </c>
     </row>
     <row r="52" spans="2:29">
@@ -19980,16 +19980,16 @@
         <v>1027</v>
       </c>
       <c r="Z52" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="AA52" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="AB52">
         <v>1</v>
       </c>
       <c r="AC52" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="53" spans="2:29">
@@ -20057,16 +20057,16 @@
         <v>1029</v>
       </c>
       <c r="Z53" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="AA53" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="AB53">
         <v>1</v>
       </c>
       <c r="AC53" t="s">
-        <v>825</v>
+        <v>569</v>
       </c>
     </row>
     <row r="54" spans="2:29">
@@ -20134,16 +20134,16 @@
         <v>1031</v>
       </c>
       <c r="Z54" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="AA54" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="AB54">
         <v>1</v>
       </c>
       <c r="AC54" t="s">
-        <v>691</v>
+        <v>799</v>
       </c>
     </row>
     <row r="55" spans="2:29">
@@ -20211,16 +20211,16 @@
         <v>1033</v>
       </c>
       <c r="Z55" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="AA55" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="AB55">
         <v>1</v>
       </c>
       <c r="AC55" t="s">
-        <v>935</v>
+        <v>847</v>
       </c>
     </row>
     <row r="56" spans="2:29">
@@ -20288,16 +20288,16 @@
         <v>1035</v>
       </c>
       <c r="Z56" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="AA56" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="AB56">
         <v>1</v>
       </c>
       <c r="AC56" t="s">
-        <v>773</v>
+        <v>639</v>
       </c>
     </row>
     <row r="57" spans="2:29">
@@ -20365,16 +20365,16 @@
         <v>1037</v>
       </c>
       <c r="Z57" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AA57" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="AB57">
         <v>1</v>
       </c>
       <c r="AC57" t="s">
-        <v>739</v>
+        <v>895</v>
       </c>
     </row>
     <row r="58" spans="2:29">
@@ -20442,16 +20442,16 @@
         <v>1039</v>
       </c>
       <c r="Z58" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="AA58" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="AB58">
         <v>1</v>
       </c>
       <c r="AC58" t="s">
-        <v>741</v>
+        <v>801</v>
       </c>
     </row>
     <row r="59" spans="2:29">
@@ -20519,16 +20519,16 @@
         <v>1041</v>
       </c>
       <c r="Z59" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="AA59" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="AB59">
         <v>1</v>
       </c>
       <c r="AC59" t="s">
-        <v>611</v>
+        <v>937</v>
       </c>
     </row>
     <row r="60" spans="2:29">
@@ -20596,16 +20596,16 @@
         <v>1043</v>
       </c>
       <c r="Z60" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="AA60" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="AB60">
         <v>1</v>
       </c>
       <c r="AC60" t="s">
-        <v>837</v>
+        <v>793</v>
       </c>
     </row>
     <row r="61" spans="2:29">
@@ -20673,16 +20673,16 @@
         <v>1045</v>
       </c>
       <c r="Z61" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="AA61" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="AB61">
         <v>1</v>
       </c>
       <c r="AC61" t="s">
-        <v>637</v>
+        <v>785</v>
       </c>
     </row>
     <row r="62" spans="2:29">
@@ -20750,16 +20750,16 @@
         <v>1047</v>
       </c>
       <c r="Z62" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="AA62" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="AB62">
         <v>1</v>
       </c>
       <c r="AC62" t="s">
-        <v>939</v>
+        <v>571</v>
       </c>
     </row>
     <row r="63" spans="2:29">
@@ -20827,16 +20827,16 @@
         <v>1049</v>
       </c>
       <c r="Z63" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="AA63" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="AB63">
         <v>1</v>
       </c>
       <c r="AC63" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
     </row>
     <row r="64" spans="2:29">
@@ -20904,16 +20904,16 @@
         <v>1051</v>
       </c>
       <c r="Z64" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="AA64" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="AB64">
         <v>1</v>
       </c>
       <c r="AC64" t="s">
-        <v>789</v>
+        <v>863</v>
       </c>
     </row>
     <row r="65" spans="2:29">
@@ -20981,16 +20981,16 @@
         <v>1053</v>
       </c>
       <c r="Z65" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="AA65" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="AB65">
         <v>1</v>
       </c>
       <c r="AC65" t="s">
-        <v>593</v>
+        <v>629</v>
       </c>
     </row>
     <row r="66" spans="2:29">
@@ -21058,16 +21058,16 @@
         <v>1055</v>
       </c>
       <c r="Z66" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="AA66" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="AB66">
         <v>1</v>
       </c>
       <c r="AC66" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="67" spans="2:29">
@@ -21135,16 +21135,16 @@
         <v>1057</v>
       </c>
       <c r="Z67" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="AA67" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="AB67">
         <v>1</v>
       </c>
       <c r="AC67" t="s">
-        <v>693</v>
+        <v>883</v>
       </c>
     </row>
     <row r="68" spans="2:29">
@@ -21212,16 +21212,16 @@
         <v>1059</v>
       </c>
       <c r="Z68" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="AA68" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="AB68">
         <v>1</v>
       </c>
       <c r="AC68" t="s">
-        <v>827</v>
+        <v>781</v>
       </c>
     </row>
     <row r="69" spans="2:29">
@@ -21289,16 +21289,16 @@
         <v>1061</v>
       </c>
       <c r="Z69" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="AA69" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="AB69">
         <v>1</v>
       </c>
       <c r="AC69" t="s">
-        <v>661</v>
+        <v>891</v>
       </c>
     </row>
     <row r="70" spans="2:29">
@@ -21366,16 +21366,16 @@
         <v>1063</v>
       </c>
       <c r="Z70" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="AA70" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="AB70">
         <v>1</v>
       </c>
       <c r="AC70" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
     </row>
     <row r="71" spans="2:29">
@@ -21443,16 +21443,16 @@
         <v>1065</v>
       </c>
       <c r="Z71" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="AA71" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="AB71">
         <v>1</v>
       </c>
       <c r="AC71" t="s">
-        <v>625</v>
+        <v>755</v>
       </c>
     </row>
     <row r="72" spans="2:29">
@@ -21520,16 +21520,16 @@
         <v>1067</v>
       </c>
       <c r="Z72" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="AA72" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="AB72">
         <v>1</v>
       </c>
       <c r="AC72" t="s">
-        <v>909</v>
+        <v>869</v>
       </c>
     </row>
     <row r="73" spans="2:29">
@@ -21597,16 +21597,16 @@
         <v>1069</v>
       </c>
       <c r="Z73" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="AA73" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="AB73">
         <v>1</v>
       </c>
       <c r="AC73" t="s">
-        <v>631</v>
+        <v>899</v>
       </c>
     </row>
     <row r="74" spans="2:29">
@@ -21674,16 +21674,16 @@
         <v>1071</v>
       </c>
       <c r="Z74" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="AA74" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="AB74">
         <v>1</v>
       </c>
       <c r="AC74" t="s">
-        <v>833</v>
+        <v>663</v>
       </c>
     </row>
     <row r="75" spans="2:29">
@@ -21751,16 +21751,16 @@
         <v>1073</v>
       </c>
       <c r="Z75" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="AA75" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="AB75">
         <v>1</v>
       </c>
       <c r="AC75" t="s">
-        <v>823</v>
+        <v>647</v>
       </c>
     </row>
     <row r="76" spans="2:29">
@@ -21828,16 +21828,16 @@
         <v>1075</v>
       </c>
       <c r="Z76" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="AA76" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="AB76">
         <v>1</v>
       </c>
       <c r="AC76" t="s">
-        <v>881</v>
+        <v>829</v>
       </c>
     </row>
     <row r="77" spans="2:29">
@@ -21905,16 +21905,16 @@
         <v>1077</v>
       </c>
       <c r="Z77" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="AA77" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="AB77">
         <v>1</v>
       </c>
       <c r="AC77" t="s">
-        <v>641</v>
+        <v>831</v>
       </c>
     </row>
     <row r="78" spans="2:29">
@@ -21982,16 +21982,16 @@
         <v>1079</v>
       </c>
       <c r="Z78" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="AA78" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="AB78">
         <v>1</v>
       </c>
       <c r="AC78" t="s">
-        <v>759</v>
+        <v>683</v>
       </c>
     </row>
     <row r="79" spans="2:29">
@@ -22059,16 +22059,16 @@
         <v>1081</v>
       </c>
       <c r="Z79" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="AA79" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="AB79">
         <v>1</v>
       </c>
       <c r="AC79" t="s">
-        <v>659</v>
+        <v>779</v>
       </c>
     </row>
     <row r="80" spans="2:29">
@@ -22136,16 +22136,16 @@
         <v>1083</v>
       </c>
       <c r="Z80" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="AA80" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="AB80">
         <v>1</v>
       </c>
       <c r="AC80" t="s">
-        <v>633</v>
+        <v>859</v>
       </c>
     </row>
     <row r="81" spans="2:29">
@@ -22213,16 +22213,16 @@
         <v>1085</v>
       </c>
       <c r="Z81" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="AA81" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="AB81">
         <v>1</v>
       </c>
       <c r="AC81" t="s">
-        <v>783</v>
+        <v>919</v>
       </c>
     </row>
     <row r="82" spans="2:29">
@@ -22290,16 +22290,16 @@
         <v>1087</v>
       </c>
       <c r="Z82" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="AA82" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="AB82">
         <v>1</v>
       </c>
       <c r="AC82" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="83" spans="2:29">
@@ -22367,16 +22367,16 @@
         <v>1089</v>
       </c>
       <c r="Z83" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="AA83" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="AB83">
         <v>1</v>
       </c>
       <c r="AC83" t="s">
-        <v>763</v>
+        <v>595</v>
       </c>
     </row>
     <row r="84" spans="2:29">
@@ -22444,16 +22444,16 @@
         <v>1091</v>
       </c>
       <c r="Z84" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="AA84" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="AB84">
         <v>1</v>
       </c>
       <c r="AC84" t="s">
-        <v>797</v>
+        <v>929</v>
       </c>
     </row>
     <row r="85" spans="2:29">
@@ -22521,16 +22521,16 @@
         <v>1093</v>
       </c>
       <c r="Z85" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="AA85" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="AB85">
         <v>1</v>
       </c>
       <c r="AC85" t="s">
-        <v>841</v>
+        <v>787</v>
       </c>
     </row>
     <row r="86" spans="2:29">
@@ -22598,16 +22598,16 @@
         <v>1095</v>
       </c>
       <c r="Z86" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="AA86" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="AB86">
         <v>1</v>
       </c>
       <c r="AC86" t="s">
-        <v>855</v>
+        <v>719</v>
       </c>
     </row>
     <row r="87" spans="2:29">
@@ -22675,16 +22675,16 @@
         <v>1097</v>
       </c>
       <c r="Z87" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="AA87" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="AB87">
         <v>1</v>
       </c>
       <c r="AC87" t="s">
-        <v>805</v>
+        <v>589</v>
       </c>
     </row>
     <row r="88" spans="2:29">
@@ -22752,16 +22752,16 @@
         <v>1099</v>
       </c>
       <c r="Z88" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="AA88" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="AB88">
         <v>1</v>
       </c>
       <c r="AC88" t="s">
-        <v>903</v>
+        <v>815</v>
       </c>
     </row>
     <row r="89" spans="2:29">
@@ -22829,16 +22829,16 @@
         <v>1101</v>
       </c>
       <c r="Z89" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="AA89" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="AB89">
         <v>1</v>
       </c>
       <c r="AC89" t="s">
-        <v>751</v>
+        <v>579</v>
       </c>
     </row>
     <row r="90" spans="2:29">
@@ -22906,16 +22906,16 @@
         <v>1103</v>
       </c>
       <c r="Z90" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="AA90" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="AB90">
         <v>1</v>
       </c>
       <c r="AC90" t="s">
-        <v>785</v>
+        <v>877</v>
       </c>
     </row>
     <row r="91" spans="2:29">
@@ -22983,16 +22983,16 @@
         <v>1105</v>
       </c>
       <c r="Z91" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="AA91" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="AB91">
         <v>1</v>
       </c>
       <c r="AC91" t="s">
-        <v>571</v>
+        <v>729</v>
       </c>
     </row>
     <row r="92" spans="2:29">
@@ -23060,16 +23060,16 @@
         <v>1107</v>
       </c>
       <c r="Z92" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="AA92" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="AB92">
         <v>1</v>
       </c>
       <c r="AC92" t="s">
-        <v>675</v>
+        <v>645</v>
       </c>
     </row>
     <row r="93" spans="2:29">
@@ -23137,16 +23137,16 @@
         <v>1109</v>
       </c>
       <c r="Z93" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="AA93" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="AB93">
         <v>1</v>
       </c>
       <c r="AC93" t="s">
-        <v>863</v>
+        <v>601</v>
       </c>
     </row>
     <row r="94" spans="2:29">
@@ -23214,16 +23214,16 @@
         <v>1111</v>
       </c>
       <c r="Z94" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="AA94" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="AB94">
         <v>1</v>
       </c>
       <c r="AC94" t="s">
-        <v>629</v>
+        <v>709</v>
       </c>
     </row>
     <row r="95" spans="2:29">
@@ -23291,16 +23291,16 @@
         <v>1113</v>
       </c>
       <c r="Z95" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="AA95" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="AB95">
         <v>1</v>
       </c>
       <c r="AC95" t="s">
-        <v>615</v>
+        <v>771</v>
       </c>
     </row>
     <row r="96" spans="2:29">
@@ -23368,16 +23368,16 @@
         <v>1115</v>
       </c>
       <c r="Z96" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="AA96" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="AB96">
         <v>1</v>
       </c>
       <c r="AC96" t="s">
-        <v>883</v>
+        <v>825</v>
       </c>
     </row>
     <row r="97" spans="2:29">
@@ -23445,16 +23445,16 @@
         <v>1117</v>
       </c>
       <c r="Z97" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="AA97" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="AB97">
         <v>1</v>
       </c>
       <c r="AC97" t="s">
-        <v>781</v>
+        <v>691</v>
       </c>
     </row>
     <row r="98" spans="2:29">
@@ -23522,16 +23522,16 @@
         <v>1119</v>
       </c>
       <c r="Z98" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="AA98" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="AB98">
         <v>1</v>
       </c>
       <c r="AC98" t="s">
-        <v>891</v>
+        <v>935</v>
       </c>
     </row>
     <row r="99" spans="2:29">
@@ -23599,16 +23599,16 @@
         <v>1121</v>
       </c>
       <c r="Z99" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="AA99" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="AB99">
         <v>1</v>
       </c>
       <c r="AC99" t="s">
-        <v>609</v>
+        <v>773</v>
       </c>
     </row>
     <row r="100" spans="2:29">
@@ -23676,16 +23676,16 @@
         <v>1123</v>
       </c>
       <c r="Z100" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="AA100" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="AB100">
         <v>1</v>
       </c>
       <c r="AC100" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
     </row>
     <row r="101" spans="2:29">
@@ -23753,16 +23753,16 @@
         <v>1125</v>
       </c>
       <c r="Z101" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="AA101" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="AB101">
         <v>1</v>
       </c>
       <c r="AC101" t="s">
-        <v>869</v>
+        <v>741</v>
       </c>
     </row>
     <row r="102" spans="2:29">
@@ -23830,16 +23830,16 @@
         <v>1127</v>
       </c>
       <c r="Z102" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="AA102" t="s">
-        <v>1369</v>
+        <v>1505</v>
       </c>
       <c r="AB102">
         <v>1</v>
       </c>
       <c r="AC102" t="s">
-        <v>899</v>
+        <v>611</v>
       </c>
     </row>
     <row r="103" spans="2:29">
@@ -23907,16 +23907,16 @@
         <v>1129</v>
       </c>
       <c r="Z103" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="AA103" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="AB103">
         <v>1</v>
       </c>
       <c r="AC103" t="s">
-        <v>923</v>
+        <v>837</v>
       </c>
     </row>
     <row r="104" spans="2:29">
@@ -23984,16 +23984,16 @@
         <v>1131</v>
       </c>
       <c r="Z104" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="AA104" t="s">
-        <v>1507</v>
+        <v>1345</v>
       </c>
       <c r="AB104">
         <v>1</v>
       </c>
       <c r="AC104" t="s">
-        <v>721</v>
+        <v>637</v>
       </c>
     </row>
     <row r="105" spans="2:29">
@@ -24061,16 +24061,16 @@
         <v>1133</v>
       </c>
       <c r="Z105" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="AA105" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="AB105">
         <v>1</v>
       </c>
       <c r="AC105" t="s">
-        <v>915</v>
+        <v>939</v>
       </c>
     </row>
     <row r="106" spans="2:29">
@@ -24138,16 +24138,16 @@
         <v>1135</v>
       </c>
       <c r="Z106" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="AA106" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="AB106">
         <v>1</v>
       </c>
       <c r="AC106" t="s">
-        <v>599</v>
+        <v>685</v>
       </c>
     </row>
     <row r="107" spans="2:29">
@@ -24215,16 +24215,16 @@
         <v>1137</v>
       </c>
       <c r="Z107" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="AA107" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="AB107">
         <v>1</v>
       </c>
       <c r="AC107" t="s">
-        <v>657</v>
+        <v>789</v>
       </c>
     </row>
     <row r="108" spans="2:29">
@@ -24292,16 +24292,16 @@
         <v>1139</v>
       </c>
       <c r="Z108" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="AA108" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="AB108">
         <v>1</v>
       </c>
       <c r="AC108" t="s">
-        <v>809</v>
+        <v>731</v>
       </c>
     </row>
     <row r="109" spans="2:29">
@@ -24369,16 +24369,16 @@
         <v>1141</v>
       </c>
       <c r="Z109" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="AA109" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="AB109">
         <v>1</v>
       </c>
       <c r="AC109" t="s">
-        <v>757</v>
+        <v>653</v>
       </c>
     </row>
     <row r="110" spans="2:29">
@@ -24446,16 +24446,16 @@
         <v>1143</v>
       </c>
       <c r="Z110" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="AA110" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="AB110">
         <v>1</v>
       </c>
       <c r="AC110" t="s">
-        <v>933</v>
+        <v>743</v>
       </c>
     </row>
     <row r="111" spans="2:29">
@@ -24523,16 +24523,16 @@
         <v>1145</v>
       </c>
       <c r="Z111" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="AA111" t="s">
-        <v>1396</v>
+        <v>1522</v>
       </c>
       <c r="AB111">
         <v>1</v>
       </c>
       <c r="AC111" t="s">
-        <v>907</v>
+        <v>575</v>
       </c>
     </row>
     <row r="112" spans="2:29">
@@ -24600,16 +24600,16 @@
         <v>1147</v>
       </c>
       <c r="Z112" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="AA112" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="AB112">
         <v>1</v>
       </c>
       <c r="AC112" t="s">
-        <v>845</v>
+        <v>727</v>
       </c>
     </row>
     <row r="113" spans="2:29">
@@ -24677,16 +24677,16 @@
         <v>1149</v>
       </c>
       <c r="Z113" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="AA113" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="AB113">
         <v>1</v>
       </c>
       <c r="AC113" t="s">
-        <v>861</v>
+        <v>885</v>
       </c>
     </row>
     <row r="114" spans="2:29">
@@ -24754,16 +24754,16 @@
         <v>1151</v>
       </c>
       <c r="Z114" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="AA114" t="s">
-        <v>1422</v>
+        <v>1528</v>
       </c>
       <c r="AB114">
         <v>1</v>
       </c>
       <c r="AC114" t="s">
-        <v>635</v>
+        <v>813</v>
       </c>
     </row>
     <row r="115" spans="2:29">
@@ -24831,16 +24831,16 @@
         <v>1153</v>
       </c>
       <c r="Z115" t="s">
-        <v>1526</v>
+        <v>1529</v>
       </c>
       <c r="AA115" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="AB115">
         <v>1</v>
       </c>
       <c r="AC115" t="s">
-        <v>695</v>
+        <v>911</v>
       </c>
     </row>
     <row r="116" spans="2:29">
@@ -24908,16 +24908,16 @@
         <v>1155</v>
       </c>
       <c r="Z116" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="AA116" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="AB116">
         <v>1</v>
       </c>
       <c r="AC116" t="s">
-        <v>651</v>
+        <v>927</v>
       </c>
     </row>
     <row r="117" spans="2:29">
@@ -24985,16 +24985,16 @@
         <v>1157</v>
       </c>
       <c r="Z117" t="s">
-        <v>1530</v>
+        <v>1533</v>
       </c>
       <c r="AA117" t="s">
-        <v>1531</v>
+        <v>1534</v>
       </c>
       <c r="AB117">
         <v>1</v>
       </c>
       <c r="AC117" t="s">
-        <v>913</v>
+        <v>893</v>
       </c>
     </row>
     <row r="118" spans="2:29">
@@ -25062,16 +25062,16 @@
         <v>1159</v>
       </c>
       <c r="Z118" t="s">
-        <v>1532</v>
+        <v>1535</v>
       </c>
       <c r="AA118" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="AB118">
         <v>1</v>
       </c>
       <c r="AC118" t="s">
-        <v>791</v>
+        <v>871</v>
       </c>
     </row>
     <row r="119" spans="2:29">
@@ -25139,16 +25139,16 @@
         <v>1161</v>
       </c>
       <c r="Z119" t="s">
-        <v>1534</v>
+        <v>1537</v>
       </c>
       <c r="AA119" t="s">
-        <v>1535</v>
+        <v>1538</v>
       </c>
       <c r="AB119">
         <v>1</v>
       </c>
       <c r="AC119" t="s">
-        <v>701</v>
+        <v>717</v>
       </c>
     </row>
     <row r="120" spans="2:29">
@@ -25216,16 +25216,16 @@
         <v>1163</v>
       </c>
       <c r="Z120" t="s">
-        <v>1536</v>
+        <v>1539</v>
       </c>
       <c r="AA120" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="AB120">
         <v>1</v>
       </c>
       <c r="AC120" t="s">
-        <v>921</v>
+        <v>777</v>
       </c>
     </row>
     <row r="121" spans="2:29">
@@ -25293,16 +25293,16 @@
         <v>1165</v>
       </c>
       <c r="Z121" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="AA121" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="AB121">
         <v>1</v>
       </c>
       <c r="AC121" t="s">
-        <v>665</v>
+        <v>697</v>
       </c>
     </row>
     <row r="122" spans="2:29">
@@ -25370,16 +25370,16 @@
         <v>1167</v>
       </c>
       <c r="Z122" t="s">
-        <v>1540</v>
+        <v>1543</v>
       </c>
       <c r="AA122" t="s">
-        <v>1541</v>
+        <v>1544</v>
       </c>
       <c r="AB122">
         <v>1</v>
       </c>
       <c r="AC122" t="s">
-        <v>811</v>
+        <v>613</v>
       </c>
     </row>
     <row r="123" spans="2:29">
@@ -25447,16 +25447,16 @@
         <v>1169</v>
       </c>
       <c r="Z123" t="s">
-        <v>1542</v>
+        <v>1545</v>
       </c>
       <c r="AA123" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
       <c r="AB123">
         <v>1</v>
       </c>
       <c r="AC123" t="s">
-        <v>655</v>
+        <v>607</v>
       </c>
     </row>
     <row r="124" spans="2:29">
@@ -25524,16 +25524,16 @@
         <v>1171</v>
       </c>
       <c r="Z124" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
       <c r="AA124" t="s">
-        <v>1545</v>
+        <v>1548</v>
       </c>
       <c r="AB124">
         <v>1</v>
       </c>
       <c r="AC124" t="s">
-        <v>875</v>
+        <v>725</v>
       </c>
     </row>
     <row r="125" spans="2:29">
@@ -25601,16 +25601,16 @@
         <v>1173</v>
       </c>
       <c r="Z125" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
       <c r="AA125" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="AB125">
         <v>1</v>
       </c>
       <c r="AC125" t="s">
-        <v>821</v>
+        <v>735</v>
       </c>
     </row>
     <row r="126" spans="2:29">
@@ -25678,16 +25678,16 @@
         <v>1175</v>
       </c>
       <c r="Z126" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="AA126" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="AB126">
         <v>1</v>
       </c>
       <c r="AC126" t="s">
-        <v>605</v>
+        <v>703</v>
       </c>
     </row>
     <row r="127" spans="2:29">
@@ -25755,16 +25755,16 @@
         <v>1177</v>
       </c>
       <c r="Z127" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="AA127" t="s">
-        <v>1551</v>
+        <v>1417</v>
       </c>
       <c r="AB127">
         <v>1</v>
       </c>
       <c r="AC127" t="s">
-        <v>667</v>
+        <v>803</v>
       </c>
     </row>
     <row r="128" spans="2:29">
@@ -25832,16 +25832,16 @@
         <v>1179</v>
       </c>
       <c r="Z128" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="AA128" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="AB128">
         <v>1</v>
       </c>
       <c r="AC128" t="s">
-        <v>669</v>
+        <v>849</v>
       </c>
     </row>
     <row r="129" spans="2:29">
@@ -25909,16 +25909,16 @@
         <v>1181</v>
       </c>
       <c r="Z129" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="AA129" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="AB129">
         <v>1</v>
       </c>
       <c r="AC129" t="s">
-        <v>925</v>
+        <v>879</v>
       </c>
     </row>
     <row r="130" spans="2:29">
@@ -25986,16 +25986,16 @@
         <v>1183</v>
       </c>
       <c r="Z130" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="AA130" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="AB130">
         <v>1</v>
       </c>
       <c r="AC130" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="131" spans="2:29">
@@ -26063,16 +26063,16 @@
         <v>1185</v>
       </c>
       <c r="Z131" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="AA131" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="AB131">
         <v>1</v>
       </c>
       <c r="AC131" t="s">
-        <v>649</v>
+        <v>567</v>
       </c>
     </row>
     <row r="132" spans="2:29">
@@ -26140,16 +26140,16 @@
         <v>1187</v>
       </c>
       <c r="Z132" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="AA132" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AB132">
         <v>1</v>
       </c>
       <c r="AC132" t="s">
-        <v>715</v>
+        <v>931</v>
       </c>
     </row>
     <row r="133" spans="2:29">
@@ -26217,16 +26217,16 @@
         <v>1189</v>
       </c>
       <c r="Z133" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="AA133" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="AB133">
         <v>1</v>
       </c>
       <c r="AC133" t="s">
-        <v>873</v>
+        <v>733</v>
       </c>
     </row>
     <row r="134" spans="2:29">
@@ -26294,16 +26294,16 @@
         <v>1191</v>
       </c>
       <c r="Z134" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="AA134" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="AB134">
         <v>1</v>
       </c>
       <c r="AC134" t="s">
-        <v>769</v>
+        <v>705</v>
       </c>
     </row>
     <row r="135" spans="2:29">
@@ -26371,16 +26371,16 @@
         <v>1193</v>
       </c>
       <c r="Z135" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="AA135" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="AB135">
         <v>1</v>
       </c>
       <c r="AC135" t="s">
-        <v>569</v>
+        <v>839</v>
       </c>
     </row>
     <row r="136" spans="2:29">
@@ -26448,16 +26448,16 @@
         <v>1195</v>
       </c>
       <c r="Z136" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="AA136" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="AB136">
         <v>1</v>
       </c>
       <c r="AC136" t="s">
-        <v>799</v>
+        <v>737</v>
       </c>
     </row>
     <row r="137" spans="2:29">
@@ -26525,16 +26525,16 @@
         <v>1197</v>
       </c>
       <c r="Z137" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="AA137" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="AB137">
         <v>1</v>
       </c>
       <c r="AC137" t="s">
-        <v>847</v>
+        <v>573</v>
       </c>
     </row>
     <row r="138" spans="2:29">
@@ -26602,16 +26602,16 @@
         <v>1199</v>
       </c>
       <c r="Z138" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="AA138" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="AB138">
         <v>1</v>
       </c>
       <c r="AC138" t="s">
-        <v>639</v>
+        <v>851</v>
       </c>
     </row>
     <row r="139" spans="2:29">
@@ -26679,16 +26679,16 @@
         <v>1201</v>
       </c>
       <c r="Z139" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="AA139" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="AB139">
         <v>1</v>
       </c>
       <c r="AC139" t="s">
-        <v>895</v>
+        <v>917</v>
       </c>
     </row>
     <row r="140" spans="2:29">
@@ -26756,16 +26756,16 @@
         <v>1203</v>
       </c>
       <c r="Z140" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="AA140" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="AB140">
         <v>1</v>
       </c>
       <c r="AC140" t="s">
-        <v>801</v>
+        <v>713</v>
       </c>
     </row>
     <row r="141" spans="2:29">
@@ -26833,16 +26833,16 @@
         <v>1205</v>
       </c>
       <c r="Z141" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="AA141" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="AB141">
         <v>1</v>
       </c>
       <c r="AC141" t="s">
-        <v>937</v>
+        <v>775</v>
       </c>
     </row>
     <row r="142" spans="2:29">
@@ -26910,16 +26910,16 @@
         <v>1207</v>
       </c>
       <c r="Z142" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="AA142" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="AB142">
         <v>1</v>
       </c>
       <c r="AC142" t="s">
-        <v>793</v>
+        <v>643</v>
       </c>
     </row>
     <row r="143" spans="2:29">
@@ -26987,16 +26987,16 @@
         <v>1209</v>
       </c>
       <c r="Z143" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="AA143" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="AB143">
         <v>1</v>
       </c>
       <c r="AC143" t="s">
-        <v>731</v>
+        <v>887</v>
       </c>
     </row>
     <row r="144" spans="2:29">
@@ -27064,16 +27064,16 @@
         <v>1211</v>
       </c>
       <c r="Z144" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="AA144" t="s">
-        <v>1585</v>
+        <v>1447</v>
       </c>
       <c r="AB144">
         <v>1</v>
       </c>
       <c r="AC144" t="s">
-        <v>653</v>
+        <v>897</v>
       </c>
     </row>
     <row r="145" spans="2:29">
@@ -27141,16 +27141,16 @@
         <v>1213</v>
       </c>
       <c r="Z145" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="AA145" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="AB145">
         <v>1</v>
       </c>
       <c r="AC145" t="s">
-        <v>743</v>
+        <v>577</v>
       </c>
     </row>
     <row r="146" spans="2:29">
@@ -27218,16 +27218,16 @@
         <v>1215</v>
       </c>
       <c r="Z146" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="AA146" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="AB146">
         <v>1</v>
       </c>
       <c r="AC146" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
     </row>
     <row r="147" spans="2:29">
@@ -27295,16 +27295,16 @@
         <v>1217</v>
       </c>
       <c r="Z147" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="AA147" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="AB147">
         <v>1</v>
       </c>
       <c r="AC147" t="s">
-        <v>727</v>
+        <v>687</v>
       </c>
     </row>
     <row r="148" spans="2:29">
@@ -27372,16 +27372,16 @@
         <v>1219</v>
       </c>
       <c r="Z148" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="AA148" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="AB148">
         <v>1</v>
       </c>
       <c r="AC148" t="s">
-        <v>885</v>
+        <v>621</v>
       </c>
     </row>
     <row r="149" spans="2:29">
@@ -27449,16 +27449,16 @@
         <v>1221</v>
       </c>
       <c r="Z149" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="AA149" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="AB149">
         <v>1</v>
       </c>
       <c r="AC149" t="s">
-        <v>813</v>
+        <v>591</v>
       </c>
     </row>
     <row r="150" spans="2:29">
@@ -27526,16 +27526,16 @@
         <v>1223</v>
       </c>
       <c r="Z150" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="AA150" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="AB150">
         <v>1</v>
       </c>
       <c r="AC150" t="s">
-        <v>911</v>
+        <v>749</v>
       </c>
     </row>
     <row r="151" spans="2:29">
@@ -27603,16 +27603,16 @@
         <v>1225</v>
       </c>
       <c r="Z151" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="AA151" t="s">
-        <v>1555</v>
+        <v>1600</v>
       </c>
       <c r="AB151">
         <v>1</v>
       </c>
       <c r="AC151" t="s">
-        <v>927</v>
+        <v>723</v>
       </c>
     </row>
     <row r="152" spans="2:29">
@@ -27680,16 +27680,16 @@
         <v>1227</v>
       </c>
       <c r="Z152" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="AA152" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="AB152">
         <v>1</v>
       </c>
       <c r="AC152" t="s">
-        <v>893</v>
+        <v>673</v>
       </c>
     </row>
     <row r="153" spans="2:29">
@@ -27757,16 +27757,16 @@
         <v>1229</v>
       </c>
       <c r="Z153" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="AA153" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="AB153">
         <v>1</v>
       </c>
       <c r="AC153" t="s">
-        <v>871</v>
+        <v>765</v>
       </c>
     </row>
     <row r="154" spans="2:29">
@@ -27834,16 +27834,16 @@
         <v>1231</v>
       </c>
       <c r="Z154" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="AA154" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="AB154">
         <v>1</v>
       </c>
       <c r="AC154" t="s">
-        <v>717</v>
+        <v>681</v>
       </c>
     </row>
     <row r="155" spans="2:29">
@@ -27911,16 +27911,16 @@
         <v>1233</v>
       </c>
       <c r="Z155" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="AA155" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="AB155">
         <v>1</v>
       </c>
       <c r="AC155" t="s">
-        <v>777</v>
+        <v>745</v>
       </c>
     </row>
     <row r="156" spans="2:29">
@@ -27988,16 +27988,16 @@
         <v>1235</v>
       </c>
       <c r="Z156" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="AA156" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="AB156">
         <v>1</v>
       </c>
       <c r="AC156" t="s">
-        <v>689</v>
+        <v>603</v>
       </c>
     </row>
     <row r="157" spans="2:29">
@@ -28065,16 +28065,16 @@
         <v>1237</v>
       </c>
       <c r="Z157" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="AA157" t="s">
-        <v>1610</v>
+        <v>1461</v>
       </c>
       <c r="AB157">
         <v>1</v>
       </c>
       <c r="AC157" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
     </row>
     <row r="158" spans="2:29">
@@ -28142,16 +28142,16 @@
         <v>1239</v>
       </c>
       <c r="Z158" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="AA158" t="s">
-        <v>1612</v>
+        <v>1339</v>
       </c>
       <c r="AB158">
         <v>1</v>
       </c>
       <c r="AC158" t="s">
-        <v>619</v>
+        <v>905</v>
       </c>
     </row>
     <row r="159" spans="2:29">
@@ -28228,7 +28228,7 @@
         <v>1</v>
       </c>
       <c r="AC159" t="s">
-        <v>679</v>
+        <v>695</v>
       </c>
     </row>
     <row r="160" spans="2:29">
@@ -28305,7 +28305,7 @@
         <v>1</v>
       </c>
       <c r="AC160" t="s">
-        <v>699</v>
+        <v>651</v>
       </c>
     </row>
     <row r="161" spans="2:29">
@@ -28382,7 +28382,7 @@
         <v>1</v>
       </c>
       <c r="AC161" t="s">
-        <v>843</v>
+        <v>913</v>
       </c>
     </row>
     <row r="162" spans="2:29">
@@ -28453,13 +28453,13 @@
         <v>1619</v>
       </c>
       <c r="AA162" t="s">
-        <v>1468</v>
+        <v>1620</v>
       </c>
       <c r="AB162">
         <v>1</v>
       </c>
       <c r="AC162" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="163" spans="2:29">
@@ -28527,16 +28527,16 @@
         <v>1249</v>
       </c>
       <c r="Z163" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="AA163" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="AB163">
         <v>1</v>
       </c>
       <c r="AC163" t="s">
-        <v>835</v>
+        <v>701</v>
       </c>
     </row>
     <row r="164" spans="2:29">
@@ -28604,16 +28604,16 @@
         <v>1251</v>
       </c>
       <c r="Z164" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="AA164" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="AB164">
         <v>1</v>
       </c>
       <c r="AC164" t="s">
-        <v>671</v>
+        <v>921</v>
       </c>
     </row>
     <row r="165" spans="2:29">
@@ -28681,16 +28681,16 @@
         <v>1253</v>
       </c>
       <c r="Z165" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="AA165" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="AB165">
         <v>1</v>
       </c>
       <c r="AC165" t="s">
-        <v>623</v>
+        <v>665</v>
       </c>
     </row>
     <row r="166" spans="2:29">
@@ -28758,16 +28758,16 @@
         <v>1255</v>
       </c>
       <c r="Z166" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="AA166" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="AB166">
         <v>1</v>
       </c>
       <c r="AC166" t="s">
-        <v>565</v>
+        <v>811</v>
       </c>
     </row>
     <row r="167" spans="2:29">
@@ -28835,16 +28835,16 @@
         <v>1257</v>
       </c>
       <c r="Z167" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="AA167" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="AB167">
         <v>1</v>
       </c>
       <c r="AC167" t="s">
-        <v>677</v>
+        <v>655</v>
       </c>
     </row>
     <row r="168" spans="2:29">
@@ -28912,16 +28912,16 @@
         <v>1259</v>
       </c>
       <c r="Z168" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="AA168" t="s">
-        <v>1631</v>
+        <v>1481</v>
       </c>
       <c r="AB168">
         <v>1</v>
       </c>
       <c r="AC168" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
     </row>
     <row r="169" spans="2:29">
@@ -28998,7 +28998,7 @@
         <v>1</v>
       </c>
       <c r="AC169" t="s">
-        <v>761</v>
+        <v>821</v>
       </c>
     </row>
     <row r="170" spans="2:29">
@@ -29075,7 +29075,7 @@
         <v>1</v>
       </c>
       <c r="AC170" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="171" spans="2:29">
@@ -29152,7 +29152,7 @@
         <v>1</v>
       </c>
       <c r="AC171" t="s">
-        <v>867</v>
+        <v>667</v>
       </c>
     </row>
     <row r="172" spans="2:29">
@@ -29229,7 +29229,7 @@
         <v>1</v>
       </c>
       <c r="AC172" t="s">
-        <v>865</v>
+        <v>669</v>
       </c>
     </row>
     <row r="173" spans="2:29">
@@ -29300,13 +29300,13 @@
         <v>1640</v>
       </c>
       <c r="AA173" t="s">
-        <v>1641</v>
+        <v>1532</v>
       </c>
       <c r="AB173">
         <v>1</v>
       </c>
       <c r="AC173" t="s">
-        <v>767</v>
+        <v>925</v>
       </c>
     </row>
     <row r="174" spans="2:29">
@@ -29374,16 +29374,16 @@
         <v>1271</v>
       </c>
       <c r="Z174" t="s">
+        <v>1641</v>
+      </c>
+      <c r="AA174" t="s">
         <v>1642</v>
       </c>
-      <c r="AA174" t="s">
-        <v>1643</v>
-      </c>
       <c r="AB174">
         <v>1</v>
       </c>
       <c r="AC174" t="s">
-        <v>585</v>
+        <v>689</v>
       </c>
     </row>
     <row r="175" spans="2:29">
@@ -29451,16 +29451,16 @@
         <v>1273</v>
       </c>
       <c r="Z175" t="s">
+        <v>1643</v>
+      </c>
+      <c r="AA175" t="s">
         <v>1644</v>
       </c>
-      <c r="AA175" t="s">
-        <v>1645</v>
-      </c>
       <c r="AB175">
         <v>1</v>
       </c>
       <c r="AC175" t="s">
-        <v>807</v>
+        <v>853</v>
       </c>
     </row>
     <row r="176" spans="2:29">
@@ -29528,16 +29528,16 @@
         <v>1275</v>
       </c>
       <c r="Z176" t="s">
+        <v>1645</v>
+      </c>
+      <c r="AA176" t="s">
         <v>1646</v>
       </c>
-      <c r="AA176" t="s">
-        <v>1647</v>
-      </c>
       <c r="AB176">
         <v>1</v>
       </c>
       <c r="AC176" t="s">
-        <v>587</v>
+        <v>619</v>
       </c>
     </row>
     <row r="177" spans="2:29">
@@ -29605,16 +29605,16 @@
         <v>1277</v>
       </c>
       <c r="Z177" t="s">
+        <v>1647</v>
+      </c>
+      <c r="AA177" t="s">
         <v>1648</v>
       </c>
-      <c r="AA177" t="s">
-        <v>1649</v>
-      </c>
       <c r="AB177">
         <v>1</v>
       </c>
       <c r="AC177" t="s">
-        <v>581</v>
+        <v>679</v>
       </c>
     </row>
     <row r="178" spans="2:29">
@@ -29682,16 +29682,16 @@
         <v>1279</v>
       </c>
       <c r="Z178" t="s">
+        <v>1649</v>
+      </c>
+      <c r="AA178" t="s">
         <v>1650</v>
       </c>
-      <c r="AA178" t="s">
-        <v>1476</v>
-      </c>
       <c r="AB178">
         <v>1</v>
       </c>
       <c r="AC178" t="s">
-        <v>901</v>
+        <v>699</v>
       </c>
     </row>
     <row r="179" spans="2:29">
@@ -29768,7 +29768,7 @@
         <v>1</v>
       </c>
       <c r="AC179" t="s">
-        <v>747</v>
+        <v>843</v>
       </c>
     </row>
     <row r="180" spans="2:29">
@@ -29839,13 +29839,13 @@
         <v>1653</v>
       </c>
       <c r="AA180" t="s">
-        <v>1500</v>
+        <v>1385</v>
       </c>
       <c r="AB180">
         <v>1</v>
       </c>
       <c r="AC180" t="s">
-        <v>753</v>
+        <v>795</v>
       </c>
     </row>
     <row r="181" spans="2:29">
@@ -29922,7 +29922,7 @@
         <v>1</v>
       </c>
       <c r="AC181" t="s">
-        <v>595</v>
+        <v>835</v>
       </c>
     </row>
     <row r="182" spans="2:29">
@@ -29999,7 +29999,7 @@
         <v>1</v>
       </c>
       <c r="AC182" t="s">
-        <v>929</v>
+        <v>671</v>
       </c>
     </row>
     <row r="183" spans="2:29">
@@ -30076,7 +30076,7 @@
         <v>1</v>
       </c>
       <c r="AC183" t="s">
-        <v>787</v>
+        <v>623</v>
       </c>
     </row>
     <row r="184" spans="2:29">
@@ -30153,7 +30153,7 @@
         <v>1</v>
       </c>
       <c r="AC184" t="s">
-        <v>719</v>
+        <v>565</v>
       </c>
     </row>
     <row r="185" spans="2:29">
@@ -30230,7 +30230,7 @@
         <v>1</v>
       </c>
       <c r="AC185" t="s">
-        <v>589</v>
+        <v>677</v>
       </c>
     </row>
     <row r="186" spans="2:29">
@@ -30307,7 +30307,7 @@
         <v>1</v>
       </c>
       <c r="AC186" t="s">
-        <v>815</v>
+        <v>889</v>
       </c>
     </row>
     <row r="187" spans="2:29">
@@ -30384,7 +30384,7 @@
         <v>1</v>
       </c>
       <c r="AC187" t="s">
-        <v>579</v>
+        <v>761</v>
       </c>
     </row>
     <row r="188" spans="2:29">
@@ -30455,13 +30455,13 @@
         <v>1668</v>
       </c>
       <c r="AA188" t="s">
-        <v>1545</v>
+        <v>1669</v>
       </c>
       <c r="AB188">
         <v>1</v>
       </c>
       <c r="AC188" t="s">
-        <v>877</v>
+        <v>597</v>
       </c>
     </row>
     <row r="189" spans="2:29">
@@ -30529,16 +30529,16 @@
         <v>1301</v>
       </c>
       <c r="Z189" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="AA189" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="AB189">
         <v>1</v>
       </c>
       <c r="AC189" t="s">
-        <v>729</v>
+        <v>867</v>
       </c>
     </row>
     <row r="190" spans="2:29">
@@ -30606,16 +30606,16 @@
         <v>1303</v>
       </c>
       <c r="Z190" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="AA190" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="AB190">
         <v>1</v>
       </c>
       <c r="AC190" t="s">
-        <v>697</v>
+        <v>865</v>
       </c>
     </row>
     <row r="191" spans="2:29">
@@ -30683,16 +30683,16 @@
         <v>1305</v>
       </c>
       <c r="Z191" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="AA191" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="AB191">
         <v>1</v>
       </c>
       <c r="AC191" t="s">
-        <v>613</v>
+        <v>767</v>
       </c>
     </row>
     <row r="192" spans="2:29">
@@ -30760,16 +30760,16 @@
         <v>1307</v>
       </c>
       <c r="Z192" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="AA192" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="AB192">
         <v>1</v>
       </c>
       <c r="AC192" t="s">
-        <v>607</v>
+        <v>585</v>
       </c>
     </row>
     <row r="193" spans="2:29">
@@ -30837,16 +30837,16 @@
         <v>1309</v>
       </c>
       <c r="Z193" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="AA193" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="AB193">
         <v>1</v>
       </c>
       <c r="AC193" t="s">
-        <v>725</v>
+        <v>807</v>
       </c>
     </row>
     <row r="194" spans="2:29">
@@ -30914,16 +30914,16 @@
         <v>1311</v>
       </c>
       <c r="Z194" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="AA194" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="AB194">
         <v>1</v>
       </c>
       <c r="AC194" t="s">
-        <v>735</v>
+        <v>587</v>
       </c>
     </row>
     <row r="195" spans="2:29">
@@ -30991,16 +30991,16 @@
         <v>1313</v>
       </c>
       <c r="Z195" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="AA195" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="AB195">
         <v>1</v>
       </c>
       <c r="AC195" t="s">
-        <v>703</v>
+        <v>581</v>
       </c>
     </row>
     <row r="196" spans="2:29">
@@ -31068,16 +31068,16 @@
         <v>1315</v>
       </c>
       <c r="Z196" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="AA196" t="s">
-        <v>1577</v>
+        <v>1393</v>
       </c>
       <c r="AB196">
         <v>1</v>
       </c>
       <c r="AC196" t="s">
-        <v>803</v>
+        <v>901</v>
       </c>
     </row>
     <row r="197" spans="2:29">
@@ -31145,16 +31145,16 @@
         <v>1317</v>
       </c>
       <c r="Z197" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="AA197" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="AB197">
         <v>1</v>
       </c>
       <c r="AC197" t="s">
-        <v>849</v>
+        <v>747</v>
       </c>
     </row>
     <row r="198" spans="2:29">
@@ -31222,16 +31222,16 @@
         <v>1319</v>
       </c>
       <c r="Z198" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="AA198" t="s">
-        <v>1687</v>
+        <v>1443</v>
       </c>
       <c r="AB198">
         <v>1</v>
       </c>
       <c r="AC198" t="s">
-        <v>879</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -31240,7 +31240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FFC3E2-1A19-4C7F-A6C4-8AEAC6AA49D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D264D8-DA5D-4A1C-B25E-9C25E52BFFF2}">
   <dimension ref="B9:AB199"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -31400,7 +31400,7 @@
         <v>2383</v>
       </c>
       <c r="Z11" t="s">
-        <v>1777</v>
+        <v>1782</v>
       </c>
       <c r="AA11">
         <v>13.8675</v>
@@ -31474,7 +31474,7 @@
         <v>2384</v>
       </c>
       <c r="Z12" t="s">
-        <v>1778</v>
+        <v>1783</v>
       </c>
       <c r="AA12">
         <v>11.755000000000001</v>
@@ -31548,7 +31548,7 @@
         <v>2385</v>
       </c>
       <c r="Z13" t="s">
-        <v>1806</v>
+        <v>1773</v>
       </c>
       <c r="AA13">
         <v>13.8675</v>
@@ -31622,7 +31622,7 @@
         <v>2386</v>
       </c>
       <c r="Z14" t="s">
-        <v>1779</v>
+        <v>1774</v>
       </c>
       <c r="AA14">
         <v>13.8675</v>
@@ -31696,7 +31696,7 @@
         <v>2387</v>
       </c>
       <c r="Z15" t="s">
-        <v>1782</v>
+        <v>1766</v>
       </c>
       <c r="AA15">
         <v>13.23875</v>
@@ -31770,7 +31770,7 @@
         <v>2388</v>
       </c>
       <c r="Z16" t="s">
-        <v>1786</v>
+        <v>1799</v>
       </c>
       <c r="AA16">
         <v>14.02875</v>
@@ -31844,7 +31844,7 @@
         <v>2389</v>
       </c>
       <c r="Z17" t="s">
-        <v>1814</v>
+        <v>1768</v>
       </c>
       <c r="AA17">
         <v>13.8675</v>
@@ -31918,7 +31918,7 @@
         <v>2390</v>
       </c>
       <c r="Z18" t="s">
-        <v>1785</v>
+        <v>1798</v>
       </c>
       <c r="AA18">
         <v>13.8675</v>
@@ -31992,7 +31992,7 @@
         <v>2391</v>
       </c>
       <c r="Z19" t="s">
-        <v>1796</v>
+        <v>1784</v>
       </c>
       <c r="AA19">
         <v>0.11874999999999999</v>
@@ -32066,7 +32066,7 @@
         <v>2392</v>
       </c>
       <c r="Z20" t="s">
-        <v>1813</v>
+        <v>1790</v>
       </c>
       <c r="AA20">
         <v>9.06</v>
@@ -32140,7 +32140,7 @@
         <v>2393</v>
       </c>
       <c r="Z21" t="s">
-        <v>1766</v>
+        <v>1802</v>
       </c>
       <c r="AA21">
         <v>14.02875</v>
@@ -32214,7 +32214,7 @@
         <v>2394</v>
       </c>
       <c r="Z22" t="s">
-        <v>1792</v>
+        <v>1775</v>
       </c>
       <c r="AA22">
         <v>13.8675</v>
@@ -32288,7 +32288,7 @@
         <v>2395</v>
       </c>
       <c r="Z23" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
       <c r="AA23">
         <v>13.8675</v>
@@ -32362,7 +32362,7 @@
         <v>2396</v>
       </c>
       <c r="Z24" t="s">
-        <v>1776</v>
+        <v>1781</v>
       </c>
       <c r="AA24">
         <v>6.6375000000000002</v>
@@ -32436,7 +32436,7 @@
         <v>2397</v>
       </c>
       <c r="Z25" t="s">
-        <v>1781</v>
+        <v>1765</v>
       </c>
       <c r="AA25">
         <v>13.92625</v>
@@ -32510,7 +32510,7 @@
         <v>2398</v>
       </c>
       <c r="Z26" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="AA26">
         <v>13.827500000000001</v>
@@ -32584,7 +32584,7 @@
         <v>2399</v>
       </c>
       <c r="Z27" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="AA27">
         <v>13.8675</v>
@@ -32658,7 +32658,7 @@
         <v>2400</v>
       </c>
       <c r="Z28" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="AA28">
         <v>3.7499999999999999E-3</v>
@@ -32732,7 +32732,7 @@
         <v>2401</v>
       </c>
       <c r="Z29" t="s">
-        <v>1771</v>
+        <v>1793</v>
       </c>
       <c r="AA29">
         <v>2.8424999999999998</v>
@@ -32806,7 +32806,7 @@
         <v>2402</v>
       </c>
       <c r="Z30" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="AA30">
         <v>8.1549999999999994</v>
@@ -32880,7 +32880,7 @@
         <v>2403</v>
       </c>
       <c r="Z31" t="s">
-        <v>1795</v>
+        <v>1778</v>
       </c>
       <c r="AA31">
         <v>4.5162500000000003</v>
@@ -32954,7 +32954,7 @@
         <v>2404</v>
       </c>
       <c r="Z32" t="s">
-        <v>1769</v>
+        <v>1791</v>
       </c>
       <c r="AA32">
         <v>0.57625000000000004</v>
@@ -33028,7 +33028,7 @@
         <v>2405</v>
       </c>
       <c r="Z33" t="s">
-        <v>1787</v>
+        <v>1810</v>
       </c>
       <c r="AA33">
         <v>1.125E-2</v>
@@ -33102,7 +33102,7 @@
         <v>2406</v>
       </c>
       <c r="Z34" t="s">
-        <v>1789</v>
+        <v>1812</v>
       </c>
       <c r="AA34">
         <v>0.33500000000000002</v>
@@ -33176,7 +33176,7 @@
         <v>2407</v>
       </c>
       <c r="Z35" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
       <c r="AA35">
         <v>1.7500000000000002E-2</v>
@@ -33250,7 +33250,7 @@
         <v>2408</v>
       </c>
       <c r="Z36" t="s">
-        <v>1780</v>
+        <v>1764</v>
       </c>
       <c r="AA36">
         <v>0.58250000000000002</v>
@@ -33324,7 +33324,7 @@
         <v>2409</v>
       </c>
       <c r="Z37" t="s">
-        <v>1764</v>
+        <v>1800</v>
       </c>
       <c r="AA37">
         <v>1.0075000000000001</v>
@@ -33398,7 +33398,7 @@
         <v>2410</v>
       </c>
       <c r="Z38" t="s">
-        <v>1793</v>
+        <v>1776</v>
       </c>
       <c r="AA38">
         <v>0.21625</v>
@@ -33472,7 +33472,7 @@
         <v>2411</v>
       </c>
       <c r="Z39" t="s">
-        <v>1767</v>
+        <v>1803</v>
       </c>
       <c r="AA39">
         <v>5.9212499999999997</v>
@@ -33546,7 +33546,7 @@
         <v>2412</v>
       </c>
       <c r="Z40" t="s">
-        <v>1783</v>
+        <v>1796</v>
       </c>
       <c r="AA40">
         <v>2.75E-2</v>
@@ -33620,7 +33620,7 @@
         <v>2413</v>
       </c>
       <c r="Z41" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="AA41">
         <v>10.682499999999999</v>
@@ -33694,7 +33694,7 @@
         <v>2414</v>
       </c>
       <c r="Z42" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="AA42">
         <v>3.9175</v>
@@ -33768,7 +33768,7 @@
         <v>2415</v>
       </c>
       <c r="Z43" t="s">
-        <v>1773</v>
+        <v>1795</v>
       </c>
       <c r="AA43">
         <v>10.8575</v>
@@ -33842,7 +33842,7 @@
         <v>2416</v>
       </c>
       <c r="Z44" t="s">
-        <v>1791</v>
+        <v>1814</v>
       </c>
       <c r="AA44">
         <v>2.61375</v>
@@ -33916,7 +33916,7 @@
         <v>2417</v>
       </c>
       <c r="Z45" t="s">
-        <v>1802</v>
+        <v>1769</v>
       </c>
       <c r="AA45">
         <v>11.2575</v>
@@ -33990,7 +33990,7 @@
         <v>2418</v>
       </c>
       <c r="Z46" t="s">
-        <v>1804</v>
+        <v>1771</v>
       </c>
       <c r="AA46">
         <v>5.0000000000000001E-3</v>
@@ -34064,7 +34064,7 @@
         <v>2419</v>
       </c>
       <c r="Z47" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
       <c r="AA47">
         <v>12.063750000000001</v>
@@ -34138,7 +34138,7 @@
         <v>2420</v>
       </c>
       <c r="Z48" t="s">
-        <v>1774</v>
+        <v>1779</v>
       </c>
       <c r="AA48">
         <v>13.8675</v>
@@ -39891,7 +39891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE2593F-62F1-4D83-A03E-EE76949C119A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2FA921-4709-410C-B6AB-0D2DFA74B1A6}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41711,7 +41711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B68F1B-8E82-4074-A473-82F041E05FE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3F63C8-6B3A-4821-BF4E-7B5481AA80BE}">
   <dimension ref="B2:M317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -42979,7 +42979,7 @@
         <v>2520</v>
       </c>
       <c r="C42" t="s">
-        <v>1371</v>
+        <v>1588</v>
       </c>
       <c r="D42" t="s">
         <v>2521</v>
@@ -43014,7 +43014,7 @@
         <v>2521</v>
       </c>
       <c r="D43" t="s">
-        <v>1371</v>
+        <v>1588</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -44006,7 +44006,7 @@
         <v>2584</v>
       </c>
       <c r="D74" t="s">
-        <v>1351</v>
+        <v>1463</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -44035,7 +44035,7 @@
         <v>2585</v>
       </c>
       <c r="C75" t="s">
-        <v>1351</v>
+        <v>1463</v>
       </c>
       <c r="D75" t="s">
         <v>2584</v>
@@ -44451,7 +44451,7 @@
         <v>2610</v>
       </c>
       <c r="C88" t="s">
-        <v>1424</v>
+        <v>1510</v>
       </c>
       <c r="D88" t="s">
         <v>2611</v>
@@ -44486,7 +44486,7 @@
         <v>2611</v>
       </c>
       <c r="D89" t="s">
-        <v>1424</v>
+        <v>1510</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -45603,7 +45603,7 @@
         <v>2681</v>
       </c>
       <c r="C124" t="s">
-        <v>1579</v>
+        <v>1419</v>
       </c>
       <c r="D124" t="s">
         <v>2682</v>
@@ -45638,7 +45638,7 @@
         <v>2682</v>
       </c>
       <c r="D125" t="s">
-        <v>1579</v>
+        <v>1419</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -47078,7 +47078,7 @@
         <v>2772</v>
       </c>
       <c r="D170" t="s">
-        <v>1652</v>
+        <v>1686</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -47107,7 +47107,7 @@
         <v>2773</v>
       </c>
       <c r="C171" t="s">
-        <v>1652</v>
+        <v>1686</v>
       </c>
       <c r="D171" t="s">
         <v>2772</v>
@@ -47331,7 +47331,7 @@
         <v>2786</v>
       </c>
       <c r="C178" t="s">
-        <v>1476</v>
+        <v>1393</v>
       </c>
       <c r="D178" t="s">
         <v>2787</v>
@@ -47366,7 +47366,7 @@
         <v>2787</v>
       </c>
       <c r="D179" t="s">
-        <v>1476</v>
+        <v>1393</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -47846,7 +47846,7 @@
         <v>2818</v>
       </c>
       <c r="D194" t="s">
-        <v>1577</v>
+        <v>1417</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -47875,7 +47875,7 @@
         <v>2819</v>
       </c>
       <c r="C195" t="s">
-        <v>1577</v>
+        <v>1417</v>
       </c>
       <c r="D195" t="s">
         <v>2818</v>
@@ -48035,7 +48035,7 @@
         <v>2828</v>
       </c>
       <c r="C200" t="s">
-        <v>1522</v>
+        <v>1341</v>
       </c>
       <c r="D200" t="s">
         <v>2829</v>
@@ -48070,7 +48070,7 @@
         <v>2829</v>
       </c>
       <c r="D201" t="s">
-        <v>1522</v>
+        <v>1341</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -49190,7 +49190,7 @@
         <v>2900</v>
       </c>
       <c r="D236" t="s">
-        <v>1353</v>
+        <v>1465</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -49219,7 +49219,7 @@
         <v>2901</v>
       </c>
       <c r="C237" t="s">
-        <v>1353</v>
+        <v>1465</v>
       </c>
       <c r="D237" t="s">
         <v>2900</v>
@@ -49958,7 +49958,7 @@
         <v>2947</v>
       </c>
       <c r="D260" t="s">
-        <v>1549</v>
+        <v>1635</v>
       </c>
       <c r="E260">
         <v>1</v>
@@ -49987,7 +49987,7 @@
         <v>2948</v>
       </c>
       <c r="C261" t="s">
-        <v>1549</v>
+        <v>1635</v>
       </c>
       <c r="D261" t="s">
         <v>2947</v>
@@ -51750,7 +51750,7 @@
         <v>3056</v>
       </c>
       <c r="D316" t="s">
-        <v>1667</v>
+        <v>1479</v>
       </c>
       <c r="E316">
         <v>1</v>
@@ -51779,7 +51779,7 @@
         <v>3057</v>
       </c>
       <c r="C317" t="s">
-        <v>1667</v>
+        <v>1479</v>
       </c>
       <c r="D317" t="s">
         <v>3056</v>

--- a/VerveStacks_DEU_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_DEU_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9D0D5BE-792F-40D2-AF39-5502FA7B6D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92008EA0-52B8-4707-9BA3-D8B4E7E289A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3038,6 +3038,960 @@
     <t>connecting solar and wind to buses in grid cell DEU_35</t>
   </si>
   <si>
+    <t>distr_solelc_won-DEU_0130</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_130</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0159</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_159</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0038</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_38</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0098</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_98</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0047</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_47</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0034</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_34</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0110</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_110</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0074</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_74</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0100</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_100</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0117</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_117</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0139</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_139</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0146</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_146</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0121</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_121</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0170</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_170</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0094</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_94</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0127</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_127</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0042</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_42</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0076</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_76</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0155</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_155</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0103</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_103</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_2</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0118</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_118</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0142</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_142</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0037</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_37</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0166</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_166</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0119</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_119</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0187</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_187</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0115</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_115</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0040</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_40</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0018</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_18</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0073</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_73</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0104</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_104</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0131</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_131</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0064</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_64</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0186</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_186</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0105</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_105</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0088</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_88</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0089</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_89</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_23</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0137</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_137</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0036</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_36</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0188</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_188</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0061</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_61</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0113</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_113</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_4</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0144</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_144</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0177</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_177</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0075</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_75</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0106</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_106</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0039</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_39</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0162</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_162</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0167</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_167</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_6</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_9</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0015</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_15</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0183</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_183</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0112</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_112</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0078</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_78</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0012</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_12</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0126</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_126</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0007</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_7</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0157</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_157</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0083</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_83</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0066</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_66</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0043</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_43</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0175</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_175</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0114</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_114</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0069</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_69</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0179</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_179</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0050</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_50</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0124</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_124</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0045</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_45</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0156</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_156</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0129</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_129</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_20</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0052</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_52</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0053</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_53</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0181</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_181</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0049</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_49</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0041</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_41</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0133</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_133</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0134</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_134</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0060</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_60</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0108</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_108</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0148</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_148</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0178</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_178</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0072</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_72</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0062</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_62</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0028</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_28</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_13</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0093</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_93</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0080</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_80</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0055</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_55</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0101</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_101</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0059</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_59</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0091</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_91</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_19</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0147</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_147</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0171</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_171</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0029</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_29</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0000</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_0</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0057</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_57</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0163</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_163</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0099</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_99</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0016</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_16</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0152</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_152</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0151</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_151</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0102</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_102</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0010</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_10</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0122</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_122</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0011</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_11</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0008</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_8</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0169</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_169</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0092</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_92</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0095</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_95</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0063</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_63</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0145</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_145</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0027</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_27</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0058</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_58</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0068</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_68</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0140</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_140</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0116</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_116</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0136</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_136</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0054</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_54</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0067</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_67</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0024</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_24</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0021</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_21</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0081</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_81</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0086</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_86</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0070</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_70</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0120</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_120</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0143</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_143</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0158</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_158</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0111</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_111</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0003</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_3</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0056</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_56</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0150</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_150</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0032</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_32</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0025</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_25</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0160</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_160</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0109</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_109</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0164</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_164</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_22</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0096</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_96</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0153</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_153</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0168</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_168</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0084</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_84</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0044</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_44</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0090</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_90</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0005</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_5</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0082</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_82</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0161</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_161</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0125</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_125</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0174</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_174</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0182</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_182</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0165</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_165</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0154</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_154</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0077</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_77</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-DEU_0107</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell DEU_107</t>
+  </si>
+  <si>
     <t>distr_solelc_won-DEU_0014</t>
   </si>
   <si>
@@ -3098,588 +4052,6 @@
     <t>connecting solar and wind to buses in grid cell DEU_135</t>
   </si>
   <si>
-    <t>distr_solelc_won-DEU_0130</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_130</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0159</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_159</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0038</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_38</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0098</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_98</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0047</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_47</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0034</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_34</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0110</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_110</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0074</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_74</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0100</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_100</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0117</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_117</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0139</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_139</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0146</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_146</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0121</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_121</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0170</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_170</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0094</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_94</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0127</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_127</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0042</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_42</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0076</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_76</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0155</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_155</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0103</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_103</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_2</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0118</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_118</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0142</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_142</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0037</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_37</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0166</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_166</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0119</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_119</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0187</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_187</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0115</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_115</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0111</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_111</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0003</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_3</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0056</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_56</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0150</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_150</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-DEU_0032</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell DEU_32</t>
-  </si>
-  <si>
-    <t>distr_s